--- a/index.xlsx
+++ b/index.xlsx
@@ -1298,7 +1298,7 @@
         <v>34</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>57</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>71</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>73</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>88</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2630,7 +2630,7 @@
         <v>89</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>94</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>95</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3000,7 +3000,7 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>172</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>179</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>206</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>211</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4998,7 +4998,7 @@
         <v>212</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5220,7 +5220,7 @@
         <v>219</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5294,7 +5294,7 @@
         <v>220</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>271</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6774,7 +6774,7 @@
         <v>292</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>301</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7366,7 +7366,7 @@
         <v>321</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7588,7 +7588,7 @@
         <v>331</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>337</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8550,7 +8550,7 @@
         <v>366</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8698,7 +8698,7 @@
         <v>371</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>387</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9142,7 +9142,7 @@
         <v>392</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9734,7 +9734,7 @@
         <v>413</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>440</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         <v>441</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10622,7 +10622,7 @@
         <v>452</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>462</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10918,7 +10918,7 @@
         <v>465</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -11140,7 +11140,7 @@
         <v>503</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -11362,7 +11362,7 @@
         <v>513</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>515</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -11732,7 +11732,7 @@
         <v>524</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -12324,7 +12324,7 @@
         <v>602</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>603</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -12842,7 +12842,7 @@
         <v>617</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>631</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -13804,7 +13804,7 @@
         <v>641</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -14396,7 +14396,7 @@
         <v>667</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -14470,7 +14470,7 @@
         <v>669</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -14618,7 +14618,7 @@
         <v>673</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -14988,7 +14988,7 @@
         <v>687</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -15136,7 +15136,7 @@
         <v>689</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -15210,7 +15210,7 @@
         <v>693</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -15284,7 +15284,7 @@
         <v>696</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -15506,7 +15506,7 @@
         <v>707</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>709</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -15802,7 +15802,7 @@
         <v>715</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -16024,7 +16024,7 @@
         <v>719</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -16246,7 +16246,7 @@
         <v>727</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>730</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -16468,7 +16468,7 @@
         <v>734</v>
       </c>
       <c r="B218">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -17134,7 +17134,7 @@
         <v>856</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>868</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -17874,7 +17874,7 @@
         <v>923</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -18688,7 +18688,7 @@
         <v>1038</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -18836,7 +18836,7 @@
         <v>1045</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -18910,7 +18910,7 @@
         <v>1101</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -19280,7 +19280,7 @@
         <v>1140</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>1204</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -19872,7 +19872,7 @@
         <v>1216</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -20242,7 +20242,7 @@
         <v>1226</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -20316,7 +20316,7 @@
         <v>1229</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -20612,7 +20612,7 @@
         <v>1233</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -20686,7 +20686,7 @@
         <v>1234</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -20982,7 +20982,7 @@
         <v>1240</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -21352,7 +21352,7 @@
         <v>1248</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -21944,7 +21944,7 @@
         <v>1311</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -22018,7 +22018,7 @@
         <v>1313</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -22314,7 +22314,7 @@
         <v>1318</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -22388,7 +22388,7 @@
         <v>1321</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -22462,7 +22462,7 @@
         <v>1322</v>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -22832,7 +22832,7 @@
         <v>1506</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -22980,7 +22980,7 @@
         <v>1509</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -23202,7 +23202,7 @@
         <v>1514</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -23572,7 +23572,7 @@
         <v>1525</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -23646,7 +23646,7 @@
         <v>1526</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -23868,7 +23868,7 @@
         <v>1703</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -24386,7 +24386,7 @@
         <v>1711</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -24756,7 +24756,7 @@
         <v>1716</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C330">
         <v>1</v>

--- a/index.xlsx
+++ b/index.xlsx
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.558082616405395</v>
+        <v>1.674247849216185</v>
       </c>
       <c r="M2">
         <v>0.3571428571428572</v>
@@ -541,16 +541,16 @@
         <v>18.79211060868989</v>
       </c>
       <c r="U2">
-        <v>3.902725473548252</v>
+        <v>5.018890706359041</v>
       </c>
       <c r="V2">
-        <v>0.1599458675346949</v>
+        <v>0.2492705840711564</v>
       </c>
       <c r="W2">
-        <v>0.3977905790926128</v>
+        <v>0.3637993278582341</v>
       </c>
       <c r="X2">
-        <v>2.487032551849616</v>
+        <v>1.459455511823988</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.7172424030289994</v>
+        <v>2.151727209086999</v>
       </c>
       <c r="M3">
         <v>0.4285714285714285</v>
@@ -615,16 +615,16 @@
         <v>20.86938454438514</v>
       </c>
       <c r="U3">
-        <v>5.483313831600428</v>
+        <v>6.917798637658427</v>
       </c>
       <c r="V3">
-        <v>0.4791822795054083</v>
+        <v>0.4723953232584638</v>
       </c>
       <c r="W3">
-        <v>0.07765360408747575</v>
+        <v>0.09551650771240898</v>
       </c>
       <c r="X3">
-        <v>0.1620544152167449</v>
+        <v>0.2021961332164768</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7158428881897068</v>
+        <v>2.14752866456912</v>
       </c>
       <c r="M4">
         <v>0.1785714285714286</v>
@@ -689,16 +689,16 @@
         <v>18.69220969181436</v>
       </c>
       <c r="U4">
-        <v>3.469414316761136</v>
+        <v>4.901100093140548</v>
       </c>
       <c r="V4">
-        <v>0.3434318274750832</v>
+        <v>0.2823242263004956</v>
       </c>
       <c r="W4">
-        <v>0.3956951478922772</v>
+        <v>0.3577204447910679</v>
       </c>
       <c r="X4">
-        <v>1.152179606652752</v>
+        <v>1.267055432962821</v>
       </c>
     </row>
     <row r="5">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.780913912761127</v>
+        <v>2.342741738283381</v>
       </c>
       <c r="M5">
         <v>0.4285714285714285</v>
@@ -763,16 +763,16 @@
         <v>18.42333811002552</v>
       </c>
       <c r="U5">
-        <v>2.509485341332555</v>
+        <v>4.071313166854809</v>
       </c>
       <c r="V5">
-        <v>0.2870949519110413</v>
+        <v>0.303609718632773</v>
       </c>
       <c r="W5">
-        <v>0.1952844100374008</v>
+        <v>0.2283071546486604</v>
       </c>
       <c r="X5">
-        <v>0.6802084423201952</v>
+        <v>0.7519757788939762</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6163226087711051</v>
+        <v>1.848967826313315</v>
       </c>
       <c r="M6">
         <v>0.2857142857142857</v>
@@ -837,16 +837,16 @@
         <v>16.54448798252545</v>
       </c>
       <c r="U6">
-        <v>2.877036894485391</v>
+        <v>4.109682112027601</v>
       </c>
       <c r="V6">
-        <v>0.4328236774690715</v>
+        <v>0.4088667838269614</v>
       </c>
       <c r="W6">
-        <v>0.2865502416605028</v>
+        <v>0.2360902747120025</v>
       </c>
       <c r="X6">
-        <v>0.6620484427656548</v>
+        <v>0.5774259099803016</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7445185120620957</v>
+        <v>2.233555536186287</v>
       </c>
       <c r="M7">
         <v>0.3928571428571428</v>
@@ -911,16 +911,16 @@
         <v>18.99473583867348</v>
       </c>
       <c r="U7">
-        <v>4.637375654919238</v>
+        <v>6.12641267904343</v>
       </c>
       <c r="V7">
-        <v>0.272767214184491</v>
+        <v>0.2963223562045331</v>
       </c>
       <c r="W7">
-        <v>0.2570623333598719</v>
+        <v>0.2410196591441028</v>
       </c>
       <c r="X7">
-        <v>0.9424238691164811</v>
+        <v>0.8133698119548622</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.7142857142857143</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="M8">
         <v>0.4285714285714285</v>
@@ -985,16 +985,16 @@
         <v>19.63942216736623</v>
       </c>
       <c r="U8">
-        <v>4.492857142857143</v>
+        <v>5.921428571428571</v>
       </c>
       <c r="V8">
-        <v>0.4302760658135953</v>
+        <v>0.4037731026552495</v>
       </c>
       <c r="W8">
-        <v>0.2928010339111364</v>
+        <v>0.2811282601193015</v>
       </c>
       <c r="X8">
-        <v>0.6804957495311487</v>
+        <v>0.6962530645815085</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.8787826791517627</v>
+        <v>2.636348037455288</v>
       </c>
       <c r="M9">
         <v>0.5714285714285714</v>
@@ -1059,16 +1059,16 @@
         <v>19.37748494915901</v>
       </c>
       <c r="U9">
-        <v>4.362711250580334</v>
+        <v>6.120276608883859</v>
       </c>
       <c r="V9">
-        <v>0.5112577136879913</v>
+        <v>0.4468933312202446</v>
       </c>
       <c r="W9">
-        <v>0.3231639021957755</v>
+        <v>0.2422569677650087</v>
       </c>
       <c r="X9">
-        <v>0.6320958951692117</v>
+        <v>0.5420912572213258</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.7780552339633562</v>
+        <v>2.334165701890069</v>
       </c>
       <c r="M10">
         <v>0.3571428571428572</v>
@@ -1133,16 +1133,16 @@
         <v>19.14836850579841</v>
       </c>
       <c r="U10">
-        <v>4.610198091106214</v>
+        <v>6.166308559032927</v>
       </c>
       <c r="V10">
-        <v>0.2614622837020954</v>
+        <v>0.2144561179116943</v>
       </c>
       <c r="W10">
-        <v>0.2638695151077579</v>
+        <v>0.2329477241442457</v>
       </c>
       <c r="X10">
-        <v>1.009206801729022</v>
+        <v>1.086225594366889</v>
       </c>
     </row>
     <row r="11">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6414785029219168</v>
+        <v>1.924435508765751</v>
       </c>
       <c r="M11">
         <v>0.3928571428571428</v>
@@ -1207,16 +1207,16 @@
         <v>18.43963080203232</v>
       </c>
       <c r="U11">
-        <v>4.14683564577906</v>
+        <v>5.429792651622893</v>
       </c>
       <c r="V11">
-        <v>0.4858537548737679</v>
+        <v>0.4689915679686472</v>
       </c>
       <c r="W11">
-        <v>0.3661454714049243</v>
+        <v>0.3521692216478235</v>
       </c>
       <c r="X11">
-        <v>0.7536125176187111</v>
+        <v>0.7509073631604535</v>
       </c>
     </row>
     <row r="12">
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.775675977585127</v>
+        <v>2.327027932755381</v>
       </c>
       <c r="M12">
         <v>0.2857142857142857</v>
@@ -1281,16 +1281,16 @@
         <v>17.35252608646772</v>
       </c>
       <c r="U12">
-        <v>2.161390263299413</v>
+        <v>3.712742218469666</v>
       </c>
       <c r="V12">
-        <v>0.06695316487770411</v>
+        <v>0.09618668909025528</v>
       </c>
       <c r="W12">
-        <v>0.1193356328547126</v>
+        <v>0.157215007340346</v>
       </c>
       <c r="X12">
-        <v>1.78237478501113</v>
+        <v>1.634477793417193</v>
       </c>
     </row>
     <row r="13">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8328087242619158</v>
+        <v>2.498426172785747</v>
       </c>
       <c r="M13">
         <v>0.3571428571428572</v>
@@ -1355,16 +1355,16 @@
         <v>19.75499795585665</v>
       </c>
       <c r="U13">
-        <v>3.877451581404773</v>
+        <v>5.543069029928605</v>
       </c>
       <c r="V13">
-        <v>0.5157559894483799</v>
+        <v>0.4518359314399187</v>
       </c>
       <c r="W13">
-        <v>0.399803333857869</v>
+        <v>0.3404294673450193</v>
       </c>
       <c r="X13">
-        <v>0.7751792359900144</v>
+        <v>0.7534360232488211</v>
       </c>
     </row>
     <row r="14">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.7235401039820151</v>
+        <v>2.170620311946045</v>
       </c>
       <c r="M14">
         <v>0.07142857142857142</v>
@@ -1429,16 +1429,16 @@
         <v>18.00907979501478</v>
       </c>
       <c r="U14">
-        <v>2.044968675410586</v>
+        <v>3.492048883374617</v>
       </c>
       <c r="V14">
-        <v>0.01745776383845214</v>
+        <v>0.02237792515141435</v>
       </c>
       <c r="W14">
-        <v>0.09840913161447264</v>
+        <v>0.118425176019371</v>
       </c>
       <c r="X14">
-        <v>5.636983781262899</v>
+        <v>5.292053450803778</v>
       </c>
     </row>
     <row r="15">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7478875301677624</v>
+        <v>2.243662590503288</v>
       </c>
       <c r="M15">
         <v>0.25</v>
@@ -1503,16 +1503,16 @@
         <v>18.4702614717345</v>
       </c>
       <c r="U15">
-        <v>3.060387530167763</v>
+        <v>4.556162590503288</v>
       </c>
       <c r="V15">
-        <v>0.3549681043887549</v>
+        <v>0.336216050768158</v>
       </c>
       <c r="W15">
-        <v>0.3292270227161022</v>
+        <v>0.3184120641336652</v>
       </c>
       <c r="X15">
-        <v>0.9274833953969521</v>
+        <v>0.9470459944020647</v>
       </c>
     </row>
     <row r="16">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7311085931401681</v>
+        <v>2.193325779420504</v>
       </c>
       <c r="M16">
         <v>0.3214285714285715</v>
@@ -1577,16 +1577,16 @@
         <v>15.81627827753574</v>
       </c>
       <c r="U16">
-        <v>3.49003716456874</v>
+        <v>4.952254350849076</v>
       </c>
       <c r="V16">
-        <v>0.3768389078918647</v>
+        <v>0.3482809187494001</v>
       </c>
       <c r="W16">
-        <v>0.3975476974097983</v>
+        <v>0.3608642570455596</v>
       </c>
       <c r="X16">
-        <v>1.05495395800233</v>
+        <v>1.036129852710115</v>
       </c>
     </row>
     <row r="17">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.5412430618167073</v>
+        <v>1.623729185450122</v>
       </c>
       <c r="M17">
         <v>0.25</v>
@@ -1651,16 +1651,16 @@
         <v>19.50463477334338</v>
       </c>
       <c r="U17">
-        <v>3.141243061816708</v>
+        <v>4.223729185450122</v>
       </c>
       <c r="V17">
-        <v>0.4038225233355689</v>
+        <v>0.2885087897874029</v>
       </c>
       <c r="W17">
-        <v>0.3461521945054266</v>
+        <v>0.2589285704332672</v>
       </c>
       <c r="X17">
-        <v>0.8571889245954235</v>
+        <v>0.8974720341243925</v>
       </c>
     </row>
     <row r="18">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7312413981901854</v>
+        <v>2.193724194570556</v>
       </c>
       <c r="M18">
         <v>0.2857142857142857</v>
@@ -1725,16 +1725,16 @@
         <v>19.08986427104167</v>
       </c>
       <c r="U18">
-        <v>2.916955683904471</v>
+        <v>4.379438480284842</v>
       </c>
       <c r="V18">
-        <v>0.5018869088236602</v>
+        <v>0.4667682994440935</v>
       </c>
       <c r="W18">
-        <v>0.2962233404832975</v>
+        <v>0.2885805899545456</v>
       </c>
       <c r="X18">
-        <v>0.5902193009528699</v>
+        <v>0.6182523326846233</v>
       </c>
     </row>
     <row r="19">
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.7828540665091632</v>
+        <v>2.348562199527489</v>
       </c>
       <c r="M19">
         <v>0.5357142857142857</v>
@@ -1799,16 +1799,16 @@
         <v>20.12847493393899</v>
       </c>
       <c r="U19">
-        <v>4.206068352223449</v>
+        <v>5.771776485241776</v>
       </c>
       <c r="V19">
-        <v>0.3504274461376194</v>
+        <v>0.2945129095942277</v>
       </c>
       <c r="W19">
-        <v>0.3555216678430121</v>
+        <v>0.3076288725537164</v>
       </c>
       <c r="X19">
-        <v>1.014537165286397</v>
+        <v>1.044534424577719</v>
       </c>
     </row>
     <row r="20">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.8315129617289635</v>
+        <v>2.49453888518689</v>
       </c>
       <c r="M20">
         <v>0.6785714285714286</v>
@@ -1873,16 +1873,16 @@
         <v>21.25024292296331</v>
       </c>
       <c r="U20">
-        <v>5.135084390300392</v>
+        <v>6.798110313758319</v>
       </c>
       <c r="V20">
-        <v>0.4444222148444926</v>
+        <v>0.4154210040508968</v>
       </c>
       <c r="W20">
-        <v>0.139076748365751</v>
+        <v>0.1136427676234674</v>
       </c>
       <c r="X20">
-        <v>0.3129383359344789</v>
+        <v>0.2735604760358819</v>
       </c>
     </row>
     <row r="21">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8381963478179155</v>
+        <v>2.514589043453746</v>
       </c>
       <c r="M21">
         <v>0.3571428571428572</v>
@@ -1947,16 +1947,16 @@
         <v>16.65668769490939</v>
       </c>
       <c r="U21">
-        <v>3.107839204960773</v>
+        <v>4.784231900596604</v>
       </c>
       <c r="V21">
-        <v>0.5145502163126063</v>
+        <v>0.4303049678425151</v>
       </c>
       <c r="W21">
-        <v>0.3393360828555017</v>
+        <v>0.3477594625258775</v>
       </c>
       <c r="X21">
-        <v>0.6594809837750485</v>
+        <v>0.8081697598554151</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7677390409591841</v>
+        <v>2.303217122877552</v>
       </c>
       <c r="M22">
         <v>0.3571428571428572</v>
@@ -2021,16 +2021,16 @@
         <v>18.577063496565</v>
       </c>
       <c r="U22">
-        <v>4.074881898102041</v>
+        <v>5.61035998002041</v>
       </c>
       <c r="V22">
-        <v>0.3046492134596286</v>
+        <v>0.2511632708614056</v>
       </c>
       <c r="W22">
-        <v>0.377623329624121</v>
+        <v>0.3319427993232492</v>
       </c>
       <c r="X22">
-        <v>1.239534891082733</v>
+        <v>1.321621581789395</v>
       </c>
     </row>
     <row r="23">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.7965030185986042</v>
+        <v>2.389509055795813</v>
       </c>
       <c r="M23">
         <v>0.2857142857142857</v>
@@ -2095,16 +2095,16 @@
         <v>18.46838454681641</v>
       </c>
       <c r="U23">
-        <v>3.50721730431289</v>
+        <v>5.100223341510098</v>
       </c>
       <c r="V23">
-        <v>0.4529943936947998</v>
+        <v>0.4528734598101676</v>
       </c>
       <c r="W23">
-        <v>0.3989630362608726</v>
+        <v>0.3655610097786237</v>
       </c>
       <c r="X23">
-        <v>0.8807240041245848</v>
+        <v>0.8072034292578264</v>
       </c>
     </row>
     <row r="24">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6763282809539659</v>
+        <v>2.028984842861898</v>
       </c>
       <c r="M24">
         <v>0.4285714285714285</v>
@@ -2169,16 +2169,16 @@
         <v>17.52489053304484</v>
       </c>
       <c r="U24">
-        <v>5.092399709525394</v>
+        <v>6.445056271433326</v>
       </c>
       <c r="V24">
-        <v>0.2339575305657668</v>
+        <v>0.2746587218293248</v>
       </c>
       <c r="W24">
-        <v>0.1480862393440773</v>
+        <v>0.1768836646979902</v>
       </c>
       <c r="X24">
-        <v>0.6329620550617389</v>
+        <v>0.6440125531782938</v>
       </c>
     </row>
     <row r="25">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.7105244373253786</v>
+        <v>2.131573311976136</v>
       </c>
       <c r="M25">
         <v>0.3571428571428572</v>
@@ -2243,16 +2243,16 @@
         <v>19.39187276137898</v>
       </c>
       <c r="U25">
-        <v>2.355167294468236</v>
+        <v>3.776216169118993</v>
       </c>
       <c r="V25">
-        <v>0.05066595617920264</v>
+        <v>0.06283287645479668</v>
       </c>
       <c r="W25">
-        <v>0.159435854572546</v>
+        <v>0.1692752266939711</v>
       </c>
       <c r="X25">
-        <v>3.146804414558572</v>
+        <v>2.694055027319198</v>
       </c>
     </row>
     <row r="26">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.7803115578466751</v>
+        <v>2.340934673540025</v>
       </c>
       <c r="M26">
         <v>0.3928571428571428</v>
@@ -2317,16 +2317,16 @@
         <v>19.15503827721177</v>
       </c>
       <c r="U26">
-        <v>3.998168700703818</v>
+        <v>5.558791816397168</v>
       </c>
       <c r="V26">
-        <v>0.4390792901831956</v>
+        <v>0.3760399677691703</v>
       </c>
       <c r="W26">
-        <v>0.3879526153257887</v>
+        <v>0.3385426058614284</v>
       </c>
       <c r="X26">
-        <v>0.8835593570444294</v>
+        <v>0.9002835732324088</v>
       </c>
     </row>
     <row r="27">
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0.7007969696279482</v>
+        <v>2.102390908883845</v>
       </c>
       <c r="M27">
         <v>0.2857142857142857</v>
@@ -2391,16 +2391,16 @@
         <v>15.73986227062093</v>
       </c>
       <c r="U27">
-        <v>5.374011255342234</v>
+        <v>6.775605194598131</v>
       </c>
       <c r="V27">
-        <v>0.196559270065561</v>
+        <v>0.194283135349858</v>
       </c>
       <c r="W27">
-        <v>0.09451313147180967</v>
+        <v>0.1172593141497876</v>
       </c>
       <c r="X27">
-        <v>0.4808378228118442</v>
+        <v>0.6035485990002751</v>
       </c>
     </row>
     <row r="28">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.7501233408854644</v>
+        <v>2.250370022656393</v>
       </c>
       <c r="M28">
         <v>0.3571428571428572</v>
@@ -2465,16 +2465,16 @@
         <v>18.00715161384133</v>
       </c>
       <c r="U28">
-        <v>3.169766198028322</v>
+        <v>4.67001287979925</v>
       </c>
       <c r="V28">
-        <v>0.5108181100956818</v>
+        <v>0.4395118495658035</v>
       </c>
       <c r="W28">
-        <v>0.3517578595600959</v>
+        <v>0.3345615681068297</v>
       </c>
       <c r="X28">
-        <v>0.6886166574912699</v>
+        <v>0.761211713489284</v>
       </c>
     </row>
     <row r="29">
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.7311570445825706</v>
+        <v>2.193471133747712</v>
       </c>
       <c r="M29">
         <v>0.2857142857142857</v>
@@ -2539,16 +2539,16 @@
         <v>18.48427488180038</v>
       </c>
       <c r="U29">
-        <v>4.004371330296856</v>
+        <v>5.466685419461998</v>
       </c>
       <c r="V29">
-        <v>0.3726747561591889</v>
+        <v>0.3166623395367136</v>
       </c>
       <c r="W29">
-        <v>0.3871949706154315</v>
+        <v>0.348714554763575</v>
       </c>
       <c r="X29">
-        <v>1.038962162626438</v>
+        <v>1.101218904887</v>
       </c>
     </row>
     <row r="30">
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0.8159171875550938</v>
+        <v>2.447751562665281</v>
       </c>
       <c r="M30">
         <v>0.4642857142857143</v>
@@ -2613,16 +2613,16 @@
         <v>19.43217548272197</v>
       </c>
       <c r="U30">
-        <v>4.542702901840808</v>
+        <v>6.174537276950996</v>
       </c>
       <c r="V30">
-        <v>0.2474581816988135</v>
+        <v>0.1904289704862395</v>
       </c>
       <c r="W30">
-        <v>0.2806323208462466</v>
+        <v>0.2312782972964288</v>
       </c>
       <c r="X30">
-        <v>1.134059576934134</v>
+        <v>1.214512144375328</v>
       </c>
     </row>
     <row r="31">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0.7520573000431171</v>
+        <v>2.256171900129352</v>
       </c>
       <c r="M31">
         <v>0.2142857142857143</v>
@@ -2687,16 +2687,16 @@
         <v>18.98329010381971</v>
       </c>
       <c r="U31">
-        <v>3.466343014328832</v>
+        <v>4.970457614415066</v>
       </c>
       <c r="V31">
-        <v>0.4275263371294952</v>
+        <v>0.4249520560890893</v>
       </c>
       <c r="W31">
-        <v>0.3954050503252933</v>
+        <v>0.3617976716025124</v>
       </c>
       <c r="X31">
-        <v>0.9248671157433922</v>
+        <v>0.8513846830915512</v>
       </c>
     </row>
     <row r="32">
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.747084904888023</v>
+        <v>2.241254714664069</v>
       </c>
       <c r="M32">
         <v>0.4285714285714285</v>
@@ -2761,16 +2761,16 @@
         <v>18.7678873957486</v>
       </c>
       <c r="U32">
-        <v>4.375656333459451</v>
+        <v>5.869826143235498</v>
       </c>
       <c r="V32">
-        <v>0.4922534044494312</v>
+        <v>0.4366381572294263</v>
       </c>
       <c r="W32">
-        <v>0.3202601156887236</v>
+        <v>0.2906148516082996</v>
       </c>
       <c r="X32">
-        <v>0.6506001031052772</v>
+        <v>0.6655736490194087</v>
       </c>
     </row>
     <row r="33">
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0.6480762323504311</v>
+        <v>1.944228697051293</v>
       </c>
       <c r="M33">
         <v>0.3214285714285715</v>
@@ -2835,16 +2835,16 @@
         <v>19.15399700513067</v>
       </c>
       <c r="U33">
-        <v>3.944504803779003</v>
+        <v>5.240657268479865</v>
       </c>
       <c r="V33">
-        <v>0.5089149852042186</v>
+        <v>0.4722596887344567</v>
       </c>
       <c r="W33">
-        <v>0.3939121151728711</v>
+        <v>0.3638310109616408</v>
       </c>
       <c r="X33">
-        <v>0.7740234157475263</v>
+        <v>0.7704045457206418</v>
       </c>
     </row>
     <row r="34">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.7609162838936034</v>
+        <v>2.282748851680811</v>
       </c>
       <c r="M34">
         <v>0.2857142857142857</v>
@@ -2909,16 +2909,16 @@
         <v>19.17222209365872</v>
       </c>
       <c r="U34">
-        <v>3.921630569607889</v>
+        <v>5.443463137395096</v>
       </c>
       <c r="V34">
-        <v>0.4770039445641147</v>
+        <v>0.4133299004079243</v>
       </c>
       <c r="W34">
-        <v>0.3961198119675789</v>
+        <v>0.3509319373772413</v>
       </c>
       <c r="X34">
-        <v>0.8304329900868063</v>
+        <v>0.8490359323893549</v>
       </c>
     </row>
     <row r="35">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.6551443331300622</v>
+        <v>1.965432999390186</v>
       </c>
       <c r="M35">
         <v>0.3214285714285715</v>
@@ -2983,16 +2983,16 @@
         <v>17.70430139433504</v>
       </c>
       <c r="U35">
-        <v>3.239072904558634</v>
+        <v>4.549361570818758</v>
       </c>
       <c r="V35">
-        <v>0.4575901039462674</v>
+        <v>0.4250224785200751</v>
       </c>
       <c r="W35">
-        <v>0.3644744243870874</v>
+        <v>0.317362976115502</v>
       </c>
       <c r="X35">
-        <v>0.7965085373216154</v>
+        <v>0.7466969211147547</v>
       </c>
     </row>
     <row r="36">
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0.8291918025142465</v>
+        <v>2.48757540754274</v>
       </c>
       <c r="M36">
         <v>0.4642857142857143</v>
@@ -3057,16 +3057,16 @@
         <v>19.34638497350163</v>
       </c>
       <c r="U36">
-        <v>4.755977516799961</v>
+        <v>6.414361121828454</v>
       </c>
       <c r="V36">
-        <v>0.3729884783842409</v>
+        <v>0.3255867062430252</v>
       </c>
       <c r="W36">
-        <v>0.227302880721454</v>
+        <v>0.1829127263939996</v>
       </c>
       <c r="X36">
-        <v>0.6094099252237326</v>
+        <v>0.5617942099192141</v>
       </c>
     </row>
     <row r="37">
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0.7245427560607178</v>
+        <v>2.173628268182154</v>
       </c>
       <c r="M37">
         <v>0.5357142857142857</v>
@@ -3131,16 +3131,16 @@
         <v>18.74514942529704</v>
       </c>
       <c r="U37">
-        <v>4.010257041775004</v>
+        <v>5.459342553896439</v>
       </c>
       <c r="V37">
-        <v>0.5104668297096014</v>
+        <v>0.4664287255501853</v>
       </c>
       <c r="W37">
-        <v>0.3864631268925926</v>
+        <v>0.3494312882167774</v>
       </c>
       <c r="X37">
-        <v>0.7570778440441408</v>
+        <v>0.7491633106528738</v>
       </c>
     </row>
     <row r="38">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0.6738490536211313</v>
+        <v>2.021547160863394</v>
       </c>
       <c r="M38">
         <v>0.3214285714285715</v>
@@ -3205,16 +3205,16 @@
         <v>17.05419991203001</v>
       </c>
       <c r="U38">
-        <v>4.095277625049703</v>
+        <v>5.442975732291966</v>
       </c>
       <c r="V38">
-        <v>0.3956865338742914</v>
+        <v>0.3616587309635022</v>
       </c>
       <c r="W38">
-        <v>0.3745382642204894</v>
+        <v>0.3509769239817478</v>
       </c>
       <c r="X38">
-        <v>0.9465529709926372</v>
+        <v>0.9704644017488622</v>
       </c>
     </row>
     <row r="39">
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.5786585704792981</v>
+        <v>1.735975711437894</v>
       </c>
       <c r="M39">
         <v>0.3214285714285715</v>
@@ -3279,16 +3279,16 @@
         <v>18.72681878736557</v>
       </c>
       <c r="U39">
-        <v>4.08758714190787</v>
+        <v>5.244904282866466</v>
       </c>
       <c r="V39">
-        <v>0.1577927849227824</v>
+        <v>0.2323801214655438</v>
       </c>
       <c r="W39">
-        <v>0.3757176211899403</v>
+        <v>0.3636849179302428</v>
       </c>
       <c r="X39">
-        <v>2.381082388360163</v>
+        <v>1.565043152730119</v>
       </c>
     </row>
     <row r="40">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.5901097543241463</v>
+        <v>1.770329262972439</v>
       </c>
       <c r="M40">
         <v>0.2857142857142857</v>
@@ -3353,16 +3353,16 @@
         <v>17.48387493454963</v>
       </c>
       <c r="U40">
-        <v>3.125824040038432</v>
+        <v>4.306043548686724</v>
       </c>
       <c r="V40">
-        <v>0.5197897032330084</v>
+        <v>0.468587592119276</v>
       </c>
       <c r="W40">
-        <v>0.3430384631794123</v>
+        <v>0.2748998763732046</v>
       </c>
       <c r="X40">
-        <v>0.6599562497020779</v>
+        <v>0.5866563284996896</v>
       </c>
     </row>
     <row r="41">
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0.7312413981901854</v>
+        <v>2.193724194570556</v>
       </c>
       <c r="M41">
         <v>0.3214285714285715</v>
@@ -3427,16 +3427,16 @@
         <v>19.6999297987291</v>
       </c>
       <c r="U41">
-        <v>5.202669969618757</v>
+        <v>6.665152765999128</v>
       </c>
       <c r="V41">
-        <v>0.3127927533242889</v>
+        <v>0.3296438975599805</v>
       </c>
       <c r="W41">
-        <v>0.1254327382822505</v>
+        <v>0.1359070988199969</v>
       </c>
       <c r="X41">
-        <v>0.4010090929191309</v>
+        <v>0.4122845889943036</v>
       </c>
     </row>
     <row r="42">
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0.8414845809715014</v>
+        <v>2.524453742914504</v>
       </c>
       <c r="M42">
         <v>0.2857142857142857</v>
@@ -3501,16 +3501,16 @@
         <v>21.83847562196175</v>
       </c>
       <c r="U42">
-        <v>5.789698866685788</v>
+        <v>7.472668028628791</v>
       </c>
       <c r="V42">
-        <v>0.1855053107591364</v>
+        <v>0.172044206256652</v>
       </c>
       <c r="W42">
-        <v>0.04190348902132735</v>
+        <v>0.0364702098793168</v>
       </c>
       <c r="X42">
-        <v>0.2258883524673622</v>
+        <v>0.2119816218914766</v>
       </c>
     </row>
     <row r="43">
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.6837720179228854</v>
+        <v>2.051316053768656</v>
       </c>
       <c r="M43">
         <v>0.25</v>
@@ -3575,16 +3575,16 @@
         <v>18.19596940179611</v>
       </c>
       <c r="U43">
-        <v>3.583772017922885</v>
+        <v>4.951316053768656</v>
       </c>
       <c r="V43">
-        <v>0.4318249897176116</v>
+        <v>0.3468225287202463</v>
       </c>
       <c r="W43">
-        <v>0.4038237363627561</v>
+        <v>0.3608134862989965</v>
       </c>
       <c r="X43">
-        <v>0.935156014539208</v>
+        <v>1.040340394352051</v>
       </c>
     </row>
     <row r="44">
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0.7235803779651517</v>
+        <v>2.170741133895455</v>
       </c>
       <c r="M44">
         <v>0.3214285714285715</v>
@@ -3649,16 +3649,16 @@
         <v>18.98143633920342</v>
       </c>
       <c r="U44">
-        <v>5.220008949393723</v>
+        <v>6.667169705324027</v>
       </c>
       <c r="V44">
-        <v>0.2632097376906816</v>
+        <v>0.277548444052203</v>
       </c>
       <c r="W44">
-        <v>0.1220602514308837</v>
+        <v>0.1355537799325223</v>
       </c>
       <c r="X44">
-        <v>0.4637375976352603</v>
+        <v>0.4883968288686445</v>
       </c>
     </row>
     <row r="45">
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0.7163083577841389</v>
+        <v>2.148925073352417</v>
       </c>
       <c r="M45">
         <v>0.5</v>
@@ -3723,16 +3723,16 @@
         <v>18.94497799646909</v>
       </c>
       <c r="U45">
-        <v>4.541308357784139</v>
+        <v>5.973925073352417</v>
       </c>
       <c r="V45">
-        <v>0.4861468128225155</v>
+        <v>0.4493651046817336</v>
       </c>
       <c r="W45">
-        <v>0.2809756488324929</v>
+        <v>0.2711716787568881</v>
       </c>
       <c r="X45">
-        <v>0.5779646012717411</v>
+        <v>0.6034551324338983</v>
       </c>
     </row>
     <row r="46">
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0.8371192730422056</v>
+        <v>2.511357819126617</v>
       </c>
       <c r="M46">
         <v>0.6428571428571429</v>
@@ -3797,16 +3797,16 @@
         <v>16.48749735502964</v>
       </c>
       <c r="U46">
-        <v>5.279976415899348</v>
+        <v>6.95421496198376</v>
       </c>
       <c r="V46">
-        <v>0.2650950068830712</v>
+        <v>0.205512662837718</v>
       </c>
       <c r="W46">
-        <v>0.1108131601152753</v>
+        <v>0.09038174104721583</v>
       </c>
       <c r="X46">
-        <v>0.4180130037837833</v>
+        <v>0.4397867255439404</v>
       </c>
     </row>
     <row r="47">
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0.6184038796121309</v>
+        <v>1.855211638836393</v>
       </c>
       <c r="M47">
         <v>0.3214285714285715</v>
@@ -3871,16 +3871,16 @@
         <v>18.70612783068321</v>
       </c>
       <c r="U47">
-        <v>2.277332451040702</v>
+        <v>3.514140210264964</v>
       </c>
       <c r="V47">
-        <v>0.04591115484983935</v>
+        <v>0.03139003619484555</v>
       </c>
       <c r="W47">
-        <v>0.1425884754641859</v>
+        <v>0.1220567627493684</v>
       </c>
       <c r="X47">
-        <v>3.105747958868537</v>
+        <v>3.888391908557626</v>
       </c>
     </row>
     <row r="48">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.8203827046030606</v>
+        <v>2.461148113809182</v>
       </c>
       <c r="M48">
         <v>0.4285714285714285</v>
@@ -3945,16 +3945,16 @@
         <v>18.22691677979251</v>
       </c>
       <c r="U48">
-        <v>3.986454133174489</v>
+        <v>5.627219542380611</v>
       </c>
       <c r="V48">
-        <v>0.4597636226421617</v>
+        <v>0.3758238539280304</v>
       </c>
       <c r="W48">
-        <v>0.3893451460075905</v>
+        <v>0.3296532839361052</v>
       </c>
       <c r="X48">
-        <v>0.8468376505520564</v>
+        <v>0.8771483781315094</v>
       </c>
     </row>
     <row r="49">
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.7179049741707674</v>
+        <v>2.153714922512302</v>
       </c>
       <c r="M49">
         <v>0.2857142857142857</v>
@@ -4019,16 +4019,16 @@
         <v>19.5976729093258</v>
       </c>
       <c r="U49">
-        <v>3.191119259885053</v>
+        <v>4.626929208226588</v>
       </c>
       <c r="V49">
-        <v>0.3874454652529961</v>
+        <v>0.3435407840233635</v>
       </c>
       <c r="W49">
-        <v>0.3558168906688082</v>
+        <v>0.3287769412669904</v>
       </c>
       <c r="X49">
-        <v>0.9183663833475636</v>
+        <v>0.9570244831386044</v>
       </c>
     </row>
     <row r="50">
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0.7204509881471641</v>
+        <v>2.161352964441493</v>
       </c>
       <c r="M50">
         <v>0.3214285714285715</v>
@@ -4093,16 +4093,16 @@
         <v>19.80864341017709</v>
       </c>
       <c r="U50">
-        <v>3.054379559575735</v>
+        <v>4.495281535870064</v>
       </c>
       <c r="V50">
-        <v>0.2510876490728735</v>
+        <v>0.2564548600240798</v>
       </c>
       <c r="W50">
-        <v>0.3279140629971341</v>
+        <v>0.3087156286164323</v>
       </c>
       <c r="X50">
-        <v>1.305974484240613</v>
+        <v>1.203781548875484</v>
       </c>
     </row>
     <row r="51">
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0.7146517452520857</v>
+        <v>2.143955235756257</v>
       </c>
       <c r="M51">
         <v>0.3571428571428572</v>
@@ -4167,16 +4167,16 @@
         <v>17.28429540176593</v>
       </c>
       <c r="U51">
-        <v>4.084294602394943</v>
+        <v>5.513598092899114</v>
       </c>
       <c r="V51">
-        <v>0.3635385651543094</v>
+        <v>0.3059773149218562</v>
       </c>
       <c r="W51">
-        <v>0.376216611195697</v>
+        <v>0.3438021519246827</v>
       </c>
       <c r="X51">
-        <v>1.034874005832108</v>
+        <v>1.123619742896582</v>
       </c>
     </row>
     <row r="52">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0.7991011309947423</v>
+        <v>2.397303392984227</v>
       </c>
       <c r="M52">
         <v>0.3571428571428572</v>
@@ -4241,16 +4241,16 @@
         <v>18.39413730313563</v>
       </c>
       <c r="U52">
-        <v>3.718743988137599</v>
+        <v>5.316946250127084</v>
       </c>
       <c r="V52">
-        <v>0.5187883131972016</v>
+        <v>0.4705326898370793</v>
       </c>
       <c r="W52">
-        <v>0.4064672772862509</v>
+        <v>0.3603825381221018</v>
       </c>
       <c r="X52">
-        <v>0.7834935116045004</v>
+        <v>0.7659032962128164</v>
       </c>
     </row>
     <row r="53">
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0.6348139284618161</v>
+        <v>1.904441785385448</v>
       </c>
       <c r="M53">
         <v>0.3571428571428572</v>
@@ -4315,16 +4315,16 @@
         <v>17.67880361241014</v>
       </c>
       <c r="U53">
-        <v>3.616956785604673</v>
+        <v>4.886584642528305</v>
       </c>
       <c r="V53">
-        <v>0.5139266143247359</v>
+        <v>0.4516226461891875</v>
       </c>
       <c r="W53">
-        <v>0.4051821585352937</v>
+        <v>0.3566904802076095</v>
       </c>
       <c r="X53">
-        <v>0.7884047006743855</v>
+        <v>0.7897975958853704</v>
       </c>
     </row>
     <row r="54">
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0.7319089069104778</v>
+        <v>2.195726720731433</v>
       </c>
       <c r="M54">
         <v>0.2857142857142857</v>
@@ -4389,16 +4389,16 @@
         <v>18.8159932281475</v>
       </c>
       <c r="U54">
-        <v>3.867623192624764</v>
+        <v>5.331441006445719</v>
       </c>
       <c r="V54">
-        <v>0.4708276182864068</v>
+        <v>0.4191483818770864</v>
       </c>
       <c r="W54">
-        <v>0.400517032602008</v>
+        <v>0.3595322126427893</v>
       </c>
       <c r="X54">
-        <v>0.8506659699779366</v>
+        <v>0.8577683421624676</v>
       </c>
     </row>
     <row r="55">
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.7640826276917909</v>
+        <v>2.292247883075373</v>
       </c>
       <c r="M55">
         <v>0.6071428571428571</v>
@@ -4463,16 +4463,16 @@
         <v>17.90898162213134</v>
       </c>
       <c r="U55">
-        <v>4.096225484834648</v>
+        <v>5.62439074021823</v>
       </c>
       <c r="V55">
-        <v>0.1006034816231345</v>
+        <v>0.07953931609107137</v>
       </c>
       <c r="W55">
-        <v>0.3743915719309873</v>
+        <v>0.3300418311796418</v>
       </c>
       <c r="X55">
-        <v>3.721457407741377</v>
+        <v>4.149417513242741</v>
       </c>
     </row>
     <row r="56">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0.7871676948051697</v>
+        <v>2.361503084415509</v>
       </c>
       <c r="M56">
         <v>0.4285714285714285</v>
@@ -4537,16 +4537,16 @@
         <v>21.29668100370033</v>
       </c>
       <c r="U56">
-        <v>5.815739123376598</v>
+        <v>7.390074512986939</v>
       </c>
       <c r="V56">
-        <v>0.3308108874433763</v>
+        <v>0.3318841777720588</v>
       </c>
       <c r="W56">
-        <v>0.03958472963496575</v>
+        <v>0.04278551732260312</v>
       </c>
       <c r="X56">
-        <v>0.1196596942165071</v>
+        <v>0.1289170143928604</v>
       </c>
     </row>
     <row r="57">
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.7824458935313803</v>
+        <v>2.347337680594141</v>
       </c>
       <c r="M57">
         <v>0.2857142857142857</v>
@@ -4611,16 +4611,16 @@
         <v>16.78294114028147</v>
       </c>
       <c r="U57">
-        <v>3.518160179245666</v>
+        <v>5.083051966308426</v>
       </c>
       <c r="V57">
-        <v>0.1746636246956193</v>
+        <v>0.1128361590718985</v>
       </c>
       <c r="W57">
-        <v>0.3998032649378581</v>
+        <v>0.3653574457940663</v>
       </c>
       <c r="X57">
-        <v>2.288989854840024</v>
+        <v>3.23794649515908</v>
       </c>
     </row>
     <row r="58">
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0.9184591124407754</v>
+        <v>2.755377337322326</v>
       </c>
       <c r="M58">
         <v>0.2857142857142857</v>
@@ -4685,16 +4685,16 @@
         <v>17.26722578509784</v>
       </c>
       <c r="U58">
-        <v>4.554173398155061</v>
+        <v>6.391091623036612</v>
       </c>
       <c r="V58">
-        <v>0.3684839277947211</v>
+        <v>0.2368747870422964</v>
       </c>
       <c r="W58">
-        <v>0.2778029379707974</v>
+        <v>0.1875208713061832</v>
       </c>
       <c r="X58">
-        <v>0.7539078831290541</v>
+        <v>0.7916455510003245</v>
       </c>
     </row>
     <row r="59">
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0.6240311610074784</v>
+        <v>1.872093483022435</v>
       </c>
       <c r="M59">
         <v>0.1785714285714286</v>
@@ -4759,16 +4759,16 @@
         <v>19.14001438173658</v>
       </c>
       <c r="U59">
-        <v>3.127602589578907</v>
+        <v>4.375664911593864</v>
       </c>
       <c r="V59">
-        <v>0.3757415583218013</v>
+        <v>0.3184208697572798</v>
       </c>
       <c r="W59">
-        <v>0.3434005173042284</v>
+        <v>0.2878926578445476</v>
       </c>
       <c r="X59">
-        <v>0.9139274314983422</v>
+        <v>0.9041262215758574</v>
       </c>
     </row>
     <row r="60">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.8616220644119985</v>
+        <v>2.584866193235996</v>
       </c>
       <c r="M60">
         <v>0.5</v>
@@ -4833,16 +4833,16 @@
         <v>19.2508861499192</v>
       </c>
       <c r="U60">
-        <v>3.999122064411998</v>
+        <v>5.722366193235996</v>
       </c>
       <c r="V60">
-        <v>0.386251856807851</v>
+        <v>0.3038500570096628</v>
       </c>
       <c r="W60">
-        <v>0.3878370744678168</v>
+        <v>0.3156090305263791</v>
       </c>
       <c r="X60">
-        <v>1.004104103661965</v>
+        <v>1.038699922035369</v>
       </c>
     </row>
     <row r="61">
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0.7260501846910188</v>
+        <v>2.178150554073056</v>
       </c>
       <c r="M61">
         <v>0.3571428571428572</v>
@@ -4907,16 +4907,16 @@
         <v>17.49797533193912</v>
       </c>
       <c r="U61">
-        <v>2.608193041833876</v>
+        <v>4.060293411215913</v>
       </c>
       <c r="V61">
-        <v>0.4951534298946372</v>
+        <v>0.4740869409226028</v>
       </c>
       <c r="W61">
-        <v>0.21947013873268</v>
+        <v>0.2260679088868332</v>
       </c>
       <c r="X61">
-        <v>0.4432366322886639</v>
+        <v>0.4768490531439043</v>
       </c>
     </row>
     <row r="62">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.6836425687929076</v>
+        <v>2.050927706378723</v>
       </c>
       <c r="M62">
         <v>0.3214285714285715</v>
@@ -4981,16 +4981,16 @@
         <v>19.28623874008608</v>
       </c>
       <c r="U62">
-        <v>3.830071140221479</v>
+        <v>5.197356277807295</v>
       </c>
       <c r="V62">
-        <v>0.5158945245799074</v>
+        <v>0.4747600576164586</v>
       </c>
       <c r="W62">
-        <v>0.4028832657583987</v>
+        <v>0.3650079975110261</v>
       </c>
       <c r="X62">
-        <v>0.7809411547572952</v>
+        <v>0.7688262558218468</v>
       </c>
     </row>
     <row r="63">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.7481555308818705</v>
+        <v>2.244466592645611</v>
       </c>
       <c r="M63">
         <v>0.2142857142857143</v>
@@ -5055,16 +5055,16 @@
         <v>18.18431928218171</v>
       </c>
       <c r="U63">
-        <v>2.899941245167585</v>
+        <v>4.396252306931325</v>
       </c>
       <c r="V63">
-        <v>0.4693288091507588</v>
+        <v>0.3736501365656273</v>
       </c>
       <c r="W63">
-        <v>0.2921202195652305</v>
+        <v>0.2916234174235412</v>
       </c>
       <c r="X63">
-        <v>0.6224212404386944</v>
+        <v>0.7804718609337935</v>
       </c>
     </row>
     <row r="64">
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0.7711016875642679</v>
+        <v>2.313305062692804</v>
       </c>
       <c r="M64">
         <v>0.4642857142857143</v>
@@ -5129,16 +5129,16 @@
         <v>23.08732538066764</v>
       </c>
       <c r="U64">
-        <v>5.422887401849982</v>
+        <v>6.965090776978518</v>
       </c>
       <c r="V64">
-        <v>0.5196726191814701</v>
+        <v>0.4715856330688952</v>
       </c>
       <c r="W64">
-        <v>0.08669648368603397</v>
+        <v>0.08888324012261788</v>
       </c>
       <c r="X64">
-        <v>0.1668290390642257</v>
+        <v>0.1884774129869064</v>
       </c>
     </row>
     <row r="65">
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.7530499045916564</v>
+        <v>2.259149713774969</v>
       </c>
       <c r="M65">
         <v>0.1428571428571428</v>
@@ -5203,16 +5203,16 @@
         <v>18.0370133745226</v>
       </c>
       <c r="U65">
-        <v>2.895907047448799</v>
+        <v>4.402006856632112</v>
       </c>
       <c r="V65">
-        <v>0.3754339572997897</v>
+        <v>0.3638835198067408</v>
       </c>
       <c r="W65">
-        <v>0.2911428786476352</v>
+        <v>0.2926562117289778</v>
       </c>
       <c r="X65">
-        <v>0.7754836050036709</v>
+        <v>0.8042579446423075</v>
       </c>
     </row>
     <row r="66">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>0.6797341541535132</v>
+        <v>2.03920246246054</v>
       </c>
       <c r="M66">
         <v>0.3571428571428572</v>
@@ -5277,16 +5277,16 @@
         <v>19.58936932011141</v>
       </c>
       <c r="U66">
-        <v>4.274377011296369</v>
+        <v>5.633845319603397</v>
       </c>
       <c r="V66">
-        <v>0.5189383266547966</v>
+        <v>0.4744668724364971</v>
       </c>
       <c r="W66">
-        <v>0.3421009947699026</v>
+        <v>0.3287363442669232</v>
       </c>
       <c r="X66">
-        <v>0.6592324698296411</v>
+        <v>0.6928541556100345</v>
       </c>
     </row>
     <row r="67">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.8622054058241605</v>
+        <v>2.586616217472481</v>
       </c>
       <c r="M67">
         <v>0.5</v>
@@ -5351,16 +5351,16 @@
         <v>19.02051166802102</v>
       </c>
       <c r="U67">
-        <v>5.54970540582416</v>
+        <v>7.274116217472481</v>
       </c>
       <c r="V67">
-        <v>0.1006439084858262</v>
+        <v>0.08919650614761059</v>
       </c>
       <c r="W67">
-        <v>0.0685015392210883</v>
+        <v>0.05302401151587317</v>
       </c>
       <c r="X67">
-        <v>0.6806327402391718</v>
+        <v>0.5944628753521372</v>
       </c>
     </row>
     <row r="68">
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>0.6153705378809099</v>
+        <v>1.84611161364273</v>
       </c>
       <c r="M68">
         <v>0.3571428571428572</v>
@@ -5425,16 +5425,16 @@
         <v>18.67904535893661</v>
       </c>
       <c r="U68">
-        <v>5.022513395023767</v>
+        <v>6.253254470785587</v>
       </c>
       <c r="V68">
-        <v>0.1627944306947768</v>
+        <v>0.2168115800310794</v>
       </c>
       <c r="W68">
-        <v>0.1634454199436128</v>
+        <v>0.2152808029854196</v>
       </c>
       <c r="X68">
-        <v>1.003998842258041</v>
+        <v>0.9929395973893996</v>
       </c>
     </row>
     <row r="69">
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0.857724907656034</v>
+        <v>2.573174722968102</v>
       </c>
       <c r="M69">
         <v>0.3214285714285715</v>
@@ -5499,16 +5499,16 @@
         <v>22.05416489112776</v>
       </c>
       <c r="U69">
-        <v>5.279153479084606</v>
+        <v>6.994603294396674</v>
       </c>
       <c r="V69">
-        <v>0.5183356817754387</v>
+        <v>0.46934693903348</v>
       </c>
       <c r="W69">
-        <v>0.1109630665926347</v>
+        <v>0.08489839358797099</v>
       </c>
       <c r="X69">
-        <v>0.2140756858809265</v>
+        <v>0.1808862198245101</v>
       </c>
     </row>
     <row r="70">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.7791753891388573</v>
+        <v>2.337526167416572</v>
       </c>
       <c r="M70">
         <v>0.3928571428571428</v>
@@ -5573,16 +5573,16 @@
         <v>20.69518234233319</v>
       </c>
       <c r="U70">
-        <v>3.172032531996</v>
+        <v>4.730383310273714</v>
       </c>
       <c r="V70">
-        <v>0.4277869654339258</v>
+        <v>0.4264936951604836</v>
       </c>
       <c r="W70">
-        <v>0.352194375162754</v>
+        <v>0.3419403836087992</v>
       </c>
       <c r="X70">
-        <v>0.8232938439475488</v>
+        <v>0.8017478042204863</v>
       </c>
     </row>
     <row r="71">
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.7723740425682075</v>
+        <v>2.317122127704622</v>
       </c>
       <c r="M71">
         <v>0.2142857142857143</v>
@@ -5647,16 +5647,16 @@
         <v>17.49836723652227</v>
       </c>
       <c r="U71">
-        <v>2.686659756853921</v>
+        <v>4.231407841990337</v>
       </c>
       <c r="V71">
-        <v>0.3385165576712202</v>
+        <v>0.3645957693130752</v>
       </c>
       <c r="W71">
-        <v>0.2390836759272909</v>
+        <v>0.2604410494447713</v>
       </c>
       <c r="X71">
-        <v>0.7062687792054705</v>
+        <v>0.7143282269442156</v>
       </c>
     </row>
     <row r="72">
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0.7151185062372463</v>
+        <v>2.145355518711739</v>
       </c>
       <c r="M72">
         <v>0.1785714285714286</v>
@@ -5721,16 +5721,16 @@
         <v>19.7509781447193</v>
       </c>
       <c r="U72">
-        <v>2.581189934808675</v>
+        <v>4.011426947283167</v>
       </c>
       <c r="V72">
-        <v>0.3296710325404871</v>
+        <v>0.3485875593015281</v>
       </c>
       <c r="W72">
-        <v>0.2127845701702941</v>
+        <v>0.2161338809674885</v>
       </c>
       <c r="X72">
-        <v>0.6454451534020114</v>
+        <v>0.6200275230721379</v>
       </c>
     </row>
     <row r="73">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.6286661238582159</v>
+        <v>1.885998371574647</v>
       </c>
       <c r="M73">
         <v>0.4285714285714285</v>
@@ -5795,16 +5795,16 @@
         <v>18.5125799219899</v>
       </c>
       <c r="U73">
-        <v>3.982237552429645</v>
+        <v>5.239569800146076</v>
       </c>
       <c r="V73">
-        <v>0.2236678808532731</v>
+        <v>0.2734312145736126</v>
       </c>
       <c r="W73">
-        <v>0.3898340020224912</v>
+        <v>0.3638675413647938</v>
       </c>
       <c r="X73">
-        <v>1.742914541575255</v>
+        <v>1.330746169314309</v>
       </c>
     </row>
     <row r="74">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.8541783725976575</v>
+        <v>2.562535117792973</v>
       </c>
       <c r="M74">
         <v>0.3928571428571428</v>
@@ -5869,16 +5869,16 @@
         <v>18.98393297486433</v>
       </c>
       <c r="U74">
-        <v>2.4345355154548</v>
+        <v>4.142892260650116</v>
       </c>
       <c r="V74">
-        <v>0.2540956448310177</v>
+        <v>0.3509109557442543</v>
       </c>
       <c r="W74">
-        <v>0.1775126382260159</v>
+        <v>0.2427982140103531</v>
       </c>
       <c r="X74">
-        <v>0.6986055913869279</v>
+        <v>0.6919083318313543</v>
       </c>
     </row>
     <row r="75">
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0.6230729632921946</v>
+        <v>1.869218889876584</v>
       </c>
       <c r="M75">
         <v>0.3928571428571428</v>
@@ -5943,16 +5943,16 @@
         <v>19.03755182674891</v>
       </c>
       <c r="U75">
-        <v>3.953430106149337</v>
+        <v>5.199576032733727</v>
       </c>
       <c r="V75">
-        <v>0.4513409914051749</v>
+        <v>0.3613500560763163</v>
       </c>
       <c r="W75">
-        <v>0.3929961098387888</v>
+        <v>0.3649615512525612</v>
       </c>
       <c r="X75">
-        <v>0.8707299299699346</v>
+        <v>1.00999445029969</v>
       </c>
     </row>
     <row r="76">
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>0.7184081057174962</v>
+        <v>2.155224317152489</v>
       </c>
       <c r="M76">
         <v>0.2857142857142857</v>
@@ -6017,16 +6017,16 @@
         <v>18.67647330817632</v>
       </c>
       <c r="U76">
-        <v>2.629122391431782</v>
+        <v>4.065938602866774</v>
       </c>
       <c r="V76">
-        <v>0.2138081426229308</v>
+        <v>0.2429861409944</v>
       </c>
       <c r="W76">
-        <v>0.2246790229803442</v>
+        <v>0.2272151669797971</v>
       </c>
       <c r="X76">
-        <v>1.050844089584488</v>
+        <v>0.9350951706543366</v>
       </c>
     </row>
     <row r="77">
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.831609347286803</v>
+        <v>2.494828041860409</v>
       </c>
       <c r="M77">
         <v>0.4285714285714285</v>
@@ -6091,16 +6091,16 @@
         <v>19.73022955101712</v>
       </c>
       <c r="U77">
-        <v>4.547680775858232</v>
+        <v>6.210899470431838</v>
       </c>
       <c r="V77">
-        <v>0.2730006438420865</v>
+        <v>0.1991041198016444</v>
       </c>
       <c r="W77">
-        <v>0.2794056149379984</v>
+        <v>0.2238907100897623</v>
       </c>
       <c r="X77">
-        <v>1.023461377254542</v>
+        <v>1.124490594734109</v>
       </c>
     </row>
     <row r="78">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0.5225110455968277</v>
+        <v>1.567533136790483</v>
       </c>
       <c r="M78">
         <v>0.1785714285714286</v>
@@ -6165,16 +6165,16 @@
         <v>17.4807359219117</v>
       </c>
       <c r="U78">
-        <v>2.751082474168256</v>
+        <v>3.796104565361911</v>
       </c>
       <c r="V78">
-        <v>0.236446327442431</v>
+        <v>0.1465445024687216</v>
       </c>
       <c r="W78">
-        <v>0.2552671525001446</v>
+        <v>0.1731205581570618</v>
       </c>
       <c r="X78">
-        <v>1.079598720188606</v>
+        <v>1.181351434142079</v>
       </c>
     </row>
     <row r="79">
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0.5863156073927936</v>
+        <v>1.758946822178381</v>
       </c>
       <c r="M79">
         <v>0.25</v>
@@ -6239,16 +6239,16 @@
         <v>17.43243778386868</v>
       </c>
       <c r="U79">
-        <v>1.836315607392794</v>
+        <v>3.008946822178381</v>
       </c>
       <c r="V79">
-        <v>0.04454603068619462</v>
+        <v>0.03828425202019898</v>
       </c>
       <c r="W79">
-        <v>0.06724622078922246</v>
+        <v>0.05521356374934228</v>
       </c>
       <c r="X79">
-        <v>1.509589513439251</v>
+        <v>1.442200404495595</v>
       </c>
     </row>
     <row r="80">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.8049021444978557</v>
+        <v>2.414706433493567</v>
       </c>
       <c r="M80">
         <v>0.25</v>
@@ -6313,16 +6313,16 @@
         <v>19.90754610654659</v>
       </c>
       <c r="U80">
-        <v>4.079902144497856</v>
+        <v>5.689706433493567</v>
       </c>
       <c r="V80">
-        <v>0.5189838162800959</v>
+        <v>0.4677070402694448</v>
       </c>
       <c r="W80">
-        <v>0.3768767214137286</v>
+        <v>0.320635865055062</v>
       </c>
       <c r="X80">
-        <v>0.7261820303281442</v>
+        <v>0.685548511030205</v>
       </c>
     </row>
     <row r="81">
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0.5976798142868881</v>
+        <v>1.793039442860664</v>
       </c>
       <c r="M81">
         <v>0.3571428571428572</v>
@@ -6387,16 +6387,16 @@
         <v>17.32574376305876</v>
       </c>
       <c r="U81">
-        <v>2.492322671429745</v>
+        <v>3.687682300003521</v>
       </c>
       <c r="V81">
-        <v>0.4862057575466707</v>
+        <v>0.4163031599448625</v>
       </c>
       <c r="W81">
-        <v>0.1911623384687114</v>
+        <v>0.1525513737248775</v>
       </c>
       <c r="X81">
-        <v>0.3931716881208709</v>
+        <v>0.3664429877137666</v>
       </c>
     </row>
     <row r="82">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0.6833156090580543</v>
+        <v>2.049946827174163</v>
       </c>
       <c r="M82">
         <v>0.3928571428571428</v>
@@ -6461,16 +6461,16 @@
         <v>18.89181336065186</v>
       </c>
       <c r="U82">
-        <v>4.463672751915198</v>
+        <v>5.830303970031306</v>
       </c>
       <c r="V82">
-        <v>0.2217883772870948</v>
+        <v>0.2466603448649788</v>
       </c>
       <c r="W82">
-        <v>0.2998099152222122</v>
+        <v>0.2976458103829027</v>
       </c>
       <c r="X82">
-        <v>1.351783708819521</v>
+        <v>1.206703130759966</v>
       </c>
     </row>
     <row r="83">
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>0.8288389837098539</v>
+        <v>2.486516951129562</v>
       </c>
       <c r="M83">
         <v>0.4642857142857143</v>
@@ -6535,16 +6535,16 @@
         <v>20.15774774991302</v>
       </c>
       <c r="U83">
-        <v>4.705624697995568</v>
+        <v>6.363302665415276</v>
       </c>
       <c r="V83">
-        <v>0.4946326097038727</v>
+        <v>0.4492140800403547</v>
       </c>
       <c r="W83">
-        <v>0.2399193726446873</v>
+        <v>0.1930612502351288</v>
       </c>
       <c r="X83">
-        <v>0.4850456034193188</v>
+        <v>0.4297755987919732</v>
       </c>
     </row>
     <row r="84">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.6664215595780839</v>
+        <v>1.999264678734252</v>
       </c>
       <c r="M84">
         <v>0.3214285714285715</v>
@@ -6609,16 +6609,16 @@
         <v>18.95343471055011</v>
       </c>
       <c r="U84">
-        <v>3.775350131006655</v>
+        <v>5.108193250162823</v>
       </c>
       <c r="V84">
-        <v>0.4722869285961635</v>
+        <v>0.4442559688913659</v>
       </c>
       <c r="W84">
-        <v>0.4052923422570774</v>
+        <v>0.3656247486053409</v>
       </c>
       <c r="X84">
-        <v>0.858148548514306</v>
+        <v>0.8230046959588455</v>
       </c>
     </row>
     <row r="85">
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0.7834974791951473</v>
+        <v>2.350492437585442</v>
       </c>
       <c r="M85">
         <v>0.4285714285714285</v>
@@ -6683,16 +6683,16 @@
         <v>19.60694461463513</v>
       </c>
       <c r="U85">
-        <v>4.287068907766575</v>
+        <v>5.85406386615687</v>
       </c>
       <c r="V85">
-        <v>0.5192216030808595</v>
+        <v>0.4669661789832253</v>
       </c>
       <c r="W85">
-        <v>0.3394825183061031</v>
+        <v>0.2934449829197786</v>
       </c>
       <c r="X85">
-        <v>0.6538297256734804</v>
+        <v>0.6284073582346525</v>
       </c>
     </row>
     <row r="86">
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="L86">
-        <v>0.8026055067751927</v>
+        <v>2.407816520325579</v>
       </c>
       <c r="M86">
         <v>0.2142857142857143</v>
@@ -6757,16 +6757,16 @@
         <v>22.17365502703706</v>
       </c>
       <c r="U86">
-        <v>3.591891221060907</v>
+        <v>5.197102234611293</v>
       </c>
       <c r="V86">
-        <v>0.2143889283726865</v>
+        <v>0.2229148401501477</v>
       </c>
       <c r="W86">
-        <v>0.4041983885588305</v>
+        <v>0.3650132171217497</v>
       </c>
       <c r="X86">
-        <v>1.885351037606689</v>
+        <v>1.63745588618456</v>
       </c>
     </row>
     <row r="87">
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.6171504618539159</v>
+        <v>1.851451385561748</v>
       </c>
       <c r="M87">
         <v>0.3928571428571428</v>
@@ -6831,16 +6831,16 @@
         <v>20.19450544574737</v>
       </c>
       <c r="U87">
-        <v>4.135007604711058</v>
+        <v>5.369308528418891</v>
       </c>
       <c r="V87">
-        <v>0.3628109115974656</v>
+        <v>0.406639825333979</v>
       </c>
       <c r="W87">
-        <v>0.3681439270614694</v>
+        <v>0.3570226442290506</v>
       </c>
       <c r="X87">
-        <v>1.014699159516792</v>
+        <v>0.8779824847106968</v>
       </c>
     </row>
     <row r="88">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.6541733378929641</v>
+        <v>1.962520013678892</v>
       </c>
       <c r="M88">
         <v>0.3214285714285715</v>
@@ -6905,16 +6905,16 @@
         <v>19.55798182227625</v>
       </c>
       <c r="U88">
-        <v>3.525601909321535</v>
+        <v>4.833948585107463</v>
       </c>
       <c r="V88">
-        <v>0.4233543311346448</v>
+        <v>0.4204708073987601</v>
       </c>
       <c r="W88">
-        <v>0.4003472319943351</v>
+        <v>0.3524566246333184</v>
       </c>
       <c r="X88">
-        <v>0.9456552172771031</v>
+        <v>0.8382427945801731</v>
       </c>
     </row>
     <row r="89">
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0.8012089261338704</v>
+        <v>2.403626778401611</v>
       </c>
       <c r="M89">
         <v>0.1785714285714286</v>
@@ -6979,16 +6979,16 @@
         <v>19.57452773212275</v>
       </c>
       <c r="U89">
-        <v>2.929780354705299</v>
+        <v>4.532198206973039</v>
       </c>
       <c r="V89">
-        <v>0.4077362458298052</v>
+        <v>0.436244888988852</v>
       </c>
       <c r="W89">
-        <v>0.2992946449492584</v>
+        <v>0.3146764085406571</v>
       </c>
       <c r="X89">
-        <v>0.734039830920963</v>
+        <v>0.7213297312663725</v>
       </c>
     </row>
     <row r="90">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>0.7580390072966219</v>
+        <v>2.274117021889866</v>
       </c>
       <c r="M90">
         <v>0.1785714285714286</v>
@@ -7053,16 +7053,16 @@
         <v>20.45521907321868</v>
       </c>
       <c r="U90">
-        <v>4.474110435868051</v>
+        <v>5.990188450461294</v>
       </c>
       <c r="V90">
-        <v>0.5173218060856527</v>
+        <v>0.471459908038299</v>
       </c>
       <c r="W90">
-        <v>0.2973143581062854</v>
+        <v>0.2680333120737871</v>
       </c>
       <c r="X90">
-        <v>0.5747183950275222</v>
+        <v>0.5685177201791112</v>
       </c>
     </row>
     <row r="91">
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0.7544602289014898</v>
+        <v>2.263380686704469</v>
       </c>
       <c r="M91">
         <v>0.3928571428571428</v>
@@ -7127,16 +7127,16 @@
         <v>19.13344435800491</v>
       </c>
       <c r="U91">
-        <v>4.547317371758632</v>
+        <v>6.056237829561613</v>
       </c>
       <c r="V91">
-        <v>0.3961329962979934</v>
+        <v>0.3463230932837521</v>
       </c>
       <c r="W91">
-        <v>0.279495230878381</v>
+        <v>0.2550732749697144</v>
       </c>
       <c r="X91">
-        <v>0.7055590760940527</v>
+        <v>0.7365182395178187</v>
       </c>
     </row>
     <row r="92">
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>0.7895644564159231</v>
+        <v>2.368693369247769</v>
       </c>
       <c r="M92">
         <v>0.5357142857142857</v>
@@ -7201,16 +7201,16 @@
         <v>20.75420506945067</v>
       </c>
       <c r="U92">
-        <v>5.225278742130209</v>
+        <v>6.804407654962055</v>
       </c>
       <c r="V92">
-        <v>0.4464658704085007</v>
+        <v>0.4144015771750319</v>
       </c>
       <c r="W92">
-        <v>0.1210458514831964</v>
+        <v>0.1126423304187946</v>
       </c>
       <c r="X92">
-        <v>0.271120055318996</v>
+        <v>0.2718192608886176</v>
       </c>
     </row>
     <row r="93">
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>0.7468797462176233</v>
+        <v>2.24063923865287</v>
       </c>
       <c r="M93">
         <v>0.3214285714285715</v>
@@ -7275,16 +7275,16 @@
         <v>19.41554176587121</v>
       </c>
       <c r="U93">
-        <v>4.055808317646195</v>
+        <v>5.549567810081442</v>
       </c>
       <c r="V93">
-        <v>0.5156173992594805</v>
+        <v>0.4628580689531647</v>
       </c>
       <c r="W93">
-        <v>0.3803826674791564</v>
+        <v>0.3396568437758772</v>
       </c>
       <c r="X93">
-        <v>0.7377227146047718</v>
+        <v>0.733825046075293</v>
       </c>
     </row>
     <row r="94">
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>0.7379618296624892</v>
+        <v>2.213885488987468</v>
       </c>
       <c r="M94">
         <v>0.3214285714285715</v>
@@ -7349,16 +7349,16 @@
         <v>18.29151747716</v>
       </c>
       <c r="U94">
-        <v>3.984390401091061</v>
+        <v>5.460314060416039</v>
       </c>
       <c r="V94">
-        <v>0.5116369182376252</v>
+        <v>0.461345503805294</v>
       </c>
       <c r="W94">
-        <v>0.389585230245739</v>
+        <v>0.3493372839460246</v>
       </c>
       <c r="X94">
-        <v>0.7614486296018216</v>
+        <v>0.7572140208685306</v>
       </c>
     </row>
     <row r="95">
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>0.6036404334673501</v>
+        <v>1.81092130040205</v>
       </c>
       <c r="M95">
         <v>0.3214285714285715</v>
@@ -7423,16 +7423,16 @@
         <v>17.95644701278351</v>
       </c>
       <c r="U95">
-        <v>3.837569004895921</v>
+        <v>5.044849871830621</v>
       </c>
       <c r="V95">
-        <v>0.5197781498355777</v>
+        <v>0.4672017012496297</v>
       </c>
       <c r="W95">
-        <v>0.4024567860380175</v>
+        <v>0.3645808014334</v>
       </c>
       <c r="X95">
-        <v>0.7742856950899674</v>
+        <v>0.7803499012487575</v>
       </c>
     </row>
     <row r="96">
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>0.8374605769552182</v>
+        <v>2.512381730865655</v>
       </c>
       <c r="M96">
         <v>0.5</v>
@@ -7497,16 +7497,16 @@
         <v>18.41880985493041</v>
       </c>
       <c r="U96">
-        <v>4.612460576955218</v>
+        <v>6.287381730865655</v>
       </c>
       <c r="V96">
-        <v>0.3453866303000055</v>
+        <v>0.2480977583089166</v>
       </c>
       <c r="W96">
-        <v>0.263303722434128</v>
+        <v>0.2083562895217395</v>
       </c>
       <c r="X96">
-        <v>0.762344860324849</v>
+        <v>0.8398152846762389</v>
       </c>
     </row>
     <row r="97">
@@ -7544,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0.7178319405321474</v>
+        <v>2.153495821596442</v>
       </c>
       <c r="M97">
         <v>0.2857142857142857</v>
@@ -7571,16 +7571,16 @@
         <v>18.65432648174021</v>
       </c>
       <c r="U97">
-        <v>3.741046226246433</v>
+        <v>5.176710107310727</v>
       </c>
       <c r="V97">
-        <v>0.509735021199069</v>
+        <v>0.4561254759310578</v>
       </c>
       <c r="W97">
-        <v>0.4061652859885878</v>
+        <v>0.3653678052597679</v>
       </c>
       <c r="X97">
-        <v>0.7968165205387493</v>
+        <v>0.8010247717779139</v>
       </c>
     </row>
     <row r="98">
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>0.60576173647291</v>
+        <v>1.81728520941873</v>
       </c>
       <c r="M98">
         <v>0.1785714285714286</v>
@@ -7645,16 +7645,16 @@
         <v>16.42612093985575</v>
       </c>
       <c r="U98">
-        <v>2.471833165044338</v>
+        <v>3.683356637990158</v>
       </c>
       <c r="V98">
-        <v>0.1979370339231533</v>
+        <v>0.1949579920459104</v>
       </c>
       <c r="W98">
-        <v>0.1862803844939444</v>
+        <v>0.1517523832873257</v>
       </c>
       <c r="X98">
-        <v>0.9411093053271955</v>
+        <v>0.778385034103089</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.670541355976034</v>
+        <v>2.011624067928102</v>
       </c>
       <c r="M99">
         <v>0.3214285714285715</v>
@@ -7719,16 +7719,16 @@
         <v>19.55507034650928</v>
       </c>
       <c r="U99">
-        <v>3.479469927404605</v>
+        <v>4.820552639356674</v>
       </c>
       <c r="V99">
-        <v>0.367288805762299</v>
+        <v>0.2933898983361315</v>
       </c>
       <c r="W99">
-        <v>0.3966192462155538</v>
+        <v>0.3512565827399917</v>
       </c>
       <c r="X99">
-        <v>1.079856614176901</v>
+        <v>1.197234753929951</v>
       </c>
     </row>
     <row r="100">
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.7191226096087097</v>
+        <v>2.157367828826129</v>
       </c>
       <c r="M100">
         <v>0.5</v>
@@ -7793,16 +7793,16 @@
         <v>17.66952096601804</v>
       </c>
       <c r="U100">
-        <v>3.59412260960871</v>
+        <v>5.032367828826128</v>
       </c>
       <c r="V100">
-        <v>0.5150901258305989</v>
+        <v>0.4641527812546685</v>
       </c>
       <c r="W100">
-        <v>0.4042965656583083</v>
+        <v>0.3642305752592274</v>
       </c>
       <c r="X100">
-        <v>0.7849045155085578</v>
+        <v>0.7847213029181088</v>
       </c>
     </row>
     <row r="101">
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.8082856835229185</v>
+        <v>2.424857050568756</v>
       </c>
       <c r="M101">
         <v>0.2857142857142857</v>
@@ -7867,16 +7867,16 @@
         <v>18.69109711074927</v>
       </c>
       <c r="U101">
-        <v>3.843999969237204</v>
+        <v>5.460571336283042</v>
       </c>
       <c r="V101">
-        <v>0.5105199786144368</v>
+        <v>0.4566683272978856</v>
       </c>
       <c r="W101">
-        <v>0.4020726487714391</v>
+        <v>0.3493123474278543</v>
       </c>
       <c r="X101">
-        <v>0.7875747583134233</v>
+        <v>0.764914767561704</v>
       </c>
     </row>
     <row r="102">
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.7526429672624373</v>
+        <v>2.257928901787312</v>
       </c>
       <c r="M102">
         <v>0.2857142857142857</v>
@@ -7941,16 +7941,16 @@
         <v>18.83163961367925</v>
       </c>
       <c r="U102">
-        <v>3.950857252976723</v>
+        <v>5.456143187501597</v>
       </c>
       <c r="V102">
-        <v>0.3527296289938118</v>
+        <v>0.3158187965064648</v>
       </c>
       <c r="W102">
-        <v>0.3932632810931649</v>
+        <v>0.3497390812417108</v>
       </c>
       <c r="X102">
-        <v>1.114914225422396</v>
+        <v>1.107404261907355</v>
       </c>
     </row>
     <row r="103">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.6358566768534588</v>
+        <v>1.907570030560377</v>
       </c>
       <c r="M103">
         <v>0.1428571428571428</v>
@@ -8015,16 +8015,16 @@
         <v>19.16766113682568</v>
       </c>
       <c r="U103">
-        <v>2.028713819710601</v>
+        <v>3.300427173417519</v>
       </c>
       <c r="V103">
-        <v>0.08828831230334765</v>
+        <v>0.07414385675973914</v>
       </c>
       <c r="W103">
-        <v>0.09568810183811829</v>
+        <v>0.0895750136685345</v>
       </c>
       <c r="X103">
-        <v>1.083813919891751</v>
+        <v>1.208124551151952</v>
       </c>
     </row>
     <row r="104">
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>0.7267102129248395</v>
+        <v>2.180130638774519</v>
       </c>
       <c r="M104">
         <v>0.4285714285714285</v>
@@ -8089,16 +8089,16 @@
         <v>18.27836606812386</v>
       </c>
       <c r="U104">
-        <v>5.692781641496268</v>
+        <v>7.146202067345947</v>
       </c>
       <c r="V104">
-        <v>0.09430752256790607</v>
+        <v>0.1218380793453735</v>
       </c>
       <c r="W104">
-        <v>0.05147253054973507</v>
+        <v>0.06630759178235278</v>
       </c>
       <c r="X104">
-        <v>0.5457945363019403</v>
+        <v>0.5442271590180859</v>
       </c>
     </row>
     <row r="105">
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.5043111405745481</v>
+        <v>1.512933421723644</v>
       </c>
       <c r="M105">
         <v>0.25</v>
@@ -8163,16 +8163,16 @@
         <v>17.84945347038483</v>
       </c>
       <c r="U105">
-        <v>2.629311140574548</v>
+        <v>3.637933421723644</v>
       </c>
       <c r="V105">
-        <v>0.5155284108050288</v>
+        <v>0.429578331856367</v>
       </c>
       <c r="W105">
-        <v>0.2247260917350526</v>
+        <v>0.1434745533375774</v>
       </c>
       <c r="X105">
-        <v>0.4359140777210109</v>
+        <v>0.3339892697044813</v>
       </c>
     </row>
     <row r="106">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.6868102202962333</v>
+        <v>2.0604306608887</v>
       </c>
       <c r="M106">
         <v>0.1785714285714286</v>
@@ -8237,16 +8237,16 @@
         <v>17.59206342404099</v>
       </c>
       <c r="U106">
-        <v>3.240381648867662</v>
+        <v>4.614002089460128</v>
       </c>
       <c r="V106">
-        <v>0.3207556564696968</v>
+        <v>0.2650787780919726</v>
       </c>
       <c r="W106">
-        <v>0.3647014246136647</v>
+        <v>0.3269613890515858</v>
       </c>
       <c r="X106">
-        <v>1.137006993509153</v>
+        <v>1.233449887633563</v>
       </c>
     </row>
     <row r="107">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>0.8266990906239741</v>
+        <v>2.480097271871922</v>
       </c>
       <c r="M107">
         <v>0.5</v>
@@ -8311,16 +8311,16 @@
         <v>19.60484438290075</v>
       </c>
       <c r="U107">
-        <v>4.226699090623974</v>
+        <v>5.880097271871922</v>
       </c>
       <c r="V107">
-        <v>0.5154910752662556</v>
+        <v>0.449956810716743</v>
       </c>
       <c r="W107">
-        <v>0.3515932952021836</v>
+        <v>0.2887529244028886</v>
       </c>
       <c r="X107">
-        <v>0.6820550579281759</v>
+        <v>0.6417347565934821</v>
       </c>
     </row>
     <row r="108">
@@ -8358,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>0.5837408782308976</v>
+        <v>1.751222634692693</v>
       </c>
       <c r="M108">
         <v>0.2857142857142857</v>
@@ -8385,16 +8385,16 @@
         <v>18.54725156918602</v>
       </c>
       <c r="U108">
-        <v>3.556955163945183</v>
+        <v>4.724436920406979</v>
       </c>
       <c r="V108">
-        <v>0.5048211600192973</v>
+        <v>0.4187352462317014</v>
       </c>
       <c r="W108">
-        <v>0.4023929556618715</v>
+        <v>0.3412528114099187</v>
       </c>
       <c r="X108">
-        <v>0.7971000178488746</v>
+        <v>0.8149608003647516</v>
       </c>
     </row>
     <row r="109">
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.8141385720480027</v>
+        <v>2.442415716144008</v>
       </c>
       <c r="M109">
         <v>0.5357142857142857</v>
@@ -8459,16 +8459,16 @@
         <v>20.04733938875276</v>
       </c>
       <c r="U109">
-        <v>4.012352857762289</v>
+        <v>5.640630001858294</v>
       </c>
       <c r="V109">
-        <v>0.5146310091589346</v>
+        <v>0.4747949741502626</v>
       </c>
       <c r="W109">
-        <v>0.3861995074506542</v>
+        <v>0.3277875260758299</v>
       </c>
       <c r="X109">
-        <v>0.7504396365112608</v>
+        <v>0.6903769920110657</v>
       </c>
     </row>
     <row r="110">
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.6702559171012707</v>
+        <v>2.010767751303812</v>
       </c>
       <c r="M110">
         <v>0.25</v>
@@ -8533,16 +8533,16 @@
         <v>17.40830234260711</v>
       </c>
       <c r="U110">
-        <v>1.970255917101271</v>
+        <v>3.310767751303812</v>
       </c>
       <c r="V110">
-        <v>0.2812972929129117</v>
+        <v>0.2756413920329596</v>
       </c>
       <c r="W110">
-        <v>0.08631350475667576</v>
+        <v>0.0910064945097445</v>
       </c>
       <c r="X110">
-        <v>0.3068408652741568</v>
+        <v>0.3301626574968918</v>
       </c>
     </row>
     <row r="111">
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="L111">
-        <v>0.7526301764018944</v>
+        <v>2.257890529205683</v>
       </c>
       <c r="M111">
         <v>0.4642857142857143</v>
@@ -8607,16 +8607,16 @@
         <v>19.90043834169022</v>
       </c>
       <c r="U111">
-        <v>4.529415890687609</v>
+        <v>6.034676243491397</v>
       </c>
       <c r="V111">
-        <v>0.4134768440790468</v>
+        <v>0.369698774578535</v>
       </c>
       <c r="W111">
-        <v>0.2838973204222783</v>
+        <v>0.2593381199251292</v>
       </c>
       <c r="X111">
-        <v>0.6866099625351788</v>
+        <v>0.7014849324853201</v>
       </c>
     </row>
     <row r="112">
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0.6365617079499606</v>
+        <v>1.909685123849882</v>
       </c>
       <c r="M112">
         <v>0.1785714285714286</v>
@@ -8681,16 +8681,16 @@
         <v>17.72583968959787</v>
       </c>
       <c r="U112">
-        <v>2.527633136521389</v>
+        <v>3.80075655242131</v>
       </c>
       <c r="V112">
-        <v>0.5196278221157762</v>
+        <v>0.4747957342598061</v>
       </c>
       <c r="W112">
-        <v>0.1996733561198548</v>
+        <v>0.174024184890387</v>
       </c>
       <c r="X112">
-        <v>0.3842622500597483</v>
+        <v>0.3665243226367356</v>
       </c>
     </row>
     <row r="113">
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="L113">
-        <v>0.8150762534054867</v>
+        <v>2.44522876021646</v>
       </c>
       <c r="M113">
         <v>0.3214285714285715</v>
@@ -8755,16 +8755,16 @@
         <v>19.19299824099405</v>
       </c>
       <c r="U113">
-        <v>4.324004824834057</v>
+        <v>5.954157331645032</v>
       </c>
       <c r="V113">
-        <v>0.3952333573514274</v>
+        <v>0.3023671880653709</v>
       </c>
       <c r="W113">
-        <v>0.3316598716151594</v>
+        <v>0.2749535139642586</v>
       </c>
       <c r="X113">
-        <v>0.8391494934478906</v>
+        <v>0.9093364783509991</v>
       </c>
     </row>
     <row r="114">
@@ -8802,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="L114">
-        <v>0.7337260890060199</v>
+        <v>2.20117826701806</v>
       </c>
       <c r="M114">
         <v>0.2857142857142857</v>
@@ -8829,16 +8829,16 @@
         <v>21.40635748113428</v>
       </c>
       <c r="U114">
-        <v>4.794440374720306</v>
+        <v>6.261892552732345</v>
       </c>
       <c r="V114">
-        <v>0.4769296023336116</v>
+        <v>0.4490064748399546</v>
       </c>
       <c r="W114">
-        <v>0.2177278252471219</v>
+        <v>0.2135264081937705</v>
       </c>
       <c r="X114">
-        <v>0.4565198389485197</v>
+        <v>0.4755530714114549</v>
       </c>
     </row>
     <row r="115">
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0.8325288185659225</v>
+        <v>2.497586455697768</v>
       </c>
       <c r="M115">
         <v>0.6785714285714286</v>
@@ -8903,16 +8903,16 @@
         <v>18.48202664911083</v>
       </c>
       <c r="U115">
-        <v>5.361100247137351</v>
+        <v>7.026157884269196</v>
       </c>
       <c r="V115">
-        <v>0.0273916598724775</v>
+        <v>0.02253535165204875</v>
       </c>
       <c r="W115">
-        <v>0.09665307949074527</v>
+        <v>0.08076981783552736</v>
       </c>
       <c r="X115">
-        <v>3.528558690518059</v>
+        <v>3.584138338847904</v>
       </c>
     </row>
     <row r="116">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="L116">
-        <v>0.6397440500515538</v>
+        <v>1.919232150154661</v>
       </c>
       <c r="M116">
         <v>0.5714285714285714</v>
@@ -8977,16 +8977,16 @@
         <v>18.97043020219214</v>
       </c>
       <c r="U116">
-        <v>2.773672621480125</v>
+        <v>4.053160721583232</v>
       </c>
       <c r="V116">
-        <v>0.3953181498029859</v>
+        <v>0.3700175456326973</v>
       </c>
       <c r="W116">
-        <v>0.2609312114979421</v>
+        <v>0.2246180287773648</v>
       </c>
       <c r="X116">
-        <v>0.6600537102280327</v>
+        <v>0.6070469669033879</v>
       </c>
     </row>
     <row r="117">
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="L117">
-        <v>0.7396902743759974</v>
+        <v>2.219070823127992</v>
       </c>
       <c r="M117">
         <v>0.3571428571428572</v>
@@ -9051,16 +9051,16 @@
         <v>18.85774416531784</v>
       </c>
       <c r="U117">
-        <v>4.109333131518855</v>
+        <v>5.58871368027085</v>
       </c>
       <c r="V117">
-        <v>0.5157821348036704</v>
+        <v>0.4616652137501775</v>
       </c>
       <c r="W117">
-        <v>0.3723332702120346</v>
+        <v>0.3347884177604171</v>
       </c>
       <c r="X117">
-        <v>0.7218808971616691</v>
+        <v>0.7251757502820697</v>
       </c>
     </row>
     <row r="118">
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <v>0.8285981579084265</v>
+        <v>2.48579447372528</v>
       </c>
       <c r="M118">
         <v>0.3928571428571428</v>
@@ -9125,16 +9125,16 @@
         <v>19.38903240710547</v>
       </c>
       <c r="U118">
-        <v>4.246455300765569</v>
+        <v>5.903651616582422</v>
       </c>
       <c r="V118">
-        <v>0.4805696795392662</v>
+        <v>0.4579952026784259</v>
       </c>
       <c r="W118">
-        <v>0.347728033892664</v>
+        <v>0.2844327389523967</v>
       </c>
       <c r="X118">
-        <v>0.7235746421331436</v>
+        <v>0.6210386861892672</v>
       </c>
     </row>
     <row r="119">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="L119">
-        <v>0.7369907308975978</v>
+        <v>2.210972192692793</v>
       </c>
       <c r="M119">
         <v>0.3571428571428572</v>
@@ -9199,16 +9199,16 @@
         <v>20.83465610455659</v>
       </c>
       <c r="U119">
-        <v>4.681633588040455</v>
+        <v>6.15561504983565</v>
       </c>
       <c r="V119">
-        <v>0.4361968539980204</v>
+        <v>0.4070018872745778</v>
       </c>
       <c r="W119">
-        <v>0.2459467098301483</v>
+        <v>0.2351152324270054</v>
       </c>
       <c r="X119">
-        <v>0.5638433830411452</v>
+        <v>0.5776760250460176</v>
       </c>
     </row>
     <row r="120">
@@ -9246,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="L120">
-        <v>0.7433085788957509</v>
+        <v>2.229925736687253</v>
       </c>
       <c r="M120">
         <v>0.3928571428571428</v>
@@ -9273,16 +9273,16 @@
         <v>21.46615844288753</v>
       </c>
       <c r="U120">
-        <v>3.973665721752893</v>
+        <v>5.460282879544396</v>
       </c>
       <c r="V120">
-        <v>0.3408708643294627</v>
+        <v>0.3202366801673445</v>
       </c>
       <c r="W120">
-        <v>0.390807437275983</v>
+        <v>0.3493403049594628</v>
       </c>
       <c r="X120">
-        <v>1.146497040880135</v>
+        <v>1.090881609117699</v>
       </c>
     </row>
     <row r="121">
@@ -9320,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="L121">
-        <v>0.7952563328277484</v>
+        <v>2.385768998483245</v>
       </c>
       <c r="M121">
         <v>0.25</v>
@@ -9347,16 +9347,16 @@
         <v>20.04432712039029</v>
       </c>
       <c r="U121">
-        <v>4.282756332827748</v>
+        <v>5.873268998483245</v>
       </c>
       <c r="V121">
-        <v>0.4784372130535586</v>
+        <v>0.4406524456628142</v>
       </c>
       <c r="W121">
-        <v>0.3403763807557049</v>
+        <v>0.2899922688896152</v>
       </c>
       <c r="X121">
-        <v>0.7114337502789555</v>
+        <v>0.6580974909907032</v>
       </c>
     </row>
     <row r="122">
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="L122">
-        <v>0.7593933217835268</v>
+        <v>2.278179965350581</v>
       </c>
       <c r="M122">
         <v>0.4285714285714285</v>
@@ -9421,16 +9421,16 @@
         <v>18.53507538770945</v>
       </c>
       <c r="U122">
-        <v>4.100464750354956</v>
+        <v>5.619251393922009</v>
       </c>
       <c r="V122">
-        <v>0.4766344775255967</v>
+        <v>0.4174422617018835</v>
       </c>
       <c r="W122">
-        <v>0.373731931679363</v>
+        <v>0.3307432224521994</v>
       </c>
       <c r="X122">
-        <v>0.7841059539367722</v>
+        <v>0.7923089078326232</v>
       </c>
     </row>
     <row r="123">
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>0.6715034046292343</v>
+        <v>2.014510213887703</v>
       </c>
       <c r="M123">
         <v>0.1071428571428571</v>
@@ -9495,16 +9495,16 @@
         <v>19.63945419828278</v>
       </c>
       <c r="U123">
-        <v>2.953646261772091</v>
+        <v>4.29665307103056</v>
       </c>
       <c r="V123">
-        <v>0.2374805694316657</v>
+        <v>0.2165253463284006</v>
       </c>
       <c r="W123">
-        <v>0.3049564734775562</v>
+        <v>0.2731077457861723</v>
       </c>
       <c r="X123">
-        <v>1.284132315361095</v>
+        <v>1.261319981319665</v>
       </c>
     </row>
     <row r="124">
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.795502691869916</v>
+        <v>2.386508075609748</v>
       </c>
       <c r="M124">
         <v>0.25</v>
@@ -9569,16 +9569,16 @@
         <v>19.46904677936768</v>
       </c>
       <c r="U124">
-        <v>2.858002691869916</v>
+        <v>4.449008075609748</v>
       </c>
       <c r="V124">
-        <v>0.4587576751576076</v>
+        <v>0.4547925613463711</v>
       </c>
       <c r="W124">
-        <v>0.2818854414159581</v>
+        <v>0.300916179503269</v>
       </c>
       <c r="X124">
-        <v>0.6144538972979918</v>
+        <v>0.6616558956295033</v>
       </c>
     </row>
     <row r="125">
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.5528094616435706</v>
+        <v>1.658428384930712</v>
       </c>
       <c r="M125">
         <v>0.25</v>
@@ -9643,16 +9643,16 @@
         <v>19.01020261362665</v>
       </c>
       <c r="U125">
-        <v>1.602809461643571</v>
+        <v>2.708428384930712</v>
       </c>
       <c r="V125">
-        <v>0.05721365087663787</v>
+        <v>0.03879403130555308</v>
       </c>
       <c r="W125">
-        <v>0.04162162007436439</v>
+        <v>0.0311119163512957</v>
       </c>
       <c r="X125">
-        <v>0.7274770869649188</v>
+        <v>0.8019768841822392</v>
       </c>
     </row>
     <row r="126">
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <v>0.7899299034541929</v>
+        <v>2.369789710362578</v>
       </c>
       <c r="M126">
         <v>0.25</v>
@@ -9717,16 +9717,16 @@
         <v>18.83382955665018</v>
       </c>
       <c r="U126">
-        <v>3.802429903454193</v>
+        <v>5.382289710362579</v>
       </c>
       <c r="V126">
-        <v>0.4908675955899456</v>
+        <v>0.4575479504995269</v>
       </c>
       <c r="W126">
-        <v>0.4042554667940685</v>
+        <v>0.3560676281766708</v>
       </c>
       <c r="X126">
-        <v>0.8235529711595997</v>
+        <v>0.778208333766843</v>
       </c>
     </row>
     <row r="127">
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.8265885971507028</v>
+        <v>2.479765791452108</v>
       </c>
       <c r="M127">
         <v>0.3571428571428572</v>
@@ -9791,16 +9791,16 @@
         <v>19.70604808305248</v>
       </c>
       <c r="U127">
-        <v>2.93373145429356</v>
+        <v>4.586908648594965</v>
       </c>
       <c r="V127">
-        <v>0.3176279891930673</v>
+        <v>0.3757201524150954</v>
       </c>
       <c r="W127">
-        <v>0.300236937651596</v>
+        <v>0.323041506391583</v>
       </c>
       <c r="X127">
-        <v>0.9452471062589501</v>
+        <v>0.8597928652884366</v>
       </c>
     </row>
     <row r="128">
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="L128">
-        <v>0.6553720107024275</v>
+        <v>1.966116032107282</v>
       </c>
       <c r="M128">
         <v>0.1071428571428571</v>
@@ -9865,16 +9865,16 @@
         <v>17.9780119778667</v>
       </c>
       <c r="U128">
-        <v>3.687514867845285</v>
+        <v>4.998258889250139</v>
       </c>
       <c r="V128">
-        <v>0.5196906150851656</v>
+        <v>0.4624132468139872</v>
       </c>
       <c r="W128">
-        <v>0.4065374575602085</v>
+        <v>0.3630327770550857</v>
       </c>
       <c r="X128">
-        <v>0.7822682299036442</v>
+        <v>0.7850829956891811</v>
       </c>
     </row>
     <row r="129">
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0.6482288574430063</v>
+        <v>1.944686572329019</v>
       </c>
       <c r="M129">
         <v>0.2142857142857143</v>
@@ -9939,16 +9939,16 @@
         <v>16.37008062104248</v>
       </c>
       <c r="U129">
-        <v>1.862514571728721</v>
+        <v>3.158972286614733</v>
       </c>
       <c r="V129">
-        <v>0.339196260454868</v>
+        <v>0.2903444306374039</v>
       </c>
       <c r="W129">
-        <v>0.07071471857112414</v>
+        <v>0.07146247551979429</v>
       </c>
       <c r="X129">
-        <v>0.2084772941667886</v>
+        <v>0.2461300027794922</v>
       </c>
     </row>
     <row r="130">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.7591437667567387</v>
+        <v>2.277431300270216</v>
       </c>
       <c r="M130">
         <v>0.25</v>
@@ -10013,16 +10013,16 @@
         <v>18.84651225504585</v>
       </c>
       <c r="U130">
-        <v>3.046643766756739</v>
+        <v>4.564931300270216</v>
       </c>
       <c r="V130">
-        <v>0.4534049610878912</v>
+        <v>0.44364037463434</v>
       </c>
       <c r="W130">
-        <v>0.3262132094406844</v>
+        <v>0.3197514552145111</v>
       </c>
       <c r="X130">
-        <v>0.7194742833381765</v>
+        <v>0.7207447146307607</v>
       </c>
     </row>
     <row r="131">
@@ -10060,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <v>0.5892769623726143</v>
+        <v>1.767830887117843</v>
       </c>
       <c r="M131">
         <v>0.25</v>
@@ -10087,16 +10087,16 @@
         <v>16.46292394967578</v>
       </c>
       <c r="U131">
-        <v>3.339276962372614</v>
+        <v>4.517830887117842</v>
       </c>
       <c r="V131">
-        <v>0.4731101608193313</v>
+        <v>0.3592673207965894</v>
       </c>
       <c r="W131">
-        <v>0.3803080301667427</v>
+        <v>0.312385536434072</v>
       </c>
       <c r="X131">
-        <v>0.8038466760217662</v>
+        <v>0.8695072397384538</v>
       </c>
     </row>
     <row r="132">
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.7036521698538338</v>
+        <v>2.110956509561501</v>
       </c>
       <c r="M132">
         <v>0.2857142857142857</v>
@@ -10161,16 +10161,16 @@
         <v>19.03357053337926</v>
       </c>
       <c r="U132">
-        <v>3.51436645556812</v>
+        <v>4.921670795275787</v>
       </c>
       <c r="V132">
-        <v>0.5182848839072511</v>
+        <v>0.4738384468316071</v>
       </c>
       <c r="W132">
-        <v>0.3995173972550996</v>
+        <v>0.3590762623209779</v>
       </c>
       <c r="X132">
-        <v>0.7708451657768097</v>
+        <v>0.7578031388588157</v>
       </c>
     </row>
     <row r="133">
@@ -10208,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="L133">
-        <v>0.5397979660225229</v>
+        <v>1.619393898067569</v>
       </c>
       <c r="M133">
         <v>0.2857142857142857</v>
@@ -10235,16 +10235,16 @@
         <v>19.05722675244315</v>
       </c>
       <c r="U133">
-        <v>4.200512251736809</v>
+        <v>5.280108183781855</v>
       </c>
       <c r="V133">
-        <v>0.4476405288805614</v>
+        <v>0.4730662168877737</v>
       </c>
       <c r="W133">
-        <v>0.3565601662795864</v>
+        <v>0.3622647495024002</v>
       </c>
       <c r="X133">
-        <v>0.7965323586120664</v>
+        <v>0.7657802154752912</v>
       </c>
     </row>
     <row r="134">
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.7358892275282313</v>
+        <v>2.207667682584694</v>
       </c>
       <c r="M134">
         <v>0.3214285714285715</v>
@@ -10309,16 +10309,16 @@
         <v>20.18195866867648</v>
       </c>
       <c r="U134">
-        <v>3.344817798956803</v>
+        <v>4.816596254013265</v>
       </c>
       <c r="V134">
-        <v>0.3772775158235454</v>
+        <v>0.3651364554177817</v>
       </c>
       <c r="W134">
-        <v>0.3810873936960869</v>
+        <v>0.3508928208833815</v>
       </c>
       <c r="X134">
-        <v>1.010098343295717</v>
+        <v>0.9609909273011293</v>
       </c>
     </row>
     <row r="135">
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.7419086016864169</v>
+        <v>2.225725805059251</v>
       </c>
       <c r="M135">
         <v>0.3214285714285715</v>
@@ -10383,16 +10383,16 @@
         <v>17.94503814154006</v>
       </c>
       <c r="U135">
-        <v>2.463337173114988</v>
+        <v>3.947154376487823</v>
       </c>
       <c r="V135">
-        <v>0.1721177385683644</v>
+        <v>0.1725615978727681</v>
       </c>
       <c r="W135">
-        <v>0.18426926346595</v>
+        <v>0.2031080416826435</v>
       </c>
       <c r="X135">
-        <v>1.070600072942273</v>
+        <v>1.177017622613797</v>
       </c>
     </row>
     <row r="136">
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="L136">
-        <v>0.837866217385251</v>
+        <v>2.513598652155753</v>
       </c>
       <c r="M136">
         <v>0.6785714285714286</v>
@@ -10457,16 +10457,16 @@
         <v>20.15388092740093</v>
       </c>
       <c r="U136">
-        <v>5.86643764595668</v>
+        <v>7.542170080727182</v>
       </c>
       <c r="V136">
-        <v>0.1532942677871522</v>
+        <v>0.1281456179584917</v>
       </c>
       <c r="W136">
-        <v>0.03536041417510651</v>
+        <v>0.03174275004380741</v>
       </c>
       <c r="X136">
-        <v>0.2306701658551521</v>
+        <v>0.2477084316226042</v>
       </c>
     </row>
     <row r="137">
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>0.9875741864366679</v>
+        <v>2.962722559310004</v>
       </c>
       <c r="M137">
         <v>0.4642857142857143</v>
@@ -10531,16 +10531,16 @@
         <v>20.62546285549218</v>
       </c>
       <c r="U137">
-        <v>5.489359900722382</v>
+        <v>7.464508273595718</v>
       </c>
       <c r="V137">
-        <v>0.1025956693660417</v>
+        <v>0.05070525104430022</v>
       </c>
       <c r="W137">
-        <v>0.07678639569937214</v>
+        <v>0.03705964895157315</v>
       </c>
       <c r="X137">
-        <v>0.7484370068819671</v>
+        <v>0.7308838471028343</v>
       </c>
     </row>
     <row r="138">
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>0.7459783928023366</v>
+        <v>2.23793517840701</v>
       </c>
       <c r="M138">
         <v>0.2857142857142857</v>
@@ -10605,16 +10605,16 @@
         <v>17.83616410468389</v>
       </c>
       <c r="U138">
-        <v>3.306692678516622</v>
+        <v>4.798649464121295</v>
       </c>
       <c r="V138">
-        <v>0.5197389920495501</v>
+        <v>0.471852011860079</v>
       </c>
       <c r="W138">
-        <v>0.3755146094158728</v>
+        <v>0.349189788667192</v>
       </c>
       <c r="X138">
-        <v>0.7225061331940101</v>
+        <v>0.74004090242332</v>
       </c>
     </row>
     <row r="139">
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0.8187745754453081</v>
+        <v>2.456323726335924</v>
       </c>
       <c r="M139">
         <v>0.4642857142857143</v>
@@ -10679,16 +10679,16 @@
         <v>18.1220532820074</v>
       </c>
       <c r="U139">
-        <v>3.970560289731023</v>
+        <v>5.608109440621638</v>
       </c>
       <c r="V139">
-        <v>0.3476433311683865</v>
+        <v>0.279047189052878</v>
       </c>
       <c r="W139">
-        <v>0.3911533305350288</v>
+        <v>0.3322436178271271</v>
       </c>
       <c r="X139">
-        <v>1.125157008536336</v>
+        <v>1.190635960013805</v>
       </c>
     </row>
     <row r="140">
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>0.8525218172021186</v>
+        <v>2.557565451606356</v>
       </c>
       <c r="M140">
         <v>0.5357142857142857</v>
@@ -10753,16 +10753,16 @@
         <v>20.86938838510281</v>
       </c>
       <c r="U140">
-        <v>4.713236102916404</v>
+        <v>6.418279737320642</v>
       </c>
       <c r="V140">
-        <v>0.5193250907367291</v>
+        <v>0.4639621348682695</v>
       </c>
       <c r="W140">
-        <v>0.2380084515512732</v>
+        <v>0.1821397727382053</v>
       </c>
       <c r="X140">
-        <v>0.4583033937636785</v>
+        <v>0.3925746500625948</v>
       </c>
     </row>
     <row r="141">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>0.7127379727967573</v>
+        <v>2.138213918390272</v>
       </c>
       <c r="M141">
         <v>0.3928571428571428</v>
@@ -10827,16 +10827,16 @@
         <v>21.74246508293814</v>
       </c>
       <c r="U141">
-        <v>4.530595115653901</v>
+        <v>5.956071061247415</v>
       </c>
       <c r="V141">
-        <v>0.4566021162470312</v>
+        <v>0.3926837013597261</v>
       </c>
       <c r="W141">
-        <v>0.2836081241360763</v>
+        <v>0.2745890393322882</v>
       </c>
       <c r="X141">
-        <v>0.6211274850566798</v>
+        <v>0.6992626339761048</v>
       </c>
     </row>
     <row r="142">
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0.7188128632397069</v>
+        <v>2.156438589719121</v>
       </c>
       <c r="M142">
         <v>0.3928571428571428</v>
@@ -10901,16 +10901,16 @@
         <v>18.40912896837083</v>
       </c>
       <c r="U142">
-        <v>4.86167000609685</v>
+        <v>6.299295732576264</v>
       </c>
       <c r="V142">
-        <v>0.04130067668780858</v>
+        <v>0.05150636236914483</v>
       </c>
       <c r="W142">
-        <v>0.2012061581832938</v>
+        <v>0.2059442590352142</v>
       </c>
       <c r="X142">
-        <v>4.871739988770867</v>
+        <v>3.998423681315655</v>
       </c>
     </row>
     <row r="143">
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0.6137473018260303</v>
+        <v>1.841241905478091</v>
       </c>
       <c r="M143">
         <v>0.2857142857142857</v>
@@ -10975,16 +10975,16 @@
         <v>19.45350405532171</v>
       </c>
       <c r="U143">
-        <v>2.799461587540316</v>
+        <v>4.026956191192377</v>
       </c>
       <c r="V143">
-        <v>0.3810223455946032</v>
+        <v>0.3201997872859423</v>
       </c>
       <c r="W143">
-        <v>0.2673778245445229</v>
+        <v>0.2192902453960492</v>
       </c>
       <c r="X143">
-        <v>0.701737910219589</v>
+        <v>0.6848544380831222</v>
       </c>
     </row>
     <row r="144">
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0.6349909387640372</v>
+        <v>1.904972816292112</v>
       </c>
       <c r="M144">
         <v>0.2857142857142857</v>
@@ -11049,16 +11049,16 @@
         <v>19.75321513937193</v>
       </c>
       <c r="U144">
-        <v>2.495705224478323</v>
+        <v>3.765687102006398</v>
       </c>
       <c r="V144">
-        <v>0.468874830198564</v>
+        <v>0.4093122788644001</v>
       </c>
       <c r="W144">
-        <v>0.1919724520851296</v>
+        <v>0.1672516721957488</v>
       </c>
       <c r="X144">
-        <v>0.4094321975095808</v>
+        <v>0.408616307968511</v>
       </c>
     </row>
     <row r="145">
@@ -11096,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="L145">
-        <v>0.7354572920430147</v>
+        <v>2.206371876129044</v>
       </c>
       <c r="M145">
         <v>0.75</v>
@@ -11123,16 +11123,16 @@
         <v>22.09213867375307</v>
       </c>
       <c r="U145">
-        <v>4.985457292043015</v>
+        <v>6.456371876129045</v>
       </c>
       <c r="V145">
-        <v>0.5115065454455984</v>
+        <v>0.4715147624605254</v>
       </c>
       <c r="W145">
-        <v>0.1718714934379406</v>
+        <v>0.1746766774252856</v>
       </c>
       <c r="X145">
-        <v>0.3360103501475526</v>
+        <v>0.3704585547094281</v>
       </c>
     </row>
     <row r="146">
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>0.5984742178270623</v>
+        <v>1.795422653481187</v>
       </c>
       <c r="M146">
         <v>0.3928571428571428</v>
@@ -11197,16 +11197,16 @@
         <v>19.42182401921087</v>
       </c>
       <c r="U146">
-        <v>3.641331360684205</v>
+        <v>4.83827979633833</v>
       </c>
       <c r="V146">
-        <v>0.5198311224237164</v>
+        <v>0.4445466999990834</v>
       </c>
       <c r="W146">
-        <v>0.4058870330016719</v>
+        <v>0.3528341194808483</v>
       </c>
       <c r="X146">
-        <v>0.7808055645249184</v>
+        <v>0.7936941596497641</v>
       </c>
     </row>
     <row r="147">
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>0.7114559438066353</v>
+        <v>2.134367831419906</v>
       </c>
       <c r="M147">
         <v>0.25</v>
@@ -11271,16 +11271,16 @@
         <v>18.8674388076612</v>
       </c>
       <c r="U147">
-        <v>3.261455943806635</v>
+        <v>4.684367831419906</v>
       </c>
       <c r="V147">
-        <v>0.4439974108708687</v>
+        <v>0.3815171915257133</v>
       </c>
       <c r="W147">
-        <v>0.3682860450092753</v>
+        <v>0.3363948974621084</v>
       </c>
       <c r="X147">
-        <v>0.8294779113394128</v>
+        <v>0.8817293294617793</v>
       </c>
     </row>
     <row r="148">
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0.8132675140166125</v>
+        <v>2.439802542049837</v>
       </c>
       <c r="M148">
         <v>0.4285714285714285</v>
@@ -11345,16 +11345,16 @@
         <v>20.550482709156</v>
       </c>
       <c r="U148">
-        <v>4.954338942588041</v>
+        <v>6.580873970621266</v>
       </c>
       <c r="V148">
-        <v>0.1774452515610768</v>
+        <v>0.1414061883389464</v>
       </c>
       <c r="W148">
-        <v>0.1790846517542048</v>
+        <v>0.1510615608082727</v>
       </c>
       <c r="X148">
-        <v>1.009238907092218</v>
+        <v>1.068281116850294</v>
       </c>
     </row>
     <row r="149">
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="L149">
-        <v>0.7254024387284335</v>
+        <v>2.1762073161853</v>
       </c>
       <c r="M149">
         <v>0.3214285714285715</v>
@@ -11419,16 +11419,16 @@
         <v>18.8486079463732</v>
       </c>
       <c r="U149">
-        <v>4.209331010157005</v>
+        <v>5.660135887613873</v>
       </c>
       <c r="V149">
-        <v>0.5182483107005513</v>
+        <v>0.4746886899927945</v>
       </c>
       <c r="W149">
-        <v>0.354907947372955</v>
+        <v>0.325004878577364</v>
       </c>
       <c r="X149">
-        <v>0.6848221982493332</v>
+        <v>0.6846695222131739</v>
       </c>
     </row>
     <row r="150">
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="L150">
-        <v>0.7687569053361172</v>
+        <v>2.306270716008351</v>
       </c>
       <c r="M150">
         <v>0.3928571428571428</v>
@@ -11493,16 +11493,16 @@
         <v>18.22585296535696</v>
       </c>
       <c r="U150">
-        <v>3.71161404819326</v>
+        <v>5.249127858865494</v>
       </c>
       <c r="V150">
-        <v>0.479552353630931</v>
+        <v>0.4615071563690697</v>
       </c>
       <c r="W150">
-        <v>0.4065195692419656</v>
+        <v>0.3635342249520934</v>
       </c>
       <c r="X150">
-        <v>0.8477063373039511</v>
+        <v>0.7877109161474696</v>
       </c>
     </row>
     <row r="151">
@@ -11540,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>0.8440828776251861</v>
+        <v>2.532248632875559</v>
       </c>
       <c r="M151">
         <v>0.4642857142857143</v>
@@ -11567,16 +11567,16 @@
         <v>21.59399500484791</v>
       </c>
       <c r="U151">
-        <v>4.1583685919109</v>
+        <v>5.846534347161273</v>
       </c>
       <c r="V151">
-        <v>0.154334023722165</v>
+        <v>0.1486686621626122</v>
       </c>
       <c r="W151">
-        <v>0.3641563706309601</v>
+        <v>0.294784904447875</v>
       </c>
       <c r="X151">
-        <v>2.359533963078169</v>
+        <v>1.982831486876787</v>
       </c>
     </row>
     <row r="152">
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.7841045617669674</v>
+        <v>2.352313685300902</v>
       </c>
       <c r="M152">
         <v>0.3928571428571428</v>
@@ -11641,16 +11641,16 @@
         <v>20.26324824643116</v>
       </c>
       <c r="U152">
-        <v>4.10196170462411</v>
+        <v>5.670170828158045</v>
       </c>
       <c r="V152">
-        <v>0.4684762323074477</v>
+        <v>0.428624856666979</v>
       </c>
       <c r="W152">
-        <v>0.3734976142259101</v>
+        <v>0.3235422420335559</v>
       </c>
       <c r="X152">
-        <v>0.7972605405962072</v>
+        <v>0.7548377958045785</v>
       </c>
     </row>
     <row r="153">
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="L153">
-        <v>0.7781999104428533</v>
+        <v>2.33459973132856</v>
       </c>
       <c r="M153">
         <v>0.3928571428571428</v>
@@ -11715,16 +11715,16 @@
         <v>18.8315167230765</v>
       </c>
       <c r="U153">
-        <v>4.996057053299996</v>
+        <v>6.552456874185702</v>
       </c>
       <c r="V153">
-        <v>0.2706424447538128</v>
+        <v>0.2319223501983914</v>
       </c>
       <c r="W153">
-        <v>0.1694425150412314</v>
+        <v>0.1563328176085664</v>
       </c>
       <c r="X153">
-        <v>0.6260751715990559</v>
+        <v>0.6740739625777158</v>
       </c>
     </row>
     <row r="154">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0.8234283399240173</v>
+        <v>2.470285019772052</v>
       </c>
       <c r="M154">
         <v>0.2142857142857143</v>
@@ -11789,16 +11789,16 @@
         <v>18.98352517136041</v>
       </c>
       <c r="U154">
-        <v>3.325214054209732</v>
+        <v>4.972070734057766</v>
       </c>
       <c r="V154">
-        <v>0.5112106422482676</v>
+        <v>0.4747914616978557</v>
       </c>
       <c r="W154">
-        <v>0.3782829592987987</v>
+        <v>0.3618756442470557</v>
       </c>
       <c r="X154">
-        <v>0.7399747345539159</v>
+        <v>0.762178079093898</v>
       </c>
     </row>
     <row r="155">
@@ -11836,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="L155">
-        <v>0.8007717004424481</v>
+        <v>2.402315101327344</v>
       </c>
       <c r="M155">
         <v>0.4285714285714285</v>
@@ -11863,16 +11863,16 @@
         <v>18.23032230174036</v>
       </c>
       <c r="U155">
-        <v>5.641843129013877</v>
+        <v>7.243386529898772</v>
       </c>
       <c r="V155">
-        <v>0.06864147837384604</v>
+        <v>0.05956590236486706</v>
       </c>
       <c r="W155">
-        <v>0.0571248824912555</v>
+        <v>0.05601989123401632</v>
       </c>
       <c r="X155">
-        <v>0.8322210395896918</v>
+        <v>0.9404691108491922</v>
       </c>
     </row>
     <row r="156">
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.6617176021007721</v>
+        <v>1.985152806302317</v>
       </c>
       <c r="M156">
         <v>0.2142857142857143</v>
@@ -11937,16 +11937,16 @@
         <v>17.71934841628534</v>
       </c>
       <c r="U156">
-        <v>3.126003316386487</v>
+        <v>4.449438520588031</v>
       </c>
       <c r="V156">
-        <v>0.5116277058279474</v>
+        <v>0.4741488298087549</v>
       </c>
       <c r="W156">
-        <v>0.3430749917128164</v>
+        <v>0.300990311161472</v>
       </c>
       <c r="X156">
-        <v>0.6705559292525635</v>
+        <v>0.6348013371305263</v>
       </c>
     </row>
     <row r="157">
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.6934102806173945</v>
+        <v>2.080230841852183</v>
       </c>
       <c r="M157">
         <v>0.1428571428571428</v>
@@ -12011,16 +12011,16 @@
         <v>18.51721705357039</v>
       </c>
       <c r="U157">
-        <v>2.036267423474537</v>
+        <v>3.423087984709326</v>
       </c>
       <c r="V157">
-        <v>0.2581405272942395</v>
+        <v>0.2265901102213172</v>
       </c>
       <c r="W157">
-        <v>0.09694638219363086</v>
+        <v>0.1074853835996836</v>
       </c>
       <c r="X157">
-        <v>0.3755566133291705</v>
+        <v>0.4743604365375854</v>
       </c>
     </row>
     <row r="158">
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.5565994684348633</v>
+        <v>1.66979840530459</v>
       </c>
       <c r="M158">
         <v>0.1428571428571428</v>
@@ -12085,16 +12085,16 @@
         <v>16.72343601097455</v>
       </c>
       <c r="U158">
-        <v>1.749456611292006</v>
+        <v>2.862655548161732</v>
       </c>
       <c r="V158">
-        <v>0.4725712907916302</v>
+        <v>0.4153743620440354</v>
       </c>
       <c r="W158">
-        <v>0.05662906446092186</v>
+        <v>0.04215920147987025</v>
       </c>
       <c r="X158">
-        <v>0.1198317916563645</v>
+        <v>0.1014968792787476</v>
       </c>
     </row>
     <row r="159">
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="L159">
-        <v>0.8878309150493714</v>
+        <v>2.663492745148114</v>
       </c>
       <c r="M159">
         <v>0.5714285714285714</v>
@@ -12159,16 +12159,16 @@
         <v>19.7791112895288</v>
       </c>
       <c r="U159">
-        <v>5.209259486477943</v>
+        <v>6.984921316576686</v>
       </c>
       <c r="V159">
-        <v>0.3472553065231737</v>
+        <v>0.2943808953419614</v>
       </c>
       <c r="W159">
-        <v>0.1241447826115119</v>
+        <v>0.08619253673074175</v>
       </c>
       <c r="X159">
-        <v>0.3575029100476174</v>
+        <v>0.2927925626104845</v>
       </c>
     </row>
     <row r="160">
@@ -12206,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="L160">
-        <v>0.632096323131326</v>
+        <v>1.896288969393978</v>
       </c>
       <c r="M160">
         <v>0.3928571428571428</v>
@@ -12233,16 +12233,16 @@
         <v>17.11906934784028</v>
       </c>
       <c r="U160">
-        <v>4.574953465988468</v>
+        <v>5.839146112251121</v>
       </c>
       <c r="V160">
-        <v>0.2089966216118592</v>
+        <v>0.2678465616002888</v>
       </c>
       <c r="W160">
-        <v>0.2726547497128208</v>
+        <v>0.2960919193559116</v>
       </c>
       <c r="X160">
-        <v>1.304589268525044</v>
+        <v>1.105453501388507</v>
       </c>
     </row>
     <row r="161">
@@ -12280,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.7080763294598442</v>
+        <v>2.124228988379533</v>
       </c>
       <c r="M161">
         <v>0.2857142857142857</v>
@@ -12307,16 +12307,16 @@
         <v>18.04677297850771</v>
       </c>
       <c r="U161">
-        <v>3.31879061517413</v>
+        <v>4.734943274093818</v>
       </c>
       <c r="V161">
-        <v>0.5149404920160843</v>
+        <v>0.4640464154571958</v>
       </c>
       <c r="W161">
-        <v>0.3773357841686593</v>
+        <v>0.3424616904725158</v>
       </c>
       <c r="X161">
-        <v>0.7327755148780825</v>
+        <v>0.7379901644862612</v>
       </c>
     </row>
     <row r="162">
@@ -12354,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="L162">
-        <v>0.6545509436056679</v>
+        <v>1.963652830817004</v>
       </c>
       <c r="M162">
         <v>0.3928571428571428</v>
@@ -12381,16 +12381,16 @@
         <v>17.1372485923207</v>
       </c>
       <c r="U162">
-        <v>4.359908086462811</v>
+        <v>5.669009973674147</v>
       </c>
       <c r="V162">
-        <v>0.10791163000913</v>
+        <v>0.134971373245649</v>
       </c>
       <c r="W162">
-        <v>0.3237887334700111</v>
+        <v>0.3237125054746225</v>
       </c>
       <c r="X162">
-        <v>3.000498958662904</v>
+        <v>2.398378987264677</v>
       </c>
     </row>
     <row r="163">
@@ -12428,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.6830458995961642</v>
+        <v>2.049137698788493</v>
       </c>
       <c r="M163">
         <v>0.3928571428571428</v>
@@ -12455,16 +12455,16 @@
         <v>18.70952505074808</v>
       </c>
       <c r="U163">
-        <v>2.688403042453307</v>
+        <v>4.054494841645636</v>
       </c>
       <c r="V163">
-        <v>0.4658069276330667</v>
+        <v>0.4289029563179447</v>
       </c>
       <c r="W163">
-        <v>0.2395213835058622</v>
+        <v>0.2248892409478911</v>
       </c>
       <c r="X163">
-        <v>0.5142074307974698</v>
+        <v>0.5243359544045234</v>
       </c>
     </row>
     <row r="164">
@@ -12502,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.6132042605574376</v>
+        <v>1.839612781672313</v>
       </c>
       <c r="M164">
         <v>0.25</v>
@@ -12529,16 +12529,16 @@
         <v>16.53537443532108</v>
       </c>
       <c r="U164">
-        <v>1.813204260557438</v>
+        <v>3.039612781672313</v>
       </c>
       <c r="V164">
-        <v>0.3236201671537348</v>
+        <v>0.2859847267781653</v>
       </c>
       <c r="W164">
-        <v>0.06428994724959758</v>
+        <v>0.05829262559964098</v>
       </c>
       <c r="X164">
-        <v>0.1986586553459656</v>
+        <v>0.203831254404218</v>
       </c>
     </row>
     <row r="165">
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.6217403597301946</v>
+        <v>1.865221079190584</v>
       </c>
       <c r="M165">
         <v>0.3214285714285715</v>
@@ -12603,16 +12603,16 @@
         <v>19.51650619298771</v>
       </c>
       <c r="U165">
-        <v>2.880668931158766</v>
+        <v>4.124149650619155</v>
       </c>
       <c r="V165">
-        <v>0.5191004654712229</v>
+        <v>0.4683293201419143</v>
       </c>
       <c r="W165">
-        <v>0.2874368053808397</v>
+        <v>0.2390166356470512</v>
       </c>
       <c r="X165">
-        <v>0.5537209548057593</v>
+        <v>0.5103601789753924</v>
       </c>
     </row>
     <row r="166">
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.7550489586772369</v>
+        <v>2.26514687603171</v>
       </c>
       <c r="M166">
         <v>0.3214285714285715</v>
@@ -12677,16 +12677,16 @@
         <v>17.22623587105049</v>
       </c>
       <c r="U166">
-        <v>2.163977530105808</v>
+        <v>3.674075447460282</v>
       </c>
       <c r="V166">
-        <v>0.4061822726576638</v>
+        <v>0.449588201940169</v>
       </c>
       <c r="W166">
-        <v>0.119828896570463</v>
+        <v>0.1500441923927908</v>
       </c>
       <c r="X166">
-        <v>0.2950126202860076</v>
+        <v>0.3337369435970177</v>
       </c>
     </row>
     <row r="167">
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="L167">
-        <v>0.8165529649820314</v>
+        <v>2.449658894946094</v>
       </c>
       <c r="M167">
         <v>0.6071428571428571</v>
@@ -12751,16 +12751,16 @@
         <v>19.01898834695738</v>
       </c>
       <c r="U167">
-        <v>4.711195822124888</v>
+        <v>6.344301752088952</v>
       </c>
       <c r="V167">
-        <v>0.381730688084029</v>
+        <v>0.3441715144713531</v>
       </c>
       <c r="W167">
-        <v>0.2385205946067907</v>
+        <v>0.1968699140660157</v>
       </c>
       <c r="X167">
-        <v>0.6248399776396442</v>
+        <v>0.572011063636128</v>
       </c>
     </row>
     <row r="168">
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.7930419542992743</v>
+        <v>2.379125862897823</v>
       </c>
       <c r="M168">
         <v>0.5714285714285714</v>
@@ -12825,16 +12825,16 @@
         <v>14.57257340948088</v>
       </c>
       <c r="U168">
-        <v>4.164470525727846</v>
+        <v>5.750554434326394</v>
       </c>
       <c r="V168">
-        <v>0.07764641602598736</v>
+        <v>0.05663521411790377</v>
       </c>
       <c r="W168">
-        <v>0.3630880486513374</v>
+        <v>0.3111095634345276</v>
       </c>
       <c r="X168">
-        <v>4.67617267138017</v>
+        <v>5.493217749417465</v>
       </c>
     </row>
     <row r="169">
@@ -12872,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="L169">
-        <v>0.8096408011197204</v>
+        <v>2.428922403359161</v>
       </c>
       <c r="M169">
         <v>0.5357142857142857</v>
@@ -12899,16 +12899,16 @@
         <v>19.55045627521429</v>
       </c>
       <c r="U169">
-        <v>5.032855086834006</v>
+        <v>6.652136689073447</v>
       </c>
       <c r="V169">
-        <v>0.3025905297549802</v>
+        <v>0.2833549455569625</v>
       </c>
       <c r="W169">
-        <v>0.1611274544015019</v>
+        <v>0.1381980914565023</v>
       </c>
       <c r="X169">
-        <v>0.5324933815079186</v>
+        <v>0.4877207672689817</v>
       </c>
     </row>
     <row r="170">
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="L170">
-        <v>0.8215157627512302</v>
+        <v>2.464547288253691</v>
       </c>
       <c r="M170">
         <v>0.6071428571428571</v>
@@ -12973,16 +12973,16 @@
         <v>17.28641996135174</v>
       </c>
       <c r="U170">
-        <v>5.341158619894087</v>
+        <v>6.984190145396547</v>
       </c>
       <c r="V170">
-        <v>0.3232236488626954</v>
+        <v>0.2389816883342606</v>
       </c>
       <c r="W170">
-        <v>0.1000198953209617</v>
+        <v>0.08629079021385694</v>
       </c>
       <c r="X170">
-        <v>0.3094448555138052</v>
+        <v>0.3610769963812587</v>
       </c>
     </row>
     <row r="171">
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="L171">
-        <v>0.6690120726283956</v>
+        <v>2.007036217885187</v>
       </c>
       <c r="M171">
         <v>0.3571428571428572</v>
@@ -13047,16 +13047,16 @@
         <v>19.51228700764163</v>
       </c>
       <c r="U171">
-        <v>3.376154929771253</v>
+        <v>4.714179075028044</v>
       </c>
       <c r="V171">
-        <v>0.352367523932827</v>
+        <v>0.321711003011119</v>
       </c>
       <c r="W171">
-        <v>0.3852940856485451</v>
+        <v>0.3400462115846418</v>
       </c>
       <c r="X171">
-        <v>1.093443803640642</v>
+        <v>1.056992792916346</v>
       </c>
     </row>
     <row r="172">
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="L172">
-        <v>0.8267152136616756</v>
+        <v>2.480145640985027</v>
       </c>
       <c r="M172">
         <v>0.5714285714285714</v>
@@ -13121,16 +13121,16 @@
         <v>21.22947333516688</v>
       </c>
       <c r="U172">
-        <v>5.498143785090247</v>
+        <v>7.151574212413599</v>
       </c>
       <c r="V172">
-        <v>0.1311171433817493</v>
+        <v>0.1193145208325944</v>
       </c>
       <c r="W172">
-        <v>0.07553860992575033</v>
+        <v>0.06570610994086044</v>
       </c>
       <c r="X172">
-        <v>0.5761154337066259</v>
+        <v>0.5506966753279773</v>
       </c>
     </row>
     <row r="173">
@@ -13168,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="L173">
-        <v>0.6957432469673388</v>
+        <v>2.087229740902016</v>
       </c>
       <c r="M173">
         <v>0.3214285714285715</v>
@@ -13195,16 +13195,16 @@
         <v>19.76786334258363</v>
       </c>
       <c r="U173">
-        <v>3.44217181839591</v>
+        <v>4.833658312330588</v>
       </c>
       <c r="V173">
-        <v>0.3281088671787112</v>
+        <v>0.2994380532452039</v>
       </c>
       <c r="W173">
-        <v>0.3929949871957466</v>
+        <v>0.3524311411727801</v>
       </c>
       <c r="X173">
-        <v>1.19775789839198</v>
+        <v>1.176975128422242</v>
       </c>
     </row>
     <row r="174">
@@ -13242,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="L174">
-        <v>0.7448399742778687</v>
+        <v>2.234519922833607</v>
       </c>
       <c r="M174">
         <v>0.4285714285714285</v>
@@ -13269,16 +13269,16 @@
         <v>17.66543871006511</v>
       </c>
       <c r="U174">
-        <v>3.060911402849297</v>
+        <v>4.550591351405035</v>
       </c>
       <c r="V174">
-        <v>0.3255035784998044</v>
+        <v>0.3296390252082517</v>
       </c>
       <c r="W174">
-        <v>0.3293411715953675</v>
+        <v>0.3175533330983285</v>
       </c>
       <c r="X174">
-        <v>1.011789710924992</v>
+        <v>0.963336585823575</v>
       </c>
     </row>
     <row r="175">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>0.6620574162618336</v>
+        <v>1.9861722487855</v>
       </c>
       <c r="M175">
         <v>0.5357142857142857</v>
@@ -13343,16 +13343,16 @@
         <v>20.02094043306155</v>
       </c>
       <c r="U175">
-        <v>5.03527170197612</v>
+        <v>6.359386534499786</v>
       </c>
       <c r="V175">
-        <v>0.3278226876842984</v>
+        <v>0.3814979806845671</v>
       </c>
       <c r="W175">
-        <v>0.1605879838093203</v>
+        <v>0.1938449599684346</v>
       </c>
       <c r="X175">
-        <v>0.4898623244891783</v>
+        <v>0.5081152975452076</v>
       </c>
     </row>
     <row r="176">
@@ -13390,7 +13390,7 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>0.7601400318026243</v>
+        <v>2.280420095407873</v>
       </c>
       <c r="M176">
         <v>0.4642857142857143</v>
@@ -13417,16 +13417,16 @@
         <v>22.19335643450549</v>
       </c>
       <c r="U176">
-        <v>4.361925746088339</v>
+        <v>5.882205809693588</v>
       </c>
       <c r="V176">
-        <v>0.4857497601867476</v>
+        <v>0.421757864109458</v>
       </c>
       <c r="W176">
-        <v>0.3233391372313261</v>
+        <v>0.2883690091457106</v>
       </c>
       <c r="X176">
-        <v>0.6656496075407585</v>
+        <v>0.6837311967012208</v>
       </c>
     </row>
     <row r="177">
@@ -13464,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="L177">
-        <v>0.582245816276874</v>
+        <v>1.746737448830622</v>
       </c>
       <c r="M177">
         <v>0.3571428571428572</v>
@@ -13491,16 +13491,16 @@
         <v>17.67373460613614</v>
       </c>
       <c r="U177">
-        <v>3.039388673419731</v>
+        <v>4.203880305973479</v>
       </c>
       <c r="V177">
-        <v>0.2158503310773394</v>
+        <v>0.1493061667762715</v>
       </c>
       <c r="W177">
-        <v>0.3246077307779198</v>
+        <v>0.2550009280389439</v>
       </c>
       <c r="X177">
-        <v>1.503855607530258</v>
+        <v>1.707906200693313</v>
       </c>
     </row>
     <row r="178">
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="L178">
-        <v>0.4370081185388147</v>
+        <v>1.311024355616444</v>
       </c>
       <c r="M178">
         <v>0.2857142857142857</v>
@@ -13565,16 +13565,16 @@
         <v>20.17978775347824</v>
       </c>
       <c r="U178">
-        <v>3.2852224042531</v>
+        <v>4.159238641330729</v>
       </c>
       <c r="V178">
-        <v>0.3110831401391002</v>
+        <v>0.1316707791384565</v>
       </c>
       <c r="W178">
-        <v>0.372164865556368</v>
+        <v>0.2460858222564156</v>
       </c>
       <c r="X178">
-        <v>1.196351770751559</v>
+        <v>1.868947870336877</v>
       </c>
     </row>
     <row r="179">
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="L179">
-        <v>0.6883080588650325</v>
+        <v>2.064924176595097</v>
       </c>
       <c r="M179">
         <v>0.25</v>
@@ -13639,16 +13639,16 @@
         <v>19.12106974908755</v>
       </c>
       <c r="U179">
-        <v>3.850808058865033</v>
+        <v>5.227424176595097</v>
       </c>
       <c r="V179">
-        <v>0.385055674879393</v>
+        <v>0.3198845866388708</v>
       </c>
       <c r="W179">
-        <v>0.40164758534538</v>
+        <v>0.3642511906039059</v>
       </c>
       <c r="X179">
-        <v>1.043089640144075</v>
+        <v>1.138695660304265</v>
       </c>
     </row>
     <row r="180">
@@ -13686,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="L180">
-        <v>0.7455101485507315</v>
+        <v>2.236530445652194</v>
       </c>
       <c r="M180">
         <v>0.3214285714285715</v>
@@ -13713,16 +13713,16 @@
         <v>19.61369880660342</v>
       </c>
       <c r="U180">
-        <v>4.091938719979304</v>
+        <v>5.582959017080766</v>
       </c>
       <c r="V180">
-        <v>0.5091920444115134</v>
+        <v>0.4716260400068989</v>
       </c>
       <c r="W180">
-        <v>0.3750526688921776</v>
+        <v>0.3355267914800116</v>
       </c>
       <c r="X180">
-        <v>0.7365642747337809</v>
+        <v>0.7114255003288275</v>
       </c>
     </row>
     <row r="181">
@@ -13760,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="L181">
-        <v>0.9217116581432262</v>
+        <v>2.765134974429678</v>
       </c>
       <c r="M181">
         <v>0.5714285714285714</v>
@@ -13787,16 +13787,16 @@
         <v>20.01030936962811</v>
       </c>
       <c r="U181">
-        <v>6.043140229571797</v>
+        <v>7.88656354585825</v>
       </c>
       <c r="V181">
-        <v>0.1903758970721542</v>
+        <v>0.1585845877530229</v>
       </c>
       <c r="W181">
-        <v>0.0233688208085433</v>
+        <v>0.01502693993466511</v>
       </c>
       <c r="X181">
-        <v>0.122750942571718</v>
+        <v>0.09475662261750067</v>
       </c>
     </row>
     <row r="182">
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
       <c r="L182">
-        <v>0.6694267727273734</v>
+        <v>2.00828031818212</v>
       </c>
       <c r="M182">
         <v>0.2142857142857143</v>
@@ -13861,16 +13861,16 @@
         <v>16.37700958526131</v>
       </c>
       <c r="U182">
-        <v>2.783712487013088</v>
+        <v>4.122566032467835</v>
       </c>
       <c r="V182">
-        <v>0.07174751739400582</v>
+        <v>0.08418223248003043</v>
       </c>
       <c r="W182">
-        <v>0.2634438770325501</v>
+        <v>0.2386966022233704</v>
       </c>
       <c r="X182">
-        <v>3.671818713751894</v>
+        <v>2.835474840608362</v>
       </c>
     </row>
     <row r="183">
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="L183">
-        <v>0.8099648047454476</v>
+        <v>2.429894414236343</v>
       </c>
       <c r="M183">
         <v>0.3214285714285715</v>
@@ -13935,16 +13935,16 @@
         <v>21.90807604183463</v>
       </c>
       <c r="U183">
-        <v>3.631393376174019</v>
+        <v>5.251322985664914</v>
       </c>
       <c r="V183">
-        <v>0.2889538803292085</v>
+        <v>0.2883598913114095</v>
       </c>
       <c r="W183">
-        <v>0.4056297128133662</v>
+        <v>0.3634537781069427</v>
       </c>
       <c r="X183">
-        <v>1.403787041555654</v>
+        <v>1.260417239214579</v>
       </c>
     </row>
     <row r="184">
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.752891475934108</v>
+        <v>2.258674427802324</v>
       </c>
       <c r="M184">
         <v>0.3571428571428572</v>
@@ -14009,16 +14009,16 @@
         <v>17.06268411841894</v>
       </c>
       <c r="U184">
-        <v>3.360034333076965</v>
+        <v>4.865817284945181</v>
       </c>
       <c r="V184">
-        <v>0.5184144901786899</v>
+        <v>0.4741855759074979</v>
       </c>
       <c r="W184">
-        <v>0.3831730963068291</v>
+        <v>0.355112717766995</v>
       </c>
       <c r="X184">
-        <v>0.7391249734835825</v>
+        <v>0.7488897507845512</v>
       </c>
     </row>
     <row r="185">
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="L185">
-        <v>0.7636456388911459</v>
+        <v>2.290936916673438</v>
       </c>
       <c r="M185">
         <v>0.3571428571428572</v>
@@ -14083,16 +14083,16 @@
         <v>19.01319831710635</v>
       </c>
       <c r="U185">
-        <v>3.570788496034003</v>
+        <v>5.098079773816295</v>
       </c>
       <c r="V185">
-        <v>0.4683538490946051</v>
+        <v>0.4550056613351576</v>
       </c>
       <c r="W185">
-        <v>0.4031679817936294</v>
+        <v>0.3655405391727569</v>
       </c>
       <c r="X185">
-        <v>0.8608191916710211</v>
+        <v>0.8033758043803754</v>
       </c>
     </row>
     <row r="186">
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="L186">
-        <v>0.7806474467730916</v>
+        <v>2.341942340319275</v>
       </c>
       <c r="M186">
         <v>0.3928571428571428</v>
@@ -14157,16 +14157,16 @@
         <v>20.23766536524728</v>
       </c>
       <c r="U186">
-        <v>3.936004589630235</v>
+        <v>5.497299483176418</v>
       </c>
       <c r="V186">
-        <v>0.4283233381536125</v>
+        <v>0.4064279551595154</v>
       </c>
       <c r="W186">
-        <v>0.3947561144333541</v>
+        <v>0.3455733836925197</v>
       </c>
       <c r="X186">
-        <v>0.9216311119889994</v>
+        <v>0.8502697201448374</v>
       </c>
     </row>
     <row r="187">
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="L187">
-        <v>0.7216940169766271</v>
+        <v>2.165082050929881</v>
       </c>
       <c r="M187">
         <v>0.25</v>
@@ -14231,16 +14231,16 @@
         <v>21.25791962172337</v>
       </c>
       <c r="U187">
-        <v>3.996694016976627</v>
+        <v>5.440082050929881</v>
       </c>
       <c r="V187">
-        <v>0.2663265506023489</v>
+        <v>0.2272937727327539</v>
       </c>
       <c r="W187">
-        <v>0.3881306825817232</v>
+        <v>0.3512426804634022</v>
       </c>
       <c r="X187">
-        <v>1.457348813717185</v>
+        <v>1.545324696934765</v>
       </c>
     </row>
     <row r="188">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.6474743287875969</v>
+        <v>1.942422986362791</v>
       </c>
       <c r="M188">
         <v>0.25</v>
@@ -14305,16 +14305,16 @@
         <v>18.68083711897865</v>
       </c>
       <c r="U188">
-        <v>2.297474328787597</v>
+        <v>3.592422986362791</v>
       </c>
       <c r="V188">
-        <v>0.472003645513373</v>
+        <v>0.4308513436882103</v>
       </c>
       <c r="W188">
-        <v>0.1468579919446261</v>
+        <v>0.135398028965514</v>
       </c>
       <c r="X188">
-        <v>0.3111374103581266</v>
+        <v>0.3142569495233978</v>
       </c>
     </row>
     <row r="189">
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.5275005660123981</v>
+        <v>1.582501698037194</v>
       </c>
       <c r="M189">
         <v>0.1428571428571428</v>
@@ -14379,16 +14379,16 @@
         <v>18.00593962133865</v>
       </c>
       <c r="U189">
-        <v>1.870357708869541</v>
+        <v>2.925358840894337</v>
       </c>
       <c r="V189">
-        <v>0.1606322869296064</v>
+        <v>0.1164361515032501</v>
       </c>
       <c r="W189">
-        <v>0.07177750953712049</v>
+        <v>0.04743107411209622</v>
       </c>
       <c r="X189">
-        <v>0.4468436010537248</v>
+        <v>0.4073569376841887</v>
       </c>
     </row>
     <row r="190">
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="L190">
-        <v>0.6934102806173945</v>
+        <v>2.080230841852183</v>
       </c>
       <c r="M190">
         <v>0.25</v>
@@ -14453,16 +14453,16 @@
         <v>18.06253710772722</v>
       </c>
       <c r="U190">
-        <v>2.130910280617394</v>
+        <v>3.517730841852183</v>
       </c>
       <c r="V190">
-        <v>0.2911883348747132</v>
+        <v>0.3313590104119699</v>
       </c>
       <c r="W190">
-        <v>0.1136157523675963</v>
+        <v>0.1226527061431175</v>
       </c>
       <c r="X190">
-        <v>0.3901796149096448</v>
+        <v>0.3701505083281926</v>
       </c>
     </row>
     <row r="191">
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.6488088535120567</v>
+        <v>1.94642656053617</v>
       </c>
       <c r="M191">
         <v>0.3214285714285715</v>
@@ -14527,16 +14527,16 @@
         <v>18.55394187130852</v>
       </c>
       <c r="U191">
-        <v>3.882737424940628</v>
+        <v>5.180355131964742</v>
       </c>
       <c r="V191">
-        <v>0.4460455095718445</v>
+        <v>0.4323594160580972</v>
       </c>
       <c r="W191">
-        <v>0.399403452947967</v>
+        <v>0.3653137676668245</v>
       </c>
       <c r="X191">
-        <v>0.8954320677532461</v>
+        <v>0.8449307545963943</v>
       </c>
     </row>
     <row r="192">
@@ -14574,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.5494550193793529</v>
+        <v>1.648365058138059</v>
       </c>
       <c r="M192">
         <v>0.4285714285714285</v>
@@ -14601,16 +14601,16 @@
         <v>17.51668119011846</v>
       </c>
       <c r="U192">
-        <v>2.728026447950781</v>
+        <v>3.826936486709487</v>
       </c>
       <c r="V192">
-        <v>0.5186441158767133</v>
+        <v>0.4701917526790906</v>
       </c>
       <c r="W192">
-        <v>0.2494766684049743</v>
+        <v>0.1791374262315588</v>
       </c>
       <c r="X192">
-        <v>0.4810170611562039</v>
+        <v>0.3809880228882311</v>
       </c>
     </row>
     <row r="193">
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="L193">
-        <v>0.71250204120742</v>
+        <v>2.13750612362226</v>
       </c>
       <c r="M193">
         <v>0.3928571428571428</v>
@@ -14675,16 +14675,16 @@
         <v>18.68542724556147</v>
       </c>
       <c r="U193">
-        <v>4.467859184064563</v>
+        <v>5.892863266479403</v>
       </c>
       <c r="V193">
-        <v>0.4982557064042012</v>
+        <v>0.4643246571803926</v>
       </c>
       <c r="W193">
-        <v>0.2988105312825742</v>
+        <v>0.2864199597190892</v>
       </c>
       <c r="X193">
-        <v>0.5997132144035484</v>
+        <v>0.6168527888619396</v>
       </c>
     </row>
     <row r="194">
@@ -14722,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="L194">
-        <v>0.6356816638492723</v>
+        <v>1.907044991547817</v>
       </c>
       <c r="M194">
         <v>0.2857142857142857</v>
@@ -14749,16 +14749,16 @@
         <v>17.2856811131416</v>
       </c>
       <c r="U194">
-        <v>2.846395949563558</v>
+        <v>4.117759277262103</v>
       </c>
       <c r="V194">
-        <v>0.413831475678204</v>
+        <v>0.390839071954287</v>
       </c>
       <c r="W194">
-        <v>0.2790267398996684</v>
+        <v>0.2377247588735728</v>
       </c>
       <c r="X194">
-        <v>0.6742520960794195</v>
+        <v>0.6082420513509392</v>
       </c>
     </row>
     <row r="195">
@@ -14796,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="L195">
-        <v>0.7438228684031619</v>
+        <v>2.231468605209486</v>
       </c>
       <c r="M195">
         <v>0.3928571428571428</v>
@@ -14823,16 +14823,16 @@
         <v>18.87350419165822</v>
       </c>
       <c r="U195">
-        <v>3.986680011260305</v>
+        <v>5.474325748066629</v>
       </c>
       <c r="V195">
-        <v>0.4467825003088773</v>
+        <v>0.3746226570413785</v>
       </c>
       <c r="W195">
-        <v>0.3893187729150671</v>
+        <v>0.3479536109021386</v>
       </c>
       <c r="X195">
-        <v>0.8713832181115344</v>
+        <v>0.9288109097568698</v>
       </c>
     </row>
     <row r="196">
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.7323521795099674</v>
+        <v>2.197056538529902</v>
       </c>
       <c r="M196">
         <v>0.2857142857142857</v>
@@ -14897,16 +14897,16 @@
         <v>18.00916857919518</v>
       </c>
       <c r="U196">
-        <v>3.018066465224253</v>
+        <v>4.482770824244188</v>
       </c>
       <c r="V196">
-        <v>0.4154392116183462</v>
+        <v>0.4129420632597916</v>
       </c>
       <c r="W196">
-        <v>0.3198337163333685</v>
+        <v>0.3066416231347711</v>
       </c>
       <c r="X196">
-        <v>0.7698688698340588</v>
+        <v>0.742577834561396</v>
       </c>
     </row>
     <row r="197">
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="L197">
-        <v>0.5953558696133948</v>
+        <v>1.786067608840184</v>
       </c>
       <c r="M197">
         <v>0.3214285714285715</v>
@@ -14971,16 +14971,16 @@
         <v>16.91127226718747</v>
       </c>
       <c r="U197">
-        <v>4.091784441041966</v>
+        <v>5.282496180268756</v>
       </c>
       <c r="V197">
-        <v>0.3535883466355493</v>
+        <v>0.3775597235989708</v>
       </c>
       <c r="W197">
-        <v>0.375076349807663</v>
+        <v>0.3621549565791749</v>
       </c>
       <c r="X197">
-        <v>1.060771242538323</v>
+        <v>0.9591991251795748</v>
       </c>
     </row>
     <row r="198">
@@ -15018,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="L198">
-        <v>0.7788174690176186</v>
+        <v>2.336452407052856</v>
       </c>
       <c r="M198">
         <v>0.5357142857142857</v>
@@ -15045,16 +15045,16 @@
         <v>19.48353073704101</v>
       </c>
       <c r="U198">
-        <v>3.677031754731904</v>
+        <v>5.234666692767141</v>
       </c>
       <c r="V198">
-        <v>0.2944740884610415</v>
+        <v>0.2994396947578729</v>
       </c>
       <c r="W198">
-        <v>0.4064687128794</v>
+        <v>0.364027800484144</v>
       </c>
       <c r="X198">
-        <v>1.380320811938519</v>
+        <v>1.215696538758821</v>
       </c>
     </row>
     <row r="199">
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="L199">
-        <v>0.6749320155440581</v>
+        <v>2.024796046632174</v>
       </c>
       <c r="M199">
         <v>0.25</v>
@@ -15119,16 +15119,16 @@
         <v>18.40784247491715</v>
       </c>
       <c r="U199">
-        <v>3.274932015544058</v>
+        <v>4.624796046632174</v>
       </c>
       <c r="V199">
-        <v>0.4593683466667617</v>
+        <v>0.4195991175604047</v>
       </c>
       <c r="W199">
-        <v>0.3705071056405782</v>
+        <v>0.3284798335252553</v>
       </c>
       <c r="X199">
-        <v>0.8065577620422204</v>
+        <v>0.7828420503719673</v>
       </c>
     </row>
     <row r="200">
@@ -15166,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="L200">
-        <v>0.7442785037595212</v>
+        <v>2.232835511278564</v>
       </c>
       <c r="M200">
         <v>0.5</v>
@@ -15193,16 +15193,16 @@
         <v>18.73378216242078</v>
       </c>
       <c r="U200">
-        <v>4.969278503759521</v>
+        <v>6.457835511278563</v>
       </c>
       <c r="V200">
-        <v>0.2548651438801708</v>
+        <v>0.2503187454829343</v>
       </c>
       <c r="W200">
-        <v>0.1756067187368181</v>
+        <v>0.1743918592091291</v>
       </c>
       <c r="X200">
-        <v>0.689018184532062</v>
+        <v>0.6966791834653808</v>
       </c>
     </row>
     <row r="201">
@@ -15240,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="L201">
-        <v>0.7964153921834782</v>
+        <v>2.389246176550434</v>
       </c>
       <c r="M201">
         <v>0.6428571428571429</v>
@@ -15267,16 +15267,16 @@
         <v>20.28757265288801</v>
       </c>
       <c r="U201">
-        <v>5.001772535040621</v>
+        <v>6.594603319407577</v>
       </c>
       <c r="V201">
-        <v>0.2905729223912188</v>
+        <v>0.3003370905271229</v>
       </c>
       <c r="W201">
-        <v>0.1681389235464248</v>
+        <v>0.1485427590553507</v>
       </c>
       <c r="X201">
-        <v>0.5786462212746978</v>
+        <v>0.4945867951062678</v>
       </c>
     </row>
     <row r="202">
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
       <c r="L202">
-        <v>0.8145324912687439</v>
+        <v>2.443597473806232</v>
       </c>
       <c r="M202">
         <v>0.6785714285714286</v>
@@ -15341,16 +15341,16 @@
         <v>20.38178549105464</v>
       </c>
       <c r="U202">
-        <v>5.518103919840173</v>
+        <v>7.147168902377661</v>
       </c>
       <c r="V202">
-        <v>0.1148349967017843</v>
+        <v>0.1242999825910481</v>
       </c>
       <c r="W202">
-        <v>0.07275638316781881</v>
+        <v>0.06619905558771957</v>
       </c>
       <c r="X202">
-        <v>0.6335732595243616</v>
+        <v>0.532574938530097</v>
       </c>
     </row>
     <row r="203">
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.6847391605668787</v>
+        <v>2.054217481700636</v>
       </c>
       <c r="M203">
         <v>0.1785714285714286</v>
@@ -15415,16 +15415,16 @@
         <v>16.86527641538071</v>
       </c>
       <c r="U203">
-        <v>2.713310589138307</v>
+        <v>4.082788910272064</v>
       </c>
       <c r="V203">
-        <v>0.5030813378944221</v>
+        <v>0.4586321113373979</v>
       </c>
       <c r="W203">
-        <v>0.2457787157272516</v>
+        <v>0.2306376208600849</v>
       </c>
       <c r="X203">
-        <v>0.4885466766784168</v>
+        <v>0.5028815365490483</v>
       </c>
     </row>
     <row r="204">
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.6249553641483323</v>
+        <v>1.874866092444997</v>
       </c>
       <c r="M204">
         <v>0.3214285714285715</v>
@@ -15489,16 +15489,16 @@
         <v>18.58681430429376</v>
       </c>
       <c r="U204">
-        <v>2.896383935576904</v>
+        <v>4.146294663873569</v>
       </c>
       <c r="V204">
-        <v>0.4566702601662693</v>
+        <v>0.3647342717554439</v>
       </c>
       <c r="W204">
-        <v>0.2912584974192141</v>
+        <v>0.2434833764470259</v>
       </c>
       <c r="X204">
-        <v>0.6377873113812352</v>
+        <v>0.6675637451757829</v>
       </c>
     </row>
     <row r="205">
@@ -15536,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="L205">
-        <v>0.7914435924649783</v>
+        <v>2.374330777394935</v>
       </c>
       <c r="M205">
         <v>0.3928571428571428</v>
@@ -15563,16 +15563,16 @@
         <v>17.66034175473194</v>
       </c>
       <c r="U205">
-        <v>4.446800735322121</v>
+        <v>6.029687920252077</v>
       </c>
       <c r="V205">
-        <v>0.4786772724943129</v>
+        <v>0.4364222374907645</v>
       </c>
       <c r="W205">
-        <v>0.3038155345252599</v>
+        <v>0.2603204300183393</v>
       </c>
       <c r="X205">
-        <v>0.6346980564632291</v>
+        <v>0.5964875472777624</v>
       </c>
     </row>
     <row r="206">
@@ -15610,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.5752674494857574</v>
+        <v>1.725802348457272</v>
       </c>
       <c r="M206">
         <v>0.2142857142857143</v>
@@ -15637,16 +15637,16 @@
         <v>17.37157339251398</v>
       </c>
       <c r="U206">
-        <v>1.877053163771472</v>
+        <v>3.027588062742986</v>
       </c>
       <c r="V206">
-        <v>0.449024077655937</v>
+        <v>0.3898000930279111</v>
       </c>
       <c r="W206">
-        <v>0.07269373703879022</v>
+        <v>0.05707068833541753</v>
       </c>
       <c r="X206">
-        <v>0.1618927372854413</v>
+        <v>0.1464101454981722</v>
       </c>
     </row>
     <row r="207">
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.556112861478876</v>
+        <v>1.668338584436628</v>
       </c>
       <c r="M207">
         <v>0.2857142857142857</v>
@@ -15711,16 +15711,16 @@
         <v>17.27924408234176</v>
       </c>
       <c r="U207">
-        <v>2.316827147193162</v>
+        <v>3.429052870150914</v>
       </c>
       <c r="V207">
-        <v>0.5180501184614048</v>
+        <v>0.4634989133591911</v>
       </c>
       <c r="W207">
-        <v>0.1510206786283852</v>
+        <v>0.1084074224540425</v>
       </c>
       <c r="X207">
-        <v>0.2915175062152531</v>
+        <v>0.2338892699194562</v>
       </c>
     </row>
     <row r="208">
@@ -15758,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.5238412481035112</v>
+        <v>1.571523744310534</v>
       </c>
       <c r="M208">
         <v>0.2857142857142857</v>
@@ -15785,16 +15785,16 @@
         <v>19.46340806525033</v>
       </c>
       <c r="U208">
-        <v>2.309555533817797</v>
+        <v>3.357238030024819</v>
       </c>
       <c r="V208">
-        <v>0.1053471403365407</v>
+        <v>0.0523792334207874</v>
       </c>
       <c r="W208">
-        <v>0.1494497503043902</v>
+        <v>0.09761890612475771</v>
       </c>
       <c r="X208">
-        <v>1.418640789175291</v>
+        <v>1.863694822345688</v>
       </c>
     </row>
     <row r="209">
@@ -15832,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>0.8459390560979938</v>
+        <v>2.537817168293981</v>
       </c>
       <c r="M209">
         <v>0.6071428571428571</v>
@@ -15859,16 +15859,16 @@
         <v>19.60164842397834</v>
       </c>
       <c r="U209">
-        <v>5.665581913240851</v>
+        <v>7.357460025436839</v>
       </c>
       <c r="V209">
-        <v>0.04865711511705019</v>
+        <v>0.03279507062517013</v>
       </c>
       <c r="W209">
-        <v>0.05443562970938619</v>
+        <v>0.04549874735522093</v>
       </c>
       <c r="X209">
-        <v>1.118759909592567</v>
+        <v>1.387365432910541</v>
       </c>
     </row>
     <row r="210">
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="L210">
-        <v>0.6320061158908918</v>
+        <v>1.896018347672676</v>
       </c>
       <c r="M210">
         <v>0.3214285714285715</v>
@@ -15933,16 +15933,16 @@
         <v>17.05630692263054</v>
       </c>
       <c r="U210">
-        <v>3.828434687319463</v>
+        <v>5.092446919101247</v>
       </c>
       <c r="V210">
-        <v>0.499924218703287</v>
+        <v>0.4637415562596568</v>
       </c>
       <c r="W210">
-        <v>0.4029732795979725</v>
+        <v>0.3654800258247</v>
       </c>
       <c r="X210">
-        <v>0.8060687290630013</v>
+        <v>0.7881114402869288</v>
       </c>
     </row>
     <row r="211">
@@ -15980,7 +15980,7 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>0.7393097442660718</v>
+        <v>2.217929232798216</v>
       </c>
       <c r="M211">
         <v>0.2857142857142857</v>
@@ -16007,16 +16007,16 @@
         <v>20.30865499734318</v>
       </c>
       <c r="U211">
-        <v>3.275024029980357</v>
+        <v>4.753643518512502</v>
       </c>
       <c r="V211">
-        <v>0.2786704685084299</v>
+        <v>0.2871182271861472</v>
       </c>
       <c r="W211">
-        <v>0.3705220767548723</v>
+        <v>0.3445449050463729</v>
       </c>
       <c r="X211">
-        <v>1.329606537564147</v>
+        <v>1.200010561583031</v>
       </c>
     </row>
     <row r="212">
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="L212">
-        <v>0.7036673223923982</v>
+        <v>2.111001967177194</v>
       </c>
       <c r="M212">
         <v>0.25</v>
@@ -16081,16 +16081,16 @@
         <v>17.35139686205476</v>
       </c>
       <c r="U212">
-        <v>3.403667322392398</v>
+        <v>4.811001967177194</v>
       </c>
       <c r="V212">
-        <v>0.3544102798595433</v>
+        <v>0.3387390582224626</v>
       </c>
       <c r="W212">
-        <v>0.3886986705962465</v>
+        <v>0.3503712431058934</v>
       </c>
       <c r="X212">
-        <v>1.096747731895057</v>
+        <v>1.034339662347976</v>
       </c>
     </row>
     <row r="213">
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="L213">
-        <v>0.8004250370398205</v>
+        <v>2.401275111119462</v>
       </c>
       <c r="M213">
         <v>0.4642857142857143</v>
@@ -16155,16 +16155,16 @@
         <v>19.87452989067587</v>
       </c>
       <c r="U213">
-        <v>4.677210751325535</v>
+        <v>6.278060825405176</v>
       </c>
       <c r="V213">
-        <v>0.5170261959240865</v>
+        <v>0.4697476166073314</v>
       </c>
       <c r="W213">
-        <v>0.2470581643937943</v>
+        <v>0.2102455337121469</v>
       </c>
       <c r="X213">
-        <v>0.4778445779758307</v>
+        <v>0.4475712622676148</v>
       </c>
     </row>
     <row r="214">
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>0.7420067920434267</v>
+        <v>2.22602037613028</v>
       </c>
       <c r="M214">
         <v>0.4285714285714285</v>
@@ -16229,16 +16229,16 @@
         <v>18.5859275449233</v>
       </c>
       <c r="U214">
-        <v>2.870578220614855</v>
+        <v>4.354591804701708</v>
       </c>
       <c r="V214">
-        <v>0.457159179070136</v>
+        <v>0.4597889181129776</v>
       </c>
       <c r="W214">
-        <v>0.2849708136578289</v>
+        <v>0.284018524941141</v>
       </c>
       <c r="X214">
-        <v>0.6233513986035695</v>
+        <v>0.6177150291198473</v>
       </c>
     </row>
     <row r="215">
@@ -16276,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="L215">
-        <v>0.6609326125136114</v>
+        <v>1.982797837540834</v>
       </c>
       <c r="M215">
         <v>0.1785714285714286</v>
@@ -16303,16 +16303,16 @@
         <v>18.04091873284515</v>
       </c>
       <c r="U215">
-        <v>3.26450404108504</v>
+        <v>4.586369266112262</v>
       </c>
       <c r="V215">
-        <v>0.4690966490962146</v>
+        <v>0.4307696871044975</v>
       </c>
       <c r="W215">
-        <v>0.3687933365834426</v>
+        <v>0.3229619250171494</v>
       </c>
       <c r="X215">
-        <v>0.7861777254089931</v>
+        <v>0.7497322459897328</v>
       </c>
     </row>
     <row r="216">
@@ -16350,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.725772333868133</v>
+        <v>2.177317001604399</v>
       </c>
       <c r="M216">
         <v>0.2857142857142857</v>
@@ -16377,16 +16377,16 @@
         <v>17.42400599824969</v>
       </c>
       <c r="U216">
-        <v>3.611486619582419</v>
+        <v>5.063031287318685</v>
       </c>
       <c r="V216">
-        <v>0.4762333032142379</v>
+        <v>0.43107541674413</v>
       </c>
       <c r="W216">
-        <v>0.4049898037648392</v>
+        <v>0.3650060391788673</v>
       </c>
       <c r="X216">
-        <v>0.8504021055046855</v>
+        <v>0.8467335992753237</v>
       </c>
     </row>
     <row r="217">
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="L217">
-        <v>0.6954580595351358</v>
+        <v>2.086374178605408</v>
       </c>
       <c r="M217">
         <v>0.1071428571428571</v>
@@ -16451,16 +16451,16 @@
         <v>17.27981465496913</v>
       </c>
       <c r="U217">
-        <v>2.465100916677993</v>
+        <v>3.856017035748265</v>
       </c>
       <c r="V217">
-        <v>0.3106824940619632</v>
+        <v>0.3283821402910252</v>
       </c>
       <c r="W217">
-        <v>0.1846861115070627</v>
+        <v>0.1848686500538309</v>
       </c>
       <c r="X217">
-        <v>0.594452906220807</v>
+        <v>0.5629680404969436</v>
       </c>
     </row>
     <row r="218">
@@ -16498,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="L218">
-        <v>0.8728478306384601</v>
+        <v>2.61854349191538</v>
       </c>
       <c r="M218">
         <v>0.6428571428571429</v>
@@ -16525,16 +16525,16 @@
         <v>21.02837855223275</v>
       </c>
       <c r="U218">
-        <v>6.528204973495603</v>
+        <v>8.273900634772524</v>
       </c>
       <c r="V218">
-        <v>0.04022480523295733</v>
+        <v>0.03416053628743463</v>
       </c>
       <c r="W218">
-        <v>0.006345365890357203</v>
+        <v>0.005752856933015829</v>
       </c>
       <c r="X218">
-        <v>0.157747585192986</v>
+        <v>0.1684065169413608</v>
       </c>
     </row>
     <row r="219">
@@ -16572,7 +16572,7 @@
         <v>1</v>
       </c>
       <c r="L219">
-        <v>0.8445263936335238</v>
+        <v>2.533579180900571</v>
       </c>
       <c r="M219">
         <v>0.25</v>
@@ -16599,16 +16599,16 @@
         <v>19.0121201516814</v>
       </c>
       <c r="U219">
-        <v>3.494526393633524</v>
+        <v>5.183579180900571</v>
       </c>
       <c r="V219">
-        <v>0.2454882042009321</v>
+        <v>0.3290949035237871</v>
       </c>
       <c r="W219">
-        <v>0.3979288172929778</v>
+        <v>0.3652625790694946</v>
       </c>
       <c r="X219">
-        <v>1.620969197229831</v>
+        <v>1.109900442572771</v>
       </c>
     </row>
     <row r="220">
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="L220">
-        <v>0.7654703783757115</v>
+        <v>2.296411135127134</v>
       </c>
       <c r="M220">
         <v>0.2142857142857143</v>
@@ -16673,16 +16673,16 @@
         <v>19.03530889253851</v>
       </c>
       <c r="U220">
-        <v>3.054756092661425</v>
+        <v>4.585696849412849</v>
       </c>
       <c r="V220">
-        <v>0.4866303610099855</v>
+        <v>0.4673444422688713</v>
       </c>
       <c r="W220">
-        <v>0.3279965562867561</v>
+        <v>0.3228626324789922</v>
       </c>
       <c r="X220">
-        <v>0.674015808643772</v>
+        <v>0.6908451310805227</v>
       </c>
     </row>
     <row r="221">
@@ -16720,7 +16720,7 @@
         <v>1</v>
       </c>
       <c r="L221">
-        <v>0.8537346555781411</v>
+        <v>2.561203966734424</v>
       </c>
       <c r="M221">
         <v>0.5714285714285714</v>
@@ -16747,16 +16747,16 @@
         <v>17.65693505355785</v>
       </c>
       <c r="U221">
-        <v>5.612663227006712</v>
+        <v>7.320132538162994</v>
       </c>
       <c r="V221">
-        <v>0.01262447909745766</v>
+        <v>0.007089445853681981</v>
       </c>
       <c r="W221">
-        <v>0.06056465375571092</v>
+        <v>0.04876232665261103</v>
       </c>
       <c r="X221">
-        <v>4.797398236249411</v>
+        <v>6.878157709221488</v>
       </c>
     </row>
     <row r="222">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.6775056583926454</v>
+        <v>2.032516975177936</v>
       </c>
       <c r="M222">
         <v>0.1785714285714286</v>
@@ -16821,16 +16821,16 @@
         <v>18.06937983399101</v>
       </c>
       <c r="U222">
-        <v>1.706077086964074</v>
+        <v>3.061088403749365</v>
       </c>
       <c r="V222">
-        <v>0.2216233233257294</v>
+        <v>0.2504527478011176</v>
       </c>
       <c r="W222">
-        <v>0.05181958911894755</v>
+        <v>0.06052210791430186</v>
       </c>
       <c r="X222">
-        <v>0.2338183018886782</v>
+        <v>0.2416508041762909</v>
       </c>
     </row>
     <row r="223">
@@ -16868,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.6653681884539705</v>
+        <v>1.996104565361911</v>
       </c>
       <c r="M223">
         <v>0.2857142857142857</v>
@@ -16895,16 +16895,16 @@
         <v>17.41435134838569</v>
       </c>
       <c r="U223">
-        <v>2.451082474168256</v>
+        <v>3.781818851076197</v>
       </c>
       <c r="V223">
-        <v>0.4492394796799162</v>
+        <v>0.4313557908103414</v>
       </c>
       <c r="W223">
-        <v>0.1813826356410455</v>
+        <v>0.1703554839438474</v>
       </c>
       <c r="X223">
-        <v>0.4037548876387285</v>
+        <v>0.3949303279870637</v>
       </c>
     </row>
     <row r="224">
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="L224">
-        <v>0.5032683921829053</v>
+        <v>1.509805176548716</v>
       </c>
       <c r="M224">
         <v>0.25</v>
@@ -16969,16 +16969,16 @@
         <v>17.13130425143052</v>
       </c>
       <c r="U224">
-        <v>4.790768392182905</v>
+        <v>5.797305176548716</v>
       </c>
       <c r="V224">
-        <v>0.1941940838395555</v>
+        <v>0.3497768955825896</v>
       </c>
       <c r="W224">
-        <v>0.2186387536561095</v>
+        <v>0.3033412510860282</v>
       </c>
       <c r="X224">
-        <v>1.125877520742343</v>
+        <v>0.8672421046586908</v>
       </c>
     </row>
     <row r="225">
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="L225">
-        <v>0.8770694906822862</v>
+        <v>2.631208472046859</v>
       </c>
       <c r="M225">
         <v>0.5</v>
@@ -17043,16 +17043,16 @@
         <v>19.64990881523194</v>
       </c>
       <c r="U225">
-        <v>5.039569490682286</v>
+        <v>6.793708472046859</v>
       </c>
       <c r="V225">
-        <v>0.3537544908724668</v>
+        <v>0.2528526185286479</v>
       </c>
       <c r="W225">
-        <v>0.1596306378954772</v>
+        <v>0.1143450821560538</v>
       </c>
       <c r="X225">
-        <v>0.4512469580295057</v>
+        <v>0.4522202808158724</v>
       </c>
     </row>
     <row r="226">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="L226">
-        <v>0.7870629911330145</v>
+        <v>2.361188973399043</v>
       </c>
       <c r="M226">
         <v>0.4642857142857143</v>
@@ -17117,16 +17117,16 @@
         <v>20.75598177155586</v>
       </c>
       <c r="U226">
-        <v>5.138848705418729</v>
+        <v>6.712974687684758</v>
       </c>
       <c r="V226">
-        <v>0.3144880252663919</v>
+        <v>0.2951601324161691</v>
       </c>
       <c r="W226">
-        <v>0.1382964561940713</v>
+        <v>0.127655024490929</v>
       </c>
       <c r="X226">
-        <v>0.4397511036451234</v>
+        <v>0.4324941293593755</v>
       </c>
     </row>
     <row r="227">
@@ -17164,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="L227">
-        <v>0.9386708603117651</v>
+        <v>2.816012580935295</v>
       </c>
       <c r="M227">
         <v>0.4642857142857143</v>
@@ -17191,16 +17191,16 @@
         <v>18.60650941030847</v>
       </c>
       <c r="U227">
-        <v>4.56545657459748</v>
+        <v>6.44279829522101</v>
       </c>
       <c r="V227">
-        <v>0.4619382265320822</v>
+        <v>0.3210833589157109</v>
       </c>
       <c r="W227">
-        <v>0.2750109276912085</v>
+        <v>0.1773251014073828</v>
       </c>
       <c r="X227">
-        <v>0.595341350629939</v>
+        <v>0.5522712295218427</v>
       </c>
     </row>
     <row r="228">
@@ -17238,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="L228">
-        <v>0.6725348469490748</v>
+        <v>2.017604540847225</v>
       </c>
       <c r="M228">
         <v>0.1785714285714286</v>
@@ -17265,16 +17265,16 @@
         <v>20.01062916609778</v>
       </c>
       <c r="U228">
-        <v>2.788606275520503</v>
+        <v>4.133675969418653</v>
       </c>
       <c r="V228">
-        <v>0.2363702006503667</v>
+        <v>0.2344445699599895</v>
       </c>
       <c r="W228">
-        <v>0.26466735256446</v>
+        <v>0.2409401700692497</v>
       </c>
       <c r="X228">
-        <v>1.119715394902718</v>
+        <v>1.027706336343677</v>
       </c>
     </row>
     <row r="229">
@@ -17312,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.6541420981798955</v>
+        <v>1.962426294539687</v>
       </c>
       <c r="M229">
         <v>0.3214285714285715</v>
@@ -17339,16 +17339,16 @@
         <v>17.09397125488465</v>
       </c>
       <c r="U229">
-        <v>2.975570669608467</v>
+        <v>4.283854865968259</v>
       </c>
       <c r="V229">
-        <v>0.5198336089834583</v>
+        <v>0.4746812273248027</v>
       </c>
       <c r="W229">
-        <v>0.3100903562293187</v>
+        <v>0.270651769507131</v>
       </c>
       <c r="X229">
-        <v>0.5965184837427204</v>
+        <v>0.5701758441817131</v>
       </c>
     </row>
     <row r="230">
@@ -17386,7 +17386,7 @@
         <v>1</v>
       </c>
       <c r="L230">
-        <v>0.5944501298946778</v>
+        <v>1.783350389684033</v>
       </c>
       <c r="M230">
         <v>0.25</v>
@@ -17413,16 +17413,16 @@
         <v>17.44104565763968</v>
       </c>
       <c r="U230">
-        <v>2.594450129894678</v>
+        <v>3.783350389684033</v>
       </c>
       <c r="V230">
-        <v>0.2716327577682117</v>
+        <v>0.2203355802546301</v>
       </c>
       <c r="W230">
-        <v>0.2160622007401222</v>
+        <v>0.1706511955989459</v>
       </c>
       <c r="X230">
-        <v>0.795420267111124</v>
+        <v>0.7745058487681991</v>
       </c>
     </row>
     <row r="231">
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.777671071318959</v>
+        <v>2.333013213956877</v>
       </c>
       <c r="M231">
         <v>0.2857142857142857</v>
@@ -17487,16 +17487,16 @@
         <v>17.16753100066927</v>
       </c>
       <c r="U231">
-        <v>3.313385357033245</v>
+        <v>4.868727499671163</v>
       </c>
       <c r="V231">
-        <v>0.4660161326930203</v>
+        <v>0.3600831776957951</v>
       </c>
       <c r="W231">
-        <v>0.3765280824188669</v>
+        <v>0.3553411533611513</v>
       </c>
       <c r="X231">
-        <v>0.8079722052603231</v>
+        <v>0.9868307529249536</v>
       </c>
     </row>
     <row r="232">
@@ -17534,7 +17534,7 @@
         <v>1</v>
       </c>
       <c r="L232">
-        <v>0.8248116611326415</v>
+        <v>2.474434983397924</v>
       </c>
       <c r="M232">
         <v>0.5</v>
@@ -17561,16 +17561,16 @@
         <v>19.85551131795117</v>
       </c>
       <c r="U232">
-        <v>5.037311661132642</v>
+        <v>6.686934983397924</v>
       </c>
       <c r="V232">
-        <v>0.4836455971557976</v>
+        <v>0.4509301266828835</v>
       </c>
       <c r="W232">
-        <v>0.1601332457691019</v>
+        <v>0.1321157185111264</v>
       </c>
       <c r="X232">
-        <v>0.3310962545938734</v>
+        <v>0.2929849009712246</v>
       </c>
     </row>
     <row r="233">
@@ -17608,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="L233">
-        <v>0.6144328565234258</v>
+        <v>1.843298569570277</v>
       </c>
       <c r="M233">
         <v>0.2142857142857143</v>
@@ -17635,16 +17635,16 @@
         <v>16.58126586048258</v>
       </c>
       <c r="U233">
-        <v>3.17871857080914</v>
+        <v>4.407584283855992</v>
       </c>
       <c r="V233">
-        <v>0.4964607164159668</v>
+        <v>0.4682767704199775</v>
       </c>
       <c r="W233">
-        <v>0.3534743364133028</v>
+        <v>0.2936529095873703</v>
       </c>
       <c r="X233">
-        <v>0.7119885314695055</v>
+        <v>0.6270926258503181</v>
       </c>
     </row>
     <row r="234">
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.7797743937219169</v>
+        <v>2.339323181165751</v>
       </c>
       <c r="M234">
         <v>0.3571428571428572</v>
@@ -17709,16 +17709,16 @@
         <v>19.5950270125829</v>
       </c>
       <c r="U234">
-        <v>3.624417250864775</v>
+        <v>5.183966038308609</v>
       </c>
       <c r="V234">
-        <v>0.4538133614010196</v>
+        <v>0.4424017884121003</v>
       </c>
       <c r="W234">
-        <v>0.4054243383663563</v>
+        <v>0.3652562230020607</v>
       </c>
       <c r="X234">
-        <v>0.8933724144100209</v>
+        <v>0.8256210362825703</v>
       </c>
     </row>
     <row r="235">
@@ -17756,7 +17756,7 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>0.5930382393329499</v>
+        <v>1.77911471799885</v>
       </c>
       <c r="M235">
         <v>0.25</v>
@@ -17783,16 +17783,16 @@
         <v>20.05627017303908</v>
       </c>
       <c r="U235">
-        <v>3.56803823933295</v>
+        <v>4.754114717998849</v>
       </c>
       <c r="V235">
-        <v>0.3944895723893477</v>
+        <v>0.2980390953536243</v>
       </c>
       <c r="W235">
-        <v>0.4030201561873205</v>
+        <v>0.3445962523253117</v>
       </c>
       <c r="X235">
-        <v>1.0216243581454</v>
+        <v>1.156211576593491</v>
       </c>
     </row>
     <row r="236">
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.8359156602708855</v>
+        <v>2.507746980812656</v>
       </c>
       <c r="M236">
         <v>0.2857142857142857</v>
@@ -17857,16 +17857,16 @@
         <v>20.86613848735299</v>
       </c>
       <c r="U236">
-        <v>3.321629945985171</v>
+        <v>4.993461266526942</v>
       </c>
       <c r="V236">
-        <v>0.3802929495121082</v>
+        <v>0.4048081967372041</v>
       </c>
       <c r="W236">
-        <v>0.3777561641469738</v>
+        <v>0.3628361599151553</v>
       </c>
       <c r="X236">
-        <v>0.9933293915430489</v>
+        <v>0.8963162377630992</v>
       </c>
     </row>
     <row r="237">
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="L237">
-        <v>0.8551085086979128</v>
+        <v>2.565325526093738</v>
       </c>
       <c r="M237">
         <v>0.5357142857142857</v>
@@ -17931,16 +17931,16 @@
         <v>18.77957894961218</v>
       </c>
       <c r="U237">
-        <v>5.965822794412198</v>
+        <v>7.676039811808024</v>
       </c>
       <c r="V237">
-        <v>0.03856741810783858</v>
+        <v>0.03250538710260576</v>
       </c>
       <c r="W237">
-        <v>0.02812403996666849</v>
+        <v>0.02401837030610714</v>
       </c>
       <c r="X237">
-        <v>0.7292175973001538</v>
+        <v>0.7389043000869763</v>
       </c>
     </row>
     <row r="238">
@@ -17978,7 +17978,7 @@
         <v>1</v>
       </c>
       <c r="L238">
-        <v>0.6272516320064163</v>
+        <v>1.881754896019249</v>
       </c>
       <c r="M238">
         <v>0.25</v>
@@ -18005,16 +18005,16 @@
         <v>16.65675958806452</v>
       </c>
       <c r="U238">
-        <v>3.614751632006416</v>
+        <v>4.869254896019249</v>
       </c>
       <c r="V238">
-        <v>0.5037908937906248</v>
+        <v>0.4678253392067672</v>
       </c>
       <c r="W238">
-        <v>0.4051061193522475</v>
+        <v>0.355382296052765</v>
       </c>
       <c r="X238">
-        <v>0.8041156049966425</v>
+        <v>0.7596473860422828</v>
       </c>
     </row>
     <row r="239">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.7108945932921734</v>
+        <v>2.13268377987652</v>
       </c>
       <c r="M239">
         <v>0.4642857142857143</v>
@@ -18079,16 +18079,16 @@
         <v>16.58567954249866</v>
       </c>
       <c r="U239">
-        <v>2.387680307577888</v>
+        <v>3.809469494162235</v>
       </c>
       <c r="V239">
-        <v>0.3383029260710467</v>
+        <v>0.3503124609090844</v>
       </c>
       <c r="W239">
-        <v>0.166738875030076</v>
+        <v>0.1757207447987425</v>
       </c>
       <c r="X239">
-        <v>0.4928685570844261</v>
+        <v>0.50161145950314</v>
       </c>
     </row>
     <row r="240">
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.7275362933195569</v>
+        <v>2.182608879958671</v>
       </c>
       <c r="M240">
         <v>0.3928571428571428</v>
@@ -18153,16 +18153,16 @@
         <v>17.24734024312916</v>
       </c>
       <c r="U240">
-        <v>3.7578934361767</v>
+        <v>5.212966022815814</v>
       </c>
       <c r="V240">
-        <v>0.5143907666458205</v>
+        <v>0.4724672167929558</v>
       </c>
       <c r="W240">
-        <v>0.4057983020806041</v>
+        <v>0.364649480256816</v>
       </c>
       <c r="X240">
-        <v>0.7888911084595986</v>
+        <v>0.7717984810290284</v>
       </c>
     </row>
     <row r="241">
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="L241">
-        <v>0.7302333242612518</v>
+        <v>2.190699972783755</v>
       </c>
       <c r="M241">
         <v>0.3928571428571428</v>
@@ -18227,16 +18227,16 @@
         <v>20.23597467895483</v>
       </c>
       <c r="U241">
-        <v>4.573090467118394</v>
+        <v>6.033557115640898</v>
       </c>
       <c r="V241">
-        <v>0.3623495825198804</v>
+        <v>0.3270607611005515</v>
       </c>
       <c r="W241">
-        <v>0.2731173795214032</v>
+        <v>0.2595586499042213</v>
       </c>
       <c r="X241">
-        <v>0.7537400143311012</v>
+        <v>0.7936098755191934</v>
       </c>
     </row>
     <row r="242">
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.5201397224797617</v>
+        <v>1.560419167439285</v>
       </c>
       <c r="M242">
         <v>0.3928571428571428</v>
@@ -18301,16 +18301,16 @@
         <v>16.89635698074226</v>
       </c>
       <c r="U242">
-        <v>3.262996865336905</v>
+        <v>4.303276310296428</v>
       </c>
       <c r="V242">
-        <v>0.3580635642181835</v>
+        <v>0.4166097547319338</v>
       </c>
       <c r="W242">
-        <v>0.3685428561169865</v>
+        <v>0.2743726554258405</v>
       </c>
       <c r="X242">
-        <v>1.029266568693422</v>
+        <v>0.6585843281619382</v>
       </c>
     </row>
     <row r="243">
@@ -18348,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="L243">
-        <v>0.7113431400140265</v>
+        <v>2.13402942004208</v>
       </c>
       <c r="M243">
         <v>0.3571428571428572</v>
@@ -18375,16 +18375,16 @@
         <v>19.14499352739103</v>
       </c>
       <c r="U243">
-        <v>3.555985997156883</v>
+        <v>4.978672277184938</v>
       </c>
       <c r="V243">
-        <v>0.325345474530049</v>
+        <v>0.3055629330457956</v>
       </c>
       <c r="W243">
-        <v>0.4023357157654639</v>
+        <v>0.3621866630082134</v>
       </c>
       <c r="X243">
-        <v>1.236641500382401</v>
+        <v>1.185309551122588</v>
       </c>
     </row>
     <row r="244">
@@ -18422,7 +18422,7 @@
         <v>1</v>
       </c>
       <c r="L244">
-        <v>0.6938550285351293</v>
+        <v>2.081565085605388</v>
       </c>
       <c r="M244">
         <v>0.3214285714285715</v>
@@ -18449,16 +18449,16 @@
         <v>18.46172472663143</v>
       </c>
       <c r="U244">
-        <v>2.915283599963701</v>
+        <v>4.30299365703396</v>
       </c>
       <c r="V244">
-        <v>0.354628752635652</v>
+        <v>0.3672499288332673</v>
       </c>
       <c r="W244">
-        <v>0.295821508855214</v>
+        <v>0.274318761235002</v>
       </c>
       <c r="X244">
-        <v>0.8341723750728779</v>
+        <v>0.7469538853458667</v>
       </c>
     </row>
     <row r="245">
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.6803303813854009</v>
+        <v>2.040991144156203</v>
       </c>
       <c r="M245">
         <v>0.3214285714285715</v>
@@ -18523,16 +18523,16 @@
         <v>18.72718601568785</v>
       </c>
       <c r="U245">
-        <v>2.976758952813972</v>
+        <v>4.337419715584774</v>
       </c>
       <c r="V245">
-        <v>0.4961070315903399</v>
+        <v>0.4601124621088801</v>
       </c>
       <c r="W245">
-        <v>0.3103666377971687</v>
+        <v>0.2808226496964307</v>
       </c>
       <c r="X245">
-        <v>0.6256041902938674</v>
+        <v>0.6103348046895053</v>
       </c>
     </row>
     <row r="246">
@@ -18570,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="L246">
-        <v>0.7792222038315602</v>
+        <v>2.337666611494681</v>
       </c>
       <c r="M246">
         <v>0.3571428571428572</v>
@@ -18597,16 +18597,16 @@
         <v>18.68691786843736</v>
       </c>
       <c r="U246">
-        <v>3.336365060974417</v>
+        <v>4.894809468637538</v>
       </c>
       <c r="V246">
-        <v>0.2288533275627142</v>
+        <v>0.2514994849955401</v>
       </c>
       <c r="W246">
-        <v>0.37989423123928</v>
+        <v>0.3572814863539651</v>
       </c>
       <c r="X246">
-        <v>1.659989982602176</v>
+        <v>1.420605240445327</v>
       </c>
     </row>
     <row r="247">
@@ -18644,7 +18644,7 @@
         <v>1</v>
       </c>
       <c r="L247">
-        <v>0.6818880046725901</v>
+        <v>2.04566401401777</v>
       </c>
       <c r="M247">
         <v>0.2857142857142857</v>
@@ -18671,16 +18671,16 @@
         <v>18.29729396033749</v>
       </c>
       <c r="U247">
-        <v>3.267602290386876</v>
+        <v>4.631378299732056</v>
       </c>
       <c r="V247">
-        <v>0.33157025015613</v>
+        <v>0.3181560054584894</v>
       </c>
       <c r="W247">
-        <v>0.3693060390985379</v>
+        <v>0.329393424970751</v>
       </c>
       <c r="X247">
-        <v>1.113809332787362</v>
+        <v>1.035320469579279</v>
       </c>
     </row>
     <row r="248">
@@ -18718,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.6031212499451938</v>
+        <v>1.809363749835581</v>
       </c>
       <c r="M248">
         <v>0.25</v>
@@ -18745,16 +18745,16 @@
         <v>17.79169406308889</v>
       </c>
       <c r="U248">
-        <v>3.440621249945194</v>
+        <v>4.646863749835582</v>
       </c>
       <c r="V248">
-        <v>0.3533067468215058</v>
+        <v>0.3627029126588585</v>
       </c>
       <c r="W248">
-        <v>0.3928327495251379</v>
+        <v>0.331505179870712</v>
       </c>
       <c r="X248">
-        <v>1.11187446336427</v>
+        <v>0.9139854362915205</v>
       </c>
     </row>
     <row r="249">
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>0.7885731578041049</v>
+        <v>2.365719473412315</v>
       </c>
       <c r="M249">
         <v>0.3928571428571428</v>
@@ -18819,16 +18819,16 @@
         <v>20.87970787845541</v>
       </c>
       <c r="U249">
-        <v>4.531430300661247</v>
+        <v>6.108576616269458</v>
       </c>
       <c r="V249">
-        <v>0.5197469635082029</v>
+        <v>0.4711159031835107</v>
       </c>
       <c r="W249">
-        <v>0.2834032317666891</v>
+        <v>0.2446123964625981</v>
       </c>
       <c r="X249">
-        <v>0.5452715487816722</v>
+        <v>0.5192191450334372</v>
       </c>
     </row>
     <row r="250">
@@ -18866,7 +18866,7 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.55420372411345</v>
+        <v>1.66261117234035</v>
       </c>
       <c r="M250">
         <v>0.2857142857142857</v>
@@ -18893,16 +18893,16 @@
         <v>18.56419929967253</v>
       </c>
       <c r="U250">
-        <v>3.239918009827735</v>
+        <v>4.348325458054635</v>
       </c>
       <c r="V250">
-        <v>0.4070166918655722</v>
+        <v>0.4282846082204035</v>
       </c>
       <c r="W250">
-        <v>0.3646210649654562</v>
+        <v>0.2828562318542925</v>
       </c>
       <c r="X250">
-        <v>0.8958381124228727</v>
+        <v>0.660439872050525</v>
       </c>
     </row>
     <row r="251">
@@ -18940,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="L251">
-        <v>0.8281286694852117</v>
+        <v>2.484386008455635</v>
       </c>
       <c r="M251">
         <v>0.5357142857142857</v>
@@ -18967,16 +18967,16 @@
         <v>19.34084858611157</v>
       </c>
       <c r="U251">
-        <v>4.488842955199497</v>
+        <v>6.145100294169921</v>
       </c>
       <c r="V251">
-        <v>0.5184855176216482</v>
+        <v>0.4741359384518967</v>
       </c>
       <c r="W251">
-        <v>0.293770682332052</v>
+        <v>0.2372439436747706</v>
       </c>
       <c r="X251">
-        <v>0.5665938051261517</v>
+        <v>0.5003711476700056</v>
       </c>
     </row>
     <row r="252">
@@ -19014,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="L252">
-        <v>0.8106310462342105</v>
+        <v>2.431893138702631</v>
       </c>
       <c r="M252">
         <v>0.5</v>
@@ -19041,16 +19041,16 @@
         <v>20.36704851685334</v>
       </c>
       <c r="U252">
-        <v>5.598131046234211</v>
+        <v>7.219393138702631</v>
       </c>
       <c r="V252">
-        <v>0.2166967368976207</v>
+        <v>0.193159790053787</v>
       </c>
       <c r="W252">
-        <v>0.06233366557496849</v>
+        <v>0.05844399026316496</v>
       </c>
       <c r="X252">
-        <v>0.2876539188701226</v>
+        <v>0.3025680978783976</v>
       </c>
     </row>
     <row r="253">
@@ -19088,7 +19088,7 @@
         <v>1</v>
       </c>
       <c r="L253">
-        <v>0.6575751662999976</v>
+        <v>1.972725498899993</v>
       </c>
       <c r="M253">
         <v>0.3928571428571428</v>
@@ -19115,16 +19115,16 @@
         <v>20.45173249698929</v>
       </c>
       <c r="U253">
-        <v>3.72543230915714</v>
+        <v>5.040582641757136</v>
       </c>
       <c r="V253">
-        <v>0.2690352165979482</v>
+        <v>0.2040208817004753</v>
       </c>
       <c r="W253">
-        <v>0.4063987259637143</v>
+        <v>0.3644663997122236</v>
       </c>
       <c r="X253">
-        <v>1.510578173009391</v>
+        <v>1.786417138650051</v>
       </c>
     </row>
     <row r="254">
@@ -19162,7 +19162,7 @@
         <v>1</v>
       </c>
       <c r="L254">
-        <v>0.6144328565234258</v>
+        <v>1.843298569570277</v>
       </c>
       <c r="M254">
         <v>0.3928571428571428</v>
@@ -19189,16 +19189,16 @@
         <v>18.43047435955604</v>
       </c>
       <c r="U254">
-        <v>3.007289999380569</v>
+        <v>4.23615571242742</v>
       </c>
       <c r="V254">
-        <v>0.4772531656882809</v>
+        <v>0.3957471221342159</v>
       </c>
       <c r="W254">
-        <v>0.3173906393066709</v>
+        <v>0.2613741840268382</v>
       </c>
       <c r="X254">
-        <v>0.6650362158393212</v>
+        <v>0.660457573556768</v>
       </c>
     </row>
     <row r="255">
@@ -19236,7 +19236,7 @@
         <v>1</v>
       </c>
       <c r="L255">
-        <v>0.6544757866384597</v>
+        <v>1.963427359915379</v>
       </c>
       <c r="M255">
         <v>0.3928571428571428</v>
@@ -19263,16 +19263,16 @@
         <v>19.20974622846257</v>
       </c>
       <c r="U255">
-        <v>3.822332929495603</v>
+        <v>5.131284502772522</v>
       </c>
       <c r="V255">
-        <v>0.5042307238816099</v>
+        <v>0.44710358792684</v>
       </c>
       <c r="W255">
-        <v>0.4032991984848507</v>
+        <v>0.3656992639920191</v>
       </c>
       <c r="X255">
-        <v>0.7998306715231869</v>
+        <v>0.8179296115419653</v>
       </c>
     </row>
     <row r="256">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0.6857753778706851</v>
+        <v>2.057326133612055</v>
       </c>
       <c r="M256">
         <v>0.3214285714285715</v>
@@ -19337,16 +19337,16 @@
         <v>18.89339499613812</v>
       </c>
       <c r="U256">
-        <v>2.444703949299257</v>
+        <v>3.816254705040627</v>
       </c>
       <c r="V256">
-        <v>0.1138067000831214</v>
+        <v>0.08548046780623254</v>
       </c>
       <c r="W256">
-        <v>0.179886993019533</v>
+        <v>0.177045567199052</v>
       </c>
       <c r="X256">
-        <v>1.580636226936976</v>
+        <v>2.071181542903807</v>
       </c>
     </row>
     <row r="257">
@@ -19384,7 +19384,7 @@
         <v>1</v>
       </c>
       <c r="L257">
-        <v>0.7391888909024049</v>
+        <v>2.217566672707215</v>
       </c>
       <c r="M257">
         <v>0.4642857142857143</v>
@@ -19411,16 +19411,16 @@
         <v>17.9104075342443</v>
       </c>
       <c r="U257">
-        <v>3.553474605188119</v>
+        <v>5.031852386992929</v>
       </c>
       <c r="V257">
-        <v>0.4144523028695712</v>
+        <v>0.3784523334561034</v>
       </c>
       <c r="W257">
-        <v>0.4021856029586615</v>
+        <v>0.3642150948507101</v>
       </c>
       <c r="X257">
-        <v>0.9704026257642242</v>
+        <v>0.9623803651165898</v>
       </c>
     </row>
     <row r="258">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>0.5953558696133948</v>
+        <v>1.786067608840184</v>
       </c>
       <c r="M258">
         <v>0.1071428571428571</v>
@@ -19485,16 +19485,16 @@
         <v>18.06670350080167</v>
       </c>
       <c r="U258">
-        <v>3.352498726756252</v>
+        <v>4.543210465983042</v>
       </c>
       <c r="V258">
-        <v>0.405733030485657</v>
+        <v>0.4179366536996423</v>
       </c>
       <c r="W258">
-        <v>0.3821502673185012</v>
+        <v>0.3164065263146805</v>
       </c>
       <c r="X258">
-        <v>0.9418761564989482</v>
+        <v>0.7570681430159312</v>
       </c>
     </row>
     <row r="259">
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="L259">
-        <v>0.5473154256694025</v>
+        <v>1.641946277008208</v>
       </c>
       <c r="M259">
         <v>0.5</v>
@@ -19559,16 +19559,16 @@
         <v>18.70860378986771</v>
       </c>
       <c r="U259">
-        <v>3.784815425669402</v>
+        <v>4.879446277008207</v>
       </c>
       <c r="V259">
-        <v>0.5168048600170931</v>
+        <v>0.4240401858180348</v>
       </c>
       <c r="W259">
-        <v>0.4049646764186491</v>
+        <v>0.3561619246375423</v>
       </c>
       <c r="X259">
-        <v>0.7835930111130438</v>
+        <v>0.8399249329410949</v>
       </c>
     </row>
     <row r="260">
@@ -19606,7 +19606,7 @@
         <v>1</v>
       </c>
       <c r="L260">
-        <v>0.8062746340007304</v>
+        <v>2.418823902002191</v>
       </c>
       <c r="M260">
         <v>0.3928571428571428</v>
@@ -19633,16 +19633,16 @@
         <v>20.36566776562811</v>
       </c>
       <c r="U260">
-        <v>4.799131776857873</v>
+        <v>6.411681044859334</v>
       </c>
       <c r="V260">
-        <v>0.4792375312503654</v>
+        <v>0.4194799921885774</v>
       </c>
       <c r="W260">
-        <v>0.2165651113826754</v>
+        <v>0.1834419012376449</v>
       </c>
       <c r="X260">
-        <v>0.4518951402191755</v>
+        <v>0.4373078684410256</v>
       </c>
     </row>
     <row r="261">
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.5251025063860439</v>
+        <v>1.575307519158132</v>
       </c>
       <c r="M261">
         <v>0.2142857142857143</v>
@@ -19707,16 +19707,16 @@
         <v>18.73214353529703</v>
       </c>
       <c r="U261">
-        <v>2.989388220671758</v>
+        <v>4.039593233443846</v>
       </c>
       <c r="V261">
-        <v>0.4918353599484217</v>
+        <v>0.3798717875023312</v>
       </c>
       <c r="W261">
-        <v>0.3132898673066853</v>
+        <v>0.2218595670332908</v>
       </c>
       <c r="X261">
-        <v>0.6369811787008151</v>
+        <v>0.5840380210702785</v>
       </c>
     </row>
     <row r="262">
@@ -19754,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="L262">
-        <v>0.6578521402816242</v>
+        <v>1.973556420844873</v>
       </c>
       <c r="M262">
         <v>0.3214285714285715</v>
@@ -19781,16 +19781,16 @@
         <v>18.89826164924603</v>
       </c>
       <c r="U262">
-        <v>4.079280711710195</v>
+        <v>5.394984992273444</v>
       </c>
       <c r="V262">
-        <v>0.5196617321750575</v>
+        <v>0.4702641252149009</v>
       </c>
       <c r="W262">
-        <v>0.3769695955344953</v>
+        <v>0.355087482344242</v>
       </c>
       <c r="X262">
-        <v>0.7254134222211811</v>
+        <v>0.7550809498427602</v>
       </c>
     </row>
     <row r="263">
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="L263">
-        <v>0.6162313032817145</v>
+        <v>1.848693909845143</v>
       </c>
       <c r="M263">
         <v>0.25</v>
@@ -19855,16 +19855,16 @@
         <v>16.91921684900304</v>
       </c>
       <c r="U263">
-        <v>2.828731303281714</v>
+        <v>4.061193909845143</v>
       </c>
       <c r="V263">
-        <v>0.4947724747366971</v>
+        <v>0.4512794245210367</v>
       </c>
       <c r="W263">
-        <v>0.2746577796369734</v>
+        <v>0.2262509320217342</v>
       </c>
       <c r="X263">
-        <v>0.5551193602334851</v>
+        <v>0.5013544153090175</v>
       </c>
     </row>
     <row r="264">
@@ -19902,7 +19902,7 @@
         <v>1</v>
       </c>
       <c r="L264">
-        <v>0.6550038074327402</v>
+        <v>1.965011422298221</v>
       </c>
       <c r="M264">
         <v>0.2857142857142857</v>
@@ -19929,16 +19929,16 @@
         <v>18.96206679825984</v>
       </c>
       <c r="U264">
-        <v>3.415718093147026</v>
+        <v>4.725725708012507</v>
       </c>
       <c r="V264">
-        <v>0.3877515132653666</v>
+        <v>0.3391604548627947</v>
       </c>
       <c r="W264">
-        <v>0.3901027888970137</v>
+        <v>0.3414025755621056</v>
       </c>
       <c r="X264">
-        <v>1.006063872225401</v>
+        <v>1.006610796356604</v>
       </c>
     </row>
     <row r="265">
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="L265">
-        <v>0.776496039002432</v>
+        <v>2.329488117007296</v>
       </c>
       <c r="M265">
         <v>0.25</v>
@@ -20003,16 +20003,16 @@
         <v>19.12064691724548</v>
       </c>
       <c r="U265">
-        <v>3.776496039002432</v>
+        <v>5.329488117007296</v>
       </c>
       <c r="V265">
-        <v>0.503174242519321</v>
+        <v>0.4707082488285657</v>
       </c>
       <c r="W265">
-        <v>0.4052546657303272</v>
+        <v>0.3596503615606229</v>
       </c>
       <c r="X265">
-        <v>0.805396285193923</v>
+        <v>0.7640621604904344</v>
       </c>
     </row>
     <row r="266">
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
       <c r="L266">
-        <v>0.6953392049607727</v>
+        <v>2.086017614882318</v>
       </c>
       <c r="M266">
         <v>0.2857142857142857</v>
@@ -20077,16 +20077,16 @@
         <v>17.90986193682981</v>
       </c>
       <c r="U266">
-        <v>3.068553490675058</v>
+        <v>4.459231900596603</v>
       </c>
       <c r="V266">
-        <v>0.4485457111810783</v>
+        <v>0.3916408069693857</v>
       </c>
       <c r="W266">
-        <v>0.3310001195031154</v>
+        <v>0.3026691472972032</v>
       </c>
       <c r="X266">
-        <v>0.7379406630186022</v>
+        <v>0.7728233164448123</v>
       </c>
     </row>
     <row r="267">
@@ -20124,7 +20124,7 @@
         <v>1</v>
       </c>
       <c r="L267">
-        <v>0.5032683921829053</v>
+        <v>1.509805176548716</v>
       </c>
       <c r="M267">
         <v>0.25</v>
@@ -20151,16 +20151,16 @@
         <v>17.91093843319089</v>
       </c>
       <c r="U267">
-        <v>4.390768392182905</v>
+        <v>5.397305176548716</v>
       </c>
       <c r="V267">
-        <v>0.4318969852848962</v>
+        <v>0.469455102010264</v>
       </c>
       <c r="W267">
-        <v>0.3168334686766134</v>
+        <v>0.3549034482852087</v>
       </c>
       <c r="X267">
-        <v>0.733585737968552</v>
+        <v>0.7559901825871501</v>
       </c>
     </row>
     <row r="268">
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="L268">
-        <v>0.5158334165193524</v>
+        <v>1.547500249558057</v>
       </c>
       <c r="M268">
         <v>0.25</v>
@@ -20225,16 +20225,16 @@
         <v>18.31306268195332</v>
       </c>
       <c r="U268">
-        <v>3.528333416519352</v>
+        <v>4.560000249558057</v>
       </c>
       <c r="V268">
-        <v>0.5033078355901087</v>
+        <v>0.3457463376391748</v>
       </c>
       <c r="W268">
-        <v>0.4005413024387713</v>
+        <v>0.3190000981740776</v>
       </c>
       <c r="X268">
-        <v>0.7958177364140423</v>
+        <v>0.9226420165496881</v>
       </c>
     </row>
     <row r="269">
@@ -20272,7 +20272,7 @@
         <v>1</v>
       </c>
       <c r="L269">
-        <v>0.7607117323985013</v>
+        <v>2.282135197195504</v>
       </c>
       <c r="M269">
         <v>0.3571428571428572</v>
@@ -20299,16 +20299,16 @@
         <v>18.84381621423026</v>
       </c>
       <c r="U269">
-        <v>4.717854589541359</v>
+        <v>6.239278054338361</v>
       </c>
       <c r="V269">
-        <v>0.2741945470230018</v>
+        <v>0.2339431878722408</v>
       </c>
       <c r="W269">
-        <v>0.2368494135909673</v>
+        <v>0.2181210276968671</v>
       </c>
       <c r="X269">
-        <v>0.8638005976504645</v>
+        <v>0.9323675105940064</v>
       </c>
     </row>
     <row r="270">
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0.7947137097840457</v>
+        <v>2.384141129352137</v>
       </c>
       <c r="M270">
         <v>0.3928571428571428</v>
@@ -20373,16 +20373,16 @@
         <v>18.6039920857475</v>
       </c>
       <c r="U270">
-        <v>4.762570852641188</v>
+        <v>6.35199827220928</v>
       </c>
       <c r="V270">
-        <v>0.1958951507605174</v>
+        <v>0.174185679516995</v>
       </c>
       <c r="W270">
-        <v>0.2256567345803599</v>
+        <v>0.1953253437801495</v>
       </c>
       <c r="X270">
-        <v>1.151926087523351</v>
+        <v>1.121362814220855</v>
       </c>
     </row>
     <row r="271">
@@ -20420,7 +20420,7 @@
         <v>1</v>
       </c>
       <c r="L271">
-        <v>0.5791250543975506</v>
+        <v>1.737375163192652</v>
       </c>
       <c r="M271">
         <v>0.25</v>
@@ -20447,16 +20447,16 @@
         <v>17.45352257436925</v>
       </c>
       <c r="U271">
-        <v>3.50412505439755</v>
+        <v>4.662375163192651</v>
       </c>
       <c r="V271">
-        <v>0.5052270894904428</v>
+        <v>0.4298229528451873</v>
       </c>
       <c r="W271">
-        <v>0.3987169378029179</v>
+        <v>0.3335666582667262</v>
       </c>
       <c r="X271">
-        <v>0.7891836089095146</v>
+        <v>0.776055945962638</v>
       </c>
     </row>
     <row r="272">
@@ -20494,7 +20494,7 @@
         <v>1</v>
       </c>
       <c r="L272">
-        <v>0.7332322236106558</v>
+        <v>2.199696670831968</v>
       </c>
       <c r="M272">
         <v>0.3571428571428572</v>
@@ -20521,16 +20521,16 @@
         <v>17.99160960808166</v>
       </c>
       <c r="U272">
-        <v>3.877875080753513</v>
+        <v>5.344339527974824</v>
       </c>
       <c r="V272">
-        <v>0.5189919194874493</v>
+        <v>0.4730791326459084</v>
       </c>
       <c r="W272">
-        <v>0.3997717083089654</v>
+        <v>0.3587239596888413</v>
       </c>
       <c r="X272">
-        <v>0.7702850339245657</v>
+        <v>0.7582747471496275</v>
       </c>
     </row>
     <row r="273">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0.671074966208834</v>
+        <v>2.013224898626502</v>
       </c>
       <c r="M273">
         <v>0.1428571428571428</v>
@@ -20595,16 +20595,16 @@
         <v>18.29985061060551</v>
       </c>
       <c r="U273">
-        <v>1.563932109065977</v>
+        <v>2.906082041483645</v>
       </c>
       <c r="V273">
-        <v>0.05028814980088579</v>
+        <v>0.07037882437126987</v>
       </c>
       <c r="W273">
-        <v>0.03821571696889196</v>
+        <v>0.04575982917091274</v>
       </c>
       <c r="X273">
-        <v>0.7599348379331073</v>
+        <v>0.6501931451641707</v>
       </c>
     </row>
     <row r="274">
@@ -20642,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="L274">
-        <v>0.4072544124778029</v>
+        <v>1.221763237433409</v>
       </c>
       <c r="M274">
         <v>0.3214285714285715</v>
@@ -20669,16 +20669,16 @@
         <v>18.87988225229977</v>
       </c>
       <c r="U274">
-        <v>3.978682983906374</v>
+        <v>4.79319180886198</v>
       </c>
       <c r="V274">
-        <v>0.5097561593950914</v>
+        <v>0.4254136931916414</v>
       </c>
       <c r="W274">
-        <v>0.3902409857114111</v>
+        <v>0.3486548223646911</v>
       </c>
       <c r="X274">
-        <v>0.7655444245627075</v>
+        <v>0.81956652534837</v>
       </c>
     </row>
     <row r="275">
@@ -20716,7 +20716,7 @@
         <v>1</v>
       </c>
       <c r="L275">
-        <v>0.7086079276031211</v>
+        <v>2.125823782809363</v>
       </c>
       <c r="M275">
         <v>0.5</v>
@@ -20743,16 +20743,16 @@
         <v>17.86659506921481</v>
       </c>
       <c r="U275">
-        <v>4.346107927603121</v>
+        <v>5.763323782809363</v>
       </c>
       <c r="V275">
-        <v>0.308228938751557</v>
+        <v>0.2704068969527756</v>
       </c>
       <c r="W275">
-        <v>0.3268435863323662</v>
+        <v>0.3090245477276862</v>
       </c>
       <c r="X275">
-        <v>1.060392277429256</v>
+        <v>1.14281311316425</v>
       </c>
     </row>
     <row r="276">
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0.7824458935313803</v>
+        <v>2.347337680594141</v>
       </c>
       <c r="M276">
         <v>0.5714285714285714</v>
@@ -20817,16 +20817,16 @@
         <v>19.88989530647922</v>
       </c>
       <c r="U276">
-        <v>4.378874464959951</v>
+        <v>5.943766252022713</v>
       </c>
       <c r="V276">
-        <v>0.4618232048147905</v>
+        <v>0.4422165836885835</v>
       </c>
       <c r="W276">
-        <v>0.3195336657622951</v>
+        <v>0.2769261059942908</v>
       </c>
       <c r="X276">
-        <v>0.691896081511194</v>
+        <v>0.6262227971742166</v>
       </c>
     </row>
     <row r="277">
@@ -20864,7 +20864,7 @@
         <v>1</v>
       </c>
       <c r="L277">
-        <v>0.742184245870984</v>
+        <v>2.226552737612952</v>
       </c>
       <c r="M277">
         <v>0.3928571428571428</v>
@@ -20891,16 +20891,16 @@
         <v>19.26458864921469</v>
       </c>
       <c r="U277">
-        <v>4.810041388728127</v>
+        <v>6.294409880470094</v>
       </c>
       <c r="V277">
-        <v>0.2504782201226045</v>
+        <v>0.2407319005315631</v>
       </c>
       <c r="W277">
-        <v>0.2138663295954907</v>
+        <v>0.2069330059647562</v>
       </c>
       <c r="X277">
-        <v>0.8538320397310675</v>
+        <v>0.8595994361687208</v>
       </c>
     </row>
     <row r="278">
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="L278">
-        <v>0.7711342869531481</v>
+        <v>2.313402860859445</v>
       </c>
       <c r="M278">
         <v>0.4285714285714285</v>
@@ -20965,16 +20965,16 @@
         <v>17.72717357860567</v>
       </c>
       <c r="U278">
-        <v>4.049705715524576</v>
+        <v>5.591974289430873</v>
       </c>
       <c r="V278">
-        <v>0.4545785667053195</v>
+        <v>0.3892115909303313</v>
       </c>
       <c r="W278">
-        <v>0.38123935244931</v>
+        <v>0.3343666448819748</v>
       </c>
       <c r="X278">
-        <v>0.8386654813324015</v>
+        <v>0.8590870690226343</v>
       </c>
     </row>
     <row r="279">
@@ -21012,7 +21012,7 @@
         <v>1</v>
       </c>
       <c r="L279">
-        <v>0.7914386799926812</v>
+        <v>2.374316039978043</v>
       </c>
       <c r="M279">
         <v>0.3571428571428572</v>
@@ -21039,16 +21039,16 @@
         <v>18.06669530861222</v>
       </c>
       <c r="U279">
-        <v>3.873581537135538</v>
+        <v>5.456458897120901</v>
       </c>
       <c r="V279">
-        <v>0.5158358905488587</v>
+        <v>0.4412368392772986</v>
       </c>
       <c r="W279">
-        <v>0.4000889999039924</v>
+        <v>0.3497088303072982</v>
       </c>
       <c r="X279">
-        <v>0.7756129560474951</v>
+        <v>0.79256489752779</v>
       </c>
     </row>
     <row r="280">
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="L280">
-        <v>0.7860964798845786</v>
+        <v>2.358289439653736</v>
       </c>
       <c r="M280">
         <v>0.3928571428571428</v>
@@ -21113,16 +21113,16 @@
         <v>18.21459669826885</v>
       </c>
       <c r="U280">
-        <v>3.503953622741722</v>
+        <v>5.076146582510878</v>
       </c>
       <c r="V280">
-        <v>0.4667598224459192</v>
+        <v>0.3647125882264785</v>
       </c>
       <c r="W280">
-        <v>0.3987031829227538</v>
+        <v>0.3652501008434016</v>
       </c>
       <c r="X280">
-        <v>0.8541934497135284</v>
+        <v>1.001473797818543</v>
       </c>
     </row>
     <row r="281">
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="L281">
-        <v>0.6910906807787252</v>
+        <v>2.073272042336175</v>
       </c>
       <c r="M281">
         <v>0.1785714285714286</v>
@@ -21187,16 +21187,16 @@
         <v>18.97758796990048</v>
       </c>
       <c r="U281">
-        <v>2.594662109350154</v>
+        <v>3.976843470907604</v>
       </c>
       <c r="V281">
-        <v>0.4981284888554438</v>
+        <v>0.4637777624565314</v>
       </c>
       <c r="W281">
-        <v>0.2161146848827643</v>
+        <v>0.209114652763389</v>
       </c>
       <c r="X281">
-        <v>0.4338532923088454</v>
+        <v>0.4508940912900902</v>
       </c>
     </row>
     <row r="282">
@@ -21234,7 +21234,7 @@
         <v>1</v>
       </c>
       <c r="L282">
-        <v>0.7186453605719911</v>
+        <v>2.155936081715974</v>
       </c>
       <c r="M282">
         <v>0.1785714285714286</v>
@@ -21261,16 +21261,16 @@
         <v>18.43678743202474</v>
       </c>
       <c r="U282">
-        <v>3.69721678914342</v>
+        <v>5.134507510287402</v>
       </c>
       <c r="V282">
-        <v>0.4496244553929999</v>
+        <v>0.3971057369079599</v>
       </c>
       <c r="W282">
-        <v>0.4065597439082426</v>
+        <v>0.365696634776604</v>
       </c>
       <c r="X282">
-        <v>0.9042207091535622</v>
+        <v>0.9209049398885016</v>
       </c>
     </row>
     <row r="283">
@@ -21308,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="L283">
-        <v>0.7926332642503894</v>
+        <v>2.377899792751168</v>
       </c>
       <c r="M283">
         <v>0.2857142857142857</v>
@@ -21335,16 +21335,16 @@
         <v>17.94242990376105</v>
       </c>
       <c r="U283">
-        <v>3.665847549964675</v>
+        <v>5.251114078465453</v>
       </c>
       <c r="V283">
-        <v>0.3883801791202521</v>
+        <v>0.2947030057528186</v>
       </c>
       <c r="W283">
-        <v>0.4063442470560957</v>
+        <v>0.3634614967192988</v>
       </c>
       <c r="X283">
-        <v>1.046253822675851</v>
+        <v>1.233314522160494</v>
       </c>
     </row>
     <row r="284">
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0.7233045123757282</v>
+        <v>2.169913537127185</v>
       </c>
       <c r="M284">
         <v>0.3214285714285715</v>
@@ -21409,16 +21409,16 @@
         <v>18.51834895051599</v>
       </c>
       <c r="U284">
-        <v>2.8197330838043</v>
+        <v>4.266342108555756</v>
       </c>
       <c r="V284">
-        <v>0.4135090796925437</v>
+        <v>0.4201322272942842</v>
       </c>
       <c r="W284">
-        <v>0.2724246932569538</v>
+        <v>0.2672672052387792</v>
       </c>
       <c r="X284">
-        <v>0.6588118777452472</v>
+        <v>0.6361502114703764</v>
       </c>
     </row>
     <row r="285">
@@ -21456,7 +21456,7 @@
         <v>1</v>
       </c>
       <c r="L285">
-        <v>0.5194840028725508</v>
+        <v>1.558452008617653</v>
       </c>
       <c r="M285">
         <v>0.2142857142857143</v>
@@ -21483,16 +21483,16 @@
         <v>17.96211495648843</v>
       </c>
       <c r="U285">
-        <v>1.783769717158265</v>
+        <v>2.822737722903367</v>
       </c>
       <c r="V285">
-        <v>0.03607249759578205</v>
+        <v>0.02416341560104729</v>
       </c>
       <c r="W285">
-        <v>0.0606635083350191</v>
+        <v>0.03904531978211296</v>
       </c>
       <c r="X285">
-        <v>1.681710787392567</v>
+        <v>1.615885784806874</v>
       </c>
     </row>
     <row r="286">
@@ -21530,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="L286">
-        <v>0.7724979037968954</v>
+        <v>2.317493711390686</v>
       </c>
       <c r="M286">
         <v>0.4285714285714285</v>
@@ -21557,16 +21557,16 @@
         <v>18.49458884256127</v>
       </c>
       <c r="U286">
-        <v>3.676069332368324</v>
+        <v>5.221065139962114</v>
       </c>
       <c r="V286">
-        <v>0.519774271890751</v>
+        <v>0.4602194589383932</v>
       </c>
       <c r="W286">
-        <v>0.4064600772416149</v>
+        <v>0.3644341998859774</v>
       </c>
       <c r="X286">
-        <v>0.7819934522019723</v>
+        <v>0.7918704713760527</v>
       </c>
     </row>
     <row r="287">
@@ -21604,7 +21604,7 @@
         <v>0</v>
       </c>
       <c r="L287">
-        <v>0.5675214846036062</v>
+        <v>1.702564453810818</v>
       </c>
       <c r="M287">
         <v>0.1428571428571428</v>
@@ -21631,16 +21631,16 @@
         <v>17.36985731831898</v>
       </c>
       <c r="U287">
-        <v>1.460378627460749</v>
+        <v>2.595421596667961</v>
       </c>
       <c r="V287">
-        <v>0.2198049974995998</v>
+        <v>0.2058699874268977</v>
       </c>
       <c r="W287">
-        <v>0.03021049179517309</v>
+        <v>0.02458789335834033</v>
       </c>
       <c r="X287">
-        <v>0.1374422426188381</v>
+        <v>0.1194340839364515</v>
       </c>
     </row>
     <row r="288">
@@ -21678,7 +21678,7 @@
         <v>1</v>
       </c>
       <c r="L288">
-        <v>0.646540533703392</v>
+        <v>1.939621601110176</v>
       </c>
       <c r="M288">
         <v>0.2857142857142857</v>
@@ -21705,16 +21705,16 @@
         <v>17.75173069715587</v>
       </c>
       <c r="U288">
-        <v>2.844754819417678</v>
+        <v>4.137835886824462</v>
       </c>
       <c r="V288">
-        <v>0.3706142268483575</v>
+        <v>0.3511434184149928</v>
       </c>
       <c r="W288">
-        <v>0.2786217356782244</v>
+        <v>0.2417791968874564</v>
       </c>
       <c r="X288">
-        <v>0.7517837025512428</v>
+        <v>0.6885482802975786</v>
       </c>
     </row>
     <row r="289">
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="L289">
-        <v>0.7437349527460484</v>
+        <v>2.231204858238145</v>
       </c>
       <c r="M289">
         <v>0.2857142857142857</v>
@@ -21779,16 +21779,16 @@
         <v>19.20392502616957</v>
       </c>
       <c r="U289">
-        <v>3.316949238460334</v>
+        <v>4.804419143952431</v>
       </c>
       <c r="V289">
-        <v>0.5001235374659536</v>
+        <v>0.4695114009829819</v>
       </c>
       <c r="W289">
-        <v>0.3770617198044044</v>
+        <v>0.3497467137211193</v>
       </c>
       <c r="X289">
-        <v>0.7539371606361823</v>
+        <v>0.7449163385359333</v>
       </c>
     </row>
     <row r="290">
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="L290">
-        <v>0.6863543127294275</v>
+        <v>2.059062938188283</v>
       </c>
       <c r="M290">
         <v>0.2857142857142857</v>
@@ -21853,16 +21853,16 @@
         <v>17.16648014756505</v>
       </c>
       <c r="U290">
-        <v>3.259568598443713</v>
+        <v>4.632277223902568</v>
       </c>
       <c r="V290">
-        <v>0.4696102895337581</v>
+        <v>0.4176580593490026</v>
       </c>
       <c r="W290">
-        <v>0.3679705061210908</v>
+        <v>0.3295174581913088</v>
       </c>
       <c r="X290">
-        <v>0.7835656805697806</v>
+        <v>0.7889646825082768</v>
       </c>
     </row>
     <row r="291">
@@ -21900,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="L291">
-        <v>0.6595015783610225</v>
+        <v>1.978504735083068</v>
       </c>
       <c r="M291">
         <v>0.25</v>
@@ -21927,16 +21927,16 @@
         <v>18.02418561006718</v>
       </c>
       <c r="U291">
-        <v>2.984501578361022</v>
+        <v>4.303504735083068</v>
       </c>
       <c r="V291">
-        <v>0.5189720281996734</v>
+        <v>0.4747955957149594</v>
       </c>
       <c r="W291">
-        <v>0.3121616637192731</v>
+        <v>0.274416204016362</v>
       </c>
       <c r="X291">
-        <v>0.6014999783363459</v>
+        <v>0.5779670378010542</v>
       </c>
     </row>
     <row r="292">
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="L292">
-        <v>0.8279024942351957</v>
+        <v>2.483707482705587</v>
       </c>
       <c r="M292">
         <v>0.6428571428571429</v>
@@ -22001,16 +22001,16 @@
         <v>19.54884933324077</v>
       </c>
       <c r="U292">
-        <v>4.783259637092338</v>
+        <v>6.43906462556273</v>
       </c>
       <c r="V292">
-        <v>0.4918041680670514</v>
+        <v>0.4555664338200118</v>
       </c>
       <c r="W292">
-        <v>0.2205037598617846</v>
+        <v>0.1780557824129551</v>
       </c>
       <c r="X292">
-        <v>0.4483568342424493</v>
+        <v>0.3908448234869352</v>
       </c>
     </row>
     <row r="293">
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="L293">
-        <v>0.7492734362407213</v>
+        <v>2.247820308722164</v>
       </c>
       <c r="M293">
         <v>0.25</v>
@@ -22075,16 +22075,16 @@
         <v>18.77485445240803</v>
       </c>
       <c r="U293">
-        <v>3.199273436240721</v>
+        <v>4.697820308722164</v>
       </c>
       <c r="V293">
-        <v>0.4906923132532137</v>
+        <v>0.4518536305714391</v>
       </c>
       <c r="W293">
-        <v>0.3573346088683654</v>
+        <v>0.3380689483539766</v>
       </c>
       <c r="X293">
-        <v>0.7282254056504218</v>
+        <v>0.7481824322766553</v>
       </c>
     </row>
     <row r="294">
@@ -22122,7 +22122,7 @@
         <v>1</v>
       </c>
       <c r="L294">
-        <v>0.7743166290547414</v>
+        <v>2.322949887164224</v>
       </c>
       <c r="M294">
         <v>0.3928571428571428</v>
@@ -22149,16 +22149,16 @@
         <v>18.0956063306555</v>
       </c>
       <c r="U294">
-        <v>4.629673771911884</v>
+        <v>6.178307030021367</v>
       </c>
       <c r="V294">
-        <v>0.2431427486981212</v>
+        <v>0.2015395465206289</v>
       </c>
       <c r="W294">
-        <v>0.2589935703653981</v>
+        <v>0.2305131173776453</v>
       </c>
       <c r="X294">
-        <v>1.06519142253737</v>
+        <v>1.143761218863568</v>
       </c>
     </row>
     <row r="295">
@@ -22196,7 +22196,7 @@
         <v>0</v>
       </c>
       <c r="L295">
-        <v>0.7075719196176824</v>
+        <v>2.122715758853047</v>
       </c>
       <c r="M295">
         <v>0.2142857142857143</v>
@@ -22223,16 +22223,16 @@
         <v>18.50497683622405</v>
       </c>
       <c r="U295">
-        <v>3.221857633903396</v>
+        <v>4.637001473138762</v>
       </c>
       <c r="V295">
-        <v>0.5197462538428381</v>
+        <v>0.4730662902116361</v>
       </c>
       <c r="W295">
-        <v>0.3614417169877123</v>
+        <v>0.330166391367164</v>
       </c>
       <c r="X295">
-        <v>0.6954195712144676</v>
+        <v>0.6979283838200714</v>
       </c>
     </row>
     <row r="296">
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
       <c r="L296">
-        <v>0.8392944661988143</v>
+        <v>2.517883398596443</v>
       </c>
       <c r="M296">
         <v>0.6785714285714286</v>
@@ -22297,16 +22297,16 @@
         <v>19.4992875847576</v>
       </c>
       <c r="U296">
-        <v>4.880365894770243</v>
+        <v>6.558954827167871</v>
       </c>
       <c r="V296">
-        <v>0.08790487635407636</v>
+        <v>0.07773067922052231</v>
       </c>
       <c r="W296">
-        <v>0.1966745191266615</v>
+        <v>0.1551207619659201</v>
       </c>
       <c r="X296">
-        <v>2.237356188688174</v>
+        <v>1.995618249080801</v>
       </c>
     </row>
     <row r="297">
@@ -22344,7 +22344,7 @@
         <v>1</v>
       </c>
       <c r="L297">
-        <v>0.7914352529167644</v>
+        <v>2.374305758750293</v>
       </c>
       <c r="M297">
         <v>0.25</v>
@@ -22371,16 +22371,16 @@
         <v>18.38859592722083</v>
       </c>
       <c r="U297">
-        <v>4.416435252916765</v>
+        <v>5.999305758750292</v>
       </c>
       <c r="V297">
-        <v>0.2580432048413412</v>
+        <v>0.212775948092966</v>
       </c>
       <c r="W297">
-        <v>0.3109282979735063</v>
+        <v>0.2662639596024021</v>
       </c>
       <c r="X297">
-        <v>1.204946660636469</v>
+        <v>1.251381850198905</v>
       </c>
     </row>
     <row r="298">
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="L298">
-        <v>0.7101605531805386</v>
+        <v>2.130481659541616</v>
       </c>
       <c r="M298">
         <v>0.3214285714285715</v>
@@ -22445,16 +22445,16 @@
         <v>18.26187425598447</v>
       </c>
       <c r="U298">
-        <v>2.80658912460911</v>
+        <v>4.226910230970187</v>
       </c>
       <c r="V298">
-        <v>0.1092306471073435</v>
+        <v>0.118958482276707</v>
       </c>
       <c r="W298">
-        <v>0.2691546691604071</v>
+        <v>0.2595556383870666</v>
       </c>
       <c r="X298">
-        <v>2.464094796544624</v>
+        <v>2.181901058415652</v>
       </c>
     </row>
     <row r="299">
@@ -22492,7 +22492,7 @@
         <v>1</v>
       </c>
       <c r="L299">
-        <v>0.6612760196754662</v>
+        <v>1.983828059026399</v>
       </c>
       <c r="M299">
         <v>0.3214285714285715</v>
@@ -22519,16 +22519,16 @@
         <v>19.07870989702296</v>
       </c>
       <c r="U299">
-        <v>3.920204591104038</v>
+        <v>5.242756630454971</v>
       </c>
       <c r="V299">
-        <v>0.491093990598898</v>
+        <v>0.4307823853445332</v>
       </c>
       <c r="W299">
-        <v>0.3962507185586985</v>
+        <v>0.3637594767544048</v>
       </c>
       <c r="X299">
-        <v>0.806873482763378</v>
+        <v>0.8444158561949451</v>
       </c>
     </row>
     <row r="300">
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="L300">
-        <v>0.655804361363883</v>
+        <v>1.967413084091649</v>
       </c>
       <c r="M300">
         <v>0.2142857142857143</v>
@@ -22593,16 +22593,16 @@
         <v>16.93636937086119</v>
       </c>
       <c r="U300">
-        <v>2.870090075649597</v>
+        <v>4.181698798377363</v>
       </c>
       <c r="V300">
-        <v>0.4894911165848292</v>
+        <v>0.4528068695602993</v>
       </c>
       <c r="W300">
-        <v>0.2848512937390792</v>
+        <v>0.2505839881135647</v>
       </c>
       <c r="X300">
-        <v>0.5819335307379664</v>
+        <v>0.5534014719275258</v>
       </c>
     </row>
     <row r="301">
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="L301">
-        <v>0.6583701226409886</v>
+        <v>1.975110367922966</v>
       </c>
       <c r="M301">
         <v>0.3571428571428572</v>
@@ -22667,16 +22667,16 @@
         <v>17.71005172258675</v>
       </c>
       <c r="U301">
-        <v>2.715512979783846</v>
+        <v>4.032253225065823</v>
       </c>
       <c r="V301">
-        <v>0.4997495276851115</v>
+        <v>0.4664719400198605</v>
       </c>
       <c r="W301">
-        <v>0.2463321725213745</v>
+        <v>0.2203671784043583</v>
       </c>
       <c r="X301">
-        <v>0.4929112662945559</v>
+        <v>0.4724125065164176</v>
       </c>
     </row>
     <row r="302">
@@ -22714,7 +22714,7 @@
         <v>1</v>
       </c>
       <c r="L302">
-        <v>0.7061564498090753</v>
+        <v>2.118469349427226</v>
       </c>
       <c r="M302">
         <v>0.2142857142857143</v>
@@ -22741,16 +22741,16 @@
         <v>18.23203689954999</v>
       </c>
       <c r="U302">
-        <v>2.42044216409479</v>
+        <v>3.83275506371294</v>
       </c>
       <c r="V302">
-        <v>0.3343173752795779</v>
+        <v>0.3574430885045629</v>
       </c>
       <c r="W302">
-        <v>0.174242595734989</v>
+        <v>0.1802800108682585</v>
       </c>
       <c r="X302">
-        <v>0.521189171185841</v>
+        <v>0.5043600412655822</v>
       </c>
     </row>
     <row r="303">
@@ -22788,7 +22788,7 @@
         <v>0</v>
       </c>
       <c r="L303">
-        <v>0.7860964798845786</v>
+        <v>2.358289439653736</v>
       </c>
       <c r="M303">
         <v>0.5</v>
@@ -22815,16 +22815,16 @@
         <v>17.76320093242789</v>
       </c>
       <c r="U303">
-        <v>4.873596479884579</v>
+        <v>6.445789439653735</v>
       </c>
       <c r="V303">
-        <v>0.03922534740867165</v>
+        <v>0.04024345260506269</v>
       </c>
       <c r="W303">
-        <v>0.1983117412989511</v>
+        <v>0.1767404031727628</v>
       </c>
       <c r="X303">
-        <v>5.055703885368516</v>
+        <v>4.39178032032293</v>
       </c>
     </row>
     <row r="304">
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="L304">
-        <v>0.5258916053393696</v>
+        <v>1.577674816018109</v>
       </c>
       <c r="M304">
         <v>0.1785714285714286</v>
@@ -22889,16 +22889,16 @@
         <v>16.62765232995433</v>
       </c>
       <c r="U304">
-        <v>2.204463033910798</v>
+        <v>3.256246244589537</v>
       </c>
       <c r="V304">
-        <v>0.4285015258952768</v>
+        <v>0.3225203412631459</v>
       </c>
       <c r="W304">
-        <v>0.1277027931551143</v>
+        <v>0.08362353177418666</v>
       </c>
       <c r="X304">
-        <v>0.2980217932440318</v>
+        <v>0.2592814191088735</v>
       </c>
     </row>
     <row r="305">
@@ -22936,7 +22936,7 @@
         <v>1</v>
       </c>
       <c r="L305">
-        <v>0.7321341052297572</v>
+        <v>2.196402315689272</v>
       </c>
       <c r="M305">
         <v>0.25</v>
@@ -22963,16 +22963,16 @@
         <v>18.26590662816262</v>
       </c>
       <c r="U305">
-        <v>2.432134105229757</v>
+        <v>3.896402315689271</v>
       </c>
       <c r="V305">
-        <v>0.3044232345504731</v>
+        <v>0.3005333702217808</v>
       </c>
       <c r="W305">
-        <v>0.1769537192535716</v>
+        <v>0.1929057056445105</v>
       </c>
       <c r="X305">
-        <v>0.5812753402836368</v>
+        <v>0.6418778237576556</v>
       </c>
     </row>
     <row r="306">
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="L306">
-        <v>0.7528993398125446</v>
+        <v>2.258698019437634</v>
       </c>
       <c r="M306">
         <v>0.1428571428571428</v>
@@ -23037,16 +23037,16 @@
         <v>17.47123787779502</v>
       </c>
       <c r="U306">
-        <v>2.683256482669687</v>
+        <v>4.189055162294776</v>
       </c>
       <c r="V306">
-        <v>0.5181079037442412</v>
+        <v>0.4701263860299764</v>
       </c>
       <c r="W306">
-        <v>0.2382293120548286</v>
+        <v>0.2520518436499627</v>
       </c>
       <c r="X306">
-        <v>0.4598063653019045</v>
+        <v>0.5361363478838885</v>
       </c>
     </row>
     <row r="307">
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="L307">
-        <v>0.6119995223378858</v>
+        <v>1.835998567013657</v>
       </c>
       <c r="M307">
         <v>0.3214285714285715</v>
@@ -23111,16 +23111,16 @@
         <v>16.7119118240095</v>
       </c>
       <c r="U307">
-        <v>2.633428093766457</v>
+        <v>3.857427138442229</v>
       </c>
       <c r="V307">
-        <v>0.4475077546409733</v>
+        <v>0.4042666954245762</v>
       </c>
       <c r="W307">
-        <v>0.2257531233313514</v>
+        <v>0.1851478245043579</v>
       </c>
       <c r="X307">
-        <v>0.5044675114344525</v>
+        <v>0.4579843618082579</v>
       </c>
     </row>
     <row r="308">
@@ -23158,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="L308">
-        <v>0.7183650657790075</v>
+        <v>2.155095197337022</v>
       </c>
       <c r="M308">
         <v>0.4285714285714285</v>
@@ -23185,16 +23185,16 @@
         <v>17.50486639858813</v>
       </c>
       <c r="U308">
-        <v>3.271936494350436</v>
+        <v>4.708666625908451</v>
       </c>
       <c r="V308">
-        <v>0.5133047291119733</v>
+        <v>0.4747770319004744</v>
       </c>
       <c r="W308">
-        <v>0.3700182756187012</v>
+        <v>0.3393871657805794</v>
       </c>
       <c r="X308">
-        <v>0.7208549904826312</v>
+        <v>0.7148348445207092</v>
       </c>
     </row>
     <row r="309">
@@ -23232,7 +23232,7 @@
         <v>1</v>
       </c>
       <c r="L309">
-        <v>0.7364145657122489</v>
+        <v>2.209243697136747</v>
       </c>
       <c r="M309">
         <v>0.1785714285714286</v>
@@ -23259,16 +23259,16 @@
         <v>18.31502532926054</v>
       </c>
       <c r="U309">
-        <v>2.439985994283678</v>
+        <v>3.912815125708175</v>
       </c>
       <c r="V309">
-        <v>0.2796082491940032</v>
+        <v>0.3120071904388162</v>
       </c>
       <c r="W309">
-        <v>0.1787838023649592</v>
+        <v>0.1961941646546795</v>
       </c>
       <c r="X309">
-        <v>0.639408182270445</v>
+        <v>0.6288129590178553</v>
       </c>
     </row>
     <row r="310">
@@ -23306,7 +23306,7 @@
         <v>1</v>
       </c>
       <c r="L310">
-        <v>0.6155712750478938</v>
+        <v>1.846713825143681</v>
       </c>
       <c r="M310">
         <v>0.3214285714285715</v>
@@ -23333,16 +23333,16 @@
         <v>18.92439407522182</v>
       </c>
       <c r="U310">
-        <v>3.199499846476465</v>
+        <v>4.430642396572253</v>
       </c>
       <c r="V310">
-        <v>0.3173320783164189</v>
+        <v>0.2540257675082245</v>
       </c>
       <c r="W310">
-        <v>0.3573764902076323</v>
+        <v>0.2977269905313845</v>
       </c>
       <c r="X310">
-        <v>1.126190872677184</v>
+        <v>1.172034606771713</v>
       </c>
     </row>
     <row r="311">
@@ -23380,7 +23380,7 @@
         <v>1</v>
       </c>
       <c r="L311">
-        <v>0.6507763970337228</v>
+        <v>1.952329191101169</v>
       </c>
       <c r="M311">
         <v>0.3571428571428572</v>
@@ -23407,16 +23407,16 @@
         <v>17.84564056434416</v>
       </c>
       <c r="U311">
-        <v>4.47041925417658</v>
+        <v>5.771972048244026</v>
       </c>
       <c r="V311">
-        <v>0.4013042932174475</v>
+        <v>0.4247100648269576</v>
       </c>
       <c r="W311">
-        <v>0.298198359754585</v>
+        <v>0.3075964381445677</v>
       </c>
       <c r="X311">
-        <v>0.7430729369072703</v>
+        <v>0.7242504089699257</v>
       </c>
     </row>
     <row r="312">
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="L312">
-        <v>0.7430288542341017</v>
+        <v>2.229086562702305</v>
       </c>
       <c r="M312">
         <v>0.2857142857142857</v>
@@ -23481,16 +23481,16 @@
         <v>17.97614626083872</v>
       </c>
       <c r="U312">
-        <v>2.278743139948388</v>
+        <v>3.76480084841659</v>
       </c>
       <c r="V312">
-        <v>0.324601298725929</v>
+        <v>0.3334125152381461</v>
       </c>
       <c r="W312">
-        <v>0.1428853778999851</v>
+        <v>0.1670817429998764</v>
       </c>
       <c r="X312">
-        <v>0.440187326609028</v>
+        <v>0.5011261886211296</v>
       </c>
     </row>
     <row r="313">
@@ -23528,7 +23528,7 @@
         <v>1</v>
       </c>
       <c r="L313">
-        <v>0.8137541449181652</v>
+        <v>2.441262434754496</v>
       </c>
       <c r="M313">
         <v>0.3928571428571428</v>
@@ -23555,16 +23555,16 @@
         <v>20.99960205669471</v>
       </c>
       <c r="U313">
-        <v>3.906611287775308</v>
+        <v>5.534119577611639</v>
       </c>
       <c r="V313">
-        <v>0.3111234642641534</v>
+        <v>0.3173125577093411</v>
       </c>
       <c r="W313">
-        <v>0.3974586350835018</v>
+        <v>0.3414764868676426</v>
       </c>
       <c r="X313">
-        <v>1.277494887836705</v>
+        <v>1.07615182119718</v>
       </c>
     </row>
     <row r="314">
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="L314">
-        <v>0.6834857428086636</v>
+        <v>2.050457228425991</v>
       </c>
       <c r="M314">
         <v>0.3571428571428572</v>
@@ -23629,16 +23629,16 @@
         <v>17.48183645694732</v>
       </c>
       <c r="U314">
-        <v>3.628128599951521</v>
+        <v>4.995100085568848</v>
       </c>
       <c r="V314">
-        <v>0.4240598138885997</v>
+        <v>0.3875692568503347</v>
       </c>
       <c r="W314">
-        <v>0.405536137706264</v>
+        <v>0.3629040996517334</v>
       </c>
       <c r="X314">
-        <v>0.9563182466820545</v>
+        <v>0.9363593557470269</v>
       </c>
     </row>
     <row r="315">
@@ -23676,7 +23676,7 @@
         <v>1</v>
       </c>
       <c r="L315">
-        <v>0.6182717345806118</v>
+        <v>1.854815203741835</v>
       </c>
       <c r="M315">
         <v>0.3214285714285715</v>
@@ -23703,16 +23703,16 @@
         <v>18.9494931827189</v>
       </c>
       <c r="U315">
-        <v>3.139700306009183</v>
+        <v>4.376243775170407</v>
       </c>
       <c r="V315">
-        <v>0.1957380207652041</v>
+        <v>0.1558331306144511</v>
       </c>
       <c r="W315">
-        <v>0.345843225290256</v>
+        <v>0.2879983034728818</v>
       </c>
       <c r="X315">
-        <v>1.766867897908855</v>
+        <v>1.848119859604324</v>
       </c>
     </row>
     <row r="316">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="L316">
-        <v>0.5349610706995277</v>
+        <v>1.604883212098583</v>
       </c>
       <c r="M316">
         <v>0.1428571428571428</v>
@@ -23777,16 +23777,16 @@
         <v>18.08174011335183</v>
       </c>
       <c r="U316">
-        <v>1.577818213556671</v>
+        <v>2.647740354955726</v>
       </c>
       <c r="V316">
-        <v>0.04831514606768298</v>
+        <v>0.03067800922446736</v>
       </c>
       <c r="W316">
-        <v>0.03940608795480573</v>
+        <v>0.02745482830573257</v>
       </c>
       <c r="X316">
-        <v>0.8156052741639884</v>
+        <v>0.8949351343122965</v>
       </c>
     </row>
     <row r="317">
@@ -23824,7 +23824,7 @@
         <v>1</v>
       </c>
       <c r="L317">
-        <v>0.7780094394984616</v>
+        <v>2.334028318495385</v>
       </c>
       <c r="M317">
         <v>0.4642857142857143</v>
@@ -23851,16 +23851,16 @@
         <v>19.46878482646173</v>
       </c>
       <c r="U317">
-        <v>3.492295153784176</v>
+        <v>5.048314032781099</v>
       </c>
       <c r="V317">
-        <v>0.2211885153520106</v>
+        <v>0.2458248296335047</v>
       </c>
       <c r="W317">
-        <v>0.3977403877247572</v>
+        <v>0.3646695962744477</v>
       </c>
       <c r="X317">
-        <v>1.798196380547937</v>
+        <v>1.483453062158636</v>
       </c>
     </row>
     <row r="318">
@@ -23898,7 +23898,7 @@
         <v>1</v>
       </c>
       <c r="L318">
-        <v>0.8603762416733625</v>
+        <v>2.581128725020087</v>
       </c>
       <c r="M318">
         <v>0.3928571428571428</v>
@@ -23925,16 +23925,16 @@
         <v>17.32133554677241</v>
       </c>
       <c r="U318">
-        <v>4.753233384530505</v>
+        <v>6.47398586787723</v>
       </c>
       <c r="V318">
-        <v>0.3649069107507513</v>
+        <v>0.2977677882428129</v>
       </c>
       <c r="W318">
-        <v>0.2279885036940054</v>
+        <v>0.1712592545042582</v>
       </c>
       <c r="X318">
-        <v>0.6247853821812993</v>
+        <v>0.5751436564542232</v>
       </c>
     </row>
     <row r="319">
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
       <c r="L319">
-        <v>0.5738689965414686</v>
+        <v>1.721606989624406</v>
       </c>
       <c r="M319">
         <v>0.3571428571428572</v>
@@ -23999,16 +23999,16 @@
         <v>18.85264984425008</v>
       </c>
       <c r="U319">
-        <v>3.281011853684326</v>
+        <v>4.428749846767262</v>
       </c>
       <c r="V319">
-        <v>0.266688474770002</v>
+        <v>0.1637431369291112</v>
       </c>
       <c r="W319">
-        <v>0.371490598318082</v>
+        <v>0.2973954869484074</v>
       </c>
       <c r="X319">
-        <v>1.392975825590002</v>
+        <v>1.816231767180311</v>
       </c>
     </row>
     <row r="320">
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="L320">
-        <v>0.7708248495593614</v>
+        <v>2.312474548678084</v>
       </c>
       <c r="M320">
         <v>0.4642857142857143</v>
@@ -24073,16 +24073,16 @@
         <v>19.7740701927934</v>
       </c>
       <c r="U320">
-        <v>3.785110563845076</v>
+        <v>5.326760262963798</v>
       </c>
       <c r="V320">
-        <v>0.4939815456224645</v>
+        <v>0.4541572568615818</v>
       </c>
       <c r="W320">
-        <v>0.4049538579436671</v>
+        <v>0.3598135302314981</v>
       </c>
       <c r="X320">
-        <v>0.8197752760852353</v>
+        <v>0.7922663896597435</v>
       </c>
     </row>
     <row r="321">
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="L321">
-        <v>0.4208790818782496</v>
+        <v>1.262637245634749</v>
       </c>
       <c r="M321">
         <v>0.2857142857142857</v>
@@ -24147,16 +24147,16 @@
         <v>18.62388735671104</v>
       </c>
       <c r="U321">
-        <v>2.731593367592535</v>
+        <v>3.573351531349034</v>
       </c>
       <c r="V321">
-        <v>0.4966045549369184</v>
+        <v>0.3422082544162162</v>
       </c>
       <c r="W321">
-        <v>0.2503728678877423</v>
+        <v>0.132081828332342</v>
       </c>
       <c r="X321">
-        <v>0.5041694954238712</v>
+        <v>0.3859691478151645</v>
       </c>
     </row>
     <row r="322">
@@ -24194,7 +24194,7 @@
         <v>1</v>
       </c>
       <c r="L322">
-        <v>0.7683764076395215</v>
+        <v>2.305129222918564</v>
       </c>
       <c r="M322">
         <v>0.5357142857142857</v>
@@ -24221,16 +24221,16 @@
         <v>17.04156046743829</v>
       </c>
       <c r="U322">
-        <v>4.704090693353807</v>
+        <v>6.24084350863285</v>
       </c>
       <c r="V322">
-        <v>0.1269411306965623</v>
+        <v>0.09031864124788226</v>
       </c>
       <c r="W322">
-        <v>0.2403046032781819</v>
+        <v>0.217802826557704</v>
       </c>
       <c r="X322">
-        <v>1.893039726049089</v>
+        <v>2.411493613593428</v>
       </c>
     </row>
     <row r="323">
@@ -24268,7 +24268,7 @@
         <v>1</v>
       </c>
       <c r="L323">
-        <v>0.6768209602099264</v>
+        <v>2.030462880629779</v>
       </c>
       <c r="M323">
         <v>0.2142857142857143</v>
@@ -24295,16 +24295,16 @@
         <v>18.18140173853536</v>
       </c>
       <c r="U323">
-        <v>2.241106674495641</v>
+        <v>3.594748594915494</v>
       </c>
       <c r="V323">
-        <v>0.06332252530885971</v>
+        <v>0.0630331810162577</v>
       </c>
       <c r="W323">
-        <v>0.1350762728045004</v>
+        <v>0.1358052274507767</v>
       </c>
       <c r="X323">
-        <v>2.133147282829564</v>
+        <v>2.154503790880384</v>
       </c>
     </row>
     <row r="324">
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="L324">
-        <v>0.8032144502243581</v>
+        <v>2.409643350673075</v>
       </c>
       <c r="M324">
         <v>0.1785714285714286</v>
@@ -24369,16 +24369,16 @@
         <v>19.7618546771764</v>
       </c>
       <c r="U324">
-        <v>3.181785878795787</v>
+        <v>4.788214779244503</v>
       </c>
       <c r="V324">
-        <v>0.5100358633937212</v>
+        <v>0.4746304223986339</v>
       </c>
       <c r="W324">
-        <v>0.3540575906133017</v>
+        <v>0.3481600853065204</v>
       </c>
       <c r="X324">
-        <v>0.6941817547053306</v>
+        <v>0.7335393368739999</v>
       </c>
     </row>
     <row r="325">
@@ -24416,7 +24416,7 @@
         <v>0</v>
       </c>
       <c r="L325">
-        <v>0.6606194837198736</v>
+        <v>1.981858451159621</v>
       </c>
       <c r="M325">
         <v>0.25</v>
@@ -24443,16 +24443,16 @@
         <v>16.2799235567542</v>
       </c>
       <c r="U325">
-        <v>2.335619483719873</v>
+        <v>3.65685845115962</v>
       </c>
       <c r="V325">
-        <v>0.5162049681298737</v>
+        <v>0.4706092225370815</v>
       </c>
       <c r="W325">
-        <v>0.1551179416941415</v>
+        <v>0.14689802192117</v>
       </c>
       <c r="X325">
-        <v>0.3004968012146579</v>
+        <v>0.3121443756015538</v>
       </c>
     </row>
     <row r="326">
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="L326">
-        <v>0.7509359605632113</v>
+        <v>2.252807881689634</v>
       </c>
       <c r="M326">
         <v>0.3571428571428572</v>
@@ -24517,16 +24517,16 @@
         <v>19.23667024261099</v>
       </c>
       <c r="U326">
-        <v>2.358078817706069</v>
+        <v>3.859950738832491</v>
       </c>
       <c r="V326">
-        <v>0.1144516582472433</v>
+        <v>0.1220741092223355</v>
       </c>
       <c r="W326">
-        <v>0.1600837487607826</v>
+        <v>0.1856477295700051</v>
       </c>
       <c r="X326">
-        <v>1.398701873021036</v>
+        <v>1.520778900232497</v>
       </c>
     </row>
     <row r="327">
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="L327">
-        <v>0.7630336727050689</v>
+        <v>2.289101018115207</v>
       </c>
       <c r="M327">
         <v>0.2857142857142857</v>
@@ -24591,16 +24591,16 @@
         <v>19.03692865106852</v>
       </c>
       <c r="U327">
-        <v>4.273747958419355</v>
+        <v>5.799815303829492</v>
       </c>
       <c r="V327">
-        <v>0.5120290008804881</v>
+        <v>0.4699547401655306</v>
       </c>
       <c r="W327">
-        <v>0.3422298101096709</v>
+        <v>0.3029139506353026</v>
       </c>
       <c r="X327">
-        <v>0.6683797392748662</v>
+        <v>0.6445598368230273</v>
       </c>
     </row>
     <row r="328">
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="L328">
-        <v>0.7116821685562572</v>
+        <v>2.135046505668772</v>
       </c>
       <c r="M328">
         <v>0.3571428571428572</v>
@@ -24665,16 +24665,16 @@
         <v>18.73868779350536</v>
       </c>
       <c r="U328">
-        <v>3.843825025699114</v>
+        <v>5.267189362811629</v>
       </c>
       <c r="V328">
-        <v>0.4220703748615686</v>
+        <v>0.3960251125858905</v>
       </c>
       <c r="W328">
-        <v>0.4020833222378214</v>
+        <v>0.3628291497829146</v>
       </c>
       <c r="X328">
-        <v>0.9526452131820372</v>
+        <v>0.9161771267831498</v>
       </c>
     </row>
     <row r="329">
@@ -24712,7 +24712,7 @@
         <v>0</v>
       </c>
       <c r="L329">
-        <v>0.8166186012198237</v>
+        <v>2.449855803659471</v>
       </c>
       <c r="M329">
         <v>0.4642857142857143</v>
@@ -24739,16 +24739,16 @@
         <v>20.72123471862142</v>
       </c>
       <c r="U329">
-        <v>4.955904315505538</v>
+        <v>6.589141517945186</v>
       </c>
       <c r="V329">
-        <v>0.1361736450908985</v>
+        <v>0.1351083787333732</v>
       </c>
       <c r="W329">
-        <v>0.1787189682513746</v>
+        <v>0.149542554326077</v>
       </c>
       <c r="X329">
-        <v>1.312434341697149</v>
+        <v>1.106834052247704</v>
       </c>
     </row>
     <row r="330">
@@ -24786,7 +24786,7 @@
         <v>1</v>
       </c>
       <c r="L330">
-        <v>0.8002942844754232</v>
+        <v>2.40088285342627</v>
       </c>
       <c r="M330">
         <v>0.4285714285714285</v>
@@ -24813,16 +24813,16 @@
         <v>19.96720863252711</v>
       </c>
       <c r="U330">
-        <v>4.103865713046852</v>
+        <v>5.704454281997698</v>
       </c>
       <c r="V330">
-        <v>0.458703851017362</v>
+        <v>0.4451555298769374</v>
       </c>
       <c r="W330">
-        <v>0.3731985381499968</v>
+        <v>0.3183914431580664</v>
       </c>
       <c r="X330">
-        <v>0.8135936450550338</v>
+        <v>0.7152364101735078</v>
       </c>
     </row>
     <row r="331">
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="L331">
-        <v>0.5940021707728408</v>
+        <v>1.782006512318522</v>
       </c>
       <c r="M331">
         <v>0.2857142857142857</v>
@@ -24887,16 +24887,16 @@
         <v>17.58075638569391</v>
       </c>
       <c r="U331">
-        <v>3.967216456487126</v>
+        <v>5.155220798032808</v>
       </c>
       <c r="V331">
-        <v>0.332227365147084</v>
+        <v>0.413663352768289</v>
       </c>
       <c r="W331">
-        <v>0.3915217355945046</v>
+        <v>0.3656035722485493</v>
       </c>
       <c r="X331">
-        <v>1.17847527527171</v>
+        <v>0.8838191002463297</v>
       </c>
     </row>
     <row r="332">
@@ -24934,7 +24934,7 @@
         <v>1</v>
       </c>
       <c r="L332">
-        <v>0.7091290935216747</v>
+        <v>2.127387280565024</v>
       </c>
       <c r="M332">
         <v>0.2142857142857143</v>
@@ -24961,16 +24961,16 @@
         <v>17.43944068657208</v>
       </c>
       <c r="U332">
-        <v>3.423414807807389</v>
+        <v>4.841672994850739</v>
       </c>
       <c r="V332">
-        <v>0.4548317809099997</v>
+        <v>0.4235721104761384</v>
       </c>
       <c r="W332">
-        <v>0.3909713805599607</v>
+        <v>0.3531262537884856</v>
       </c>
       <c r="X332">
-        <v>0.8595955625126481</v>
+        <v>0.8336862721946815</v>
       </c>
     </row>
     <row r="333">
@@ -25008,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="L333">
-        <v>0.8058055567516449</v>
+        <v>2.417416670254934</v>
       </c>
       <c r="M333">
         <v>0.25</v>
@@ -25035,16 +25035,16 @@
         <v>17.83802701894565</v>
       </c>
       <c r="U333">
-        <v>3.830805556751645</v>
+        <v>5.442416670254935</v>
       </c>
       <c r="V333">
-        <v>0.5059596565764589</v>
+        <v>0.4466642583936158</v>
       </c>
       <c r="W333">
-        <v>0.4028425111412789</v>
+        <v>0.3510284452087251</v>
       </c>
       <c r="X333">
-        <v>0.796194925633172</v>
+        <v>0.7858888160677203</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X333"/>
+  <dimension ref="A1:Y333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,11 @@
           <t>IPW</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>per_log</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -538,19 +543,24 @@
         <v>0.75</v>
       </c>
       <c r="T2">
-        <v>144980616</v>
+        <v>18.79211060868989</v>
       </c>
       <c r="U2">
         <v>3.902725473548252</v>
       </c>
       <c r="V2">
-        <v>0.1345777793243248</v>
+        <v>0.1599458675346949</v>
       </c>
       <c r="W2">
         <v>0.3977905790926128</v>
       </c>
       <c r="X2">
-        <v>2.955841455326441</v>
+        <v>2.487032551849616</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -612,19 +622,22 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1157333564</v>
+        <v>20.86938454438514</v>
       </c>
       <c r="U3">
         <v>5.483313831600428</v>
       </c>
       <c r="V3">
-        <v>0.4760324142487246</v>
+        <v>0.4791822795054083</v>
       </c>
       <c r="W3">
         <v>0.07765360408747575</v>
       </c>
       <c r="X3">
-        <v>0.1631267152469624</v>
+        <v>0.1620544152167449</v>
+      </c>
+      <c r="Y3">
+        <v>-2.715744104210992</v>
       </c>
     </row>
     <row r="4">
@@ -686,19 +699,22 @@
         <v>0.5</v>
       </c>
       <c r="T4">
-        <v>131196885</v>
+        <v>18.69220969181436</v>
       </c>
       <c r="U4">
         <v>3.469414316761136</v>
       </c>
       <c r="V4">
-        <v>0.3268814566209536</v>
+        <v>0.3434318274750832</v>
       </c>
       <c r="W4">
         <v>0.3956951478922772</v>
       </c>
       <c r="X4">
-        <v>1.210515738588129</v>
+        <v>1.152179606652752</v>
+      </c>
+      <c r="Y4">
+        <v>-1.897996793359416</v>
       </c>
     </row>
     <row r="5">
@@ -760,19 +776,22 @@
         <v>0.25</v>
       </c>
       <c r="T5">
-        <v>100266090</v>
+        <v>18.42333811002552</v>
       </c>
       <c r="U5">
         <v>2.509485341332555</v>
       </c>
       <c r="V5">
-        <v>0.3051204784518374</v>
+        <v>0.2870949519110413</v>
       </c>
       <c r="W5">
         <v>0.1952844100374008</v>
       </c>
       <c r="X5">
-        <v>0.6400239375221941</v>
+        <v>0.6802084423201952</v>
+      </c>
+      <c r="Y5">
+        <v>-2.732742813692581</v>
       </c>
     </row>
     <row r="6">
@@ -834,19 +853,24 @@
         <v>0.5</v>
       </c>
       <c r="T6">
-        <v>15317216</v>
+        <v>16.54448798252545</v>
       </c>
       <c r="U6">
         <v>2.877036894485391</v>
       </c>
       <c r="V6">
-        <v>0.4571935042842466</v>
+        <v>0.4328236774690715</v>
       </c>
       <c r="W6">
         <v>0.2865502416605028</v>
       </c>
       <c r="X6">
-        <v>0.6267592145892533</v>
+        <v>0.6620484427656548</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -908,19 +932,24 @@
         <v>0.5</v>
       </c>
       <c r="T7">
-        <v>177545210</v>
+        <v>18.99473583867348</v>
       </c>
       <c r="U7">
         <v>4.637375654919238</v>
       </c>
       <c r="V7">
-        <v>0.2627887923968095</v>
+        <v>0.272767214184491</v>
       </c>
       <c r="W7">
         <v>0.2570623333598719</v>
       </c>
       <c r="X7">
-        <v>0.9782088916931789</v>
+        <v>0.9424238691164811</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -982,19 +1011,24 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>338292738</v>
+        <v>19.63942216736623</v>
       </c>
       <c r="U8">
         <v>4.492857142857143</v>
       </c>
       <c r="V8">
-        <v>0.4161676988313506</v>
+        <v>0.4302760658135953</v>
       </c>
       <c r="W8">
         <v>0.2928010339111364</v>
       </c>
       <c r="X8">
-        <v>0.7035650165386627</v>
+        <v>0.6804957495311487</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1056,19 +1090,22 @@
         <v>0.25</v>
       </c>
       <c r="T9">
-        <v>260336335</v>
+        <v>19.37748494915901</v>
       </c>
       <c r="U9">
         <v>4.362711250580334</v>
       </c>
       <c r="V9">
-        <v>0.5033935294480369</v>
+        <v>0.5112577136879913</v>
       </c>
       <c r="W9">
         <v>0.3231639021957755</v>
       </c>
       <c r="X9">
-        <v>0.6419707113639692</v>
+        <v>0.6320958951692117</v>
+      </c>
+      <c r="Y9">
+        <v>-4.102643365036796</v>
       </c>
     </row>
     <row r="10">
@@ -1130,19 +1167,22 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>207028807</v>
+        <v>19.14836850579841</v>
       </c>
       <c r="U10">
         <v>4.610198091106214</v>
       </c>
       <c r="V10">
-        <v>0.2370204195904051</v>
+        <v>0.2614622837020954</v>
       </c>
       <c r="W10">
         <v>0.2638695151077579</v>
       </c>
       <c r="X10">
-        <v>1.113277563020733</v>
+        <v>1.009206801729022</v>
+      </c>
+      <c r="Y10">
+        <v>-3.13549421592915</v>
       </c>
     </row>
     <row r="11">
@@ -1204,19 +1244,22 @@
         <v>0.75</v>
       </c>
       <c r="T11">
-        <v>101913075</v>
+        <v>18.43963080203232</v>
       </c>
       <c r="U11">
         <v>4.14683564577906</v>
       </c>
       <c r="V11">
-        <v>0.4863681119641863</v>
+        <v>0.4858537548737679</v>
       </c>
       <c r="W11">
         <v>0.3661454714049243</v>
       </c>
       <c r="X11">
-        <v>0.7528155370348075</v>
+        <v>0.7536125176187111</v>
+      </c>
+      <c r="Y11">
+        <v>-3.070633581727109</v>
       </c>
     </row>
     <row r="12">
@@ -1278,19 +1321,22 @@
         <v>0.25</v>
       </c>
       <c r="T12">
-        <v>34364207</v>
+        <v>17.35252608646772</v>
       </c>
       <c r="U12">
         <v>2.161390263299413</v>
       </c>
       <c r="V12">
-        <v>0.0571207288304886</v>
+        <v>0.06695316487770411</v>
       </c>
       <c r="W12">
         <v>0.1193356328547126</v>
       </c>
       <c r="X12">
-        <v>2.089182601448467</v>
+        <v>1.78237478501113</v>
+      </c>
+      <c r="Y12">
+        <v>-3.809832064531599</v>
       </c>
     </row>
     <row r="13">
@@ -1352,19 +1398,24 @@
         <v>0.25</v>
       </c>
       <c r="T13">
-        <v>379740224</v>
+        <v>19.75499795585665</v>
       </c>
       <c r="U13">
         <v>3.877451581404773</v>
       </c>
       <c r="V13">
-        <v>0.5081484149494088</v>
+        <v>0.5157559894483799</v>
       </c>
       <c r="W13">
         <v>0.399803333857869</v>
       </c>
       <c r="X13">
-        <v>0.7867845733567297</v>
+        <v>0.7751792359900144</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1477,22 @@
         <v>0.25</v>
       </c>
       <c r="T14">
-        <v>66258863</v>
+        <v>18.00907979501478</v>
       </c>
       <c r="U14">
         <v>2.044968675410586</v>
       </c>
       <c r="V14">
-        <v>0.01425392030130666</v>
+        <v>0.01745776383845214</v>
       </c>
       <c r="W14">
         <v>0.09840913161447264</v>
       </c>
       <c r="X14">
-        <v>6.904004620079953</v>
+        <v>5.636983781262899</v>
+      </c>
+      <c r="Y14">
+        <v>-2.967929992242039</v>
       </c>
     </row>
     <row r="15">
@@ -1500,19 +1554,24 @@
         <v>0.25</v>
       </c>
       <c r="T15">
-        <v>105083042</v>
+        <v>18.4702614717345</v>
       </c>
       <c r="U15">
         <v>3.060387530167763</v>
       </c>
       <c r="V15">
-        <v>0.3470856913972867</v>
+        <v>0.3549681043887549</v>
       </c>
       <c r="W15">
         <v>0.3292270227161022</v>
       </c>
       <c r="X15">
-        <v>0.9485468023493284</v>
+        <v>0.9274833953969521</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1574,19 +1633,22 @@
         <v>0.5</v>
       </c>
       <c r="T16">
-        <v>7394731</v>
+        <v>15.81627827753574</v>
       </c>
       <c r="U16">
         <v>3.49003716456874</v>
       </c>
       <c r="V16">
-        <v>0.4345097210689963</v>
+        <v>0.3768389078918647</v>
       </c>
       <c r="W16">
         <v>0.3975476974097983</v>
       </c>
       <c r="X16">
-        <v>0.9149339545999966</v>
+        <v>1.05495395800233</v>
+      </c>
+      <c r="Y16">
+        <v>-4.110873864173311</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1710,22 @@
         <v>0.25</v>
       </c>
       <c r="T17">
-        <v>295634595</v>
+        <v>19.50463477334338</v>
       </c>
       <c r="U17">
         <v>3.141243061816708</v>
       </c>
       <c r="V17">
-        <v>0.4295922458010946</v>
+        <v>0.4038225233355689</v>
       </c>
       <c r="W17">
         <v>0.3461521945054266</v>
       </c>
       <c r="X17">
-        <v>0.8057691866852236</v>
+        <v>0.8571889245954235</v>
+      </c>
+      <c r="Y17">
+        <v>-5.091703117185038</v>
       </c>
     </row>
     <row r="18">
@@ -1722,19 +1787,24 @@
         <v>0.25</v>
       </c>
       <c r="T18">
-        <v>195264239</v>
+        <v>19.08986427104167</v>
       </c>
       <c r="U18">
         <v>2.916955683904471</v>
       </c>
       <c r="V18">
-        <v>0.5078239044997672</v>
+        <v>0.5018869088236602</v>
       </c>
       <c r="W18">
         <v>0.2962233404832975</v>
       </c>
       <c r="X18">
-        <v>0.5833190164119839</v>
+        <v>0.5902193009528699</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1796,19 +1866,22 @@
         <v>0.75</v>
       </c>
       <c r="T19">
-        <v>551677908</v>
+        <v>20.12847493393899</v>
       </c>
       <c r="U19">
         <v>4.206068352223449</v>
       </c>
       <c r="V19">
-        <v>0.2826858832864153</v>
+        <v>0.3504274461376194</v>
       </c>
       <c r="W19">
         <v>0.3555216678430121</v>
       </c>
       <c r="X19">
-        <v>1.257656249791576</v>
+        <v>1.014537165286397</v>
+      </c>
+      <c r="Y19">
+        <v>-0.4799539600989036</v>
       </c>
     </row>
     <row r="20">
@@ -1870,19 +1943,22 @@
         <v>0.25</v>
       </c>
       <c r="T20">
-        <v>1693804337</v>
+        <v>21.25024292296331</v>
       </c>
       <c r="U20">
         <v>5.135084390300392</v>
       </c>
       <c r="V20">
-        <v>0.4090896690010046</v>
+        <v>0.4444222148444926</v>
       </c>
       <c r="W20">
         <v>0.139076748365751</v>
       </c>
       <c r="X20">
-        <v>0.3399664154447505</v>
+        <v>0.3129383359344789</v>
+      </c>
+      <c r="Y20">
+        <v>-2.264994119055237</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +2020,24 @@
         <v>0.5</v>
       </c>
       <c r="T21">
-        <v>17135925</v>
+        <v>16.65668769490939</v>
       </c>
       <c r="U21">
         <v>3.107839204960773</v>
       </c>
       <c r="V21">
-        <v>0.5165906617233181</v>
+        <v>0.5145502163126063</v>
       </c>
       <c r="W21">
         <v>0.3393360828555017</v>
       </c>
       <c r="X21">
-        <v>0.656876145851137</v>
+        <v>0.6594809837750485</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2018,19 +2099,22 @@
         <v>0.75</v>
       </c>
       <c r="T22">
-        <v>116927366</v>
+        <v>18.577063496565</v>
       </c>
       <c r="U22">
         <v>4.074881898102041</v>
       </c>
       <c r="V22">
-        <v>0.2955500308310903</v>
+        <v>0.3046492134596286</v>
       </c>
       <c r="W22">
         <v>0.377623329624121</v>
       </c>
       <c r="X22">
-        <v>1.277696803354206</v>
+        <v>1.239534891082733</v>
+      </c>
+      <c r="Y22">
+        <v>-3.743604353803183</v>
       </c>
     </row>
     <row r="23">
@@ -2092,19 +2176,22 @@
         <v>0.5</v>
       </c>
       <c r="T23">
-        <v>104885994</v>
+        <v>18.46838454681641</v>
       </c>
       <c r="U23">
         <v>3.50721730431289</v>
       </c>
       <c r="V23">
-        <v>0.4483216540456802</v>
+        <v>0.4529943936947998</v>
       </c>
       <c r="W23">
         <v>0.3989630362608726</v>
       </c>
       <c r="X23">
-        <v>0.8899035606703523</v>
+        <v>0.8807240041245848</v>
+      </c>
+      <c r="Y23">
+        <v>-2.782951509275328</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2253,24 @@
         <v>0.75</v>
       </c>
       <c r="T24">
-        <v>40828484</v>
+        <v>17.52489053304484</v>
       </c>
       <c r="U24">
         <v>5.092399709525394</v>
       </c>
       <c r="V24">
-        <v>0.268168333469955</v>
+        <v>0.2339575305657668</v>
       </c>
       <c r="W24">
         <v>0.1480862393440773</v>
       </c>
       <c r="X24">
-        <v>0.5522137436136493</v>
+        <v>0.6329620550617389</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2332,22 @@
         <v>0.25</v>
       </c>
       <c r="T25">
-        <v>264109081</v>
+        <v>19.39187276137898</v>
       </c>
       <c r="U25">
         <v>2.355167294468236</v>
       </c>
       <c r="V25">
-        <v>0.05739260750451518</v>
+        <v>0.05066595617920264</v>
       </c>
       <c r="W25">
         <v>0.159435854572546</v>
       </c>
       <c r="X25">
-        <v>2.777985902801208</v>
+        <v>3.146804414558572</v>
+      </c>
+      <c r="Y25">
+        <v>-2.302585092994045</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2409,22 @@
         <v>0.5</v>
       </c>
       <c r="T26">
-        <v>208414257</v>
+        <v>19.15503827721177</v>
       </c>
       <c r="U26">
         <v>3.998168700703818</v>
       </c>
       <c r="V26">
-        <v>0.4278310441798427</v>
+        <v>0.4390792901831956</v>
       </c>
       <c r="W26">
         <v>0.3879526153257887</v>
       </c>
       <c r="X26">
-        <v>0.9067893052723618</v>
+        <v>0.8835593570444294</v>
+      </c>
+      <c r="Y26">
+        <v>-3.010331072975144</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2486,22 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>6850706</v>
+        <v>15.73986227062093</v>
       </c>
       <c r="U27">
         <v>5.374011255342234</v>
       </c>
       <c r="V27">
-        <v>0.3281021554428318</v>
+        <v>0.196559270065561</v>
       </c>
       <c r="W27">
         <v>0.09451313147180967</v>
       </c>
       <c r="X27">
-        <v>0.2880600749002929</v>
+        <v>0.4808378228118442</v>
+      </c>
+      <c r="Y27">
+        <v>-3.469574679106892</v>
       </c>
     </row>
     <row r="28">
@@ -2462,19 +2563,24 @@
         <v>0.5</v>
       </c>
       <c r="T28">
-        <v>66131227</v>
+        <v>18.00715161384133</v>
       </c>
       <c r="U28">
         <v>3.169766198028322</v>
       </c>
       <c r="V28">
-        <v>0.5096249380648056</v>
+        <v>0.5108181100956818</v>
       </c>
       <c r="W28">
         <v>0.3517578595600959</v>
       </c>
       <c r="X28">
-        <v>0.6902288983263319</v>
+        <v>0.6886166574912699</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2536,19 +2642,22 @@
         <v>1</v>
       </c>
       <c r="T29">
-        <v>106565980</v>
+        <v>18.48427488180038</v>
       </c>
       <c r="U29">
         <v>4.004371330296856</v>
       </c>
       <c r="V29">
-        <v>0.3530181839604442</v>
+        <v>0.3726747561591889</v>
       </c>
       <c r="W29">
         <v>0.3871949706154315</v>
       </c>
       <c r="X29">
-        <v>1.096813105408805</v>
+        <v>1.038962162626438</v>
+      </c>
+      <c r="Y29">
+        <v>-2.995732273553991</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2719,24 @@
         <v>0.75</v>
       </c>
       <c r="T30">
-        <v>274970804</v>
+        <v>19.43217548272197</v>
       </c>
       <c r="U30">
         <v>4.542702901840808</v>
       </c>
       <c r="V30">
-        <v>0.2246615710297337</v>
+        <v>0.2474581816988135</v>
       </c>
       <c r="W30">
         <v>0.2806323208462466</v>
       </c>
       <c r="X30">
-        <v>1.249133617111158</v>
+        <v>1.134059576934134</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2684,19 +2798,22 @@
         <v>0.25</v>
       </c>
       <c r="T31">
-        <v>175524660</v>
+        <v>18.98329010381971</v>
       </c>
       <c r="U31">
         <v>3.466343014328832</v>
       </c>
       <c r="V31">
-        <v>0.4284217499114948</v>
+        <v>0.4275263371294952</v>
       </c>
       <c r="W31">
         <v>0.3954050503252933</v>
       </c>
       <c r="X31">
-        <v>0.9229341190240172</v>
+        <v>0.9248671157433922</v>
+      </c>
+      <c r="Y31">
+        <v>-3.613371901605791</v>
       </c>
     </row>
     <row r="32">
@@ -2758,19 +2875,24 @@
         <v>0.75</v>
       </c>
       <c r="T32">
-        <v>141510913</v>
+        <v>18.7678873957486</v>
       </c>
       <c r="U32">
         <v>4.375656333459451</v>
       </c>
       <c r="V32">
-        <v>0.4913861055855255</v>
+        <v>0.4922534044494312</v>
       </c>
       <c r="W32">
         <v>0.3202601156887236</v>
       </c>
       <c r="X32">
-        <v>0.6517484154483943</v>
+        <v>0.6506001031052772</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2832,19 +2954,22 @@
         <v>0.5</v>
       </c>
       <c r="T33">
-        <v>208197354</v>
+        <v>19.15399700513067</v>
       </c>
       <c r="U33">
         <v>3.944504803779003</v>
       </c>
       <c r="V33">
-        <v>0.5024936313382287</v>
+        <v>0.5089149852042186</v>
       </c>
       <c r="W33">
         <v>0.3939121151728711</v>
       </c>
       <c r="X33">
-        <v>0.7839146421096205</v>
+        <v>0.7740234157475263</v>
+      </c>
+      <c r="Y33">
+        <v>-4.21705371621454</v>
       </c>
     </row>
     <row r="34">
@@ -2906,19 +3031,22 @@
         <v>0.75</v>
       </c>
       <c r="T34">
-        <v>212026557</v>
+        <v>19.17222209365872</v>
       </c>
       <c r="U34">
         <v>3.921630569607889</v>
       </c>
       <c r="V34">
-        <v>0.4754437441297315</v>
+        <v>0.4770039445641147</v>
       </c>
       <c r="W34">
         <v>0.3961198119675789</v>
       </c>
       <c r="X34">
-        <v>0.8331581114662685</v>
+        <v>0.8304329900868063</v>
+      </c>
+      <c r="Y34">
+        <v>-4.093153376851948</v>
       </c>
     </row>
     <row r="35">
@@ -2980,19 +3108,24 @@
         <v>0.25</v>
       </c>
       <c r="T35">
-        <v>48851781</v>
+        <v>17.70430139433504</v>
       </c>
       <c r="U35">
         <v>3.239072904558634</v>
       </c>
       <c r="V35">
-        <v>0.4714254899758638</v>
+        <v>0.4575901039462674</v>
       </c>
       <c r="W35">
         <v>0.3644744243870874</v>
       </c>
       <c r="X35">
-        <v>0.7731326203972294</v>
+        <v>0.7965085373216154</v>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3054,19 +3187,22 @@
         <v>0.75</v>
       </c>
       <c r="T36">
-        <v>252364486</v>
+        <v>19.34638497350163</v>
       </c>
       <c r="U36">
         <v>4.755977516799961</v>
       </c>
       <c r="V36">
-        <v>0.3588070443317374</v>
+        <v>0.3729884783842409</v>
       </c>
       <c r="W36">
         <v>0.227302880721454</v>
       </c>
       <c r="X36">
-        <v>0.6334961487302899</v>
+        <v>0.6094099252237326</v>
+      </c>
+      <c r="Y36">
+        <v>-2.534578259585238</v>
       </c>
     </row>
     <row r="37">
@@ -3128,19 +3264,22 @@
         <v>0.75</v>
       </c>
       <c r="T37">
-        <v>138329548</v>
+        <v>18.74514942529704</v>
       </c>
       <c r="U37">
         <v>4.010257041775004</v>
       </c>
       <c r="V37">
-        <v>0.5102892854430967</v>
+        <v>0.5104668297096014</v>
       </c>
       <c r="W37">
         <v>0.3864631268925926</v>
       </c>
       <c r="X37">
-        <v>0.7573412531227599</v>
+        <v>0.7570778440441408</v>
+      </c>
+      <c r="Y37">
+        <v>-2.984558972955866</v>
       </c>
     </row>
     <row r="38">
@@ -3202,19 +3341,24 @@
         <v>1</v>
       </c>
       <c r="T38">
-        <v>25500278</v>
+        <v>17.05419991203001</v>
       </c>
       <c r="U38">
         <v>4.095277625049703</v>
       </c>
       <c r="V38">
-        <v>0.4171509632263985</v>
+        <v>0.3956865338742914</v>
       </c>
       <c r="W38">
         <v>0.3745382642204894</v>
       </c>
       <c r="X38">
-        <v>0.8978482545591483</v>
+        <v>0.9465529709926372</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3276,19 +3420,24 @@
         <v>1</v>
       </c>
       <c r="T39">
-        <v>135816978</v>
+        <v>18.72681878736557</v>
       </c>
       <c r="U39">
         <v>4.08758714190787</v>
       </c>
       <c r="V39">
-        <v>0.1474232267049668</v>
+        <v>0.1577927849227824</v>
       </c>
       <c r="W39">
         <v>0.3757176211899403</v>
       </c>
       <c r="X39">
-        <v>2.548564629791014</v>
+        <v>2.381082388360163</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3350,19 +3499,24 @@
         <v>0.25</v>
       </c>
       <c r="T40">
-        <v>39187757</v>
+        <v>17.48387493454963</v>
       </c>
       <c r="U40">
         <v>3.125824040038432</v>
       </c>
       <c r="V40">
-        <v>0.5166782708520506</v>
+        <v>0.5197897032330084</v>
       </c>
       <c r="W40">
         <v>0.3430384631794123</v>
       </c>
       <c r="X40">
-        <v>0.6639305009163824</v>
+        <v>0.6599562497020779</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3424,19 +3578,24 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>359393986</v>
+        <v>19.6999297987291</v>
       </c>
       <c r="U41">
         <v>5.202669969618757</v>
       </c>
       <c r="V41">
-        <v>0.2918514618803408</v>
+        <v>0.3127927533242889</v>
       </c>
       <c r="W41">
         <v>0.1254327382822505</v>
       </c>
       <c r="X41">
-        <v>0.4297827993531791</v>
+        <v>0.4010090929191309</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3498,19 +3657,22 @@
         <v>0.75</v>
       </c>
       <c r="T42">
-        <v>3050208000</v>
+        <v>21.83847562196175</v>
       </c>
       <c r="U42">
         <v>5.789698866685788</v>
       </c>
       <c r="V42">
-        <v>0.1815925167057091</v>
+        <v>0.1855053107591364</v>
       </c>
       <c r="W42">
         <v>0.04190348902132735</v>
       </c>
       <c r="X42">
-        <v>0.2307555937959526</v>
+        <v>0.2258883524673622</v>
+      </c>
+      <c r="Y42">
+        <v>-3.526827269082044</v>
       </c>
     </row>
     <row r="43">
@@ -3572,19 +3734,22 @@
         <v>1</v>
       </c>
       <c r="T43">
-        <v>79874675</v>
+        <v>18.19596940179611</v>
       </c>
       <c r="U43">
         <v>3.583772017922885</v>
       </c>
       <c r="V43">
-        <v>0.40787249223461</v>
+        <v>0.4318249897176116</v>
       </c>
       <c r="W43">
         <v>0.4038237363627561</v>
       </c>
       <c r="X43">
-        <v>0.9900734765179383</v>
+        <v>0.935156014539208</v>
+      </c>
+      <c r="Y43">
+        <v>-2.942043768440485</v>
       </c>
     </row>
     <row r="44">
@@ -3646,19 +3811,22 @@
         <v>1</v>
       </c>
       <c r="T44">
-        <v>175199580</v>
+        <v>18.98143633920342</v>
       </c>
       <c r="U44">
         <v>5.220008949393723</v>
       </c>
       <c r="V44">
-        <v>0.2638975621888707</v>
+        <v>0.2632097376906816</v>
       </c>
       <c r="W44">
         <v>0.1220602514308837</v>
       </c>
       <c r="X44">
-        <v>0.4625289086358652</v>
+        <v>0.4637375976352603</v>
+      </c>
+      <c r="Y44">
+        <v>-4.189654742026425</v>
       </c>
     </row>
     <row r="45">
@@ -3720,19 +3888,22 @@
         <v>1</v>
       </c>
       <c r="T45">
-        <v>168927130</v>
+        <v>18.94497799646909</v>
       </c>
       <c r="U45">
         <v>4.541308357784139</v>
       </c>
       <c r="V45">
-        <v>0.4861430268954854</v>
+        <v>0.4861468128225155</v>
       </c>
       <c r="W45">
         <v>0.2809756488324929</v>
       </c>
       <c r="X45">
-        <v>0.5779691022759422</v>
+        <v>0.5779646012717411</v>
+      </c>
+      <c r="Y45">
+        <v>-4.04305126783455</v>
       </c>
     </row>
     <row r="46">
@@ -3794,19 +3965,22 @@
         <v>0.75</v>
       </c>
       <c r="T46">
-        <v>14468687</v>
+        <v>16.48749735502964</v>
       </c>
       <c r="U46">
         <v>5.279976415899348</v>
       </c>
       <c r="V46">
-        <v>0.3779568451975655</v>
+        <v>0.2650950068830712</v>
       </c>
       <c r="W46">
         <v>0.1108131601152753</v>
       </c>
       <c r="X46">
-        <v>0.2931899806110169</v>
+        <v>0.4180130037837833</v>
+      </c>
+      <c r="Y46">
+        <v>-4.029970636591444</v>
       </c>
     </row>
     <row r="47">
@@ -3868,19 +4042,24 @@
         <v>0.25</v>
       </c>
       <c r="T47">
-        <v>133035668</v>
+        <v>18.70612783068321</v>
       </c>
       <c r="U47">
         <v>2.277332451040702</v>
       </c>
       <c r="V47">
-        <v>0.04117712172749498</v>
+        <v>0.04591115484983935</v>
       </c>
       <c r="W47">
         <v>0.1425884754641859</v>
       </c>
       <c r="X47">
-        <v>3.462808216849603</v>
+        <v>3.105747958868537</v>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3942,19 +4121,24 @@
         <v>0.5</v>
       </c>
       <c r="T48">
-        <v>82385234</v>
+        <v>18.22691677979251</v>
       </c>
       <c r="U48">
         <v>3.986454133174489</v>
       </c>
       <c r="V48">
-        <v>0.4721460793397462</v>
+        <v>0.4597636226421617</v>
       </c>
       <c r="W48">
         <v>0.3893451460075905</v>
       </c>
       <c r="X48">
-        <v>0.8246285695140254</v>
+        <v>0.8468376505520564</v>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4016,19 +4200,22 @@
         <v>0.25</v>
       </c>
       <c r="T49">
-        <v>324460029</v>
+        <v>19.5976729093258</v>
       </c>
       <c r="U49">
         <v>3.191119259885053</v>
       </c>
       <c r="V49">
-        <v>0.4075668495580774</v>
+        <v>0.3874454652529961</v>
       </c>
       <c r="W49">
         <v>0.3558168906688082</v>
       </c>
       <c r="X49">
-        <v>0.8730270655099123</v>
+        <v>0.9183663833475636</v>
+      </c>
+      <c r="Y49">
+        <v>-2.509952681714088</v>
       </c>
     </row>
     <row r="50">
@@ -4090,19 +4277,22 @@
         <v>0.25</v>
       </c>
       <c r="T50">
-        <v>400667879</v>
+        <v>19.80864341017709</v>
       </c>
       <c r="U50">
         <v>3.054379559575735</v>
       </c>
       <c r="V50">
-        <v>0.2803667515806946</v>
+        <v>0.2510876490728735</v>
       </c>
       <c r="W50">
         <v>0.3279140629971341</v>
       </c>
       <c r="X50">
-        <v>1.169589693315523</v>
+        <v>1.305974484240613</v>
+      </c>
+      <c r="Y50">
+        <v>-2.203212619180842</v>
       </c>
     </row>
     <row r="51">
@@ -4164,19 +4354,22 @@
         <v>0.75</v>
       </c>
       <c r="T51">
-        <v>32097715</v>
+        <v>17.28429540176593</v>
       </c>
       <c r="U51">
         <v>4.084294602394943</v>
       </c>
       <c r="V51">
-        <v>0.3936253511668678</v>
+        <v>0.3635385651543094</v>
       </c>
       <c r="W51">
         <v>0.376216611195697</v>
       </c>
       <c r="X51">
-        <v>0.9557733262871304</v>
+        <v>1.034874005832108</v>
+      </c>
+      <c r="Y51">
+        <v>-4.436751534363128</v>
       </c>
     </row>
     <row r="52">
@@ -4238,19 +4431,24 @@
         <v>0.25</v>
       </c>
       <c r="T52">
-        <v>97380574</v>
+        <v>18.39413730313563</v>
       </c>
       <c r="U52">
         <v>3.718743988137599</v>
       </c>
       <c r="V52">
-        <v>0.5170287715763157</v>
+        <v>0.5187883131972016</v>
       </c>
       <c r="W52">
         <v>0.4064672772862509</v>
       </c>
       <c r="X52">
-        <v>0.7861598805169291</v>
+        <v>0.7834935116045004</v>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4312,19 +4510,24 @@
         <v>0.5</v>
       </c>
       <c r="T53">
-        <v>47621915</v>
+        <v>17.67880361241014</v>
       </c>
       <c r="U53">
         <v>3.616956785604673</v>
       </c>
       <c r="V53">
-        <v>0.5059577718165186</v>
+        <v>0.5139266143247359</v>
       </c>
       <c r="W53">
         <v>0.4051821585352937</v>
       </c>
       <c r="X53">
-        <v>0.8008220865559303</v>
+        <v>0.7884047006743855</v>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4386,19 +4589,22 @@
         <v>0.75</v>
       </c>
       <c r="T54">
-        <v>148484811</v>
+        <v>18.8159932281475</v>
       </c>
       <c r="U54">
         <v>3.867623192624764</v>
       </c>
       <c r="V54">
-        <v>0.4603182620336547</v>
+        <v>0.4708276182864068</v>
       </c>
       <c r="W54">
         <v>0.400517032602008</v>
       </c>
       <c r="X54">
-        <v>0.870087210601967</v>
+        <v>0.8506659699779366</v>
+      </c>
+      <c r="Y54">
+        <v>-1.475504024332218</v>
       </c>
     </row>
     <row r="55">
@@ -4460,19 +4666,22 @@
         <v>0.5</v>
       </c>
       <c r="T55">
-        <v>59947613</v>
+        <v>17.90898162213134</v>
       </c>
       <c r="U55">
         <v>4.096225484834648</v>
       </c>
       <c r="V55">
-        <v>0.09829189542744113</v>
+        <v>0.1006034816231345</v>
       </c>
       <c r="W55">
         <v>0.3743915719309873</v>
       </c>
       <c r="X55">
-        <v>3.808977030129227</v>
+        <v>3.721457407741377</v>
+      </c>
+      <c r="Y55">
+        <v>-1.851351566430301</v>
       </c>
     </row>
     <row r="56">
@@ -4534,19 +4743,22 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>1774316302</v>
+        <v>21.29668100370033</v>
       </c>
       <c r="U56">
         <v>5.815739123376598</v>
       </c>
       <c r="V56">
-        <v>0.3321911914483878</v>
+        <v>0.3308108874433763</v>
       </c>
       <c r="W56">
         <v>0.03958472963496575</v>
       </c>
       <c r="X56">
-        <v>0.1191624903188199</v>
+        <v>0.1196596942165071</v>
+      </c>
+      <c r="Y56">
+        <v>-3.882800146751243</v>
       </c>
     </row>
     <row r="57">
@@ -4608,19 +4820,24 @@
         <v>0.75</v>
       </c>
       <c r="T57">
-        <v>19441901</v>
+        <v>16.78294114028147</v>
       </c>
       <c r="U57">
         <v>3.518160179245666</v>
       </c>
       <c r="V57">
-        <v>0.1961568112513052</v>
+        <v>0.1746636246956193</v>
       </c>
       <c r="W57">
         <v>0.3998032649378581</v>
       </c>
       <c r="X57">
-        <v>2.038181913681562</v>
+        <v>2.288989854840024</v>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4682,19 +4899,24 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>31554469</v>
+        <v>17.26722578509784</v>
       </c>
       <c r="U58">
         <v>4.554173398155061</v>
       </c>
       <c r="V58">
-        <v>0.3920789162831597</v>
+        <v>0.3684839277947211</v>
       </c>
       <c r="W58">
         <v>0.2778029379707974</v>
       </c>
       <c r="X58">
-        <v>0.7085383233669414</v>
+        <v>0.7539078831290541</v>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4756,19 +4978,24 @@
         <v>0.5</v>
       </c>
       <c r="T59">
-        <v>205306467</v>
+        <v>19.14001438173658</v>
       </c>
       <c r="U59">
         <v>3.127602589578907</v>
       </c>
       <c r="V59">
-        <v>0.3927794315472328</v>
+        <v>0.3757415583218013</v>
       </c>
       <c r="W59">
         <v>0.3434005173042284</v>
       </c>
       <c r="X59">
-        <v>0.8742833502037227</v>
+        <v>0.9139274314983422</v>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4830,19 +5057,22 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>229378985</v>
+        <v>19.2508861499192</v>
       </c>
       <c r="U60">
         <v>3.999122064411998</v>
       </c>
       <c r="V60">
-        <v>0.3484992808287222</v>
+        <v>0.386251856807851</v>
       </c>
       <c r="W60">
         <v>0.3878370744678168</v>
       </c>
       <c r="X60">
-        <v>1.11287768957672</v>
+        <v>1.004104103661965</v>
+      </c>
+      <c r="Y60">
+        <v>-1.56754697072494</v>
       </c>
     </row>
     <row r="61">
@@ -4904,19 +5134,24 @@
         <v>0.25</v>
       </c>
       <c r="T61">
-        <v>39744234</v>
+        <v>17.49797533193912</v>
       </c>
       <c r="U61">
         <v>2.608193041833876</v>
       </c>
       <c r="V61">
-        <v>0.4929046715039945</v>
+        <v>0.4951534298946372</v>
       </c>
       <c r="W61">
         <v>0.21947013873268</v>
       </c>
       <c r="X61">
-        <v>0.4452587922589844</v>
+        <v>0.4432366322886639</v>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4978,19 +5213,22 @@
         <v>0.5</v>
       </c>
       <c r="T62">
-        <v>237633170</v>
+        <v>19.28623874008608</v>
       </c>
       <c r="U62">
         <v>3.830071140221479</v>
       </c>
       <c r="V62">
-        <v>0.5123009983629638</v>
+        <v>0.5158945245799074</v>
       </c>
       <c r="W62">
         <v>0.4028832657583987</v>
       </c>
       <c r="X62">
-        <v>0.7864190525604968</v>
+        <v>0.7809411547572952</v>
+      </c>
+      <c r="Y62">
+        <v>-4.151039905898646</v>
       </c>
     </row>
     <row r="63">
@@ -5052,19 +5290,24 @@
         <v>0.25</v>
       </c>
       <c r="T63">
-        <v>78949525</v>
+        <v>18.18431928218171</v>
       </c>
       <c r="U63">
         <v>2.899941245167585</v>
       </c>
       <c r="V63">
-        <v>0.4572757010220534</v>
+        <v>0.4693288091507588</v>
       </c>
       <c r="W63">
         <v>0.2921202195652305</v>
       </c>
       <c r="X63">
-        <v>0.6388273396384607</v>
+        <v>0.6224212404386944</v>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -5126,19 +5369,22 @@
         <v>1</v>
       </c>
       <c r="T64">
-        <v>10634033270</v>
+        <v>23.08732538066764</v>
       </c>
       <c r="U64">
         <v>5.422887401849982</v>
       </c>
       <c r="V64">
-        <v>0.4727965968856983</v>
+        <v>0.5196726191814701</v>
       </c>
       <c r="W64">
         <v>0.08669648368603397</v>
       </c>
       <c r="X64">
-        <v>0.1833695171604491</v>
+        <v>0.1668290390642257</v>
+      </c>
+      <c r="Y64">
+        <v>-3.5687450536804</v>
       </c>
     </row>
     <row r="65">
@@ -5200,19 +5446,24 @@
         <v>0.25</v>
       </c>
       <c r="T65">
-        <v>68135803</v>
+        <v>18.0370133745226</v>
       </c>
       <c r="U65">
         <v>2.895907047448799</v>
       </c>
       <c r="V65">
-        <v>0.3589009459645826</v>
+        <v>0.3754339572997897</v>
       </c>
       <c r="W65">
         <v>0.2911428786476352</v>
       </c>
       <c r="X65">
-        <v>0.81120677424006</v>
+        <v>0.7754836050036709</v>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -5274,19 +5525,22 @@
         <v>0.75</v>
       </c>
       <c r="T66">
-        <v>321777001</v>
+        <v>19.58936932011141</v>
       </c>
       <c r="U66">
         <v>4.274377011296369</v>
       </c>
       <c r="V66">
-        <v>0.5170892924822504</v>
+        <v>0.5189383266547966</v>
       </c>
       <c r="W66">
         <v>0.3421009947699026</v>
       </c>
       <c r="X66">
-        <v>0.6615897868000149</v>
+        <v>0.6592324698296411</v>
+      </c>
+      <c r="Y66">
+        <v>-4.19449151082704</v>
       </c>
     </row>
     <row r="67">
@@ -5348,19 +5602,24 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>182181075</v>
+        <v>19.02051166802102</v>
       </c>
       <c r="U67">
         <v>5.54970540582416</v>
       </c>
       <c r="V67">
-        <v>0.09972289381267696</v>
+        <v>0.1006439084858262</v>
       </c>
       <c r="W67">
         <v>0.0685015392210883</v>
       </c>
       <c r="X67">
-        <v>0.6869188869485079</v>
+        <v>0.6806327402391718</v>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -5422,19 +5681,22 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>129481084</v>
+        <v>18.67904535893661</v>
       </c>
       <c r="U68">
         <v>5.022513395023767</v>
       </c>
       <c r="V68">
-        <v>0.1749457544848405</v>
+        <v>0.1627944306947768</v>
       </c>
       <c r="W68">
         <v>0.1634454199436128</v>
       </c>
       <c r="X68">
-        <v>0.9342634259682807</v>
+        <v>1.003998842258041</v>
+      </c>
+      <c r="Y68">
+        <v>-2.180861720125739</v>
       </c>
     </row>
     <row r="69">
@@ -5496,19 +5758,22 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>3784444279</v>
+        <v>22.05416489112776</v>
       </c>
       <c r="U69">
         <v>5.279153479084606</v>
       </c>
       <c r="V69">
-        <v>0.517557556105656</v>
+        <v>0.5183356817754387</v>
       </c>
       <c r="W69">
         <v>0.1109630665926347</v>
       </c>
       <c r="X69">
-        <v>0.2143975395269512</v>
+        <v>0.2140756858809265</v>
+      </c>
+      <c r="Y69">
+        <v>-2.940719469353678</v>
       </c>
     </row>
     <row r="70">
@@ -5570,19 +5835,22 @@
         <v>0.25</v>
       </c>
       <c r="T70">
-        <v>972307181</v>
+        <v>20.69518234233319</v>
       </c>
       <c r="U70">
         <v>3.172032531996</v>
       </c>
       <c r="V70">
-        <v>0.4640582933779417</v>
+        <v>0.4277869654339258</v>
       </c>
       <c r="W70">
         <v>0.352194375162754</v>
       </c>
       <c r="X70">
-        <v>0.7589442537468396</v>
+        <v>0.8232938439475488</v>
+      </c>
+      <c r="Y70">
+        <v>-3.750810411844427</v>
       </c>
     </row>
     <row r="71">
@@ -5644,19 +5912,22 @@
         <v>0.25</v>
       </c>
       <c r="T71">
-        <v>39759813</v>
+        <v>17.49836723652227</v>
       </c>
       <c r="U71">
         <v>2.686659756853921</v>
       </c>
       <c r="V71">
-        <v>0.3030157225872252</v>
+        <v>0.3385165576712202</v>
       </c>
       <c r="W71">
         <v>0.2390836759272909</v>
       </c>
       <c r="X71">
-        <v>0.7890140943378574</v>
+        <v>0.7062687792054705</v>
+      </c>
+      <c r="Y71">
+        <v>-0.9632477149619261</v>
       </c>
     </row>
     <row r="72">
@@ -5718,19 +5989,24 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>378216804</v>
+        <v>19.7509781447193</v>
       </c>
       <c r="U72">
         <v>2.581189934808675</v>
       </c>
       <c r="V72">
-        <v>0.3757947828561903</v>
+        <v>0.3296710325404871</v>
       </c>
       <c r="W72">
         <v>0.2127845701702941</v>
       </c>
       <c r="X72">
-        <v>0.5662254503722657</v>
+        <v>0.6454451534020114</v>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -5792,19 +6068,24 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>109625429</v>
+        <v>18.5125799219899</v>
       </c>
       <c r="U73">
         <v>3.982237552429645</v>
       </c>
       <c r="V73">
-        <v>0.2179614872305396</v>
+        <v>0.2236678808532731</v>
       </c>
       <c r="W73">
         <v>0.3898340020224912</v>
       </c>
       <c r="X73">
-        <v>1.788545338792631</v>
+        <v>1.742914541575255</v>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -5866,19 +6147,24 @@
         <v>0.25</v>
       </c>
       <c r="T74">
-        <v>175637536</v>
+        <v>18.98393297486433</v>
       </c>
       <c r="U74">
         <v>2.4345355154548</v>
       </c>
       <c r="V74">
-        <v>0.2559290528410553</v>
+        <v>0.2540956448310177</v>
       </c>
       <c r="W74">
         <v>0.1775126382260159</v>
       </c>
       <c r="X74">
-        <v>0.6936009657967988</v>
+        <v>0.6986055913869279</v>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -5940,19 +6226,22 @@
         <v>0.5</v>
       </c>
       <c r="T75">
-        <v>185312070</v>
+        <v>19.03755182674891</v>
       </c>
       <c r="U75">
         <v>3.953430106149337</v>
       </c>
       <c r="V75">
-        <v>0.4461213587831331</v>
+        <v>0.4513409914051749</v>
       </c>
       <c r="W75">
         <v>0.3929961098387888</v>
       </c>
       <c r="X75">
-        <v>0.8809174949855531</v>
+        <v>0.8707299299699346</v>
+      </c>
+      <c r="Y75">
+        <v>-5.025523906590006</v>
       </c>
     </row>
     <row r="76">
@@ -6014,19 +6303,24 @@
         <v>0.25</v>
       </c>
       <c r="T76">
-        <v>129148480</v>
+        <v>18.67647330817632</v>
       </c>
       <c r="U76">
         <v>2.629122391431782</v>
       </c>
       <c r="V76">
-        <v>0.2278227738849546</v>
+        <v>0.2138081426229308</v>
       </c>
       <c r="W76">
         <v>0.2246790229803442</v>
       </c>
       <c r="X76">
-        <v>0.9862008926895171</v>
+        <v>1.050844089584488</v>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -6088,19 +6382,22 @@
         <v>0.75</v>
       </c>
       <c r="T77">
-        <v>370450189</v>
+        <v>19.73022955101712</v>
       </c>
       <c r="U77">
         <v>4.547680775858232</v>
       </c>
       <c r="V77">
-        <v>0.2584695304613355</v>
+        <v>0.2730006438420865</v>
       </c>
       <c r="W77">
         <v>0.2794056149379984</v>
       </c>
       <c r="X77">
-        <v>1.08100020315468</v>
+        <v>1.023461377254542</v>
+      </c>
+      <c r="Y77">
+        <v>-5.104732617475372</v>
       </c>
     </row>
     <row r="78">
@@ -6162,19 +6459,24 @@
         <v>0.5</v>
       </c>
       <c r="T78">
-        <v>39064939</v>
+        <v>17.4807359219117</v>
       </c>
       <c r="U78">
         <v>2.751082474168256</v>
       </c>
       <c r="V78">
-        <v>0.2043718894186473</v>
+        <v>0.236446327442431</v>
       </c>
       <c r="W78">
         <v>0.2552671525001446</v>
       </c>
       <c r="X78">
-        <v>1.249032600453385</v>
+        <v>1.079598720188606</v>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -6236,19 +6538,24 @@
         <v>0.25</v>
       </c>
       <c r="T79">
-        <v>37223014</v>
+        <v>17.43243778386868</v>
       </c>
       <c r="U79">
         <v>1.836315607392794</v>
       </c>
       <c r="V79">
-        <v>0.03747095812299567</v>
+        <v>0.04454603068619462</v>
       </c>
       <c r="W79">
         <v>0.06724622078922246</v>
       </c>
       <c r="X79">
-        <v>1.794622399792705</v>
+        <v>1.509589513439251</v>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -6310,19 +6617,24 @@
         <v>0.5</v>
       </c>
       <c r="T80">
-        <v>442320861</v>
+        <v>19.90754610654659</v>
       </c>
       <c r="U80">
         <v>4.079902144497856</v>
       </c>
       <c r="V80">
-        <v>0.5126372237068301</v>
+        <v>0.5189838162800959</v>
       </c>
       <c r="W80">
         <v>0.3768767214137286</v>
       </c>
       <c r="X80">
-        <v>0.7351723674854698</v>
+        <v>0.7261820303281442</v>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -6384,19 +6696,24 @@
         <v>0.25</v>
       </c>
       <c r="T81">
-        <v>33456069</v>
+        <v>17.32574376305876</v>
       </c>
       <c r="U81">
         <v>2.492322671429745</v>
       </c>
       <c r="V81">
-        <v>0.4737497760550129</v>
+        <v>0.4862057575466707</v>
       </c>
       <c r="W81">
         <v>0.1911623384687114</v>
       </c>
       <c r="X81">
-        <v>0.4035090846069618</v>
+        <v>0.3931716881208709</v>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -6458,19 +6775,24 @@
         <v>1</v>
       </c>
       <c r="T82">
-        <v>160180740</v>
+        <v>18.89181336065186</v>
       </c>
       <c r="U82">
         <v>4.463672751915198</v>
       </c>
       <c r="V82">
-        <v>0.2159251019231757</v>
+        <v>0.2217883772870948</v>
       </c>
       <c r="W82">
         <v>0.2998099152222122</v>
       </c>
       <c r="X82">
-        <v>1.388490326283981</v>
+        <v>1.351783708819521</v>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -6532,19 +6854,22 @@
         <v>0.75</v>
       </c>
       <c r="T83">
-        <v>568065763</v>
+        <v>20.15774774991302</v>
       </c>
       <c r="U83">
         <v>4.705624697995568</v>
       </c>
       <c r="V83">
-        <v>0.497180592343917</v>
+        <v>0.4946326097038727</v>
       </c>
       <c r="W83">
         <v>0.2399193726446873</v>
       </c>
       <c r="X83">
-        <v>0.482559810940341</v>
+        <v>0.4850456034193188</v>
+      </c>
+      <c r="Y83">
+        <v>-3.637586159726386</v>
       </c>
     </row>
     <row r="84">
@@ -6606,19 +6931,22 @@
         <v>1</v>
       </c>
       <c r="T84">
-        <v>170361756</v>
+        <v>18.95343471055011</v>
       </c>
       <c r="U84">
         <v>3.775350131006655</v>
       </c>
       <c r="V84">
-        <v>0.4695955361846393</v>
+        <v>0.4722869285961635</v>
       </c>
       <c r="W84">
         <v>0.4052923422570774</v>
       </c>
       <c r="X84">
-        <v>0.8630668544040873</v>
+        <v>0.858148548514306</v>
+      </c>
+      <c r="Y84">
+        <v>-3.278858529469911</v>
       </c>
     </row>
     <row r="85">
@@ -6680,19 +7008,22 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>327482316</v>
+        <v>19.60694461463513</v>
       </c>
       <c r="U85">
         <v>4.287068907766575</v>
       </c>
       <c r="V85">
-        <v>0.5141107783468415</v>
+        <v>0.5192216030808595</v>
       </c>
       <c r="W85">
         <v>0.3394825183061031</v>
       </c>
       <c r="X85">
-        <v>0.6603295099117207</v>
+        <v>0.6538297256734804</v>
+      </c>
+      <c r="Y85">
+        <v>-2.970414465569701</v>
       </c>
     </row>
     <row r="86">
@@ -6754,19 +7085,22 @@
         <v>0.25</v>
       </c>
       <c r="T86">
-        <v>4264774000</v>
+        <v>22.17365502703706</v>
       </c>
       <c r="U86">
         <v>3.591891221060907</v>
       </c>
       <c r="V86">
-        <v>0.2326383240490434</v>
+        <v>0.2143889283726865</v>
       </c>
       <c r="W86">
         <v>0.4041983885588305</v>
       </c>
       <c r="X86">
-        <v>1.737454008109256</v>
+        <v>1.885351037606689</v>
+      </c>
+      <c r="Y86">
+        <v>-1.879968662108654</v>
       </c>
     </row>
     <row r="87">
@@ -6828,19 +7162,22 @@
         <v>1</v>
       </c>
       <c r="T87">
-        <v>589335062</v>
+        <v>20.19450544574737</v>
       </c>
       <c r="U87">
         <v>4.135007604711058</v>
       </c>
       <c r="V87">
-        <v>0.3185636440420431</v>
+        <v>0.3628109115974656</v>
       </c>
       <c r="W87">
         <v>0.3681439270614694</v>
       </c>
       <c r="X87">
-        <v>1.155636978502427</v>
+        <v>1.014699159516792</v>
+      </c>
+      <c r="Y87">
+        <v>-2.595254706956866</v>
       </c>
     </row>
     <row r="88">
@@ -6902,19 +7239,24 @@
         <v>0.5</v>
       </c>
       <c r="T88">
-        <v>311834084</v>
+        <v>19.55798182227625</v>
       </c>
       <c r="U88">
         <v>3.525601909321535</v>
       </c>
       <c r="V88">
-        <v>0.3881055569807675</v>
+        <v>0.4233543311346448</v>
       </c>
       <c r="W88">
         <v>0.4003472319943351</v>
       </c>
       <c r="X88">
-        <v>1.031542127633525</v>
+        <v>0.9456552172771031</v>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -6976,19 +7318,24 @@
         <v>0.5</v>
       </c>
       <c r="T89">
-        <v>317036584</v>
+        <v>19.57452773212275</v>
       </c>
       <c r="U89">
         <v>2.929780354705299</v>
       </c>
       <c r="V89">
-        <v>0.4320187846438397</v>
+        <v>0.4077362458298052</v>
       </c>
       <c r="W89">
         <v>0.2992946449492584</v>
       </c>
       <c r="X89">
-        <v>0.6927815539224752</v>
+        <v>0.734039830920963</v>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -7050,19 +7397,24 @@
         <v>0.75</v>
       </c>
       <c r="T90">
-        <v>764872012</v>
+        <v>20.45521907321868</v>
       </c>
       <c r="U90">
         <v>4.474110435868051</v>
       </c>
       <c r="V90">
-        <v>0.50592905414002</v>
+        <v>0.5173218060856527</v>
       </c>
       <c r="W90">
         <v>0.2973143581062854</v>
       </c>
       <c r="X90">
-        <v>0.5876601781877527</v>
+        <v>0.5747183950275222</v>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -7124,19 +7476,22 @@
         <v>0.5</v>
       </c>
       <c r="T91">
-        <v>203962020</v>
+        <v>19.13344435800491</v>
       </c>
       <c r="U91">
         <v>4.547317371758632</v>
       </c>
       <c r="V91">
-        <v>0.394672288646676</v>
+        <v>0.3961329962979934</v>
       </c>
       <c r="W91">
         <v>0.279495230878381</v>
       </c>
       <c r="X91">
-        <v>0.7081703958409773</v>
+        <v>0.7055590760940527</v>
+      </c>
+      <c r="Y91">
+        <v>-1.529885280732147</v>
       </c>
     </row>
     <row r="92">
@@ -7198,19 +7553,22 @@
         <v>0.75</v>
       </c>
       <c r="T92">
-        <v>1031422825</v>
+        <v>20.75420506945067</v>
       </c>
       <c r="U92">
         <v>5.225278742130209</v>
       </c>
       <c r="V92">
-        <v>0.4314835084720031</v>
+        <v>0.4464658704085007</v>
       </c>
       <c r="W92">
         <v>0.1210458514831964</v>
       </c>
       <c r="X92">
-        <v>0.2805341319112096</v>
+        <v>0.271120055318996</v>
+      </c>
+      <c r="Y92">
+        <v>-1.163958673051449</v>
       </c>
     </row>
     <row r="93">
@@ -7272,19 +7630,24 @@
         <v>1</v>
       </c>
       <c r="T93">
-        <v>270434847</v>
+        <v>19.41554176587121</v>
       </c>
       <c r="U93">
         <v>4.055808317646195</v>
       </c>
       <c r="V93">
-        <v>0.5109906974379288</v>
+        <v>0.5156173992594805</v>
       </c>
       <c r="W93">
         <v>0.3803826674791564</v>
       </c>
       <c r="X93">
-        <v>0.7444023333230295</v>
+        <v>0.7377227146047718</v>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -7346,19 +7709,22 @@
         <v>0.25</v>
       </c>
       <c r="T94">
-        <v>87883047</v>
+        <v>18.29151747716</v>
       </c>
       <c r="U94">
         <v>3.984390401091061</v>
       </c>
       <c r="V94">
-        <v>0.51010506331967</v>
+        <v>0.5116369182376252</v>
       </c>
       <c r="W94">
         <v>0.389585230245739</v>
       </c>
       <c r="X94">
-        <v>0.7637352738872849</v>
+        <v>0.7614486296018216</v>
+      </c>
+      <c r="Y94">
+        <v>-3.678829118260435</v>
       </c>
     </row>
     <row r="95">
@@ -7420,19 +7786,24 @@
         <v>0.5</v>
       </c>
       <c r="T95">
-        <v>62861661</v>
+        <v>17.95644701278351</v>
       </c>
       <c r="U95">
         <v>3.837569004895921</v>
       </c>
       <c r="V95">
-        <v>0.5176102658795094</v>
+        <v>0.5197781498355777</v>
       </c>
       <c r="W95">
         <v>0.4024567860380175</v>
       </c>
       <c r="X95">
-        <v>0.7775286012810696</v>
+        <v>0.7742856950899674</v>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -7494,19 +7865,22 @@
         <v>1</v>
       </c>
       <c r="T96">
-        <v>99813086</v>
+        <v>18.41880985493041</v>
       </c>
       <c r="U96">
         <v>4.612460576955218</v>
       </c>
       <c r="V96">
-        <v>0.3364752272548735</v>
+        <v>0.3453866303000055</v>
       </c>
       <c r="W96">
         <v>0.263303722434128</v>
       </c>
       <c r="X96">
-        <v>0.7825352391683815</v>
+        <v>0.762344860324849</v>
+      </c>
+      <c r="Y96">
+        <v>-3.536116699561526</v>
       </c>
     </row>
     <row r="97">
@@ -7568,19 +7942,24 @@
         <v>0.5</v>
       </c>
       <c r="T97">
-        <v>126319691</v>
+        <v>18.65432648174021</v>
       </c>
       <c r="U97">
         <v>3.741046226246433</v>
       </c>
       <c r="V97">
-        <v>0.5034834817339333</v>
+        <v>0.509735021199069</v>
       </c>
       <c r="W97">
         <v>0.4061652859885878</v>
       </c>
       <c r="X97">
-        <v>0.8067102511284103</v>
+        <v>0.7968165205387493</v>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -7642,19 +8021,22 @@
         <v>0.75</v>
       </c>
       <c r="T98">
-        <v>13607354</v>
+        <v>16.42612093985575</v>
       </c>
       <c r="U98">
         <v>2.471833165044338</v>
       </c>
       <c r="V98">
-        <v>0.1543981623037227</v>
+        <v>0.1979370339231533</v>
       </c>
       <c r="W98">
         <v>0.1862803844939444</v>
       </c>
       <c r="X98">
-        <v>1.20649353408433</v>
+        <v>0.9411093053271955</v>
+      </c>
+      <c r="Y98">
+        <v>-0.6505875661411494</v>
       </c>
     </row>
     <row r="99">
@@ -7716,19 +8098,24 @@
         <v>0.5</v>
       </c>
       <c r="T99">
-        <v>310927507</v>
+        <v>19.55507034650928</v>
       </c>
       <c r="U99">
         <v>3.479469927404605</v>
       </c>
       <c r="V99">
-        <v>0.378127850301708</v>
+        <v>0.367288805762299</v>
       </c>
       <c r="W99">
         <v>0.3966192462155538</v>
       </c>
       <c r="X99">
-        <v>1.048902496600268</v>
+        <v>1.079856614176901</v>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -7790,19 +8177,22 @@
         <v>0.5</v>
       </c>
       <c r="T100">
-        <v>47181903</v>
+        <v>17.66952096601804</v>
       </c>
       <c r="U100">
         <v>3.59412260960871</v>
       </c>
       <c r="V100">
-        <v>0.5165708731392143</v>
+        <v>0.5150901258305989</v>
       </c>
       <c r="W100">
         <v>0.4042965656583083</v>
       </c>
       <c r="X100">
-        <v>0.7826545914239953</v>
+        <v>0.7849045155085578</v>
+      </c>
+      <c r="Y100">
+        <v>-3.834061463958434</v>
       </c>
     </row>
     <row r="101">
@@ -7864,19 +8254,22 @@
         <v>0.5</v>
       </c>
       <c r="T101">
-        <v>131050999</v>
+        <v>18.69109711074927</v>
       </c>
       <c r="U101">
         <v>3.843999969237204</v>
       </c>
       <c r="V101">
-        <v>0.5103929728237415</v>
+        <v>0.5105199786144368</v>
       </c>
       <c r="W101">
         <v>0.4020726487714391</v>
       </c>
       <c r="X101">
-        <v>0.7877707378042024</v>
+        <v>0.7875747583134233</v>
+      </c>
+      <c r="Y101">
+        <v>-1.575941958005918</v>
       </c>
     </row>
     <row r="102">
@@ -7938,19 +8331,24 @@
         <v>0.75</v>
       </c>
       <c r="T102">
-        <v>150826332</v>
+        <v>18.83163961367925</v>
       </c>
       <c r="U102">
         <v>3.950857252976723</v>
       </c>
       <c r="V102">
-        <v>0.3291633160700316</v>
+        <v>0.3527296289938118</v>
       </c>
       <c r="W102">
         <v>0.3932632810931649</v>
       </c>
       <c r="X102">
-        <v>1.194736053180044</v>
+        <v>1.114914225422396</v>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -8012,19 +8410,24 @@
         <v>0.75</v>
       </c>
       <c r="T103">
-        <v>211061715</v>
+        <v>19.16766113682568</v>
       </c>
       <c r="U103">
         <v>2.028713819710601</v>
       </c>
       <c r="V103">
-        <v>0.1022578499738427</v>
+        <v>0.08828831230334765</v>
       </c>
       <c r="W103">
         <v>0.09568810183811829</v>
       </c>
       <c r="X103">
-        <v>0.9357531168765533</v>
+        <v>1.083813919891751</v>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -8086,19 +8489,22 @@
         <v>1</v>
       </c>
       <c r="T104">
-        <v>86734828</v>
+        <v>18.27836606812386</v>
       </c>
       <c r="U104">
         <v>5.692781641496268</v>
       </c>
       <c r="V104">
-        <v>0.1040470469268426</v>
+        <v>0.09430752256790607</v>
       </c>
       <c r="W104">
         <v>0.05147253054973507</v>
       </c>
       <c r="X104">
-        <v>0.4947043868138454</v>
+        <v>0.5457945363019403</v>
+      </c>
+      <c r="Y104">
+        <v>-2.507790943621588</v>
       </c>
     </row>
     <row r="105">
@@ -8160,19 +8566,22 @@
         <v>0.25</v>
       </c>
       <c r="T105">
-        <v>56483181</v>
+        <v>17.84945347038483</v>
       </c>
       <c r="U105">
         <v>2.629311140574548</v>
       </c>
       <c r="V105">
-        <v>0.5113785949098798</v>
+        <v>0.5155284108050288</v>
       </c>
       <c r="W105">
         <v>0.2247260917350526</v>
       </c>
       <c r="X105">
-        <v>0.4394515022175616</v>
+        <v>0.4359140777210109</v>
+      </c>
+      <c r="Y105">
+        <v>-1.576101492166509</v>
       </c>
     </row>
     <row r="106">
@@ -8234,19 +8643,24 @@
         <v>0.75</v>
       </c>
       <c r="T106">
-        <v>43665262</v>
+        <v>17.59206342404099</v>
       </c>
       <c r="U106">
         <v>3.240381648867662</v>
       </c>
       <c r="V106">
-        <v>0.3282711947499522</v>
+        <v>0.3207556564696968</v>
       </c>
       <c r="W106">
         <v>0.3647014246136647</v>
       </c>
       <c r="X106">
-        <v>1.110976017531669</v>
+        <v>1.137006993509153</v>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -8308,19 +8722,22 @@
         <v>0.75</v>
       </c>
       <c r="T107">
-        <v>326795249</v>
+        <v>19.60484438290075</v>
       </c>
       <c r="U107">
         <v>4.226699090623974</v>
       </c>
       <c r="V107">
-        <v>0.5093931068327755</v>
+        <v>0.5154910752662556</v>
       </c>
       <c r="W107">
         <v>0.3515932952021836</v>
       </c>
       <c r="X107">
-        <v>0.6902199705611747</v>
+        <v>0.6820550579281759</v>
+      </c>
+      <c r="Y107">
+        <v>-5.4359030295006</v>
       </c>
     </row>
     <row r="108">
@@ -8382,19 +8799,22 @@
         <v>0.5</v>
       </c>
       <c r="T108">
-        <v>113492983</v>
+        <v>18.54725156918602</v>
       </c>
       <c r="U108">
         <v>3.556955163945183</v>
       </c>
       <c r="V108">
-        <v>0.5046175229484917</v>
+        <v>0.5048211600192973</v>
       </c>
       <c r="W108">
         <v>0.4023929556618715</v>
       </c>
       <c r="X108">
-        <v>0.7974216854592767</v>
+        <v>0.7971000178488746</v>
+      </c>
+      <c r="Y108">
+        <v>-3.713572066704308</v>
       </c>
     </row>
     <row r="109">
@@ -8456,19 +8876,22 @@
         <v>0.75</v>
       </c>
       <c r="T109">
-        <v>508684932</v>
+        <v>20.04733938875276</v>
       </c>
       <c r="U109">
         <v>4.012352857762289</v>
       </c>
       <c r="V109">
-        <v>0.5164304247599775</v>
+        <v>0.5146310091589346</v>
       </c>
       <c r="W109">
         <v>0.3861995074506542</v>
       </c>
       <c r="X109">
-        <v>0.7478248548778841</v>
+        <v>0.7504396365112608</v>
+      </c>
+      <c r="Y109">
+        <v>-5.033700567027251</v>
       </c>
     </row>
     <row r="110">
@@ -8530,19 +8953,24 @@
         <v>0.25</v>
       </c>
       <c r="T110">
-        <v>36335375</v>
+        <v>17.40830234260711</v>
       </c>
       <c r="U110">
         <v>1.970255917101271</v>
       </c>
       <c r="V110">
-        <v>0.2666541533866189</v>
+        <v>0.2812972929129117</v>
       </c>
       <c r="W110">
         <v>0.08631350475667576</v>
       </c>
       <c r="X110">
-        <v>0.3236908319651439</v>
+        <v>0.3068408652741568</v>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -8604,19 +9032,22 @@
         <v>1</v>
       </c>
       <c r="T111">
-        <v>439188095</v>
+        <v>19.90043834169022</v>
       </c>
       <c r="U111">
         <v>4.529415890687609</v>
       </c>
       <c r="V111">
-        <v>0.3896788644711431</v>
+        <v>0.4134768440790468</v>
       </c>
       <c r="W111">
         <v>0.2838973204222783</v>
       </c>
       <c r="X111">
-        <v>0.7285417463109594</v>
+        <v>0.6866099625351788</v>
+      </c>
+      <c r="Y111">
+        <v>-3.070839746040797</v>
       </c>
     </row>
     <row r="112">
@@ -8678,19 +9109,24 @@
         <v>0.5</v>
       </c>
       <c r="T112">
-        <v>49915378</v>
+        <v>17.72583968959787</v>
       </c>
       <c r="U112">
         <v>2.527633136521389</v>
       </c>
       <c r="V112">
-        <v>0.5165455604436995</v>
+        <v>0.5196278221157762</v>
       </c>
       <c r="W112">
         <v>0.1996733561198548</v>
       </c>
       <c r="X112">
-        <v>0.3865551684314942</v>
+        <v>0.3842622500597483</v>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -8752,19 +9188,22 @@
         <v>0.5</v>
       </c>
       <c r="T113">
-        <v>216477731</v>
+        <v>19.19299824099405</v>
       </c>
       <c r="U113">
         <v>4.324004824834057</v>
       </c>
       <c r="V113">
-        <v>0.3722093239048334</v>
+        <v>0.3952333573514274</v>
       </c>
       <c r="W113">
         <v>0.3316598716151594</v>
       </c>
       <c r="X113">
-        <v>0.8910573978527155</v>
+        <v>0.8391494934478906</v>
+      </c>
+      <c r="Y113">
+        <v>-2.980618635743943</v>
       </c>
     </row>
     <row r="114">
@@ -8826,19 +9265,22 @@
         <v>0.5</v>
       </c>
       <c r="T114">
-        <v>1979989703</v>
+        <v>21.40635748113428</v>
       </c>
       <c r="U114">
         <v>4.794440374720306</v>
       </c>
       <c r="V114">
-        <v>0.4555442753124725</v>
+        <v>0.4769296023336116</v>
       </c>
       <c r="W114">
         <v>0.2177278252471219</v>
       </c>
       <c r="X114">
-        <v>0.4779509633784232</v>
+        <v>0.4565198389485197</v>
+      </c>
+      <c r="Y114">
+        <v>-0.170841873587211</v>
       </c>
     </row>
     <row r="115">
@@ -8900,19 +9342,22 @@
         <v>1</v>
       </c>
       <c r="T115">
-        <v>106326664</v>
+        <v>18.48202664911083</v>
       </c>
       <c r="U115">
         <v>5.361100247137351</v>
       </c>
       <c r="V115">
-        <v>0.02791739126915468</v>
+        <v>0.0273916598724775</v>
       </c>
       <c r="W115">
         <v>0.09665307949074527</v>
       </c>
       <c r="X115">
-        <v>3.462110000139416</v>
+        <v>3.528558690518059</v>
+      </c>
+      <c r="Y115">
+        <v>-2.839078463508614</v>
       </c>
     </row>
     <row r="116">
@@ -8974,19 +9419,22 @@
         <v>0.25</v>
       </c>
       <c r="T116">
-        <v>173281882</v>
+        <v>18.97043020219214</v>
       </c>
       <c r="U116">
         <v>2.773672621480125</v>
       </c>
       <c r="V116">
-        <v>0.403071596834303</v>
+        <v>0.3953181498029859</v>
       </c>
       <c r="W116">
         <v>0.2609312114979421</v>
       </c>
       <c r="X116">
-        <v>0.6473569796216804</v>
+        <v>0.6600537102280327</v>
+      </c>
+      <c r="Y116">
+        <v>-1.363988603605592</v>
       </c>
     </row>
     <row r="117">
@@ -9048,19 +9496,24 @@
         <v>0.5</v>
       </c>
       <c r="T117">
-        <v>154815426</v>
+        <v>18.85774416531784</v>
       </c>
       <c r="U117">
         <v>4.109333131518855</v>
       </c>
       <c r="V117">
-        <v>0.5168043426903146</v>
+        <v>0.5157821348036704</v>
       </c>
       <c r="W117">
         <v>0.3723332702120346</v>
       </c>
       <c r="X117">
-        <v>0.7204530601925463</v>
+        <v>0.7218808971616691</v>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -9122,19 +9575,22 @@
         <v>0.75</v>
       </c>
       <c r="T118">
-        <v>263359982</v>
+        <v>19.38903240710547</v>
       </c>
       <c r="U118">
         <v>4.246455300765569</v>
       </c>
       <c r="V118">
-        <v>0.4723043281885182</v>
+        <v>0.4805696795392662</v>
       </c>
       <c r="W118">
         <v>0.347728033892664</v>
       </c>
       <c r="X118">
-        <v>0.7362372376013244</v>
+        <v>0.7235746421331436</v>
+      </c>
+      <c r="Y118">
+        <v>-2.762671285582435</v>
       </c>
     </row>
     <row r="119">
@@ -9196,19 +9652,22 @@
         <v>0.5</v>
       </c>
       <c r="T119">
-        <v>1117831075</v>
+        <v>20.83465610455659</v>
       </c>
       <c r="U119">
         <v>4.681633588040455</v>
       </c>
       <c r="V119">
-        <v>0.4100325931225164</v>
+        <v>0.4361968539980204</v>
       </c>
       <c r="W119">
         <v>0.2459467098301483</v>
       </c>
       <c r="X119">
-        <v>0.5998223408465977</v>
+        <v>0.5638433830411452</v>
+      </c>
+      <c r="Y119">
+        <v>-5.973809611869261</v>
       </c>
     </row>
     <row r="120">
@@ -9270,19 +9729,24 @@
         <v>0.5</v>
       </c>
       <c r="T120">
-        <v>2102007007</v>
+        <v>21.46615844288753</v>
       </c>
       <c r="U120">
         <v>3.973665721752893</v>
       </c>
       <c r="V120">
-        <v>0.3640269591597657</v>
+        <v>0.3408708643294627</v>
       </c>
       <c r="W120">
         <v>0.390807437275983</v>
       </c>
       <c r="X120">
-        <v>1.073567293417034</v>
+        <v>1.146497040880135</v>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -9344,19 +9808,24 @@
         <v>0.75</v>
       </c>
       <c r="T121">
-        <v>507154942</v>
+        <v>20.04432712039029</v>
       </c>
       <c r="U121">
         <v>4.282756332827748</v>
       </c>
       <c r="V121">
-        <v>0.4817110288796748</v>
+        <v>0.4784372130535586</v>
       </c>
       <c r="W121">
         <v>0.3403763807557049</v>
       </c>
       <c r="X121">
-        <v>0.7065986874897284</v>
+        <v>0.7114337502789555</v>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -9418,19 +9887,24 @@
         <v>1</v>
       </c>
       <c r="T122">
-        <v>112119451</v>
+        <v>18.53507538770945</v>
       </c>
       <c r="U122">
         <v>4.100464750354956</v>
       </c>
       <c r="V122">
-        <v>0.473252824685066</v>
+        <v>0.4766344775255967</v>
       </c>
       <c r="W122">
         <v>0.373731931679363</v>
       </c>
       <c r="X122">
-        <v>0.7897088240901027</v>
+        <v>0.7841059539367722</v>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -9492,19 +9966,22 @@
         <v>0.25</v>
       </c>
       <c r="T123">
-        <v>338303574</v>
+        <v>19.63945419828278</v>
       </c>
       <c r="U123">
         <v>2.953646261772091</v>
       </c>
       <c r="V123">
-        <v>0.2656496374954407</v>
+        <v>0.2374805694316657</v>
       </c>
       <c r="W123">
         <v>0.3049564734775562</v>
       </c>
       <c r="X123">
-        <v>1.147964952456561</v>
+        <v>1.284132315361095</v>
+      </c>
+      <c r="Y123">
+        <v>-1.942332327707429</v>
       </c>
     </row>
     <row r="124">
@@ -9566,19 +10043,24 @@
         <v>0.25</v>
       </c>
       <c r="T124">
-        <v>285298563</v>
+        <v>19.46904677936768</v>
       </c>
       <c r="U124">
         <v>2.858002691869916</v>
       </c>
       <c r="V124">
-        <v>0.4771438949768422</v>
+        <v>0.4587576751576076</v>
       </c>
       <c r="W124">
         <v>0.2818854414159581</v>
       </c>
       <c r="X124">
-        <v>0.5907765862322082</v>
+        <v>0.6144538972979918</v>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -9640,19 +10122,24 @@
         <v>0.25</v>
       </c>
       <c r="T125">
-        <v>180312608</v>
+        <v>19.01020261362665</v>
       </c>
       <c r="U125">
         <v>1.602809461643571</v>
       </c>
       <c r="V125">
-        <v>0.06981311525595875</v>
+        <v>0.05721365087663787</v>
       </c>
       <c r="W125">
         <v>0.04162162007436439</v>
       </c>
       <c r="X125">
-        <v>0.5961862598705887</v>
+        <v>0.7274770869649188</v>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -9714,19 +10201,22 @@
         <v>0.75</v>
       </c>
       <c r="T126">
-        <v>151156995</v>
+        <v>18.83382955665018</v>
       </c>
       <c r="U126">
         <v>3.802429903454193</v>
       </c>
       <c r="V126">
-        <v>0.5017440602440776</v>
+        <v>0.4908675955899456</v>
       </c>
       <c r="W126">
         <v>0.4042554667940685</v>
       </c>
       <c r="X126">
-        <v>0.8057005529819627</v>
+        <v>0.8235529711595997</v>
+      </c>
+      <c r="Y126">
+        <v>-2.921624301400269</v>
       </c>
     </row>
     <row r="127">
@@ -9788,19 +10278,24 @@
         <v>0.25</v>
       </c>
       <c r="T127">
-        <v>361599601</v>
+        <v>19.70604808305248</v>
       </c>
       <c r="U127">
         <v>2.93373145429356</v>
       </c>
       <c r="V127">
-        <v>0.362377024183052</v>
+        <v>0.3176279891930673</v>
       </c>
       <c r="W127">
         <v>0.300236937651596</v>
       </c>
       <c r="X127">
-        <v>0.8285208984439743</v>
+        <v>0.9452471062589501</v>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -9862,19 +10357,22 @@
         <v>1</v>
       </c>
       <c r="T128">
-        <v>64231993</v>
+        <v>17.9780119778667</v>
       </c>
       <c r="U128">
         <v>3.687514867845285</v>
       </c>
       <c r="V128">
-        <v>0.5173527155732156</v>
+        <v>0.5196906150851656</v>
       </c>
       <c r="W128">
         <v>0.4065374575602085</v>
       </c>
       <c r="X128">
-        <v>0.7858032737100332</v>
+        <v>0.7822682299036442</v>
+      </c>
+      <c r="Y128">
+        <v>-3.178053830347946</v>
       </c>
     </row>
     <row r="129">
@@ -9936,19 +10434,22 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>12865767</v>
+        <v>16.37008062104248</v>
       </c>
       <c r="U129">
         <v>1.862514571728721</v>
       </c>
       <c r="V129">
-        <v>0.3139863413534111</v>
+        <v>0.339196260454868</v>
       </c>
       <c r="W129">
         <v>0.07071471857112414</v>
       </c>
       <c r="X129">
-        <v>0.2252159067375811</v>
+        <v>0.2084772941667886</v>
+      </c>
+      <c r="Y129">
+        <v>-3.367295829986474</v>
       </c>
     </row>
     <row r="130">
@@ -10010,19 +10511,22 @@
         <v>0.25</v>
       </c>
       <c r="T130">
-        <v>153086282</v>
+        <v>18.84651225504585</v>
       </c>
       <c r="U130">
         <v>3.046643766756739</v>
       </c>
       <c r="V130">
-        <v>0.4525985798685643</v>
+        <v>0.4534049610878912</v>
       </c>
       <c r="W130">
         <v>0.3262132094406844</v>
       </c>
       <c r="X130">
-        <v>0.7207561489375806</v>
+        <v>0.7194742833381765</v>
+      </c>
+      <c r="Y130">
+        <v>-0.9912911628108967</v>
       </c>
     </row>
     <row r="131">
@@ -10084,19 +10588,24 @@
         <v>0.5</v>
       </c>
       <c r="T131">
-        <v>14117475</v>
+        <v>16.46292394967578</v>
       </c>
       <c r="U131">
         <v>3.339276962372614</v>
       </c>
       <c r="V131">
-        <v>0.4306583615359524</v>
+        <v>0.4731101608193313</v>
       </c>
       <c r="W131">
         <v>0.3803080301667427</v>
       </c>
       <c r="X131">
-        <v>0.8830852112341808</v>
+        <v>0.8038466760217662</v>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -10158,19 +10667,22 @@
         <v>0.75</v>
       </c>
       <c r="T132">
-        <v>184575755</v>
+        <v>19.03357053337926</v>
       </c>
       <c r="U132">
         <v>3.51436645556812</v>
       </c>
       <c r="V132">
-        <v>0.5138656299417698</v>
+        <v>0.5182848839072511</v>
       </c>
       <c r="W132">
         <v>0.3995173972550996</v>
       </c>
       <c r="X132">
-        <v>0.7774744485253317</v>
+        <v>0.7708451657768097</v>
+      </c>
+      <c r="Y132">
+        <v>-3.211576522386589</v>
       </c>
     </row>
     <row r="133">
@@ -10232,19 +10744,24 @@
         <v>0.75</v>
       </c>
       <c r="T133">
-        <v>188994175</v>
+        <v>19.05722675244315</v>
       </c>
       <c r="U133">
         <v>4.200512251736809</v>
       </c>
       <c r="V133">
-        <v>0.4310919951849344</v>
+        <v>0.4476405288805614</v>
       </c>
       <c r="W133">
         <v>0.3565601662795864</v>
       </c>
       <c r="X133">
-        <v>0.8271092255531803</v>
+        <v>0.7965323586120664</v>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -10306,19 +10823,24 @@
         <v>0.5</v>
       </c>
       <c r="T134">
-        <v>581987000</v>
+        <v>20.18195866867648</v>
       </c>
       <c r="U134">
         <v>3.344817798956803</v>
       </c>
       <c r="V134">
-        <v>0.4055575062407185</v>
+        <v>0.3772775158235454</v>
       </c>
       <c r="W134">
         <v>0.3810873936960869</v>
       </c>
       <c r="X134">
-        <v>0.9396630264066489</v>
+        <v>1.010098343295717</v>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -10380,19 +10902,22 @@
         <v>0.25</v>
       </c>
       <c r="T135">
-        <v>62148556</v>
+        <v>17.94503814154006</v>
       </c>
       <c r="U135">
         <v>2.463337173114988</v>
       </c>
       <c r="V135">
-        <v>0.1570720485468566</v>
+        <v>0.1721177385683644</v>
       </c>
       <c r="W135">
         <v>0.18426926346595</v>
       </c>
       <c r="X135">
-        <v>1.173151207810091</v>
+        <v>1.070600072942273</v>
+      </c>
+      <c r="Y135">
+        <v>-2.939161922065597</v>
       </c>
     </row>
     <row r="136">
@@ -10454,19 +10979,22 @@
         <v>1</v>
       </c>
       <c r="T136">
-        <v>565873395</v>
+        <v>20.15388092740093</v>
       </c>
       <c r="U136">
         <v>5.86643764595668</v>
       </c>
       <c r="V136">
-        <v>0.1480207611128891</v>
+        <v>0.1532942677871522</v>
       </c>
       <c r="W136">
         <v>0.03536041417510651</v>
       </c>
       <c r="X136">
-        <v>0.2388882066897268</v>
+        <v>0.2306701658551521</v>
+      </c>
+      <c r="Y136">
+        <v>-1.211138083526522</v>
       </c>
     </row>
     <row r="137">
@@ -10528,19 +11056,22 @@
         <v>0.75</v>
       </c>
       <c r="T137">
-        <v>906827548</v>
+        <v>20.62546285549218</v>
       </c>
       <c r="U137">
         <v>5.489359900722382</v>
       </c>
       <c r="V137">
-        <v>0.07510484459057869</v>
+        <v>0.1025956693660417</v>
       </c>
       <c r="W137">
         <v>0.07678639569937214</v>
       </c>
       <c r="X137">
-        <v>1.022389382708401</v>
+        <v>0.7484370068819671</v>
+      </c>
+      <c r="Y137">
+        <v>-2.560276451762144</v>
       </c>
     </row>
     <row r="138">
@@ -10602,19 +11133,24 @@
         <v>0.25</v>
       </c>
       <c r="T138">
-        <v>55737521</v>
+        <v>17.83616410468389</v>
       </c>
       <c r="U138">
         <v>3.306692678516622</v>
       </c>
       <c r="V138">
-        <v>0.5161684569123932</v>
+        <v>0.5197389920495501</v>
       </c>
       <c r="W138">
         <v>0.3755146094158728</v>
       </c>
       <c r="X138">
-        <v>0.7275039851565496</v>
+        <v>0.7225061331940101</v>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -10676,19 +11212,22 @@
         <v>0.5</v>
       </c>
       <c r="T139">
-        <v>74183572</v>
+        <v>18.1220532820074</v>
       </c>
       <c r="U139">
         <v>3.970560289731023</v>
       </c>
       <c r="V139">
-        <v>0.3465788468196237</v>
+        <v>0.3476433311683865</v>
       </c>
       <c r="W139">
         <v>0.3911533305350288</v>
       </c>
       <c r="X139">
-        <v>1.128612822520596</v>
+        <v>1.125157008536336</v>
+      </c>
+      <c r="Y139">
+        <v>-1.198242129616951</v>
       </c>
     </row>
     <row r="140">
@@ -10750,19 +11289,22 @@
         <v>1</v>
       </c>
       <c r="T140">
-        <v>1157338009</v>
+        <v>20.86938838510281</v>
       </c>
       <c r="U140">
         <v>4.713236102916404</v>
       </c>
       <c r="V140">
-        <v>0.5127385385071834</v>
+        <v>0.5193250907367291</v>
       </c>
       <c r="W140">
         <v>0.2380084515512732</v>
       </c>
       <c r="X140">
-        <v>0.4641906813640823</v>
+        <v>0.4583033937636785</v>
+      </c>
+      <c r="Y140">
+        <v>-3.821368637160015</v>
       </c>
     </row>
     <row r="141">
@@ -10824,19 +11366,22 @@
         <v>1</v>
       </c>
       <c r="T141">
-        <v>2770975006</v>
+        <v>21.74246508293814</v>
       </c>
       <c r="U141">
         <v>4.530595115653901</v>
       </c>
       <c r="V141">
-        <v>0.4557325713274618</v>
+        <v>0.4566021162470312</v>
       </c>
       <c r="W141">
         <v>0.2836081241360763</v>
       </c>
       <c r="X141">
-        <v>0.6223126060750499</v>
+        <v>0.6211274850566798</v>
+      </c>
+      <c r="Y141">
+        <v>-3.096390740651652</v>
       </c>
     </row>
     <row r="142">
@@ -10898,19 +11443,22 @@
         <v>0.5</v>
       </c>
       <c r="T142">
-        <v>98851469</v>
+        <v>18.40912896837083</v>
       </c>
       <c r="U142">
         <v>4.86167000609685</v>
       </c>
       <c r="V142">
-        <v>0.04397237141488575</v>
+        <v>0.04130067668780858</v>
       </c>
       <c r="W142">
         <v>0.2012061581832938</v>
       </c>
       <c r="X142">
-        <v>4.575740441307663</v>
+        <v>4.871739988770867</v>
+      </c>
+      <c r="Y142">
+        <v>-2.722092558225249</v>
       </c>
     </row>
     <row r="143">
@@ -10972,19 +11520,22 @@
         <v>0.25</v>
       </c>
       <c r="T143">
-        <v>280898529</v>
+        <v>19.45350405532171</v>
       </c>
       <c r="U143">
         <v>2.799461587540316</v>
       </c>
       <c r="V143">
-        <v>0.4006525219182586</v>
+        <v>0.3810223455946032</v>
       </c>
       <c r="W143">
         <v>0.2673778245445229</v>
       </c>
       <c r="X143">
-        <v>0.6673559004804506</v>
+        <v>0.701737910219589</v>
+      </c>
+      <c r="Y143">
+        <v>-2.270149817240892</v>
       </c>
     </row>
     <row r="144">
@@ -11046,19 +11597,22 @@
         <v>0.75</v>
       </c>
       <c r="T144">
-        <v>379063820</v>
+        <v>19.75321513937193</v>
       </c>
       <c r="U144">
         <v>2.495705224478323</v>
       </c>
       <c r="V144">
-        <v>0.5006164270809307</v>
+        <v>0.468874830198564</v>
       </c>
       <c r="W144">
         <v>0.1919724520851296</v>
       </c>
       <c r="X144">
-        <v>0.3834721389477996</v>
+        <v>0.4094321975095808</v>
+      </c>
+      <c r="Y144">
+        <v>-2.744417845273085</v>
       </c>
     </row>
     <row r="145">
@@ -11120,19 +11674,24 @@
         <v>0.75</v>
       </c>
       <c r="T145">
-        <v>3930917412</v>
+        <v>22.09213867375307</v>
       </c>
       <c r="U145">
         <v>4.985457292043015</v>
       </c>
       <c r="V145">
-        <v>0.5026852686516693</v>
+        <v>0.5115065454455984</v>
       </c>
       <c r="W145">
         <v>0.1718714934379406</v>
       </c>
       <c r="X145">
-        <v>0.3419067638463804</v>
+        <v>0.3360103501475526</v>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -11194,19 +11753,24 @@
         <v>0.75</v>
       </c>
       <c r="T146">
-        <v>272139135</v>
+        <v>19.42182401921087</v>
       </c>
       <c r="U146">
         <v>3.641331360684205</v>
       </c>
       <c r="V146">
-        <v>0.5160422938681932</v>
+        <v>0.5198311224237164</v>
       </c>
       <c r="W146">
         <v>0.4058870330016719</v>
       </c>
       <c r="X146">
-        <v>0.786538308632011</v>
+        <v>0.7808055645249184</v>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -11268,19 +11832,24 @@
         <v>0.5</v>
       </c>
       <c r="T147">
-        <v>156323605</v>
+        <v>18.8674388076612</v>
       </c>
       <c r="U147">
         <v>3.261455943806635</v>
       </c>
       <c r="V147">
-        <v>0.4631639413829027</v>
+        <v>0.4439974108708687</v>
       </c>
       <c r="W147">
         <v>0.3682860450092753</v>
       </c>
       <c r="X147">
-        <v>0.7951526708008755</v>
+        <v>0.8294779113394128</v>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -11342,19 +11911,22 @@
         <v>1</v>
       </c>
       <c r="T148">
-        <v>841320054</v>
+        <v>20.550482709156</v>
       </c>
       <c r="U148">
         <v>4.954338942588041</v>
       </c>
       <c r="V148">
-        <v>0.15988068321382</v>
+        <v>0.1774452515610768</v>
       </c>
       <c r="W148">
         <v>0.1790846517542048</v>
       </c>
       <c r="X148">
-        <v>1.120114376260839</v>
+        <v>1.009238907092218</v>
+      </c>
+      <c r="Y148">
+        <v>-2.758743315417728</v>
       </c>
     </row>
     <row r="149">
@@ -11416,19 +11988,24 @@
         <v>1</v>
       </c>
       <c r="T149">
-        <v>153407440</v>
+        <v>18.8486079463732</v>
       </c>
       <c r="U149">
         <v>4.209331010157005</v>
       </c>
       <c r="V149">
-        <v>0.516739516874221</v>
+        <v>0.5182483107005513</v>
       </c>
       <c r="W149">
         <v>0.354907947372955</v>
       </c>
       <c r="X149">
-        <v>0.6868217656737539</v>
+        <v>0.6848221982493332</v>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -11490,19 +12067,24 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <v>82297638</v>
+        <v>18.22585296535696</v>
       </c>
       <c r="U150">
         <v>3.71161404819326</v>
       </c>
       <c r="V150">
-        <v>0.4754359033203866</v>
+        <v>0.479552353630931</v>
       </c>
       <c r="W150">
         <v>0.4065195692419656</v>
       </c>
       <c r="X150">
-        <v>0.8550460038942839</v>
+        <v>0.8477063373039511</v>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -11564,19 +12146,22 @@
         <v>0.25</v>
       </c>
       <c r="T151">
-        <v>2388651947</v>
+        <v>21.59399500484791</v>
       </c>
       <c r="U151">
         <v>4.1583685919109</v>
       </c>
       <c r="V151">
-        <v>0.153956446188443</v>
+        <v>0.154334023722165</v>
       </c>
       <c r="W151">
         <v>0.3641563706309601</v>
       </c>
       <c r="X151">
-        <v>2.36532071015222</v>
+        <v>2.359533963078169</v>
+      </c>
+      <c r="Y151">
+        <v>-4.933971883082493</v>
       </c>
     </row>
     <row r="152">
@@ -11638,19 +12223,22 @@
         <v>1</v>
       </c>
       <c r="T152">
-        <v>631272541</v>
+        <v>20.26324824643116</v>
       </c>
       <c r="U152">
         <v>4.10196170462411</v>
       </c>
       <c r="V152">
-        <v>0.4751940392262907</v>
+        <v>0.4684762323074477</v>
       </c>
       <c r="W152">
         <v>0.3734976142259101</v>
       </c>
       <c r="X152">
-        <v>0.7859896871476706</v>
+        <v>0.7972605405962072</v>
+      </c>
+      <c r="Y152">
+        <v>-6.964135612418245</v>
       </c>
     </row>
     <row r="153">
@@ -11712,19 +12300,24 @@
         <v>1</v>
       </c>
       <c r="T153">
-        <v>150807798</v>
+        <v>18.8315167230765</v>
       </c>
       <c r="U153">
         <v>4.996057053299996</v>
       </c>
       <c r="V153">
-        <v>0.2654610196073857</v>
+        <v>0.2706424447538128</v>
       </c>
       <c r="W153">
         <v>0.1694425150412314</v>
       </c>
       <c r="X153">
-        <v>0.6382952769933424</v>
+        <v>0.6260751715990559</v>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -11786,19 +12379,22 @@
         <v>0.25</v>
       </c>
       <c r="T154">
-        <v>175565925</v>
+        <v>18.98352517136041</v>
       </c>
       <c r="U154">
         <v>3.325214054209732</v>
       </c>
       <c r="V154">
-        <v>0.5100444035340088</v>
+        <v>0.5112106422482676</v>
       </c>
       <c r="W154">
         <v>0.3782829592987987</v>
       </c>
       <c r="X154">
-        <v>0.7416667189714111</v>
+        <v>0.7399747345539159</v>
+      </c>
+      <c r="Y154">
+        <v>-4.365824660097601</v>
       </c>
     </row>
     <row r="155">
@@ -11860,19 +12456,22 @@
         <v>1</v>
       </c>
       <c r="T155">
-        <v>82666277</v>
+        <v>18.23032230174036</v>
       </c>
       <c r="U155">
         <v>5.641843129013877</v>
       </c>
       <c r="V155">
-        <v>0.08602825331003863</v>
+        <v>0.06864147837384604</v>
       </c>
       <c r="W155">
         <v>0.0571248824912555</v>
       </c>
       <c r="X155">
-        <v>0.664024669725447</v>
+        <v>0.8322210395896918</v>
+      </c>
+      <c r="Y155">
+        <v>-3.39002408106403</v>
       </c>
     </row>
     <row r="156">
@@ -11934,19 +12533,24 @@
         <v>0.75</v>
       </c>
       <c r="T156">
-        <v>49592413</v>
+        <v>17.71934841628534</v>
       </c>
       <c r="U156">
         <v>3.126003316386487</v>
       </c>
       <c r="V156">
-        <v>0.5121956155003665</v>
+        <v>0.5116277058279474</v>
       </c>
       <c r="W156">
         <v>0.3430749917128164</v>
       </c>
       <c r="X156">
-        <v>0.6698124336298051</v>
+        <v>0.6705559292525635</v>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -12008,19 +12612,24 @@
         <v>0.25</v>
       </c>
       <c r="T157">
-        <v>110134957</v>
+        <v>18.51721705357039</v>
       </c>
       <c r="U157">
         <v>2.036267423474537</v>
       </c>
       <c r="V157">
-        <v>0.2978069686263017</v>
+        <v>0.2581405272942395</v>
       </c>
       <c r="W157">
         <v>0.09694638219363086</v>
       </c>
       <c r="X157">
-        <v>0.3255342970677172</v>
+        <v>0.3755566133291705</v>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -12082,19 +12691,22 @@
         <v>0.5</v>
       </c>
       <c r="T158">
-        <v>18318756</v>
+        <v>16.72343601097455</v>
       </c>
       <c r="U158">
         <v>1.749456611292006</v>
       </c>
       <c r="V158">
-        <v>0.4642433373667651</v>
+        <v>0.4725712907916302</v>
       </c>
       <c r="W158">
         <v>0.05662906446092186</v>
       </c>
       <c r="X158">
-        <v>0.1219814263401767</v>
+        <v>0.1198317916563645</v>
+      </c>
+      <c r="Y158">
+        <v>-1.155307632344655</v>
       </c>
     </row>
     <row r="159">
@@ -12156,19 +12768,22 @@
         <v>1</v>
       </c>
       <c r="T159">
-        <v>389008320</v>
+        <v>19.7791112895288</v>
       </c>
       <c r="U159">
         <v>5.209259486477943</v>
       </c>
       <c r="V159">
-        <v>0.315998718934463</v>
+        <v>0.3472553065231737</v>
       </c>
       <c r="W159">
         <v>0.1241447826115119</v>
       </c>
       <c r="X159">
-        <v>0.3928648287883064</v>
+        <v>0.3575029100476174</v>
+      </c>
+      <c r="Y159">
+        <v>-2.864794916106515</v>
       </c>
     </row>
     <row r="160">
@@ -12230,19 +12845,22 @@
         <v>1</v>
       </c>
       <c r="T160">
-        <v>27209299</v>
+        <v>17.11906934784028</v>
       </c>
       <c r="U160">
         <v>4.574953465988468</v>
       </c>
       <c r="V160">
-        <v>0.2415498024112525</v>
+        <v>0.2089966216118592</v>
       </c>
       <c r="W160">
         <v>0.2726547497128208</v>
       </c>
       <c r="X160">
-        <v>1.12877239803579</v>
+        <v>1.304589268525044</v>
+      </c>
+      <c r="Y160">
+        <v>-3.131533814713053</v>
       </c>
     </row>
     <row r="161">
@@ -12304,19 +12922,22 @@
         <v>0.75</v>
       </c>
       <c r="T161">
-        <v>68804037</v>
+        <v>18.04677297850771</v>
       </c>
       <c r="U161">
         <v>3.31879061517413</v>
       </c>
       <c r="V161">
-        <v>0.5148114359815499</v>
+        <v>0.5149404920160843</v>
       </c>
       <c r="W161">
         <v>0.3773357841686593</v>
       </c>
       <c r="X161">
-        <v>0.7329592114620049</v>
+        <v>0.7327755148780825</v>
+      </c>
+      <c r="Y161">
+        <v>-4.653960350157523</v>
       </c>
     </row>
     <row r="162">
@@ -12378,19 +12999,24 @@
         <v>1</v>
       </c>
       <c r="T162">
-        <v>27708467</v>
+        <v>17.1372485923207</v>
       </c>
       <c r="U162">
         <v>4.359908086462811</v>
       </c>
       <c r="V162">
-        <v>0.1157422564878926</v>
+        <v>0.10791163000913</v>
       </c>
       <c r="W162">
         <v>0.3237887334700111</v>
       </c>
       <c r="X162">
-        <v>2.797498020991854</v>
+        <v>3.000498958662904</v>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -12452,19 +13078,24 @@
         <v>0.5</v>
       </c>
       <c r="T163">
-        <v>133488388</v>
+        <v>18.70952505074808</v>
       </c>
       <c r="U163">
         <v>2.688403042453307</v>
       </c>
       <c r="V163">
-        <v>0.4711298954825295</v>
+        <v>0.4658069276330667</v>
       </c>
       <c r="W163">
         <v>0.2395213835058622</v>
       </c>
       <c r="X163">
-        <v>0.5083977599437736</v>
+        <v>0.5142074307974698</v>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -12526,19 +13157,24 @@
         <v>0.25</v>
       </c>
       <c r="T164">
-        <v>15178256</v>
+        <v>16.53537443532108</v>
       </c>
       <c r="U164">
         <v>1.813204260557438</v>
       </c>
       <c r="V164">
-        <v>0.2950374362657412</v>
+        <v>0.3236201671537348</v>
       </c>
       <c r="W164">
         <v>0.06428994724959758</v>
       </c>
       <c r="X164">
-        <v>0.2179043719444857</v>
+        <v>0.1986586553459656</v>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -12600,19 +13236,22 @@
         <v>0.25</v>
       </c>
       <c r="T165">
-        <v>299165112</v>
+        <v>19.51650619298771</v>
       </c>
       <c r="U165">
         <v>2.880668931158766</v>
       </c>
       <c r="V165">
-        <v>0.516398332052552</v>
+        <v>0.5191004654712229</v>
       </c>
       <c r="W165">
         <v>0.2874368053808397</v>
       </c>
       <c r="X165">
-        <v>0.5566183845682682</v>
+        <v>0.5537209548057593</v>
+      </c>
+      <c r="Y165">
+        <v>-2.23026443141442</v>
       </c>
     </row>
     <row r="166">
@@ -12674,19 +13313,24 @@
         <v>0.25</v>
       </c>
       <c r="T166">
-        <v>30287204</v>
+        <v>17.22623587105049</v>
       </c>
       <c r="U166">
         <v>2.163977530105808</v>
       </c>
       <c r="V166">
-        <v>0.371924776668986</v>
+        <v>0.4061822726576638</v>
       </c>
       <c r="W166">
         <v>0.119828896570463</v>
       </c>
       <c r="X166">
-        <v>0.3221858399530908</v>
+        <v>0.2950126202860076</v>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -12748,19 +13392,22 @@
         <v>1</v>
       </c>
       <c r="T167">
-        <v>181903766</v>
+        <v>19.01898834695738</v>
       </c>
       <c r="U167">
         <v>4.711195822124888</v>
       </c>
       <c r="V167">
-        <v>0.3733825135723355</v>
+        <v>0.381730688084029</v>
       </c>
       <c r="W167">
         <v>0.2385205946067907</v>
       </c>
       <c r="X167">
-        <v>0.638810297581282</v>
+        <v>0.6248399776396442</v>
+      </c>
+      <c r="Y167">
+        <v>-2.667228206581955</v>
       </c>
     </row>
     <row r="168">
@@ -12822,19 +13469,22 @@
         <v>0.5</v>
       </c>
       <c r="T168">
-        <v>2132005</v>
+        <v>14.57257340948088</v>
       </c>
       <c r="U168">
         <v>4.164470525727846</v>
       </c>
       <c r="V168">
-        <v>0.1484789406845165</v>
+        <v>0.07764641602598736</v>
       </c>
       <c r="W168">
         <v>0.3630880486513374</v>
       </c>
       <c r="X168">
-        <v>2.445384153317848</v>
+        <v>4.67617267138017</v>
+      </c>
+      <c r="Y168">
+        <v>-4.028916756899645</v>
       </c>
     </row>
     <row r="169">
@@ -12896,19 +13546,22 @@
         <v>1</v>
       </c>
       <c r="T169">
-        <v>309496170</v>
+        <v>19.55045627521429</v>
       </c>
       <c r="U169">
         <v>5.032855086834006</v>
       </c>
       <c r="V169">
-        <v>0.2673821155516721</v>
+        <v>0.3025905297549802</v>
       </c>
       <c r="W169">
         <v>0.1611274544015019</v>
       </c>
       <c r="X169">
-        <v>0.60261118837009</v>
+        <v>0.5324933815079186</v>
+      </c>
+      <c r="Y169">
+        <v>-3.710081661764539</v>
       </c>
     </row>
     <row r="170">
@@ -12970,19 +13623,22 @@
         <v>1</v>
       </c>
       <c r="T170">
-        <v>32165981</v>
+        <v>17.28641996135174</v>
       </c>
       <c r="U170">
         <v>5.341158619894087</v>
       </c>
       <c r="V170">
-        <v>0.4169629398539496</v>
+        <v>0.3232236488626954</v>
       </c>
       <c r="W170">
         <v>0.1000198953209617</v>
       </c>
       <c r="X170">
-        <v>0.2398771827443367</v>
+        <v>0.3094448555138052</v>
+      </c>
+      <c r="Y170">
+        <v>-2.477707804386186</v>
       </c>
     </row>
     <row r="171">
@@ -13044,19 +13700,24 @@
         <v>0.5</v>
       </c>
       <c r="T171">
-        <v>297905538</v>
+        <v>19.51228700764163</v>
       </c>
       <c r="U171">
         <v>3.376154929771253</v>
       </c>
       <c r="V171">
-        <v>0.3559357647321875</v>
+        <v>0.352367523932827</v>
       </c>
       <c r="W171">
         <v>0.3852940856485451</v>
       </c>
       <c r="X171">
-        <v>1.082482076333204</v>
+        <v>1.093443803640642</v>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -13118,19 +13779,22 @@
         <v>1</v>
       </c>
       <c r="T172">
-        <v>1658987536</v>
+        <v>21.22947333516688</v>
       </c>
       <c r="U172">
         <v>5.498143785090247</v>
       </c>
       <c r="V172">
-        <v>0.1042340838269453</v>
+        <v>0.1311171433817493</v>
       </c>
       <c r="W172">
         <v>0.07553860992575033</v>
       </c>
       <c r="X172">
-        <v>0.7247016249614026</v>
+        <v>0.5761154337066259</v>
+      </c>
+      <c r="Y172">
+        <v>-2.87919845729804</v>
       </c>
     </row>
     <row r="173">
@@ -13192,19 +13856,24 @@
         <v>0.5</v>
       </c>
       <c r="T173">
-        <v>384657291</v>
+        <v>19.76786334258363</v>
       </c>
       <c r="U173">
         <v>3.44217181839591</v>
       </c>
       <c r="V173">
-        <v>0.3397024139739455</v>
+        <v>0.3281088671787112</v>
       </c>
       <c r="W173">
         <v>0.3929949871957466</v>
       </c>
       <c r="X173">
-        <v>1.156880172261268</v>
+        <v>1.19775789839198</v>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -13266,19 +13935,24 @@
         <v>0.25</v>
       </c>
       <c r="T174">
-        <v>46989687</v>
+        <v>17.66543871006511</v>
       </c>
       <c r="U174">
         <v>3.060911402849297</v>
       </c>
       <c r="V174">
-        <v>0.3212522428782246</v>
+        <v>0.3255035784998044</v>
       </c>
       <c r="W174">
         <v>0.3293411715953675</v>
       </c>
       <c r="X174">
-        <v>1.025179368849447</v>
+        <v>1.011789710924992</v>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -13340,19 +14014,22 @@
         <v>0.75</v>
       </c>
       <c r="T175">
-        <v>495431884</v>
+        <v>20.02094043306155</v>
       </c>
       <c r="U175">
         <v>5.03527170197612</v>
       </c>
       <c r="V175">
-        <v>0.311793992007402</v>
+        <v>0.3278226876842984</v>
       </c>
       <c r="W175">
         <v>0.1605879838093203</v>
       </c>
       <c r="X175">
-        <v>0.5150451513687535</v>
+        <v>0.4898623244891783</v>
+      </c>
+      <c r="Y175">
+        <v>-4.473541743509655</v>
       </c>
     </row>
     <row r="176">
@@ -13414,19 +14091,22 @@
         <v>0.75</v>
       </c>
       <c r="T176">
-        <v>4349629189</v>
+        <v>22.19335643450549</v>
       </c>
       <c r="U176">
         <v>4.361925746088339</v>
       </c>
       <c r="V176">
-        <v>0.4950336379559974</v>
+        <v>0.4857497601867476</v>
       </c>
       <c r="W176">
         <v>0.3233391372313261</v>
       </c>
       <c r="X176">
-        <v>0.6531659920453066</v>
+        <v>0.6656496075407585</v>
+      </c>
+      <c r="Y176">
+        <v>-3.057425842559331</v>
       </c>
     </row>
     <row r="177">
@@ -13488,19 +14168,22 @@
         <v>0.5</v>
       </c>
       <c r="T177">
-        <v>47381130</v>
+        <v>17.67373460613614</v>
       </c>
       <c r="U177">
         <v>3.039388673419731</v>
       </c>
       <c r="V177">
-        <v>0.1923173076296695</v>
+        <v>0.2158503310773394</v>
       </c>
       <c r="W177">
         <v>0.3246077307779198</v>
       </c>
       <c r="X177">
-        <v>1.687875806804615</v>
+        <v>1.503855607530258</v>
+      </c>
+      <c r="Y177">
+        <v>-2.92673940206704</v>
       </c>
     </row>
     <row r="178">
@@ -13562,19 +14245,22 @@
         <v>0.75</v>
       </c>
       <c r="T178">
-        <v>580724926</v>
+        <v>20.17978775347824</v>
       </c>
       <c r="U178">
         <v>3.2852224042531</v>
       </c>
       <c r="V178">
-        <v>0.340346856121947</v>
+        <v>0.3110831401391002</v>
       </c>
       <c r="W178">
         <v>0.372164865556368</v>
       </c>
       <c r="X178">
-        <v>1.093487008509403</v>
+        <v>1.196351770751559</v>
+      </c>
+      <c r="Y178">
+        <v>-1.861220067571054</v>
       </c>
     </row>
     <row r="179">
@@ -13636,19 +14322,22 @@
         <v>0.5</v>
       </c>
       <c r="T179">
-        <v>201453622</v>
+        <v>19.12106974908755</v>
       </c>
       <c r="U179">
         <v>3.850808058865033</v>
       </c>
       <c r="V179">
-        <v>0.388721588215646</v>
+        <v>0.385055674879393</v>
       </c>
       <c r="W179">
         <v>0.40164758534538</v>
       </c>
       <c r="X179">
-        <v>1.033252583652656</v>
+        <v>1.043089640144075</v>
+      </c>
+      <c r="Y179">
+        <v>-2.251291798606495</v>
       </c>
     </row>
     <row r="180">
@@ -13710,19 +14399,22 @@
         <v>0.5</v>
       </c>
       <c r="T180">
-        <v>329701681</v>
+        <v>19.61369880660342</v>
       </c>
       <c r="U180">
         <v>4.091938719979304</v>
       </c>
       <c r="V180">
-        <v>0.5121153455527251</v>
+        <v>0.5091920444115134</v>
       </c>
       <c r="W180">
         <v>0.3750526688921776</v>
       </c>
       <c r="X180">
-        <v>0.7323597547880234</v>
+        <v>0.7365642747337809</v>
+      </c>
+      <c r="Y180">
+        <v>-5.583496308781699</v>
       </c>
     </row>
     <row r="181">
@@ -13784,19 +14476,22 @@
         <v>1</v>
       </c>
       <c r="T181">
-        <v>490192814</v>
+        <v>20.01030936962811</v>
       </c>
       <c r="U181">
         <v>6.043140229571797</v>
       </c>
       <c r="V181">
-        <v>0.1884495407666272</v>
+        <v>0.1903758970721542</v>
       </c>
       <c r="W181">
         <v>0.0233688208085433</v>
       </c>
       <c r="X181">
-        <v>0.124005719056025</v>
+        <v>0.122750942571718</v>
+      </c>
+      <c r="Y181">
+        <v>-3.448222320307018</v>
       </c>
     </row>
     <row r="182">
@@ -13858,19 +14553,22 @@
         <v>0.25</v>
       </c>
       <c r="T182">
-        <v>12955223</v>
+        <v>16.37700958526131</v>
       </c>
       <c r="U182">
         <v>2.783712487013088</v>
       </c>
       <c r="V182">
-        <v>0.03440299952701498</v>
+        <v>0.07174751739400582</v>
       </c>
       <c r="W182">
         <v>0.2634438770325501</v>
       </c>
       <c r="X182">
-        <v>7.657584532002234</v>
+        <v>3.671818713751894</v>
+      </c>
+      <c r="Y182">
+        <v>-2.914763211020324</v>
       </c>
     </row>
     <row r="183">
@@ -13932,19 +14630,22 @@
         <v>0.75</v>
       </c>
       <c r="T183">
-        <v>3270066120</v>
+        <v>21.90807604183463</v>
       </c>
       <c r="U183">
         <v>3.631393376174019</v>
       </c>
       <c r="V183">
-        <v>0.3131941265098355</v>
+        <v>0.2889538803292085</v>
       </c>
       <c r="W183">
         <v>0.4056297128133662</v>
       </c>
       <c r="X183">
-        <v>1.295138313523347</v>
+        <v>1.403787041555654</v>
+      </c>
+      <c r="Y183">
+        <v>-1.484983737960694</v>
       </c>
     </row>
     <row r="184">
@@ -14006,19 +14707,24 @@
         <v>0.5</v>
       </c>
       <c r="T184">
-        <v>25717548</v>
+        <v>17.06268411841894</v>
       </c>
       <c r="U184">
         <v>3.360034333076965</v>
       </c>
       <c r="V184">
-        <v>0.5066214324686629</v>
+        <v>0.5184144901786899</v>
       </c>
       <c r="W184">
         <v>0.3831730963068291</v>
       </c>
       <c r="X184">
-        <v>0.7563302137450143</v>
+        <v>0.7391249734835825</v>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -14080,19 +14786,24 @@
         <v>0.5</v>
       </c>
       <c r="T185">
-        <v>180853581</v>
+        <v>19.01319831710635</v>
       </c>
       <c r="U185">
         <v>3.570788496034003</v>
       </c>
       <c r="V185">
-        <v>0.4709342250064193</v>
+        <v>0.4683538490946051</v>
       </c>
       <c r="W185">
         <v>0.4031679817936294</v>
       </c>
       <c r="X185">
-        <v>0.8561025306413731</v>
+        <v>0.8608191916710211</v>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -14154,19 +14865,22 @@
         <v>0.5</v>
       </c>
       <c r="T186">
-        <v>615327599</v>
+        <v>20.23766536524728</v>
       </c>
       <c r="U186">
         <v>3.936004589630235</v>
       </c>
       <c r="V186">
-        <v>0.4434416240358162</v>
+        <v>0.4283233381536125</v>
       </c>
       <c r="W186">
         <v>0.3947561144333541</v>
       </c>
       <c r="X186">
-        <v>0.8902098789027304</v>
+        <v>0.9216311119889994</v>
+      </c>
+      <c r="Y186">
+        <v>-3.843030133941195</v>
       </c>
     </row>
     <row r="187">
@@ -14228,19 +14942,22 @@
         <v>0</v>
       </c>
       <c r="T187">
-        <v>1706857200</v>
+        <v>21.25791962172337</v>
       </c>
       <c r="U187">
         <v>3.996694016976627</v>
       </c>
       <c r="V187">
-        <v>0.2813515913083832</v>
+        <v>0.2663265506023489</v>
       </c>
       <c r="W187">
         <v>0.3881306825817232</v>
       </c>
       <c r="X187">
-        <v>1.379521902743752</v>
+        <v>1.457348813717185</v>
+      </c>
+      <c r="Y187">
+        <v>-2.614959778036198</v>
       </c>
     </row>
     <row r="188">
@@ -14302,19 +15019,24 @@
         <v>0.25</v>
       </c>
       <c r="T188">
-        <v>129713291</v>
+        <v>18.68083711897865</v>
       </c>
       <c r="U188">
         <v>2.297474328787597</v>
       </c>
       <c r="V188">
-        <v>0.4923082673917298</v>
+        <v>0.472003645513373</v>
       </c>
       <c r="W188">
         <v>0.1468579919446261</v>
       </c>
       <c r="X188">
-        <v>0.2983049476757438</v>
+        <v>0.3111374103581266</v>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -14376,19 +15098,24 @@
         <v>0.25</v>
       </c>
       <c r="T189">
-        <v>66051125</v>
+        <v>18.00593962133865</v>
       </c>
       <c r="U189">
         <v>1.870357708869541</v>
       </c>
       <c r="V189">
-        <v>0.1561541081883415</v>
+        <v>0.1606322869296064</v>
       </c>
       <c r="W189">
         <v>0.07177750953712049</v>
       </c>
       <c r="X189">
-        <v>0.4596581567392885</v>
+        <v>0.4468436010537248</v>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -14450,19 +15177,24 @@
         <v>0.25</v>
       </c>
       <c r="T190">
-        <v>69897267</v>
+        <v>18.06253710772722</v>
       </c>
       <c r="U190">
         <v>2.130910280617394</v>
       </c>
       <c r="V190">
-        <v>0.3021917486107832</v>
+        <v>0.2911883348747132</v>
       </c>
       <c r="W190">
         <v>0.1136157523675963</v>
       </c>
       <c r="X190">
-        <v>0.3759723847189853</v>
+        <v>0.3901796149096448</v>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -14524,19 +15256,24 @@
         <v>0.5</v>
       </c>
       <c r="T191">
-        <v>114254831</v>
+        <v>18.55394187130852</v>
       </c>
       <c r="U191">
         <v>3.882737424940628</v>
       </c>
       <c r="V191">
-        <v>0.4370192506796314</v>
+        <v>0.4460455095718445</v>
       </c>
       <c r="W191">
         <v>0.399403452947967</v>
       </c>
       <c r="X191">
-        <v>0.9139264513561677</v>
+        <v>0.8954320677532461</v>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -14598,19 +15335,22 @@
         <v>0.25</v>
       </c>
       <c r="T192">
-        <v>40494681</v>
+        <v>17.51668119011846</v>
       </c>
       <c r="U192">
         <v>2.728026447950781</v>
       </c>
       <c r="V192">
-        <v>0.5176072521043888</v>
+        <v>0.5186441158767133</v>
       </c>
       <c r="W192">
         <v>0.2494766684049743</v>
       </c>
       <c r="X192">
-        <v>0.4819806279581664</v>
+        <v>0.4810170611562039</v>
+      </c>
+      <c r="Y192">
+        <v>-0.777291857067499</v>
       </c>
     </row>
     <row r="193">
@@ -14672,19 +15412,24 @@
         <v>0.75</v>
       </c>
       <c r="T193">
-        <v>130310060</v>
+        <v>18.68542724556147</v>
       </c>
       <c r="U193">
         <v>4.467859184064563</v>
       </c>
       <c r="V193">
-        <v>0.4972019756067334</v>
+        <v>0.4982557064042012</v>
       </c>
       <c r="W193">
         <v>0.2988105312825742</v>
       </c>
       <c r="X193">
-        <v>0.6009841994652917</v>
+        <v>0.5997132144035484</v>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -14746,19 +15491,22 @@
         <v>0.25</v>
       </c>
       <c r="T194">
-        <v>32142224</v>
+        <v>17.2856811131416</v>
       </c>
       <c r="U194">
         <v>2.846395949563558</v>
       </c>
       <c r="V194">
-        <v>0.3873713408635917</v>
+        <v>0.413831475678204</v>
       </c>
       <c r="W194">
         <v>0.2790267398996684</v>
       </c>
       <c r="X194">
-        <v>0.7203081654869362</v>
+        <v>0.6742520960794195</v>
+      </c>
+      <c r="Y194">
+        <v>-1.96009478404727</v>
       </c>
     </row>
     <row r="195">
@@ -14820,19 +15568,24 @@
         <v>0.75</v>
       </c>
       <c r="T195">
-        <v>157274649</v>
+        <v>18.87350419165822</v>
       </c>
       <c r="U195">
         <v>3.986680011260305</v>
       </c>
       <c r="V195">
-        <v>0.4313715740132546</v>
+        <v>0.4467825003088773</v>
       </c>
       <c r="W195">
         <v>0.3893187729150671</v>
       </c>
       <c r="X195">
-        <v>0.9025137407480277</v>
+        <v>0.8713832181115344</v>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -14894,19 +15647,22 @@
         <v>0.25</v>
       </c>
       <c r="T196">
-        <v>66264746</v>
+        <v>18.00916857919518</v>
       </c>
       <c r="U196">
         <v>3.018066465224253</v>
       </c>
       <c r="V196">
-        <v>0.4074174048431453</v>
+        <v>0.4154392116183462</v>
       </c>
       <c r="W196">
         <v>0.3198337163333685</v>
       </c>
       <c r="X196">
-        <v>0.7850271307297335</v>
+        <v>0.7698688698340588</v>
+      </c>
+      <c r="Y196">
+        <v>-2.47092040781326</v>
       </c>
     </row>
     <row r="197">
@@ -14968,19 +15724,24 @@
         <v>0.75</v>
       </c>
       <c r="T197">
-        <v>22104069</v>
+        <v>16.91127226718747</v>
       </c>
       <c r="U197">
         <v>4.091784441041966</v>
       </c>
       <c r="V197">
-        <v>0.3936887227144997</v>
+        <v>0.3535883466355493</v>
       </c>
       <c r="W197">
         <v>0.375076349807663</v>
       </c>
       <c r="X197">
-        <v>0.9527231240496207</v>
+        <v>1.060771242538323</v>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -15042,19 +15803,22 @@
         <v>0.5</v>
       </c>
       <c r="T198">
-        <v>289460886</v>
+        <v>19.48353073704101</v>
       </c>
       <c r="U198">
         <v>3.677031754731904</v>
       </c>
       <c r="V198">
-        <v>0.3090217972711173</v>
+        <v>0.2944740884610415</v>
       </c>
       <c r="W198">
         <v>0.4064687128794</v>
       </c>
       <c r="X198">
-        <v>1.315339941935515</v>
+        <v>1.380320811938519</v>
+      </c>
+      <c r="Y198">
+        <v>-2.002123293895866</v>
       </c>
     </row>
     <row r="199">
@@ -15116,19 +15880,22 @@
         <v>0.75</v>
       </c>
       <c r="T199">
-        <v>98724379</v>
+        <v>18.40784247491715</v>
       </c>
       <c r="U199">
         <v>3.274932015544058</v>
       </c>
       <c r="V199">
-        <v>0.4615421589666867</v>
+        <v>0.4593683466667617</v>
       </c>
       <c r="W199">
         <v>0.3705071056405782</v>
       </c>
       <c r="X199">
-        <v>0.80275896457667</v>
+        <v>0.8065577620422204</v>
+      </c>
+      <c r="Y199">
+        <v>-2.484906649788</v>
       </c>
     </row>
     <row r="200">
@@ -15190,19 +15957,22 @@
         <v>1</v>
       </c>
       <c r="T200">
-        <v>136766023</v>
+        <v>18.73378216242078</v>
       </c>
       <c r="U200">
         <v>4.969278503759521</v>
       </c>
       <c r="V200">
-        <v>0.240944552943257</v>
+        <v>0.2548651438801708</v>
       </c>
       <c r="W200">
         <v>0.1756067187368181</v>
       </c>
       <c r="X200">
-        <v>0.7288262655938684</v>
+        <v>0.689018184532062</v>
+      </c>
+      <c r="Y200">
+        <v>-2.144580843850798</v>
       </c>
     </row>
     <row r="201">
@@ -15264,19 +16034,22 @@
         <v>1</v>
       </c>
       <c r="T201">
-        <v>646816149</v>
+        <v>20.28757265288801</v>
       </c>
       <c r="U201">
         <v>5.001772535040621</v>
       </c>
       <c r="V201">
-        <v>0.2434416506455779</v>
+        <v>0.2905729223912188</v>
       </c>
       <c r="W201">
         <v>0.1681389235464248</v>
       </c>
       <c r="X201">
-        <v>0.6906744310209063</v>
+        <v>0.5786462212746978</v>
+      </c>
+      <c r="Y201">
+        <v>-3.601868077124307</v>
       </c>
     </row>
     <row r="202">
@@ -15338,19 +16111,22 @@
         <v>0.75</v>
       </c>
       <c r="T202">
-        <v>710717436</v>
+        <v>20.38178549105464</v>
       </c>
       <c r="U202">
         <v>5.518103919840173</v>
       </c>
       <c r="V202">
-        <v>0.07842321150729673</v>
+        <v>0.1148349967017843</v>
       </c>
       <c r="W202">
         <v>0.07275638316781881</v>
       </c>
       <c r="X202">
-        <v>0.9277404198251858</v>
+        <v>0.6335732595243616</v>
+      </c>
+      <c r="Y202">
+        <v>-2.417188475733049</v>
       </c>
     </row>
     <row r="203">
@@ -15412,19 +16188,24 @@
         <v>0.75</v>
       </c>
       <c r="T203">
-        <v>21110401</v>
+        <v>16.86527641538071</v>
       </c>
       <c r="U203">
         <v>2.713310589138307</v>
       </c>
       <c r="V203">
-        <v>0.5079515295300481</v>
+        <v>0.5030813378944221</v>
       </c>
       <c r="W203">
         <v>0.2457787157272516</v>
       </c>
       <c r="X203">
-        <v>0.4838625369523815</v>
+        <v>0.4885466766784168</v>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -15486,19 +16267,22 @@
         <v>0.25</v>
       </c>
       <c r="T204">
-        <v>118073079</v>
+        <v>18.58681430429376</v>
       </c>
       <c r="U204">
         <v>2.896383935576904</v>
       </c>
       <c r="V204">
-        <v>0.4678370998397845</v>
+        <v>0.4566702601662693</v>
       </c>
       <c r="W204">
         <v>0.2912584974192141</v>
       </c>
       <c r="X204">
-        <v>0.6225639170535182</v>
+        <v>0.6377873113812352</v>
+      </c>
+      <c r="Y204">
+        <v>-2.953962860677696</v>
       </c>
     </row>
     <row r="205">
@@ -15560,19 +16344,22 @@
         <v>0.75</v>
       </c>
       <c r="T205">
-        <v>46750792</v>
+        <v>17.66034175473194</v>
       </c>
       <c r="U205">
         <v>4.446800735322121</v>
       </c>
       <c r="V205">
-        <v>0.4877623279595918</v>
+        <v>0.4786772724943129</v>
       </c>
       <c r="W205">
         <v>0.3038155345252599</v>
       </c>
       <c r="X205">
-        <v>0.6228761778224685</v>
+        <v>0.6346980564632291</v>
+      </c>
+      <c r="Y205">
+        <v>-2.755396321699409</v>
       </c>
     </row>
     <row r="206">
@@ -15634,19 +16421,22 @@
         <v>0.25</v>
       </c>
       <c r="T206">
-        <v>35025026</v>
+        <v>17.37157339251398</v>
       </c>
       <c r="U206">
         <v>1.877053163771472</v>
       </c>
       <c r="V206">
-        <v>0.4498764422991527</v>
+        <v>0.449024077655937</v>
       </c>
       <c r="W206">
         <v>0.07269373703879022</v>
       </c>
       <c r="X206">
-        <v>0.1615860049645616</v>
+        <v>0.1618927372854413</v>
+      </c>
+      <c r="Y206">
+        <v>-2.240709689275958</v>
       </c>
     </row>
     <row r="207">
@@ -15708,19 +16498,22 @@
         <v>0.25</v>
       </c>
       <c r="T207">
-        <v>31935988</v>
+        <v>17.27924408234176</v>
       </c>
       <c r="U207">
         <v>2.316827147193162</v>
       </c>
       <c r="V207">
-        <v>0.5130893458300835</v>
+        <v>0.5180501184614048</v>
       </c>
       <c r="W207">
         <v>0.1510206786283852</v>
       </c>
       <c r="X207">
-        <v>0.2943360252083616</v>
+        <v>0.2915175062152531</v>
+      </c>
+      <c r="Y207">
+        <v>-0.186235456115091</v>
       </c>
     </row>
     <row r="208">
@@ -15782,19 +16575,22 @@
         <v>0</v>
       </c>
       <c r="T208">
-        <v>283694373</v>
+        <v>19.46340806525033</v>
       </c>
       <c r="U208">
         <v>2.309555533817797</v>
       </c>
       <c r="V208">
-        <v>0.1126917256274099</v>
+        <v>0.1053471403365407</v>
       </c>
       <c r="W208">
         <v>0.1494497503043902</v>
       </c>
       <c r="X208">
-        <v>1.326182108511787</v>
+        <v>1.418640789175291</v>
+      </c>
+      <c r="Y208">
+        <v>-1.514972446181341</v>
       </c>
     </row>
     <row r="209">
@@ -15856,19 +16652,22 @@
         <v>1</v>
       </c>
       <c r="T209">
-        <v>325752492</v>
+        <v>19.60164842397834</v>
       </c>
       <c r="U209">
         <v>5.665581913240851</v>
       </c>
       <c r="V209">
-        <v>0.04418389967409077</v>
+        <v>0.04865711511705019</v>
       </c>
       <c r="W209">
         <v>0.05443562970938619</v>
       </c>
       <c r="X209">
-        <v>1.232024110839338</v>
+        <v>1.118759909592567</v>
+      </c>
+      <c r="Y209">
+        <v>-3.95647476799898</v>
       </c>
     </row>
     <row r="210">
@@ -15930,19 +16729,24 @@
         <v>0.5</v>
       </c>
       <c r="T210">
-        <v>25554064</v>
+        <v>17.05630692263054</v>
       </c>
       <c r="U210">
         <v>3.828434687319463</v>
       </c>
       <c r="V210">
-        <v>0.5098832064494082</v>
+        <v>0.499924218703287</v>
       </c>
       <c r="W210">
         <v>0.4029732795979725</v>
       </c>
       <c r="X210">
-        <v>0.7903246753390698</v>
+        <v>0.8060687290630013</v>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -16004,19 +16808,22 @@
         <v>0.25</v>
       </c>
       <c r="T211">
-        <v>660597309</v>
+        <v>20.30865499734318</v>
       </c>
       <c r="U211">
         <v>3.275024029980357</v>
       </c>
       <c r="V211">
-        <v>0.3090115970623359</v>
+        <v>0.2786704685084299</v>
       </c>
       <c r="W211">
         <v>0.3705220767548723</v>
       </c>
       <c r="X211">
-        <v>1.199055570332294</v>
+        <v>1.329606537564147</v>
+      </c>
+      <c r="Y211">
+        <v>-5.749392985908253</v>
       </c>
     </row>
     <row r="212">
@@ -16078,19 +16885,22 @@
         <v>0.5</v>
       </c>
       <c r="T212">
-        <v>34325424</v>
+        <v>17.35139686205476</v>
       </c>
       <c r="U212">
         <v>3.403667322392398</v>
       </c>
       <c r="V212">
-        <v>0.3142486767579765</v>
+        <v>0.3544102798595433</v>
       </c>
       <c r="W212">
         <v>0.3886986705962465</v>
       </c>
       <c r="X212">
-        <v>1.23691426359007</v>
+        <v>1.096747731895057</v>
+      </c>
+      <c r="Y212">
+        <v>-3.102342008612249</v>
       </c>
     </row>
     <row r="213">
@@ -16152,19 +16962,24 @@
         <v>0.75</v>
       </c>
       <c r="T213">
-        <v>427955549</v>
+        <v>19.87452989067587</v>
       </c>
       <c r="U213">
         <v>4.677210751325535</v>
       </c>
       <c r="V213">
-        <v>0.5110486805772699</v>
+        <v>0.5170261959240865</v>
       </c>
       <c r="W213">
         <v>0.2470581643937943</v>
       </c>
       <c r="X213">
-        <v>0.4834337192979787</v>
+        <v>0.4778445779758307</v>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -16226,19 +17041,22 @@
         <v>0.25</v>
       </c>
       <c r="T214">
-        <v>117968423</v>
+        <v>18.5859275449233</v>
       </c>
       <c r="U214">
         <v>2.870578220614855</v>
       </c>
       <c r="V214">
-        <v>0.459865648012397</v>
+        <v>0.457159179070136</v>
       </c>
       <c r="W214">
         <v>0.2849708136578289</v>
       </c>
       <c r="X214">
-        <v>0.6196827592787421</v>
+        <v>0.6233513986035695</v>
+      </c>
+      <c r="Y214">
+        <v>-2.119535998881714</v>
       </c>
     </row>
     <row r="215">
@@ -16300,19 +17118,22 @@
         <v>0.75</v>
       </c>
       <c r="T215">
-        <v>68402418</v>
+        <v>18.04091873284515</v>
       </c>
       <c r="U215">
         <v>3.26450404108504</v>
       </c>
       <c r="V215">
-        <v>0.4514425733825153</v>
+        <v>0.4690966490962146</v>
       </c>
       <c r="W215">
         <v>0.3687933365834426</v>
       </c>
       <c r="X215">
-        <v>0.8169219261271521</v>
+        <v>0.7861777254089931</v>
+      </c>
+      <c r="Y215">
+        <v>-0.2342444978736561</v>
       </c>
     </row>
     <row r="216">
@@ -16374,19 +17195,24 @@
         <v>0.5</v>
       </c>
       <c r="T216">
-        <v>36910477</v>
+        <v>17.42400599824969</v>
       </c>
       <c r="U216">
         <v>3.611486619582419</v>
       </c>
       <c r="V216">
-        <v>0.4946651840461807</v>
+        <v>0.4762333032142379</v>
       </c>
       <c r="W216">
         <v>0.4049898037648392</v>
       </c>
       <c r="X216">
-        <v>0.818714995165357</v>
+        <v>0.8504021055046855</v>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -16448,19 +17274,22 @@
         <v>0.25</v>
       </c>
       <c r="T217">
-        <v>31954215</v>
+        <v>17.27981465496913</v>
       </c>
       <c r="U217">
         <v>2.465100916677993</v>
       </c>
       <c r="V217">
-        <v>0.2965133230196257</v>
+        <v>0.3106824940619632</v>
       </c>
       <c r="W217">
         <v>0.1846861115070627</v>
       </c>
       <c r="X217">
-        <v>0.6228594035042353</v>
+        <v>0.594452906220807</v>
+      </c>
+      <c r="Y217">
+        <v>-3.058036156890146</v>
       </c>
     </row>
     <row r="218">
@@ -16522,19 +17351,22 @@
         <v>1</v>
       </c>
       <c r="T218">
-        <v>1356777924</v>
+        <v>21.02837855223275</v>
       </c>
       <c r="U218">
         <v>6.528204973495603</v>
       </c>
       <c r="V218">
-        <v>0.03575731915422709</v>
+        <v>0.04022480523295733</v>
       </c>
       <c r="W218">
         <v>0.006345365890357203</v>
       </c>
       <c r="X218">
-        <v>0.1774564212431199</v>
+        <v>0.157747585192986</v>
+      </c>
+      <c r="Y218">
+        <v>-3.779516728218869</v>
       </c>
     </row>
     <row r="219">
@@ -16596,19 +17428,24 @@
         <v>0.25</v>
       </c>
       <c r="T219">
-        <v>180658696</v>
+        <v>19.0121201516814</v>
       </c>
       <c r="U219">
         <v>3.494526393633524</v>
       </c>
       <c r="V219">
-        <v>0.2355010378388536</v>
+        <v>0.2454882042009321</v>
       </c>
       <c r="W219">
         <v>0.3979288172929778</v>
       </c>
       <c r="X219">
-        <v>1.689711522907465</v>
+        <v>1.620969197229831</v>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -16670,19 +17507,22 @@
         <v>0.25</v>
       </c>
       <c r="T220">
-        <v>184896893</v>
+        <v>19.03530889253851</v>
       </c>
       <c r="U220">
         <v>3.054756092661425</v>
       </c>
       <c r="V220">
-        <v>0.5010443997587545</v>
+        <v>0.4866303610099855</v>
       </c>
       <c r="W220">
         <v>0.3279965562867561</v>
       </c>
       <c r="X220">
-        <v>0.654625730663154</v>
+        <v>0.674015808643772</v>
+      </c>
+      <c r="Y220">
+        <v>-4.310799125385514</v>
       </c>
     </row>
     <row r="221">
@@ -16744,19 +17584,22 @@
         <v>1</v>
       </c>
       <c r="T221">
-        <v>46591797</v>
+        <v>17.65693505355785</v>
       </c>
       <c r="U221">
         <v>5.612663227006712</v>
       </c>
       <c r="V221">
-        <v>0.0156820216528707</v>
+        <v>0.01262447909745766</v>
       </c>
       <c r="W221">
         <v>0.06056465375571092</v>
       </c>
       <c r="X221">
-        <v>3.862043752797915</v>
+        <v>4.797398236249411</v>
+      </c>
+      <c r="Y221">
+        <v>-3.622116237954254</v>
       </c>
     </row>
     <row r="222">
@@ -16818,19 +17661,24 @@
         <v>0.25</v>
       </c>
       <c r="T222">
-        <v>70377195</v>
+        <v>18.06937983399101</v>
       </c>
       <c r="U222">
         <v>1.706077086964074</v>
       </c>
       <c r="V222">
-        <v>0.2267025833283096</v>
+        <v>0.2216233233257294</v>
       </c>
       <c r="W222">
         <v>0.05181958911894755</v>
       </c>
       <c r="X222">
-        <v>0.2285796145688497</v>
+        <v>0.2338183018886782</v>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -16892,19 +17740,22 @@
         <v>0.25</v>
       </c>
       <c r="T223">
-        <v>36555834</v>
+        <v>17.41435134838569</v>
       </c>
       <c r="U223">
         <v>2.451082474168256</v>
       </c>
       <c r="V223">
-        <v>0.4314614873510221</v>
+        <v>0.4492394796799162</v>
       </c>
       <c r="W223">
         <v>0.1813826356410455</v>
       </c>
       <c r="X223">
-        <v>0.4203912538165401</v>
+        <v>0.4037548876387285</v>
+      </c>
+      <c r="Y223">
+        <v>-0.5877866649021189</v>
       </c>
     </row>
     <row r="224">
@@ -16966,19 +17817,24 @@
         <v>1</v>
       </c>
       <c r="T224">
-        <v>27544247</v>
+        <v>17.13130425143052</v>
       </c>
       <c r="U224">
         <v>4.790768392182905</v>
       </c>
       <c r="V224">
-        <v>0.2145982136018861</v>
+        <v>0.1941940838395555</v>
       </c>
       <c r="W224">
         <v>0.2186387536561095</v>
       </c>
       <c r="X224">
-        <v>1.018828395569589</v>
+        <v>1.125877520742343</v>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -17040,19 +17896,22 @@
         <v>1</v>
       </c>
       <c r="T225">
-        <v>341858961</v>
+        <v>19.64990881523194</v>
       </c>
       <c r="U225">
         <v>5.039569490682286</v>
       </c>
       <c r="V225">
-        <v>0.335210271956026</v>
+        <v>0.3537544908724668</v>
       </c>
       <c r="W225">
         <v>0.1596306378954772</v>
       </c>
       <c r="X225">
-        <v>0.4762104602701973</v>
+        <v>0.4512469580295057</v>
+      </c>
+      <c r="Y225">
+        <v>-2.309537612308927</v>
       </c>
     </row>
     <row r="226">
@@ -17114,19 +17973,24 @@
         <v>1</v>
       </c>
       <c r="T226">
-        <v>1033256985</v>
+        <v>20.75598177155586</v>
       </c>
       <c r="U226">
         <v>5.138848705418729</v>
       </c>
       <c r="V226">
-        <v>0.2869011328185978</v>
+        <v>0.3144880252663919</v>
       </c>
       <c r="W226">
         <v>0.1382964561940713</v>
       </c>
       <c r="X226">
-        <v>0.4820352392317445</v>
+        <v>0.4397511036451234</v>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -17188,19 +18052,24 @@
         <v>1</v>
       </c>
       <c r="T227">
-        <v>120421592</v>
+        <v>18.60650941030847</v>
       </c>
       <c r="U227">
         <v>4.56545657459748</v>
       </c>
       <c r="V227">
-        <v>0.4707423006988566</v>
+        <v>0.4619382265320822</v>
       </c>
       <c r="W227">
         <v>0.2750109276912085</v>
       </c>
       <c r="X227">
-        <v>0.5842069584206296</v>
+        <v>0.595341350629939</v>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -17262,19 +18131,22 @@
         <v>0.75</v>
       </c>
       <c r="T228">
-        <v>490349601</v>
+        <v>20.01062916609778</v>
       </c>
       <c r="U228">
         <v>2.788606275520503</v>
       </c>
       <c r="V228">
-        <v>0.2780935494801884</v>
+        <v>0.2363702006503667</v>
       </c>
       <c r="W228">
         <v>0.26466735256446</v>
       </c>
       <c r="X228">
-        <v>0.9517205740988073</v>
+        <v>1.119715394902718</v>
+      </c>
+      <c r="Y228">
+        <v>-4.990432586778736</v>
       </c>
     </row>
     <row r="229">
@@ -17336,19 +18208,24 @@
         <v>0.25</v>
       </c>
       <c r="T229">
-        <v>26534896</v>
+        <v>17.09397125488465</v>
       </c>
       <c r="U229">
         <v>2.975570669608467</v>
       </c>
       <c r="V229">
-        <v>0.5153146664854978</v>
+        <v>0.5198336089834583</v>
       </c>
       <c r="W229">
         <v>0.3100903562293187</v>
       </c>
       <c r="X229">
-        <v>0.6017495258657565</v>
+        <v>0.5965184837427204</v>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -17410,19 +18287,24 @@
         <v>0.25</v>
       </c>
       <c r="T230">
-        <v>37544808</v>
+        <v>17.44104565763968</v>
       </c>
       <c r="U230">
         <v>2.594450129894678</v>
       </c>
       <c r="V230">
-        <v>0.2567189465986041</v>
+        <v>0.2716327577682117</v>
       </c>
       <c r="W230">
         <v>0.2160622007401222</v>
       </c>
       <c r="X230">
-        <v>0.8416293522657244</v>
+        <v>0.795420267111124</v>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -17484,19 +18366,24 @@
         <v>0.75</v>
       </c>
       <c r="T231">
-        <v>28560380</v>
+        <v>17.16753100066927</v>
       </c>
       <c r="U231">
         <v>3.313385357033245</v>
       </c>
       <c r="V231">
-        <v>0.4811745437185296</v>
+        <v>0.4660161326930203</v>
       </c>
       <c r="W231">
         <v>0.3765280824188669</v>
       </c>
       <c r="X231">
-        <v>0.7825187083029123</v>
+        <v>0.8079722052603231</v>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -17558,19 +18445,22 @@
         <v>0.5</v>
       </c>
       <c r="T232">
-        <v>419893354</v>
+        <v>19.85551131795117</v>
       </c>
       <c r="U232">
         <v>5.037311661132642</v>
       </c>
       <c r="V232">
-        <v>0.4716033226326167</v>
+        <v>0.4836455971557976</v>
       </c>
       <c r="W232">
         <v>0.1601332457691019</v>
       </c>
       <c r="X232">
-        <v>0.3395507157905399</v>
+        <v>0.3310962545938734</v>
+      </c>
+      <c r="Y232">
+        <v>-4.987025428457122</v>
       </c>
     </row>
     <row r="233">
@@ -17632,19 +18522,24 @@
         <v>0.75</v>
       </c>
       <c r="T233">
-        <v>15891038</v>
+        <v>16.58126586048258</v>
       </c>
       <c r="U233">
         <v>3.17871857080914</v>
       </c>
       <c r="V233">
-        <v>0.5061637487173618</v>
+        <v>0.4964607164159668</v>
       </c>
       <c r="W233">
         <v>0.3534743364133028</v>
       </c>
       <c r="X233">
-        <v>0.6983398896286434</v>
+        <v>0.7119885314695055</v>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -17706,19 +18601,22 @@
         <v>0.25</v>
       </c>
       <c r="T234">
-        <v>323602676</v>
+        <v>19.5950270125829</v>
       </c>
       <c r="U234">
         <v>3.624417250864775</v>
       </c>
       <c r="V234">
-        <v>0.4605892153341208</v>
+        <v>0.4538133614010196</v>
       </c>
       <c r="W234">
         <v>0.4054243383663563</v>
       </c>
       <c r="X234">
-        <v>0.8802297684548546</v>
+        <v>0.8933724144100209</v>
+      </c>
+      <c r="Y234">
+        <v>-3.837299459232209</v>
       </c>
     </row>
     <row r="235">
@@ -17780,19 +18678,24 @@
         <v>0.75</v>
       </c>
       <c r="T235">
-        <v>513248234</v>
+        <v>20.05627017303908</v>
       </c>
       <c r="U235">
         <v>3.56803823933295</v>
       </c>
       <c r="V235">
-        <v>0.4078671371645488</v>
+        <v>0.3944895723893477</v>
       </c>
       <c r="W235">
         <v>0.4030201561873205</v>
       </c>
       <c r="X235">
-        <v>0.9881162747974157</v>
+        <v>1.0216243581454</v>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -17854,19 +18757,22 @@
         <v>0.25</v>
       </c>
       <c r="T236">
-        <v>1153582884</v>
+        <v>20.86613848735299</v>
       </c>
       <c r="U236">
         <v>3.321629945985171</v>
       </c>
       <c r="V236">
-        <v>0.4151779833680995</v>
+        <v>0.3802929495121082</v>
       </c>
       <c r="W236">
         <v>0.3777561641469738</v>
       </c>
       <c r="X236">
-        <v>0.9098655980802641</v>
+        <v>0.9933293915430489</v>
+      </c>
+      <c r="Y236">
+        <v>-3.080497540181701</v>
       </c>
     </row>
     <row r="237">
@@ -17928,19 +18834,22 @@
         <v>1</v>
       </c>
       <c r="T237">
-        <v>143175105</v>
+        <v>18.77957894961218</v>
       </c>
       <c r="U237">
         <v>5.965822794412198</v>
       </c>
       <c r="V237">
-        <v>0.0422069642652733</v>
+        <v>0.03856741810783858</v>
       </c>
       <c r="W237">
         <v>0.02812403996666849</v>
       </c>
       <c r="X237">
-        <v>0.6663364792100946</v>
+        <v>0.7292175973001538</v>
+      </c>
+      <c r="Y237">
+        <v>-1.808019990099835</v>
       </c>
     </row>
     <row r="238">
@@ -18002,19 +18911,22 @@
         <v>0.5</v>
       </c>
       <c r="T238">
-        <v>17137157</v>
+        <v>16.65675958806452</v>
       </c>
       <c r="U238">
         <v>3.614751632006416</v>
       </c>
       <c r="V238">
-        <v>0.5155384661988814</v>
+        <v>0.5037908937906248</v>
       </c>
       <c r="W238">
         <v>0.4051061193522475</v>
       </c>
       <c r="X238">
-        <v>0.7857922267937384</v>
+        <v>0.8041156049966425</v>
+      </c>
+      <c r="Y238">
+        <v>-2.406125771934886</v>
       </c>
     </row>
     <row r="239">
@@ -18076,19 +18988,22 @@
         <v>0.25</v>
       </c>
       <c r="T239">
-        <v>15961331</v>
+        <v>16.58567954249866</v>
       </c>
       <c r="U239">
         <v>2.387680307577888</v>
       </c>
       <c r="V239">
-        <v>0.3072261471447669</v>
+        <v>0.3383029260710467</v>
       </c>
       <c r="W239">
         <v>0.166738875030076</v>
       </c>
       <c r="X239">
-        <v>0.5427235818945697</v>
+        <v>0.4928685570844261</v>
+      </c>
+      <c r="Y239">
+        <v>-0.7366322924996841</v>
       </c>
     </row>
     <row r="240">
@@ -18150,19 +19065,24 @@
         <v>0.5</v>
       </c>
       <c r="T240">
-        <v>30933189</v>
+        <v>17.24734024312916</v>
       </c>
       <c r="U240">
         <v>3.7578934361767</v>
       </c>
       <c r="V240">
-        <v>0.5175744103606831</v>
+        <v>0.5143907666458205</v>
       </c>
       <c r="W240">
         <v>0.4057983020806041</v>
       </c>
       <c r="X240">
-        <v>0.7840385729229052</v>
+        <v>0.7888911084595986</v>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -18224,19 +19144,22 @@
         <v>0.75</v>
       </c>
       <c r="T241">
-        <v>614288152</v>
+        <v>20.23597467895483</v>
       </c>
       <c r="U241">
         <v>4.573090467118394</v>
       </c>
       <c r="V241">
-        <v>0.329713218263961</v>
+        <v>0.3623495825198804</v>
       </c>
       <c r="W241">
         <v>0.2731173795214032</v>
       </c>
       <c r="X241">
-        <v>0.828348286912633</v>
+        <v>0.7537400143311012</v>
+      </c>
+      <c r="Y241">
+        <v>-1.470175845100593</v>
       </c>
     </row>
     <row r="242">
@@ -18298,19 +19221,24 @@
         <v>0.75</v>
       </c>
       <c r="T242">
-        <v>21776827</v>
+        <v>16.89635698074226</v>
       </c>
       <c r="U242">
         <v>3.262996865336905</v>
       </c>
       <c r="V242">
-        <v>0.3878531521908927</v>
+        <v>0.3580635642181835</v>
       </c>
       <c r="W242">
         <v>0.3685428561169865</v>
       </c>
       <c r="X242">
-        <v>0.9502123523688624</v>
+        <v>1.029266568693422</v>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -18372,19 +19300,22 @@
         <v>0.25</v>
       </c>
       <c r="T243">
-        <v>206331267</v>
+        <v>19.14499352739103</v>
       </c>
       <c r="U243">
         <v>3.555985997156883</v>
       </c>
       <c r="V243">
-        <v>0.3319079767262295</v>
+        <v>0.325345474530049</v>
       </c>
       <c r="W243">
         <v>0.4023357157654639</v>
       </c>
       <c r="X243">
-        <v>1.212190558762394</v>
+        <v>1.236641500382401</v>
+      </c>
+      <c r="Y243">
+        <v>-4.113602378826515</v>
       </c>
     </row>
     <row r="244">
@@ -18446,19 +19377,22 @@
         <v>0.25</v>
       </c>
       <c r="T244">
-        <v>104189793</v>
+        <v>18.46172472663143</v>
       </c>
       <c r="U244">
         <v>2.915283599963701</v>
       </c>
       <c r="V244">
-        <v>0.3533469765761066</v>
+        <v>0.354628752635652</v>
       </c>
       <c r="W244">
         <v>0.295821508855214</v>
       </c>
       <c r="X244">
-        <v>0.8371983587398764</v>
+        <v>0.8341723750728779</v>
+      </c>
+      <c r="Y244">
+        <v>-2.131113552224157</v>
       </c>
     </row>
     <row r="245">
@@ -18520,19 +19454,22 @@
         <v>0.5</v>
       </c>
       <c r="T245">
-        <v>135866863</v>
+        <v>18.72718601568785</v>
       </c>
       <c r="U245">
         <v>2.976758952813972</v>
       </c>
       <c r="V245">
-        <v>0.4993589959652052</v>
+        <v>0.4961070315903399</v>
       </c>
       <c r="W245">
         <v>0.3103666377971687</v>
       </c>
       <c r="X245">
-        <v>0.6215300821751787</v>
+        <v>0.6256041902938674</v>
+      </c>
+      <c r="Y245">
+        <v>-1.499953679592412</v>
       </c>
     </row>
     <row r="246">
@@ -18594,19 +19531,22 @@
         <v>0.25</v>
       </c>
       <c r="T246">
-        <v>130504448</v>
+        <v>18.68691786843736</v>
       </c>
       <c r="U246">
         <v>3.336365060974417</v>
       </c>
       <c r="V246">
-        <v>0.2313331710316752</v>
+        <v>0.2288533275627142</v>
       </c>
       <c r="W246">
         <v>0.37989423123928</v>
       </c>
       <c r="X246">
-        <v>1.642195235318255</v>
+        <v>1.659989982602176</v>
+      </c>
+      <c r="Y246">
+        <v>-2.290006310787186</v>
       </c>
     </row>
     <row r="247">
@@ -18668,19 +19608,24 @@
         <v>0.5</v>
       </c>
       <c r="T247">
-        <v>88392171</v>
+        <v>18.29729396033749</v>
       </c>
       <c r="U247">
         <v>3.267602290386876</v>
       </c>
       <c r="V247">
-        <v>0.3231761398165411</v>
+        <v>0.33157025015613</v>
       </c>
       <c r="W247">
         <v>0.3693060390985379</v>
       </c>
       <c r="X247">
-        <v>1.142739186464024</v>
+        <v>1.113809332787362</v>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -18742,19 +19687,24 @@
         <v>0.5</v>
       </c>
       <c r="T248">
-        <v>53313176</v>
+        <v>17.79169406308889</v>
       </c>
       <c r="U248">
         <v>3.440621249945194</v>
       </c>
       <c r="V248">
-        <v>0.344498644198299</v>
+        <v>0.3533067468215058</v>
       </c>
       <c r="W248">
         <v>0.3928327495251379</v>
       </c>
       <c r="X248">
-        <v>1.140302744701129</v>
+        <v>1.11187446336427</v>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -18816,19 +19766,22 @@
         <v>0.5</v>
       </c>
       <c r="T249">
-        <v>1169342987</v>
+        <v>20.87970787845541</v>
       </c>
       <c r="U249">
         <v>4.531430300661247</v>
       </c>
       <c r="V249">
-        <v>0.5172609117798375</v>
+        <v>0.5197469635082029</v>
       </c>
       <c r="W249">
         <v>0.2834032317666891</v>
       </c>
       <c r="X249">
-        <v>0.547892224818477</v>
+        <v>0.5452715487816722</v>
+      </c>
+      <c r="Y249">
+        <v>-3.68498839862097</v>
       </c>
     </row>
     <row r="250">
@@ -18890,19 +19843,22 @@
         <v>0.5</v>
       </c>
       <c r="T250">
-        <v>115432823</v>
+        <v>18.56419929967253</v>
       </c>
       <c r="U250">
         <v>3.239918009827735</v>
       </c>
       <c r="V250">
-        <v>0.3941831052081632</v>
+        <v>0.4070166918655722</v>
       </c>
       <c r="W250">
         <v>0.3646210649654562</v>
       </c>
       <c r="X250">
-        <v>0.9250042940650749</v>
+        <v>0.8958381124228727</v>
+      </c>
+      <c r="Y250">
+        <v>-0.4599532933922342</v>
       </c>
     </row>
     <row r="251">
@@ -18964,19 +19920,22 @@
         <v>0.25</v>
       </c>
       <c r="T251">
-        <v>250971159</v>
+        <v>19.34084858611157</v>
       </c>
       <c r="U251">
         <v>4.488842955199497</v>
       </c>
       <c r="V251">
-        <v>0.5170380563331306</v>
+        <v>0.5184855176216482</v>
       </c>
       <c r="W251">
         <v>0.293770682332052</v>
       </c>
       <c r="X251">
-        <v>0.5681799990033497</v>
+        <v>0.5665938051261517</v>
+      </c>
+      <c r="Y251">
+        <v>-3.526360524616162</v>
       </c>
     </row>
     <row r="252">
@@ -19038,19 +19997,22 @@
         <v>1</v>
       </c>
       <c r="T252">
-        <v>700320410</v>
+        <v>20.36704851685334</v>
       </c>
       <c r="U252">
         <v>5.598131046234211</v>
       </c>
       <c r="V252">
-        <v>0.1993954593497733</v>
+        <v>0.2166967368976207</v>
       </c>
       <c r="W252">
         <v>0.06233366557496849</v>
       </c>
       <c r="X252">
-        <v>0.3126132650073276</v>
+        <v>0.2876539188701226</v>
+      </c>
+      <c r="Y252">
+        <v>-4.546191935431157</v>
       </c>
     </row>
     <row r="253">
@@ -19112,19 +20074,22 @@
         <v>0.75</v>
       </c>
       <c r="T253">
-        <v>762209871</v>
+        <v>20.45173249698929</v>
       </c>
       <c r="U253">
         <v>3.72543230915714</v>
       </c>
       <c r="V253">
-        <v>0.2922981242785166</v>
+        <v>0.2690352165979482</v>
       </c>
       <c r="W253">
         <v>0.4063987259637143</v>
       </c>
       <c r="X253">
-        <v>1.390356941108787</v>
+        <v>1.510578173009391</v>
+      </c>
+      <c r="Y253">
+        <v>-3.804437794748209</v>
       </c>
     </row>
     <row r="254">
@@ -19186,19 +20151,22 @@
         <v>0.25</v>
       </c>
       <c r="T254">
-        <v>100984173</v>
+        <v>18.43047435955604</v>
       </c>
       <c r="U254">
         <v>3.007289999380569</v>
       </c>
       <c r="V254">
-        <v>0.4864467973392422</v>
+        <v>0.4772531656882809</v>
       </c>
       <c r="W254">
         <v>0.3173906393066709</v>
       </c>
       <c r="X254">
-        <v>0.6524673223109463</v>
+        <v>0.6650362158393212</v>
+      </c>
+      <c r="Y254">
+        <v>-2.120263536200091</v>
       </c>
     </row>
     <row r="255">
@@ -19260,19 +20228,22 @@
         <v>0.75</v>
       </c>
       <c r="T255">
-        <v>220133828</v>
+        <v>19.20974622846257</v>
       </c>
       <c r="U255">
         <v>3.822332929495603</v>
       </c>
       <c r="V255">
-        <v>0.5025494626229656</v>
+        <v>0.5042307238816099</v>
       </c>
       <c r="W255">
         <v>0.4032991984848507</v>
       </c>
       <c r="X255">
-        <v>0.8025064764369736</v>
+        <v>0.7998306715231869</v>
+      </c>
+      <c r="Y255">
+        <v>-0.604019400663938</v>
       </c>
     </row>
     <row r="256">
@@ -19334,19 +20305,24 @@
         <v>0.25</v>
       </c>
       <c r="T256">
-        <v>160434288</v>
+        <v>18.89339499613812</v>
       </c>
       <c r="U256">
         <v>2.444703949299257</v>
       </c>
       <c r="V256">
-        <v>0.1179722844701857</v>
+        <v>0.1138067000831214</v>
       </c>
       <c r="W256">
         <v>0.179886993019533</v>
       </c>
       <c r="X256">
-        <v>1.524824189235689</v>
+        <v>1.580636226936976</v>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -19408,19 +20384,22 @@
         <v>0.5</v>
       </c>
       <c r="T257">
-        <v>60033154</v>
+        <v>17.9104075342443</v>
       </c>
       <c r="U257">
         <v>3.553474605188119</v>
       </c>
       <c r="V257">
-        <v>0.383909532550135</v>
+        <v>0.4144523028695712</v>
       </c>
       <c r="W257">
         <v>0.4021856029586615</v>
       </c>
       <c r="X257">
-        <v>1.047605148762853</v>
+        <v>0.9704026257642242</v>
+      </c>
+      <c r="Y257">
+        <v>-4.540250639888776</v>
       </c>
     </row>
     <row r="258">
@@ -19482,19 +20461,24 @@
         <v>0.25</v>
       </c>
       <c r="T258">
-        <v>70189094</v>
+        <v>18.06670350080167</v>
       </c>
       <c r="U258">
         <v>3.352498726756252</v>
       </c>
       <c r="V258">
-        <v>0.4093126569196482</v>
+        <v>0.405733030485657</v>
       </c>
       <c r="W258">
         <v>0.3821502673185012</v>
       </c>
       <c r="X258">
-        <v>0.9336390186280525</v>
+        <v>0.9418761564989482</v>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -19556,19 +20540,24 @@
         <v>0.25</v>
       </c>
       <c r="T259">
-        <v>133365467</v>
+        <v>18.70860378986771</v>
       </c>
       <c r="U259">
         <v>3.784815425669402</v>
       </c>
       <c r="V259">
-        <v>0.5145396850311016</v>
+        <v>0.5168048600170931</v>
       </c>
       <c r="W259">
         <v>0.4049646764186491</v>
       </c>
       <c r="X259">
-        <v>0.7870426484094629</v>
+        <v>0.7835930111130438</v>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -19630,19 +20619,22 @@
         <v>0.75</v>
       </c>
       <c r="T260">
-        <v>699354109</v>
+        <v>20.36566776562811</v>
       </c>
       <c r="U260">
         <v>4.799131776857873</v>
       </c>
       <c r="V260">
-        <v>0.4588232818895789</v>
+        <v>0.4792375312503654</v>
       </c>
       <c r="W260">
         <v>0.2165651113826754</v>
       </c>
       <c r="X260">
-        <v>0.4720011384138834</v>
+        <v>0.4518951402191755</v>
+      </c>
+      <c r="Y260">
+        <v>-3.465735902799727</v>
       </c>
     </row>
     <row r="261">
@@ -19704,19 +20696,24 @@
         <v>0.75</v>
       </c>
       <c r="T261">
-        <v>136542098</v>
+        <v>18.73214353529703</v>
       </c>
       <c r="U261">
         <v>2.989388220671758</v>
       </c>
       <c r="V261">
-        <v>0.4960883767193249</v>
+        <v>0.4918353599484217</v>
       </c>
       <c r="W261">
         <v>0.3132898673066853</v>
       </c>
       <c r="X261">
-        <v>0.6315202734208331</v>
+        <v>0.6369811787008151</v>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -19778,19 +20775,24 @@
         <v>0.75</v>
       </c>
       <c r="T262">
-        <v>161216969</v>
+        <v>18.89826164924603</v>
       </c>
       <c r="U262">
         <v>4.079280711710195</v>
       </c>
       <c r="V262">
-        <v>0.5176174876039172</v>
+        <v>0.5196617321750575</v>
       </c>
       <c r="W262">
         <v>0.3769695955344953</v>
       </c>
       <c r="X262">
-        <v>0.7282783224336381</v>
+        <v>0.7254134222211811</v>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -19852,19 +20854,24 @@
         <v>0.25</v>
       </c>
       <c r="T263">
-        <v>22280376</v>
+        <v>16.91921684900304</v>
       </c>
       <c r="U263">
         <v>2.828731303281714</v>
       </c>
       <c r="V263">
-        <v>0.4608865106410215</v>
+        <v>0.4947724747366971</v>
       </c>
       <c r="W263">
         <v>0.2746577796369734</v>
       </c>
       <c r="X263">
-        <v>0.5959336480795828</v>
+        <v>0.5551193602334851</v>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -19926,19 +20933,24 @@
         <v>0.5</v>
       </c>
       <c r="T264">
-        <v>171838699</v>
+        <v>18.96206679825984</v>
       </c>
       <c r="U264">
         <v>3.415718093147026</v>
       </c>
       <c r="V264">
-        <v>0.3815416364280146</v>
+        <v>0.3877515132653666</v>
       </c>
       <c r="W264">
         <v>0.3901027888970137</v>
       </c>
       <c r="X264">
-        <v>1.022438317739444</v>
+        <v>1.006063872225401</v>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -20000,19 +21012,22 @@
         <v>0.75</v>
       </c>
       <c r="T265">
-        <v>201368459</v>
+        <v>19.12064691724548</v>
       </c>
       <c r="U265">
         <v>3.776496039002432</v>
       </c>
       <c r="V265">
-        <v>0.5013891200926472</v>
+        <v>0.503174242519321</v>
       </c>
       <c r="W265">
         <v>0.4052546657303272</v>
       </c>
       <c r="X265">
-        <v>0.8082637805452256</v>
+        <v>0.805396285193923</v>
+      </c>
+      <c r="Y265">
+        <v>-3.851919081358441</v>
       </c>
     </row>
     <row r="266">
@@ -20074,19 +21089,22 @@
         <v>0.25</v>
       </c>
       <c r="T266">
-        <v>60000409</v>
+        <v>17.90986193682981</v>
       </c>
       <c r="U266">
         <v>3.068553490675058</v>
       </c>
       <c r="V266">
-        <v>0.4462502077489376</v>
+        <v>0.4485457111810783</v>
       </c>
       <c r="W266">
         <v>0.3310001195031154</v>
       </c>
       <c r="X266">
-        <v>0.7417366171610559</v>
+        <v>0.7379406630186022</v>
+      </c>
+      <c r="Y266">
+        <v>-1.55814461804655</v>
       </c>
     </row>
     <row r="267">
@@ -20148,19 +21166,22 @@
         <v>1</v>
       </c>
       <c r="T267">
-        <v>60065034</v>
+        <v>17.91093843319089</v>
       </c>
       <c r="U267">
         <v>4.390768392182905</v>
       </c>
       <c r="V267">
-        <v>0.4491319389728151</v>
+        <v>0.4318969852848962</v>
       </c>
       <c r="W267">
         <v>0.3168334686766134</v>
       </c>
       <c r="X267">
-        <v>0.7054351765791268</v>
+        <v>0.733585737968552</v>
+      </c>
+      <c r="Y267">
+        <v>-2.525728644308256</v>
       </c>
     </row>
     <row r="268">
@@ -20222,19 +21243,24 @@
         <v>0.75</v>
       </c>
       <c r="T268">
-        <v>89797050</v>
+        <v>18.31306268195332</v>
       </c>
       <c r="U268">
         <v>3.528333416519352</v>
       </c>
       <c r="V268">
-        <v>0.494221589970294</v>
+        <v>0.5033078355901087</v>
       </c>
       <c r="W268">
         <v>0.4005413024387713</v>
       </c>
       <c r="X268">
-        <v>0.8104488160115516</v>
+        <v>0.7958177364140423</v>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="269">
@@ -20296,19 +21322,24 @@
         <v>0.5</v>
       </c>
       <c r="T269">
-        <v>152674111</v>
+        <v>18.84381621423026</v>
       </c>
       <c r="U269">
         <v>4.717854589541359</v>
       </c>
       <c r="V269">
-        <v>0.273632058879304</v>
+        <v>0.2741945470230018</v>
       </c>
       <c r="W269">
         <v>0.2368494135909673</v>
       </c>
       <c r="X269">
-        <v>0.8655762579904385</v>
+        <v>0.8638005976504645</v>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -20370,19 +21401,22 @@
         <v>0.75</v>
       </c>
       <c r="T270">
-        <v>120118833</v>
+        <v>18.6039920857475</v>
       </c>
       <c r="U270">
         <v>4.762570852641188</v>
       </c>
       <c r="V270">
-        <v>0.2060645103756889</v>
+        <v>0.1958951507605174</v>
       </c>
       <c r="W270">
         <v>0.2256567345803599</v>
       </c>
       <c r="X270">
-        <v>1.095078110097421</v>
+        <v>1.151926087523351</v>
+      </c>
+      <c r="Y270">
+        <v>-4.820281565605037</v>
       </c>
     </row>
     <row r="271">
@@ -20444,19 +21478,24 @@
         <v>0.25</v>
       </c>
       <c r="T271">
-        <v>38016186</v>
+        <v>17.45352257436925</v>
       </c>
       <c r="U271">
         <v>3.50412505439755</v>
       </c>
       <c r="V271">
-        <v>0.4851851129665051</v>
+        <v>0.5052270894904428</v>
       </c>
       <c r="W271">
         <v>0.3987169378029179</v>
       </c>
       <c r="X271">
-        <v>0.8217831238990292</v>
+        <v>0.7891836089095146</v>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -20518,19 +21557,24 @@
         <v>0.5</v>
       </c>
       <c r="T272">
-        <v>65111361</v>
+        <v>17.99160960808166</v>
       </c>
       <c r="U272">
         <v>3.877875080753513</v>
       </c>
       <c r="V272">
-        <v>0.5140282597269342</v>
+        <v>0.5189919194874493</v>
       </c>
       <c r="W272">
         <v>0.3997717083089654</v>
       </c>
       <c r="X272">
-        <v>0.7777232102401042</v>
+        <v>0.7702850339245657</v>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -20592,19 +21636,24 @@
         <v>0.25</v>
       </c>
       <c r="T273">
-        <v>88618448</v>
+        <v>18.29985061060551</v>
       </c>
       <c r="U273">
         <v>1.563932109065977</v>
       </c>
       <c r="V273">
-        <v>0.04889699329626355</v>
+        <v>0.05028814980088579</v>
       </c>
       <c r="W273">
         <v>0.03821571696889196</v>
       </c>
       <c r="X273">
-        <v>0.7815555598141902</v>
+        <v>0.7599348379331073</v>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="274">
@@ -20666,19 +21715,24 @@
         <v>1</v>
       </c>
       <c r="T274">
-        <v>158280962</v>
+        <v>18.87988225229977</v>
       </c>
       <c r="U274">
         <v>3.978682983906374</v>
       </c>
       <c r="V274">
-        <v>0.5083580975198297</v>
+        <v>0.5097561593950914</v>
       </c>
       <c r="W274">
         <v>0.3902409857114111</v>
       </c>
       <c r="X274">
-        <v>0.7676497878470182</v>
+        <v>0.7655444245627075</v>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="275">
@@ -20740,19 +21794,24 @@
         <v>0.25</v>
       </c>
       <c r="T275">
-        <v>57459739</v>
+        <v>17.86659506921481</v>
       </c>
       <c r="U275">
         <v>4.346107927603121</v>
       </c>
       <c r="V275">
-        <v>0.3285878087787266</v>
+        <v>0.308228938751557</v>
       </c>
       <c r="W275">
         <v>0.3268435863323662</v>
       </c>
       <c r="X275">
-        <v>0.9946917615329578</v>
+        <v>1.060392277429256</v>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -20814,19 +21873,24 @@
         <v>1</v>
       </c>
       <c r="T276">
-        <v>434582043</v>
+        <v>19.88989530647922</v>
       </c>
       <c r="U276">
         <v>4.378874464959951</v>
       </c>
       <c r="V276">
-        <v>0.4377449659871308</v>
+        <v>0.4618232048147905</v>
       </c>
       <c r="W276">
         <v>0.3195336657622951</v>
       </c>
       <c r="X276">
-        <v>0.7299539471384557</v>
+        <v>0.691896081511194</v>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -20888,19 +21952,24 @@
         <v>0.5</v>
       </c>
       <c r="T277">
-        <v>232543683</v>
+        <v>19.26458864921469</v>
       </c>
       <c r="U277">
         <v>4.810041388728127</v>
       </c>
       <c r="V277">
-        <v>0.2317748145080993</v>
+        <v>0.2504782201226045</v>
       </c>
       <c r="W277">
         <v>0.2138663295954907</v>
       </c>
       <c r="X277">
-        <v>0.9227332574912589</v>
+        <v>0.8538320397310675</v>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -20962,19 +22031,22 @@
         <v>0.5</v>
       </c>
       <c r="T278">
-        <v>49982004</v>
+        <v>17.72717357860567</v>
       </c>
       <c r="U278">
         <v>4.049705715524576</v>
       </c>
       <c r="V278">
-        <v>0.4714314350878853</v>
+        <v>0.4545785667053195</v>
       </c>
       <c r="W278">
         <v>0.38123935244931</v>
       </c>
       <c r="X278">
-        <v>0.8086846232013325</v>
+        <v>0.8386654813324015</v>
+      </c>
+      <c r="Y278">
+        <v>-5.356586274672012</v>
       </c>
     </row>
     <row r="279">
@@ -21036,19 +22108,22 @@
         <v>1</v>
       </c>
       <c r="T279">
-        <v>70188519</v>
+        <v>18.06669530861222</v>
       </c>
       <c r="U279">
         <v>3.873581537135538</v>
       </c>
       <c r="V279">
-        <v>0.517118357050472</v>
+        <v>0.5158358905488587</v>
       </c>
       <c r="W279">
         <v>0.4000889999039924</v>
       </c>
       <c r="X279">
-        <v>0.7736894164539255</v>
+        <v>0.7756129560474951</v>
+      </c>
+      <c r="Y279">
+        <v>-2.17143182277449</v>
       </c>
     </row>
     <row r="280">
@@ -21110,19 +22185,24 @@
         <v>0.5</v>
       </c>
       <c r="T280">
-        <v>81376468</v>
+        <v>18.21459669826885</v>
       </c>
       <c r="U280">
         <v>3.503953622741722</v>
       </c>
       <c r="V280">
-        <v>0.4674325752091659</v>
+        <v>0.4667598224459192</v>
       </c>
       <c r="W280">
         <v>0.3987031829227538</v>
       </c>
       <c r="X280">
-        <v>0.8529640510063784</v>
+        <v>0.8541934497135284</v>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -21184,19 +22264,24 @@
         <v>0.25</v>
       </c>
       <c r="T281">
-        <v>174526643</v>
+        <v>18.97758796990048</v>
       </c>
       <c r="U281">
         <v>2.594662109350154</v>
       </c>
       <c r="V281">
-        <v>0.5083855634009133</v>
+        <v>0.4981284888554438</v>
       </c>
       <c r="W281">
         <v>0.2161146848827643</v>
       </c>
       <c r="X281">
-        <v>0.4250999643597984</v>
+        <v>0.4338532923088454</v>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -21258,19 +22343,22 @@
         <v>0.5</v>
       </c>
       <c r="T282">
-        <v>101623710</v>
+        <v>18.43678743202474</v>
       </c>
       <c r="U282">
         <v>3.69721678914342</v>
       </c>
       <c r="V282">
-        <v>0.4425482787387007</v>
+        <v>0.4496244553929999</v>
       </c>
       <c r="W282">
         <v>0.4065597439082426</v>
       </c>
       <c r="X282">
-        <v>0.9186788502871857</v>
+        <v>0.9042207091535622</v>
+      </c>
+      <c r="Y282">
+        <v>-2.674148649426529</v>
       </c>
     </row>
     <row r="283">
@@ -21332,19 +22420,24 @@
         <v>0.75</v>
       </c>
       <c r="T283">
-        <v>61986669</v>
+        <v>17.94242990376105</v>
       </c>
       <c r="U283">
         <v>3.665847549964675</v>
       </c>
       <c r="V283">
-        <v>0.3899749311229675</v>
+        <v>0.3883801791202521</v>
       </c>
       <c r="W283">
         <v>0.4063442470560957</v>
       </c>
       <c r="X283">
-        <v>1.041975303094461</v>
+        <v>1.046253822675851</v>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -21406,19 +22499,22 @@
         <v>0.25</v>
       </c>
       <c r="T284">
-        <v>110259689</v>
+        <v>18.51834895051599</v>
       </c>
       <c r="U284">
         <v>2.8197330838043</v>
       </c>
       <c r="V284">
-        <v>0.4065101798399725</v>
+        <v>0.4135090796925437</v>
       </c>
       <c r="W284">
         <v>0.2724246932569538</v>
       </c>
       <c r="X284">
-        <v>0.6701546646733347</v>
+        <v>0.6588118777452472</v>
+      </c>
+      <c r="Y284">
+        <v>-1.745239453593162</v>
       </c>
     </row>
     <row r="285">
@@ -21480,19 +22576,24 @@
         <v>0.25</v>
       </c>
       <c r="T285">
-        <v>63218969</v>
+        <v>17.96211495648843</v>
       </c>
       <c r="U285">
         <v>1.783769717158265</v>
       </c>
       <c r="V285">
-        <v>0.03284715086704786</v>
+        <v>0.03607249759578205</v>
       </c>
       <c r="W285">
         <v>0.0606635083350191</v>
       </c>
       <c r="X285">
-        <v>1.846842320679828</v>
+        <v>1.681710787392567</v>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="286">
@@ -21554,19 +22655,24 @@
         <v>0.25</v>
       </c>
       <c r="T286">
-        <v>107670785</v>
+        <v>18.49458884256127</v>
       </c>
       <c r="U286">
         <v>3.676069332368324</v>
       </c>
       <c r="V286">
-        <v>0.5175952127592311</v>
+        <v>0.519774271890751</v>
       </c>
       <c r="W286">
         <v>0.4064600772416149</v>
       </c>
       <c r="X286">
-        <v>0.785285619383592</v>
+        <v>0.7819934522019723</v>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="287">
@@ -21628,19 +22734,24 @@
         <v>0.25</v>
       </c>
       <c r="T287">
-        <v>34964972</v>
+        <v>17.36985731831898</v>
       </c>
       <c r="U287">
         <v>1.460378627460749</v>
       </c>
       <c r="V287">
-        <v>0.2071486261846928</v>
+        <v>0.2198049974995998</v>
       </c>
       <c r="W287">
         <v>0.03021049179517309</v>
       </c>
       <c r="X287">
-        <v>0.1458396917787789</v>
+        <v>0.1374422426188381</v>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="288">
@@ -21702,19 +22813,24 @@
         <v>0.75</v>
       </c>
       <c r="T288">
-        <v>51224613</v>
+        <v>17.75173069715587</v>
       </c>
       <c r="U288">
         <v>2.844754819417678</v>
       </c>
       <c r="V288">
-        <v>0.3556975106583691</v>
+        <v>0.3706142268483575</v>
       </c>
       <c r="W288">
         <v>0.2786217356782244</v>
       </c>
       <c r="X288">
-        <v>0.7833108957173096</v>
+        <v>0.7517837025512428</v>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -21776,19 +22892,22 @@
         <v>0.25</v>
       </c>
       <c r="T289">
-        <v>218856107</v>
+        <v>19.20392502616957</v>
       </c>
       <c r="U289">
         <v>3.316949238460334</v>
       </c>
       <c r="V289">
-        <v>0.5017460467527465</v>
+        <v>0.5001235374659536</v>
       </c>
       <c r="W289">
         <v>0.3770617198044044</v>
       </c>
       <c r="X289">
-        <v>0.7514991343623185</v>
+        <v>0.7539371606361823</v>
+      </c>
+      <c r="Y289">
+        <v>-5.183654458227897</v>
       </c>
     </row>
     <row r="290">
@@ -21850,19 +22969,22 @@
         <v>0.25</v>
       </c>
       <c r="T290">
-        <v>28530383</v>
+        <v>17.16648014756505</v>
       </c>
       <c r="U290">
         <v>3.259568598443713</v>
       </c>
       <c r="V290">
-        <v>0.4813554450241594</v>
+        <v>0.4696102895337581</v>
       </c>
       <c r="W290">
         <v>0.3679705061210908</v>
       </c>
       <c r="X290">
-        <v>0.7644465434531903</v>
+        <v>0.7835656805697806</v>
+      </c>
+      <c r="Y290">
+        <v>-1.6094379124341</v>
       </c>
     </row>
     <row r="291">
@@ -21924,19 +23046,24 @@
         <v>0.5</v>
       </c>
       <c r="T291">
-        <v>67267355</v>
+        <v>18.02418561006718</v>
       </c>
       <c r="U291">
         <v>2.984501578361022</v>
       </c>
       <c r="V291">
-        <v>0.5172782758331347</v>
+        <v>0.5189720281996734</v>
       </c>
       <c r="W291">
         <v>0.3121616637192731</v>
       </c>
       <c r="X291">
-        <v>0.6034695023998479</v>
+        <v>0.6014999783363459</v>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="292">
@@ -21998,19 +23125,22 @@
         <v>0.5</v>
       </c>
       <c r="T292">
-        <v>308999227</v>
+        <v>19.54884933324077</v>
       </c>
       <c r="U292">
         <v>4.783259637092338</v>
       </c>
       <c r="V292">
-        <v>0.4940011715966136</v>
+        <v>0.4918041680670514</v>
       </c>
       <c r="W292">
         <v>0.2205037598617846</v>
       </c>
       <c r="X292">
-        <v>0.4463628277421199</v>
+        <v>0.4483568342424493</v>
+      </c>
+      <c r="Y292">
+        <v>-2.414620117059829</v>
       </c>
     </row>
     <row r="293">
@@ -22072,19 +23202,22 @@
         <v>0.25</v>
       </c>
       <c r="T293">
-        <v>142500270</v>
+        <v>18.77485445240803</v>
       </c>
       <c r="U293">
         <v>3.199273436240721</v>
       </c>
       <c r="V293">
-        <v>0.495792666430968</v>
+        <v>0.4906923132532137</v>
       </c>
       <c r="W293">
         <v>0.3573346088683654</v>
       </c>
       <c r="X293">
-        <v>0.720733954055206</v>
+        <v>0.7282254056504218</v>
+      </c>
+      <c r="Y293">
+        <v>-1.88706964903238</v>
       </c>
     </row>
     <row r="294">
@@ -22146,19 +23279,22 @@
         <v>1</v>
       </c>
       <c r="T294">
-        <v>72247359</v>
+        <v>18.0956063306555</v>
       </c>
       <c r="U294">
         <v>4.629673771911884</v>
       </c>
       <c r="V294">
-        <v>0.2370690487132688</v>
+        <v>0.2431427486981212</v>
       </c>
       <c r="W294">
         <v>0.2589935703653981</v>
       </c>
       <c r="X294">
-        <v>1.09248158615023</v>
+        <v>1.06519142253737</v>
+      </c>
+      <c r="Y294">
+        <v>-0.7037292898904823</v>
       </c>
     </row>
     <row r="295">
@@ -22220,19 +23356,22 @@
         <v>0.25</v>
       </c>
       <c r="T295">
-        <v>108795098</v>
+        <v>18.50497683622405</v>
       </c>
       <c r="U295">
         <v>3.221857633903396</v>
       </c>
       <c r="V295">
-        <v>0.5142522449110993</v>
+        <v>0.5197462538428381</v>
       </c>
       <c r="W295">
         <v>0.3614417169877123</v>
       </c>
       <c r="X295">
-        <v>0.7028490795411035</v>
+        <v>0.6954195712144676</v>
+      </c>
+      <c r="Y295">
+        <v>-2.970414465569701</v>
       </c>
     </row>
     <row r="296">
@@ -22294,19 +23433,22 @@
         <v>0.75</v>
       </c>
       <c r="T296">
-        <v>294058000</v>
+        <v>19.4992875847576</v>
       </c>
       <c r="U296">
         <v>4.880365894770243</v>
       </c>
       <c r="V296">
-        <v>0.06742499817200805</v>
+        <v>0.08790487635407636</v>
       </c>
       <c r="W296">
         <v>0.1966745191266615</v>
       </c>
       <c r="X296">
-        <v>2.916937700538378</v>
+        <v>2.237356188688174</v>
+      </c>
+      <c r="Y296">
+        <v>-1.687399453903812</v>
       </c>
     </row>
     <row r="297">
@@ -22368,19 +23510,22 @@
         <v>0.5</v>
       </c>
       <c r="T297">
-        <v>96842444</v>
+        <v>18.38859592722083</v>
       </c>
       <c r="U297">
         <v>4.416435252916765</v>
       </c>
       <c r="V297">
-        <v>0.2578906556751818</v>
+        <v>0.2580432048413412</v>
       </c>
       <c r="W297">
         <v>0.3109282979735063</v>
       </c>
       <c r="X297">
-        <v>1.205659418560424</v>
+        <v>1.204946660636469</v>
+      </c>
+      <c r="Y297">
+        <v>-4.127134385045092</v>
       </c>
     </row>
     <row r="298">
@@ -22442,19 +23587,22 @@
         <v>0.25</v>
       </c>
       <c r="T298">
-        <v>85316144</v>
+        <v>18.26187425598447</v>
       </c>
       <c r="U298">
         <v>2.80658912460911</v>
       </c>
       <c r="V298">
-        <v>0.1044129210770021</v>
+        <v>0.1092306471073435</v>
       </c>
       <c r="W298">
         <v>0.2691546691604071</v>
       </c>
       <c r="X298">
-        <v>2.577790817306143</v>
+        <v>2.464094796544624</v>
+      </c>
+      <c r="Y298">
+        <v>-1.615303031886498</v>
       </c>
     </row>
     <row r="299">
@@ -22516,19 +23664,22 @@
         <v>0.25</v>
       </c>
       <c r="T299">
-        <v>193098291</v>
+        <v>19.07870989702296</v>
       </c>
       <c r="U299">
         <v>3.920204591104038</v>
       </c>
       <c r="V299">
-        <v>0.4937849166158074</v>
+        <v>0.491093990598898</v>
       </c>
       <c r="W299">
         <v>0.3962507185586985</v>
       </c>
       <c r="X299">
-        <v>0.8024763520004479</v>
+        <v>0.806873482763378</v>
+      </c>
+      <c r="Y299">
+        <v>-1.967416354276277</v>
       </c>
     </row>
     <row r="300">
@@ -22590,19 +23741,22 @@
         <v>0.5</v>
       </c>
       <c r="T300">
-        <v>22665837</v>
+        <v>16.93636937086119</v>
       </c>
       <c r="U300">
         <v>2.870090075649597</v>
       </c>
       <c r="V300">
-        <v>0.4564361062962821</v>
+        <v>0.4894911165848292</v>
       </c>
       <c r="W300">
         <v>0.2848512937390792</v>
       </c>
       <c r="X300">
-        <v>0.6240770390635493</v>
+        <v>0.5819335307379664</v>
+      </c>
+      <c r="Y300">
+        <v>-4.749270529961848</v>
       </c>
     </row>
     <row r="301">
@@ -22664,19 +23818,22 @@
         <v>0.25</v>
       </c>
       <c r="T301">
-        <v>49133504</v>
+        <v>17.71005172258675</v>
       </c>
       <c r="U301">
         <v>2.715512979783846</v>
       </c>
       <c r="V301">
-        <v>0.4922792839391762</v>
+        <v>0.4997495276851115</v>
       </c>
       <c r="W301">
         <v>0.2463321725213745</v>
       </c>
       <c r="X301">
-        <v>0.5003911002515601</v>
+        <v>0.4929112662945559</v>
+      </c>
+      <c r="Y301">
+        <v>-2.397895272798371</v>
       </c>
     </row>
     <row r="302">
@@ -22738,19 +23895,24 @@
         <v>0.25</v>
       </c>
       <c r="T302">
-        <v>82808138</v>
+        <v>18.23203689954999</v>
       </c>
       <c r="U302">
         <v>2.42044216409479</v>
       </c>
       <c r="V302">
-        <v>0.3435113616100249</v>
+        <v>0.3343173752795779</v>
       </c>
       <c r="W302">
         <v>0.174242595734989</v>
       </c>
       <c r="X302">
-        <v>0.5072396875559527</v>
+        <v>0.521189171185841</v>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="303">
@@ -22812,19 +23974,22 @@
         <v>1</v>
       </c>
       <c r="T303">
-        <v>51815554</v>
+        <v>17.76320093242789</v>
       </c>
       <c r="U303">
         <v>4.873596479884579</v>
       </c>
       <c r="V303">
-        <v>0.03940921673857689</v>
+        <v>0.03922534740867165</v>
       </c>
       <c r="W303">
         <v>0.1983117412989511</v>
       </c>
       <c r="X303">
-        <v>5.032115776734728</v>
+        <v>5.055703885368516</v>
+      </c>
+      <c r="Y303">
+        <v>-1.333184535805942</v>
       </c>
     </row>
     <row r="304">
@@ -22886,19 +24051,22 @@
         <v>0.25</v>
       </c>
       <c r="T304">
-        <v>16645531</v>
+        <v>16.62765232995433</v>
       </c>
       <c r="U304">
         <v>2.204463033910798</v>
       </c>
       <c r="V304">
-        <v>0.3917988398505664</v>
+        <v>0.4285015258952768</v>
       </c>
       <c r="W304">
         <v>0.1277027931551143</v>
       </c>
       <c r="X304">
-        <v>0.3259396919189977</v>
+        <v>0.2980217932440318</v>
+      </c>
+      <c r="Y304">
+        <v>-1.783791299578878</v>
       </c>
     </row>
     <row r="305">
@@ -22960,19 +24128,22 @@
         <v>0.25</v>
       </c>
       <c r="T305">
-        <v>85660865</v>
+        <v>18.26590662816262</v>
       </c>
       <c r="U305">
         <v>2.432134105229757</v>
       </c>
       <c r="V305">
-        <v>0.328976566104882</v>
+        <v>0.3044232345504731</v>
       </c>
       <c r="W305">
         <v>0.1769537192535716</v>
       </c>
       <c r="X305">
-        <v>0.5378915627599946</v>
+        <v>0.5812753402836368</v>
+      </c>
+      <c r="Y305">
+        <v>-2.148434413166787</v>
       </c>
     </row>
     <row r="306">
@@ -23034,19 +24205,22 @@
         <v>0.25</v>
       </c>
       <c r="T306">
-        <v>38695655</v>
+        <v>17.47123787779502</v>
       </c>
       <c r="U306">
         <v>2.683256482669687</v>
       </c>
       <c r="V306">
-        <v>0.5134206622070088</v>
+        <v>0.5181079037442412</v>
       </c>
       <c r="W306">
         <v>0.2382293120548286</v>
       </c>
       <c r="X306">
-        <v>0.464004138498765</v>
+        <v>0.4598063653019045</v>
+      </c>
+      <c r="Y306">
+        <v>-3.982792076316353</v>
       </c>
     </row>
     <row r="307">
@@ -23108,19 +24282,24 @@
         <v>0.5</v>
       </c>
       <c r="T307">
-        <v>18108859</v>
+        <v>16.7119118240095</v>
       </c>
       <c r="U307">
         <v>2.633428093766457</v>
       </c>
       <c r="V307">
-        <v>0.462776926742261</v>
+        <v>0.4475077546409733</v>
       </c>
       <c r="W307">
         <v>0.2257531233313514</v>
       </c>
       <c r="X307">
-        <v>0.4878227722383452</v>
+        <v>0.5044675114344525</v>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="308">
@@ -23182,19 +24361,24 @@
         <v>0.25</v>
       </c>
       <c r="T308">
-        <v>40019060</v>
+        <v>17.50486639858813</v>
       </c>
       <c r="U308">
         <v>3.271936494350436</v>
       </c>
       <c r="V308">
-        <v>0.5061909062381997</v>
+        <v>0.5133047291119733</v>
       </c>
       <c r="W308">
         <v>0.3700182756187012</v>
       </c>
       <c r="X308">
-        <v>0.7309856243142001</v>
+        <v>0.7208549904826312</v>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -23256,19 +24440,22 @@
         <v>0.5</v>
       </c>
       <c r="T309">
-        <v>89973463</v>
+        <v>18.31502532926054</v>
       </c>
       <c r="U309">
         <v>2.439985994283678</v>
       </c>
       <c r="V309">
-        <v>0.2907838299307827</v>
+        <v>0.2796082491940032</v>
       </c>
       <c r="W309">
         <v>0.1787838023649592</v>
       </c>
       <c r="X309">
-        <v>0.614834058714738</v>
+        <v>0.639408182270445</v>
+      </c>
+      <c r="Y309">
+        <v>-1.763588592261359</v>
       </c>
     </row>
     <row r="310">
@@ -23330,19 +24517,22 @@
         <v>0.25</v>
       </c>
       <c r="T310">
-        <v>165485490</v>
+        <v>18.92439407522182</v>
       </c>
       <c r="U310">
         <v>3.199499846476465</v>
       </c>
       <c r="V310">
-        <v>0.3136963679523909</v>
+        <v>0.3173320783164189</v>
       </c>
       <c r="W310">
         <v>0.3573764902076323</v>
       </c>
       <c r="X310">
-        <v>1.139243315248937</v>
+        <v>1.126190872677184</v>
+      </c>
+      <c r="Y310">
+        <v>-3.295836866004329</v>
       </c>
     </row>
     <row r="311">
@@ -23404,19 +24594,24 @@
         <v>1</v>
       </c>
       <c r="T311">
-        <v>56268226</v>
+        <v>17.84564056434416</v>
       </c>
       <c r="U311">
         <v>4.47041925417658</v>
       </c>
       <c r="V311">
-        <v>0.422035092051205</v>
+        <v>0.4013042932174475</v>
       </c>
       <c r="W311">
         <v>0.298198359754585</v>
       </c>
       <c r="X311">
-        <v>0.7065724281487118</v>
+        <v>0.7430729369072703</v>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -23478,19 +24673,22 @@
         <v>0.25</v>
       </c>
       <c r="T312">
-        <v>64112266</v>
+        <v>17.97614626083872</v>
       </c>
       <c r="U312">
         <v>2.278743139948388</v>
       </c>
       <c r="V312">
-        <v>0.3159001387871922</v>
+        <v>0.324601298725929</v>
       </c>
       <c r="W312">
         <v>0.1428853778999851</v>
       </c>
       <c r="X312">
-        <v>0.4523118554127659</v>
+        <v>0.440187326609028</v>
+      </c>
+      <c r="Y312">
+        <v>-1.933487629056756</v>
       </c>
     </row>
     <row r="313">
@@ -23552,19 +24750,24 @@
         <v>0.5</v>
       </c>
       <c r="T313">
-        <v>1318291025</v>
+        <v>20.99960205669471</v>
       </c>
       <c r="U313">
         <v>3.906611287775308</v>
       </c>
       <c r="V313">
-        <v>0.3276336635158299</v>
+        <v>0.3111234642641534</v>
       </c>
       <c r="W313">
         <v>0.3974586350835018</v>
       </c>
       <c r="X313">
-        <v>1.213119039168264</v>
+        <v>1.277494887836705</v>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -23626,19 +24829,24 @@
         <v>0.5</v>
       </c>
       <c r="T314">
-        <v>39107955</v>
+        <v>17.48183645694732</v>
       </c>
       <c r="U314">
         <v>3.628128599951521</v>
       </c>
       <c r="V314">
-        <v>0.4447705006872351</v>
+        <v>0.4240598138885997</v>
       </c>
       <c r="W314">
         <v>0.405536137706264</v>
       </c>
       <c r="X314">
-        <v>0.9117873983990658</v>
+        <v>0.9563182466820545</v>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="315">
@@ -23700,19 +24908,24 @@
         <v>0.25</v>
       </c>
       <c r="T315">
-        <v>169691592</v>
+        <v>18.9494931827189</v>
       </c>
       <c r="U315">
         <v>3.139700306009183</v>
       </c>
       <c r="V315">
-        <v>0.1948422083604802</v>
+        <v>0.1957380207652041</v>
       </c>
       <c r="W315">
         <v>0.345843225290256</v>
       </c>
       <c r="X315">
-        <v>1.774991302964535</v>
+        <v>1.766867897908855</v>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="316">
@@ -23774,19 +24987,22 @@
         <v>0.25</v>
       </c>
       <c r="T316">
-        <v>71252475</v>
+        <v>18.08174011335183</v>
       </c>
       <c r="U316">
         <v>1.577818213556671</v>
       </c>
       <c r="V316">
-        <v>0.04644874798381665</v>
+        <v>0.04831514606768298</v>
       </c>
       <c r="W316">
         <v>0.03940608795480573</v>
       </c>
       <c r="X316">
-        <v>0.8483778285807686</v>
+        <v>0.8156052741639884</v>
+      </c>
+      <c r="Y316">
+        <v>-2.70805020110221</v>
       </c>
     </row>
     <row r="317">
@@ -23848,19 +25064,24 @@
         <v>0.75</v>
       </c>
       <c r="T317">
-        <v>285223838</v>
+        <v>19.46878482646173</v>
       </c>
       <c r="U317">
         <v>3.492295153784176</v>
       </c>
       <c r="V317">
-        <v>0.2287507264931468</v>
+        <v>0.2211885153520106</v>
       </c>
       <c r="W317">
         <v>0.3977403877247572</v>
       </c>
       <c r="X317">
-        <v>1.738750271189513</v>
+        <v>1.798196380547937</v>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -23922,19 +25143,24 @@
         <v>0.75</v>
       </c>
       <c r="T318">
-        <v>33308912</v>
+        <v>17.32133554677241</v>
       </c>
       <c r="U318">
         <v>4.753233384530505</v>
       </c>
       <c r="V318">
-        <v>0.4114639206866778</v>
+        <v>0.3649069107507513</v>
       </c>
       <c r="W318">
         <v>0.2279885036940054</v>
       </c>
       <c r="X318">
-        <v>0.5540911176696206</v>
+        <v>0.6247853821812993</v>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -23996,19 +25222,22 @@
         <v>0.75</v>
       </c>
       <c r="T319">
-        <v>154028752</v>
+        <v>18.85264984425008</v>
       </c>
       <c r="U319">
         <v>3.281011853684326</v>
       </c>
       <c r="V319">
-        <v>0.2709817839366611</v>
+        <v>0.266688474770002</v>
       </c>
       <c r="W319">
         <v>0.371490598318082</v>
       </c>
       <c r="X319">
-        <v>1.370906165430344</v>
+        <v>1.392975825590002</v>
+      </c>
+      <c r="Y319">
+        <v>-0.6857452222642776</v>
       </c>
     </row>
     <row r="320">
@@ -24070,19 +25299,22 @@
         <v>0.75</v>
       </c>
       <c r="T320">
-        <v>387052226</v>
+        <v>19.7740701927934</v>
       </c>
       <c r="U320">
         <v>3.785110563845076</v>
       </c>
       <c r="V320">
-        <v>0.4958033285294801</v>
+        <v>0.4939815456224645</v>
       </c>
       <c r="W320">
         <v>0.4049538579436671</v>
       </c>
       <c r="X320">
-        <v>0.8167630885914652</v>
+        <v>0.8197752760852353</v>
+      </c>
+      <c r="Y320">
+        <v>-2.905409635260705</v>
       </c>
     </row>
     <row r="321">
@@ -24144,19 +25376,22 @@
         <v>0.5</v>
       </c>
       <c r="T321">
-        <v>122532561</v>
+        <v>18.62388735671104</v>
       </c>
       <c r="U321">
         <v>2.731593367592535</v>
       </c>
       <c r="V321">
-        <v>0.4921238330543906</v>
+        <v>0.4966045549369184</v>
       </c>
       <c r="W321">
         <v>0.2503728678877423</v>
       </c>
       <c r="X321">
-        <v>0.5087598914561622</v>
+        <v>0.5041694954238712</v>
+      </c>
+      <c r="Y321">
+        <v>-0.5828518646162709</v>
       </c>
     </row>
     <row r="322">
@@ -24218,19 +25453,22 @@
         <v>1</v>
       </c>
       <c r="T322">
-        <v>25179997</v>
+        <v>17.04156046743829</v>
       </c>
       <c r="U322">
         <v>4.704090693353807</v>
       </c>
       <c r="V322">
-        <v>0.1551742942173468</v>
+        <v>0.1269411306965623</v>
       </c>
       <c r="W322">
         <v>0.2403046032781819</v>
       </c>
       <c r="X322">
-        <v>1.548610899055202</v>
+        <v>1.893039726049089</v>
+      </c>
+      <c r="Y322">
+        <v>-4.23410650459726</v>
       </c>
     </row>
     <row r="323">
@@ -24292,19 +25530,22 @@
         <v>0.25</v>
       </c>
       <c r="T323">
-        <v>78719522</v>
+        <v>18.18140173853536</v>
       </c>
       <c r="U323">
         <v>2.241106674495641</v>
       </c>
       <c r="V323">
-        <v>0.05970444849011518</v>
+        <v>0.06332252530885971</v>
       </c>
       <c r="W323">
         <v>0.1350762728045004</v>
       </c>
       <c r="X323">
-        <v>2.262415552282741</v>
+        <v>2.133147282829564</v>
+      </c>
+      <c r="Y323">
+        <v>-2.993456959716855</v>
       </c>
     </row>
     <row r="324">
@@ -24366,19 +25607,24 @@
         <v>0.75</v>
       </c>
       <c r="T324">
-        <v>382352944</v>
+        <v>19.7618546771764</v>
       </c>
       <c r="U324">
         <v>3.181785878795787</v>
       </c>
       <c r="V324">
-        <v>0.5157791267188191</v>
+        <v>0.5100358633937212</v>
       </c>
       <c r="W324">
         <v>0.3540575906133017</v>
       </c>
       <c r="X324">
-        <v>0.6864519564133483</v>
+        <v>0.6941817547053306</v>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -24440,19 +25686,24 @@
         <v>0.25</v>
       </c>
       <c r="T325">
-        <v>11756579</v>
+        <v>16.2799235567542</v>
       </c>
       <c r="U325">
         <v>2.335619483719873</v>
       </c>
       <c r="V325">
-        <v>0.5056151363331897</v>
+        <v>0.5162049681298737</v>
       </c>
       <c r="W325">
         <v>0.1551179416941415</v>
       </c>
       <c r="X325">
-        <v>0.3067905419507102</v>
+        <v>0.3004968012146579</v>
+      </c>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="326">
@@ -24514,19 +25765,24 @@
         <v>0.5</v>
       </c>
       <c r="T326">
-        <v>226141223</v>
+        <v>19.23667024261099</v>
       </c>
       <c r="U326">
         <v>2.358078817706069</v>
       </c>
       <c r="V326">
-        <v>0.1260240651659719</v>
+        <v>0.1144516582472433</v>
       </c>
       <c r="W326">
         <v>0.1600837487607826</v>
       </c>
       <c r="X326">
-        <v>1.270263330657955</v>
+        <v>1.398701873021036</v>
+      </c>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -24588,19 +25844,24 @@
         <v>0.75</v>
       </c>
       <c r="T327">
-        <v>185196624</v>
+        <v>19.03692865106852</v>
       </c>
       <c r="U327">
         <v>4.273747958419355</v>
       </c>
       <c r="V327">
-        <v>0.5107446858954783</v>
+        <v>0.5120290008804881</v>
       </c>
       <c r="W327">
         <v>0.3422298101096709</v>
       </c>
       <c r="X327">
-        <v>0.6700604422533467</v>
+        <v>0.6683797392748662</v>
+      </c>
+      <c r="Y327" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -24662,19 +25923,24 @@
         <v>0.75</v>
       </c>
       <c r="T328">
-        <v>137438595</v>
+        <v>18.73868779350536</v>
       </c>
       <c r="U328">
         <v>3.843825025699114</v>
       </c>
       <c r="V328">
-        <v>0.4079472967951959</v>
+        <v>0.4220703748615686</v>
       </c>
       <c r="W328">
         <v>0.4020833222378214</v>
       </c>
       <c r="X328">
-        <v>0.9856256565408291</v>
+        <v>0.9526452131820372</v>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -24736,19 +26002,22 @@
         <v>0.75</v>
       </c>
       <c r="T329">
-        <v>997970943</v>
+        <v>20.72123471862142</v>
       </c>
       <c r="U329">
         <v>4.955904315505538</v>
       </c>
       <c r="V329">
-        <v>0.1027424374558048</v>
+        <v>0.1361736450908985</v>
       </c>
       <c r="W329">
         <v>0.1787189682513746</v>
       </c>
       <c r="X329">
-        <v>1.739485383809893</v>
+        <v>1.312434341697149</v>
+      </c>
+      <c r="Y329">
+        <v>-1.219867904670386</v>
       </c>
     </row>
     <row r="330">
@@ -24810,19 +26079,22 @@
         <v>0.75</v>
       </c>
       <c r="T330">
-        <v>469513980</v>
+        <v>19.96720863252711</v>
       </c>
       <c r="U330">
         <v>4.103865713046852</v>
       </c>
       <c r="V330">
-        <v>0.4725041248180557</v>
+        <v>0.458703851017362</v>
       </c>
       <c r="W330">
         <v>0.3731985381499968</v>
       </c>
       <c r="X330">
-        <v>0.7898312809305148</v>
+        <v>0.8135936450550338</v>
+      </c>
+      <c r="Y330">
+        <v>-1.203972804325936</v>
       </c>
     </row>
     <row r="331">
@@ -24884,19 +26156,24 @@
         <v>0.75</v>
       </c>
       <c r="T331">
-        <v>43174318</v>
+        <v>17.58075638569391</v>
       </c>
       <c r="U331">
         <v>3.967216456487126</v>
       </c>
       <c r="V331">
-        <v>0.3426143499544165</v>
+        <v>0.332227365147084</v>
       </c>
       <c r="W331">
         <v>0.3915217355945046</v>
       </c>
       <c r="X331">
-        <v>1.142747627606943</v>
+        <v>1.17847527527171</v>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -24958,19 +26235,22 @@
         <v>0.25</v>
       </c>
       <c r="T332">
-        <v>37484598</v>
+        <v>17.43944068657208</v>
       </c>
       <c r="U332">
         <v>3.423414807807389</v>
       </c>
       <c r="V332">
-        <v>0.4247201223591837</v>
+        <v>0.4548317809099997</v>
       </c>
       <c r="W332">
         <v>0.3909713805599607</v>
       </c>
       <c r="X332">
-        <v>0.9205388677801286</v>
+        <v>0.8595955625126481</v>
+      </c>
+      <c r="Y332">
+        <v>-2.528800843345226</v>
       </c>
     </row>
     <row r="333">
@@ -25032,19 +26312,22 @@
         <v>0.5</v>
       </c>
       <c r="T333">
-        <v>55841452</v>
+        <v>17.83802701894565</v>
       </c>
       <c r="U333">
         <v>3.830805556751645</v>
       </c>
       <c r="V333">
-        <v>0.5121739483232264</v>
+        <v>0.5059596565764589</v>
       </c>
       <c r="W333">
         <v>0.4028425111412789</v>
       </c>
       <c r="X333">
-        <v>0.7865345601042758</v>
+        <v>0.796194925633172</v>
+      </c>
+      <c r="Y333">
+        <v>-1.808288771179266</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -547,10 +547,10 @@
         <v>0.3605994591128398</v>
       </c>
       <c r="W2">
-        <v>0.1978563418601822</v>
+        <v>0.1998321483779884</v>
       </c>
       <c r="X2">
-        <v>1.822531720351234</v>
+        <v>1.804511746682297</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>0.1204068530512143</v>
       </c>
       <c r="W3">
-        <v>0.4671914701316042</v>
+        <v>0.4655087087986819</v>
       </c>
       <c r="X3">
-        <v>0.2577248531898424</v>
+        <v>0.258656499385249</v>
       </c>
     </row>
     <row r="4">
@@ -695,10 +695,10 @@
         <v>0.3401561966749913</v>
       </c>
       <c r="W4">
-        <v>0.212819456927439</v>
+        <v>0.1875838081479082</v>
       </c>
       <c r="X4">
-        <v>1.598332227635407</v>
+        <v>1.813355854289838</v>
       </c>
     </row>
     <row r="5">
@@ -766,13 +766,13 @@
         <v>3.821313166854809</v>
       </c>
       <c r="V5">
-        <v>0.2478814661380282</v>
+        <v>0.2478814661380281</v>
       </c>
       <c r="W5">
-        <v>0.347541617430129</v>
+        <v>0.3083757458481909</v>
       </c>
       <c r="X5">
-        <v>0.7132425404789491</v>
+        <v>0.8038293201568995</v>
       </c>
     </row>
     <row r="6">
@@ -843,10 +843,10 @@
         <v>0.1583139105970834</v>
       </c>
       <c r="W6">
-        <v>0.4687727894972047</v>
+        <v>0.4656571535950956</v>
       </c>
       <c r="X6">
-        <v>0.3377199234769737</v>
+        <v>0.3399795522839591</v>
       </c>
     </row>
     <row r="7">
@@ -917,10 +917,10 @@
         <v>0.2689631569207425</v>
       </c>
       <c r="W7">
-        <v>0.3243485091503887</v>
+        <v>0.2712665227302341</v>
       </c>
       <c r="X7">
-        <v>0.8292412307529184</v>
+        <v>0.9915088460370681</v>
       </c>
     </row>
     <row r="8">
@@ -991,10 +991,10 @@
         <v>0.3046936137586634</v>
       </c>
       <c r="W8">
-        <v>0.4333197254850015</v>
+        <v>0.427918293288948</v>
       </c>
       <c r="X8">
-        <v>0.7031611898526641</v>
+        <v>0.7120368970833452</v>
       </c>
     </row>
     <row r="9">
@@ -1065,10 +1065,10 @@
         <v>0.2217311422739512</v>
       </c>
       <c r="W9">
-        <v>0.4260169897414469</v>
+        <v>0.4422710637499923</v>
       </c>
       <c r="X9">
-        <v>0.5204748815499627</v>
+        <v>0.501346708947913</v>
       </c>
     </row>
     <row r="10">
@@ -1139,10 +1139,10 @@
         <v>0.2126318803779076</v>
       </c>
       <c r="W10">
-        <v>0.1700268046720104</v>
+        <v>0.1685617991756478</v>
       </c>
       <c r="X10">
-        <v>1.250578582524588</v>
+        <v>1.261447619910233</v>
       </c>
     </row>
     <row r="11">
@@ -1213,10 +1213,10 @@
         <v>0.3377317198523995</v>
       </c>
       <c r="W11">
-        <v>0.4505894190687595</v>
+        <v>0.4348641393138136</v>
       </c>
       <c r="X11">
-        <v>0.7495331793418389</v>
+        <v>0.7766373203026525</v>
       </c>
     </row>
     <row r="12">
@@ -1284,13 +1284,13 @@
         <v>3.462742218469666</v>
       </c>
       <c r="V12">
-        <v>0.1776431951487178</v>
+        <v>0.1776431951487177</v>
       </c>
       <c r="W12">
-        <v>0.09693139758502428</v>
+        <v>0.07782482225993693</v>
       </c>
       <c r="X12">
-        <v>1.832669285438667</v>
+        <v>2.282603287616704</v>
       </c>
     </row>
     <row r="13">
@@ -1358,13 +1358,13 @@
         <v>5.043069029928605</v>
       </c>
       <c r="V13">
-        <v>0.3505020512334936</v>
+        <v>0.3505020512334935</v>
       </c>
       <c r="W13">
-        <v>0.4597266135532949</v>
+        <v>0.4458394264476221</v>
       </c>
       <c r="X13">
-        <v>0.7624140976403596</v>
+        <v>0.786162080877948</v>
       </c>
     </row>
     <row r="14">
@@ -1435,10 +1435,10 @@
         <v>0.1373437865835598</v>
       </c>
       <c r="W14">
-        <v>0.02490593082615906</v>
+        <v>0.01953803778193952</v>
       </c>
       <c r="X14">
-        <v>5.51450124639813</v>
+        <v>7.029558859309656</v>
       </c>
     </row>
     <row r="15">
@@ -1509,10 +1509,10 @@
         <v>0.2449364662584544</v>
       </c>
       <c r="W15">
-        <v>0.2157706367720845</v>
+        <v>0.2710410838077059</v>
       </c>
       <c r="X15">
-        <v>1.135170521451338</v>
+        <v>0.9036875990070503</v>
       </c>
     </row>
     <row r="16">
@@ -1583,10 +1583,10 @@
         <v>0.3147627554174023</v>
       </c>
       <c r="W16">
-        <v>0.4535421671739964</v>
+        <v>0.4106695030669058</v>
       </c>
       <c r="X16">
-        <v>0.6940099029351048</v>
+        <v>0.7664624547640722</v>
       </c>
     </row>
     <row r="17">
@@ -1657,10 +1657,10 @@
         <v>0.2287622648209269</v>
       </c>
       <c r="W17">
-        <v>0.2364838710443621</v>
+        <v>0.2240081068928475</v>
       </c>
       <c r="X17">
-        <v>0.9673482754264169</v>
+        <v>1.021223151224404</v>
       </c>
     </row>
     <row r="18">
@@ -1728,13 +1728,13 @@
         <v>3.879438480284842</v>
       </c>
       <c r="V18">
-        <v>0.2590610790477598</v>
+        <v>0.2590610790477599</v>
       </c>
       <c r="W18">
-        <v>0.4448196216803327</v>
+        <v>0.4509676477778127</v>
       </c>
       <c r="X18">
-        <v>0.582395799153691</v>
+        <v>0.5744560176862106</v>
       </c>
     </row>
     <row r="19">
@@ -1805,10 +1805,10 @@
         <v>0.2878774825435277</v>
       </c>
       <c r="W19">
-        <v>0.2402353932281705</v>
+        <v>0.3381403883745031</v>
       </c>
       <c r="X19">
-        <v>1.198314197900506</v>
+        <v>0.8513549177825296</v>
       </c>
     </row>
     <row r="20">
@@ -1879,10 +1879,10 @@
         <v>0.1004307246022456</v>
       </c>
       <c r="W20">
-        <v>0.3793017282419082</v>
+        <v>0.4210997546414766</v>
       </c>
       <c r="X20">
-        <v>0.2647779251303427</v>
+        <v>0.2384962790770374</v>
       </c>
     </row>
     <row r="21">
@@ -1953,10 +1953,10 @@
         <v>0.3518813548095286</v>
       </c>
       <c r="W21">
-        <v>0.3993796356566741</v>
+        <v>0.3607832524044313</v>
       </c>
       <c r="X21">
-        <v>0.8810698478177358</v>
+        <v>0.9753261895180106</v>
       </c>
     </row>
     <row r="22">
@@ -2027,10 +2027,10 @@
         <v>0.3448152235544959</v>
       </c>
       <c r="W22">
-        <v>0.2830562921788971</v>
+        <v>0.2714340150223716</v>
       </c>
       <c r="X22">
-        <v>1.218186039604327</v>
+        <v>1.270346399017368</v>
       </c>
     </row>
     <row r="23">
@@ -2101,10 +2101,10 @@
         <v>0.3559264003401399</v>
       </c>
       <c r="W23">
-        <v>0.4208272710048229</v>
+        <v>0.4378193858918947</v>
       </c>
       <c r="X23">
-        <v>0.8457778876599011</v>
+        <v>0.8129525822961717</v>
       </c>
     </row>
     <row r="24">
@@ -2175,10 +2175,10 @@
         <v>0.1589882984743339</v>
       </c>
       <c r="W24">
-        <v>0.2527860739630255</v>
+        <v>0.2197889398197105</v>
       </c>
       <c r="X24">
-        <v>0.628944055270975</v>
+        <v>0.7233680575771901</v>
       </c>
     </row>
     <row r="25">
@@ -2246,13 +2246,13 @@
         <v>3.526216169118993</v>
       </c>
       <c r="V25">
-        <v>0.189882899913362</v>
+        <v>0.1898828999133619</v>
       </c>
       <c r="W25">
-        <v>0.08648341761457697</v>
+        <v>0.09806502935001987</v>
       </c>
       <c r="X25">
-        <v>2.195598938510922</v>
+        <v>1.936295753663825</v>
       </c>
     </row>
     <row r="26">
@@ -2323,10 +2323,10 @@
         <v>0.3492806399936009</v>
       </c>
       <c r="W26">
-        <v>0.4024541634475489</v>
+        <v>0.3855126832194834</v>
       </c>
       <c r="X26">
-        <v>0.867876821055976</v>
+        <v>0.9060159501801539</v>
       </c>
     </row>
     <row r="27">
@@ -2397,10 +2397,10 @@
         <v>0.1037297546808818</v>
       </c>
       <c r="W27">
-        <v>0.2319344874296301</v>
+        <v>0.1922476463197133</v>
       </c>
       <c r="X27">
-        <v>0.4472373032162964</v>
+        <v>0.5395631970878657</v>
       </c>
     </row>
     <row r="28">
@@ -2471,10 +2471,10 @@
         <v>0.342099544811229</v>
       </c>
       <c r="W28">
-        <v>0.4159062859122305</v>
+        <v>0.417067987775192</v>
       </c>
       <c r="X28">
-        <v>0.8225399721018473</v>
+        <v>0.8202488679031091</v>
       </c>
     </row>
     <row r="29">
@@ -2545,10 +2545,10 @@
         <v>0.3600397511823121</v>
       </c>
       <c r="W29">
-        <v>0.4297804336155813</v>
+        <v>0.4349349511839701</v>
       </c>
       <c r="X29">
-        <v>0.8377295079569652</v>
+        <v>0.8278013762798783</v>
       </c>
     </row>
     <row r="30">
@@ -2619,10 +2619,10 @@
         <v>0.2110065855472676</v>
       </c>
       <c r="W30">
-        <v>0.1633366099086789</v>
+        <v>0.1527914055862455</v>
       </c>
       <c r="X30">
-        <v>1.291851138977605</v>
+        <v>1.381010828047927</v>
       </c>
     </row>
     <row r="31">
@@ -2693,10 +2693,10 @@
         <v>0.3468412491430804</v>
       </c>
       <c r="W31">
-        <v>0.3826998416048141</v>
+        <v>0.393857627838828</v>
       </c>
       <c r="X31">
-        <v>0.9063009999916273</v>
+        <v>0.8806259537139463</v>
       </c>
     </row>
     <row r="32">
@@ -2767,10 +2767,10 @@
         <v>0.2701874999951663</v>
       </c>
       <c r="W32">
-        <v>0.4124422029334317</v>
+        <v>0.4081938136081703</v>
       </c>
       <c r="X32">
-        <v>0.6550917875850223</v>
+        <v>0.6619098354452825</v>
       </c>
     </row>
     <row r="33">
@@ -2841,10 +2841,10 @@
         <v>0.3540875829177</v>
       </c>
       <c r="W33">
-        <v>0.4565074501693636</v>
+        <v>0.4554513153936732</v>
       </c>
       <c r="X33">
-        <v>0.7756446971157515</v>
+        <v>0.7774433203945003</v>
       </c>
     </row>
     <row r="34">
@@ -2915,10 +2915,10 @@
         <v>0.3361982253869208</v>
       </c>
       <c r="W34">
-        <v>0.3796116988092442</v>
+        <v>0.3691155905972294</v>
       </c>
       <c r="X34">
-        <v>0.8856371561822211</v>
+        <v>0.9108209838629459</v>
       </c>
     </row>
     <row r="35">
@@ -2989,10 +2989,10 @@
         <v>0.2900904260409612</v>
       </c>
       <c r="W35">
-        <v>0.4554862415151347</v>
+        <v>0.4494117833100516</v>
       </c>
       <c r="X35">
-        <v>0.6368807652147759</v>
+        <v>0.6454891411710634</v>
       </c>
     </row>
     <row r="36">
@@ -3063,10 +3063,10 @@
         <v>0.2130166321016971</v>
       </c>
       <c r="W36">
-        <v>0.3812573632148447</v>
+        <v>0.4152801823964317</v>
       </c>
       <c r="X36">
-        <v>0.558721358993554</v>
+        <v>0.5129467793826693</v>
       </c>
     </row>
     <row r="37">
@@ -3137,10 +3137,10 @@
         <v>0.3343615780361606</v>
       </c>
       <c r="W37">
-        <v>0.468811555317709</v>
+        <v>0.4666910627381654</v>
       </c>
       <c r="X37">
-        <v>0.7132110423548905</v>
+        <v>0.716451641637184</v>
       </c>
     </row>
     <row r="38">
@@ -3211,10 +3211,10 @@
         <v>0.3362536631356888</v>
       </c>
       <c r="W38">
-        <v>0.3297232867212331</v>
+        <v>0.3328695570101198</v>
       </c>
       <c r="X38">
-        <v>1.019805626952812</v>
+        <v>1.010166463271575</v>
       </c>
     </row>
     <row r="39">
@@ -3285,10 +3285,10 @@
         <v>0.3438716352457188</v>
       </c>
       <c r="W39">
-        <v>0.4640763092106273</v>
+        <v>0.4646273353193128</v>
       </c>
       <c r="X39">
-        <v>0.7409808008312875</v>
+        <v>0.7401020325448453</v>
       </c>
     </row>
     <row r="40">
@@ -3359,10 +3359,10 @@
         <v>0.3538252484873369</v>
       </c>
       <c r="W40">
-        <v>0.1973465896896992</v>
+        <v>0.196624080678813</v>
       </c>
       <c r="X40">
-        <v>1.792912910446941</v>
+        <v>1.799501095012432</v>
       </c>
     </row>
     <row r="41">
@@ -3430,13 +3430,13 @@
         <v>3.806043548686724</v>
       </c>
       <c r="V41">
-        <v>0.2449132838753008</v>
+        <v>0.2449132838753007</v>
       </c>
       <c r="W41">
-        <v>0.4465093552689234</v>
+        <v>0.4506911538229167</v>
       </c>
       <c r="X41">
-        <v>0.5485065004467701</v>
+        <v>0.5434171090287936</v>
       </c>
     </row>
     <row r="42">
@@ -3507,10 +3507,10 @@
         <v>0.1208338033662724</v>
       </c>
       <c r="W42">
-        <v>0.2864433181634334</v>
+        <v>0.2652687819366933</v>
       </c>
       <c r="X42">
-        <v>0.4218419341774602</v>
+        <v>0.4555146010174295</v>
       </c>
     </row>
     <row r="43">
@@ -3581,10 +3581,10 @@
         <v>0.03145627957869592</v>
       </c>
       <c r="W43">
-        <v>0.1349729171859481</v>
+        <v>0.1215168826295211</v>
       </c>
       <c r="X43">
-        <v>0.2330562325726394</v>
+        <v>0.2588634508885434</v>
       </c>
     </row>
     <row r="44">
@@ -3655,10 +3655,10 @@
         <v>0.3597224731632617</v>
       </c>
       <c r="W44">
-        <v>0.3551350761415836</v>
+        <v>0.3280794455219725</v>
       </c>
       <c r="X44">
-        <v>1.012917330136799</v>
+        <v>1.096449284077962</v>
       </c>
     </row>
     <row r="45">
@@ -3729,10 +3729,10 @@
         <v>0.1205082661115188</v>
       </c>
       <c r="W45">
-        <v>0.2468572407316964</v>
+        <v>0.2277506645465077</v>
       </c>
       <c r="X45">
-        <v>0.4881698659286907</v>
+        <v>0.529123664036161</v>
       </c>
     </row>
     <row r="46">
@@ -3803,10 +3803,10 @@
         <v>0.2960810248149863</v>
       </c>
       <c r="W46">
-        <v>0.465364294023524</v>
+        <v>0.4603814388436744</v>
       </c>
       <c r="X46">
-        <v>0.6362349424255989</v>
+        <v>0.6431211161741092</v>
       </c>
     </row>
     <row r="47">
@@ -3877,10 +3877,10 @@
         <v>0.07935146517722426</v>
       </c>
       <c r="W47">
-        <v>0.2282102665440633</v>
+        <v>0.1590098244833895</v>
       </c>
       <c r="X47">
-        <v>0.3477120743904084</v>
+        <v>0.4990349837504126</v>
       </c>
     </row>
     <row r="48">
@@ -3948,13 +3948,13 @@
         <v>3.264140210264964</v>
       </c>
       <c r="V48">
-        <v>0.1411797967815951</v>
+        <v>0.141179796781595</v>
       </c>
       <c r="W48">
-        <v>0.03589602396044782</v>
+        <v>0.05373631890025967</v>
       </c>
       <c r="X48">
-        <v>3.933020463134151</v>
+        <v>2.627269594771457</v>
       </c>
     </row>
     <row r="49">
@@ -4025,10 +4025,10 @@
         <v>0.311595870602817</v>
       </c>
       <c r="W49">
-        <v>0.3403057834494924</v>
+        <v>0.3016978896138578</v>
       </c>
       <c r="X49">
-        <v>0.9156349546703001</v>
+        <v>1.032807591069422</v>
       </c>
     </row>
     <row r="50">
@@ -4099,10 +4099,10 @@
         <v>0.3375449866326897</v>
       </c>
       <c r="W50">
-        <v>0.3932537807432605</v>
+        <v>0.4202027445331389</v>
       </c>
       <c r="X50">
-        <v>0.8583388212942806</v>
+        <v>0.8032907710008294</v>
       </c>
     </row>
     <row r="51">
@@ -4173,10 +4173,10 @@
         <v>0.3209696635145945</v>
       </c>
       <c r="W51">
-        <v>0.3057608520774088</v>
+        <v>0.3139709830489593</v>
       </c>
       <c r="X51">
-        <v>1.04974087210267</v>
+        <v>1.022290851204374</v>
       </c>
     </row>
     <row r="52">
@@ -4247,10 +4247,10 @@
         <v>0.3276518794515784</v>
       </c>
       <c r="W52">
-        <v>0.2805347312717074</v>
+        <v>0.2771857662077623</v>
       </c>
       <c r="X52">
-        <v>1.167954776815982</v>
+        <v>1.182066034393662</v>
       </c>
     </row>
     <row r="53">
@@ -4321,10 +4321,10 @@
         <v>0.3540382772227261</v>
       </c>
       <c r="W53">
-        <v>0.449237944661516</v>
+        <v>0.4574337064192415</v>
       </c>
       <c r="X53">
-        <v>0.7880863169060234</v>
+        <v>0.7739663086791582</v>
       </c>
     </row>
     <row r="54">
@@ -4395,10 +4395,10 @@
         <v>0.3386050494196713</v>
       </c>
       <c r="W54">
-        <v>0.4174375152706991</v>
+        <v>0.4369796461335098</v>
       </c>
       <c r="X54">
-        <v>0.8111514586802132</v>
+        <v>0.7748760209216193</v>
       </c>
     </row>
     <row r="55">
@@ -4466,13 +4466,13 @@
         <v>5.081441006445719</v>
       </c>
       <c r="V55">
-        <v>0.3474052626371939</v>
+        <v>0.3474052626371938</v>
       </c>
       <c r="W55">
-        <v>0.4201217427055181</v>
+        <v>0.3895911183622464</v>
       </c>
       <c r="X55">
-        <v>0.8269156944840763</v>
+        <v>0.8917176143481083</v>
       </c>
     </row>
     <row r="56">
@@ -4543,10 +4543,10 @@
         <v>0.3120258479552073</v>
       </c>
       <c r="W56">
-        <v>0.06131851941227824</v>
+        <v>0.05776105713944327</v>
       </c>
       <c r="X56">
-        <v>5.08860701376831</v>
+        <v>5.40201068692239</v>
       </c>
     </row>
     <row r="57">
@@ -4614,13 +4614,13 @@
         <v>7.140074512986939</v>
       </c>
       <c r="V57">
-        <v>0.03699235611567529</v>
+        <v>0.03699235611567523</v>
       </c>
       <c r="W57">
-        <v>0.3054142284091407</v>
+        <v>0.2825498643439442</v>
       </c>
       <c r="X57">
-        <v>0.1211219146808032</v>
+        <v>0.1309232839363353</v>
       </c>
     </row>
     <row r="58">
@@ -4691,10 +4691,10 @@
         <v>0.332450214213727</v>
       </c>
       <c r="W58">
-        <v>0.2503110343656607</v>
+        <v>0.3292851031372388</v>
       </c>
       <c r="X58">
-        <v>1.328148457602853</v>
+        <v>1.009612068831334</v>
       </c>
     </row>
     <row r="59">
@@ -4765,10 +4765,10 @@
         <v>0.1690291354992942</v>
       </c>
       <c r="W59">
-        <v>0.2249688054354942</v>
+        <v>0.2690199426003846</v>
       </c>
       <c r="X59">
-        <v>0.7513447705431335</v>
+        <v>0.6283145177470295</v>
       </c>
     </row>
     <row r="60">
@@ -4839,10 +4839,10 @@
         <v>0.3028740702091189</v>
       </c>
       <c r="W60">
-        <v>0.3599848820449182</v>
+        <v>0.3586150294174067</v>
       </c>
       <c r="X60">
-        <v>0.8413521937049757</v>
+        <v>0.8445660258610951</v>
       </c>
     </row>
     <row r="61">
@@ -4913,10 +4913,10 @@
         <v>0.2963428467002604</v>
       </c>
       <c r="W61">
-        <v>0.2522786562591976</v>
+        <v>0.3047296521959531</v>
       </c>
       <c r="X61">
-        <v>1.174664757988048</v>
+        <v>0.9724778818363903</v>
       </c>
     </row>
     <row r="62">
@@ -4984,13 +4984,13 @@
         <v>3.810293411215913</v>
       </c>
       <c r="V62">
-        <v>0.2457405066849992</v>
+        <v>0.2457405066849991</v>
       </c>
       <c r="W62">
-        <v>0.4685684522530237</v>
+        <v>0.4665875346628283</v>
       </c>
       <c r="X62">
-        <v>0.524449534541649</v>
+        <v>0.5266761077588139</v>
       </c>
     </row>
     <row r="63">
@@ -5061,10 +5061,10 @@
         <v>0.3564734040782092</v>
       </c>
       <c r="W63">
-        <v>0.4643877295668641</v>
+        <v>0.4525918951330931</v>
       </c>
       <c r="X63">
-        <v>0.7676202048031998</v>
+        <v>0.7876265746503956</v>
       </c>
     </row>
     <row r="64">
@@ -5132,13 +5132,13 @@
         <v>3.896252306931326</v>
       </c>
       <c r="V64">
-        <v>0.2622529902552419</v>
+        <v>0.262252990255242</v>
       </c>
       <c r="W64">
-        <v>0.4054925579722266</v>
+        <v>0.4139414282716591</v>
       </c>
       <c r="X64">
-        <v>0.6467516729942165</v>
+        <v>0.633550962391549</v>
       </c>
     </row>
     <row r="65">
@@ -5209,10 +5209,10 @@
         <v>0.07800180942752524</v>
       </c>
       <c r="W65">
-        <v>0.4692564210957664</v>
+        <v>0.4657112771039195</v>
       </c>
       <c r="X65">
-        <v>0.1662242772200799</v>
+        <v>0.1674896298680777</v>
       </c>
     </row>
     <row r="66">
@@ -5283,10 +5283,10 @@
         <v>0.3070774997474127</v>
       </c>
       <c r="W66">
-        <v>0.3810760417972144</v>
+        <v>0.3474805709939796</v>
       </c>
       <c r="X66">
-        <v>0.8058168608532487</v>
+        <v>0.8837256680827</v>
       </c>
     </row>
     <row r="67">
@@ -5357,10 +5357,10 @@
         <v>0.3105831228434536</v>
       </c>
       <c r="W67">
-        <v>0.468928757129991</v>
+        <v>0.4650366481737613</v>
       </c>
       <c r="X67">
-        <v>0.662324752152825</v>
+        <v>0.667868057416851</v>
       </c>
     </row>
     <row r="68">
@@ -5431,10 +5431,10 @@
         <v>0.04601214637375295</v>
       </c>
       <c r="W68">
-        <v>0.06709584694040759</v>
+        <v>0.046299148206587</v>
       </c>
       <c r="X68">
-        <v>0.6857674278203759</v>
+        <v>0.9938011422682456</v>
       </c>
     </row>
     <row r="69">
@@ -5505,10 +5505,10 @@
         <v>0.1955256328108806</v>
       </c>
       <c r="W69">
-        <v>0.1980278074099157</v>
+        <v>0.1983313828744231</v>
       </c>
       <c r="X69">
-        <v>0.9873645290943627</v>
+        <v>0.9858532219012506</v>
       </c>
     </row>
     <row r="70">
@@ -5579,10 +5579,10 @@
         <v>0.07441769153308675</v>
       </c>
       <c r="W70">
-        <v>0.4514091986427563</v>
+        <v>0.4363672698173986</v>
       </c>
       <c r="X70">
-        <v>0.1648563914001687</v>
+        <v>0.1705391230745318</v>
       </c>
     </row>
     <row r="71">
@@ -5650,13 +5650,13 @@
         <v>3.980383310273715</v>
       </c>
       <c r="V71">
-        <v>0.2778590771556769</v>
+        <v>0.277859077155677</v>
       </c>
       <c r="W71">
-        <v>0.3403848146088259</v>
+        <v>0.3432031824841302</v>
       </c>
       <c r="X71">
-        <v>0.8163086754472163</v>
+        <v>0.8096051882284782</v>
       </c>
     </row>
     <row r="72">
@@ -5727,10 +5727,10 @@
         <v>0.2302766493307748</v>
       </c>
       <c r="W72">
-        <v>0.2926336364424711</v>
+        <v>0.2503023356863319</v>
       </c>
       <c r="X72">
-        <v>0.7869110746468985</v>
+        <v>0.9199940092422771</v>
       </c>
     </row>
     <row r="73">
@@ -5801,10 +5801,10 @@
         <v>0.2361846218154804</v>
       </c>
       <c r="W73">
-        <v>0.3877434755772741</v>
+        <v>0.3745491063945258</v>
       </c>
       <c r="X73">
-        <v>0.609125972948604</v>
+        <v>0.6305838614568707</v>
       </c>
     </row>
     <row r="74">
@@ -5875,10 +5875,10 @@
         <v>0.3541539468317028</v>
       </c>
       <c r="W74">
-        <v>0.2378784489973997</v>
+        <v>0.2239987867459913</v>
       </c>
       <c r="X74">
-        <v>1.488802152209989</v>
+        <v>1.581052968975694</v>
       </c>
     </row>
     <row r="75">
@@ -5949,10 +5949,10 @@
         <v>0.2616168268482512</v>
       </c>
       <c r="W75">
-        <v>0.3752016266610441</v>
+        <v>0.3994382393413785</v>
       </c>
       <c r="X75">
-        <v>0.6972699696864454</v>
+        <v>0.654961896686765</v>
       </c>
     </row>
     <row r="76">
@@ -6023,10 +6023,10 @@
         <v>0.3563639849784373</v>
       </c>
       <c r="W76">
-        <v>0.3824936973809666</v>
+        <v>0.3948779967019326</v>
       </c>
       <c r="X76">
-        <v>0.9316859007574604</v>
+        <v>0.9024660476269408</v>
       </c>
     </row>
     <row r="77">
@@ -6094,13 +6094,13 @@
         <v>3.815938602866774</v>
       </c>
       <c r="V77">
-        <v>0.2468380151614485</v>
+        <v>0.2468380151614484</v>
       </c>
       <c r="W77">
-        <v>0.290858629888431</v>
+        <v>0.2981081834328944</v>
       </c>
       <c r="X77">
-        <v>0.8486528842418457</v>
+        <v>0.8280148915033486</v>
       </c>
     </row>
     <row r="78">
@@ -6171,10 +6171,10 @@
         <v>0.2038368917811133</v>
       </c>
       <c r="W78">
-        <v>0.1612666433420258</v>
+        <v>0.1544015058865315</v>
       </c>
       <c r="X78">
-        <v>1.263974294726291</v>
+        <v>1.320174247075748</v>
       </c>
     </row>
     <row r="79">
@@ -6245,10 +6245,10 @@
         <v>0.1468169665512595</v>
       </c>
       <c r="W79">
-        <v>0.1049689215508692</v>
+        <v>0.1223998158131872</v>
       </c>
       <c r="X79">
-        <v>1.398670810198904</v>
+        <v>1.199486825824468</v>
       </c>
     </row>
     <row r="80">
@@ -6319,10 +6319,10 @@
         <v>0.06805852346152404</v>
       </c>
       <c r="W80">
-        <v>0.04402924821125236</v>
+        <v>0.0500739564837201</v>
       </c>
       <c r="X80">
-        <v>1.545757109796179</v>
+        <v>1.359160095201405</v>
       </c>
     </row>
     <row r="81">
@@ -6393,10 +6393,10 @@
         <v>0.301743972061409</v>
       </c>
       <c r="W81">
-        <v>0.4404711690263742</v>
+        <v>0.4271798189633274</v>
       </c>
       <c r="X81">
-        <v>0.6850481785865565</v>
+        <v>0.7063628913783335</v>
       </c>
     </row>
     <row r="82">
@@ -6464,13 +6464,13 @@
         <v>3.437682300003522</v>
       </c>
       <c r="V82">
-        <v>0.1728742478016148</v>
+        <v>0.1728742478016149</v>
       </c>
       <c r="W82">
-        <v>0.4344900062191328</v>
+        <v>0.4459803048605409</v>
       </c>
       <c r="X82">
-        <v>0.397878536507527</v>
+        <v>0.3876275385202786</v>
       </c>
     </row>
     <row r="83">
@@ -6541,10 +6541,10 @@
         <v>0.2774454229037238</v>
       </c>
       <c r="W83">
-        <v>0.2021046612660581</v>
+        <v>0.1887041916301927</v>
       </c>
       <c r="X83">
-        <v>1.372780920369196</v>
+        <v>1.470266349183377</v>
       </c>
     </row>
     <row r="84">
@@ -6615,10 +6615,10 @@
         <v>0.1742826816313745</v>
       </c>
       <c r="W84">
-        <v>0.4514088532749831</v>
+        <v>0.4369755009279026</v>
       </c>
       <c r="X84">
-        <v>0.3860860954918121</v>
+        <v>0.3988385647737486</v>
       </c>
     </row>
     <row r="85">
@@ -6689,10 +6689,10 @@
         <v>0.3354245362751069</v>
       </c>
       <c r="W85">
-        <v>0.4675597531555797</v>
+        <v>0.465440997012976</v>
       </c>
       <c r="X85">
-        <v>0.7173939459316442</v>
+        <v>0.7206596290995733</v>
       </c>
     </row>
     <row r="86">
@@ -6763,10 +6763,10 @@
         <v>0.3150724359102403</v>
       </c>
       <c r="W86">
-        <v>0.4691307889757831</v>
+        <v>0.4663918947279034</v>
       </c>
       <c r="X86">
-        <v>0.6716089485367472</v>
+        <v>0.6755529833854768</v>
       </c>
     </row>
     <row r="87">
@@ -6837,10 +6837,10 @@
         <v>0.3564858373266478</v>
       </c>
       <c r="W87">
-        <v>0.2739904213850112</v>
+        <v>0.1945371257377268</v>
       </c>
       <c r="X87">
-        <v>1.301088685964368</v>
+        <v>1.832482288276732</v>
       </c>
     </row>
     <row r="88">
@@ -6911,10 +6911,10 @@
         <v>0.3439700710000846</v>
       </c>
       <c r="W88">
-        <v>0.3463649504792012</v>
+        <v>0.3486574710013677</v>
       </c>
       <c r="X88">
-        <v>0.9930856760310095</v>
+        <v>0.9865558595723748</v>
       </c>
     </row>
     <row r="89">
@@ -6985,10 +6985,10 @@
         <v>0.3550418595169479</v>
       </c>
       <c r="W89">
-        <v>0.3773329515568378</v>
+        <v>0.3746658318035208</v>
       </c>
       <c r="X89">
-        <v>0.9409246079677931</v>
+        <v>0.9476227330575905</v>
       </c>
     </row>
     <row r="90">
@@ -7059,10 +7059,10 @@
         <v>0.2871018612821519</v>
       </c>
       <c r="W90">
-        <v>0.4146117537369287</v>
+        <v>0.417052094130229</v>
       </c>
       <c r="X90">
-        <v>0.6924595327905687</v>
+        <v>0.6884076721420352</v>
       </c>
     </row>
     <row r="91">
@@ -7133,10 +7133,10 @@
         <v>0.2472810250259446</v>
       </c>
       <c r="W91">
-        <v>0.4501018808512394</v>
+        <v>0.4471813922662764</v>
       </c>
       <c r="X91">
-        <v>0.5493890062362837</v>
+        <v>0.5529770006143275</v>
       </c>
     </row>
     <row r="92">
@@ -7207,10 +7207,10 @@
         <v>0.2343652360764279</v>
       </c>
       <c r="W92">
-        <v>0.3151977657346495</v>
+        <v>0.3052795823886467</v>
       </c>
       <c r="X92">
-        <v>0.7435498012816791</v>
+        <v>0.7677068811567659</v>
       </c>
     </row>
     <row r="93">
@@ -7281,10 +7281,10 @@
         <v>0.09951915399313002</v>
       </c>
       <c r="W93">
-        <v>0.3821055186949229</v>
+        <v>0.3627831983006319</v>
       </c>
       <c r="X93">
-        <v>0.2604494023876875</v>
+        <v>0.2743212873675045</v>
       </c>
     </row>
     <row r="94">
@@ -7355,10 +7355,10 @@
         <v>0.3228496088650629</v>
       </c>
       <c r="W94">
-        <v>0.4420659645220251</v>
+        <v>0.4381518323374934</v>
       </c>
       <c r="X94">
-        <v>0.7303199856477021</v>
+        <v>0.7368441372085439</v>
       </c>
     </row>
     <row r="95">
@@ -7429,10 +7429,10 @@
         <v>0.3342473022648964</v>
       </c>
       <c r="W95">
-        <v>0.4636802806375608</v>
+        <v>0.4449004211172767</v>
       </c>
       <c r="X95">
-        <v>0.7208572721818276</v>
+        <v>0.7512856504507289</v>
       </c>
     </row>
     <row r="96">
@@ -7503,10 +7503,10 @@
         <v>0.3605790661866357</v>
       </c>
       <c r="W96">
-        <v>0.4687033501739236</v>
+        <v>0.4664651141070236</v>
       </c>
       <c r="X96">
-        <v>0.769311902833283</v>
+        <v>0.7730032863806104</v>
       </c>
     </row>
     <row r="97">
@@ -7577,10 +7577,10 @@
         <v>0.1888745683876751</v>
       </c>
       <c r="W97">
-        <v>0.2068332733628501</v>
+        <v>0.199752824755199</v>
       </c>
       <c r="X97">
-        <v>0.913173036991636</v>
+        <v>0.945541414090862</v>
       </c>
     </row>
     <row r="98">
@@ -7651,10 +7651,10 @@
         <v>0.342766345481026</v>
       </c>
       <c r="W98">
-        <v>0.4637696554345394</v>
+        <v>0.4606769443149995</v>
       </c>
       <c r="X98">
-        <v>0.7390874790198668</v>
+        <v>0.744049272947011</v>
       </c>
     </row>
     <row r="99">
@@ -7722,13 +7722,13 @@
         <v>3.433356637990158</v>
       </c>
       <c r="V99">
-        <v>0.1720551852032027</v>
+        <v>0.1720551852032026</v>
       </c>
       <c r="W99">
-        <v>0.2113897710961597</v>
+        <v>0.2117193346474015</v>
       </c>
       <c r="X99">
-        <v>0.8139238919225474</v>
+        <v>0.8126569332448743</v>
       </c>
     </row>
     <row r="100">
@@ -7799,10 +7799,10 @@
         <v>0.3542579031251221</v>
       </c>
       <c r="W100">
-        <v>0.3377003543466868</v>
+        <v>0.3655218047472877</v>
       </c>
       <c r="X100">
-        <v>1.049030297319253</v>
+        <v>0.969184050100778</v>
       </c>
     </row>
     <row r="101">
@@ -7873,10 +7873,10 @@
         <v>0.2719190604745545</v>
       </c>
       <c r="W101">
-        <v>0.2237457638677372</v>
+        <v>0.2283176033163804</v>
       </c>
       <c r="X101">
-        <v>1.215303725863136</v>
+        <v>1.190968442751895</v>
       </c>
     </row>
     <row r="102">
@@ -7947,10 +7947,10 @@
         <v>0.3606136543061046</v>
       </c>
       <c r="W102">
-        <v>0.4436971742009105</v>
+        <v>0.4349512564272118</v>
       </c>
       <c r="X102">
-        <v>0.8127472413038519</v>
+        <v>0.8290898094381124</v>
       </c>
     </row>
     <row r="103">
@@ -8021,10 +8021,10 @@
         <v>0.3558013629526235</v>
       </c>
       <c r="W103">
-        <v>0.4685862042910888</v>
+        <v>0.4654898709695999</v>
       </c>
       <c r="X103">
-        <v>0.7593082333503727</v>
+        <v>0.7643589799526702</v>
       </c>
     </row>
     <row r="104">
@@ -8095,10 +8095,10 @@
         <v>0.3560320711710475</v>
       </c>
       <c r="W104">
-        <v>0.3530196738425891</v>
+        <v>0.3397808413652674</v>
       </c>
       <c r="X104">
-        <v>1.0085332278954</v>
+        <v>1.047828564260661</v>
       </c>
     </row>
     <row r="105">
@@ -8166,13 +8166,13 @@
         <v>3.050427173417519</v>
       </c>
       <c r="V105">
-        <v>0.1063580666037705</v>
+        <v>0.1063580666037704</v>
       </c>
       <c r="W105">
-        <v>0.1111736151632252</v>
+        <v>0.1269043695564101</v>
       </c>
       <c r="X105">
-        <v>0.9566844295529605</v>
+        <v>0.8380961741155279</v>
       </c>
     </row>
     <row r="106">
@@ -8243,10 +8243,10 @@
         <v>0.05779209444306989</v>
       </c>
       <c r="W106">
-        <v>0.104569908961143</v>
+        <v>0.08506483228781282</v>
       </c>
       <c r="X106">
-        <v>0.5526646720572814</v>
+        <v>0.6793888013266526</v>
       </c>
     </row>
     <row r="107">
@@ -8314,13 +8314,13 @@
         <v>3.137933421723644</v>
       </c>
       <c r="V107">
-        <v>0.1199758890657832</v>
+        <v>0.1199758890657831</v>
       </c>
       <c r="W107">
-        <v>0.3840210728953591</v>
+        <v>0.3832864758627343</v>
       </c>
       <c r="X107">
-        <v>0.312420066329212</v>
+        <v>0.3130188426182558</v>
       </c>
     </row>
     <row r="108">
@@ -8391,10 +8391,10 @@
         <v>0.3360908360598824</v>
       </c>
       <c r="W108">
-        <v>0.2348108922240669</v>
+        <v>0.2499076816603813</v>
       </c>
       <c r="X108">
-        <v>1.431325578113173</v>
+        <v>1.344859965195556</v>
       </c>
     </row>
     <row r="109">
@@ -8465,10 +8465,10 @@
         <v>0.268276517283505</v>
       </c>
       <c r="W109">
-        <v>0.4208863072219561</v>
+        <v>0.4033870827335631</v>
       </c>
       <c r="X109">
-        <v>0.6374085178827837</v>
+        <v>0.6650597621161347</v>
       </c>
     </row>
     <row r="110">
@@ -8539,10 +8539,10 @@
         <v>0.3180076432803005</v>
       </c>
       <c r="W110">
-        <v>0.3816869064873146</v>
+        <v>0.392977498098461</v>
       </c>
       <c r="X110">
-        <v>0.8331636162396612</v>
+        <v>0.8092260875471889</v>
       </c>
     </row>
     <row r="111">
@@ -8613,10 +8613,10 @@
         <v>0.3418745311024803</v>
       </c>
       <c r="W111">
-        <v>0.4660762371481574</v>
+        <v>0.4662906274316816</v>
       </c>
       <c r="X111">
-        <v>0.7335163302775387</v>
+        <v>0.7331790754309551</v>
       </c>
     </row>
     <row r="112">
@@ -8684,13 +8684,13 @@
         <v>3.060767751303813</v>
       </c>
       <c r="V112">
-        <v>0.107918291779059</v>
+        <v>0.1079182917790591</v>
       </c>
       <c r="W112">
-        <v>0.310143735786262</v>
+        <v>0.3387876941552078</v>
       </c>
       <c r="X112">
-        <v>0.3479621843899881</v>
+        <v>0.318542537526817</v>
       </c>
     </row>
     <row r="113">
@@ -8761,10 +8761,10 @@
         <v>0.2856136797444542</v>
       </c>
       <c r="W113">
-        <v>0.4017129165527708</v>
+        <v>0.3978151110714687</v>
       </c>
       <c r="X113">
-        <v>0.7109895350027529</v>
+        <v>0.7179558337419285</v>
       </c>
     </row>
     <row r="114">
@@ -8832,13 +8832,13 @@
         <v>3.55075655242131</v>
       </c>
       <c r="V114">
-        <v>0.1946661311540104</v>
+        <v>0.1946661311540102</v>
       </c>
       <c r="W114">
-        <v>0.462607130029441</v>
+        <v>0.4596323349653359</v>
       </c>
       <c r="X114">
-        <v>0.4208022715551779</v>
+        <v>0.423525753836904</v>
       </c>
     </row>
     <row r="115">
@@ -8909,10 +8909,10 @@
         <v>0.334967794456221</v>
       </c>
       <c r="W115">
-        <v>0.4097202648862809</v>
+        <v>0.4053472903679199</v>
       </c>
       <c r="X115">
-        <v>0.8175524209162374</v>
+        <v>0.8263723538207993</v>
       </c>
     </row>
     <row r="116">
@@ -8983,10 +8983,10 @@
         <v>0.3007269000104293</v>
       </c>
       <c r="W116">
-        <v>0.2284917097374149</v>
+        <v>0.2427717739099683</v>
       </c>
       <c r="X116">
-        <v>1.316139217287261</v>
+        <v>1.238722670131963</v>
       </c>
     </row>
     <row r="117">
@@ -9057,10 +9057,10 @@
         <v>0.1938377724257263</v>
       </c>
       <c r="W117">
-        <v>0.4291993206867205</v>
+        <v>0.4656983094349683</v>
       </c>
       <c r="X117">
-        <v>0.4516264660335089</v>
+        <v>0.4162303544990524</v>
       </c>
     </row>
     <row r="118">
@@ -9131,10 +9131,10 @@
         <v>0.07071186622059161</v>
       </c>
       <c r="W118">
-        <v>0.01538376826058384</v>
+        <v>0.01148593420083455</v>
       </c>
       <c r="X118">
-        <v>4.596524403046876</v>
+        <v>6.156387890107693</v>
       </c>
     </row>
     <row r="119">
@@ -9202,13 +9202,13 @@
         <v>3.803160721583232</v>
       </c>
       <c r="V119">
-        <v>0.2443516833315842</v>
+        <v>0.2443516833315841</v>
       </c>
       <c r="W119">
-        <v>0.3856937592192288</v>
+        <v>0.3724075842400086</v>
       </c>
       <c r="X119">
-        <v>0.6335380790869743</v>
+        <v>0.6561404591967297</v>
       </c>
     </row>
     <row r="120">
@@ -9279,10 +9279,10 @@
         <v>0.3173218118474519</v>
       </c>
       <c r="W120">
-        <v>0.466104931094395</v>
+        <v>0.4508142663583977</v>
       </c>
       <c r="X120">
-        <v>0.6807947967904855</v>
+        <v>0.7038859138392501</v>
       </c>
     </row>
     <row r="121">
@@ -9353,10 +9353,10 @@
         <v>0.3075095438835845</v>
       </c>
       <c r="W121">
-        <v>0.4204033858314684</v>
+        <v>0.4504887356241426</v>
       </c>
       <c r="X121">
-        <v>0.7314630525046703</v>
+        <v>0.6826131700219685</v>
       </c>
     </row>
     <row r="122">
@@ -9427,10 +9427,10 @@
         <v>0.214744975106085</v>
       </c>
       <c r="W122">
-        <v>0.3656248727113799</v>
+        <v>0.3659176464699991</v>
       </c>
       <c r="X122">
-        <v>0.5873368885261869</v>
+        <v>0.5868669553866175</v>
       </c>
     </row>
     <row r="123">
@@ -9501,10 +9501,10 @@
         <v>0.3342509733864077</v>
       </c>
       <c r="W123">
-        <v>0.3641666658053851</v>
+        <v>0.36090374734671</v>
       </c>
       <c r="X123">
-        <v>0.9178516453371252</v>
+        <v>0.9261499107275887</v>
       </c>
     </row>
     <row r="124">
@@ -9575,10 +9575,10 @@
         <v>0.2695480205523154</v>
       </c>
       <c r="W124">
-        <v>0.4542947980670293</v>
+        <v>0.4656763323181865</v>
       </c>
       <c r="X124">
-        <v>0.5933328351969038</v>
+        <v>0.5788312650773481</v>
       </c>
     </row>
     <row r="125">
@@ -9649,10 +9649,10 @@
         <v>0.3439755319250264</v>
       </c>
       <c r="W125">
-        <v>0.441475912492783</v>
+        <v>0.4288739251533255</v>
       </c>
       <c r="X125">
-        <v>0.7791490366547451</v>
+        <v>0.8020434718712561</v>
       </c>
     </row>
     <row r="126">
@@ -9723,10 +9723,10 @@
         <v>0.2430825959189022</v>
       </c>
       <c r="W126">
-        <v>0.1861747772819014</v>
+        <v>0.1936172014456106</v>
       </c>
       <c r="X126">
-        <v>1.305668788585858</v>
+        <v>1.255480371082561</v>
       </c>
     </row>
     <row r="127">
@@ -9797,10 +9797,10 @@
         <v>0.2721172714880766</v>
       </c>
       <c r="W127">
-        <v>0.4295100969864167</v>
+        <v>0.4410742549062283</v>
       </c>
       <c r="X127">
-        <v>0.6335526764035125</v>
+        <v>0.6169420873270608</v>
       </c>
     </row>
     <row r="128">
@@ -9871,10 +9871,10 @@
         <v>0.03994082479377444</v>
       </c>
       <c r="W128">
-        <v>0.06428328484990933</v>
+        <v>0.06614401498726449</v>
       </c>
       <c r="X128">
-        <v>0.6213251996538378</v>
+        <v>0.6038463918687841</v>
       </c>
     </row>
     <row r="129">
@@ -9945,10 +9945,10 @@
         <v>0.3530908594256661</v>
       </c>
       <c r="W129">
-        <v>0.4693324336367034</v>
+        <v>0.4662032973001234</v>
       </c>
       <c r="X129">
-        <v>0.7523257165282199</v>
+        <v>0.7573752941484668</v>
       </c>
     </row>
     <row r="130">
@@ -10019,10 +10019,10 @@
         <v>0.3427078742542026</v>
       </c>
       <c r="W130">
-        <v>0.4648403471007493</v>
+        <v>0.4433701426568029</v>
       </c>
       <c r="X130">
-        <v>0.7372593114855501</v>
+        <v>0.7729611024337302</v>
       </c>
     </row>
     <row r="131">
@@ -10090,13 +10090,13 @@
         <v>3.836908648594965</v>
       </c>
       <c r="V131">
-        <v>0.2509007809204817</v>
+        <v>0.2509007809204816</v>
       </c>
       <c r="W131">
-        <v>0.278223670474062</v>
+        <v>0.2851814527965708</v>
       </c>
       <c r="X131">
-        <v>0.9017952372383515</v>
+        <v>0.8797934734537496</v>
       </c>
     </row>
     <row r="132">
@@ -10167,10 +10167,10 @@
         <v>0.3604740765656911</v>
       </c>
       <c r="W132">
-        <v>0.4647353334447028</v>
+        <v>0.4464469153081631</v>
       </c>
       <c r="X132">
-        <v>0.775654551363228</v>
+        <v>0.8074287540252605</v>
       </c>
     </row>
     <row r="133">
@@ -10241,10 +10241,10 @@
         <v>0.08638579387108197</v>
       </c>
       <c r="W133">
-        <v>0.3124646080272609</v>
+        <v>0.2795741578874902</v>
       </c>
       <c r="X133">
-        <v>0.2764658513374585</v>
+        <v>0.3089906253275613</v>
       </c>
     </row>
     <row r="134">
@@ -10315,10 +10315,10 @@
         <v>0.2466422927814793</v>
       </c>
       <c r="W134">
-        <v>0.3189429944106264</v>
+        <v>0.2501493705378447</v>
       </c>
       <c r="X134">
-        <v>0.7733115230740488</v>
+        <v>0.9859800656350851</v>
       </c>
     </row>
     <row r="135">
@@ -10386,13 +10386,13 @@
         <v>3.767830887117843</v>
       </c>
       <c r="V135">
-        <v>0.2374418210626791</v>
+        <v>0.2374418210626792</v>
       </c>
       <c r="W135">
-        <v>0.1989224875677901</v>
+        <v>0.1786880374422857</v>
       </c>
       <c r="X135">
-        <v>1.193639914550948</v>
+        <v>1.328806474464584</v>
       </c>
     </row>
     <row r="136">
@@ -10463,10 +10463,10 @@
         <v>0.3589155498624667</v>
       </c>
       <c r="W136">
-        <v>0.4556263565223143</v>
+        <v>0.4470238948713921</v>
       </c>
       <c r="X136">
-        <v>0.7877409739901401</v>
+        <v>0.8029001446683872</v>
       </c>
     </row>
     <row r="137">
@@ -10537,10 +10537,10 @@
         <v>0.3514587303073423</v>
       </c>
       <c r="W137">
-        <v>0.4611282069588749</v>
+        <v>0.4559484831081168</v>
       </c>
       <c r="X137">
-        <v>0.7621713983301973</v>
+        <v>0.7708299146243736</v>
       </c>
     </row>
     <row r="138">
@@ -10611,10 +10611,10 @@
         <v>0.3540167697462183</v>
       </c>
       <c r="W138">
-        <v>0.4078243611306291</v>
+        <v>0.4082515961475973</v>
       </c>
       <c r="X138">
-        <v>0.8680618508535446</v>
+        <v>0.8671534247185865</v>
       </c>
     </row>
     <row r="139">
@@ -10685,10 +10685,10 @@
         <v>0.2235145068982938</v>
       </c>
       <c r="W139">
-        <v>0.1937266874372621</v>
+        <v>0.1738747622461475</v>
       </c>
       <c r="X139">
-        <v>1.153762085415715</v>
+        <v>1.28549137327862</v>
       </c>
     </row>
     <row r="140">
@@ -10759,10 +10759,10 @@
         <v>0.02732666323077692</v>
       </c>
       <c r="W140">
-        <v>0.1110685292016265</v>
+        <v>0.1017039000760662</v>
       </c>
       <c r="X140">
-        <v>0.246034258553743</v>
+        <v>0.2686884496104752</v>
       </c>
     </row>
     <row r="141">
@@ -10833,10 +10833,10 @@
         <v>0.03197206478394478</v>
       </c>
       <c r="W141">
-        <v>0.03661224167680601</v>
+        <v>0.05876816082782216</v>
       </c>
       <c r="X141">
-        <v>0.8732616010289039</v>
+        <v>0.5440371849923281</v>
       </c>
     </row>
     <row r="142">
@@ -10907,10 +10907,10 @@
         <v>0.3528683364698413</v>
       </c>
       <c r="W142">
-        <v>0.4545292744560362</v>
+        <v>0.4667234766948994</v>
       </c>
       <c r="X142">
-        <v>0.7763379749129273</v>
+        <v>0.7560543964247892</v>
       </c>
     </row>
     <row r="143">
@@ -10981,10 +10981,10 @@
         <v>0.3144721863789091</v>
       </c>
       <c r="W143">
-        <v>0.2465641106451673</v>
+        <v>0.2973791455406622</v>
       </c>
       <c r="X143">
-        <v>1.275417519427509</v>
+        <v>1.057478949329719</v>
       </c>
     </row>
     <row r="144">
@@ -11055,10 +11055,10 @@
         <v>0.1639423328424723</v>
       </c>
       <c r="W144">
-        <v>0.437495708899862</v>
+        <v>0.4261108163203459</v>
       </c>
       <c r="X144">
-        <v>0.3747290076392428</v>
+        <v>0.3847410733625267</v>
       </c>
     </row>
     <row r="145">
@@ -11129,10 +11129,10 @@
         <v>0.2538742613938245</v>
       </c>
       <c r="W145">
-        <v>0.4177712774315355</v>
+        <v>0.41789268330131</v>
       </c>
       <c r="X145">
-        <v>0.6076872085478147</v>
+        <v>0.6075106637145294</v>
       </c>
     </row>
     <row r="146">
@@ -11200,13 +11200,13 @@
         <v>6.049295732576264</v>
       </c>
       <c r="V146">
-        <v>0.1865645109526853</v>
+        <v>0.1865645109526852</v>
       </c>
       <c r="W146">
-        <v>0.04355774757374713</v>
+        <v>0.03675370903189175</v>
       </c>
       <c r="X146">
-        <v>4.283153315878307</v>
+        <v>5.07607302410759</v>
       </c>
     </row>
     <row r="147">
@@ -11274,13 +11274,13 @@
         <v>3.776956191192376</v>
       </c>
       <c r="V147">
-        <v>0.239230989221742</v>
+        <v>0.2392309892217419</v>
       </c>
       <c r="W147">
-        <v>0.3676952849859494</v>
+        <v>0.36274375808543</v>
       </c>
       <c r="X147">
-        <v>0.6506229451130537</v>
+        <v>0.6595040821223461</v>
       </c>
     </row>
     <row r="148">
@@ -11348,13 +11348,13 @@
         <v>3.515687102006397</v>
       </c>
       <c r="V148">
-        <v>0.1878385145085652</v>
+        <v>0.1878385145085651</v>
       </c>
       <c r="W148">
-        <v>0.4478730314350209</v>
+        <v>0.4427247514054609</v>
       </c>
       <c r="X148">
-        <v>0.4194012617967097</v>
+        <v>0.4242783217162776</v>
       </c>
     </row>
     <row r="149">
@@ -11425,10 +11425,10 @@
         <v>0.1569123824569851</v>
       </c>
       <c r="W149">
-        <v>0.4684221831625847</v>
+        <v>0.4627487504380508</v>
       </c>
       <c r="X149">
-        <v>0.334980682164923</v>
+        <v>0.3390876416380325</v>
       </c>
     </row>
     <row r="150">
@@ -11499,10 +11499,10 @@
         <v>0.355284556518682</v>
       </c>
       <c r="W150">
-        <v>0.4643504945711495</v>
+        <v>0.4665651286970262</v>
       </c>
       <c r="X150">
-        <v>0.765121520645315</v>
+        <v>0.7614897356578773</v>
       </c>
     </row>
     <row r="151">
@@ -11573,10 +11573,10 @@
         <v>0.3435149420689261</v>
       </c>
       <c r="W151">
-        <v>0.4151278242443281</v>
+        <v>0.374472908227107</v>
       </c>
       <c r="X151">
-        <v>0.8274919723683627</v>
+        <v>0.9173292233482325</v>
       </c>
     </row>
     <row r="152">
@@ -11647,10 +11647,10 @@
         <v>0.1348510187986166</v>
       </c>
       <c r="W152">
-        <v>0.1098393872091383</v>
+        <v>0.1093654582277777</v>
       </c>
       <c r="X152">
-        <v>1.227710953465674</v>
+        <v>1.233031168925015</v>
       </c>
     </row>
     <row r="153">
@@ -11718,13 +11718,13 @@
         <v>5.410135887613873</v>
       </c>
       <c r="V153">
-        <v>0.3064885794718131</v>
+        <v>0.306488579471813</v>
       </c>
       <c r="W153">
-        <v>0.4650844521927824</v>
+        <v>0.4500965124887217</v>
       </c>
       <c r="X153">
-        <v>0.6589955394698302</v>
+        <v>0.6809396895282384</v>
       </c>
     </row>
     <row r="154">
@@ -11795,10 +11795,10 @@
         <v>0.3535593868771475</v>
       </c>
       <c r="W154">
-        <v>0.4667138725138099</v>
+        <v>0.4663467358501895</v>
       </c>
       <c r="X154">
-        <v>0.7575506272672146</v>
+        <v>0.7581470174388137</v>
       </c>
     </row>
     <row r="155">
@@ -11869,10 +11869,10 @@
         <v>0.2744839367153052</v>
       </c>
       <c r="W155">
-        <v>0.1647002361630317</v>
+        <v>0.1469088684480614</v>
       </c>
       <c r="X155">
-        <v>1.666566746410745</v>
+        <v>1.868395962850582</v>
       </c>
     </row>
     <row r="156">
@@ -11943,10 +11943,10 @@
         <v>0.3387842249322413</v>
       </c>
       <c r="W156">
-        <v>0.3945319023758891</v>
+        <v>0.423887923504525</v>
       </c>
       <c r="X156">
-        <v>0.8586991898299408</v>
+        <v>0.7992306601502525</v>
       </c>
     </row>
     <row r="157">
@@ -12017,10 +12017,10 @@
         <v>0.139751975192218</v>
       </c>
       <c r="W157">
-        <v>0.1989633944260189</v>
+        <v>0.1920988273432647</v>
       </c>
       <c r="X157">
-        <v>0.702400437001905</v>
+        <v>0.7275004076026599</v>
       </c>
     </row>
     <row r="158">
@@ -12091,10 +12091,10 @@
         <v>0.3176660126995638</v>
       </c>
       <c r="W158">
-        <v>0.4203391743090296</v>
+        <v>0.4460802842567393</v>
       </c>
       <c r="X158">
-        <v>0.7557373476354089</v>
+        <v>0.7121274441188544</v>
       </c>
     </row>
     <row r="159">
@@ -12165,10 +12165,10 @@
         <v>0.04866142710228691</v>
       </c>
       <c r="W159">
-        <v>0.05544935267517997</v>
+        <v>0.04408746563181335</v>
       </c>
       <c r="X159">
-        <v>0.8775833216186228</v>
+        <v>1.103747434898435</v>
       </c>
     </row>
     <row r="160">
@@ -12239,10 +12239,10 @@
         <v>0.3143441883452485</v>
       </c>
       <c r="W160">
-        <v>0.4619795933354918</v>
+        <v>0.4440071363415682</v>
       </c>
       <c r="X160">
-        <v>0.6804287307923798</v>
+        <v>0.7079710270769793</v>
       </c>
     </row>
     <row r="161">
@@ -12313,10 +12313,10 @@
         <v>0.1257040395761401</v>
       </c>
       <c r="W161">
-        <v>0.2966308604799728</v>
+        <v>0.3423362398657647</v>
       </c>
       <c r="X161">
-        <v>0.4237726289595788</v>
+        <v>0.3671946610894323</v>
       </c>
     </row>
     <row r="162">
@@ -12384,13 +12384,13 @@
         <v>2.612655548161733</v>
       </c>
       <c r="V162">
-        <v>0.05299185396913852</v>
+        <v>0.05299185396913856</v>
       </c>
       <c r="W162">
-        <v>0.4257452836821026</v>
+        <v>0.3429896298182396</v>
       </c>
       <c r="X162">
-        <v>0.1244684462757472</v>
+        <v>0.1544998721891986</v>
       </c>
     </row>
     <row r="163">
@@ -12461,10 +12461,10 @@
         <v>0.1098556308023984</v>
       </c>
       <c r="W163">
-        <v>0.3439192075954123</v>
+        <v>0.3771063790977744</v>
       </c>
       <c r="X163">
-        <v>0.3194227841197895</v>
+        <v>0.2913120458615089</v>
       </c>
     </row>
     <row r="164">
@@ -12535,10 +12535,10 @@
         <v>0.3172590612384862</v>
       </c>
       <c r="W164">
-        <v>0.3431971560431359</v>
+        <v>0.391073372498677</v>
       </c>
       <c r="X164">
-        <v>0.9244221744034803</v>
+        <v>0.8112520144530156</v>
       </c>
     </row>
     <row r="165">
@@ -12609,10 +12609,10 @@
         <v>0.3195113417990127</v>
       </c>
       <c r="W165">
-        <v>0.4683182249435632</v>
+        <v>0.4644520776046938</v>
       </c>
       <c r="X165">
-        <v>0.682252632464852</v>
+        <v>0.6879317742463765</v>
       </c>
     </row>
     <row r="166">
@@ -12683,10 +12683,10 @@
         <v>0.3050798368524208</v>
       </c>
       <c r="W166">
-        <v>0.114169694613734</v>
+        <v>0.1021818881879179</v>
       </c>
       <c r="X166">
-        <v>2.672161276112595</v>
+        <v>2.985654720838227</v>
       </c>
     </row>
     <row r="167">
@@ -12757,10 +12757,10 @@
         <v>0.2446116280908094</v>
       </c>
       <c r="W167">
-        <v>0.4464500366434989</v>
+        <v>0.4514922956939947</v>
       </c>
       <c r="X167">
-        <v>0.5479037025729659</v>
+        <v>0.5417847224055365</v>
       </c>
     </row>
     <row r="168">
@@ -12831,10 +12831,10 @@
         <v>0.07156490562480917</v>
       </c>
       <c r="W168">
-        <v>0.3209862319140812</v>
+        <v>0.3496109564653146</v>
       </c>
       <c r="X168">
-        <v>0.2229531939674131</v>
+        <v>0.2046986923646634</v>
       </c>
     </row>
     <row r="169">
@@ -12902,13 +12902,13 @@
         <v>3.374149650619156</v>
       </c>
       <c r="V169">
-        <v>0.1609791430623031</v>
+        <v>0.1609791430623032</v>
       </c>
       <c r="W169">
-        <v>0.3959468187489613</v>
+        <v>0.3860304521717519</v>
       </c>
       <c r="X169">
-        <v>0.4065675879678359</v>
+        <v>0.4170115133577095</v>
       </c>
     </row>
     <row r="170">
@@ -12976,13 +12976,13 @@
         <v>3.424075447460282</v>
       </c>
       <c r="V170">
-        <v>0.170302080264099</v>
+        <v>0.1703020802640989</v>
       </c>
       <c r="W170">
-        <v>0.4519301091736327</v>
+        <v>0.4502315818197664</v>
       </c>
       <c r="X170">
-        <v>0.3768327818996199</v>
+        <v>0.378254407600116</v>
       </c>
     </row>
     <row r="171">
@@ -13053,10 +13053,10 @@
         <v>0.1779038931427285</v>
       </c>
       <c r="W171">
-        <v>0.3210658953642768</v>
+        <v>0.3564014777042026</v>
       </c>
       <c r="X171">
-        <v>0.5541039883444527</v>
+        <v>0.4991671030342385</v>
       </c>
     </row>
     <row r="172">
@@ -13127,10 +13127,10 @@
         <v>0.2915546215937295</v>
       </c>
       <c r="W172">
-        <v>0.07036439423120418</v>
+        <v>0.08123028516318316</v>
       </c>
       <c r="X172">
-        <v>4.143496505288397</v>
+        <v>3.589235480437213</v>
       </c>
     </row>
     <row r="173">
@@ -13201,10 +13201,10 @@
         <v>0.1229460438692317</v>
       </c>
       <c r="W173">
-        <v>0.2479979109088117</v>
+        <v>0.3055431783836354</v>
       </c>
       <c r="X173">
-        <v>0.4957543530051698</v>
+        <v>0.4023851703043506</v>
       </c>
     </row>
     <row r="174">
@@ -13275,10 +13275,10 @@
         <v>0.07566925090866737</v>
       </c>
       <c r="W174">
-        <v>0.2683184789652724</v>
+        <v>0.2332933300610613</v>
       </c>
       <c r="X174">
-        <v>0.2820128199909071</v>
+        <v>0.3243523974254299</v>
       </c>
     </row>
     <row r="175">
@@ -13349,10 +13349,10 @@
         <v>0.3165187958546034</v>
       </c>
       <c r="W175">
-        <v>0.2657881111665268</v>
+        <v>0.2691382174639482</v>
       </c>
       <c r="X175">
-        <v>1.190868901040844</v>
+        <v>1.176045523512475</v>
       </c>
     </row>
     <row r="176">
@@ -13423,10 +13423,10 @@
         <v>0.057256869652002</v>
       </c>
       <c r="W176">
-        <v>0.09290206528969375</v>
+        <v>0.09137902160218599</v>
       </c>
       <c r="X176">
-        <v>0.6163142818564863</v>
+        <v>0.6265865911901194</v>
       </c>
     </row>
     <row r="177">
@@ -13497,10 +13497,10 @@
         <v>0.3550254055989672</v>
       </c>
       <c r="W177">
-        <v>0.333603692090426</v>
+        <v>0.3479804748905981</v>
       </c>
       <c r="X177">
-        <v>1.064213058837295</v>
+        <v>1.020245189649172</v>
       </c>
     </row>
     <row r="178">
@@ -13571,10 +13571,10 @@
         <v>0.3283980035562697</v>
       </c>
       <c r="W178">
-        <v>0.3516328204930556</v>
+        <v>0.2952394838468148</v>
       </c>
       <c r="X178">
-        <v>0.9339230709346009</v>
+        <v>1.112310586908692</v>
       </c>
     </row>
     <row r="179">
@@ -13645,10 +13645,10 @@
         <v>0.1750271653385854</v>
       </c>
       <c r="W179">
-        <v>0.3440320470406393</v>
+        <v>0.3200546979397461</v>
       </c>
       <c r="X179">
-        <v>0.5087525038558692</v>
+        <v>0.5468664152261131</v>
       </c>
     </row>
     <row r="180">
@@ -13719,10 +13719,10 @@
         <v>0.2678830342778138</v>
       </c>
       <c r="W180">
-        <v>0.4503431115562355</v>
+        <v>0.4011919293630464</v>
       </c>
       <c r="X180">
-        <v>0.5948420824115628</v>
+        <v>0.667717904253755</v>
       </c>
     </row>
     <row r="181">
@@ -13793,10 +13793,10 @@
         <v>0.2730154688565484</v>
       </c>
       <c r="W181">
-        <v>0.1727303225192213</v>
+        <v>0.1969875767115197</v>
       </c>
       <c r="X181">
-        <v>1.580587964375319</v>
+        <v>1.38595272561969</v>
       </c>
     </row>
     <row r="182">
@@ -13864,13 +13864,13 @@
         <v>3.90923864133073</v>
       </c>
       <c r="V182">
-        <v>0.2647033350468421</v>
+        <v>0.2647033350468422</v>
       </c>
       <c r="W182">
-        <v>0.1704047125145693</v>
+        <v>0.1731631391359395</v>
       </c>
       <c r="X182">
-        <v>1.553380368070574</v>
+        <v>1.528635576645675</v>
       </c>
     </row>
     <row r="183">
@@ -13941,10 +13941,10 @@
         <v>0.354872689539754</v>
       </c>
       <c r="W183">
-        <v>0.3536872094712727</v>
+        <v>0.3830068860138543</v>
       </c>
       <c r="X183">
-        <v>1.003351775344812</v>
+        <v>0.9265438886310713</v>
       </c>
     </row>
     <row r="184">
@@ -14015,10 +14015,10 @@
         <v>0.3181534310393533</v>
       </c>
       <c r="W184">
-        <v>0.4692859828216585</v>
+        <v>0.4667632106587032</v>
       </c>
       <c r="X184">
-        <v>0.6779521287348151</v>
+        <v>0.6816163394505116</v>
       </c>
     </row>
     <row r="185">
@@ -14089,10 +14089,10 @@
         <v>0.01283608805335231</v>
       </c>
       <c r="W185">
-        <v>0.1528740833954625</v>
+        <v>0.1738572329159553</v>
       </c>
       <c r="X185">
-        <v>0.08396510231330227</v>
+        <v>0.07383119953115456</v>
       </c>
     </row>
     <row r="186">
@@ -14163,10 +14163,10 @@
         <v>0.2577504938069649</v>
       </c>
       <c r="W186">
-        <v>0.07363844402666325</v>
+        <v>0.09619594768905972</v>
       </c>
       <c r="X186">
-        <v>3.500216459131561</v>
+        <v>2.679431930335654</v>
       </c>
     </row>
     <row r="187">
@@ -14237,10 +14237,10 @@
         <v>0.3534192546449443</v>
       </c>
       <c r="W187">
-        <v>0.3334668345349072</v>
+        <v>0.2692720885571473</v>
       </c>
       <c r="X187">
-        <v>1.059833296879029</v>
+        <v>1.312498657171215</v>
       </c>
     </row>
     <row r="188">
@@ -14311,10 +14311,10 @@
         <v>0.3362974169906546</v>
       </c>
       <c r="W188">
-        <v>0.4498122554965432</v>
+        <v>0.4357260432987272</v>
       </c>
       <c r="X188">
-        <v>0.7476395160007795</v>
+        <v>0.7718093103746249</v>
       </c>
     </row>
     <row r="189">
@@ -14385,10 +14385,10 @@
         <v>0.3558141737717115</v>
       </c>
       <c r="W189">
-        <v>0.4238749983569693</v>
+        <v>0.4312953796512856</v>
       </c>
       <c r="X189">
-        <v>0.8394318493681482</v>
+        <v>0.8249895328333849</v>
       </c>
     </row>
     <row r="190">
@@ -14459,10 +14459,10 @@
         <v>0.3297365583300999</v>
       </c>
       <c r="W190">
-        <v>0.4327676853614199</v>
+        <v>0.4487330117353845</v>
       </c>
       <c r="X190">
-        <v>0.7619250916452439</v>
+        <v>0.7348168057770258</v>
       </c>
     </row>
     <row r="191">
@@ -14533,10 +14533,10 @@
         <v>0.3365816351284808</v>
       </c>
       <c r="W191">
-        <v>0.2659692725207936</v>
+        <v>0.2822426467508587</v>
       </c>
       <c r="X191">
-        <v>1.265490678447326</v>
+        <v>1.192525789433899</v>
       </c>
     </row>
     <row r="192">
@@ -14604,13 +14604,13 @@
         <v>3.342422986362791</v>
       </c>
       <c r="V192">
-        <v>0.1551573519241148</v>
+        <v>0.1551573519241149</v>
       </c>
       <c r="W192">
-        <v>0.4568356052844861</v>
+        <v>0.4529994483707583</v>
       </c>
       <c r="X192">
-        <v>0.3396349805691992</v>
+        <v>0.3425111277334846</v>
       </c>
     </row>
     <row r="193">
@@ -14678,13 +14678,13 @@
         <v>2.675358840894337</v>
       </c>
       <c r="V193">
-        <v>0.05911784560742084</v>
+        <v>0.05911784560742082</v>
       </c>
       <c r="W193">
-        <v>0.1510754431315433</v>
+        <v>0.1476387727071498</v>
       </c>
       <c r="X193">
-        <v>0.3913134019798716</v>
+        <v>0.4004222232643762</v>
       </c>
     </row>
     <row r="194">
@@ -14752,13 +14752,13 @@
         <v>3.267730841852184</v>
       </c>
       <c r="V194">
-        <v>0.1418079875699633</v>
+        <v>0.1418079875699634</v>
       </c>
       <c r="W194">
-        <v>0.3617878288488972</v>
+        <v>0.3495636153402611</v>
       </c>
       <c r="X194">
-        <v>0.3919645058849954</v>
+        <v>0.4056714753677357</v>
       </c>
     </row>
     <row r="195">
@@ -14829,10 +14829,10 @@
         <v>0.3591784541322251</v>
       </c>
       <c r="W195">
-        <v>0.4480068714993771</v>
+        <v>0.4478268019204416</v>
       </c>
       <c r="X195">
-        <v>0.8017253238329504</v>
+        <v>0.8020476947604283</v>
       </c>
     </row>
     <row r="196">
@@ -14903,10 +14903,10 @@
         <v>0.1103845594544794</v>
       </c>
       <c r="W196">
-        <v>0.3830572358381989</v>
+        <v>0.3827077409152466</v>
       </c>
       <c r="X196">
-        <v>0.2881672740444073</v>
+        <v>0.2884304330779785</v>
       </c>
     </row>
     <row r="197">
@@ -14977,10 +14977,10 @@
         <v>0.2658882355675921</v>
       </c>
       <c r="W197">
-        <v>0.4448591394701419</v>
+        <v>0.429358759171333</v>
       </c>
       <c r="X197">
-        <v>0.5976908463301066</v>
+        <v>0.6192682224085965</v>
       </c>
     </row>
     <row r="198">
@@ -15051,10 +15051,10 @@
         <v>0.207826924609039</v>
       </c>
       <c r="W198">
-        <v>0.3372616901464021</v>
+        <v>0.3356393467681936</v>
       </c>
       <c r="X198">
-        <v>0.6162185942874902</v>
+        <v>0.6191971430351187</v>
       </c>
     </row>
     <row r="199">
@@ -15125,10 +15125,10 @@
         <v>0.3550494276453938</v>
       </c>
       <c r="W199">
-        <v>0.4050258914868527</v>
+        <v>0.4117238440898644</v>
       </c>
       <c r="X199">
-        <v>0.8766092121716096</v>
+        <v>0.8623484715349625</v>
       </c>
     </row>
     <row r="200">
@@ -15199,10 +15199,10 @@
         <v>0.2782917662996979</v>
       </c>
       <c r="W200">
-        <v>0.3767960887291306</v>
+        <v>0.3883527849805035</v>
       </c>
       <c r="X200">
-        <v>0.7385739253247795</v>
+        <v>0.7165952635402603</v>
       </c>
     </row>
     <row r="201">
@@ -15273,10 +15273,10 @@
         <v>0.3517586898511429</v>
       </c>
       <c r="W201">
-        <v>0.4633170861773171</v>
+        <v>0.4577839457571778</v>
       </c>
       <c r="X201">
-        <v>0.7592180395361474</v>
+        <v>0.7683945518651415</v>
       </c>
     </row>
     <row r="202">
@@ -15347,10 +15347,10 @@
         <v>0.354449065303852</v>
       </c>
       <c r="W202">
-        <v>0.3390025153903697</v>
+        <v>0.3688003180294475</v>
       </c>
       <c r="X202">
-        <v>1.045564705901061</v>
+        <v>0.9610866584869656</v>
       </c>
     </row>
     <row r="203">
@@ -15418,13 +15418,13 @@
         <v>4.374796046632174</v>
       </c>
       <c r="V203">
-        <v>0.3373077710095609</v>
+        <v>0.3373077710095608</v>
       </c>
       <c r="W203">
-        <v>0.4430347440885647</v>
+        <v>0.4467508917139171</v>
       </c>
       <c r="X203">
-        <v>0.7613573777458219</v>
+        <v>0.7550242814636851</v>
       </c>
     </row>
     <row r="204">
@@ -15495,10 +15495,10 @@
         <v>0.2535349206470169</v>
       </c>
       <c r="W204">
-        <v>0.3689847119911194</v>
+        <v>0.3534959672260001</v>
       </c>
       <c r="X204">
-        <v>0.687114973622861</v>
+        <v>0.7172215361792933</v>
       </c>
     </row>
     <row r="205">
@@ -15569,10 +15569,10 @@
         <v>0.1778462463781801</v>
       </c>
       <c r="W205">
-        <v>0.3371052973725773</v>
+        <v>0.3769644064241065</v>
       </c>
       <c r="X205">
-        <v>0.5275688272012525</v>
+        <v>0.4717852490775824</v>
       </c>
     </row>
     <row r="206">
@@ -15643,10 +15643,10 @@
         <v>0.05769550158882739</v>
       </c>
       <c r="W206">
-        <v>0.09032816827266585</v>
+        <v>0.1357044979879573</v>
       </c>
       <c r="X206">
-        <v>0.638732110836865</v>
+        <v>0.4251554107952075</v>
       </c>
     </row>
     <row r="207">
@@ -15714,13 +15714,13 @@
         <v>3.832788910272065</v>
       </c>
       <c r="V207">
-        <v>0.2501044663152432</v>
+        <v>0.2501044663152433</v>
       </c>
       <c r="W207">
-        <v>0.4464559525166797</v>
+        <v>0.4644745872611323</v>
       </c>
       <c r="X207">
-        <v>0.5601996454642394</v>
+        <v>0.538467492462902</v>
       </c>
     </row>
     <row r="208">
@@ -15788,13 +15788,13 @@
         <v>3.646294663873569</v>
       </c>
       <c r="V208">
-        <v>0.2134607689191364</v>
+        <v>0.2134607689191365</v>
       </c>
       <c r="W208">
-        <v>0.3218706233464436</v>
+        <v>0.2658403730635598</v>
       </c>
       <c r="X208">
-        <v>0.6631881055183442</v>
+        <v>0.802965954565901</v>
       </c>
     </row>
     <row r="209">
@@ -15865,10 +15865,10 @@
         <v>0.2395764982478107</v>
       </c>
       <c r="W209">
-        <v>0.4219853228467111</v>
+        <v>0.4390919349372011</v>
       </c>
       <c r="X209">
-        <v>0.5677365663611919</v>
+        <v>0.5456180794622769</v>
       </c>
     </row>
     <row r="210">
@@ -15939,10 +15939,10 @@
         <v>0.07017538064969694</v>
       </c>
       <c r="W210">
-        <v>0.4053037234412794</v>
+        <v>0.3203834599941446</v>
       </c>
       <c r="X210">
-        <v>0.1731426991439026</v>
+        <v>0.2190355914471349</v>
       </c>
     </row>
     <row r="211">
@@ -16010,13 +16010,13 @@
         <v>3.179052870150914</v>
       </c>
       <c r="V211">
-        <v>0.126690061483318</v>
+        <v>0.1266900614833181</v>
       </c>
       <c r="W211">
-        <v>0.4607534256740868</v>
+        <v>0.404151735252779</v>
       </c>
       <c r="X211">
-        <v>0.2749628205107086</v>
+        <v>0.3134715267375485</v>
       </c>
     </row>
     <row r="212">
@@ -16084,13 +16084,13 @@
         <v>3.107238030024819</v>
       </c>
       <c r="V212">
-        <v>0.1150931188520525</v>
+        <v>0.1150931188520524</v>
       </c>
       <c r="W212">
-        <v>0.07442739608115022</v>
+        <v>0.0849012108194156</v>
       </c>
       <c r="X212">
-        <v>1.546381103089558</v>
+        <v>1.355612219675581</v>
       </c>
     </row>
     <row r="213">
@@ -16161,10 +16161,10 @@
         <v>0.06175985702808136</v>
       </c>
       <c r="W213">
-        <v>0.04897528986823853</v>
+        <v>0.04802619920611908</v>
       </c>
       <c r="X213">
-        <v>1.261041173911129</v>
+        <v>1.285961788544209</v>
       </c>
     </row>
     <row r="214">
@@ -16235,10 +16235,10 @@
         <v>0.3600263520368789</v>
       </c>
       <c r="W214">
-        <v>0.448468108176709</v>
+        <v>0.4473038512699343</v>
       </c>
       <c r="X214">
-        <v>0.8027914259067412</v>
+        <v>0.8048809573508766</v>
       </c>
     </row>
     <row r="215">
@@ -16309,10 +16309,10 @@
         <v>0.322133497834941</v>
       </c>
       <c r="W215">
-        <v>0.2500653102145401</v>
+        <v>0.256907714880152</v>
       </c>
       <c r="X215">
-        <v>1.288197461529434</v>
+        <v>1.253887988475616</v>
       </c>
     </row>
     <row r="216">
@@ -16383,10 +16383,10 @@
         <v>0.32972312109727</v>
       </c>
       <c r="W216">
-        <v>0.2743463555800067</v>
+        <v>0.3065279744939797</v>
       </c>
       <c r="X216">
-        <v>1.201849831029062</v>
+        <v>1.0756705701709</v>
       </c>
     </row>
     <row r="217">
@@ -16457,10 +16457,10 @@
         <v>0.190686343841743</v>
       </c>
       <c r="W217">
-        <v>0.4507143892386536</v>
+        <v>0.4323927188879495</v>
       </c>
       <c r="X217">
-        <v>0.4230757845647001</v>
+        <v>0.4410026707483887</v>
       </c>
     </row>
     <row r="218">
@@ -16531,10 +16531,10 @@
         <v>0.2994306075379641</v>
       </c>
       <c r="W218">
-        <v>0.4625832459185067</v>
+        <v>0.4578061951931878</v>
       </c>
       <c r="X218">
-        <v>0.6473010213403076</v>
+        <v>0.6540553856236231</v>
       </c>
     </row>
     <row r="219">
@@ -16605,10 +16605,10 @@
         <v>0.3328509942091381</v>
       </c>
       <c r="W219">
-        <v>0.4273319122817782</v>
+        <v>0.3592724105220246</v>
       </c>
       <c r="X219">
-        <v>0.7789050727146716</v>
+        <v>0.9264585436034566</v>
       </c>
     </row>
     <row r="220">
@@ -16679,10 +16679,10 @@
         <v>0.3604465844781323</v>
       </c>
       <c r="W220">
-        <v>0.4202943383071376</v>
+        <v>0.4488458840472389</v>
       </c>
       <c r="X220">
-        <v>0.8576051391268789</v>
+        <v>0.8030519991137915</v>
       </c>
     </row>
     <row r="221">
@@ -16753,10 +16753,10 @@
         <v>0.2055123071046157</v>
       </c>
       <c r="W221">
-        <v>0.3458302681145625</v>
+        <v>0.2679797575969747</v>
       </c>
       <c r="X221">
-        <v>0.5942577213528805</v>
+        <v>0.7668948914182304</v>
       </c>
     </row>
     <row r="222">
@@ -16827,10 +16827,10 @@
         <v>0.00488733767943291</v>
       </c>
       <c r="W222">
-        <v>0.0262815697548556</v>
+        <v>0.02410195336083716</v>
       </c>
       <c r="X222">
-        <v>0.1859606456166858</v>
+        <v>0.2027776589832033</v>
       </c>
     </row>
     <row r="223">
@@ -16901,10 +16901,10 @@
         <v>0.3571211185140149</v>
       </c>
       <c r="W223">
-        <v>0.3487198551868321</v>
+        <v>0.3665408109925516</v>
       </c>
       <c r="X223">
-        <v>1.024091726359205</v>
+        <v>0.9743011086459126</v>
       </c>
     </row>
     <row r="224">
@@ -16975,10 +16975,10 @@
         <v>0.250666647226813</v>
       </c>
       <c r="W224">
-        <v>0.3898940029449234</v>
+        <v>0.396140358739002</v>
       </c>
       <c r="X224">
-        <v>0.6429097276015867</v>
+        <v>0.6327723032935538</v>
       </c>
     </row>
     <row r="225">
@@ -17049,10 +17049,10 @@
         <v>0.06576387490783128</v>
       </c>
       <c r="W225">
-        <v>0.01597657840622591</v>
+        <v>0.03107151491027107</v>
       </c>
       <c r="X225">
-        <v>4.116267778725623</v>
+        <v>2.116532621526356</v>
       </c>
     </row>
     <row r="226">
@@ -17123,10 +17123,10 @@
         <v>0.07409355855911637</v>
       </c>
       <c r="W226">
-        <v>0.2890190350397535</v>
+        <v>0.2900745130748229</v>
       </c>
       <c r="X226">
-        <v>0.2563622100147317</v>
+        <v>0.2554293990661786</v>
       </c>
     </row>
     <row r="227">
@@ -17197,10 +17197,10 @@
         <v>0.1909727524707198</v>
       </c>
       <c r="W227">
-        <v>0.4383138725025045</v>
+        <v>0.3699018595853346</v>
       </c>
       <c r="X227">
-        <v>0.4356986270600608</v>
+        <v>0.5162795144766318</v>
       </c>
     </row>
     <row r="228">
@@ -17271,10 +17271,10 @@
         <v>0.2833773235423127</v>
       </c>
       <c r="W228">
-        <v>0.333118449814669</v>
+        <v>0.3863320002917772</v>
       </c>
       <c r="X228">
-        <v>0.8506803621953997</v>
+        <v>0.7335072510904922</v>
       </c>
     </row>
     <row r="229">
@@ -17345,10 +17345,10 @@
         <v>0.1412775632713115</v>
       </c>
       <c r="W229">
-        <v>0.2978736513240676</v>
+        <v>0.2851858415472536</v>
       </c>
       <c r="X229">
-        <v>0.4742868751342175</v>
+        <v>0.4953877180747159</v>
       </c>
     </row>
     <row r="230">
@@ -17419,10 +17419,10 @@
         <v>0.1132454611033031</v>
       </c>
       <c r="W230">
-        <v>0.2488195159020938</v>
+        <v>0.2319976636126025</v>
       </c>
       <c r="X230">
-        <v>0.4551309437796</v>
+        <v>0.4881319033126308</v>
       </c>
     </row>
     <row r="231">
@@ -17493,10 +17493,10 @@
         <v>0.1594038172783467</v>
       </c>
       <c r="W231">
-        <v>0.2915577261001696</v>
+        <v>0.2450808651797881</v>
       </c>
       <c r="X231">
-        <v>0.5467315835203791</v>
+        <v>0.6504131489882335</v>
       </c>
     </row>
     <row r="232">
@@ -17564,13 +17564,13 @@
         <v>3.883675969418653</v>
       </c>
       <c r="V232">
-        <v>0.2598674949130235</v>
+        <v>0.2598674949130236</v>
       </c>
       <c r="W232">
-        <v>0.2899460616042387</v>
+        <v>0.2746927545218388</v>
       </c>
       <c r="X232">
-        <v>0.8962615097277267</v>
+        <v>0.9460296663644379</v>
       </c>
     </row>
     <row r="233">
@@ -17641,10 +17641,10 @@
         <v>0.2873919951031398</v>
       </c>
       <c r="W233">
-        <v>0.4637044987755373</v>
+        <v>0.4585960239459836</v>
       </c>
       <c r="X233">
-        <v>0.6197740066400692</v>
+        <v>0.6266779040740019</v>
       </c>
     </row>
     <row r="234">
@@ -17715,10 +17715,10 @@
         <v>0.1038108279708473</v>
       </c>
       <c r="W234">
-        <v>0.1153577273026231</v>
+        <v>0.1289751649812447</v>
       </c>
       <c r="X234">
-        <v>0.8999035469770974</v>
+        <v>0.8048900576009592</v>
       </c>
     </row>
     <row r="235">
@@ -17789,10 +17789,10 @@
         <v>0.3017481972354911</v>
       </c>
       <c r="W235">
-        <v>0.4502477298104013</v>
+        <v>0.4444542059849202</v>
       </c>
       <c r="X235">
-        <v>0.6701826067230963</v>
+        <v>0.6789185323757044</v>
       </c>
     </row>
     <row r="236">
@@ -17863,10 +17863,10 @@
         <v>0.1604847557896742</v>
       </c>
       <c r="W236">
-        <v>0.4670347062165329</v>
+        <v>0.4667803805840066</v>
       </c>
       <c r="X236">
-        <v>0.3436249033605399</v>
+        <v>0.343812127641024</v>
       </c>
     </row>
     <row r="237">
@@ -17937,10 +17937,10 @@
         <v>0.2643919371732954</v>
       </c>
       <c r="W237">
-        <v>0.4689854966031982</v>
+        <v>0.4662250574974674</v>
       </c>
       <c r="X237">
-        <v>0.563752907260997</v>
+        <v>0.5670907921433022</v>
       </c>
     </row>
     <row r="238">
@@ -18011,10 +18011,10 @@
         <v>0.3434760324462707</v>
       </c>
       <c r="W238">
-        <v>0.3374219338902982</v>
+        <v>0.3517215261352774</v>
       </c>
       <c r="X238">
-        <v>1.017942219956397</v>
+        <v>0.9765567556253711</v>
       </c>
     </row>
     <row r="239">
@@ -18085,10 +18085,10 @@
         <v>0.3496368828525376</v>
       </c>
       <c r="W239">
-        <v>0.3313699935389106</v>
+        <v>0.3321787160658404</v>
       </c>
       <c r="X239">
-        <v>1.055125357364266</v>
+        <v>1.05255654845519</v>
       </c>
     </row>
     <row r="240">
@@ -18159,10 +18159,10 @@
         <v>0.3604269619013483</v>
       </c>
       <c r="W240">
-        <v>0.4444999498296386</v>
+        <v>0.4526604306458803</v>
       </c>
       <c r="X240">
-        <v>0.8108593983857308</v>
+        <v>0.7962413710141876</v>
       </c>
     </row>
     <row r="241">
@@ -18233,10 +18233,10 @@
         <v>0.02060771232176214</v>
       </c>
       <c r="W241">
-        <v>0.02646493940560091</v>
+        <v>0.01819036757017475</v>
       </c>
       <c r="X241">
-        <v>0.7786797470392404</v>
+        <v>1.132891473592371</v>
       </c>
     </row>
     <row r="242">
@@ -18307,10 +18307,10 @@
         <v>0.3366865034749013</v>
       </c>
       <c r="W242">
-        <v>0.4686953943071611</v>
+        <v>0.4667704367083596</v>
       </c>
       <c r="X242">
-        <v>0.7183482226715729</v>
+        <v>0.7213106850750802</v>
       </c>
     </row>
     <row r="243">
@@ -18378,13 +18378,13 @@
         <v>3.559469494162235</v>
       </c>
       <c r="V243">
-        <v>0.1963699773015095</v>
+        <v>0.1963699773015096</v>
       </c>
       <c r="W243">
-        <v>0.3697154208328011</v>
+        <v>0.3070294462473543</v>
       </c>
       <c r="X243">
-        <v>0.5311381842260651</v>
+        <v>0.6395802738194258</v>
       </c>
     </row>
     <row r="244">
@@ -18455,10 +18455,10 @@
         <v>0.3599693163416156</v>
       </c>
       <c r="W244">
-        <v>0.4670973916985936</v>
+        <v>0.4627374856533506</v>
       </c>
       <c r="X244">
-        <v>0.7706515230851362</v>
+        <v>0.7779125908361756</v>
       </c>
     </row>
     <row r="245">
@@ -18529,10 +18529,10 @@
         <v>0.238818455442645</v>
       </c>
       <c r="W245">
-        <v>0.2809764934186043</v>
+        <v>0.2957244866088181</v>
       </c>
       <c r="X245">
-        <v>0.8499588436632974</v>
+        <v>0.8075707838105136</v>
       </c>
     </row>
     <row r="246">
@@ -18603,10 +18603,10 @@
         <v>0.2443742081806819</v>
       </c>
       <c r="W246">
-        <v>0.4489656702647352</v>
+        <v>0.440963446316457</v>
       </c>
       <c r="X246">
-        <v>0.5443048864662308</v>
+        <v>0.5541824616576199</v>
       </c>
     </row>
     <row r="247">
@@ -18677,10 +18677,10 @@
         <v>0.360239132962057</v>
       </c>
       <c r="W247">
-        <v>0.3390886502775338</v>
+        <v>0.3536256390239486</v>
       </c>
       <c r="X247">
-        <v>1.062374493122115</v>
+        <v>1.018701963908393</v>
       </c>
     </row>
     <row r="248">
@@ -18748,13 +18748,13 @@
         <v>4.05299365703396</v>
       </c>
       <c r="V248">
-        <v>0.2907178681532963</v>
+        <v>0.2907178681532964</v>
       </c>
       <c r="W248">
-        <v>0.3948490153823457</v>
+        <v>0.3876228541223947</v>
       </c>
       <c r="X248">
-        <v>0.7362760367321273</v>
+        <v>0.7500018769829813</v>
       </c>
     </row>
     <row r="249">
@@ -18825,10 +18825,10 @@
         <v>0.2965739781323252</v>
       </c>
       <c r="W249">
-        <v>0.468137244031804</v>
+        <v>0.4652326228122358</v>
       </c>
       <c r="X249">
-        <v>0.633519297841162</v>
+        <v>0.6374745956970865</v>
       </c>
     </row>
     <row r="250">
@@ -18899,10 +18899,10 @@
         <v>0.3059404638109315</v>
       </c>
       <c r="W250">
-        <v>0.1380696000675881</v>
+        <v>0.1696176702611839</v>
       </c>
       <c r="X250">
-        <v>2.215842326342417</v>
+        <v>1.803706319865334</v>
       </c>
     </row>
     <row r="251">
@@ -18973,10 +18973,10 @@
         <v>0.3380362350049619</v>
       </c>
       <c r="W251">
-        <v>0.3467669597702761</v>
+        <v>0.3512424577228724</v>
       </c>
       <c r="X251">
-        <v>0.9748225010505669</v>
+        <v>0.9624014055603433</v>
       </c>
     </row>
     <row r="252">
@@ -19047,10 +19047,10 @@
         <v>0.3062658889777098</v>
       </c>
       <c r="W252">
-        <v>0.3832837798190725</v>
+        <v>0.3920392023746765</v>
       </c>
       <c r="X252">
-        <v>0.7990577872152101</v>
+        <v>0.7812124071332232</v>
       </c>
     </row>
     <row r="253">
@@ -19121,10 +19121,10 @@
         <v>0.2240434926506389</v>
       </c>
       <c r="W253">
-        <v>0.4583474597079494</v>
+        <v>0.452982418217006</v>
       </c>
       <c r="X253">
-        <v>0.4888071001711132</v>
+        <v>0.4945964426886619</v>
       </c>
     </row>
     <row r="254">
@@ -19192,13 +19192,13 @@
         <v>3.598325458054636</v>
       </c>
       <c r="V254">
-        <v>0.2039976851130865</v>
+        <v>0.2039976851130866</v>
       </c>
       <c r="W254">
-        <v>0.4692920183717909</v>
+        <v>0.4654942276735332</v>
       </c>
       <c r="X254">
-        <v>0.4346924241772887</v>
+        <v>0.4382389146534316</v>
       </c>
     </row>
     <row r="255">
@@ -19269,10 +19269,10 @@
         <v>0.2168234673697528</v>
       </c>
       <c r="W255">
-        <v>0.4616197187457935</v>
+        <v>0.4439066553337664</v>
       </c>
       <c r="X255">
-        <v>0.4697014849340826</v>
+        <v>0.4884438310723831</v>
       </c>
     </row>
     <row r="256">
@@ -19343,10 +19343,10 @@
         <v>0.05080830253757627</v>
       </c>
       <c r="W256">
-        <v>0.1631461945343354</v>
+        <v>0.1558318816604335</v>
       </c>
       <c r="X256">
-        <v>0.3114280580224216</v>
+        <v>0.3260456204224657</v>
       </c>
     </row>
     <row r="257">
@@ -19417,10 +19417,10 @@
         <v>0.360596054593313</v>
       </c>
       <c r="W257">
-        <v>0.2433456160164099</v>
+        <v>0.2567727701603897</v>
       </c>
       <c r="X257">
-        <v>1.481826796374242</v>
+        <v>1.404339153127769</v>
       </c>
     </row>
     <row r="258">
@@ -19488,13 +19488,13 @@
         <v>3.48615571242742</v>
       </c>
       <c r="V258">
-        <v>0.1821331609781953</v>
+        <v>0.1821331609781952</v>
       </c>
       <c r="W258">
-        <v>0.2729364847586458</v>
+        <v>0.2966176898146517</v>
       </c>
       <c r="X258">
-        <v>0.6673096897956068</v>
+        <v>0.6140333743817007</v>
       </c>
     </row>
     <row r="259">
@@ -19565,10 +19565,10 @@
         <v>0.3590831837648463</v>
       </c>
       <c r="W259">
-        <v>0.4562160270669974</v>
+        <v>0.4573007900854487</v>
       </c>
       <c r="X259">
-        <v>0.7870902433511249</v>
+        <v>0.78522318690451</v>
       </c>
     </row>
     <row r="260">
@@ -19639,10 +19639,10 @@
         <v>0.1976986775586783</v>
       </c>
       <c r="W260">
-        <v>0.106721432752294</v>
+        <v>0.0932010228547922</v>
       </c>
       <c r="X260">
-        <v>1.852473982593049</v>
+        <v>2.121207166006044</v>
       </c>
     </row>
     <row r="261">
@@ -19713,10 +19713,10 @@
         <v>0.3606140956758297</v>
       </c>
       <c r="W261">
-        <v>0.3786466171112668</v>
+        <v>0.352065023756501</v>
       </c>
       <c r="X261">
-        <v>0.9523763830956448</v>
+        <v>1.024282650483456</v>
       </c>
     </row>
     <row r="262">
@@ -19787,10 +19787,10 @@
         <v>0.3274441860119131</v>
       </c>
       <c r="W262">
-        <v>0.3909360940052046</v>
+        <v>0.3866767681886959</v>
       </c>
       <c r="X262">
-        <v>0.8375900589203559</v>
+        <v>0.8468162893409783</v>
       </c>
     </row>
     <row r="263">
@@ -19861,10 +19861,10 @@
         <v>0.3573260673404126</v>
       </c>
       <c r="W263">
-        <v>0.4420707060842904</v>
+        <v>0.447930038605734</v>
       </c>
       <c r="X263">
-        <v>0.8083007139411781</v>
+        <v>0.7977274050489153</v>
       </c>
     </row>
     <row r="264">
@@ -19935,10 +19935,10 @@
         <v>0.1651718465642567</v>
       </c>
       <c r="W264">
-        <v>0.381762689894445</v>
+        <v>0.3742117297336566</v>
       </c>
       <c r="X264">
-        <v>0.4326558119388923</v>
+        <v>0.4413860748881841</v>
       </c>
     </row>
     <row r="265">
@@ -20009,10 +20009,10 @@
         <v>0.1924872429022619</v>
       </c>
       <c r="W265">
-        <v>0.34838516022025</v>
+        <v>0.3498020344828466</v>
       </c>
       <c r="X265">
-        <v>0.5525127499132597</v>
+        <v>0.5502747952476559</v>
       </c>
     </row>
     <row r="266">
@@ -20083,10 +20083,10 @@
         <v>0.3414324837032593</v>
       </c>
       <c r="W266">
-        <v>0.4692940948728692</v>
+        <v>0.466779522772965</v>
       </c>
       <c r="X266">
-        <v>0.7275448113101713</v>
+        <v>0.7314641432317657</v>
       </c>
     </row>
     <row r="267">
@@ -20157,10 +20157,10 @@
         <v>0.2459156784639581</v>
       </c>
       <c r="W267">
-        <v>0.4556037225102079</v>
+        <v>0.4553843414571594</v>
       </c>
       <c r="X267">
-        <v>0.5397578340867228</v>
+        <v>0.5400178620043589</v>
       </c>
     </row>
     <row r="268">
@@ -20231,10 +20231,10 @@
         <v>0.347298567844313</v>
       </c>
       <c r="W268">
-        <v>0.3635866454096441</v>
+        <v>0.3750523521105784</v>
       </c>
       <c r="X268">
-        <v>0.955201661636995</v>
+        <v>0.9260002394063571</v>
       </c>
     </row>
     <row r="269">
@@ -20305,10 +20305,10 @@
         <v>0.3602428066144729</v>
       </c>
       <c r="W269">
-        <v>0.4500578550164827</v>
+        <v>0.4562084913926819</v>
       </c>
       <c r="X269">
-        <v>0.800436660751715</v>
+        <v>0.7896451149226715</v>
       </c>
     </row>
     <row r="270">
@@ -20379,10 +20379,10 @@
         <v>0.2739993294419336</v>
       </c>
       <c r="W270">
-        <v>0.4245291263423989</v>
+        <v>0.4235705939146163</v>
       </c>
       <c r="X270">
-        <v>0.6454193892480835</v>
+        <v>0.6468799614006411</v>
       </c>
     </row>
     <row r="271">
@@ -20453,10 +20453,10 @@
         <v>0.3411950510914296</v>
       </c>
       <c r="W271">
-        <v>0.4575329525618488</v>
+        <v>0.4548812664384247</v>
       </c>
       <c r="X271">
-        <v>0.7457278195613839</v>
+        <v>0.7500749673928717</v>
       </c>
     </row>
     <row r="272">
@@ -20527,10 +20527,10 @@
         <v>0.2919232020787598</v>
       </c>
       <c r="W272">
-        <v>0.3022771889038491</v>
+        <v>0.3542961154419805</v>
       </c>
       <c r="X272">
-        <v>0.965746714587905</v>
+        <v>0.8239525903765239</v>
       </c>
     </row>
     <row r="273">
@@ -20601,10 +20601,10 @@
         <v>0.3560227993481053</v>
       </c>
       <c r="W273">
-        <v>0.02050672297775068</v>
+        <v>0.0173615270974054</v>
       </c>
       <c r="X273">
-        <v>17.36127219031445</v>
+        <v>20.50642189196083</v>
       </c>
     </row>
     <row r="274">
@@ -20675,10 +20675,10 @@
         <v>0.2474577731071414</v>
       </c>
       <c r="W274">
-        <v>0.2845926563577565</v>
+        <v>0.2763815540290426</v>
       </c>
       <c r="X274">
-        <v>0.8695156659139739</v>
+        <v>0.8953483671386339</v>
       </c>
     </row>
     <row r="275">
@@ -20749,10 +20749,10 @@
         <v>0.176434375657799</v>
       </c>
       <c r="W275">
-        <v>0.1436443185098961</v>
+        <v>0.115439280186965</v>
       </c>
       <c r="X275">
-        <v>1.228272565793432</v>
+        <v>1.528373837501816</v>
       </c>
     </row>
     <row r="276">
@@ -20823,10 +20823,10 @@
         <v>0.3413254208540492</v>
       </c>
       <c r="W276">
-        <v>0.4380348903755694</v>
+        <v>0.4459473905169202</v>
       </c>
       <c r="X276">
-        <v>0.7792197113828037</v>
+        <v>0.7653939189068953</v>
       </c>
     </row>
     <row r="277">
@@ -20897,10 +20897,10 @@
         <v>0.3462768832524692</v>
       </c>
       <c r="W277">
-        <v>0.4627140819319452</v>
+        <v>0.4601599649515607</v>
       </c>
       <c r="X277">
-        <v>0.7483603736602914</v>
+        <v>0.7525141464423584</v>
       </c>
     </row>
     <row r="278">
@@ -20971,10 +20971,10 @@
         <v>0.05718226359057044</v>
       </c>
       <c r="W278">
-        <v>0.09497250601876148</v>
+        <v>0.09699965780467461</v>
       </c>
       <c r="X278">
-        <v>0.602092815991128</v>
+        <v>0.589509951733198</v>
       </c>
     </row>
     <row r="279">
@@ -21045,10 +21045,10 @@
         <v>0.3274417600337904</v>
       </c>
       <c r="W279">
-        <v>0.3788137456599172</v>
+        <v>0.3774701095592244</v>
       </c>
       <c r="X279">
-        <v>0.8643872187461582</v>
+        <v>0.8674640766023761</v>
       </c>
     </row>
     <row r="280">
@@ -21119,10 +21119,10 @@
         <v>0.2893492488009526</v>
       </c>
       <c r="W280">
-        <v>0.2443802998123513</v>
+        <v>0.2443898497792009</v>
       </c>
       <c r="X280">
-        <v>1.184012168833294</v>
+        <v>1.183965901457738</v>
       </c>
     </row>
     <row r="281">
@@ -21193,10 +21193,10 @@
         <v>0.256235272566264</v>
       </c>
       <c r="W281">
-        <v>0.3921176768454175</v>
+        <v>0.3360283982534311</v>
       </c>
       <c r="X281">
-        <v>0.6534652419336818</v>
+        <v>0.7625405290091362</v>
       </c>
     </row>
     <row r="282">
@@ -21267,10 +21267,10 @@
         <v>0.1875110432349105</v>
       </c>
       <c r="W282">
-        <v>0.1977645706868363</v>
+        <v>0.1873045187110743</v>
       </c>
       <c r="X282">
-        <v>0.9481528596537019</v>
+        <v>1.00110261367562</v>
       </c>
     </row>
     <row r="283">
@@ -21341,10 +21341,10 @@
         <v>0.3464870492635849</v>
       </c>
       <c r="W283">
-        <v>0.4247720042305973</v>
+        <v>0.4049510558824833</v>
       </c>
       <c r="X283">
-        <v>0.8157012369287087</v>
+        <v>0.8556269806693265</v>
       </c>
     </row>
     <row r="284">
@@ -21415,10 +21415,10 @@
         <v>0.3346994850591831</v>
       </c>
       <c r="W284">
-        <v>0.4231871398825583</v>
+        <v>0.4131307773890177</v>
       </c>
       <c r="X284">
-        <v>0.7909018340020161</v>
+        <v>0.8101538383910305</v>
       </c>
     </row>
     <row r="285">
@@ -21489,10 +21489,10 @@
         <v>0.3602906248390758</v>
       </c>
       <c r="W285">
-        <v>0.3202934749558226</v>
+        <v>0.3198481685608738</v>
       </c>
       <c r="X285">
-        <v>1.124876567931239</v>
+        <v>1.126442669533388</v>
       </c>
     </row>
     <row r="286">
@@ -21563,10 +21563,10 @@
         <v>0.1803436085859538</v>
       </c>
       <c r="W286">
-        <v>0.4436228355764364</v>
+        <v>0.4397931040306174</v>
       </c>
       <c r="X286">
-        <v>0.4065246288586976</v>
+        <v>0.4100646575245043</v>
       </c>
     </row>
     <row r="287">
@@ -21637,10 +21637,10 @@
         <v>0.3575436923401607</v>
       </c>
       <c r="W287">
-        <v>0.433972263584417</v>
+        <v>0.4288012426199858</v>
       </c>
       <c r="X287">
-        <v>0.823886046050523</v>
+        <v>0.8338214930431643</v>
       </c>
     </row>
     <row r="288">
@@ -21711,10 +21711,10 @@
         <v>0.3604989005424212</v>
       </c>
       <c r="W288">
-        <v>0.3446983879519509</v>
+        <v>0.3371856073360886</v>
       </c>
       <c r="X288">
-        <v>1.045838661109935</v>
+        <v>1.069140831337724</v>
       </c>
     </row>
     <row r="289">
@@ -21785,10 +21785,10 @@
         <v>0.2371496624571654</v>
       </c>
       <c r="W289">
-        <v>0.380255134785281</v>
+        <v>0.3824483503994273</v>
       </c>
       <c r="X289">
-        <v>0.6236593296526474</v>
+        <v>0.6200828483362195</v>
       </c>
     </row>
     <row r="290">
@@ -21856,13 +21856,13 @@
         <v>2.572737722903367</v>
       </c>
       <c r="V290">
-        <v>0.04934430869859643</v>
+        <v>0.04934430869859647</v>
       </c>
       <c r="W290">
-        <v>0.03273643889355117</v>
+        <v>0.03361539939040721</v>
       </c>
       <c r="X290">
-        <v>1.507320599502253</v>
+        <v>1.467907851562751</v>
       </c>
     </row>
     <row r="291">
@@ -21933,10 +21933,10 @@
         <v>0.3552325025847105</v>
       </c>
       <c r="W291">
-        <v>0.4384837715281158</v>
+        <v>0.4360870706612459</v>
       </c>
       <c r="X291">
-        <v>0.8101383121813729</v>
+        <v>0.814590769788395</v>
       </c>
     </row>
     <row r="292">
@@ -22004,13 +22004,13 @@
         <v>2.345421596667961</v>
       </c>
       <c r="V292">
-        <v>0.03206900294487888</v>
+        <v>0.03206900294487885</v>
       </c>
       <c r="W292">
-        <v>0.2344927058796232</v>
+        <v>0.2224029845835658</v>
       </c>
       <c r="X292">
-        <v>0.1367590638889275</v>
+        <v>0.1441932220690556</v>
       </c>
     </row>
     <row r="293">
@@ -22081,10 +22081,10 @@
         <v>0.2606578701824631</v>
       </c>
       <c r="W293">
-        <v>0.3796832162964136</v>
+        <v>0.3803387261392706</v>
       </c>
       <c r="X293">
-        <v>0.6865140701372774</v>
+        <v>0.6853308702701409</v>
       </c>
     </row>
     <row r="294">
@@ -22155,10 +22155,10 @@
         <v>0.353247276478409</v>
       </c>
       <c r="W294">
-        <v>0.4693218283623065</v>
+        <v>0.4663814883524709</v>
       </c>
       <c r="X294">
-        <v>0.7526759999871765</v>
+        <v>0.7574213070211742</v>
       </c>
     </row>
     <row r="295">
@@ -22229,10 +22229,10 @@
         <v>0.3039399672226543</v>
       </c>
       <c r="W295">
-        <v>0.4394306558726334</v>
+        <v>0.4327874446426835</v>
       </c>
       <c r="X295">
-        <v>0.6916676457610405</v>
+        <v>0.7022846225901774</v>
       </c>
     </row>
     <row r="296">
@@ -22300,13 +22300,13 @@
         <v>3.553504735083068</v>
       </c>
       <c r="V296">
-        <v>0.1952032528991693</v>
+        <v>0.1952032528991694</v>
       </c>
       <c r="W296">
-        <v>0.4188757299300223</v>
+        <v>0.4305311899764292</v>
       </c>
       <c r="X296">
-        <v>0.4660170999446068</v>
+        <v>0.4534009554798025</v>
       </c>
     </row>
     <row r="297">
@@ -22377,10 +22377,10 @@
         <v>0.1600918178061617</v>
       </c>
       <c r="W297">
-        <v>0.444862778490336</v>
+        <v>0.4506937956933838</v>
       </c>
       <c r="X297">
-        <v>0.3598678638600453</v>
+        <v>0.3552119406477817</v>
       </c>
     </row>
     <row r="298">
@@ -22451,10 +22451,10 @@
         <v>0.3141029757922579</v>
       </c>
       <c r="W298">
-        <v>0.4187984480055528</v>
+        <v>0.3790610691954465</v>
       </c>
       <c r="X298">
-        <v>0.7500098849174658</v>
+        <v>0.8286342262974631</v>
       </c>
     </row>
     <row r="299">
@@ -22525,10 +22525,10 @@
         <v>0.303589939468514</v>
       </c>
       <c r="W299">
-        <v>0.3438585846837605</v>
+        <v>0.4141285978946673</v>
       </c>
       <c r="X299">
-        <v>0.8828918427257511</v>
+        <v>0.7330813206619732</v>
       </c>
     </row>
     <row r="300">
@@ -22599,10 +22599,10 @@
         <v>0.3386503069564098</v>
       </c>
       <c r="W300">
-        <v>0.4667993675581015</v>
+        <v>0.4658011629612534</v>
       </c>
       <c r="X300">
-        <v>0.7254729343956507</v>
+        <v>0.7270276115317034</v>
       </c>
     </row>
     <row r="301">
@@ -22673,10 +22673,10 @@
         <v>0.1846966976686132</v>
       </c>
       <c r="W301">
-        <v>0.09702660200359366</v>
+        <v>0.1353955779591431</v>
       </c>
       <c r="X301">
-        <v>1.903567618103048</v>
+        <v>1.364126513233299</v>
       </c>
     </row>
     <row r="302">
@@ -22744,13 +22744,13 @@
         <v>5.749305758750292</v>
       </c>
       <c r="V302">
-        <v>0.2455087306203045</v>
+        <v>0.2455087306203046</v>
       </c>
       <c r="W302">
-        <v>0.1895789745128802</v>
+        <v>0.1652325770206644</v>
       </c>
       <c r="X302">
-        <v>1.295020881145363</v>
+        <v>1.48583732728202</v>
       </c>
     </row>
     <row r="303">
@@ -22821,10 +22821,10 @@
         <v>0.2772285465145417</v>
       </c>
       <c r="W303">
-        <v>0.1459848043460621</v>
+        <v>0.169545140024236</v>
       </c>
       <c r="X303">
-        <v>1.89902331106573</v>
+        <v>1.635131189693274</v>
       </c>
     </row>
     <row r="304">
@@ -22895,10 +22895,10 @@
         <v>0.3539585348216007</v>
       </c>
       <c r="W304">
-        <v>0.4473505590832481</v>
+        <v>0.4483418556401794</v>
       </c>
       <c r="X304">
-        <v>0.7912330221447921</v>
+        <v>0.7894835834949864</v>
       </c>
     </row>
     <row r="305">
@@ -22969,10 +22969,10 @@
         <v>0.1717416074958353</v>
       </c>
       <c r="W305">
-        <v>0.3398759190064259</v>
+        <v>0.3559049224192223</v>
       </c>
       <c r="X305">
-        <v>0.5053067837165254</v>
+        <v>0.4825491210642486</v>
       </c>
     </row>
     <row r="306">
@@ -23043,10 +23043,10 @@
         <v>0.1910573045009213</v>
       </c>
       <c r="W306">
-        <v>0.4443244711337864</v>
+        <v>0.4370998599912979</v>
       </c>
       <c r="X306">
-        <v>0.4299950079575828</v>
+        <v>0.4371021864539718</v>
       </c>
     </row>
     <row r="307">
@@ -23114,13 +23114,13 @@
         <v>3.58275506371294</v>
       </c>
       <c r="V307">
-        <v>0.200935919610439</v>
+        <v>0.2009359196104389</v>
       </c>
       <c r="W307">
-        <v>0.3841406726747947</v>
+        <v>0.3833261920130385</v>
       </c>
       <c r="X307">
-        <v>0.523079001792</v>
+        <v>0.5241904252752033</v>
       </c>
     </row>
     <row r="308">
@@ -23191,10 +23191,10 @@
         <v>0.206813266114778</v>
       </c>
       <c r="W308">
-        <v>0.05879637895118891</v>
+        <v>0.08380856296103219</v>
       </c>
       <c r="X308">
-        <v>3.517449030091948</v>
+        <v>2.467686580080587</v>
       </c>
     </row>
     <row r="309">
@@ -23262,13 +23262,13 @@
         <v>3.006246244589537</v>
       </c>
       <c r="V309">
-        <v>0.09984367868100037</v>
+        <v>0.0998436786810003</v>
       </c>
       <c r="W309">
-        <v>0.3444928076176103</v>
+        <v>0.3691068210047246</v>
       </c>
       <c r="X309">
-        <v>0.289828050029502</v>
+        <v>0.2705007683391532</v>
       </c>
     </row>
     <row r="310">
@@ -23336,13 +23336,13 @@
         <v>3.646402315689272</v>
       </c>
       <c r="V310">
-        <v>0.2134820406750043</v>
+        <v>0.2134820406750045</v>
       </c>
       <c r="W310">
-        <v>0.3278063915215428</v>
+        <v>0.2767189942145787</v>
       </c>
       <c r="X310">
-        <v>0.6512442899118236</v>
+        <v>0.7714759201150542</v>
       </c>
     </row>
     <row r="311">
@@ -23413,10 +23413,10 @@
         <v>0.2219137475798398</v>
       </c>
       <c r="W311">
-        <v>0.4689038721048824</v>
+        <v>0.4667060326887156</v>
       </c>
       <c r="X311">
-        <v>0.4732606420665322</v>
+        <v>0.4754893488335348</v>
       </c>
     </row>
     <row r="312">
@@ -23487,10 +23487,10 @@
         <v>0.2057901222121265</v>
       </c>
       <c r="W312">
-        <v>0.3757652647156272</v>
+        <v>0.3895147441316105</v>
       </c>
       <c r="X312">
-        <v>0.547656054286617</v>
+        <v>0.5283243453875356</v>
       </c>
     </row>
     <row r="313">
@@ -23561,10 +23561,10 @@
         <v>0.3157103748096738</v>
       </c>
       <c r="W313">
-        <v>0.4632380376256688</v>
+        <v>0.4616114179983103</v>
       </c>
       <c r="X313">
-        <v>0.681529471171777</v>
+        <v>0.6839310348489461</v>
       </c>
     </row>
     <row r="314">
@@ -23635,10 +23635,10 @@
         <v>0.2167260891571337</v>
       </c>
       <c r="W314">
-        <v>0.3452847958877018</v>
+        <v>0.3607560457856793</v>
       </c>
       <c r="X314">
-        <v>0.6276734212983426</v>
+        <v>0.6007552518908802</v>
       </c>
     </row>
     <row r="315">
@@ -23709,10 +23709,10 @@
         <v>0.2687111784224473</v>
       </c>
       <c r="W315">
-        <v>0.2027663163482255</v>
+        <v>0.215836296132747</v>
       </c>
       <c r="X315">
-        <v>1.325225921454182</v>
+        <v>1.24497678674573</v>
       </c>
     </row>
     <row r="316">
@@ -23780,13 +23780,13 @@
         <v>5.521972048244026</v>
       </c>
       <c r="V316">
-        <v>0.2878433213986086</v>
+        <v>0.2878433213986084</v>
       </c>
       <c r="W316">
-        <v>0.3982681809013163</v>
+        <v>0.3599286574751015</v>
       </c>
       <c r="X316">
-        <v>0.7227374297067708</v>
+        <v>0.7997232657655783</v>
       </c>
     </row>
     <row r="317">
@@ -23854,13 +23854,13 @@
         <v>3.51480084841659</v>
       </c>
       <c r="V317">
-        <v>0.1876666663015246</v>
+        <v>0.1876666663015245</v>
       </c>
       <c r="W317">
-        <v>0.3436830042218839</v>
+        <v>0.2977118820281094</v>
       </c>
       <c r="X317">
-        <v>0.5460458154641998</v>
+        <v>0.630363373551229</v>
       </c>
     </row>
     <row r="318">
@@ -23931,10 +23931,10 @@
         <v>0.3249454816952704</v>
       </c>
       <c r="W318">
-        <v>0.3565870380220376</v>
+        <v>0.3892968811042339</v>
       </c>
       <c r="X318">
-        <v>0.9112655454267753</v>
+        <v>0.834698394637964</v>
       </c>
     </row>
     <row r="319">
@@ -24005,10 +24005,10 @@
         <v>0.348917570088605</v>
       </c>
       <c r="W319">
-        <v>0.4215445406050717</v>
+        <v>0.4105449441391866</v>
       </c>
       <c r="X319">
-        <v>0.8277122260622325</v>
+        <v>0.8498888491251567</v>
       </c>
     </row>
     <row r="320">
@@ -24076,13 +24076,13 @@
         <v>3.876243775170407</v>
       </c>
       <c r="V320">
-        <v>0.2584522581599308</v>
+        <v>0.2584522581599309</v>
       </c>
       <c r="W320">
-        <v>0.1159424363871359</v>
+        <v>0.1208217588809547</v>
       </c>
       <c r="X320">
-        <v>2.229142893780061</v>
+        <v>2.139120143206846</v>
       </c>
     </row>
     <row r="321">
@@ -24153,10 +24153,10 @@
         <v>0.03554548753618876</v>
       </c>
       <c r="W321">
-        <v>0.04583351007424481</v>
+        <v>0.05239151984447416</v>
       </c>
       <c r="X321">
-        <v>0.7755349192896053</v>
+        <v>0.6784587971814262</v>
       </c>
     </row>
     <row r="322">
@@ -24227,10 +24227,10 @@
         <v>0.3528460233745869</v>
       </c>
       <c r="W322">
-        <v>0.1989055789565113</v>
+        <v>0.2237550045936956</v>
       </c>
       <c r="X322">
-        <v>1.773937288364008</v>
+        <v>1.57693019655717</v>
       </c>
     </row>
     <row r="323">
@@ -24298,13 +24298,13 @@
         <v>6.22398586787723</v>
       </c>
       <c r="V323">
-        <v>0.1537027921446617</v>
+        <v>0.1537027921446616</v>
       </c>
       <c r="W323">
-        <v>0.2992004120819304</v>
+        <v>0.3098963433610831</v>
       </c>
       <c r="X323">
-        <v>0.5137118330658351</v>
+        <v>0.4959813029015677</v>
       </c>
     </row>
     <row r="324">
@@ -24375,10 +24375,10 @@
         <v>0.311224046542889</v>
       </c>
       <c r="W324">
-        <v>0.1781184203068871</v>
+        <v>0.1261246623888329</v>
       </c>
       <c r="X324">
-        <v>1.747287259827867</v>
+        <v>2.467590720547648</v>
       </c>
     </row>
     <row r="325">
@@ -24446,13 +24446,13 @@
         <v>5.076760262963798</v>
       </c>
       <c r="V325">
-        <v>0.3478039566155373</v>
+        <v>0.3478039566155374</v>
       </c>
       <c r="W325">
-        <v>0.464717637293582</v>
+        <v>0.4667177055573008</v>
       </c>
       <c r="X325">
-        <v>0.7484199623691378</v>
+        <v>0.7452126895426642</v>
       </c>
     </row>
     <row r="326">
@@ -24520,13 +24520,13 @@
         <v>3.073351531349034</v>
       </c>
       <c r="V326">
-        <v>0.1098349410582311</v>
+        <v>0.109834941058231</v>
       </c>
       <c r="W326">
-        <v>0.2786350480737531</v>
+        <v>0.2707701603580529</v>
       </c>
       <c r="X326">
-        <v>0.3941892515587573</v>
+        <v>0.4056390147015859</v>
       </c>
     </row>
     <row r="327">
@@ -24594,13 +24594,13 @@
         <v>5.99084350863285</v>
       </c>
       <c r="V327">
-        <v>0.1979553372055297</v>
+        <v>0.1979553372055296</v>
       </c>
       <c r="W327">
-        <v>0.07918517501783168</v>
+        <v>0.07603735504749626</v>
       </c>
       <c r="X327">
-        <v>2.499904018156836</v>
+        <v>2.603395884586965</v>
       </c>
     </row>
     <row r="328">
@@ -24671,10 +24671,10 @@
         <v>0.1555811980288417</v>
       </c>
       <c r="W328">
-        <v>0.07183182143284272</v>
+        <v>0.05052901748657222</v>
       </c>
       <c r="X328">
-        <v>2.165909132268047</v>
+        <v>3.079046571016079</v>
       </c>
     </row>
     <row r="329">
@@ -24745,10 +24745,10 @@
         <v>0.3521597133171629</v>
       </c>
       <c r="W329">
-        <v>0.4644720341417715</v>
+        <v>0.4540314744693716</v>
       </c>
       <c r="X329">
-        <v>0.7581935777207045</v>
+        <v>0.7756284159126487</v>
       </c>
     </row>
     <row r="330">
@@ -24819,10 +24819,10 @@
         <v>0.1670660209061664</v>
       </c>
       <c r="W330">
-        <v>0.4679054621659089</v>
+        <v>0.4506877143461208</v>
       </c>
       <c r="X330">
-        <v>0.3570508028113775</v>
+        <v>0.3706913137149828</v>
       </c>
     </row>
     <row r="331">
@@ -24893,10 +24893,10 @@
         <v>0.2062874171988153</v>
       </c>
       <c r="W331">
-        <v>0.1503880140701638</v>
+        <v>0.1211168405383486</v>
       </c>
       <c r="X331">
-        <v>1.371701185591636</v>
+        <v>1.703210026631265</v>
       </c>
     </row>
     <row r="332">
@@ -24967,10 +24967,10 @@
         <v>0.2829305232221452</v>
       </c>
       <c r="W332">
-        <v>0.4512003195876811</v>
+        <v>0.4254904898564009</v>
       </c>
       <c r="X332">
-        <v>0.6270618856845994</v>
+        <v>0.6649514618238156</v>
       </c>
     </row>
     <row r="333">
@@ -25041,10 +25041,10 @@
         <v>0.3523667727822851</v>
       </c>
       <c r="W333">
-        <v>0.3426187383818939</v>
+        <v>0.3245699569683656</v>
       </c>
       <c r="X333">
-        <v>1.028451550684089</v>
+        <v>1.085641986318003</v>
       </c>
     </row>
     <row r="334">
@@ -25115,10 +25115,10 @@
         <v>0.1788911496827381</v>
       </c>
       <c r="W334">
-        <v>0.1604984168566433</v>
+        <v>0.2183669922991306</v>
       </c>
       <c r="X334">
-        <v>1.114597596576439</v>
+        <v>0.8192224832115819</v>
       </c>
     </row>
     <row r="335">
@@ -25189,10 +25189,10 @@
         <v>0.3349332462730626</v>
       </c>
       <c r="W335">
-        <v>0.4132628122460026</v>
+        <v>0.4237873803934099</v>
       </c>
       <c r="X335">
-        <v>0.8104606471914708</v>
+        <v>0.7903332231416087</v>
       </c>
     </row>
     <row r="336">
@@ -25263,10 +25263,10 @@
         <v>0.3582831180530332</v>
       </c>
       <c r="W336">
-        <v>0.3842890644150234</v>
+        <v>0.4136133244039454</v>
       </c>
       <c r="X336">
-        <v>0.9323271235896934</v>
+        <v>0.8662272149219369</v>
       </c>
     </row>
     <row r="337">
@@ -25337,10 +25337,10 @@
         <v>0.3554710019551716</v>
       </c>
       <c r="W337">
-        <v>0.4360881747271605</v>
+        <v>0.4533931685210863</v>
       </c>
       <c r="X337">
-        <v>0.815135613749611</v>
+        <v>0.784023727385825</v>
       </c>
     </row>
     <row r="338">
@@ -25411,10 +25411,10 @@
         <v>0.3363171820588457</v>
       </c>
       <c r="W338">
-        <v>0.4182211224922209</v>
+        <v>0.3693976448840307</v>
       </c>
       <c r="X338">
-        <v>0.8041611577499923</v>
+        <v>0.9104475535149382</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -645,12 +645,12 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>numerator</t>
+          <t>gps</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>gps</t>
+          <t>numerator</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
@@ -832,13 +832,13 @@
         <v>4.768890706359042</v>
       </c>
       <c r="BF2">
+        <v>0.1978563418601819</v>
+      </c>
+      <c r="BG2">
         <v>0.3605994591128398</v>
       </c>
-      <c r="BG2">
-        <v>0.197856341860182</v>
-      </c>
       <c r="BH2">
-        <v>1.822531720351236</v>
+        <v>1.822531720351237</v>
       </c>
     </row>
     <row r="3">
@@ -1014,10 +1014,10 @@
         <v>6.417798637658427</v>
       </c>
       <c r="BF3">
+        <v>0.4671914701316041</v>
+      </c>
+      <c r="BG3">
         <v>0.1204068530512143</v>
-      </c>
-      <c r="BG3">
-        <v>0.4671914701316041</v>
       </c>
       <c r="BH3">
         <v>0.2577248531898425</v>
@@ -1196,13 +1196,13 @@
         <v>4.401100093140548</v>
       </c>
       <c r="BF4">
+        <v>0.2128194569274423</v>
+      </c>
+      <c r="BG4">
         <v>0.3401561966749913</v>
       </c>
-      <c r="BG4">
-        <v>0.2128194569274398</v>
-      </c>
       <c r="BH4">
-        <v>1.598332227635401</v>
+        <v>1.598332227635383</v>
       </c>
     </row>
     <row r="5">
@@ -1378,13 +1378,13 @@
         <v>3.821313166854809</v>
       </c>
       <c r="BF5">
-        <v>0.2478814661380281</v>
+        <v>0.3475416174301267</v>
       </c>
       <c r="BG5">
-        <v>0.3475416174301268</v>
+        <v>0.2478814661380282</v>
       </c>
       <c r="BH5">
-        <v>0.7132425404789532</v>
+        <v>0.7132425404789537</v>
       </c>
     </row>
     <row r="6">
@@ -1560,13 +1560,13 @@
         <v>3.359682112027601</v>
       </c>
       <c r="BF6">
+        <v>0.4687727894972047</v>
+      </c>
+      <c r="BG6">
         <v>0.1583139105970834</v>
       </c>
-      <c r="BG6">
-        <v>0.4687727894972047</v>
-      </c>
       <c r="BH6">
-        <v>0.3377199234769735</v>
+        <v>0.3377199234769737</v>
       </c>
     </row>
     <row r="7">
@@ -1742,13 +1742,13 @@
         <v>5.62641267904343</v>
       </c>
       <c r="BF7">
+        <v>0.324348509150391</v>
+      </c>
+      <c r="BG7">
         <v>0.2689631569207425</v>
       </c>
-      <c r="BG7">
-        <v>0.3243485091503895</v>
-      </c>
       <c r="BH7">
-        <v>0.8292412307529162</v>
+        <v>0.8292412307529125</v>
       </c>
     </row>
     <row r="8">
@@ -1924,13 +1924,13 @@
         <v>5.421428571428571</v>
       </c>
       <c r="BF8">
+        <v>0.4333197254850022</v>
+      </c>
+      <c r="BG8">
         <v>0.3046936137586634</v>
       </c>
-      <c r="BG8">
-        <v>0.4333197254850024</v>
-      </c>
       <c r="BH8">
-        <v>0.7031611898526625</v>
+        <v>0.7031611898526628</v>
       </c>
     </row>
     <row r="9">
@@ -2106,13 +2106,13 @@
         <v>5.870276608883859</v>
       </c>
       <c r="BF9">
+        <v>0.4260169897414472</v>
+      </c>
+      <c r="BG9">
         <v>0.2217311422739512</v>
       </c>
-      <c r="BG9">
-        <v>0.4260169897414471</v>
-      </c>
       <c r="BH9">
-        <v>0.5204748815499625</v>
+        <v>0.5204748815499622</v>
       </c>
     </row>
     <row r="10">
@@ -2288,10 +2288,10 @@
         <v>5.916308559032926</v>
       </c>
       <c r="BF10">
+        <v>0.1700268046720104</v>
+      </c>
+      <c r="BG10">
         <v>0.2126318803779076</v>
-      </c>
-      <c r="BG10">
-        <v>0.1700268046720104</v>
       </c>
       <c r="BH10">
         <v>1.250578582524588</v>
@@ -2470,10 +2470,10 @@
         <v>5.179792651622893</v>
       </c>
       <c r="BF11">
+        <v>0.4505894190687594</v>
+      </c>
+      <c r="BG11">
         <v>0.3377317198523995</v>
-      </c>
-      <c r="BG11">
-        <v>0.4505894190687594</v>
       </c>
       <c r="BH11">
         <v>0.7495331793418391</v>
@@ -2652,13 +2652,13 @@
         <v>3.462742218469666</v>
       </c>
       <c r="BF12">
-        <v>0.1776431951487177</v>
+        <v>0.09693139758502409</v>
       </c>
       <c r="BG12">
-        <v>0.09693139758502418</v>
+        <v>0.1776431951487178</v>
       </c>
       <c r="BH12">
-        <v>1.832669285438668</v>
+        <v>1.832669285438671</v>
       </c>
     </row>
     <row r="13">
@@ -2834,13 +2834,13 @@
         <v>5.043069029928605</v>
       </c>
       <c r="BF13">
-        <v>0.3505020512334935</v>
+        <v>0.4597266135532949</v>
       </c>
       <c r="BG13">
-        <v>0.4597266135532948</v>
+        <v>0.3505020512334936</v>
       </c>
       <c r="BH13">
-        <v>0.7624140976403594</v>
+        <v>0.7624140976403596</v>
       </c>
     </row>
     <row r="14">
@@ -3016,13 +3016,13 @@
         <v>3.242048883374617</v>
       </c>
       <c r="BF14">
+        <v>0.02490593082615906</v>
+      </c>
+      <c r="BG14">
         <v>0.1373437865835598</v>
       </c>
-      <c r="BG14">
-        <v>0.02490593082615912</v>
-      </c>
       <c r="BH14">
-        <v>5.514501246398118</v>
+        <v>5.51450124639813</v>
       </c>
     </row>
     <row r="15">
@@ -3198,10 +3198,10 @@
         <v>3.806162590503287</v>
       </c>
       <c r="BF15">
+        <v>0.2157706367720845</v>
+      </c>
+      <c r="BG15">
         <v>0.2449364662584544</v>
-      </c>
-      <c r="BG15">
-        <v>0.2157706367720845</v>
       </c>
       <c r="BH15">
         <v>1.135170521451338</v>
@@ -3380,13 +3380,13 @@
         <v>4.202254350849076</v>
       </c>
       <c r="BF16">
+        <v>0.4535421671739964</v>
+      </c>
+      <c r="BG16">
         <v>0.3147627554174023</v>
       </c>
-      <c r="BG16">
-        <v>0.4535421671739964</v>
-      </c>
       <c r="BH16">
-        <v>0.6940099029351047</v>
+        <v>0.6940099029351048</v>
       </c>
     </row>
     <row r="17">
@@ -3562,10 +3562,10 @@
         <v>3.723729185450122</v>
       </c>
       <c r="BF17">
+        <v>0.2364838710443621</v>
+      </c>
+      <c r="BG17">
         <v>0.2287622648209269</v>
-      </c>
-      <c r="BG17">
-        <v>0.2364838710443621</v>
       </c>
       <c r="BH17">
         <v>0.9673482754264169</v>
@@ -3744,13 +3744,13 @@
         <v>3.879438480284842</v>
       </c>
       <c r="BF18">
-        <v>0.2590610790477599</v>
+        <v>0.4448196216803327</v>
       </c>
       <c r="BG18">
-        <v>0.4448196216803327</v>
+        <v>0.2590610790477598</v>
       </c>
       <c r="BH18">
-        <v>0.5823957991536911</v>
+        <v>0.582395799153691</v>
       </c>
     </row>
     <row r="19">
@@ -3926,10 +3926,10 @@
         <v>5.521776485241776</v>
       </c>
       <c r="BF19">
+        <v>0.2402353932281705</v>
+      </c>
+      <c r="BG19">
         <v>0.2878774825435277</v>
-      </c>
-      <c r="BG19">
-        <v>0.2402353932281705</v>
       </c>
       <c r="BH19">
         <v>1.198314197900506</v>
@@ -4108,13 +4108,13 @@
         <v>6.548110313758319</v>
       </c>
       <c r="BF20">
+        <v>0.3793017282419082</v>
+      </c>
+      <c r="BG20">
         <v>0.1004307246022456</v>
       </c>
-      <c r="BG20">
-        <v>0.379301728241908</v>
-      </c>
       <c r="BH20">
-        <v>0.2647779251303428</v>
+        <v>0.2647779251303427</v>
       </c>
     </row>
     <row r="21">
@@ -4290,10 +4290,10 @@
         <v>4.534231900596604</v>
       </c>
       <c r="BF21">
+        <v>0.3993796356566741</v>
+      </c>
+      <c r="BG21">
         <v>0.3518813548095286</v>
-      </c>
-      <c r="BG21">
-        <v>0.3993796356566741</v>
       </c>
       <c r="BH21">
         <v>0.8810698478177358</v>
@@ -4472,10 +4472,10 @@
         <v>5.11035998002041</v>
       </c>
       <c r="BF22">
+        <v>0.2830562921788971</v>
+      </c>
+      <c r="BG22">
         <v>0.3448152235544959</v>
-      </c>
-      <c r="BG22">
-        <v>0.2830562921788971</v>
       </c>
       <c r="BH22">
         <v>1.218186039604327</v>
@@ -4654,10 +4654,10 @@
         <v>4.600223341510098</v>
       </c>
       <c r="BF23">
+        <v>0.420827271004823</v>
+      </c>
+      <c r="BG23">
         <v>0.3559264003401399</v>
-      </c>
-      <c r="BG23">
-        <v>0.420827271004823</v>
       </c>
       <c r="BH23">
         <v>0.8457778876599009</v>
@@ -4836,10 +4836,10 @@
         <v>6.195056271433326</v>
       </c>
       <c r="BF24">
+        <v>0.2527860739630255</v>
+      </c>
+      <c r="BG24">
         <v>0.1589882984743339</v>
-      </c>
-      <c r="BG24">
-        <v>0.2527860739630255</v>
       </c>
       <c r="BH24">
         <v>0.628944055270975</v>
@@ -5018,13 +5018,13 @@
         <v>3.526216169118993</v>
       </c>
       <c r="BF25">
-        <v>0.1898828999133619</v>
+        <v>0.08648341761457697</v>
       </c>
       <c r="BG25">
-        <v>0.08648341761457706</v>
+        <v>0.189882899913362</v>
       </c>
       <c r="BH25">
-        <v>2.195598938510919</v>
+        <v>2.195598938510922</v>
       </c>
     </row>
     <row r="26">
@@ -5200,10 +5200,10 @@
         <v>5.058791816397168</v>
       </c>
       <c r="BF26">
+        <v>0.4024541634475489</v>
+      </c>
+      <c r="BG26">
         <v>0.3492806399936009</v>
-      </c>
-      <c r="BG26">
-        <v>0.4024541634475489</v>
       </c>
       <c r="BH26">
         <v>0.867876821055976</v>
@@ -5382,10 +5382,10 @@
         <v>6.52560519459813</v>
       </c>
       <c r="BF27">
+        <v>0.2319344874296301</v>
+      </c>
+      <c r="BG27">
         <v>0.1037297546808818</v>
-      </c>
-      <c r="BG27">
-        <v>0.2319344874296301</v>
       </c>
       <c r="BH27">
         <v>0.4472373032162964</v>
@@ -5564,10 +5564,10 @@
         <v>4.42001287979925</v>
       </c>
       <c r="BF28">
+        <v>0.4159062859122305</v>
+      </c>
+      <c r="BG28">
         <v>0.342099544811229</v>
-      </c>
-      <c r="BG28">
-        <v>0.4159062859122305</v>
       </c>
       <c r="BH28">
         <v>0.8225399721018473</v>
@@ -5746,10 +5746,10 @@
         <v>4.716685419461998</v>
       </c>
       <c r="BF29">
+        <v>0.4297804336155816</v>
+      </c>
+      <c r="BG29">
         <v>0.3600397511823121</v>
-      </c>
-      <c r="BG29">
-        <v>0.4297804336155816</v>
       </c>
       <c r="BH29">
         <v>0.8377295079569647</v>
@@ -5928,13 +5928,13 @@
         <v>5.924537276950996</v>
       </c>
       <c r="BF30">
+        <v>0.1633366099086789</v>
+      </c>
+      <c r="BG30">
         <v>0.2110065855472676</v>
       </c>
-      <c r="BG30">
-        <v>0.1633366099086787</v>
-      </c>
       <c r="BH30">
-        <v>1.291851138977607</v>
+        <v>1.291851138977605</v>
       </c>
     </row>
     <row r="31">
@@ -6110,10 +6110,10 @@
         <v>4.470457614415066</v>
       </c>
       <c r="BF31">
+        <v>0.3826998416048141</v>
+      </c>
+      <c r="BG31">
         <v>0.3468412491430804</v>
-      </c>
-      <c r="BG31">
-        <v>0.3826998416048141</v>
       </c>
       <c r="BH31">
         <v>0.9063009999916273</v>
@@ -6292,10 +6292,10 @@
         <v>5.619826143235498</v>
       </c>
       <c r="BF32">
+        <v>0.4124422029334317</v>
+      </c>
+      <c r="BG32">
         <v>0.2701874999951663</v>
-      </c>
-      <c r="BG32">
-        <v>0.4124422029334317</v>
       </c>
       <c r="BH32">
         <v>0.6550917875850223</v>
@@ -6474,10 +6474,10 @@
         <v>4.990657268479865</v>
       </c>
       <c r="BF33">
+        <v>0.4565074501693636</v>
+      </c>
+      <c r="BG33">
         <v>0.3540875829177</v>
-      </c>
-      <c r="BG33">
-        <v>0.4565074501693636</v>
       </c>
       <c r="BH33">
         <v>0.7756446971157515</v>
@@ -6656,10 +6656,10 @@
         <v>5.193463137395096</v>
       </c>
       <c r="BF34">
+        <v>0.3796116988092442</v>
+      </c>
+      <c r="BG34">
         <v>0.3361982253869208</v>
-      </c>
-      <c r="BG34">
-        <v>0.3796116988092442</v>
       </c>
       <c r="BH34">
         <v>0.8856371561822211</v>
@@ -6838,13 +6838,13 @@
         <v>4.049361570818759</v>
       </c>
       <c r="BF35">
+        <v>0.4554862415151347</v>
+      </c>
+      <c r="BG35">
         <v>0.2900904260409612</v>
       </c>
-      <c r="BG35">
-        <v>0.4554862415151348</v>
-      </c>
       <c r="BH35">
-        <v>0.6368807652147758</v>
+        <v>0.6368807652147759</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>5.914361121828454</v>
       </c>
       <c r="BF36">
+        <v>0.3812573632148447</v>
+      </c>
+      <c r="BG36">
         <v>0.2130166321016971</v>
       </c>
-      <c r="BG36">
-        <v>0.3812573632148449</v>
-      </c>
       <c r="BH36">
-        <v>0.5587213589935537</v>
+        <v>0.558721358993554</v>
       </c>
     </row>
     <row r="37">
@@ -7202,10 +7202,10 @@
         <v>5.209342553896439</v>
       </c>
       <c r="BF37">
+        <v>0.468811555317709</v>
+      </c>
+      <c r="BG37">
         <v>0.3343615780361606</v>
-      </c>
-      <c r="BG37">
-        <v>0.468811555317709</v>
       </c>
       <c r="BH37">
         <v>0.7132110423548905</v>
@@ -7384,10 +7384,10 @@
         <v>5.192975732291966</v>
       </c>
       <c r="BF38">
+        <v>0.3297232867212331</v>
+      </c>
+      <c r="BG38">
         <v>0.3362536631356888</v>
-      </c>
-      <c r="BG38">
-        <v>0.3297232867212331</v>
       </c>
       <c r="BH38">
         <v>1.019805626952812</v>
@@ -7566,10 +7566,10 @@
         <v>5.120336918994051</v>
       </c>
       <c r="BF39">
+        <v>0.4640763092106273</v>
+      </c>
+      <c r="BG39">
         <v>0.3438716352457188</v>
-      </c>
-      <c r="BG39">
-        <v>0.4640763092106273</v>
       </c>
       <c r="BH39">
         <v>0.7409808008312875</v>
@@ -7748,10 +7748,10 @@
         <v>4.994904282866466</v>
       </c>
       <c r="BF40">
+        <v>0.1973465896896992</v>
+      </c>
+      <c r="BG40">
         <v>0.3538252484873369</v>
-      </c>
-      <c r="BG40">
-        <v>0.1973465896896992</v>
       </c>
       <c r="BH40">
         <v>1.792912910446941</v>
@@ -7930,13 +7930,13 @@
         <v>3.806043548686724</v>
       </c>
       <c r="BF41">
-        <v>0.2449132838753007</v>
+        <v>0.4465093552689235</v>
       </c>
       <c r="BG41">
-        <v>0.4465093552689234</v>
+        <v>0.2449132838753008</v>
       </c>
       <c r="BH41">
-        <v>0.5485065004467701</v>
+        <v>0.54850650044677</v>
       </c>
     </row>
     <row r="42">
@@ -8112,13 +8112,13 @@
         <v>6.415152765999127</v>
       </c>
       <c r="BF42">
+        <v>0.2864433181634332</v>
+      </c>
+      <c r="BG42">
         <v>0.1208338033662724</v>
       </c>
-      <c r="BG42">
-        <v>0.2864433181634334</v>
-      </c>
       <c r="BH42">
-        <v>0.4218419341774602</v>
+        <v>0.4218419341774606</v>
       </c>
     </row>
     <row r="43">
@@ -8294,10 +8294,10 @@
         <v>7.22266802862879</v>
       </c>
       <c r="BF43">
+        <v>0.1349729171859479</v>
+      </c>
+      <c r="BG43">
         <v>0.03145627957869592</v>
-      </c>
-      <c r="BG43">
-        <v>0.1349729171859479</v>
       </c>
       <c r="BH43">
         <v>0.2330562325726398</v>
@@ -8476,10 +8476,10 @@
         <v>4.701316053768656</v>
       </c>
       <c r="BF44">
+        <v>0.3551350761415836</v>
+      </c>
+      <c r="BG44">
         <v>0.3597224731632617</v>
-      </c>
-      <c r="BG44">
-        <v>0.3551350761415836</v>
       </c>
       <c r="BH44">
         <v>1.012917330136799</v>
@@ -8658,13 +8658,13 @@
         <v>6.417169705324027</v>
       </c>
       <c r="BF45">
+        <v>0.2468572407316964</v>
+      </c>
+      <c r="BG45">
         <v>0.1205082661115188</v>
       </c>
-      <c r="BG45">
-        <v>0.2468572407316967</v>
-      </c>
       <c r="BH45">
-        <v>0.4881698659286902</v>
+        <v>0.4881698659286907</v>
       </c>
     </row>
     <row r="46">
@@ -8840,10 +8840,10 @@
         <v>5.473925073352417</v>
       </c>
       <c r="BF46">
+        <v>0.465364294023524</v>
+      </c>
+      <c r="BG46">
         <v>0.2960810248149863</v>
-      </c>
-      <c r="BG46">
-        <v>0.465364294023524</v>
       </c>
       <c r="BH46">
         <v>0.6362349424255989</v>
@@ -9022,10 +9022,10 @@
         <v>6.704214961983759</v>
       </c>
       <c r="BF47">
+        <v>0.2282102665440636</v>
+      </c>
+      <c r="BG47">
         <v>0.07935146517722426</v>
-      </c>
-      <c r="BG47">
-        <v>0.2282102665440636</v>
       </c>
       <c r="BH47">
         <v>0.3477120743904079</v>
@@ -9204,13 +9204,13 @@
         <v>3.264140210264964</v>
       </c>
       <c r="BF48">
-        <v>0.141179796781595</v>
+        <v>0.03589602396044782</v>
       </c>
       <c r="BG48">
-        <v>0.03589602396044785</v>
+        <v>0.1411797967815951</v>
       </c>
       <c r="BH48">
-        <v>3.933020463134145</v>
+        <v>3.933020463134151</v>
       </c>
     </row>
     <row r="49">
@@ -9386,10 +9386,10 @@
         <v>5.37721954238061</v>
       </c>
       <c r="BF49">
+        <v>0.3403057834494924</v>
+      </c>
+      <c r="BG49">
         <v>0.311595870602817</v>
-      </c>
-      <c r="BG49">
-        <v>0.3403057834494924</v>
       </c>
       <c r="BH49">
         <v>0.9156349546703001</v>
@@ -9568,13 +9568,13 @@
         <v>4.376929208226588</v>
       </c>
       <c r="BF50">
+        <v>0.3932537807432607</v>
+      </c>
+      <c r="BG50">
         <v>0.3375449866326897</v>
       </c>
-      <c r="BG50">
-        <v>0.3932537807432605</v>
-      </c>
       <c r="BH50">
-        <v>0.8583388212942806</v>
+        <v>0.8583388212942801</v>
       </c>
     </row>
     <row r="51">
@@ -9750,10 +9750,10 @@
         <v>4.245281535870064</v>
       </c>
       <c r="BF51">
+        <v>0.3057608520774088</v>
+      </c>
+      <c r="BG51">
         <v>0.3209696635145945</v>
-      </c>
-      <c r="BG51">
-        <v>0.3057608520774088</v>
       </c>
       <c r="BH51">
         <v>1.04974087210267</v>
@@ -9932,10 +9932,10 @@
         <v>5.263598092899115</v>
       </c>
       <c r="BF52">
+        <v>0.2805347312717074</v>
+      </c>
+      <c r="BG52">
         <v>0.3276518794515784</v>
-      </c>
-      <c r="BG52">
-        <v>0.2805347312717074</v>
       </c>
       <c r="BH52">
         <v>1.167954776815982</v>
@@ -10114,10 +10114,10 @@
         <v>4.566946250127084</v>
       </c>
       <c r="BF53">
+        <v>0.449237944661516</v>
+      </c>
+      <c r="BG53">
         <v>0.3540382772227261</v>
-      </c>
-      <c r="BG53">
-        <v>0.449237944661516</v>
       </c>
       <c r="BH53">
         <v>0.7880863169060234</v>
@@ -10296,10 +10296,10 @@
         <v>4.386584642528305</v>
       </c>
       <c r="BF54">
+        <v>0.4174375152706991</v>
+      </c>
+      <c r="BG54">
         <v>0.3386050494196713</v>
-      </c>
-      <c r="BG54">
-        <v>0.4174375152706991</v>
       </c>
       <c r="BH54">
         <v>0.8111514586802132</v>
@@ -10478,13 +10478,13 @@
         <v>5.081441006445719</v>
       </c>
       <c r="BF55">
-        <v>0.3474052626371938</v>
+        <v>0.4201217427055183</v>
       </c>
       <c r="BG55">
-        <v>0.4201217427055184</v>
+        <v>0.3474052626371939</v>
       </c>
       <c r="BH55">
-        <v>0.8269156944840753</v>
+        <v>0.8269156944840759</v>
       </c>
     </row>
     <row r="56">
@@ -10660,13 +10660,13 @@
         <v>5.37439074021823</v>
       </c>
       <c r="BF56">
+        <v>0.06131851941227831</v>
+      </c>
+      <c r="BG56">
         <v>0.3120258479552073</v>
       </c>
-      <c r="BG56">
-        <v>0.06131851941227824</v>
-      </c>
       <c r="BH56">
-        <v>5.08860701376831</v>
+        <v>5.088607013768304</v>
       </c>
     </row>
     <row r="57">
@@ -10842,10 +10842,10 @@
         <v>7.140074512986939</v>
       </c>
       <c r="BF57">
-        <v>0.03699235611567523</v>
+        <v>0.3054142284091407</v>
       </c>
       <c r="BG57">
-        <v>0.3054142284091403</v>
+        <v>0.03699235611567529</v>
       </c>
       <c r="BH57">
         <v>0.1211219146808032</v>
@@ -11024,10 +11024,10 @@
         <v>4.333051966308426</v>
       </c>
       <c r="BF58">
+        <v>0.2503110343656607</v>
+      </c>
+      <c r="BG58">
         <v>0.332450214213727</v>
-      </c>
-      <c r="BG58">
-        <v>0.2503110343656607</v>
       </c>
       <c r="BH58">
         <v>1.328148457602853</v>
@@ -11206,13 +11206,13 @@
         <v>6.141091623036612</v>
       </c>
       <c r="BF59">
+        <v>0.2249688054354942</v>
+      </c>
+      <c r="BG59">
         <v>0.1690291354992942</v>
       </c>
-      <c r="BG59">
-        <v>0.2249688054354945</v>
-      </c>
       <c r="BH59">
-        <v>0.7513447705431324</v>
+        <v>0.7513447705431335</v>
       </c>
     </row>
     <row r="60">
@@ -11388,10 +11388,10 @@
         <v>4.125664911593864</v>
       </c>
       <c r="BF60">
+        <v>0.3599848820449182</v>
+      </c>
+      <c r="BG60">
         <v>0.3028740702091189</v>
-      </c>
-      <c r="BG60">
-        <v>0.3599848820449182</v>
       </c>
       <c r="BH60">
         <v>0.8413521937049757</v>
@@ -11570,10 +11570,10 @@
         <v>5.472366193235996</v>
       </c>
       <c r="BF61">
+        <v>0.2522786562591973</v>
+      </c>
+      <c r="BG61">
         <v>0.2963428467002604</v>
-      </c>
-      <c r="BG61">
-        <v>0.2522786562591973</v>
       </c>
       <c r="BH61">
         <v>1.17466475798805</v>
@@ -11752,13 +11752,13 @@
         <v>3.810293411215913</v>
       </c>
       <c r="BF62">
-        <v>0.2457405066849991</v>
+        <v>0.4685684522530237</v>
       </c>
       <c r="BG62">
-        <v>0.4685684522530237</v>
+        <v>0.2457405066849992</v>
       </c>
       <c r="BH62">
-        <v>0.5244495345416488</v>
+        <v>0.524449534541649</v>
       </c>
     </row>
     <row r="63">
@@ -11934,10 +11934,10 @@
         <v>4.947356277807295</v>
       </c>
       <c r="BF63">
+        <v>0.464387729566864</v>
+      </c>
+      <c r="BG63">
         <v>0.3564734040782092</v>
-      </c>
-      <c r="BG63">
-        <v>0.464387729566864</v>
       </c>
       <c r="BH63">
         <v>0.7676202048031998</v>
@@ -12116,13 +12116,13 @@
         <v>3.896252306931326</v>
       </c>
       <c r="BF64">
-        <v>0.262252990255242</v>
+        <v>0.4054925579722266</v>
       </c>
       <c r="BG64">
-        <v>0.4054925579722264</v>
+        <v>0.2622529902552419</v>
       </c>
       <c r="BH64">
-        <v>0.646751672994217</v>
+        <v>0.6467516729942165</v>
       </c>
     </row>
     <row r="65">
@@ -12298,10 +12298,10 @@
         <v>6.715090776978518</v>
       </c>
       <c r="BF65">
+        <v>0.4692564210957664</v>
+      </c>
+      <c r="BG65">
         <v>0.07800180942752524</v>
-      </c>
-      <c r="BG65">
-        <v>0.4692564210957664</v>
       </c>
       <c r="BH65">
         <v>0.1662242772200799</v>
@@ -12480,10 +12480,10 @@
         <v>4.152006856632112</v>
       </c>
       <c r="BF66">
+        <v>0.3810760417972144</v>
+      </c>
+      <c r="BG66">
         <v>0.3070774997474127</v>
-      </c>
-      <c r="BG66">
-        <v>0.3810760417972144</v>
       </c>
       <c r="BH66">
         <v>0.8058168608532487</v>
@@ -12662,10 +12662,10 @@
         <v>5.383845319603397</v>
       </c>
       <c r="BF67">
+        <v>0.468928757129991</v>
+      </c>
+      <c r="BG67">
         <v>0.3105831228434536</v>
-      </c>
-      <c r="BG67">
-        <v>0.468928757129991</v>
       </c>
       <c r="BH67">
         <v>0.662324752152825</v>
@@ -12844,13 +12844,13 @@
         <v>7.024116217472482</v>
       </c>
       <c r="BF68">
+        <v>0.06709584694040759</v>
+      </c>
+      <c r="BG68">
         <v>0.04601214637375295</v>
       </c>
-      <c r="BG68">
-        <v>0.06709584694040747</v>
-      </c>
       <c r="BH68">
-        <v>0.685767427820377</v>
+        <v>0.6857674278203759</v>
       </c>
     </row>
     <row r="69">
@@ -13026,10 +13026,10 @@
         <v>6.003254470785587</v>
       </c>
       <c r="BF69">
+        <v>0.1980278074099157</v>
+      </c>
+      <c r="BG69">
         <v>0.1955256328108806</v>
-      </c>
-      <c r="BG69">
-        <v>0.1980278074099157</v>
       </c>
       <c r="BH69">
         <v>0.9873645290943627</v>
@@ -13208,10 +13208,10 @@
         <v>6.744603294396674</v>
       </c>
       <c r="BF70">
+        <v>0.4514091986427563</v>
+      </c>
+      <c r="BG70">
         <v>0.07441769153308675</v>
-      </c>
-      <c r="BG70">
-        <v>0.4514091986427563</v>
       </c>
       <c r="BH70">
         <v>0.1648563914001687</v>
@@ -13390,13 +13390,13 @@
         <v>3.980383310273715</v>
       </c>
       <c r="BF71">
-        <v>0.277859077155677</v>
+        <v>0.3403848146088259</v>
       </c>
       <c r="BG71">
-        <v>0.340384814608826</v>
+        <v>0.2778590771556769</v>
       </c>
       <c r="BH71">
-        <v>0.8163086754472162</v>
+        <v>0.8163086754472163</v>
       </c>
     </row>
     <row r="72">
@@ -13572,10 +13572,10 @@
         <v>3.731407841990337</v>
       </c>
       <c r="BF72">
+        <v>0.2926336364424711</v>
+      </c>
+      <c r="BG72">
         <v>0.2302766493307748</v>
-      </c>
-      <c r="BG72">
-        <v>0.2926336364424711</v>
       </c>
       <c r="BH72">
         <v>0.7869110746468985</v>
@@ -13754,10 +13754,10 @@
         <v>3.761426947283167</v>
       </c>
       <c r="BF73">
+        <v>0.3877434755772741</v>
+      </c>
+      <c r="BG73">
         <v>0.2361846218154804</v>
-      </c>
-      <c r="BG73">
-        <v>0.3877434755772741</v>
       </c>
       <c r="BH73">
         <v>0.609125972948604</v>
@@ -13936,10 +13936,10 @@
         <v>4.989569800146077</v>
       </c>
       <c r="BF74">
+        <v>0.2378784489973997</v>
+      </c>
+      <c r="BG74">
         <v>0.3541539468317028</v>
-      </c>
-      <c r="BG74">
-        <v>0.2378784489973997</v>
       </c>
       <c r="BH74">
         <v>1.488802152209989</v>
@@ -14118,10 +14118,10 @@
         <v>3.892892260650115</v>
       </c>
       <c r="BF75">
+        <v>0.3752016266610441</v>
+      </c>
+      <c r="BG75">
         <v>0.2616168268482512</v>
-      </c>
-      <c r="BG75">
-        <v>0.3752016266610441</v>
       </c>
       <c r="BH75">
         <v>0.6972699696864454</v>
@@ -14300,10 +14300,10 @@
         <v>4.949576032733727</v>
       </c>
       <c r="BF76">
+        <v>0.3824936973809663</v>
+      </c>
+      <c r="BG76">
         <v>0.3563639849784373</v>
-      </c>
-      <c r="BG76">
-        <v>0.3824936973809663</v>
       </c>
       <c r="BH76">
         <v>0.931685900757461</v>
@@ -14482,10 +14482,10 @@
         <v>3.815938602866774</v>
       </c>
       <c r="BF77">
-        <v>0.2468380151614484</v>
+        <v>0.290858629888431</v>
       </c>
       <c r="BG77">
-        <v>0.2908586298884309</v>
+        <v>0.2468380151614485</v>
       </c>
       <c r="BH77">
         <v>0.8486528842418457</v>
@@ -14664,10 +14664,10 @@
         <v>5.960899470431837</v>
       </c>
       <c r="BF78">
+        <v>0.161266643342026</v>
+      </c>
+      <c r="BG78">
         <v>0.2038368917811133</v>
-      </c>
-      <c r="BG78">
-        <v>0.161266643342026</v>
       </c>
       <c r="BH78">
         <v>1.263974294726289</v>
@@ -14846,10 +14846,10 @@
         <v>3.296104565361911</v>
       </c>
       <c r="BF79">
+        <v>0.1049689215508692</v>
+      </c>
+      <c r="BG79">
         <v>0.1468169665512595</v>
-      </c>
-      <c r="BG79">
-        <v>0.1049689215508692</v>
       </c>
       <c r="BH79">
         <v>1.398670810198904</v>
@@ -15028,13 +15028,13 @@
         <v>2.758946822178381</v>
       </c>
       <c r="BF80">
+        <v>0.04402924821125236</v>
+      </c>
+      <c r="BG80">
         <v>0.06805852346152404</v>
       </c>
-      <c r="BG80">
-        <v>0.04402924821125245</v>
-      </c>
       <c r="BH80">
-        <v>1.545757109796176</v>
+        <v>1.545757109796179</v>
       </c>
     </row>
     <row r="81">
@@ -15210,13 +15210,13 @@
         <v>5.439706433493567</v>
       </c>
       <c r="BF81">
+        <v>0.440471169026374</v>
+      </c>
+      <c r="BG81">
         <v>0.301743972061409</v>
       </c>
-      <c r="BG81">
-        <v>0.4404711690263742</v>
-      </c>
       <c r="BH81">
-        <v>0.6850481785865565</v>
+        <v>0.6850481785865569</v>
       </c>
     </row>
     <row r="82">
@@ -15392,13 +15392,13 @@
         <v>3.437682300003522</v>
       </c>
       <c r="BF82">
-        <v>0.1728742478016149</v>
+        <v>0.4344900062191329</v>
       </c>
       <c r="BG82">
-        <v>0.4344900062191329</v>
+        <v>0.1728742478016148</v>
       </c>
       <c r="BH82">
-        <v>0.3978785365075271</v>
+        <v>0.3978785365075269</v>
       </c>
     </row>
     <row r="83">
@@ -15574,10 +15574,10 @@
         <v>5.580303970031306</v>
       </c>
       <c r="BF83">
+        <v>0.2021046612660577</v>
+      </c>
+      <c r="BG83">
         <v>0.2774454229037238</v>
-      </c>
-      <c r="BG83">
-        <v>0.2021046612660577</v>
       </c>
       <c r="BH83">
         <v>1.372780920369198</v>
@@ -15756,10 +15756,10 @@
         <v>6.113302665415276</v>
       </c>
       <c r="BF84">
+        <v>0.4514088532749831</v>
+      </c>
+      <c r="BG84">
         <v>0.1742826816313745</v>
-      </c>
-      <c r="BG84">
-        <v>0.4514088532749831</v>
       </c>
       <c r="BH84">
         <v>0.3860860954918121</v>
@@ -15938,10 +15938,10 @@
         <v>4.358193250162824</v>
       </c>
       <c r="BF85">
+        <v>0.4675597531555797</v>
+      </c>
+      <c r="BG85">
         <v>0.3354245362751069</v>
-      </c>
-      <c r="BG85">
-        <v>0.4675597531555797</v>
       </c>
       <c r="BH85">
         <v>0.7173939459316442</v>
@@ -16120,10 +16120,10 @@
         <v>5.354063866156871</v>
       </c>
       <c r="BF86">
+        <v>0.4691307889757831</v>
+      </c>
+      <c r="BG86">
         <v>0.3150724359102403</v>
-      </c>
-      <c r="BG86">
-        <v>0.4691307889757831</v>
       </c>
       <c r="BH86">
         <v>0.6716089485367472</v>
@@ -16302,10 +16302,10 @@
         <v>4.947102234611292</v>
       </c>
       <c r="BF87">
+        <v>0.2739904213850112</v>
+      </c>
+      <c r="BG87">
         <v>0.3564858373266478</v>
-      </c>
-      <c r="BG87">
-        <v>0.2739904213850112</v>
       </c>
       <c r="BH87">
         <v>1.301088685964368</v>
@@ -16484,10 +16484,10 @@
         <v>5.119308528418891</v>
       </c>
       <c r="BF88">
+        <v>0.3463649504792012</v>
+      </c>
+      <c r="BG88">
         <v>0.3439700710000846</v>
-      </c>
-      <c r="BG88">
-        <v>0.3463649504792012</v>
       </c>
       <c r="BH88">
         <v>0.9930856760310095</v>
@@ -16666,13 +16666,13 @@
         <v>4.583948585107464</v>
       </c>
       <c r="BF89">
+        <v>0.3773329515568378</v>
+      </c>
+      <c r="BG89">
         <v>0.3550418595169479</v>
       </c>
-      <c r="BG89">
-        <v>0.377332951556838</v>
-      </c>
       <c r="BH89">
-        <v>0.9409246079677925</v>
+        <v>0.9409246079677931</v>
       </c>
     </row>
     <row r="90">
@@ -16848,10 +16848,10 @@
         <v>4.03219820697304</v>
       </c>
       <c r="BF90">
+        <v>0.4146117537369289</v>
+      </c>
+      <c r="BG90">
         <v>0.2871018612821519</v>
-      </c>
-      <c r="BG90">
-        <v>0.4146117537369289</v>
       </c>
       <c r="BH90">
         <v>0.6924595327905683</v>
@@ -17030,10 +17030,10 @@
         <v>5.740188450461294</v>
       </c>
       <c r="BF91">
+        <v>0.4501018808512394</v>
+      </c>
+      <c r="BG91">
         <v>0.2472810250259446</v>
-      </c>
-      <c r="BG91">
-        <v>0.4501018808512394</v>
       </c>
       <c r="BH91">
         <v>0.5493890062362837</v>
@@ -17212,13 +17212,13 @@
         <v>5.806237829561613</v>
       </c>
       <c r="BF92">
+        <v>0.3151977657346495</v>
+      </c>
+      <c r="BG92">
         <v>0.2343652360764279</v>
       </c>
-      <c r="BG92">
-        <v>0.3151977657346492</v>
-      </c>
       <c r="BH92">
-        <v>0.7435498012816798</v>
+        <v>0.7435498012816791</v>
       </c>
     </row>
     <row r="93">
@@ -17394,13 +17394,13 @@
         <v>6.554407654962055</v>
       </c>
       <c r="BF93">
+        <v>0.3821055186949229</v>
+      </c>
+      <c r="BG93">
         <v>0.09951915399313002</v>
       </c>
-      <c r="BG93">
-        <v>0.3821055186949226</v>
-      </c>
       <c r="BH93">
-        <v>0.2604494023876877</v>
+        <v>0.2604494023876875</v>
       </c>
     </row>
     <row r="94">
@@ -17576,10 +17576,10 @@
         <v>5.299567810081442</v>
       </c>
       <c r="BF94">
+        <v>0.4420659645220251</v>
+      </c>
+      <c r="BG94">
         <v>0.3228496088650629</v>
-      </c>
-      <c r="BG94">
-        <v>0.4420659645220251</v>
       </c>
       <c r="BH94">
         <v>0.7303199856477021</v>
@@ -17758,10 +17758,10 @@
         <v>5.210314060416039</v>
       </c>
       <c r="BF95">
+        <v>0.4636802806375608</v>
+      </c>
+      <c r="BG95">
         <v>0.3342473022648964</v>
-      </c>
-      <c r="BG95">
-        <v>0.4636802806375608</v>
       </c>
       <c r="BH95">
         <v>0.7208572721818276</v>
@@ -17940,10 +17940,10 @@
         <v>4.794849871830622</v>
       </c>
       <c r="BF96">
+        <v>0.4687033501739236</v>
+      </c>
+      <c r="BG96">
         <v>0.3605790661866357</v>
-      </c>
-      <c r="BG96">
-        <v>0.4687033501739236</v>
       </c>
       <c r="BH96">
         <v>0.769311902833283</v>
@@ -18122,10 +18122,10 @@
         <v>6.037381730865655</v>
       </c>
       <c r="BF97">
+        <v>0.2068332733628501</v>
+      </c>
+      <c r="BG97">
         <v>0.1888745683876751</v>
-      </c>
-      <c r="BG97">
-        <v>0.2068332733628501</v>
       </c>
       <c r="BH97">
         <v>0.913173036991636</v>
@@ -18304,13 +18304,13 @@
         <v>4.426710107310727</v>
       </c>
       <c r="BF98">
+        <v>0.4637696554345394</v>
+      </c>
+      <c r="BG98">
         <v>0.342766345481026</v>
       </c>
-      <c r="BG98">
-        <v>0.4637696554345394</v>
-      </c>
       <c r="BH98">
-        <v>0.7390874790198669</v>
+        <v>0.7390874790198668</v>
       </c>
     </row>
     <row r="99">
@@ -18486,13 +18486,13 @@
         <v>3.433356637990158</v>
       </c>
       <c r="BF99">
-        <v>0.1720551852032026</v>
+        <v>0.2113897710961597</v>
       </c>
       <c r="BG99">
-        <v>0.2113897710961596</v>
+        <v>0.1720551852032027</v>
       </c>
       <c r="BH99">
-        <v>0.8139238919225472</v>
+        <v>0.8139238919225474</v>
       </c>
     </row>
     <row r="100">
@@ -18668,13 +18668,13 @@
         <v>4.570552639356674</v>
       </c>
       <c r="BF100">
+        <v>0.3377003543466868</v>
+      </c>
+      <c r="BG100">
         <v>0.3542579031251221</v>
       </c>
-      <c r="BG100">
-        <v>0.3377003543466871</v>
-      </c>
       <c r="BH100">
-        <v>1.049030297319252</v>
+        <v>1.049030297319253</v>
       </c>
     </row>
     <row r="101">
@@ -18850,13 +18850,13 @@
         <v>5.610473408659523</v>
       </c>
       <c r="BF101">
+        <v>0.2237457638677369</v>
+      </c>
+      <c r="BG101">
         <v>0.2719190604745545</v>
       </c>
-      <c r="BG101">
-        <v>0.2237457638677372</v>
-      </c>
       <c r="BH101">
-        <v>1.215303725863136</v>
+        <v>1.215303725863138</v>
       </c>
     </row>
     <row r="102">
@@ -19032,10 +19032,10 @@
         <v>4.782367828826128</v>
       </c>
       <c r="BF102">
+        <v>0.4436971742009105</v>
+      </c>
+      <c r="BG102">
         <v>0.3606136543061046</v>
-      </c>
-      <c r="BG102">
-        <v>0.4436971742009105</v>
       </c>
       <c r="BH102">
         <v>0.8127472413038519</v>
@@ -19214,10 +19214,10 @@
         <v>4.960571336283042</v>
       </c>
       <c r="BF103">
+        <v>0.4685862042910888</v>
+      </c>
+      <c r="BG103">
         <v>0.3558013629526235</v>
-      </c>
-      <c r="BG103">
-        <v>0.4685862042910888</v>
       </c>
       <c r="BH103">
         <v>0.7593082333503728</v>
@@ -19396,10 +19396,10 @@
         <v>4.956143187501597</v>
       </c>
       <c r="BF104">
+        <v>0.3530196738425891</v>
+      </c>
+      <c r="BG104">
         <v>0.3560320711710475</v>
-      </c>
-      <c r="BG104">
-        <v>0.3530196738425891</v>
       </c>
       <c r="BH104">
         <v>1.0085332278954</v>
@@ -19578,13 +19578,13 @@
         <v>3.050427173417519</v>
       </c>
       <c r="BF105">
-        <v>0.1063580666037704</v>
+        <v>0.1111736151632252</v>
       </c>
       <c r="BG105">
-        <v>0.1111736151632253</v>
+        <v>0.1063580666037705</v>
       </c>
       <c r="BH105">
-        <v>0.9566844295529591</v>
+        <v>0.9566844295529605</v>
       </c>
     </row>
     <row r="106">
@@ -19760,13 +19760,13 @@
         <v>6.896202067345947</v>
       </c>
       <c r="BF106">
+        <v>0.104569908961143</v>
+      </c>
+      <c r="BG106">
         <v>0.05779209444306989</v>
       </c>
-      <c r="BG106">
-        <v>0.1045699089611433</v>
-      </c>
       <c r="BH106">
-        <v>0.5526646720572803</v>
+        <v>0.5526646720572814</v>
       </c>
     </row>
     <row r="107">
@@ -19942,13 +19942,13 @@
         <v>3.137933421723644</v>
       </c>
       <c r="BF107">
-        <v>0.1199758890657831</v>
+        <v>0.3840210728953589</v>
       </c>
       <c r="BG107">
-        <v>0.3840210728953589</v>
+        <v>0.1199758890657832</v>
       </c>
       <c r="BH107">
-        <v>0.3124200663292119</v>
+        <v>0.3124200663292122</v>
       </c>
     </row>
     <row r="108">
@@ -20124,13 +20124,13 @@
         <v>4.364002089460128</v>
       </c>
       <c r="BF108">
+        <v>0.2348108922240669</v>
+      </c>
+      <c r="BG108">
         <v>0.3360908360598824</v>
       </c>
-      <c r="BG108">
-        <v>0.234810892224067</v>
-      </c>
       <c r="BH108">
-        <v>1.431325578113172</v>
+        <v>1.431325578113173</v>
       </c>
     </row>
     <row r="109">
@@ -20306,13 +20306,13 @@
         <v>5.630097271871922</v>
       </c>
       <c r="BF109">
+        <v>0.4208863072219561</v>
+      </c>
+      <c r="BG109">
         <v>0.268276517283505</v>
       </c>
-      <c r="BG109">
-        <v>0.4208863072219563</v>
-      </c>
       <c r="BH109">
-        <v>0.6374085178827835</v>
+        <v>0.6374085178827837</v>
       </c>
     </row>
     <row r="110">
@@ -20488,10 +20488,10 @@
         <v>4.224436920406979</v>
       </c>
       <c r="BF110">
+        <v>0.3816869064873146</v>
+      </c>
+      <c r="BG110">
         <v>0.3180076432803005</v>
-      </c>
-      <c r="BG110">
-        <v>0.3816869064873146</v>
       </c>
       <c r="BH110">
         <v>0.8331636162396612</v>
@@ -20670,10 +20670,10 @@
         <v>5.140630001858294</v>
       </c>
       <c r="BF111">
+        <v>0.4660762371481574</v>
+      </c>
+      <c r="BG111">
         <v>0.3418745311024803</v>
-      </c>
-      <c r="BG111">
-        <v>0.4660762371481574</v>
       </c>
       <c r="BH111">
         <v>0.7335163302775387</v>
@@ -20852,13 +20852,13 @@
         <v>3.060767751303813</v>
       </c>
       <c r="BF112">
-        <v>0.1079182917790591</v>
+        <v>0.310143735786262</v>
       </c>
       <c r="BG112">
-        <v>0.3101437357862623</v>
+        <v>0.107918291779059</v>
       </c>
       <c r="BH112">
-        <v>0.3479621843899879</v>
+        <v>0.3479621843899881</v>
       </c>
     </row>
     <row r="113">
@@ -21034,13 +21034,13 @@
         <v>5.534676243491397</v>
       </c>
       <c r="BF113">
+        <v>0.4017129165527708</v>
+      </c>
+      <c r="BG113">
         <v>0.2856136797444542</v>
       </c>
-      <c r="BG113">
-        <v>0.401712916552771</v>
-      </c>
       <c r="BH113">
-        <v>0.7109895350027524</v>
+        <v>0.7109895350027529</v>
       </c>
     </row>
     <row r="114">
@@ -21216,13 +21216,13 @@
         <v>3.55075655242131</v>
       </c>
       <c r="BF114">
-        <v>0.1946661311540102</v>
+        <v>0.462607130029441</v>
       </c>
       <c r="BG114">
-        <v>0.462607130029441</v>
+        <v>0.1946661311540104</v>
       </c>
       <c r="BH114">
-        <v>0.4208022715551777</v>
+        <v>0.4208022715551779</v>
       </c>
     </row>
     <row r="115">
@@ -21398,13 +21398,13 @@
         <v>5.204157331645032</v>
       </c>
       <c r="BF115">
+        <v>0.4097202648862811</v>
+      </c>
+      <c r="BG115">
         <v>0.334967794456221</v>
       </c>
-      <c r="BG115">
-        <v>0.4097202648862809</v>
-      </c>
       <c r="BH115">
-        <v>0.8175524209162374</v>
+        <v>0.8175524209162369</v>
       </c>
     </row>
     <row r="116">
@@ -21580,13 +21580,13 @@
         <v>4.112474801414407</v>
       </c>
       <c r="BF116">
+        <v>0.2284917097374149</v>
+      </c>
+      <c r="BG116">
         <v>0.3007269000104293</v>
       </c>
-      <c r="BG116">
-        <v>0.2284917097374146</v>
-      </c>
       <c r="BH116">
-        <v>1.316139217287263</v>
+        <v>1.316139217287261</v>
       </c>
     </row>
     <row r="117">
@@ -21762,10 +21762,10 @@
         <v>6.011892552732346</v>
       </c>
       <c r="BF117">
+        <v>0.4291993206867205</v>
+      </c>
+      <c r="BG117">
         <v>0.1938377724257263</v>
-      </c>
-      <c r="BG117">
-        <v>0.4291993206867205</v>
       </c>
       <c r="BH117">
         <v>0.4516264660335089</v>
@@ -21944,10 +21944,10 @@
         <v>6.776157884269196</v>
       </c>
       <c r="BF118">
+        <v>0.01538376826058384</v>
+      </c>
+      <c r="BG118">
         <v>0.07071186622059161</v>
-      </c>
-      <c r="BG118">
-        <v>0.01538376826058384</v>
       </c>
       <c r="BH118">
         <v>4.596524403046876</v>
@@ -22126,13 +22126,13 @@
         <v>3.803160721583232</v>
       </c>
       <c r="BF119">
-        <v>0.2443516833315841</v>
+        <v>0.3856937592192288</v>
       </c>
       <c r="BG119">
-        <v>0.3856937592192283</v>
+        <v>0.2443516833315842</v>
       </c>
       <c r="BH119">
-        <v>0.6335380790869748</v>
+        <v>0.6335380790869743</v>
       </c>
     </row>
     <row r="120">
@@ -22308,10 +22308,10 @@
         <v>5.33871368027085</v>
       </c>
       <c r="BF120">
+        <v>0.466104931094395</v>
+      </c>
+      <c r="BG120">
         <v>0.3173218118474519</v>
-      </c>
-      <c r="BG120">
-        <v>0.466104931094395</v>
       </c>
       <c r="BH120">
         <v>0.6807947967904855</v>
@@ -22490,10 +22490,10 @@
         <v>5.403651616582422</v>
       </c>
       <c r="BF121">
+        <v>0.4204033858314684</v>
+      </c>
+      <c r="BG121">
         <v>0.3075095438835845</v>
-      </c>
-      <c r="BG121">
-        <v>0.4204033858314684</v>
       </c>
       <c r="BH121">
         <v>0.7314630525046703</v>
@@ -22672,10 +22672,10 @@
         <v>5.90561504983565</v>
       </c>
       <c r="BF122">
+        <v>0.3656248727113799</v>
+      </c>
+      <c r="BG122">
         <v>0.214744975106085</v>
-      </c>
-      <c r="BG122">
-        <v>0.3656248727113799</v>
       </c>
       <c r="BH122">
         <v>0.5873368885261869</v>
@@ -22854,10 +22854,10 @@
         <v>5.210282879544396</v>
       </c>
       <c r="BF123">
+        <v>0.3641666658053851</v>
+      </c>
+      <c r="BG123">
         <v>0.3342509733864077</v>
-      </c>
-      <c r="BG123">
-        <v>0.3641666658053851</v>
       </c>
       <c r="BH123">
         <v>0.9178516453371252</v>
@@ -23036,13 +23036,13 @@
         <v>5.623268998483245</v>
       </c>
       <c r="BF124">
+        <v>0.4542947980670294</v>
+      </c>
+      <c r="BG124">
         <v>0.2695480205523154</v>
       </c>
-      <c r="BG124">
-        <v>0.4542947980670293</v>
-      </c>
       <c r="BH124">
-        <v>0.5933328351969038</v>
+        <v>0.5933328351969037</v>
       </c>
     </row>
     <row r="125">
@@ -23218,10 +23218,10 @@
         <v>5.119251393922009</v>
       </c>
       <c r="BF125">
+        <v>0.4414759124927828</v>
+      </c>
+      <c r="BG125">
         <v>0.3439755319250264</v>
-      </c>
-      <c r="BG125">
-        <v>0.4414759124927828</v>
       </c>
       <c r="BH125">
         <v>0.7791490366547454</v>
@@ -23400,13 +23400,13 @@
         <v>3.79665307103056</v>
       </c>
       <c r="BF126">
+        <v>0.1861747772819014</v>
+      </c>
+      <c r="BG126">
         <v>0.2430825959189022</v>
       </c>
-      <c r="BG126">
-        <v>0.1861747772819012</v>
-      </c>
       <c r="BH126">
-        <v>1.30566878858586</v>
+        <v>1.305668788585858</v>
       </c>
     </row>
     <row r="127">
@@ -23582,10 +23582,10 @@
         <v>3.949008075609748</v>
       </c>
       <c r="BF127">
+        <v>0.4295100969864167</v>
+      </c>
+      <c r="BG127">
         <v>0.2721172714880766</v>
-      </c>
-      <c r="BG127">
-        <v>0.4295100969864167</v>
       </c>
       <c r="BH127">
         <v>0.6335526764035125</v>
@@ -23764,13 +23764,13 @@
         <v>2.458428384930712</v>
       </c>
       <c r="BF128">
+        <v>0.06428328484990933</v>
+      </c>
+      <c r="BG128">
         <v>0.03994082479377444</v>
       </c>
-      <c r="BG128">
-        <v>0.06428328484990947</v>
-      </c>
       <c r="BH128">
-        <v>0.6213251996538365</v>
+        <v>0.6213251996538378</v>
       </c>
     </row>
     <row r="129">
@@ -23946,10 +23946,10 @@
         <v>4.552020555578665</v>
       </c>
       <c r="BF129">
+        <v>0.4693324336367034</v>
+      </c>
+      <c r="BG129">
         <v>0.3530908594256661</v>
-      </c>
-      <c r="BG129">
-        <v>0.4693324336367034</v>
       </c>
       <c r="BH129">
         <v>0.7523257165282199</v>
@@ -24128,13 +24128,13 @@
         <v>5.132289710362579</v>
       </c>
       <c r="BF130">
+        <v>0.4648403471007493</v>
+      </c>
+      <c r="BG130">
         <v>0.3427078742542026</v>
       </c>
-      <c r="BG130">
-        <v>0.4648403471007495</v>
-      </c>
       <c r="BH130">
-        <v>0.7372593114855499</v>
+        <v>0.7372593114855501</v>
       </c>
     </row>
     <row r="131">
@@ -24310,13 +24310,13 @@
         <v>3.836908648594965</v>
       </c>
       <c r="BF131">
-        <v>0.2509007809204816</v>
+        <v>0.278223670474062</v>
       </c>
       <c r="BG131">
-        <v>0.278223670474062</v>
+        <v>0.2509007809204817</v>
       </c>
       <c r="BH131">
-        <v>0.901795237238351</v>
+        <v>0.9017952372383515</v>
       </c>
     </row>
     <row r="132">
@@ -24492,10 +24492,10 @@
         <v>4.748258889250139</v>
       </c>
       <c r="BF132">
+        <v>0.4647353334447029</v>
+      </c>
+      <c r="BG132">
         <v>0.3604740765656911</v>
-      </c>
-      <c r="BG132">
-        <v>0.4647353334447029</v>
       </c>
       <c r="BH132">
         <v>0.7756545513632278</v>
@@ -24674,13 +24674,13 @@
         <v>2.908972286614733</v>
       </c>
       <c r="BF133">
+        <v>0.3124646080272609</v>
+      </c>
+      <c r="BG133">
         <v>0.08638579387108197</v>
       </c>
-      <c r="BG133">
-        <v>0.3124646080272611</v>
-      </c>
       <c r="BH133">
-        <v>0.2764658513374584</v>
+        <v>0.2764658513374585</v>
       </c>
     </row>
     <row r="134">
@@ -24856,10 +24856,10 @@
         <v>3.814931300270216</v>
       </c>
       <c r="BF134">
+        <v>0.3189429944106264</v>
+      </c>
+      <c r="BG134">
         <v>0.2466422927814793</v>
-      </c>
-      <c r="BG134">
-        <v>0.3189429944106264</v>
       </c>
       <c r="BH134">
         <v>0.7733115230740488</v>
@@ -25038,13 +25038,13 @@
         <v>3.767830887117843</v>
       </c>
       <c r="BF135">
-        <v>0.2374418210626792</v>
+        <v>0.1989224875677904</v>
       </c>
       <c r="BG135">
-        <v>0.1989224875677902</v>
+        <v>0.2374418210626791</v>
       </c>
       <c r="BH135">
-        <v>1.193639914550948</v>
+        <v>1.193639914550947</v>
       </c>
     </row>
     <row r="136">
@@ -25220,10 +25220,10 @@
         <v>4.671670795275787</v>
       </c>
       <c r="BF136">
+        <v>0.4556263565223143</v>
+      </c>
+      <c r="BG136">
         <v>0.3589155498624667</v>
-      </c>
-      <c r="BG136">
-        <v>0.4556263565223143</v>
       </c>
       <c r="BH136">
         <v>0.7877409739901401</v>
@@ -25402,10 +25402,10 @@
         <v>5.030108183781855</v>
       </c>
       <c r="BF137">
+        <v>0.4611282069588749</v>
+      </c>
+      <c r="BG137">
         <v>0.3514587303073423</v>
-      </c>
-      <c r="BG137">
-        <v>0.4611282069588749</v>
       </c>
       <c r="BH137">
         <v>0.7621713983301973</v>
@@ -25584,13 +25584,13 @@
         <v>4.566596254013265</v>
       </c>
       <c r="BF138">
+        <v>0.4078243611306289</v>
+      </c>
+      <c r="BG138">
         <v>0.3540167697462183</v>
       </c>
-      <c r="BG138">
-        <v>0.4078243611306291</v>
-      </c>
       <c r="BH138">
-        <v>0.8680618508535446</v>
+        <v>0.8680618508535453</v>
       </c>
     </row>
     <row r="139">
@@ -25766,10 +25766,10 @@
         <v>3.697154376487823</v>
       </c>
       <c r="BF139">
+        <v>0.1937266874372621</v>
+      </c>
+      <c r="BG139">
         <v>0.2235145068982938</v>
-      </c>
-      <c r="BG139">
-        <v>0.1937266874372621</v>
       </c>
       <c r="BH139">
         <v>1.153762085415715</v>
@@ -25948,10 +25948,10 @@
         <v>7.292170080727181</v>
       </c>
       <c r="BF140">
+        <v>0.1110685292016267</v>
+      </c>
+      <c r="BG140">
         <v>0.02732666323077692</v>
-      </c>
-      <c r="BG140">
-        <v>0.1110685292016267</v>
       </c>
       <c r="BH140">
         <v>0.2460342585537425</v>
@@ -26130,10 +26130,10 @@
         <v>7.214508273595719</v>
       </c>
       <c r="BF141">
+        <v>0.03661224167680601</v>
+      </c>
+      <c r="BG141">
         <v>0.03197206478394478</v>
-      </c>
-      <c r="BG141">
-        <v>0.03661224167680601</v>
       </c>
       <c r="BH141">
         <v>0.8732616010289039</v>
@@ -26312,10 +26312,10 @@
         <v>4.548649464121295</v>
       </c>
       <c r="BF142">
+        <v>0.4545292744560362</v>
+      </c>
+      <c r="BG142">
         <v>0.3528683364698413</v>
-      </c>
-      <c r="BG142">
-        <v>0.4545292744560362</v>
       </c>
       <c r="BH142">
         <v>0.7763379749129273</v>
@@ -26494,10 +26494,10 @@
         <v>5.358109440621638</v>
       </c>
       <c r="BF143">
+        <v>0.2465641106451673</v>
+      </c>
+      <c r="BG143">
         <v>0.3144721863789091</v>
-      </c>
-      <c r="BG143">
-        <v>0.2465641106451673</v>
       </c>
       <c r="BH143">
         <v>1.275417519427509</v>
@@ -26676,10 +26676,10 @@
         <v>6.168279737320642</v>
       </c>
       <c r="BF144">
+        <v>0.437495708899862</v>
+      </c>
+      <c r="BG144">
         <v>0.1639423328424723</v>
-      </c>
-      <c r="BG144">
-        <v>0.437495708899862</v>
       </c>
       <c r="BH144">
         <v>0.3747290076392428</v>
@@ -26858,10 +26858,10 @@
         <v>5.706071061247415</v>
       </c>
       <c r="BF145">
+        <v>0.4177712774315355</v>
+      </c>
+      <c r="BG145">
         <v>0.2538742613938245</v>
-      </c>
-      <c r="BG145">
-        <v>0.4177712774315355</v>
       </c>
       <c r="BH145">
         <v>0.6076872085478147</v>
@@ -27040,13 +27040,13 @@
         <v>6.049295732576264</v>
       </c>
       <c r="BF146">
-        <v>0.1865645109526852</v>
+        <v>0.04355774757374713</v>
       </c>
       <c r="BG146">
-        <v>0.04355774757374705</v>
+        <v>0.1865645109526853</v>
       </c>
       <c r="BH146">
-        <v>4.283153315878311</v>
+        <v>4.283153315878307</v>
       </c>
     </row>
     <row r="147">
@@ -27222,13 +27222,13 @@
         <v>3.776956191192376</v>
       </c>
       <c r="BF147">
-        <v>0.2392309892217419</v>
+        <v>0.3676952849859494</v>
       </c>
       <c r="BG147">
-        <v>0.3676952849859493</v>
+        <v>0.239230989221742</v>
       </c>
       <c r="BH147">
-        <v>0.6506229451130536</v>
+        <v>0.6506229451130537</v>
       </c>
     </row>
     <row r="148">
@@ -27404,13 +27404,13 @@
         <v>3.515687102006397</v>
       </c>
       <c r="BF148">
-        <v>0.1878385145085651</v>
+        <v>0.4478730314350211</v>
       </c>
       <c r="BG148">
-        <v>0.4478730314350209</v>
+        <v>0.1878385145085652</v>
       </c>
       <c r="BH148">
-        <v>0.4194012617967095</v>
+        <v>0.4194012617967096</v>
       </c>
     </row>
     <row r="149">
@@ -27586,10 +27586,10 @@
         <v>6.206371876129044</v>
       </c>
       <c r="BF149">
+        <v>0.4684221831625847</v>
+      </c>
+      <c r="BG149">
         <v>0.1569123824569851</v>
-      </c>
-      <c r="BG149">
-        <v>0.4684221831625847</v>
       </c>
       <c r="BH149">
         <v>0.334980682164923</v>
@@ -27768,13 +27768,13 @@
         <v>4.58827979633833</v>
       </c>
       <c r="BF150">
+        <v>0.4643504945711495</v>
+      </c>
+      <c r="BG150">
         <v>0.355284556518682</v>
       </c>
-      <c r="BG150">
-        <v>0.4643504945711495</v>
-      </c>
       <c r="BH150">
-        <v>0.7651215206453149</v>
+        <v>0.765121520645315</v>
       </c>
     </row>
     <row r="151">
@@ -27950,10 +27950,10 @@
         <v>4.434367831419905</v>
       </c>
       <c r="BF151">
+        <v>0.4151278242443283</v>
+      </c>
+      <c r="BG151">
         <v>0.3435149420689261</v>
-      </c>
-      <c r="BG151">
-        <v>0.4151278242443283</v>
       </c>
       <c r="BH151">
         <v>0.8274919723683622</v>
@@ -28132,10 +28132,10 @@
         <v>6.330873970621266</v>
       </c>
       <c r="BF152">
+        <v>0.1098393872091383</v>
+      </c>
+      <c r="BG152">
         <v>0.1348510187986166</v>
-      </c>
-      <c r="BG152">
-        <v>0.1098393872091383</v>
       </c>
       <c r="BH152">
         <v>1.227710953465674</v>
@@ -28314,13 +28314,13 @@
         <v>5.410135887613873</v>
       </c>
       <c r="BF153">
-        <v>0.306488579471813</v>
+        <v>0.4650844521927824</v>
       </c>
       <c r="BG153">
-        <v>0.4650844521927823</v>
+        <v>0.3064885794718131</v>
       </c>
       <c r="BH153">
-        <v>0.6589955394698301</v>
+        <v>0.6589955394698302</v>
       </c>
     </row>
     <row r="154">
@@ -28496,10 +28496,10 @@
         <v>4.999127858865494</v>
       </c>
       <c r="BF154">
+        <v>0.4667138725138099</v>
+      </c>
+      <c r="BG154">
         <v>0.3535593868771475</v>
-      </c>
-      <c r="BG154">
-        <v>0.4667138725138099</v>
       </c>
       <c r="BH154">
         <v>0.7575506272672146</v>
@@ -28678,10 +28678,10 @@
         <v>5.596534347161273</v>
       </c>
       <c r="BF155">
+        <v>0.1647002361630317</v>
+      </c>
+      <c r="BG155">
         <v>0.2744839367153052</v>
-      </c>
-      <c r="BG155">
-        <v>0.1647002361630317</v>
       </c>
       <c r="BH155">
         <v>1.666566746410745</v>
@@ -28860,10 +28860,10 @@
         <v>5.170170828158045</v>
       </c>
       <c r="BF156">
+        <v>0.3945319023758891</v>
+      </c>
+      <c r="BG156">
         <v>0.3387842249322413</v>
-      </c>
-      <c r="BG156">
-        <v>0.3945319023758891</v>
       </c>
       <c r="BH156">
         <v>0.8586991898299408</v>
@@ -29042,10 +29042,10 @@
         <v>6.302456874185702</v>
       </c>
       <c r="BF157">
+        <v>0.1989633944260189</v>
+      </c>
+      <c r="BG157">
         <v>0.139751975192218</v>
-      </c>
-      <c r="BG157">
-        <v>0.1989633944260189</v>
       </c>
       <c r="BH157">
         <v>0.702400437001905</v>
@@ -29224,13 +29224,13 @@
         <v>4.222070734057766</v>
       </c>
       <c r="BF158">
+        <v>0.4203391743090297</v>
+      </c>
+      <c r="BG158">
         <v>0.3176660126995638</v>
       </c>
-      <c r="BG158">
-        <v>0.4203391743090296</v>
-      </c>
       <c r="BH158">
-        <v>0.7557373476354089</v>
+        <v>0.7557373476354086</v>
       </c>
     </row>
     <row r="159">
@@ -29406,13 +29406,13 @@
         <v>6.993386529898772</v>
       </c>
       <c r="BF159">
+        <v>0.05544935267517986</v>
+      </c>
+      <c r="BG159">
         <v>0.04866142710228691</v>
       </c>
-      <c r="BG159">
-        <v>0.05544935267517997</v>
-      </c>
       <c r="BH159">
-        <v>0.8775833216186228</v>
+        <v>0.8775833216186245</v>
       </c>
     </row>
     <row r="160">
@@ -29588,10 +29588,10 @@
         <v>4.19943852058803</v>
       </c>
       <c r="BF160">
+        <v>0.4619795933354918</v>
+      </c>
+      <c r="BG160">
         <v>0.3143441883452485</v>
-      </c>
-      <c r="BG160">
-        <v>0.4619795933354918</v>
       </c>
       <c r="BH160">
         <v>0.6804287307923798</v>
@@ -29770,13 +29770,13 @@
         <v>3.173087984709326</v>
       </c>
       <c r="BF161">
+        <v>0.296630860479973</v>
+      </c>
+      <c r="BG161">
         <v>0.1257040395761401</v>
       </c>
-      <c r="BG161">
-        <v>0.2966308604799732</v>
-      </c>
       <c r="BH161">
-        <v>0.4237726289595782</v>
+        <v>0.4237726289595785</v>
       </c>
     </row>
     <row r="162">
@@ -29952,10 +29952,10 @@
         <v>2.612655548161733</v>
       </c>
       <c r="BF162">
-        <v>0.05299185396913856</v>
+        <v>0.4257452836821024</v>
       </c>
       <c r="BG162">
-        <v>0.4257452836821027</v>
+        <v>0.05299185396913852</v>
       </c>
       <c r="BH162">
         <v>0.1244684462757472</v>
@@ -30134,10 +30134,10 @@
         <v>6.484921316576686</v>
       </c>
       <c r="BF163">
+        <v>0.3439192075954123</v>
+      </c>
+      <c r="BG163">
         <v>0.1098556308023984</v>
-      </c>
-      <c r="BG163">
-        <v>0.3439192075954123</v>
       </c>
       <c r="BH163">
         <v>0.3194227841197895</v>
@@ -30316,10 +30316,10 @@
         <v>5.339146112251121</v>
       </c>
       <c r="BF164">
+        <v>0.3431971560431359</v>
+      </c>
+      <c r="BG164">
         <v>0.3172590612384862</v>
-      </c>
-      <c r="BG164">
-        <v>0.3431971560431359</v>
       </c>
       <c r="BH164">
         <v>0.9244221744034803</v>
@@ -30498,13 +30498,13 @@
         <v>4.234943274093818</v>
       </c>
       <c r="BF165">
+        <v>0.4683182249435632</v>
+      </c>
+      <c r="BG165">
         <v>0.3195113417990127</v>
       </c>
-      <c r="BG165">
-        <v>0.4683182249435632</v>
-      </c>
       <c r="BH165">
-        <v>0.682252632464852</v>
+        <v>0.6822526324648521</v>
       </c>
     </row>
     <row r="166">
@@ -30680,13 +30680,13 @@
         <v>5.419009973674147</v>
       </c>
       <c r="BF166">
+        <v>0.114169694613734</v>
+      </c>
+      <c r="BG166">
         <v>0.3050798368524208</v>
       </c>
-      <c r="BG166">
-        <v>0.114169694613734</v>
-      </c>
       <c r="BH166">
-        <v>2.672161276112595</v>
+        <v>2.672161276112597</v>
       </c>
     </row>
     <row r="167">
@@ -30862,10 +30862,10 @@
         <v>3.804494841645636</v>
       </c>
       <c r="BF167">
+        <v>0.4464500366434989</v>
+      </c>
+      <c r="BG167">
         <v>0.2446116280908094</v>
-      </c>
-      <c r="BG167">
-        <v>0.4464500366434989</v>
       </c>
       <c r="BH167">
         <v>0.5479037025729659</v>
@@ -31044,10 +31044,10 @@
         <v>2.789612781672313</v>
       </c>
       <c r="BF168">
+        <v>0.3209862319140812</v>
+      </c>
+      <c r="BG168">
         <v>0.07156490562480917</v>
-      </c>
-      <c r="BG168">
-        <v>0.3209862319140812</v>
       </c>
       <c r="BH168">
         <v>0.2229531939674131</v>
@@ -31226,10 +31226,10 @@
         <v>3.374149650619156</v>
       </c>
       <c r="BF169">
-        <v>0.1609791430623032</v>
+        <v>0.3959468187489611</v>
       </c>
       <c r="BG169">
-        <v>0.3959468187489614</v>
+        <v>0.1609791430623031</v>
       </c>
       <c r="BH169">
         <v>0.406567587967836</v>
@@ -31408,13 +31408,13 @@
         <v>3.424075447460282</v>
       </c>
       <c r="BF170">
-        <v>0.1703020802640989</v>
+        <v>0.4519301091736327</v>
       </c>
       <c r="BG170">
-        <v>0.4519301091736327</v>
+        <v>0.170302080264099</v>
       </c>
       <c r="BH170">
-        <v>0.3768327818996198</v>
+        <v>0.3768327818996199</v>
       </c>
     </row>
     <row r="171">
@@ -31590,10 +31590,10 @@
         <v>6.094301752088952</v>
       </c>
       <c r="BF171">
+        <v>0.3210658953642768</v>
+      </c>
+      <c r="BG171">
         <v>0.1779038931427285</v>
-      </c>
-      <c r="BG171">
-        <v>0.3210658953642768</v>
       </c>
       <c r="BH171">
         <v>0.5541039883444527</v>
@@ -31772,10 +31772,10 @@
         <v>5.500554434326394</v>
       </c>
       <c r="BF172">
+        <v>0.07036439423120418</v>
+      </c>
+      <c r="BG172">
         <v>0.2915546215937295</v>
-      </c>
-      <c r="BG172">
-        <v>0.07036439423120418</v>
       </c>
       <c r="BH172">
         <v>4.143496505288397</v>
@@ -31954,10 +31954,10 @@
         <v>6.402136689073447</v>
       </c>
       <c r="BF173">
+        <v>0.2479979109088117</v>
+      </c>
+      <c r="BG173">
         <v>0.1229460438692317</v>
-      </c>
-      <c r="BG173">
-        <v>0.2479979109088117</v>
       </c>
       <c r="BH173">
         <v>0.4957543530051698</v>
@@ -32136,13 +32136,13 @@
         <v>6.734190145396547</v>
       </c>
       <c r="BF174">
+        <v>0.2683184789652724</v>
+      </c>
+      <c r="BG174">
         <v>0.07566925090866737</v>
       </c>
-      <c r="BG174">
-        <v>0.2683184789652731</v>
-      </c>
       <c r="BH174">
-        <v>0.2820128199909064</v>
+        <v>0.2820128199909071</v>
       </c>
     </row>
     <row r="175">
@@ -32318,10 +32318,10 @@
         <v>4.214179075028044</v>
       </c>
       <c r="BF175">
+        <v>0.2657881111665271</v>
+      </c>
+      <c r="BG175">
         <v>0.3165187958546034</v>
-      </c>
-      <c r="BG175">
-        <v>0.2657881111665271</v>
       </c>
       <c r="BH175">
         <v>1.190868901040842</v>
@@ -32500,10 +32500,10 @@
         <v>6.901574212413599</v>
       </c>
       <c r="BF176">
+        <v>0.09290206528969362</v>
+      </c>
+      <c r="BG176">
         <v>0.057256869652002</v>
-      </c>
-      <c r="BG176">
-        <v>0.09290206528969362</v>
       </c>
       <c r="BH176">
         <v>0.6163142818564871</v>
@@ -32682,10 +32682,10 @@
         <v>4.583658312330588</v>
       </c>
       <c r="BF177">
+        <v>0.333603692090426</v>
+      </c>
+      <c r="BG177">
         <v>0.3550254055989672</v>
-      </c>
-      <c r="BG177">
-        <v>0.333603692090426</v>
       </c>
       <c r="BH177">
         <v>1.064213058837295</v>
@@ -32864,10 +32864,10 @@
         <v>4.300591351405035</v>
       </c>
       <c r="BF178">
+        <v>0.3516328204930556</v>
+      </c>
+      <c r="BG178">
         <v>0.3283980035562697</v>
-      </c>
-      <c r="BG178">
-        <v>0.3516328204930556</v>
       </c>
       <c r="BH178">
         <v>0.9339230709346009</v>
@@ -33046,13 +33046,13 @@
         <v>6.109386534499787</v>
       </c>
       <c r="BF179">
+        <v>0.3440320470406393</v>
+      </c>
+      <c r="BG179">
         <v>0.1750271653385854</v>
       </c>
-      <c r="BG179">
-        <v>0.3440320470406389</v>
-      </c>
       <c r="BH179">
-        <v>0.5087525038558698</v>
+        <v>0.5087525038558692</v>
       </c>
     </row>
     <row r="180">
@@ -33228,13 +33228,13 @@
         <v>5.632205809693588</v>
       </c>
       <c r="BF180">
+        <v>0.4503431115562354</v>
+      </c>
+      <c r="BG180">
         <v>0.2678830342778138</v>
       </c>
-      <c r="BG180">
-        <v>0.4503431115562355</v>
-      </c>
       <c r="BH180">
-        <v>0.5948420824115628</v>
+        <v>0.594842082411563</v>
       </c>
     </row>
     <row r="181">
@@ -33410,13 +33410,13 @@
         <v>3.953880305973479</v>
       </c>
       <c r="BF181">
+        <v>0.1727303225192213</v>
+      </c>
+      <c r="BG181">
         <v>0.2730154688565484</v>
       </c>
-      <c r="BG181">
-        <v>0.1727303225192212</v>
-      </c>
       <c r="BH181">
-        <v>1.580587964375321</v>
+        <v>1.580587964375319</v>
       </c>
     </row>
     <row r="182">
@@ -33592,13 +33592,13 @@
         <v>3.90923864133073</v>
       </c>
       <c r="BF182">
-        <v>0.2647033350468422</v>
+        <v>0.1704047125145693</v>
       </c>
       <c r="BG182">
-        <v>0.1704047125145695</v>
+        <v>0.2647033350468421</v>
       </c>
       <c r="BH182">
-        <v>1.553380368070573</v>
+        <v>1.553380368070574</v>
       </c>
     </row>
     <row r="183">
@@ -33774,10 +33774,10 @@
         <v>4.977424176595098</v>
       </c>
       <c r="BF183">
+        <v>0.3536872094712727</v>
+      </c>
+      <c r="BG183">
         <v>0.354872689539754</v>
-      </c>
-      <c r="BG183">
-        <v>0.3536872094712727</v>
       </c>
       <c r="BH183">
         <v>1.003351775344812</v>
@@ -33956,10 +33956,10 @@
         <v>5.332959017080766</v>
       </c>
       <c r="BF184">
+        <v>0.4692859828216585</v>
+      </c>
+      <c r="BG184">
         <v>0.3181534310393533</v>
-      </c>
-      <c r="BG184">
-        <v>0.4692859828216585</v>
       </c>
       <c r="BH184">
         <v>0.6779521287348151</v>
@@ -34138,13 +34138,13 @@
         <v>7.636563545858251</v>
       </c>
       <c r="BF185">
+        <v>0.1528740833954627</v>
+      </c>
+      <c r="BG185">
         <v>0.01283608805335231</v>
       </c>
-      <c r="BG185">
-        <v>0.1528740833954625</v>
-      </c>
       <c r="BH185">
-        <v>0.08396510231330227</v>
+        <v>0.08396510231330216</v>
       </c>
     </row>
     <row r="186">
@@ -34320,13 +34320,13 @@
         <v>3.872566032467835</v>
       </c>
       <c r="BF186">
+        <v>0.07363844402666325</v>
+      </c>
+      <c r="BG186">
         <v>0.2577504938069649</v>
       </c>
-      <c r="BG186">
-        <v>0.07363844402666313</v>
-      </c>
       <c r="BH186">
-        <v>3.500216459131567</v>
+        <v>3.500216459131561</v>
       </c>
     </row>
     <row r="187">
@@ -34502,13 +34502,13 @@
         <v>5.001322985664915</v>
       </c>
       <c r="BF187">
+        <v>0.3334668345349072</v>
+      </c>
+      <c r="BG187">
         <v>0.3534192546449443</v>
       </c>
-      <c r="BG187">
-        <v>0.3334668345349075</v>
-      </c>
       <c r="BH187">
-        <v>1.059833296879028</v>
+        <v>1.059833296879029</v>
       </c>
     </row>
     <row r="188">
@@ -34684,10 +34684,10 @@
         <v>4.365817284945181</v>
       </c>
       <c r="BF188">
+        <v>0.4498122554965432</v>
+      </c>
+      <c r="BG188">
         <v>0.3362974169906546</v>
-      </c>
-      <c r="BG188">
-        <v>0.4498122554965432</v>
       </c>
       <c r="BH188">
         <v>0.7476395160007795</v>
@@ -34866,10 +34866,10 @@
         <v>4.598079773816295</v>
       </c>
       <c r="BF189">
+        <v>0.4238749983569693</v>
+      </c>
+      <c r="BG189">
         <v>0.3558141737717115</v>
-      </c>
-      <c r="BG189">
-        <v>0.4238749983569693</v>
       </c>
       <c r="BH189">
         <v>0.8394318493681482</v>
@@ -35048,10 +35048,10 @@
         <v>5.247299483176418</v>
       </c>
       <c r="BF190">
+        <v>0.4327676853614199</v>
+      </c>
+      <c r="BG190">
         <v>0.3297365583300999</v>
-      </c>
-      <c r="BG190">
-        <v>0.4327676853614199</v>
       </c>
       <c r="BH190">
         <v>0.7619250916452439</v>
@@ -35230,10 +35230,10 @@
         <v>5.190082050929881</v>
       </c>
       <c r="BF191">
+        <v>0.2659692725207936</v>
+      </c>
+      <c r="BG191">
         <v>0.3365816351284808</v>
-      </c>
-      <c r="BG191">
-        <v>0.2659692725207936</v>
       </c>
       <c r="BH191">
         <v>1.265490678447326</v>
@@ -35412,13 +35412,13 @@
         <v>3.342422986362791</v>
       </c>
       <c r="BF192">
-        <v>0.1551573519241149</v>
+        <v>0.4568356052844861</v>
       </c>
       <c r="BG192">
-        <v>0.4568356052844861</v>
+        <v>0.1551573519241148</v>
       </c>
       <c r="BH192">
-        <v>0.3396349805691994</v>
+        <v>0.3396349805691992</v>
       </c>
     </row>
     <row r="193">
@@ -35594,13 +35594,13 @@
         <v>2.675358840894337</v>
       </c>
       <c r="BF193">
-        <v>0.05911784560742082</v>
+        <v>0.1510754431315431</v>
       </c>
       <c r="BG193">
-        <v>0.1510754431315432</v>
+        <v>0.05911784560742084</v>
       </c>
       <c r="BH193">
-        <v>0.3913134019798719</v>
+        <v>0.3913134019798723</v>
       </c>
     </row>
     <row r="194">
@@ -35776,13 +35776,13 @@
         <v>3.267730841852184</v>
       </c>
       <c r="BF194">
-        <v>0.1418079875699634</v>
+        <v>0.3617878288488971</v>
       </c>
       <c r="BG194">
-        <v>0.3617878288488972</v>
+        <v>0.1418079875699633</v>
       </c>
       <c r="BH194">
-        <v>0.3919645058849956</v>
+        <v>0.3919645058849955</v>
       </c>
     </row>
     <row r="195">
@@ -35958,10 +35958,10 @@
         <v>4.680355131964742</v>
       </c>
       <c r="BF195">
+        <v>0.4480068714993771</v>
+      </c>
+      <c r="BG195">
         <v>0.3591784541322251</v>
-      </c>
-      <c r="BG195">
-        <v>0.4480068714993771</v>
       </c>
       <c r="BH195">
         <v>0.8017253238329504</v>
@@ -36140,10 +36140,10 @@
         <v>3.076936486709487</v>
       </c>
       <c r="BF196">
+        <v>0.3830572358381989</v>
+      </c>
+      <c r="BG196">
         <v>0.1103845594544794</v>
-      </c>
-      <c r="BG196">
-        <v>0.3830572358381986</v>
       </c>
       <c r="BH196">
         <v>0.2881672740444073</v>
@@ -36322,13 +36322,13 @@
         <v>5.642863266479403</v>
       </c>
       <c r="BF197">
+        <v>0.4448591394701419</v>
+      </c>
+      <c r="BG197">
         <v>0.2658882355675921</v>
       </c>
-      <c r="BG197">
-        <v>0.4448591394701418</v>
-      </c>
       <c r="BH197">
-        <v>0.5976908463301068</v>
+        <v>0.5976908463301066</v>
       </c>
     </row>
     <row r="198">
@@ -36504,13 +36504,13 @@
         <v>3.617759277262103</v>
       </c>
       <c r="BF198">
+        <v>0.3372616901464021</v>
+      </c>
+      <c r="BG198">
         <v>0.207826924609039</v>
       </c>
-      <c r="BG198">
-        <v>0.3372616901464022</v>
-      </c>
       <c r="BH198">
-        <v>0.61621859428749</v>
+        <v>0.6162185942874902</v>
       </c>
     </row>
     <row r="199">
@@ -36686,13 +36686,13 @@
         <v>4.974325748066629</v>
       </c>
       <c r="BF199">
+        <v>0.4050258914868527</v>
+      </c>
+      <c r="BG199">
         <v>0.3550494276453938</v>
       </c>
-      <c r="BG199">
-        <v>0.4050258914868524</v>
-      </c>
       <c r="BH199">
-        <v>0.8766092121716101</v>
+        <v>0.8766092121716096</v>
       </c>
     </row>
     <row r="200">
@@ -36868,10 +36868,10 @@
         <v>3.982770824244188</v>
       </c>
       <c r="BF200">
+        <v>0.3767960887291306</v>
+      </c>
+      <c r="BG200">
         <v>0.2782917662996979</v>
-      </c>
-      <c r="BG200">
-        <v>0.3767960887291306</v>
       </c>
       <c r="BH200">
         <v>0.7385739253247795</v>
@@ -37050,13 +37050,13 @@
         <v>4.532496180268756</v>
       </c>
       <c r="BF201">
+        <v>0.4633170861773171</v>
+      </c>
+      <c r="BG201">
         <v>0.3517586898511429</v>
       </c>
-      <c r="BG201">
-        <v>0.4633170861773172</v>
-      </c>
       <c r="BH201">
-        <v>0.7592180395361472</v>
+        <v>0.7592180395361474</v>
       </c>
     </row>
     <row r="202">
@@ -37232,10 +37232,10 @@
         <v>4.984666692767141</v>
       </c>
       <c r="BF202">
+        <v>0.3390025153903697</v>
+      </c>
+      <c r="BG202">
         <v>0.354449065303852</v>
-      </c>
-      <c r="BG202">
-        <v>0.33900251539037</v>
       </c>
       <c r="BH202">
         <v>1.045564705901061</v>
@@ -37414,13 +37414,13 @@
         <v>4.374796046632174</v>
       </c>
       <c r="BF203">
-        <v>0.3373077710095608</v>
+        <v>0.4430347440885647</v>
       </c>
       <c r="BG203">
-        <v>0.4430347440885647</v>
+        <v>0.3373077710095609</v>
       </c>
       <c r="BH203">
-        <v>0.7613573777458217</v>
+        <v>0.7613573777458219</v>
       </c>
     </row>
     <row r="204">
@@ -37596,10 +37596,10 @@
         <v>5.707835511278563</v>
       </c>
       <c r="BF204">
+        <v>0.3689847119911194</v>
+      </c>
+      <c r="BG204">
         <v>0.2535349206470169</v>
-      </c>
-      <c r="BG204">
-        <v>0.3689847119911194</v>
       </c>
       <c r="BH204">
         <v>0.687114973622861</v>
@@ -37778,10 +37778,10 @@
         <v>6.094603319407577</v>
       </c>
       <c r="BF205">
+        <v>0.3371052973725771</v>
+      </c>
+      <c r="BG205">
         <v>0.1778462463781801</v>
-      </c>
-      <c r="BG205">
-        <v>0.3371052973725771</v>
       </c>
       <c r="BH205">
         <v>0.527568827201253</v>
@@ -37960,13 +37960,13 @@
         <v>6.897168902377661</v>
       </c>
       <c r="BF206">
+        <v>0.09032816827266585</v>
+      </c>
+      <c r="BG206">
         <v>0.05769550158882739</v>
       </c>
-      <c r="BG206">
-        <v>0.09032816827266571</v>
-      </c>
       <c r="BH206">
-        <v>0.638732110836866</v>
+        <v>0.638732110836865</v>
       </c>
     </row>
     <row r="207">
@@ -38142,13 +38142,13 @@
         <v>3.832788910272065</v>
       </c>
       <c r="BF207">
-        <v>0.2501044663152433</v>
+        <v>0.4464559525166797</v>
       </c>
       <c r="BG207">
-        <v>0.4464559525166797</v>
+        <v>0.2501044663152432</v>
       </c>
       <c r="BH207">
-        <v>0.5601996454642395</v>
+        <v>0.5601996454642394</v>
       </c>
     </row>
     <row r="208">
@@ -38324,13 +38324,13 @@
         <v>3.646294663873569</v>
       </c>
       <c r="BF208">
-        <v>0.2134607689191365</v>
+        <v>0.3218706233464436</v>
       </c>
       <c r="BG208">
-        <v>0.3218706233464437</v>
+        <v>0.2134607689191364</v>
       </c>
       <c r="BH208">
-        <v>0.6631881055183443</v>
+        <v>0.6631881055183442</v>
       </c>
     </row>
     <row r="209">
@@ -38506,10 +38506,10 @@
         <v>5.779687920252077</v>
       </c>
       <c r="BF209">
+        <v>0.4219853228467111</v>
+      </c>
+      <c r="BG209">
         <v>0.2395764982478107</v>
-      </c>
-      <c r="BG209">
-        <v>0.4219853228467111</v>
       </c>
       <c r="BH209">
         <v>0.5677365663611919</v>
@@ -38688,10 +38688,10 @@
         <v>2.777588062742986</v>
       </c>
       <c r="BF210">
+        <v>0.4053037234412794</v>
+      </c>
+      <c r="BG210">
         <v>0.07017538064969694</v>
-      </c>
-      <c r="BG210">
-        <v>0.4053037234412794</v>
       </c>
       <c r="BH210">
         <v>0.1731426991439026</v>
@@ -38870,13 +38870,13 @@
         <v>3.179052870150914</v>
       </c>
       <c r="BF211">
-        <v>0.1266900614833181</v>
+        <v>0.4607534256740867</v>
       </c>
       <c r="BG211">
-        <v>0.4607534256740868</v>
+        <v>0.126690061483318</v>
       </c>
       <c r="BH211">
-        <v>0.2749628205107088</v>
+        <v>0.2749628205107086</v>
       </c>
     </row>
     <row r="212">
@@ -39052,10 +39052,10 @@
         <v>3.107238030024819</v>
       </c>
       <c r="BF212">
-        <v>0.1150931188520524</v>
+        <v>0.07442739608115022</v>
       </c>
       <c r="BG212">
-        <v>0.07442739608115015</v>
+        <v>0.1150931188520525</v>
       </c>
       <c r="BH212">
         <v>1.546381103089558</v>
@@ -39234,13 +39234,13 @@
         <v>6.857460025436839</v>
       </c>
       <c r="BF213">
+        <v>0.04897528986823853</v>
+      </c>
+      <c r="BG213">
         <v>0.06175985702808136</v>
       </c>
-      <c r="BG213">
-        <v>0.04897528986823863</v>
-      </c>
       <c r="BH213">
-        <v>1.261041173911127</v>
+        <v>1.261041173911129</v>
       </c>
     </row>
     <row r="214">
@@ -39416,13 +39416,13 @@
         <v>4.842446919101247</v>
       </c>
       <c r="BF214">
+        <v>0.4484681081767091</v>
+      </c>
+      <c r="BG214">
         <v>0.3600263520368789</v>
       </c>
-      <c r="BG214">
-        <v>0.448468108176709</v>
-      </c>
       <c r="BH214">
-        <v>0.8027914259067412</v>
+        <v>0.802791425906741</v>
       </c>
     </row>
     <row r="215">
@@ -39598,13 +39598,13 @@
         <v>4.253643518512501</v>
       </c>
       <c r="BF215">
+        <v>0.2500653102145401</v>
+      </c>
+      <c r="BG215">
         <v>0.322133497834941</v>
       </c>
-      <c r="BG215">
-        <v>0.2500653102145404</v>
-      </c>
       <c r="BH215">
-        <v>1.288197461529432</v>
+        <v>1.288197461529434</v>
       </c>
     </row>
     <row r="216">
@@ -39780,10 +39780,10 @@
         <v>4.311001967177194</v>
       </c>
       <c r="BF216">
+        <v>0.274346355580007</v>
+      </c>
+      <c r="BG216">
         <v>0.32972312109727</v>
-      </c>
-      <c r="BG216">
-        <v>0.274346355580007</v>
       </c>
       <c r="BH216">
         <v>1.201849831029061</v>
@@ -39962,10 +39962,10 @@
         <v>6.028060825405175</v>
       </c>
       <c r="BF217">
+        <v>0.4507143892386536</v>
+      </c>
+      <c r="BG217">
         <v>0.190686343841743</v>
-      </c>
-      <c r="BG217">
-        <v>0.4507143892386536</v>
       </c>
       <c r="BH217">
         <v>0.4230757845647001</v>
@@ -40144,10 +40144,10 @@
         <v>4.104591804701708</v>
       </c>
       <c r="BF218">
+        <v>0.4625832459185067</v>
+      </c>
+      <c r="BG218">
         <v>0.2994306075379641</v>
-      </c>
-      <c r="BG218">
-        <v>0.4625832459185067</v>
       </c>
       <c r="BH218">
         <v>0.6473010213403076</v>
@@ -40326,10 +40326,10 @@
         <v>4.336369266112262</v>
       </c>
       <c r="BF219">
+        <v>0.427331912281778</v>
+      </c>
+      <c r="BG219">
         <v>0.3328509942091381</v>
-      </c>
-      <c r="BG219">
-        <v>0.427331912281778</v>
       </c>
       <c r="BH219">
         <v>0.778905072714672</v>
@@ -40508,13 +40508,13 @@
         <v>4.813031287318685</v>
       </c>
       <c r="BF220">
+        <v>0.4202943383071376</v>
+      </c>
+      <c r="BG220">
         <v>0.3604465844781323</v>
       </c>
-      <c r="BG220">
-        <v>0.4202943383071379</v>
-      </c>
       <c r="BH220">
-        <v>0.8576051391268784</v>
+        <v>0.8576051391268789</v>
       </c>
     </row>
     <row r="221">
@@ -40690,10 +40690,10 @@
         <v>3.606017035748265</v>
       </c>
       <c r="BF221">
+        <v>0.3458302681145625</v>
+      </c>
+      <c r="BG221">
         <v>0.2055123071046157</v>
-      </c>
-      <c r="BG221">
-        <v>0.3458302681145625</v>
       </c>
       <c r="BH221">
         <v>0.5942577213528805</v>
@@ -40872,13 +40872,13 @@
         <v>8.023900634772524</v>
       </c>
       <c r="BF222">
+        <v>0.02628156975485565</v>
+      </c>
+      <c r="BG222">
         <v>0.00488733767943291</v>
       </c>
-      <c r="BG222">
-        <v>0.02628156975485553</v>
-      </c>
       <c r="BH222">
-        <v>0.1859606456166862</v>
+        <v>0.1859606456166854</v>
       </c>
     </row>
     <row r="223">
@@ -41054,10 +41054,10 @@
         <v>4.933579180900571</v>
       </c>
       <c r="BF223">
+        <v>0.3487198551868321</v>
+      </c>
+      <c r="BG223">
         <v>0.3571211185140149</v>
-      </c>
-      <c r="BG223">
-        <v>0.3487198551868321</v>
       </c>
       <c r="BH223">
         <v>1.024091726359205</v>
@@ -41236,13 +41236,13 @@
         <v>3.835696849412849</v>
       </c>
       <c r="BF224">
+        <v>0.3898940029449233</v>
+      </c>
+      <c r="BG224">
         <v>0.250666647226813</v>
       </c>
-      <c r="BG224">
-        <v>0.3898940029449234</v>
-      </c>
       <c r="BH224">
-        <v>0.6429097276015867</v>
+        <v>0.642909727601587</v>
       </c>
     </row>
     <row r="225">
@@ -41418,10 +41418,10 @@
         <v>6.820132538162994</v>
       </c>
       <c r="BF225">
+        <v>0.01597657840622591</v>
+      </c>
+      <c r="BG225">
         <v>0.06576387490783128</v>
-      </c>
-      <c r="BG225">
-        <v>0.01597657840622591</v>
       </c>
       <c r="BH225">
         <v>4.116267778725623</v>
@@ -41600,13 +41600,13 @@
         <v>2.811088403749365</v>
       </c>
       <c r="BF226">
+        <v>0.2890190350397535</v>
+      </c>
+      <c r="BG226">
         <v>0.07409355855911637</v>
       </c>
-      <c r="BG226">
-        <v>0.2890190350397538</v>
-      </c>
       <c r="BH226">
-        <v>0.2563622100147314</v>
+        <v>0.2563622100147317</v>
       </c>
     </row>
     <row r="227">
@@ -41782,13 +41782,13 @@
         <v>3.531818851076197</v>
       </c>
       <c r="BF227">
+        <v>0.4383138725025045</v>
+      </c>
+      <c r="BG227">
         <v>0.1909727524707198</v>
       </c>
-      <c r="BG227">
-        <v>0.4383138725025045</v>
-      </c>
       <c r="BH227">
-        <v>0.4356986270600608</v>
+        <v>0.4356986270600609</v>
       </c>
     </row>
     <row r="228">
@@ -41964,10 +41964,10 @@
         <v>5.547305176548716</v>
       </c>
       <c r="BF228">
+        <v>0.3331184498146694</v>
+      </c>
+      <c r="BG228">
         <v>0.2833773235423127</v>
-      </c>
-      <c r="BG228">
-        <v>0.3331184498146694</v>
       </c>
       <c r="BH228">
         <v>0.8506803621953988</v>
@@ -42146,10 +42146,10 @@
         <v>6.293708472046858</v>
       </c>
       <c r="BF229">
+        <v>0.2978736513240676</v>
+      </c>
+      <c r="BG229">
         <v>0.1412775632713115</v>
-      </c>
-      <c r="BG229">
-        <v>0.2978736513240676</v>
       </c>
       <c r="BH229">
         <v>0.4742868751342175</v>
@@ -42328,10 +42328,10 @@
         <v>6.462974687684758</v>
       </c>
       <c r="BF230">
+        <v>0.2488195159020938</v>
+      </c>
+      <c r="BG230">
         <v>0.1132454611033031</v>
-      </c>
-      <c r="BG230">
-        <v>0.2488195159020938</v>
       </c>
       <c r="BH230">
         <v>0.4551309437796</v>
@@ -42510,10 +42510,10 @@
         <v>6.192798295221009</v>
       </c>
       <c r="BF231">
+        <v>0.2915577261001696</v>
+      </c>
+      <c r="BG231">
         <v>0.1594038172783467</v>
-      </c>
-      <c r="BG231">
-        <v>0.2915577261001696</v>
       </c>
       <c r="BH231">
         <v>0.5467315835203791</v>
@@ -42692,13 +42692,13 @@
         <v>3.883675969418653</v>
       </c>
       <c r="BF232">
-        <v>0.2598674949130236</v>
+        <v>0.2899460616042387</v>
       </c>
       <c r="BG232">
-        <v>0.2899460616042389</v>
+        <v>0.2598674949130235</v>
       </c>
       <c r="BH232">
-        <v>0.8962615097277266</v>
+        <v>0.8962615097277267</v>
       </c>
     </row>
     <row r="233">
@@ -42874,13 +42874,13 @@
         <v>4.033854865968259</v>
       </c>
       <c r="BF233">
+        <v>0.4637044987755373</v>
+      </c>
+      <c r="BG233">
         <v>0.2873919951031398</v>
       </c>
-      <c r="BG233">
-        <v>0.4637044987755373</v>
-      </c>
       <c r="BH233">
-        <v>0.6197740066400693</v>
+        <v>0.6197740066400692</v>
       </c>
     </row>
     <row r="234">
@@ -43056,13 +43056,13 @@
         <v>3.033350389684033</v>
       </c>
       <c r="BF234">
+        <v>0.1153577273026231</v>
+      </c>
+      <c r="BG234">
         <v>0.1038108279708473</v>
       </c>
-      <c r="BG234">
-        <v>0.1153577273026231</v>
-      </c>
       <c r="BH234">
-        <v>0.8999035469770975</v>
+        <v>0.8999035469770974</v>
       </c>
     </row>
     <row r="235">
@@ -43238,10 +43238,10 @@
         <v>4.118727499671163</v>
       </c>
       <c r="BF235">
+        <v>0.4502477298104013</v>
+      </c>
+      <c r="BG235">
         <v>0.3017481972354911</v>
-      </c>
-      <c r="BG235">
-        <v>0.4502477298104013</v>
       </c>
       <c r="BH235">
         <v>0.6701826067230963</v>
@@ -43420,10 +43420,10 @@
         <v>6.186934983397925</v>
       </c>
       <c r="BF236">
+        <v>0.4670347062165329</v>
+      </c>
+      <c r="BG236">
         <v>0.1604847557896742</v>
-      </c>
-      <c r="BG236">
-        <v>0.4670347062165329</v>
       </c>
       <c r="BH236">
         <v>0.3436249033605399</v>
@@ -43602,10 +43602,10 @@
         <v>3.907584283855992</v>
       </c>
       <c r="BF237">
+        <v>0.4689854966031982</v>
+      </c>
+      <c r="BG237">
         <v>0.2643919371732954</v>
-      </c>
-      <c r="BG237">
-        <v>0.4689854966031982</v>
       </c>
       <c r="BH237">
         <v>0.563752907260997</v>
@@ -43784,10 +43784,10 @@
         <v>4.433966038308608</v>
       </c>
       <c r="BF238">
+        <v>0.3374219338902979</v>
+      </c>
+      <c r="BG238">
         <v>0.3434760324462707</v>
-      </c>
-      <c r="BG238">
-        <v>0.3374219338902979</v>
       </c>
       <c r="BH238">
         <v>1.017942219956398</v>
@@ -43966,13 +43966,13 @@
         <v>4.504114717998849</v>
       </c>
       <c r="BF239">
+        <v>0.3313699935389106</v>
+      </c>
+      <c r="BG239">
         <v>0.3496368828525376</v>
       </c>
-      <c r="BG239">
-        <v>0.3313699935389103</v>
-      </c>
       <c r="BH239">
-        <v>1.055125357364267</v>
+        <v>1.055125357364266</v>
       </c>
     </row>
     <row r="240">
@@ -44148,10 +44148,10 @@
         <v>4.743461266526942</v>
       </c>
       <c r="BF240">
+        <v>0.4444999498296386</v>
+      </c>
+      <c r="BG240">
         <v>0.3604269619013483</v>
-      </c>
-      <c r="BG240">
-        <v>0.4444999498296386</v>
       </c>
       <c r="BH240">
         <v>0.8108593983857308</v>
@@ -44330,10 +44330,10 @@
         <v>7.426039811808024</v>
       </c>
       <c r="BF241">
+        <v>0.02646493940560096</v>
+      </c>
+      <c r="BG241">
         <v>0.02060771232176214</v>
-      </c>
-      <c r="BG241">
-        <v>0.02646493940560096</v>
       </c>
       <c r="BH241">
         <v>0.7786797470392389</v>
@@ -44512,10 +44512,10 @@
         <v>4.36925489601925</v>
       </c>
       <c r="BF242">
+        <v>0.4686953943071611</v>
+      </c>
+      <c r="BG242">
         <v>0.3366865034749013</v>
-      </c>
-      <c r="BG242">
-        <v>0.4686953943071611</v>
       </c>
       <c r="BH242">
         <v>0.7183482226715729</v>
@@ -44694,10 +44694,10 @@
         <v>3.559469494162235</v>
       </c>
       <c r="BF243">
-        <v>0.1963699773015096</v>
+        <v>0.3697154208328011</v>
       </c>
       <c r="BG243">
-        <v>0.3697154208328012</v>
+        <v>0.1963699773015095</v>
       </c>
       <c r="BH243">
         <v>0.5311381842260651</v>
@@ -44876,10 +44876,10 @@
         <v>4.712966022815814</v>
       </c>
       <c r="BF244">
+        <v>0.4670973916985936</v>
+      </c>
+      <c r="BG244">
         <v>0.3599693163416156</v>
-      </c>
-      <c r="BG244">
-        <v>0.4670973916985936</v>
       </c>
       <c r="BH244">
         <v>0.7706515230851362</v>
@@ -45058,10 +45058,10 @@
         <v>5.783557115640898</v>
       </c>
       <c r="BF245">
+        <v>0.2809764934186043</v>
+      </c>
+      <c r="BG245">
         <v>0.238818455442645</v>
-      </c>
-      <c r="BG245">
-        <v>0.2809764934186043</v>
       </c>
       <c r="BH245">
         <v>0.8499588436632974</v>
@@ -45240,10 +45240,10 @@
         <v>3.803276310296428</v>
       </c>
       <c r="BF246">
+        <v>0.4489656702647352</v>
+      </c>
+      <c r="BG246">
         <v>0.2443742081806819</v>
-      </c>
-      <c r="BG246">
-        <v>0.4489656702647352</v>
       </c>
       <c r="BH246">
         <v>0.5443048864662308</v>
@@ -45422,10 +45422,10 @@
         <v>4.728672277184938</v>
       </c>
       <c r="BF247">
+        <v>0.3390886502775338</v>
+      </c>
+      <c r="BG247">
         <v>0.360239132962057</v>
-      </c>
-      <c r="BG247">
-        <v>0.3390886502775338</v>
       </c>
       <c r="BH247">
         <v>1.062374493122115</v>
@@ -45604,13 +45604,13 @@
         <v>4.05299365703396</v>
       </c>
       <c r="BF248">
-        <v>0.2907178681532964</v>
+        <v>0.3948490153823457</v>
       </c>
       <c r="BG248">
-        <v>0.3948490153823459</v>
+        <v>0.2907178681532963</v>
       </c>
       <c r="BH248">
-        <v>0.7362760367321272</v>
+        <v>0.7362760367321273</v>
       </c>
     </row>
     <row r="249">
@@ -45786,13 +45786,13 @@
         <v>4.087419715584774</v>
       </c>
       <c r="BF249">
+        <v>0.468137244031804</v>
+      </c>
+      <c r="BG249">
         <v>0.2965739781323252</v>
       </c>
-      <c r="BG249">
-        <v>0.4681372440318041</v>
-      </c>
       <c r="BH249">
-        <v>0.6335192978411619</v>
+        <v>0.633519297841162</v>
       </c>
     </row>
     <row r="250">
@@ -45968,10 +45968,10 @@
         <v>4.144809468637538</v>
       </c>
       <c r="BF250">
+        <v>0.1380696000675881</v>
+      </c>
+      <c r="BG250">
         <v>0.3059404638109315</v>
-      </c>
-      <c r="BG250">
-        <v>0.1380696000675881</v>
       </c>
       <c r="BH250">
         <v>2.215842326342417</v>
@@ -46150,10 +46150,10 @@
         <v>4.381378299732056</v>
       </c>
       <c r="BF251">
+        <v>0.3467669597702761</v>
+      </c>
+      <c r="BG251">
         <v>0.3380362350049619</v>
-      </c>
-      <c r="BG251">
-        <v>0.3467669597702761</v>
       </c>
       <c r="BH251">
         <v>0.9748225010505669</v>
@@ -46332,10 +46332,10 @@
         <v>4.146863749835582</v>
       </c>
       <c r="BF252">
+        <v>0.3832837798190725</v>
+      </c>
+      <c r="BG252">
         <v>0.3062658889777098</v>
-      </c>
-      <c r="BG252">
-        <v>0.3832837798190725</v>
       </c>
       <c r="BH252">
         <v>0.7990577872152101</v>
@@ -46514,10 +46514,10 @@
         <v>5.858576616269458</v>
       </c>
       <c r="BF253">
+        <v>0.4583474597079494</v>
+      </c>
+      <c r="BG253">
         <v>0.2240434926506389</v>
-      </c>
-      <c r="BG253">
-        <v>0.4583474597079494</v>
       </c>
       <c r="BH253">
         <v>0.4888071001711132</v>
@@ -46696,13 +46696,13 @@
         <v>3.598325458054636</v>
       </c>
       <c r="BF254">
-        <v>0.2039976851130866</v>
+        <v>0.4692920183717909</v>
       </c>
       <c r="BG254">
-        <v>0.4692920183717909</v>
+        <v>0.2039976851130865</v>
       </c>
       <c r="BH254">
-        <v>0.4346924241772889</v>
+        <v>0.4346924241772887</v>
       </c>
     </row>
     <row r="255">
@@ -46878,10 +46878,10 @@
         <v>5.895100294169921</v>
       </c>
       <c r="BF255">
+        <v>0.4616197187457933</v>
+      </c>
+      <c r="BG255">
         <v>0.2168234673697528</v>
-      </c>
-      <c r="BG255">
-        <v>0.4616197187457933</v>
       </c>
       <c r="BH255">
         <v>0.4697014849340829</v>
@@ -47060,13 +47060,13 @@
         <v>6.969393138702631</v>
       </c>
       <c r="BF256">
+        <v>0.1631461945343354</v>
+      </c>
+      <c r="BG256">
         <v>0.05080830253757627</v>
       </c>
-      <c r="BG256">
-        <v>0.1631461945343357</v>
-      </c>
       <c r="BH256">
-        <v>0.311428058022421</v>
+        <v>0.3114280580224216</v>
       </c>
     </row>
     <row r="257">
@@ -47242,10 +47242,10 @@
         <v>4.790582641757136</v>
       </c>
       <c r="BF257">
+        <v>0.2433456160164101</v>
+      </c>
+      <c r="BG257">
         <v>0.360596054593313</v>
-      </c>
-      <c r="BG257">
-        <v>0.2433456160164101</v>
       </c>
       <c r="BH257">
         <v>1.48182679637424</v>
@@ -47424,13 +47424,13 @@
         <v>3.48615571242742</v>
       </c>
       <c r="BF258">
-        <v>0.1821331609781952</v>
+        <v>0.2729364847586458</v>
       </c>
       <c r="BG258">
-        <v>0.272936484758646</v>
+        <v>0.1821331609781953</v>
       </c>
       <c r="BH258">
-        <v>0.667309689795606</v>
+        <v>0.6673096897956068</v>
       </c>
     </row>
     <row r="259">
@@ -47606,10 +47606,10 @@
         <v>4.881284502772522</v>
       </c>
       <c r="BF259">
+        <v>0.4562160270669974</v>
+      </c>
+      <c r="BG259">
         <v>0.3590831837648463</v>
-      </c>
-      <c r="BG259">
-        <v>0.4562160270669974</v>
       </c>
       <c r="BH259">
         <v>0.7870902433511249</v>
@@ -47788,10 +47788,10 @@
         <v>3.566254705040627</v>
       </c>
       <c r="BF260">
+        <v>0.106721432752294</v>
+      </c>
+      <c r="BG260">
         <v>0.1976986775586783</v>
-      </c>
-      <c r="BG260">
-        <v>0.106721432752294</v>
       </c>
       <c r="BH260">
         <v>1.852473982593049</v>
@@ -47970,10 +47970,10 @@
         <v>4.781852386992929</v>
       </c>
       <c r="BF261">
+        <v>0.3786466171112668</v>
+      </c>
+      <c r="BG261">
         <v>0.3606140956758297</v>
-      </c>
-      <c r="BG261">
-        <v>0.3786466171112668</v>
       </c>
       <c r="BH261">
         <v>0.9523763830956448</v>
@@ -48152,13 +48152,13 @@
         <v>4.293210465983042</v>
       </c>
       <c r="BF262">
+        <v>0.3909360940052046</v>
+      </c>
+      <c r="BG262">
         <v>0.3274441860119131</v>
       </c>
-      <c r="BG262">
-        <v>0.3909360940052046</v>
-      </c>
       <c r="BH262">
-        <v>0.837590058920356</v>
+        <v>0.8375900589203559</v>
       </c>
     </row>
     <row r="263">
@@ -48334,10 +48334,10 @@
         <v>4.629446277008207</v>
       </c>
       <c r="BF263">
+        <v>0.4420707060842904</v>
+      </c>
+      <c r="BG263">
         <v>0.3573260673404126</v>
-      </c>
-      <c r="BG263">
-        <v>0.4420707060842904</v>
       </c>
       <c r="BH263">
         <v>0.8083007139411781</v>
@@ -48516,13 +48516,13 @@
         <v>6.161681044859334</v>
       </c>
       <c r="BF264">
+        <v>0.381762689894445</v>
+      </c>
+      <c r="BG264">
         <v>0.1651718465642567</v>
       </c>
-      <c r="BG264">
-        <v>0.3817626898944453</v>
-      </c>
       <c r="BH264">
-        <v>0.432655811938892</v>
+        <v>0.4326558119388923</v>
       </c>
     </row>
     <row r="265">
@@ -48698,10 +48698,10 @@
         <v>3.539593233443846</v>
       </c>
       <c r="BF265">
+        <v>0.34838516022025</v>
+      </c>
+      <c r="BG265">
         <v>0.1924872429022619</v>
-      </c>
-      <c r="BG265">
-        <v>0.34838516022025</v>
       </c>
       <c r="BH265">
         <v>0.5525127499132597</v>
@@ -48880,10 +48880,10 @@
         <v>5.144984992273444</v>
       </c>
       <c r="BF266">
+        <v>0.4692940948728692</v>
+      </c>
+      <c r="BG266">
         <v>0.3414324837032593</v>
-      </c>
-      <c r="BG266">
-        <v>0.4692940948728692</v>
       </c>
       <c r="BH266">
         <v>0.7275448113101713</v>
@@ -49062,13 +49062,13 @@
         <v>3.811193909845144</v>
       </c>
       <c r="BF267">
+        <v>0.4556037225102079</v>
+      </c>
+      <c r="BG267">
         <v>0.2459156784639581</v>
       </c>
-      <c r="BG267">
-        <v>0.4556037225102079</v>
-      </c>
       <c r="BH267">
-        <v>0.539757834086723</v>
+        <v>0.5397578340867228</v>
       </c>
     </row>
     <row r="268">
@@ -49244,10 +49244,10 @@
         <v>4.475725708012506</v>
       </c>
       <c r="BF268">
+        <v>0.3635866454096441</v>
+      </c>
+      <c r="BG268">
         <v>0.347298567844313</v>
-      </c>
-      <c r="BG268">
-        <v>0.3635866454096441</v>
       </c>
       <c r="BH268">
         <v>0.955201661636995</v>
@@ -49426,10 +49426,10 @@
         <v>4.829488117007296</v>
       </c>
       <c r="BF269">
+        <v>0.4500578550164825</v>
+      </c>
+      <c r="BG269">
         <v>0.3602428066144729</v>
-      </c>
-      <c r="BG269">
-        <v>0.4500578550164825</v>
       </c>
       <c r="BH269">
         <v>0.8004366607517154</v>
@@ -49608,10 +49608,10 @@
         <v>3.959231900596604</v>
       </c>
       <c r="BF270">
+        <v>0.4245291263423989</v>
+      </c>
+      <c r="BG270">
         <v>0.2739993294419336</v>
-      </c>
-      <c r="BG270">
-        <v>0.4245291263423989</v>
       </c>
       <c r="BH270">
         <v>0.6454193892480835</v>
@@ -49790,10 +49790,10 @@
         <v>5.147305176548716</v>
       </c>
       <c r="BF271">
+        <v>0.4575329525618488</v>
+      </c>
+      <c r="BG271">
         <v>0.3411950510914296</v>
-      </c>
-      <c r="BG271">
-        <v>0.4575329525618488</v>
       </c>
       <c r="BH271">
         <v>0.7457278195613839</v>
@@ -49972,10 +49972,10 @@
         <v>4.060000249558057</v>
       </c>
       <c r="BF272">
+        <v>0.3022771889038491</v>
+      </c>
+      <c r="BG272">
         <v>0.2919232020787598</v>
-      </c>
-      <c r="BG272">
-        <v>0.3022771889038491</v>
       </c>
       <c r="BH272">
         <v>0.965746714587905</v>
@@ -50154,10 +50154,10 @@
         <v>4.956323227486952</v>
       </c>
       <c r="BF273">
+        <v>0.02050672297775071</v>
+      </c>
+      <c r="BG273">
         <v>0.3560227993481053</v>
-      </c>
-      <c r="BG273">
-        <v>0.02050672297775071</v>
       </c>
       <c r="BH273">
         <v>17.36127219031443</v>
@@ -50336,13 +50336,13 @@
         <v>5.739278054338361</v>
       </c>
       <c r="BF274">
+        <v>0.2845926563577565</v>
+      </c>
+      <c r="BG274">
         <v>0.2474577731071414</v>
       </c>
-      <c r="BG274">
-        <v>0.2845926563577568</v>
-      </c>
       <c r="BH274">
-        <v>0.8695156659139729</v>
+        <v>0.8695156659139739</v>
       </c>
     </row>
     <row r="275">
@@ -50518,13 +50518,13 @@
         <v>6.10199827220928</v>
       </c>
       <c r="BF275">
+        <v>0.1436443185098961</v>
+      </c>
+      <c r="BG275">
         <v>0.176434375657799</v>
       </c>
-      <c r="BG275">
-        <v>0.1436443185098963</v>
-      </c>
       <c r="BH275">
-        <v>1.22827256579343</v>
+        <v>1.228272565793432</v>
       </c>
     </row>
     <row r="276">
@@ -50700,10 +50700,10 @@
         <v>4.412375163192651</v>
       </c>
       <c r="BF276">
+        <v>0.4380348903755694</v>
+      </c>
+      <c r="BG276">
         <v>0.3413254208540492</v>
-      </c>
-      <c r="BG276">
-        <v>0.4380348903755694</v>
       </c>
       <c r="BH276">
         <v>0.7792197113828037</v>
@@ -50882,10 +50882,10 @@
         <v>5.094339527974824</v>
       </c>
       <c r="BF277">
+        <v>0.4627140819319452</v>
+      </c>
+      <c r="BG277">
         <v>0.3462768832524692</v>
-      </c>
-      <c r="BG277">
-        <v>0.4627140819319453</v>
       </c>
       <c r="BH277">
         <v>0.7483603736602914</v>
@@ -51064,13 +51064,13 @@
         <v>2.656082041483645</v>
       </c>
       <c r="BF278">
+        <v>0.09497250601876148</v>
+      </c>
+      <c r="BG278">
         <v>0.05718226359057044</v>
       </c>
-      <c r="BG278">
-        <v>0.09497250601876135</v>
-      </c>
       <c r="BH278">
-        <v>0.6020928159911287</v>
+        <v>0.602092815991128</v>
       </c>
     </row>
     <row r="279">
@@ -51246,10 +51246,10 @@
         <v>4.29319180886198</v>
       </c>
       <c r="BF279">
+        <v>0.3788137456599172</v>
+      </c>
+      <c r="BG279">
         <v>0.3274417600337904</v>
-      </c>
-      <c r="BG279">
-        <v>0.3788137456599172</v>
       </c>
       <c r="BH279">
         <v>0.8643872187461582</v>
@@ -51428,13 +51428,13 @@
         <v>5.513323782809363</v>
       </c>
       <c r="BF280">
+        <v>0.2443802998123513</v>
+      </c>
+      <c r="BG280">
         <v>0.2893492488009526</v>
       </c>
-      <c r="BG280">
-        <v>0.244380299812351</v>
-      </c>
       <c r="BH280">
-        <v>1.184012168833295</v>
+        <v>1.184012168833294</v>
       </c>
     </row>
     <row r="281">
@@ -51610,10 +51610,10 @@
         <v>5.693766252022712</v>
       </c>
       <c r="BF281">
+        <v>0.3921176768454172</v>
+      </c>
+      <c r="BG281">
         <v>0.256235272566264</v>
-      </c>
-      <c r="BG281">
-        <v>0.3921176768454172</v>
       </c>
       <c r="BH281">
         <v>0.6534652419336823</v>
@@ -51792,13 +51792,13 @@
         <v>6.044409880470094</v>
       </c>
       <c r="BF282">
+        <v>0.1977645706868361</v>
+      </c>
+      <c r="BG282">
         <v>0.1875110432349105</v>
       </c>
-      <c r="BG282">
-        <v>0.1977645706868363</v>
-      </c>
       <c r="BH282">
-        <v>0.9481528596537019</v>
+        <v>0.9481528596537029</v>
       </c>
     </row>
     <row r="283">
@@ -51974,13 +51974,13 @@
         <v>5.091974289430873</v>
       </c>
       <c r="BF283">
+        <v>0.4247720042305973</v>
+      </c>
+      <c r="BG283">
         <v>0.3464870492635849</v>
       </c>
-      <c r="BG283">
-        <v>0.4247720042305975</v>
-      </c>
       <c r="BH283">
-        <v>0.8157012369287082</v>
+        <v>0.8157012369287087</v>
       </c>
     </row>
     <row r="284">
@@ -52156,13 +52156,13 @@
         <v>5.206458897120901</v>
       </c>
       <c r="BF284">
+        <v>0.4231871398825583</v>
+      </c>
+      <c r="BG284">
         <v>0.3346994850591831</v>
       </c>
-      <c r="BG284">
-        <v>0.4231871398825586</v>
-      </c>
       <c r="BH284">
-        <v>0.7909018340020155</v>
+        <v>0.7909018340020161</v>
       </c>
     </row>
     <row r="285">
@@ -52338,13 +52338,13 @@
         <v>4.826146582510878</v>
       </c>
       <c r="BF285">
+        <v>0.3202934749558223</v>
+      </c>
+      <c r="BG285">
         <v>0.3602906248390758</v>
       </c>
-      <c r="BG285">
-        <v>0.3202934749558226</v>
-      </c>
       <c r="BH285">
-        <v>1.124876567931239</v>
+        <v>1.12487656793124</v>
       </c>
     </row>
     <row r="286">
@@ -52520,10 +52520,10 @@
         <v>3.476843470907604</v>
       </c>
       <c r="BF286">
+        <v>0.4436228355764363</v>
+      </c>
+      <c r="BG286">
         <v>0.1803436085859538</v>
-      </c>
-      <c r="BG286">
-        <v>0.4436228355764363</v>
       </c>
       <c r="BH286">
         <v>0.4065246288586977</v>
@@ -52702,13 +52702,13 @@
         <v>4.634507510287402</v>
       </c>
       <c r="BF287">
+        <v>0.433972263584417</v>
+      </c>
+      <c r="BG287">
         <v>0.3575436923401607</v>
       </c>
-      <c r="BG287">
-        <v>0.4339722635844168</v>
-      </c>
       <c r="BH287">
-        <v>0.8238860460505234</v>
+        <v>0.823886046050523</v>
       </c>
     </row>
     <row r="288">
@@ -52884,10 +52884,10 @@
         <v>4.751114078465453</v>
       </c>
       <c r="BF288">
+        <v>0.3446983879519509</v>
+      </c>
+      <c r="BG288">
         <v>0.3604989005424212</v>
-      </c>
-      <c r="BG288">
-        <v>0.3446983879519509</v>
       </c>
       <c r="BH288">
         <v>1.045838661109935</v>
@@ -53066,13 +53066,13 @@
         <v>3.766342108555756</v>
       </c>
       <c r="BF289">
+        <v>0.380255134785281</v>
+      </c>
+      <c r="BG289">
         <v>0.2371496624571654</v>
       </c>
-      <c r="BG289">
-        <v>0.3802551347852809</v>
-      </c>
       <c r="BH289">
-        <v>0.6236593296526475</v>
+        <v>0.6236593296526474</v>
       </c>
     </row>
     <row r="290">
@@ -53248,13 +53248,13 @@
         <v>2.572737722903367</v>
       </c>
       <c r="BF290">
-        <v>0.04934430869859647</v>
+        <v>0.03273643889355117</v>
       </c>
       <c r="BG290">
-        <v>0.03273643889355114</v>
+        <v>0.04934430869859643</v>
       </c>
       <c r="BH290">
-        <v>1.507320599502256</v>
+        <v>1.507320599502253</v>
       </c>
     </row>
     <row r="291">
@@ -53430,13 +53430,13 @@
         <v>4.971065139962114</v>
       </c>
       <c r="BF291">
+        <v>0.4384837715281158</v>
+      </c>
+      <c r="BG291">
         <v>0.3552325025847105</v>
       </c>
-      <c r="BG291">
-        <v>0.4384837715281156</v>
-      </c>
       <c r="BH291">
-        <v>0.8101383121813732</v>
+        <v>0.8101383121813729</v>
       </c>
     </row>
     <row r="292">
@@ -53612,13 +53612,13 @@
         <v>2.345421596667961</v>
       </c>
       <c r="BF292">
-        <v>0.03206900294487885</v>
+        <v>0.2344927058796231</v>
       </c>
       <c r="BG292">
-        <v>0.2344927058796231</v>
+        <v>0.03206900294487888</v>
       </c>
       <c r="BH292">
-        <v>0.1367590638889275</v>
+        <v>0.1367590638889276</v>
       </c>
     </row>
     <row r="293">
@@ -53794,10 +53794,10 @@
         <v>3.887835886824462</v>
       </c>
       <c r="BF293">
+        <v>0.3796832162964136</v>
+      </c>
+      <c r="BG293">
         <v>0.2606578701824631</v>
-      </c>
-      <c r="BG293">
-        <v>0.3796832162964136</v>
       </c>
       <c r="BH293">
         <v>0.6865140701372774</v>
@@ -53976,10 +53976,10 @@
         <v>4.554419143952431</v>
       </c>
       <c r="BF294">
+        <v>0.4693218283623065</v>
+      </c>
+      <c r="BG294">
         <v>0.353247276478409</v>
-      </c>
-      <c r="BG294">
-        <v>0.4693218283623065</v>
       </c>
       <c r="BH294">
         <v>0.7526759999871765</v>
@@ -54158,10 +54158,10 @@
         <v>4.132277223902568</v>
       </c>
       <c r="BF295">
+        <v>0.4394306558726334</v>
+      </c>
+      <c r="BG295">
         <v>0.3039399672226543</v>
-      </c>
-      <c r="BG295">
-        <v>0.4394306558726334</v>
       </c>
       <c r="BH295">
         <v>0.6916676457610405</v>
@@ -54340,13 +54340,13 @@
         <v>3.553504735083068</v>
       </c>
       <c r="BF296">
-        <v>0.1952032528991694</v>
+        <v>0.4188757299300224</v>
       </c>
       <c r="BG296">
-        <v>0.4188757299300224</v>
+        <v>0.1952032528991693</v>
       </c>
       <c r="BH296">
-        <v>0.4660170999446068</v>
+        <v>0.4660170999446067</v>
       </c>
     </row>
     <row r="297">
@@ -54522,13 +54522,13 @@
         <v>6.18906462556273</v>
       </c>
       <c r="BF297">
+        <v>0.4448627784903358</v>
+      </c>
+      <c r="BG297">
         <v>0.1600918178061617</v>
       </c>
-      <c r="BG297">
-        <v>0.444862778490336</v>
-      </c>
       <c r="BH297">
-        <v>0.3598678638600453</v>
+        <v>0.3598678638600454</v>
       </c>
     </row>
     <row r="298">
@@ -54704,10 +54704,10 @@
         <v>4.197820308722164</v>
       </c>
       <c r="BF298">
+        <v>0.4187984480055528</v>
+      </c>
+      <c r="BG298">
         <v>0.3141029757922579</v>
-      </c>
-      <c r="BG298">
-        <v>0.4187984480055528</v>
       </c>
       <c r="BH298">
         <v>0.7500098849174658</v>
@@ -54886,10 +54886,10 @@
         <v>5.428307030021367</v>
       </c>
       <c r="BF299">
+        <v>0.3438585846837605</v>
+      </c>
+      <c r="BG299">
         <v>0.303589939468514</v>
-      </c>
-      <c r="BG299">
-        <v>0.3438585846837605</v>
       </c>
       <c r="BH299">
         <v>0.8828918427257511</v>
@@ -55068,10 +55068,10 @@
         <v>4.387001473138762</v>
       </c>
       <c r="BF300">
+        <v>0.4667993675581015</v>
+      </c>
+      <c r="BG300">
         <v>0.3386503069564098</v>
-      </c>
-      <c r="BG300">
-        <v>0.4667993675581015</v>
       </c>
       <c r="BH300">
         <v>0.7254729343956507</v>
@@ -55250,13 +55250,13 @@
         <v>6.058954827167871</v>
       </c>
       <c r="BF301">
+        <v>0.09702660200359366</v>
+      </c>
+      <c r="BG301">
         <v>0.1846966976686132</v>
       </c>
-      <c r="BG301">
-        <v>0.09702660200359345</v>
-      </c>
       <c r="BH301">
-        <v>1.903567618103053</v>
+        <v>1.903567618103048</v>
       </c>
     </row>
     <row r="302">
@@ -55432,13 +55432,13 @@
         <v>5.749305758750292</v>
       </c>
       <c r="BF302">
-        <v>0.2455087306203046</v>
+        <v>0.1895789745128799</v>
       </c>
       <c r="BG302">
-        <v>0.1895789745128802</v>
+        <v>0.2455087306203045</v>
       </c>
       <c r="BH302">
-        <v>1.295020881145364</v>
+        <v>1.295020881145365</v>
       </c>
     </row>
     <row r="303">
@@ -55614,10 +55614,10 @@
         <v>3.976910230970188</v>
       </c>
       <c r="BF303">
+        <v>0.1459848043460621</v>
+      </c>
+      <c r="BG303">
         <v>0.2772285465145417</v>
-      </c>
-      <c r="BG303">
-        <v>0.1459848043460622</v>
       </c>
       <c r="BH303">
         <v>1.89902331106573</v>
@@ -55796,13 +55796,13 @@
         <v>4.992756630454971</v>
       </c>
       <c r="BF304">
+        <v>0.4473505590832479</v>
+      </c>
+      <c r="BG304">
         <v>0.3539585348216007</v>
       </c>
-      <c r="BG304">
-        <v>0.4473505590832481</v>
-      </c>
       <c r="BH304">
-        <v>0.7912330221447921</v>
+        <v>0.7912330221447924</v>
       </c>
     </row>
     <row r="305">
@@ -55978,13 +55978,13 @@
         <v>3.431698798377363</v>
       </c>
       <c r="BF305">
+        <v>0.3398759190064259</v>
+      </c>
+      <c r="BG305">
         <v>0.1717416074958353</v>
       </c>
-      <c r="BG305">
-        <v>0.3398759190064258</v>
-      </c>
       <c r="BH305">
-        <v>0.5053067837165255</v>
+        <v>0.5053067837165254</v>
       </c>
     </row>
     <row r="306">
@@ -56160,13 +56160,13 @@
         <v>3.532253225065823</v>
       </c>
       <c r="BF306">
+        <v>0.4443244711337865</v>
+      </c>
+      <c r="BG306">
         <v>0.1910573045009213</v>
       </c>
-      <c r="BG306">
-        <v>0.4443244711337864</v>
-      </c>
       <c r="BH306">
-        <v>0.4299950079575828</v>
+        <v>0.4299950079575827</v>
       </c>
     </row>
     <row r="307">
@@ -56342,13 +56342,13 @@
         <v>3.58275506371294</v>
       </c>
       <c r="BF307">
-        <v>0.2009359196104389</v>
+        <v>0.3841406726747944</v>
       </c>
       <c r="BG307">
-        <v>0.3841406726747943</v>
+        <v>0.200935919610439</v>
       </c>
       <c r="BH307">
-        <v>0.5230790017920002</v>
+        <v>0.5230790017920003</v>
       </c>
     </row>
     <row r="308">
@@ -56524,10 +56524,10 @@
         <v>5.945789439653735</v>
       </c>
       <c r="BF308">
+        <v>0.05879637895118891</v>
+      </c>
+      <c r="BG308">
         <v>0.206813266114778</v>
-      </c>
-      <c r="BG308">
-        <v>0.05879637895118891</v>
       </c>
       <c r="BH308">
         <v>3.517449030091948</v>
@@ -56706,13 +56706,13 @@
         <v>3.006246244589537</v>
       </c>
       <c r="BF309">
-        <v>0.0998436786810003</v>
+        <v>0.3444928076176103</v>
       </c>
       <c r="BG309">
-        <v>0.3444928076176102</v>
+        <v>0.09984367868100037</v>
       </c>
       <c r="BH309">
-        <v>0.2898280500295019</v>
+        <v>0.289828050029502</v>
       </c>
     </row>
     <row r="310">
@@ -56888,13 +56888,13 @@
         <v>3.646402315689272</v>
       </c>
       <c r="BF310">
-        <v>0.2134820406750045</v>
+        <v>0.3278063915215428</v>
       </c>
       <c r="BG310">
-        <v>0.3278063915215429</v>
+        <v>0.2134820406750043</v>
       </c>
       <c r="BH310">
-        <v>0.6512442899118237</v>
+        <v>0.6512442899118236</v>
       </c>
     </row>
     <row r="311">
@@ -57070,10 +57070,10 @@
         <v>3.689055162294777</v>
       </c>
       <c r="BF311">
+        <v>0.4689038721048824</v>
+      </c>
+      <c r="BG311">
         <v>0.2219137475798398</v>
-      </c>
-      <c r="BG311">
-        <v>0.4689038721048824</v>
       </c>
       <c r="BH311">
         <v>0.4732606420665322</v>
@@ -57252,13 +57252,13 @@
         <v>3.607427138442229</v>
       </c>
       <c r="BF312">
+        <v>0.3757652647156272</v>
+      </c>
+      <c r="BG312">
         <v>0.2057901222121265</v>
       </c>
-      <c r="BG312">
-        <v>0.3757652647156271</v>
-      </c>
       <c r="BH312">
-        <v>0.5476560542866171</v>
+        <v>0.547656054286617</v>
       </c>
     </row>
     <row r="313">
@@ -57434,10 +57434,10 @@
         <v>4.208666625908451</v>
       </c>
       <c r="BF313">
+        <v>0.4632380376256688</v>
+      </c>
+      <c r="BG313">
         <v>0.3157103748096738</v>
-      </c>
-      <c r="BG313">
-        <v>0.4632380376256688</v>
       </c>
       <c r="BH313">
         <v>0.681529471171777</v>
@@ -57616,10 +57616,10 @@
         <v>3.662815125708175</v>
       </c>
       <c r="BF314">
+        <v>0.3452847958877018</v>
+      </c>
+      <c r="BG314">
         <v>0.2167260891571337</v>
-      </c>
-      <c r="BG314">
-        <v>0.3452847958877018</v>
       </c>
       <c r="BH314">
         <v>0.6276734212983426</v>
@@ -57798,13 +57798,13 @@
         <v>3.930642396572253</v>
       </c>
       <c r="BF315">
+        <v>0.2027663163482258</v>
+      </c>
+      <c r="BG315">
         <v>0.2687111784224473</v>
       </c>
-      <c r="BG315">
-        <v>0.2027663163482255</v>
-      </c>
       <c r="BH315">
-        <v>1.325225921454182</v>
+        <v>1.32522592145418</v>
       </c>
     </row>
     <row r="316">
@@ -57980,10 +57980,10 @@
         <v>5.521972048244026</v>
       </c>
       <c r="BF316">
-        <v>0.2878433213986084</v>
+        <v>0.3982681809013163</v>
       </c>
       <c r="BG316">
-        <v>0.3982681809013161</v>
+        <v>0.2878433213986086</v>
       </c>
       <c r="BH316">
         <v>0.7227374297067708</v>
@@ -58162,13 +58162,13 @@
         <v>3.51480084841659</v>
       </c>
       <c r="BF317">
-        <v>0.1876666663015245</v>
+        <v>0.3436830042218839</v>
       </c>
       <c r="BG317">
-        <v>0.3436830042218836</v>
+        <v>0.1876666663015246</v>
       </c>
       <c r="BH317">
-        <v>0.5460458154641999</v>
+        <v>0.5460458154641998</v>
       </c>
     </row>
     <row r="318">
@@ -58344,10 +58344,10 @@
         <v>5.284119577611639</v>
       </c>
       <c r="BF318">
+        <v>0.3565870380220376</v>
+      </c>
+      <c r="BG318">
         <v>0.3249454816952704</v>
-      </c>
-      <c r="BG318">
-        <v>0.3565870380220376</v>
       </c>
       <c r="BH318">
         <v>0.9112655454267753</v>
@@ -58526,10 +58526,10 @@
         <v>4.495100085568848</v>
       </c>
       <c r="BF319">
+        <v>0.4215445406050717</v>
+      </c>
+      <c r="BG319">
         <v>0.348917570088605</v>
-      </c>
-      <c r="BG319">
-        <v>0.4215445406050717</v>
       </c>
       <c r="BH319">
         <v>0.8277122260622325</v>
@@ -58708,13 +58708,13 @@
         <v>3.876243775170407</v>
       </c>
       <c r="BF320">
-        <v>0.2584522581599309</v>
+        <v>0.1159424363871359</v>
       </c>
       <c r="BG320">
-        <v>0.115942436387136</v>
+        <v>0.2584522581599308</v>
       </c>
       <c r="BH320">
-        <v>2.22914289378006</v>
+        <v>2.229142893780061</v>
       </c>
     </row>
     <row r="321">
@@ -58890,13 +58890,13 @@
         <v>2.397740354955726</v>
       </c>
       <c r="BF321">
+        <v>0.04583351007424481</v>
+      </c>
+      <c r="BG321">
         <v>0.03554548753618876</v>
       </c>
-      <c r="BG321">
-        <v>0.04583351007424469</v>
-      </c>
       <c r="BH321">
-        <v>0.7755349192896074</v>
+        <v>0.7755349192896053</v>
       </c>
     </row>
     <row r="322">
@@ -59072,10 +59072,10 @@
         <v>4.548314032781099</v>
       </c>
       <c r="BF322">
+        <v>0.1989055789565113</v>
+      </c>
+      <c r="BG322">
         <v>0.3528460233745869</v>
-      </c>
-      <c r="BG322">
-        <v>0.1989055789565113</v>
       </c>
       <c r="BH322">
         <v>1.773937288364008</v>
@@ -59254,13 +59254,13 @@
         <v>6.22398586787723</v>
       </c>
       <c r="BF323">
-        <v>0.1537027921446616</v>
+        <v>0.2992004120819307</v>
       </c>
       <c r="BG323">
-        <v>0.2992004120819301</v>
+        <v>0.1537027921446617</v>
       </c>
       <c r="BH323">
-        <v>0.5137118330658352</v>
+        <v>0.5137118330658346</v>
       </c>
     </row>
     <row r="324">
@@ -59436,10 +59436,10 @@
         <v>4.178749846767263</v>
       </c>
       <c r="BF324">
+        <v>0.1781184203068871</v>
+      </c>
+      <c r="BG324">
         <v>0.311224046542889</v>
-      </c>
-      <c r="BG324">
-        <v>0.1781184203068871</v>
       </c>
       <c r="BH324">
         <v>1.747287259827867</v>
@@ -59618,13 +59618,13 @@
         <v>5.076760262963798</v>
       </c>
       <c r="BF325">
-        <v>0.3478039566155374</v>
+        <v>0.464717637293582</v>
       </c>
       <c r="BG325">
-        <v>0.4647176372935819</v>
+        <v>0.3478039566155373</v>
       </c>
       <c r="BH325">
-        <v>0.7484199623691382</v>
+        <v>0.7484199623691378</v>
       </c>
     </row>
     <row r="326">
@@ -59800,13 +59800,13 @@
         <v>3.073351531349034</v>
       </c>
       <c r="BF326">
-        <v>0.109834941058231</v>
+        <v>0.2786350480737529</v>
       </c>
       <c r="BG326">
-        <v>0.2786350480737527</v>
+        <v>0.1098349410582311</v>
       </c>
       <c r="BH326">
-        <v>0.3941892515587575</v>
+        <v>0.3941892515587576</v>
       </c>
     </row>
     <row r="327">
@@ -59982,13 +59982,13 @@
         <v>5.99084350863285</v>
       </c>
       <c r="BF327">
-        <v>0.1979553372055296</v>
+        <v>0.07918517501783168</v>
       </c>
       <c r="BG327">
-        <v>0.07918517501783168</v>
+        <v>0.1979553372055297</v>
       </c>
       <c r="BH327">
-        <v>2.499904018156835</v>
+        <v>2.499904018156836</v>
       </c>
     </row>
     <row r="328">
@@ -60164,13 +60164,13 @@
         <v>3.344748594915494</v>
       </c>
       <c r="BF328">
+        <v>0.07183182143284272</v>
+      </c>
+      <c r="BG328">
         <v>0.1555811980288417</v>
       </c>
-      <c r="BG328">
-        <v>0.07183182143284257</v>
-      </c>
       <c r="BH328">
-        <v>2.165909132268052</v>
+        <v>2.165909132268047</v>
       </c>
     </row>
     <row r="329">
@@ -60346,10 +60346,10 @@
         <v>4.538214779244504</v>
       </c>
       <c r="BF329">
+        <v>0.4644720341417715</v>
+      </c>
+      <c r="BG329">
         <v>0.3521597133171629</v>
-      </c>
-      <c r="BG329">
-        <v>0.4644720341417714</v>
       </c>
       <c r="BH329">
         <v>0.7581935777207045</v>
@@ -60528,10 +60528,10 @@
         <v>3.40685845115962</v>
       </c>
       <c r="BF330">
+        <v>0.4679054621659089</v>
+      </c>
+      <c r="BG330">
         <v>0.1670660209061664</v>
-      </c>
-      <c r="BG330">
-        <v>0.4679054621659089</v>
       </c>
       <c r="BH330">
         <v>0.3570508028113775</v>
@@ -60710,10 +60710,10 @@
         <v>3.609950738832491</v>
       </c>
       <c r="BF331">
+        <v>0.1503880140701638</v>
+      </c>
+      <c r="BG331">
         <v>0.2062874171988153</v>
-      </c>
-      <c r="BG331">
-        <v>0.1503880140701638</v>
       </c>
       <c r="BH331">
         <v>1.371701185591636</v>
@@ -60892,10 +60892,10 @@
         <v>5.549815303829492</v>
       </c>
       <c r="BF332">
+        <v>0.4512003195876811</v>
+      </c>
+      <c r="BG332">
         <v>0.2829305232221452</v>
-      </c>
-      <c r="BG332">
-        <v>0.4512003195876811</v>
       </c>
       <c r="BH332">
         <v>0.6270618856845994</v>
@@ -61074,10 +61074,10 @@
         <v>5.017189362811629</v>
       </c>
       <c r="BF333">
+        <v>0.3426187383818939</v>
+      </c>
+      <c r="BG333">
         <v>0.3523667727822851</v>
-      </c>
-      <c r="BG333">
-        <v>0.3426187383818939</v>
       </c>
       <c r="BH333">
         <v>1.028451550684089</v>
@@ -61256,13 +61256,13 @@
         <v>6.089141517945186</v>
       </c>
       <c r="BF334">
+        <v>0.1604984168566433</v>
+      </c>
+      <c r="BG334">
         <v>0.1788911496827381</v>
       </c>
-      <c r="BG334">
-        <v>0.1604984168566432</v>
-      </c>
       <c r="BH334">
-        <v>1.114597596576441</v>
+        <v>1.114597596576439</v>
       </c>
     </row>
     <row r="335">
@@ -61438,13 +61438,13 @@
         <v>5.204454281997697</v>
       </c>
       <c r="BF335">
+        <v>0.4132628122460024</v>
+      </c>
+      <c r="BG335">
         <v>0.3349332462730626</v>
       </c>
-      <c r="BG335">
-        <v>0.4132628122460026</v>
-      </c>
       <c r="BH335">
-        <v>0.8104606471914708</v>
+        <v>0.8104606471914713</v>
       </c>
     </row>
     <row r="336">
@@ -61620,10 +61620,10 @@
         <v>4.905220798032808</v>
       </c>
       <c r="BF336">
+        <v>0.3842890644150234</v>
+      </c>
+      <c r="BG336">
         <v>0.3582831180530332</v>
-      </c>
-      <c r="BG336">
-        <v>0.3842890644150234</v>
       </c>
       <c r="BH336">
         <v>0.9323271235896934</v>
@@ -61802,10 +61802,10 @@
         <v>4.591672994850739</v>
       </c>
       <c r="BF337">
+        <v>0.4360881747271605</v>
+      </c>
+      <c r="BG337">
         <v>0.3554710019551716</v>
-      </c>
-      <c r="BG337">
-        <v>0.4360881747271605</v>
       </c>
       <c r="BH337">
         <v>0.815135613749611</v>
@@ -61984,10 +61984,10 @@
         <v>5.192416670254935</v>
       </c>
       <c r="BF338">
+        <v>0.4182211224922207</v>
+      </c>
+      <c r="BG338">
         <v>0.3363171820588457</v>
-      </c>
-      <c r="BG338">
-        <v>0.4182211224922207</v>
       </c>
       <c r="BH338">
         <v>0.8041611577499927</v>

--- a/index.xlsx
+++ b/index.xlsx
@@ -840,13 +840,13 @@
         <v>4.768890706359042</v>
       </c>
       <c r="BG2">
-        <v>0.1688550121124115</v>
+        <v>0.1430834424759262</v>
       </c>
       <c r="BH2">
         <v>0.3605994591128398</v>
       </c>
       <c r="BI2">
-        <v>2.135556739487121</v>
+        <v>2.520203965413472</v>
       </c>
     </row>
     <row r="3">
@@ -1025,13 +1025,13 @@
         <v>6.417798637658427</v>
       </c>
       <c r="BG3">
-        <v>0.4681119714965657</v>
+        <v>0.4658096401011946</v>
       </c>
       <c r="BH3">
         <v>0.1204068530512143</v>
       </c>
       <c r="BI3">
-        <v>0.2572180597438485</v>
+        <v>0.2584893971388326</v>
       </c>
     </row>
     <row r="4">
@@ -1210,13 +1210,13 @@
         <v>4.401100093140548</v>
       </c>
       <c r="BG4">
-        <v>0.1271858062263256</v>
+        <v>0.1501009174924445</v>
       </c>
       <c r="BH4">
         <v>0.3401561966749913</v>
       </c>
       <c r="BI4">
-        <v>2.674482371638919</v>
+        <v>2.266183327574353</v>
       </c>
     </row>
     <row r="5">
@@ -1395,13 +1395,13 @@
         <v>3.821313166854809</v>
       </c>
       <c r="BG5">
-        <v>0.30375662174444</v>
+        <v>0.3155515376669239</v>
       </c>
       <c r="BH5">
-        <v>0.2478814661380281</v>
+        <v>0.2478814661380282</v>
       </c>
       <c r="BI5">
-        <v>0.8160528804754043</v>
+        <v>0.7855498596862364</v>
       </c>
     </row>
     <row r="6">
@@ -1580,13 +1580,13 @@
         <v>3.359682112027601</v>
       </c>
       <c r="BG6">
-        <v>0.4657430165122018</v>
+        <v>0.4662113425292537</v>
       </c>
       <c r="BH6">
         <v>0.1583139105970834</v>
       </c>
       <c r="BI6">
-        <v>0.3399168747234148</v>
+        <v>0.3395754160295866</v>
       </c>
     </row>
     <row r="7">
@@ -1765,13 +1765,13 @@
         <v>5.62641267904343</v>
       </c>
       <c r="BG7">
-        <v>0.2711498081577981</v>
+        <v>0.255026937620148</v>
       </c>
       <c r="BH7">
         <v>0.2689631569207425</v>
       </c>
       <c r="BI7">
-        <v>0.991935634209326</v>
+        <v>1.054646067708157</v>
       </c>
     </row>
     <row r="8">
@@ -1950,13 +1950,13 @@
         <v>5.421428571428571</v>
       </c>
       <c r="BG8">
-        <v>0.3552289565168351</v>
+        <v>0.3258672842936813</v>
       </c>
       <c r="BH8">
         <v>0.3046936137586634</v>
       </c>
       <c r="BI8">
-        <v>0.8577386729570378</v>
+        <v>0.935023638286022</v>
       </c>
     </row>
     <row r="9">
@@ -2135,13 +2135,13 @@
         <v>5.870276608883859</v>
       </c>
       <c r="BG9">
-        <v>0.4261683106374882</v>
+        <v>0.4442555554955976</v>
       </c>
       <c r="BH9">
         <v>0.2217311422739512</v>
       </c>
       <c r="BI9">
-        <v>0.5202900749290168</v>
+        <v>0.4991071907397869</v>
       </c>
     </row>
     <row r="10">
@@ -2320,13 +2320,13 @@
         <v>5.916308559032926</v>
       </c>
       <c r="BG10">
-        <v>0.1469637717082042</v>
+        <v>0.1509434100609771</v>
       </c>
       <c r="BH10">
         <v>0.2126318803779076</v>
       </c>
       <c r="BI10">
-        <v>1.446831949850111</v>
+        <v>1.408686078391962</v>
       </c>
     </row>
     <row r="11">
@@ -2505,13 +2505,13 @@
         <v>5.179792651622893</v>
       </c>
       <c r="BG11">
-        <v>0.434313161847093</v>
+        <v>0.4394522076584829</v>
       </c>
       <c r="BH11">
         <v>0.3377317198523995</v>
       </c>
       <c r="BI11">
-        <v>0.7776225763365271</v>
+        <v>0.7685288956720074</v>
       </c>
     </row>
     <row r="12">
@@ -2690,13 +2690,13 @@
         <v>3.462742218469666</v>
       </c>
       <c r="BG12">
-        <v>0.08257848535039142</v>
+        <v>0.07414667332784922</v>
       </c>
       <c r="BH12">
-        <v>0.1776431951487177</v>
+        <v>0.1776431951487178</v>
       </c>
       <c r="BI12">
-        <v>2.151204328766193</v>
+        <v>2.395835000759173</v>
       </c>
     </row>
     <row r="13">
@@ -2875,13 +2875,13 @@
         <v>5.043069029928605</v>
       </c>
       <c r="BG13">
-        <v>0.4410735211821691</v>
+        <v>0.4391230180142446</v>
       </c>
       <c r="BH13">
-        <v>0.3505020512334935</v>
+        <v>0.3505020512334936</v>
       </c>
       <c r="BI13">
-        <v>0.7946567508611145</v>
+        <v>0.7981864690639464</v>
       </c>
     </row>
     <row r="14">
@@ -3060,13 +3060,13 @@
         <v>3.242048883374617</v>
       </c>
       <c r="BG14">
-        <v>0.01345659437952972</v>
+        <v>0.01185625258791623</v>
       </c>
       <c r="BH14">
         <v>0.1373437865835598</v>
       </c>
       <c r="BI14">
-        <v>10.20642985215399</v>
+        <v>11.58408068359974</v>
       </c>
     </row>
     <row r="15">
@@ -3245,13 +3245,13 @@
         <v>3.806162590503287</v>
       </c>
       <c r="BG15">
-        <v>0.2300211955656726</v>
+        <v>0.26722697013083</v>
       </c>
       <c r="BH15">
         <v>0.2449364662584544</v>
       </c>
       <c r="BI15">
-        <v>1.064843027426676</v>
+        <v>0.9165858750654454</v>
       </c>
     </row>
     <row r="16">
@@ -3430,13 +3430,13 @@
         <v>4.202254350849076</v>
       </c>
       <c r="BG16">
-        <v>0.4681473168430068</v>
+        <v>0.4671676903671181</v>
       </c>
       <c r="BH16">
         <v>0.3147627554174023</v>
       </c>
       <c r="BI16">
-        <v>0.6723583455311312</v>
+        <v>0.6737682461945298</v>
       </c>
     </row>
     <row r="17">
@@ -3615,13 +3615,13 @@
         <v>3.723729185450122</v>
       </c>
       <c r="BG17">
-        <v>0.2634361567460096</v>
+        <v>0.2744117842101388</v>
       </c>
       <c r="BH17">
         <v>0.2287622648209269</v>
       </c>
       <c r="BI17">
-        <v>0.8683783868039294</v>
+        <v>0.8336459218739144</v>
       </c>
     </row>
     <row r="18">
@@ -3800,13 +3800,13 @@
         <v>3.879438480284842</v>
       </c>
       <c r="BG18">
-        <v>0.4579682798643211</v>
+        <v>0.4651696823098272</v>
       </c>
       <c r="BH18">
-        <v>0.2590610790477599</v>
+        <v>0.2590610790477598</v>
       </c>
       <c r="BI18">
-        <v>0.5656747212372657</v>
+        <v>0.5569173763891423</v>
       </c>
     </row>
     <row r="19">
@@ -3985,13 +3985,13 @@
         <v>5.521776485241776</v>
       </c>
       <c r="BG19">
-        <v>0.3278040004872432</v>
+        <v>0.2925376320244286</v>
       </c>
       <c r="BH19">
         <v>0.2878774825435277</v>
       </c>
       <c r="BI19">
-        <v>0.8782000284182947</v>
+        <v>0.9840699145315029</v>
       </c>
     </row>
     <row r="20">
@@ -4170,13 +4170,13 @@
         <v>6.548110313758319</v>
       </c>
       <c r="BG20">
-        <v>0.4114433149991335</v>
+        <v>0.391029409549553</v>
       </c>
       <c r="BH20">
         <v>0.1004307246022456</v>
       </c>
       <c r="BI20">
-        <v>0.2440937085159764</v>
+        <v>0.2568367548567176</v>
       </c>
     </row>
     <row r="21">
@@ -4355,13 +4355,13 @@
         <v>4.534231900596604</v>
       </c>
       <c r="BG21">
-        <v>0.4418380386859786</v>
+        <v>0.4320905887624938</v>
       </c>
       <c r="BH21">
         <v>0.3518813548095286</v>
       </c>
       <c r="BI21">
-        <v>0.7964034872507125</v>
+        <v>0.8143694029932839</v>
       </c>
     </row>
     <row r="22">
@@ -4540,13 +4540,13 @@
         <v>5.11035998002041</v>
       </c>
       <c r="BG22">
-        <v>0.279749813382815</v>
+        <v>0.2677935702295968</v>
       </c>
       <c r="BH22">
         <v>0.3448152235544959</v>
       </c>
       <c r="BI22">
-        <v>1.232584284453638</v>
+        <v>1.287615767842609</v>
       </c>
     </row>
     <row r="23">
@@ -4725,13 +4725,13 @@
         <v>4.600223341510098</v>
       </c>
       <c r="BG23">
-        <v>0.4216697120757866</v>
+        <v>0.4346842981689005</v>
       </c>
       <c r="BH23">
         <v>0.3559264003401399</v>
       </c>
       <c r="BI23">
-        <v>0.8440881337860219</v>
+        <v>0.8188158666864049</v>
       </c>
     </row>
     <row r="24">
@@ -4910,13 +4910,13 @@
         <v>6.195056271433326</v>
       </c>
       <c r="BG24">
-        <v>0.2349717062503683</v>
+        <v>0.2504379385936066</v>
       </c>
       <c r="BH24">
         <v>0.1589882984743339</v>
       </c>
       <c r="BI24">
-        <v>0.6766274161746429</v>
+        <v>0.6348411082089648</v>
       </c>
     </row>
     <row r="25">
@@ -5095,13 +5095,13 @@
         <v>3.526216169118993</v>
       </c>
       <c r="BG25">
-        <v>0.07584214022789229</v>
+        <v>0.1026727616088534</v>
       </c>
       <c r="BH25">
-        <v>0.1898828999133619</v>
+        <v>0.189882899913362</v>
       </c>
       <c r="BI25">
-        <v>2.503659566341313</v>
+        <v>1.849398973378626</v>
       </c>
     </row>
     <row r="26">
@@ -5280,13 +5280,13 @@
         <v>5.058791816397168</v>
       </c>
       <c r="BG26">
-        <v>0.3902161661193042</v>
+        <v>0.3839204949496847</v>
       </c>
       <c r="BH26">
         <v>0.3492806399936009</v>
       </c>
       <c r="BI26">
-        <v>0.8950952582697774</v>
+        <v>0.9097733634652052</v>
       </c>
     </row>
     <row r="27">
@@ -5465,13 +5465,13 @@
         <v>6.52560519459813</v>
       </c>
       <c r="BG27">
-        <v>0.330627189005511</v>
+        <v>0.3465015920809815</v>
       </c>
       <c r="BH27">
         <v>0.1037297546808818</v>
       </c>
       <c r="BI27">
-        <v>0.3137363112600904</v>
+        <v>0.2993629958751788</v>
       </c>
     </row>
     <row r="28">
@@ -5650,13 +5650,13 @@
         <v>4.42001287979925</v>
       </c>
       <c r="BG28">
-        <v>0.3952392035261478</v>
+        <v>0.4016368070660547</v>
       </c>
       <c r="BH28">
         <v>0.342099544811229</v>
       </c>
       <c r="BI28">
-        <v>0.8655506380925008</v>
+        <v>0.8517634310218137</v>
       </c>
     </row>
     <row r="29">
@@ -5835,13 +5835,13 @@
         <v>4.716685419461998</v>
       </c>
       <c r="BG29">
-        <v>0.4091382176079606</v>
+        <v>0.4014587646562182</v>
       </c>
       <c r="BH29">
         <v>0.3600397511823121</v>
       </c>
       <c r="BI29">
-        <v>0.8799954042115541</v>
+        <v>0.8968287228468544</v>
       </c>
     </row>
     <row r="30">
@@ -6020,13 +6020,13 @@
         <v>5.924537276950996</v>
       </c>
       <c r="BG30">
-        <v>0.1258700011808415</v>
+        <v>0.1163036943397845</v>
       </c>
       <c r="BH30">
         <v>0.2110065855472676</v>
       </c>
       <c r="BI30">
-        <v>1.676385028741738</v>
+        <v>1.814272424836359</v>
       </c>
     </row>
     <row r="31">
@@ -6205,13 +6205,13 @@
         <v>4.470457614415066</v>
       </c>
       <c r="BG31">
-        <v>0.3736434896098975</v>
+        <v>0.385554239331777</v>
       </c>
       <c r="BH31">
         <v>0.3468412491430804</v>
       </c>
       <c r="BI31">
-        <v>0.9282678777708667</v>
+        <v>0.8995913253196437</v>
       </c>
     </row>
     <row r="32">
@@ -6390,13 +6390,13 @@
         <v>5.619826143235498</v>
       </c>
       <c r="BG32">
-        <v>0.4222989150367595</v>
+        <v>0.4181874192000686</v>
       </c>
       <c r="BH32">
         <v>0.2701874999951663</v>
       </c>
       <c r="BI32">
-        <v>0.6398015490322714</v>
+        <v>0.6460918898803686</v>
       </c>
     </row>
     <row r="33">
@@ -6575,13 +6575,13 @@
         <v>4.990657268479865</v>
       </c>
       <c r="BG33">
-        <v>0.4543534967952257</v>
+        <v>0.4576397790863513</v>
       </c>
       <c r="BH33">
         <v>0.3540875829177</v>
       </c>
       <c r="BI33">
-        <v>0.779321795507794</v>
+        <v>0.7737255350149268</v>
       </c>
     </row>
     <row r="34">
@@ -6760,13 +6760,13 @@
         <v>5.193463137395096</v>
       </c>
       <c r="BG34">
-        <v>0.3994350353766139</v>
+        <v>0.3884360280441854</v>
       </c>
       <c r="BH34">
         <v>0.3361982253869208</v>
       </c>
       <c r="BI34">
-        <v>0.8416843681975238</v>
+        <v>0.8655176170956974</v>
       </c>
     </row>
     <row r="35">
@@ -6945,13 +6945,13 @@
         <v>4.049361570818759</v>
       </c>
       <c r="BG35">
-        <v>0.4496208487102908</v>
+        <v>0.4518545346440057</v>
       </c>
       <c r="BH35">
         <v>0.2900904260409612</v>
       </c>
       <c r="BI35">
-        <v>0.6451890006281235</v>
+        <v>0.6419995901324957</v>
       </c>
     </row>
     <row r="36">
@@ -7130,13 +7130,13 @@
         <v>5.914361121828454</v>
       </c>
       <c r="BG36">
-        <v>0.4150247833985844</v>
+        <v>0.4248192894544526</v>
       </c>
       <c r="BH36">
         <v>0.2130166321016971</v>
       </c>
       <c r="BI36">
-        <v>0.513262437865352</v>
+        <v>0.5014288131201629</v>
       </c>
     </row>
     <row r="37">
@@ -7315,13 +7315,13 @@
         <v>5.209342553896439</v>
       </c>
       <c r="BG37">
-        <v>0.4646516566201719</v>
+        <v>0.4668819737151756</v>
       </c>
       <c r="BH37">
         <v>0.3343615780361606</v>
       </c>
       <c r="BI37">
-        <v>0.719596224983404</v>
+        <v>0.7161586800524882</v>
       </c>
     </row>
     <row r="38">
@@ -7500,13 +7500,13 @@
         <v>5.192975732291966</v>
       </c>
       <c r="BG38">
-        <v>0.3492951312709149</v>
+        <v>0.3529944181714614</v>
       </c>
       <c r="BH38">
         <v>0.3362536631356888</v>
       </c>
       <c r="BI38">
-        <v>0.9626634700352835</v>
+        <v>0.9525750148614501</v>
       </c>
     </row>
     <row r="39">
@@ -7685,13 +7685,13 @@
         <v>5.120336918994051</v>
       </c>
       <c r="BG39">
-        <v>0.4678334143755281</v>
+        <v>0.4659742736104732</v>
       </c>
       <c r="BH39">
         <v>0.3438716352457188</v>
       </c>
       <c r="BI39">
-        <v>0.7350300869482023</v>
+        <v>0.7379627046388726</v>
       </c>
     </row>
     <row r="40">
@@ -7870,13 +7870,13 @@
         <v>4.994904282866466</v>
       </c>
       <c r="BG40">
-        <v>0.1817309527620968</v>
+        <v>0.1659281002674343</v>
       </c>
       <c r="BH40">
         <v>0.3538252484873369</v>
       </c>
       <c r="BI40">
-        <v>1.94697294604804</v>
+        <v>2.132401009335126</v>
       </c>
     </row>
     <row r="41">
@@ -8055,13 +8055,13 @@
         <v>3.806043548686724</v>
       </c>
       <c r="BG41">
-        <v>0.4307291271051193</v>
+        <v>0.4374015419135366</v>
       </c>
       <c r="BH41">
-        <v>0.2449132838753007</v>
+        <v>0.2449132838753008</v>
       </c>
       <c r="BI41">
-        <v>0.5686016302666471</v>
+        <v>0.559927801817658</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>6.415152765999127</v>
       </c>
       <c r="BG42">
-        <v>0.222697855368114</v>
+        <v>0.245728592564776</v>
       </c>
       <c r="BH42">
         <v>0.1208338033662724</v>
       </c>
       <c r="BI42">
-        <v>0.5425907814268669</v>
+        <v>0.4917368471657185</v>
       </c>
     </row>
     <row r="43">
@@ -8425,13 +8425,13 @@
         <v>7.22266802862879</v>
       </c>
       <c r="BG43">
-        <v>0.1023383247612652</v>
+        <v>0.09797721378764915</v>
       </c>
       <c r="BH43">
         <v>0.03145627957869592</v>
       </c>
       <c r="BI43">
-        <v>0.3073753615967147</v>
+        <v>0.3210570944267988</v>
       </c>
     </row>
     <row r="44">
@@ -8610,13 +8610,13 @@
         <v>4.701316053768656</v>
       </c>
       <c r="BG44">
-        <v>0.2998858732922525</v>
+        <v>0.2773351878004045</v>
       </c>
       <c r="BH44">
         <v>0.3597224731632617</v>
       </c>
       <c r="BI44">
-        <v>1.199531239048049</v>
+        <v>1.297067552142538</v>
       </c>
     </row>
     <row r="45">
@@ -8795,13 +8795,13 @@
         <v>6.417169705324027</v>
       </c>
       <c r="BG45">
-        <v>0.2279747209666391</v>
+        <v>0.2344125803029912</v>
       </c>
       <c r="BH45">
         <v>0.1205082661115188</v>
       </c>
       <c r="BI45">
-        <v>0.5286036346510254</v>
+        <v>0.5140861721489315</v>
       </c>
     </row>
     <row r="46">
@@ -8980,13 +8980,13 @@
         <v>5.473925073352417</v>
       </c>
       <c r="BG46">
-        <v>0.462611215961692</v>
+        <v>0.4644688709036531</v>
       </c>
       <c r="BH46">
         <v>0.2960810248149863</v>
       </c>
       <c r="BI46">
-        <v>0.6400212848265749</v>
+        <v>0.637461503585681</v>
       </c>
     </row>
     <row r="47">
@@ -9165,13 +9165,13 @@
         <v>6.704214961983759</v>
       </c>
       <c r="BG47">
-        <v>0.3265970256929486</v>
+        <v>0.279013683866764</v>
       </c>
       <c r="BH47">
         <v>0.07935146517722426</v>
       </c>
       <c r="BI47">
-        <v>0.242964445278895</v>
+        <v>0.28439990497067</v>
       </c>
     </row>
     <row r="48">
@@ -9350,13 +9350,13 @@
         <v>3.264140210264964</v>
       </c>
       <c r="BG48">
-        <v>0.05418560098461459</v>
+        <v>0.05509313967741917</v>
       </c>
       <c r="BH48">
-        <v>0.141179796781595</v>
+        <v>0.1411797967815951</v>
       </c>
       <c r="BI48">
-        <v>2.605485483526914</v>
+        <v>2.562565822318889</v>
       </c>
     </row>
     <row r="49">
@@ -9535,13 +9535,13 @@
         <v>5.37721954238061</v>
       </c>
       <c r="BG49">
-        <v>0.3596457763403015</v>
+        <v>0.3289090111844863</v>
       </c>
       <c r="BH49">
         <v>0.311595870602817</v>
       </c>
       <c r="BI49">
-        <v>0.8663965799169595</v>
+        <v>0.9473619147151966</v>
       </c>
     </row>
     <row r="50">
@@ -9720,13 +9720,13 @@
         <v>4.376929208226588</v>
       </c>
       <c r="BG50">
-        <v>0.4210318719053082</v>
+        <v>0.4345755464551717</v>
       </c>
       <c r="BH50">
         <v>0.3375449866326897</v>
       </c>
       <c r="BI50">
-        <v>0.8017088708871069</v>
+        <v>0.7767233784460279</v>
       </c>
     </row>
     <row r="51">
@@ -9905,13 +9905,13 @@
         <v>4.245281535870064</v>
       </c>
       <c r="BG51">
-        <v>0.2925231966180755</v>
+        <v>0.3354085097339533</v>
       </c>
       <c r="BH51">
         <v>0.3209696635145945</v>
       </c>
       <c r="BI51">
-        <v>1.097245166282178</v>
+        <v>0.9569514612768419</v>
       </c>
     </row>
     <row r="52">
@@ -10090,13 +10090,13 @@
         <v>5.263598092899115</v>
       </c>
       <c r="BG52">
-        <v>0.3098364628277025</v>
+        <v>0.3176242696407705</v>
       </c>
       <c r="BH52">
         <v>0.3276518794515784</v>
       </c>
       <c r="BI52">
-        <v>1.05749941908478</v>
+        <v>1.031570666253397</v>
       </c>
     </row>
     <row r="53">
@@ -10275,13 +10275,13 @@
         <v>4.566946250127084</v>
       </c>
       <c r="BG53">
-        <v>0.4650529752312325</v>
+        <v>0.4605670492623021</v>
       </c>
       <c r="BH53">
         <v>0.3540382772227261</v>
       </c>
       <c r="BI53">
-        <v>0.7612859095174954</v>
+        <v>0.7687008390847654</v>
       </c>
     </row>
     <row r="54">
@@ -10460,13 +10460,13 @@
         <v>4.386584642528305</v>
       </c>
       <c r="BG54">
-        <v>0.4267954043839158</v>
+        <v>0.42819085906962</v>
       </c>
       <c r="BH54">
         <v>0.3386050494196713</v>
       </c>
       <c r="BI54">
-        <v>0.7933662029666223</v>
+        <v>0.790780658315308</v>
       </c>
     </row>
     <row r="55">
@@ -10645,13 +10645,13 @@
         <v>5.081441006445719</v>
       </c>
       <c r="BG55">
-        <v>0.334207158785594</v>
+        <v>0.3476535090491931</v>
       </c>
       <c r="BH55">
-        <v>0.3474052626371938</v>
+        <v>0.3474052626371939</v>
       </c>
       <c r="BI55">
-        <v>1.039490787389348</v>
+        <v>0.9992859372750813</v>
       </c>
     </row>
     <row r="56">
@@ -10830,13 +10830,13 @@
         <v>5.37439074021823</v>
       </c>
       <c r="BG56">
-        <v>0.05417675128257864</v>
+        <v>0.04318105388067611</v>
       </c>
       <c r="BH56">
         <v>0.3120258479552073</v>
       </c>
       <c r="BI56">
-        <v>5.759404921268212</v>
+        <v>7.225989639285798</v>
       </c>
     </row>
     <row r="57">
@@ -11015,13 +11015,13 @@
         <v>7.140074512986939</v>
       </c>
       <c r="BG57">
-        <v>0.2711829977853613</v>
+        <v>0.2849374168974946</v>
       </c>
       <c r="BH57">
-        <v>0.03699235611567523</v>
+        <v>0.03699235611567529</v>
       </c>
       <c r="BI57">
-        <v>0.136411045005684</v>
+        <v>0.1298262492811998</v>
       </c>
     </row>
     <row r="58">
@@ -11200,13 +11200,13 @@
         <v>4.333051966308426</v>
       </c>
       <c r="BG58">
-        <v>0.4457350072241826</v>
+        <v>0.4421062078381046</v>
       </c>
       <c r="BH58">
         <v>0.332450214213727</v>
       </c>
       <c r="BI58">
-        <v>0.7458472160041068</v>
+        <v>0.7519691158362276</v>
       </c>
     </row>
     <row r="59">
@@ -11385,13 +11385,13 @@
         <v>6.141091623036612</v>
       </c>
       <c r="BG59">
-        <v>0.3077758413245271</v>
+        <v>0.3044789255561163</v>
       </c>
       <c r="BH59">
         <v>0.1690291354992942</v>
       </c>
       <c r="BI59">
-        <v>0.5491955923891549</v>
+        <v>0.5551423146628968</v>
       </c>
     </row>
     <row r="60">
@@ -11570,13 +11570,13 @@
         <v>4.125664911593864</v>
       </c>
       <c r="BG60">
-        <v>0.3768217660038131</v>
+        <v>0.3658793965743754</v>
       </c>
       <c r="BH60">
         <v>0.3028740702091189</v>
       </c>
       <c r="BI60">
-        <v>0.8037594893232735</v>
+        <v>0.8277975558198755</v>
       </c>
     </row>
     <row r="61">
@@ -11755,13 +11755,13 @@
         <v>5.472366193235996</v>
       </c>
       <c r="BG61">
-        <v>0.2639745301424695</v>
+        <v>0.2824982649824639</v>
       </c>
       <c r="BH61">
         <v>0.2963428467002604</v>
       </c>
       <c r="BI61">
-        <v>1.122619089577777</v>
+        <v>1.049007669900755</v>
       </c>
     </row>
     <row r="62">
@@ -11940,13 +11940,13 @@
         <v>3.810293411215913</v>
       </c>
       <c r="BG62">
-        <v>0.4503016277278183</v>
+        <v>0.4467601001669079</v>
       </c>
       <c r="BH62">
-        <v>0.2457405066849991</v>
+        <v>0.2457405066849992</v>
       </c>
       <c r="BI62">
-        <v>0.5457242247268429</v>
+        <v>0.5500502542487377</v>
       </c>
     </row>
     <row r="63">
@@ -12125,13 +12125,13 @@
         <v>4.947356277807295</v>
       </c>
       <c r="BG63">
-        <v>0.4530959440433777</v>
+        <v>0.4548661441183946</v>
       </c>
       <c r="BH63">
         <v>0.3564734040782092</v>
       </c>
       <c r="BI63">
-        <v>0.7867503754217711</v>
+        <v>0.7836885833064433</v>
       </c>
     </row>
     <row r="64">
@@ -12310,13 +12310,13 @@
         <v>3.896252306931326</v>
       </c>
       <c r="BG64">
-        <v>0.3882632705208752</v>
+        <v>0.3842077050275234</v>
       </c>
       <c r="BH64">
-        <v>0.262252990255242</v>
+        <v>0.2622529902552419</v>
       </c>
       <c r="BI64">
-        <v>0.6754514530911359</v>
+        <v>0.6825812882551507</v>
       </c>
     </row>
     <row r="65">
@@ -12495,13 +12495,13 @@
         <v>6.715090776978518</v>
       </c>
       <c r="BG65">
-        <v>0.4588461538258778</v>
+        <v>0.4599278997092077</v>
       </c>
       <c r="BH65">
         <v>0.07800180942752524</v>
       </c>
       <c r="BI65">
-        <v>0.1699955612074832</v>
+        <v>0.1695957333243806</v>
       </c>
     </row>
     <row r="66">
@@ -12680,13 +12680,13 @@
         <v>4.152006856632112</v>
       </c>
       <c r="BG66">
-        <v>0.3209252402579653</v>
+        <v>0.3077900914677564</v>
       </c>
       <c r="BH66">
         <v>0.3070774997474127</v>
       </c>
       <c r="BI66">
-        <v>0.9568505721163549</v>
+        <v>0.9976848126690967</v>
       </c>
     </row>
     <row r="67">
@@ -12865,13 +12865,13 @@
         <v>5.383845319603397</v>
       </c>
       <c r="BG67">
-        <v>0.4681256646304628</v>
+        <v>0.467307626214801</v>
       </c>
       <c r="BH67">
         <v>0.3105831228434536</v>
       </c>
       <c r="BI67">
-        <v>0.66346100269599</v>
+        <v>0.6646224144878218</v>
       </c>
     </row>
     <row r="68">
@@ -13050,13 +13050,13 @@
         <v>7.024116217472482</v>
       </c>
       <c r="BG68">
-        <v>0.03604161234557696</v>
+        <v>0.04279231542852796</v>
       </c>
       <c r="BH68">
         <v>0.04601214637375295</v>
       </c>
       <c r="BI68">
-        <v>1.276639511367464</v>
+        <v>1.075243204603003</v>
       </c>
     </row>
     <row r="69">
@@ -13235,13 +13235,13 @@
         <v>6.003254470785587</v>
       </c>
       <c r="BG69">
-        <v>0.2241851520804287</v>
+        <v>0.2346811711566627</v>
       </c>
       <c r="BH69">
         <v>0.1955256328108806</v>
       </c>
       <c r="BI69">
-        <v>0.8721613853389082</v>
+        <v>0.8331543252797061</v>
       </c>
     </row>
     <row r="70">
@@ -13420,13 +13420,13 @@
         <v>6.744603294396674</v>
       </c>
       <c r="BG70">
-        <v>0.3976334413333943</v>
+        <v>0.4220611500801272</v>
       </c>
       <c r="BH70">
         <v>0.07441769153308675</v>
       </c>
       <c r="BI70">
-        <v>0.1871514912919296</v>
+        <v>0.1763196909238359</v>
       </c>
     </row>
     <row r="71">
@@ -13605,13 +13605,13 @@
         <v>3.980383310273715</v>
       </c>
       <c r="BG71">
-        <v>0.3754966791367496</v>
+        <v>0.3877236822741038</v>
       </c>
       <c r="BH71">
-        <v>0.277859077155677</v>
+        <v>0.2778590771556769</v>
       </c>
       <c r="BI71">
-        <v>0.7399774554450465</v>
+        <v>0.7166420052702447</v>
       </c>
     </row>
     <row r="72">
@@ -13790,13 +13790,13 @@
         <v>3.731407841990337</v>
       </c>
       <c r="BG72">
-        <v>0.2070067894326927</v>
+        <v>0.1890886451068559</v>
       </c>
       <c r="BH72">
         <v>0.2302766493307748</v>
       </c>
       <c r="BI72">
-        <v>1.112411095123275</v>
+        <v>1.21782378418674</v>
       </c>
     </row>
     <row r="73">
@@ -13975,13 +13975,13 @@
         <v>3.761426947283167</v>
       </c>
       <c r="BG73">
-        <v>0.4346160394791339</v>
+        <v>0.4288386756994444</v>
       </c>
       <c r="BH73">
         <v>0.2361846218154804</v>
       </c>
       <c r="BI73">
-        <v>0.5434328242890808</v>
+        <v>0.5507540135699247</v>
       </c>
     </row>
     <row r="74">
@@ -14160,13 +14160,13 @@
         <v>4.989569800146077</v>
       </c>
       <c r="BG74">
-        <v>0.1816381712511791</v>
+        <v>0.1950188180849204</v>
       </c>
       <c r="BH74">
         <v>0.3541539468317028</v>
       </c>
       <c r="BI74">
-        <v>1.949777100221734</v>
+        <v>1.815998836981401</v>
       </c>
     </row>
     <row r="75">
@@ -14345,13 +14345,13 @@
         <v>3.892892260650115</v>
       </c>
       <c r="BG75">
-        <v>0.4274189929868681</v>
+        <v>0.415092968136237</v>
       </c>
       <c r="BH75">
         <v>0.2616168268482512</v>
       </c>
       <c r="BI75">
-        <v>0.6120851696833441</v>
+        <v>0.6302608016293506</v>
       </c>
     </row>
     <row r="76">
@@ -14530,13 +14530,13 @@
         <v>4.949576032733727</v>
       </c>
       <c r="BG76">
-        <v>0.3915925399849053</v>
+        <v>0.3808377896679048</v>
       </c>
       <c r="BH76">
         <v>0.3563639849784373</v>
       </c>
       <c r="BI76">
-        <v>0.9100377269499926</v>
+        <v>0.9357369322230102</v>
       </c>
     </row>
     <row r="77">
@@ -14715,13 +14715,13 @@
         <v>3.815938602866774</v>
       </c>
       <c r="BG77">
-        <v>0.333601236718527</v>
+        <v>0.3096319233163104</v>
       </c>
       <c r="BH77">
-        <v>0.2468380151614484</v>
+        <v>0.2468380151614485</v>
       </c>
       <c r="BI77">
-        <v>0.7399193647765632</v>
+        <v>0.7971982104354479</v>
       </c>
     </row>
     <row r="78">
@@ -14900,13 +14900,13 @@
         <v>5.960899470431837</v>
       </c>
       <c r="BG78">
-        <v>0.1782333490321339</v>
+        <v>0.156971877985183</v>
       </c>
       <c r="BH78">
         <v>0.2038368917811133</v>
       </c>
       <c r="BI78">
-        <v>1.143651807520955</v>
+        <v>1.298556750403114</v>
       </c>
     </row>
     <row r="79">
@@ -15085,13 +15085,13 @@
         <v>3.296104565361911</v>
       </c>
       <c r="BG79">
-        <v>0.05905451419047286</v>
+        <v>0.09485773328713902</v>
       </c>
       <c r="BH79">
         <v>0.1468169665512595</v>
       </c>
       <c r="BI79">
-        <v>2.486126057657845</v>
+        <v>1.547759591796668</v>
       </c>
     </row>
     <row r="80">
@@ -15270,13 +15270,13 @@
         <v>2.758946822178381</v>
       </c>
       <c r="BG80">
-        <v>0.06166533098233376</v>
+        <v>0.05152630845415385</v>
       </c>
       <c r="BH80">
         <v>0.06805852346152404</v>
       </c>
       <c r="BI80">
-        <v>1.103675637142397</v>
+        <v>1.320849979425169</v>
       </c>
     </row>
     <row r="81">
@@ -15455,13 +15455,13 @@
         <v>5.439706433493567</v>
       </c>
       <c r="BG81">
-        <v>0.4245120831690021</v>
+        <v>0.4123311239482772</v>
       </c>
       <c r="BH81">
         <v>0.301743972061409</v>
       </c>
       <c r="BI81">
-        <v>0.7108018452828867</v>
+        <v>0.7318001347365175</v>
       </c>
     </row>
     <row r="82">
@@ -15640,13 +15640,13 @@
         <v>3.437682300003522</v>
       </c>
       <c r="BG82">
-        <v>0.4430013778304642</v>
+        <v>0.453947939262219</v>
       </c>
       <c r="BH82">
-        <v>0.1728742478016149</v>
+        <v>0.1728742478016148</v>
       </c>
       <c r="BI82">
-        <v>0.3902341086346995</v>
+        <v>0.3808239510516988</v>
       </c>
     </row>
     <row r="83">
@@ -15825,13 +15825,13 @@
         <v>5.580303970031306</v>
       </c>
       <c r="BG83">
-        <v>0.1954703603063822</v>
+        <v>0.1916572382498221</v>
       </c>
       <c r="BH83">
         <v>0.2774454229037238</v>
       </c>
       <c r="BI83">
-        <v>1.419373364170675</v>
+        <v>1.447612547469134</v>
       </c>
     </row>
     <row r="84">
@@ -16010,13 +16010,13 @@
         <v>6.113302665415276</v>
       </c>
       <c r="BG84">
-        <v>0.4437304151595813</v>
+        <v>0.4295712327170946</v>
       </c>
       <c r="BH84">
         <v>0.1742826816313745</v>
       </c>
       <c r="BI84">
-        <v>0.3927670397998213</v>
+        <v>0.4057131119535487</v>
       </c>
     </row>
     <row r="85">
@@ -16195,13 +16195,13 @@
         <v>4.358193250162824</v>
       </c>
       <c r="BG85">
-        <v>0.4616056908466668</v>
+        <v>0.4474396797704852</v>
       </c>
       <c r="BH85">
         <v>0.3354245362751069</v>
       </c>
       <c r="BI85">
-        <v>0.7266473159372856</v>
+        <v>0.7496530849636835</v>
       </c>
     </row>
     <row r="86">
@@ -16380,13 +16380,13 @@
         <v>5.354063866156871</v>
       </c>
       <c r="BG86">
-        <v>0.4651227754634336</v>
+        <v>0.4655280069998937</v>
       </c>
       <c r="BH86">
         <v>0.3150724359102403</v>
       </c>
       <c r="BI86">
-        <v>0.6773962758463336</v>
+        <v>0.6768066178031523</v>
       </c>
     </row>
     <row r="87">
@@ -16565,13 +16565,13 @@
         <v>4.947102234611292</v>
       </c>
       <c r="BG87">
-        <v>0.2129924254156491</v>
+        <v>0.254746548491027</v>
       </c>
       <c r="BH87">
         <v>0.3564858373266478</v>
       </c>
       <c r="BI87">
-        <v>1.673701947996391</v>
+        <v>1.399374552622072</v>
       </c>
     </row>
     <row r="88">
@@ -16750,13 +16750,13 @@
         <v>5.119308528418891</v>
       </c>
       <c r="BG88">
-        <v>0.2829682526764273</v>
+        <v>0.313111883956757</v>
       </c>
       <c r="BH88">
         <v>0.3439700710000846</v>
       </c>
       <c r="BI88">
-        <v>1.215578312219401</v>
+        <v>1.098553228492565</v>
       </c>
     </row>
     <row r="89">
@@ -16935,13 +16935,13 @@
         <v>4.583948585107464</v>
       </c>
       <c r="BG89">
-        <v>0.4183793960455464</v>
+        <v>0.4239116859384636</v>
       </c>
       <c r="BH89">
         <v>0.3550418595169479</v>
       </c>
       <c r="BI89">
-        <v>0.8486121995316822</v>
+        <v>0.837537325093904</v>
       </c>
     </row>
     <row r="90">
@@ -17120,13 +17120,13 @@
         <v>4.03219820697304</v>
       </c>
       <c r="BG90">
-        <v>0.444620463824787</v>
+        <v>0.4303854230948962</v>
       </c>
       <c r="BH90">
         <v>0.2871018612821519</v>
       </c>
       <c r="BI90">
-        <v>0.6457234532400898</v>
+        <v>0.6670808207620185</v>
       </c>
     </row>
     <row r="91">
@@ -17305,13 +17305,13 @@
         <v>5.740188450461294</v>
       </c>
       <c r="BG91">
-        <v>0.4354878558228064</v>
+        <v>0.4287476442955945</v>
       </c>
       <c r="BH91">
         <v>0.2472810250259446</v>
       </c>
       <c r="BI91">
-        <v>0.5678253060782471</v>
+        <v>0.5767519152955622</v>
       </c>
     </row>
     <row r="92">
@@ -17490,13 +17490,13 @@
         <v>5.806237829561613</v>
       </c>
       <c r="BG92">
-        <v>0.3013613168643548</v>
+        <v>0.3227526553569923</v>
       </c>
       <c r="BH92">
         <v>0.2343652360764279</v>
       </c>
       <c r="BI92">
-        <v>0.777688518602796</v>
+        <v>0.7261450283567759</v>
       </c>
     </row>
     <row r="93">
@@ -17675,13 +17675,13 @@
         <v>6.554407654962055</v>
       </c>
       <c r="BG93">
-        <v>0.3636469128006736</v>
+        <v>0.3507495227617289</v>
       </c>
       <c r="BH93">
         <v>0.09951915399313002</v>
       </c>
       <c r="BI93">
-        <v>0.2736697342668756</v>
+        <v>0.2837328279438184</v>
       </c>
     </row>
     <row r="94">
@@ -17860,13 +17860,13 @@
         <v>5.299567810081442</v>
       </c>
       <c r="BG94">
-        <v>0.4455809499860543</v>
+        <v>0.4428420457382345</v>
       </c>
       <c r="BH94">
         <v>0.3228496088650629</v>
       </c>
       <c r="BI94">
-        <v>0.7245588234307759</v>
+        <v>0.7290400989970597</v>
       </c>
     </row>
     <row r="95">
@@ -18045,13 +18045,13 @@
         <v>5.210314060416039</v>
       </c>
       <c r="BG95">
-        <v>0.4458975668869895</v>
+        <v>0.4402130640832838</v>
       </c>
       <c r="BH95">
         <v>0.3342473022648964</v>
       </c>
       <c r="BI95">
-        <v>0.7496055755550012</v>
+        <v>0.759285286003371</v>
       </c>
     </row>
     <row r="96">
@@ -18230,13 +18230,13 @@
         <v>4.794849871830622</v>
       </c>
       <c r="BG96">
-        <v>0.4602788076051684</v>
+        <v>0.4665785818305895</v>
       </c>
       <c r="BH96">
         <v>0.3605790661866357</v>
       </c>
       <c r="BI96">
-        <v>0.7833927181282349</v>
+        <v>0.7728152989190548</v>
       </c>
     </row>
     <row r="97">
@@ -18415,13 +18415,13 @@
         <v>6.037381730865655</v>
       </c>
       <c r="BG97">
-        <v>0.2175331845190218</v>
+        <v>0.1881147779766715</v>
       </c>
       <c r="BH97">
         <v>0.1888745683876751</v>
       </c>
       <c r="BI97">
-        <v>0.8682563481304583</v>
+        <v>1.004038972478269</v>
       </c>
     </row>
     <row r="98">
@@ -18600,13 +18600,13 @@
         <v>4.426710107310727</v>
       </c>
       <c r="BG98">
-        <v>0.4676785632400928</v>
+        <v>0.4621864553836696</v>
       </c>
       <c r="BH98">
         <v>0.342766345481026</v>
       </c>
       <c r="BI98">
-        <v>0.7329101062625776</v>
+        <v>0.7416191917534434</v>
       </c>
     </row>
     <row r="99">
@@ -18785,13 +18785,13 @@
         <v>3.433356637990158</v>
       </c>
       <c r="BG99">
-        <v>0.1686378556567424</v>
+        <v>0.1627052472823181</v>
       </c>
       <c r="BH99">
-        <v>0.1720551852032026</v>
+        <v>0.1720551852032027</v>
       </c>
       <c r="BI99">
-        <v>1.020264308586893</v>
+        <v>1.057465497130901</v>
       </c>
     </row>
     <row r="100">
@@ -18970,13 +18970,13 @@
         <v>4.570552639356674</v>
       </c>
       <c r="BG100">
-        <v>0.3522532428758852</v>
+        <v>0.3720804596887478</v>
       </c>
       <c r="BH100">
         <v>0.3542579031251221</v>
       </c>
       <c r="BI100">
-        <v>1.005690963219729</v>
+        <v>0.9521002619204065</v>
       </c>
     </row>
     <row r="101">
@@ -19155,13 +19155,13 @@
         <v>5.610473408659523</v>
       </c>
       <c r="BG101">
-        <v>0.2461509548658005</v>
+        <v>0.2740770016717441</v>
       </c>
       <c r="BH101">
         <v>0.2719190604745545</v>
       </c>
       <c r="BI101">
-        <v>1.104684158640793</v>
+        <v>0.9921265148698097</v>
       </c>
     </row>
     <row r="102">
@@ -19340,13 +19340,13 @@
         <v>4.782367828826128</v>
       </c>
       <c r="BG102">
-        <v>0.4606093176650943</v>
+        <v>0.4486695060903931</v>
       </c>
       <c r="BH102">
         <v>0.3606136543061046</v>
       </c>
       <c r="BI102">
-        <v>0.7829056870454023</v>
+        <v>0.8037400567923866</v>
       </c>
     </row>
     <row r="103">
@@ -19525,13 +19525,13 @@
         <v>4.960571336283042</v>
       </c>
       <c r="BG103">
-        <v>0.4640125019861676</v>
+        <v>0.4575300152827921</v>
       </c>
       <c r="BH103">
         <v>0.3558013629526235</v>
       </c>
       <c r="BI103">
-        <v>0.7667926218143796</v>
+        <v>0.7776568772929756</v>
       </c>
     </row>
     <row r="104">
@@ -19710,13 +19710,13 @@
         <v>4.956143187501597</v>
       </c>
       <c r="BG104">
-        <v>0.4096958069161825</v>
+        <v>0.3987528122994189</v>
       </c>
       <c r="BH104">
         <v>0.3560320711710475</v>
       </c>
       <c r="BI104">
-        <v>0.8690156578631674</v>
+        <v>0.8928641007394503</v>
       </c>
     </row>
     <row r="105">
@@ -19895,13 +19895,13 @@
         <v>3.050427173417519</v>
       </c>
       <c r="BG105">
-        <v>0.1135627899433032</v>
+        <v>0.1426277471314624</v>
       </c>
       <c r="BH105">
-        <v>0.1063580666037704</v>
+        <v>0.1063580666037705</v>
       </c>
       <c r="BI105">
-        <v>0.9365573587692787</v>
+        <v>0.745703895229716</v>
       </c>
     </row>
     <row r="106">
@@ -20080,13 +20080,13 @@
         <v>6.896202067345947</v>
       </c>
       <c r="BG106">
-        <v>0.1056947915973127</v>
+        <v>0.09251687643561199</v>
       </c>
       <c r="BH106">
         <v>0.05779209444306989</v>
       </c>
       <c r="BI106">
-        <v>0.5467828032932067</v>
+        <v>0.6246654304557164</v>
       </c>
     </row>
     <row r="107">
@@ -20265,13 +20265,13 @@
         <v>3.137933421723644</v>
       </c>
       <c r="BG107">
-        <v>0.3702609303056135</v>
+        <v>0.3932599661255997</v>
       </c>
       <c r="BH107">
-        <v>0.1199758890657831</v>
+        <v>0.1199758890657832</v>
       </c>
       <c r="BI107">
-        <v>0.3240306477022974</v>
+        <v>0.3050803524390918</v>
       </c>
     </row>
     <row r="108">
@@ -20450,13 +20450,13 @@
         <v>4.364002089460128</v>
       </c>
       <c r="BG108">
-        <v>0.3460989630104332</v>
+        <v>0.3598396354969418</v>
       </c>
       <c r="BH108">
         <v>0.3360908360598824</v>
       </c>
       <c r="BI108">
-        <v>0.9710830484336093</v>
+        <v>0.9340017132791333</v>
       </c>
     </row>
     <row r="109">
@@ -20635,13 +20635,13 @@
         <v>5.630097271871922</v>
       </c>
       <c r="BG109">
-        <v>0.2812838110380628</v>
+        <v>0.2831217650448726</v>
       </c>
       <c r="BH109">
         <v>0.268276517283505</v>
       </c>
       <c r="BI109">
-        <v>0.9537574035755735</v>
+        <v>0.947565854716204</v>
       </c>
     </row>
     <row r="110">
@@ -20820,13 +20820,13 @@
         <v>4.224436920406979</v>
       </c>
       <c r="BG110">
-        <v>0.385716497122455</v>
+        <v>0.3941304461436367</v>
       </c>
       <c r="BH110">
         <v>0.3180076432803005</v>
       </c>
       <c r="BI110">
-        <v>0.8244595334986183</v>
+        <v>0.8068588620641753</v>
       </c>
     </row>
     <row r="111">
@@ -21005,13 +21005,13 @@
         <v>5.140630001858294</v>
       </c>
       <c r="BG111">
-        <v>0.4678083092460031</v>
+        <v>0.4673350653125171</v>
       </c>
       <c r="BH111">
         <v>0.3418745311024803</v>
       </c>
       <c r="BI111">
-        <v>0.7308004675109374</v>
+        <v>0.7315405080375499</v>
       </c>
     </row>
     <row r="112">
@@ -21190,13 +21190,13 @@
         <v>3.060767751303813</v>
       </c>
       <c r="BG112">
-        <v>0.3546050861925824</v>
+        <v>0.3594682528773711</v>
       </c>
       <c r="BH112">
-        <v>0.1079182917790591</v>
+        <v>0.107918291779059</v>
       </c>
       <c r="BI112">
-        <v>0.3043337390836232</v>
+        <v>0.3002164750717896</v>
       </c>
     </row>
     <row r="113">
@@ -21375,13 +21375,13 @@
         <v>5.534676243491397</v>
       </c>
       <c r="BG113">
-        <v>0.4209778001314004</v>
+        <v>0.3887804396572734</v>
       </c>
       <c r="BH113">
         <v>0.2856136797444542</v>
       </c>
       <c r="BI113">
-        <v>0.6784530672527272</v>
+        <v>0.7346400451530813</v>
       </c>
     </row>
     <row r="114">
@@ -21560,13 +21560,13 @@
         <v>3.55075655242131</v>
       </c>
       <c r="BG114">
-        <v>0.4379260570579894</v>
+        <v>0.4403966653645695</v>
       </c>
       <c r="BH114">
-        <v>0.1946661311540102</v>
+        <v>0.1946661311540104</v>
       </c>
       <c r="BI114">
-        <v>0.4445182651651004</v>
+        <v>0.44202453484261</v>
       </c>
     </row>
     <row r="115">
@@ -21745,13 +21745,13 @@
         <v>5.204157331645032</v>
       </c>
       <c r="BG115">
-        <v>0.398462329687669</v>
+        <v>0.3924045991610499</v>
       </c>
       <c r="BH115">
         <v>0.334967794456221</v>
       </c>
       <c r="BI115">
-        <v>0.8406510967267155</v>
+        <v>0.8536286148846697</v>
       </c>
     </row>
     <row r="116">
@@ -21930,13 +21930,13 @@
         <v>4.112474801414407</v>
       </c>
       <c r="BG116">
-        <v>0.2351419663003449</v>
+        <v>0.2252977029200788</v>
       </c>
       <c r="BH116">
         <v>0.3007269000104293</v>
       </c>
       <c r="BI116">
-        <v>1.278916327621048</v>
+        <v>1.334797896794837</v>
       </c>
     </row>
     <row r="117">
@@ -22115,13 +22115,13 @@
         <v>6.011892552732346</v>
       </c>
       <c r="BG117">
-        <v>0.4618925165269773</v>
+        <v>0.4650077597724577</v>
       </c>
       <c r="BH117">
         <v>0.1938377724257263</v>
       </c>
       <c r="BI117">
-        <v>0.4196599111048923</v>
+        <v>0.4168484683364787</v>
       </c>
     </row>
     <row r="118">
@@ -22300,13 +22300,13 @@
         <v>6.776157884269196</v>
       </c>
       <c r="BG118">
-        <v>0.009780544166648326</v>
+        <v>0.0113869162995227</v>
       </c>
       <c r="BH118">
         <v>0.07071186622059161</v>
       </c>
       <c r="BI118">
-        <v>7.229849895440298</v>
+        <v>6.209922367090342</v>
       </c>
     </row>
     <row r="119">
@@ -22485,13 +22485,13 @@
         <v>3.803160721583232</v>
       </c>
       <c r="BG119">
-        <v>0.3644035226552572</v>
+        <v>0.3878604083635021</v>
       </c>
       <c r="BH119">
-        <v>0.2443516833315841</v>
+        <v>0.2443516833315842</v>
       </c>
       <c r="BI119">
-        <v>0.6705524731240105</v>
+        <v>0.6299990358968999</v>
       </c>
     </row>
     <row r="120">
@@ -22670,13 +22670,13 @@
         <v>5.33871368027085</v>
       </c>
       <c r="BG120">
-        <v>0.4515364200221892</v>
+        <v>0.456415809800561</v>
       </c>
       <c r="BH120">
         <v>0.3173218118474519</v>
       </c>
       <c r="BI120">
-        <v>0.702760171221312</v>
+        <v>0.6952471957229337</v>
       </c>
     </row>
     <row r="121">
@@ -22855,13 +22855,13 @@
         <v>5.403651616582422</v>
       </c>
       <c r="BG121">
-        <v>0.4265555993490759</v>
+        <v>0.441558222019525</v>
       </c>
       <c r="BH121">
         <v>0.3075095438835845</v>
       </c>
       <c r="BI121">
-        <v>0.7209131572832339</v>
+        <v>0.696419019166145</v>
       </c>
     </row>
     <row r="122">
@@ -23040,13 +23040,13 @@
         <v>5.90561504983565</v>
       </c>
       <c r="BG122">
-        <v>0.3195058222268768</v>
+        <v>0.3478128224912364</v>
       </c>
       <c r="BH122">
         <v>0.214744975106085</v>
       </c>
       <c r="BI122">
-        <v>0.672115999669006</v>
+        <v>0.6174153487728181</v>
       </c>
     </row>
     <row r="123">
@@ -23225,13 +23225,13 @@
         <v>5.210282879544396</v>
       </c>
       <c r="BG123">
-        <v>0.4150267998303884</v>
+        <v>0.393083239501438</v>
       </c>
       <c r="BH123">
         <v>0.3342509733864077</v>
       </c>
       <c r="BI123">
-        <v>0.8053720230187742</v>
+        <v>0.8503312779510788</v>
       </c>
     </row>
     <row r="124">
@@ -23410,13 +23410,13 @@
         <v>5.623268998483245</v>
       </c>
       <c r="BG124">
-        <v>0.4665446152225765</v>
+        <v>0.4666754546975458</v>
       </c>
       <c r="BH124">
         <v>0.2695480205523154</v>
       </c>
       <c r="BI124">
-        <v>0.577754006278094</v>
+        <v>0.5775920242623657</v>
       </c>
     </row>
     <row r="125">
@@ -23595,13 +23595,13 @@
         <v>5.119251393922009</v>
       </c>
       <c r="BG125">
-        <v>0.4360943927848586</v>
+        <v>0.4300168667021007</v>
       </c>
       <c r="BH125">
         <v>0.3439755319250264</v>
       </c>
       <c r="BI125">
-        <v>0.7887639410551243</v>
+        <v>0.7999117210519084</v>
       </c>
     </row>
     <row r="126">
@@ -23780,13 +23780,13 @@
         <v>3.79665307103056</v>
       </c>
       <c r="BG126">
-        <v>0.2165720461657074</v>
+        <v>0.2133271582655928</v>
       </c>
       <c r="BH126">
         <v>0.2430825959189022</v>
       </c>
       <c r="BI126">
-        <v>1.122409841078523</v>
+        <v>1.139482651413112</v>
       </c>
     </row>
     <row r="127">
@@ -23965,13 +23965,13 @@
         <v>3.949008075609748</v>
       </c>
       <c r="BG127">
-        <v>0.4557071108442023</v>
+        <v>0.4632037442844213</v>
       </c>
       <c r="BH127">
         <v>0.2721172714880766</v>
       </c>
       <c r="BI127">
-        <v>0.5971319406975599</v>
+        <v>0.5874677716788667</v>
       </c>
     </row>
     <row r="128">
@@ -24150,13 +24150,13 @@
         <v>2.458428384930712</v>
       </c>
       <c r="BG128">
-        <v>0.07787862925948068</v>
+        <v>0.07764365644444825</v>
       </c>
       <c r="BH128">
         <v>0.03994082479377444</v>
       </c>
       <c r="BI128">
-        <v>0.5128598843297204</v>
+        <v>0.5144119509924282</v>
       </c>
     </row>
     <row r="129">
@@ -24335,13 +24335,13 @@
         <v>4.552020555578665</v>
       </c>
       <c r="BG129">
-        <v>0.4678607735705825</v>
+        <v>0.4673773077310592</v>
       </c>
       <c r="BH129">
         <v>0.3530908594256661</v>
       </c>
       <c r="BI129">
-        <v>0.7546921635061974</v>
+        <v>0.7554728344424534</v>
       </c>
     </row>
     <row r="130">
@@ -24520,13 +24520,13 @@
         <v>5.132289710362579</v>
       </c>
       <c r="BG130">
-        <v>0.4565440256031223</v>
+        <v>0.4526358883803995</v>
       </c>
       <c r="BH130">
         <v>0.3427078742542026</v>
       </c>
       <c r="BI130">
-        <v>0.7506567932883683</v>
+        <v>0.7571380949938897</v>
       </c>
     </row>
     <row r="131">
@@ -24705,13 +24705,13 @@
         <v>3.836908648594965</v>
       </c>
       <c r="BG131">
-        <v>0.3261510066043657</v>
+        <v>0.3356755233268974</v>
       </c>
       <c r="BH131">
-        <v>0.2509007809204816</v>
+        <v>0.2509007809204817</v>
       </c>
       <c r="BI131">
-        <v>0.7692779597177032</v>
+        <v>0.7474503307056501</v>
       </c>
     </row>
     <row r="132">
@@ -24890,13 +24890,13 @@
         <v>4.748258889250139</v>
       </c>
       <c r="BG132">
-        <v>0.4449734490207523</v>
+        <v>0.4374763560784</v>
       </c>
       <c r="BH132">
         <v>0.3604740765656911</v>
       </c>
       <c r="BI132">
-        <v>0.8101024395028109</v>
+        <v>0.8239852772776838</v>
       </c>
     </row>
     <row r="133">
@@ -25075,13 +25075,13 @@
         <v>2.908972286614733</v>
       </c>
       <c r="BG133">
-        <v>0.2914731299878469</v>
+        <v>0.2883678141117715</v>
       </c>
       <c r="BH133">
         <v>0.08638579387108197</v>
       </c>
       <c r="BI133">
-        <v>0.2963765266276307</v>
+        <v>0.2995680850762311</v>
       </c>
     </row>
     <row r="134">
@@ -25260,13 +25260,13 @@
         <v>3.814931300270216</v>
       </c>
       <c r="BG134">
-        <v>0.2352076827579281</v>
+        <v>0.2106571650157184</v>
       </c>
       <c r="BH134">
         <v>0.2466422927814793</v>
       </c>
       <c r="BI134">
-        <v>1.048614951218747</v>
+        <v>1.170823184500161</v>
       </c>
     </row>
     <row r="135">
@@ -25445,13 +25445,13 @@
         <v>3.767830887117843</v>
       </c>
       <c r="BG135">
-        <v>0.1449155789267679</v>
+        <v>0.1268651488773515</v>
       </c>
       <c r="BH135">
-        <v>0.2374418210626792</v>
+        <v>0.2374418210626791</v>
       </c>
       <c r="BI135">
-        <v>1.638483749098285</v>
+        <v>1.87160794878528</v>
       </c>
     </row>
     <row r="136">
@@ -25630,13 +25630,13 @@
         <v>4.671670795275787</v>
       </c>
       <c r="BG136">
-        <v>0.4384204435636865</v>
+        <v>0.4452143896924857</v>
       </c>
       <c r="BH136">
         <v>0.3589155498624667</v>
       </c>
       <c r="BI136">
-        <v>0.8186560529546321</v>
+        <v>0.8061634083983077</v>
       </c>
     </row>
     <row r="137">
@@ -25815,13 +25815,13 @@
         <v>5.030108183781855</v>
       </c>
       <c r="BG137">
-        <v>0.4681228853862996</v>
+        <v>0.466725875346949</v>
       </c>
       <c r="BH137">
         <v>0.3514587303073423</v>
       </c>
       <c r="BI137">
-        <v>0.7507830556442782</v>
+        <v>0.7530303093782387</v>
       </c>
     </row>
     <row r="138">
@@ -26000,13 +26000,13 @@
         <v>4.566596254013265</v>
       </c>
       <c r="BG138">
-        <v>0.4667429306902959</v>
+        <v>0.4673972724869111</v>
       </c>
       <c r="BH138">
         <v>0.3540167697462183</v>
       </c>
       <c r="BI138">
-        <v>0.7584834101775046</v>
+        <v>0.7574215567467441</v>
       </c>
     </row>
     <row r="139">
@@ -26185,13 +26185,13 @@
         <v>3.697154376487823</v>
       </c>
       <c r="BG139">
-        <v>0.1602956959416058</v>
+        <v>0.1410284713638753</v>
       </c>
       <c r="BH139">
         <v>0.2235145068982938</v>
       </c>
       <c r="BI139">
-        <v>1.394388698868858</v>
+        <v>1.584889240709359</v>
       </c>
     </row>
     <row r="140">
@@ -26370,13 +26370,13 @@
         <v>7.292170080727181</v>
       </c>
       <c r="BG140">
-        <v>0.0996952091009121</v>
+        <v>0.1054025894886921</v>
       </c>
       <c r="BH140">
         <v>0.02732666323077692</v>
       </c>
       <c r="BI140">
-        <v>0.2741020704727817</v>
+        <v>0.2592598850117303</v>
       </c>
     </row>
     <row r="141">
@@ -26555,13 +26555,13 @@
         <v>7.214508273595719</v>
       </c>
       <c r="BG141">
-        <v>0.03606666064494414</v>
+        <v>0.04303898756631616</v>
       </c>
       <c r="BH141">
         <v>0.03197206478394478</v>
       </c>
       <c r="BI141">
-        <v>0.8864714451579441</v>
+        <v>0.7428628458018667</v>
       </c>
     </row>
     <row r="142">
@@ -26740,13 +26740,13 @@
         <v>4.548649464121295</v>
       </c>
       <c r="BG142">
-        <v>0.467817976659111</v>
+        <v>0.4668709386505058</v>
       </c>
       <c r="BH142">
         <v>0.3528683364698413</v>
       </c>
       <c r="BI142">
-        <v>0.7542855428297682</v>
+        <v>0.7558155953973278</v>
       </c>
     </row>
     <row r="143">
@@ -26925,13 +26925,13 @@
         <v>5.358109440621638</v>
       </c>
       <c r="BG143">
-        <v>0.3050356944113478</v>
+        <v>0.3175283537102884</v>
       </c>
       <c r="BH143">
         <v>0.3144721863789091</v>
       </c>
       <c r="BI143">
-        <v>1.030935697495245</v>
+        <v>0.990375135651137</v>
       </c>
     </row>
     <row r="144">
@@ -27110,13 +27110,13 @@
         <v>6.168279737320642</v>
       </c>
       <c r="BG144">
-        <v>0.4196650464864356</v>
+        <v>0.4026160574047829</v>
       </c>
       <c r="BH144">
         <v>0.1639423328424723</v>
       </c>
       <c r="BI144">
-        <v>0.3906504347098902</v>
+        <v>0.4071927331940655</v>
       </c>
     </row>
     <row r="145">
@@ -27295,13 +27295,13 @@
         <v>5.706071061247415</v>
       </c>
       <c r="BG145">
-        <v>0.4479189610170224</v>
+        <v>0.4302121094868253</v>
       </c>
       <c r="BH145">
         <v>0.2538742613938245</v>
       </c>
       <c r="BI145">
-        <v>0.5667861454612019</v>
+        <v>0.5901141687914274</v>
       </c>
     </row>
     <row r="146">
@@ -27480,13 +27480,13 @@
         <v>6.049295732576264</v>
       </c>
       <c r="BG146">
-        <v>0.1005749554762871</v>
+        <v>0.08117844150706885</v>
       </c>
       <c r="BH146">
-        <v>0.1865645109526852</v>
+        <v>0.1865645109526853</v>
       </c>
       <c r="BI146">
-        <v>1.854979801573684</v>
+        <v>2.29820266919561</v>
       </c>
     </row>
     <row r="147">
@@ -27665,13 +27665,13 @@
         <v>3.776956191192376</v>
       </c>
       <c r="BG147">
-        <v>0.3367373714240237</v>
+        <v>0.3669214714027736</v>
       </c>
       <c r="BH147">
-        <v>0.2392309892217419</v>
+        <v>0.239230989221742</v>
       </c>
       <c r="BI147">
-        <v>0.7104378947013262</v>
+        <v>0.651995066702258</v>
       </c>
     </row>
     <row r="148">
@@ -27850,13 +27850,13 @@
         <v>3.515687102006397</v>
       </c>
       <c r="BG148">
-        <v>0.4676293901745982</v>
+        <v>0.4673877954540347</v>
       </c>
       <c r="BH148">
-        <v>0.1878385145085651</v>
+        <v>0.1878385145085652</v>
       </c>
       <c r="BI148">
-        <v>0.40168244010162</v>
+        <v>0.401890071447187</v>
       </c>
     </row>
     <row r="149">
@@ -28035,13 +28035,13 @@
         <v>6.206371876129044</v>
       </c>
       <c r="BG149">
-        <v>0.4637656126607393</v>
+        <v>0.4649748341979288</v>
       </c>
       <c r="BH149">
         <v>0.1569123824569851</v>
       </c>
       <c r="BI149">
-        <v>0.3383441509531928</v>
+        <v>0.337464247345032</v>
       </c>
     </row>
     <row r="150">
@@ -28220,13 +28220,13 @@
         <v>4.58827979633833</v>
       </c>
       <c r="BG150">
-        <v>0.4668844151835345</v>
+        <v>0.4664256448451921</v>
       </c>
       <c r="BH150">
         <v>0.355284556518682</v>
       </c>
       <c r="BI150">
-        <v>0.7609689785404765</v>
+        <v>0.761717457959675</v>
       </c>
     </row>
     <row r="151">
@@ -28405,13 +28405,13 @@
         <v>4.434367831419905</v>
       </c>
       <c r="BG151">
-        <v>0.4015767851430701</v>
+        <v>0.3896841965364233</v>
       </c>
       <c r="BH151">
         <v>0.3435149420689261</v>
       </c>
       <c r="BI151">
-        <v>0.8554153396754289</v>
+        <v>0.8815213578639908</v>
       </c>
     </row>
     <row r="152">
@@ -28590,13 +28590,13 @@
         <v>6.330873970621266</v>
       </c>
       <c r="BG152">
-        <v>0.1135033546501365</v>
+        <v>0.1058858351711666</v>
       </c>
       <c r="BH152">
         <v>0.1348510187986166</v>
       </c>
       <c r="BI152">
-        <v>1.188079587729211</v>
+        <v>1.273551071119448</v>
       </c>
     </row>
     <row r="153">
@@ -28775,13 +28775,13 @@
         <v>5.410135887613873</v>
       </c>
       <c r="BG153">
-        <v>0.4650839206578715</v>
+        <v>0.4555735965429034</v>
       </c>
       <c r="BH153">
-        <v>0.306488579471813</v>
+        <v>0.3064885794718131</v>
       </c>
       <c r="BI153">
-        <v>0.6589962926223684</v>
+        <v>0.672753166113194</v>
       </c>
     </row>
     <row r="154">
@@ -28960,13 +28960,13 @@
         <v>4.999127858865494</v>
       </c>
       <c r="BG154">
-        <v>0.4613054397484845</v>
+        <v>0.4668984493185085</v>
       </c>
       <c r="BH154">
         <v>0.3535593868771475</v>
       </c>
       <c r="BI154">
-        <v>0.7664322949885808</v>
+        <v>0.7572511482811899</v>
       </c>
     </row>
     <row r="155">
@@ -29145,13 +29145,13 @@
         <v>5.596534347161273</v>
       </c>
       <c r="BG155">
-        <v>0.1584473328287564</v>
+        <v>0.1474493107156791</v>
       </c>
       <c r="BH155">
         <v>0.2744839367153052</v>
       </c>
       <c r="BI155">
-        <v>1.732335482175371</v>
+        <v>1.8615477778976</v>
       </c>
     </row>
     <row r="156">
@@ -29330,13 +29330,13 @@
         <v>5.170170828158045</v>
       </c>
       <c r="BG156">
-        <v>0.4176038170479387</v>
+        <v>0.4302096676891231</v>
       </c>
       <c r="BH156">
         <v>0.3387842249322413</v>
       </c>
       <c r="BI156">
-        <v>0.8112574911961368</v>
+        <v>0.7874863127833114</v>
       </c>
     </row>
     <row r="157">
@@ -29515,13 +29515,13 @@
         <v>6.302456874185702</v>
       </c>
       <c r="BG157">
-        <v>0.1926844658110125</v>
+        <v>0.1915882719811662</v>
       </c>
       <c r="BH157">
         <v>0.139751975192218</v>
       </c>
       <c r="BI157">
-        <v>0.7252892681514277</v>
+        <v>0.7294390922110106</v>
       </c>
     </row>
     <row r="158">
@@ -29700,13 +29700,13 @@
         <v>4.222070734057766</v>
       </c>
       <c r="BG158">
-        <v>0.4599110543178018</v>
+        <v>0.4586517269580622</v>
       </c>
       <c r="BH158">
         <v>0.3176660126995638</v>
       </c>
       <c r="BI158">
-        <v>0.6907118446430173</v>
+        <v>0.6926083431679966</v>
       </c>
     </row>
     <row r="159">
@@ -29885,13 +29885,13 @@
         <v>6.993386529898772</v>
       </c>
       <c r="BG159">
-        <v>0.09567296927574204</v>
+        <v>0.06365588071342736</v>
       </c>
       <c r="BH159">
         <v>0.04866142710228691</v>
       </c>
       <c r="BI159">
-        <v>0.5086225239026323</v>
+        <v>0.7644451157836613</v>
       </c>
     </row>
     <row r="160">
@@ -30070,13 +30070,13 @@
         <v>4.19943852058803</v>
       </c>
       <c r="BG160">
-        <v>0.4413071495257043</v>
+        <v>0.4287736105780204</v>
       </c>
       <c r="BH160">
         <v>0.3143441883452485</v>
       </c>
       <c r="BI160">
-        <v>0.7123025055974971</v>
+        <v>0.7331239157220704</v>
       </c>
     </row>
     <row r="161">
@@ -30255,13 +30255,13 @@
         <v>3.173087984709326</v>
       </c>
       <c r="BG161">
-        <v>0.410761070023812</v>
+        <v>0.4243105142845697</v>
       </c>
       <c r="BH161">
         <v>0.1257040395761401</v>
       </c>
       <c r="BI161">
-        <v>0.306027149965436</v>
+        <v>0.2962548307059744</v>
       </c>
     </row>
     <row r="162">
@@ -30440,13 +30440,13 @@
         <v>2.612655548161733</v>
       </c>
       <c r="BG162">
-        <v>0.3251099914444037</v>
+        <v>0.3420374572189077</v>
       </c>
       <c r="BH162">
-        <v>0.05299185396913856</v>
+        <v>0.05299185396913852</v>
       </c>
       <c r="BI162">
-        <v>0.1629966945454538</v>
+        <v>0.1549299728749391</v>
       </c>
     </row>
     <row r="163">
@@ -30625,13 +30625,13 @@
         <v>6.484921316576686</v>
       </c>
       <c r="BG163">
-        <v>0.362324741184242</v>
+        <v>0.3602148935591521</v>
       </c>
       <c r="BH163">
         <v>0.1098556308023984</v>
       </c>
       <c r="BI163">
-        <v>0.3031966032552464</v>
+        <v>0.3049724838330669</v>
       </c>
     </row>
     <row r="164">
@@ -30810,13 +30810,13 @@
         <v>5.339146112251121</v>
       </c>
       <c r="BG164">
-        <v>0.3032489611964427</v>
+        <v>0.3309539525488653</v>
       </c>
       <c r="BH164">
         <v>0.3172590612384862</v>
       </c>
       <c r="BI164">
-        <v>1.04619999351941</v>
+        <v>0.9586199493769241</v>
       </c>
     </row>
     <row r="165">
@@ -30995,13 +30995,13 @@
         <v>4.234943274093818</v>
       </c>
       <c r="BG165">
-        <v>0.4643137709513431</v>
+        <v>0.4671742360152212</v>
       </c>
       <c r="BH165">
         <v>0.3195113417990127</v>
       </c>
       <c r="BI165">
-        <v>0.6881366907217907</v>
+        <v>0.6839232927832146</v>
       </c>
     </row>
     <row r="166">
@@ -31180,13 +31180,13 @@
         <v>5.419009973674147</v>
       </c>
       <c r="BG166">
-        <v>0.2078108798739063</v>
+        <v>0.1696218064283589</v>
       </c>
       <c r="BH166">
         <v>0.3050798368524208</v>
       </c>
       <c r="BI166">
-        <v>1.468064795440617</v>
+        <v>1.798588538091496</v>
       </c>
     </row>
     <row r="167">
@@ -31365,13 +31365,13 @@
         <v>3.804494841645636</v>
       </c>
       <c r="BG167">
-        <v>0.3813234540641768</v>
+        <v>0.3953719388511226</v>
       </c>
       <c r="BH167">
         <v>0.2446116280908094</v>
       </c>
       <c r="BI167">
-        <v>0.6414806786304869</v>
+        <v>0.6186873777678945</v>
       </c>
     </row>
     <row r="168">
@@ -31550,13 +31550,13 @@
         <v>2.789612781672313</v>
       </c>
       <c r="BG168">
-        <v>0.3832379955123237</v>
+        <v>0.3664193464528662</v>
       </c>
       <c r="BH168">
         <v>0.07156490562480917</v>
       </c>
       <c r="BI168">
-        <v>0.1867375011424405</v>
+        <v>0.1953087529836933</v>
       </c>
     </row>
     <row r="169">
@@ -31735,13 +31735,13 @@
         <v>3.374149650619156</v>
       </c>
       <c r="BG169">
-        <v>0.430002988092222</v>
+        <v>0.4287117802340054</v>
       </c>
       <c r="BH169">
-        <v>0.1609791430623032</v>
+        <v>0.1609791430623031</v>
       </c>
       <c r="BI169">
-        <v>0.374367498645796</v>
+        <v>0.3754950306577422</v>
       </c>
     </row>
     <row r="170">
@@ -31920,13 +31920,13 @@
         <v>3.424075447460282</v>
       </c>
       <c r="BG170">
-        <v>0.415198447163504</v>
+        <v>0.4409531935695006</v>
       </c>
       <c r="BH170">
-        <v>0.1703020802640989</v>
+        <v>0.170302080264099</v>
       </c>
       <c r="BI170">
-        <v>0.410170320788879</v>
+        <v>0.3862135091607107</v>
       </c>
     </row>
     <row r="171">
@@ -32105,13 +32105,13 @@
         <v>6.094301752088952</v>
       </c>
       <c r="BG171">
-        <v>0.3623687112827928</v>
+        <v>0.3707630595740689</v>
       </c>
       <c r="BH171">
         <v>0.1779038931427285</v>
       </c>
       <c r="BI171">
-        <v>0.4909471695636884</v>
+        <v>0.4798317646507282</v>
       </c>
     </row>
     <row r="172">
@@ -32290,13 +32290,13 @@
         <v>5.500554434326394</v>
       </c>
       <c r="BG172">
-        <v>0.1262163966949009</v>
+        <v>0.1423832964284542</v>
       </c>
       <c r="BH172">
         <v>0.2915546215937295</v>
       </c>
       <c r="BI172">
-        <v>2.309958366966344</v>
+        <v>2.04767433334592</v>
       </c>
     </row>
     <row r="173">
@@ -32475,13 +32475,13 @@
         <v>6.402136689073447</v>
       </c>
       <c r="BG173">
-        <v>0.2821219082887775</v>
+        <v>0.285274327762107</v>
       </c>
       <c r="BH173">
         <v>0.1229460438692317</v>
       </c>
       <c r="BI173">
-        <v>0.4357904872222302</v>
+        <v>0.4309747912954775</v>
       </c>
     </row>
     <row r="174">
@@ -32660,13 +32660,13 @@
         <v>6.734190145396547</v>
       </c>
       <c r="BG174">
-        <v>0.3727227419944539</v>
+        <v>0.36179304558372</v>
       </c>
       <c r="BH174">
         <v>0.07566925090866737</v>
       </c>
       <c r="BI174">
-        <v>0.2030175312184018</v>
+        <v>0.2091506507168538</v>
       </c>
     </row>
     <row r="175">
@@ -32845,13 +32845,13 @@
         <v>4.214179075028044</v>
       </c>
       <c r="BG175">
-        <v>0.2646894661189434</v>
+        <v>0.24931089662321</v>
       </c>
       <c r="BH175">
         <v>0.3165187958546034</v>
       </c>
       <c r="BI175">
-        <v>1.195811833752271</v>
+        <v>1.269574656148971</v>
       </c>
     </row>
     <row r="176">
@@ -33030,13 +33030,13 @@
         <v>6.901574212413599</v>
       </c>
       <c r="BG176">
-        <v>0.05588852312134482</v>
+        <v>0.04870390048245821</v>
       </c>
       <c r="BH176">
         <v>0.057256869652002</v>
       </c>
       <c r="BI176">
-        <v>1.024483497760108</v>
+        <v>1.175611585208136</v>
       </c>
     </row>
     <row r="177">
@@ -33215,13 +33215,13 @@
         <v>4.583658312330588</v>
       </c>
       <c r="BG177">
-        <v>0.3724858907140572</v>
+        <v>0.3441490337623028</v>
       </c>
       <c r="BH177">
         <v>0.3550254055989672</v>
       </c>
       <c r="BI177">
-        <v>0.9531244389374907</v>
+        <v>1.031603668090425</v>
       </c>
     </row>
     <row r="178">
@@ -33400,13 +33400,13 @@
         <v>4.300591351405035</v>
       </c>
       <c r="BG178">
-        <v>0.2938072094044624</v>
+        <v>0.2814271807910087</v>
       </c>
       <c r="BH178">
         <v>0.3283980035562697</v>
       </c>
       <c r="BI178">
-        <v>1.117732965851729</v>
+        <v>1.166902225411348</v>
       </c>
     </row>
     <row r="179">
@@ -33585,13 +33585,13 @@
         <v>6.109386534499787</v>
       </c>
       <c r="BG179">
-        <v>0.3185049075964629</v>
+        <v>0.3156547854735723</v>
       </c>
       <c r="BH179">
         <v>0.1750271653385854</v>
       </c>
       <c r="BI179">
-        <v>0.5495273735635499</v>
+        <v>0.5544891869007932</v>
       </c>
     </row>
     <row r="180">
@@ -33770,13 +33770,13 @@
         <v>5.632205809693588</v>
       </c>
       <c r="BG180">
-        <v>0.4432309093067476</v>
+        <v>0.4476098791024454</v>
       </c>
       <c r="BH180">
         <v>0.2678830342778138</v>
       </c>
       <c r="BI180">
-        <v>0.6043870782766632</v>
+        <v>0.5984743563188937</v>
       </c>
     </row>
     <row r="181">
@@ -33955,13 +33955,13 @@
         <v>3.953880305973479</v>
       </c>
       <c r="BG181">
-        <v>0.1420486024675303</v>
+        <v>0.1742532207197341</v>
       </c>
       <c r="BH181">
         <v>0.2730154688565484</v>
       </c>
       <c r="BI181">
-        <v>1.921986306897702</v>
+        <v>1.56677430539813</v>
       </c>
     </row>
     <row r="182">
@@ -34140,13 +34140,13 @@
         <v>3.90923864133073</v>
       </c>
       <c r="BG182">
-        <v>0.2011245253064572</v>
+        <v>0.1879236520975542</v>
       </c>
       <c r="BH182">
-        <v>0.2647033350468422</v>
+        <v>0.2647033350468421</v>
       </c>
       <c r="BI182">
-        <v>1.316116642878379</v>
+        <v>1.408568490939237</v>
       </c>
     </row>
     <row r="183">
@@ -34325,13 +34325,13 @@
         <v>4.977424176595098</v>
       </c>
       <c r="BG183">
-        <v>0.3791653436714374</v>
+        <v>0.3873622345228336</v>
       </c>
       <c r="BH183">
         <v>0.354872689539754</v>
       </c>
       <c r="BI183">
-        <v>0.9359312380808358</v>
+        <v>0.9161261938115848</v>
       </c>
     </row>
     <row r="184">
@@ -34510,13 +34510,13 @@
         <v>5.332959017080766</v>
       </c>
       <c r="BG184">
-        <v>0.4660419048076438</v>
+        <v>0.4672209843767444</v>
       </c>
       <c r="BH184">
         <v>0.3181534310393533</v>
       </c>
       <c r="BI184">
-        <v>0.6826712957725751</v>
+        <v>0.6809485054781053</v>
       </c>
     </row>
     <row r="185">
@@ -34695,13 +34695,13 @@
         <v>7.636563545858251</v>
       </c>
       <c r="BG185">
-        <v>0.1988520553067359</v>
+        <v>0.194030274996029</v>
       </c>
       <c r="BH185">
         <v>0.01283608805335231</v>
       </c>
       <c r="BI185">
-        <v>0.06455094483963075</v>
+        <v>0.06615507839493096</v>
       </c>
     </row>
     <row r="186">
@@ -34880,13 +34880,13 @@
         <v>3.872566032467835</v>
       </c>
       <c r="BG186">
-        <v>0.03410910953221622</v>
+        <v>0.03856520745145049</v>
       </c>
       <c r="BH186">
         <v>0.2577504938069649</v>
       </c>
       <c r="BI186">
-        <v>7.556646812005406</v>
+        <v>6.683498179841131</v>
       </c>
     </row>
     <row r="187">
@@ -35065,13 +35065,13 @@
         <v>5.001322985664915</v>
       </c>
       <c r="BG187">
-        <v>0.2955373788547996</v>
+        <v>0.3138520545379161</v>
       </c>
       <c r="BH187">
         <v>0.3534192546449443</v>
       </c>
       <c r="BI187">
-        <v>1.195852978105293</v>
+        <v>1.126069590862749</v>
       </c>
     </row>
     <row r="188">
@@ -35250,13 +35250,13 @@
         <v>4.365817284945181</v>
       </c>
       <c r="BG188">
-        <v>0.3766144398801812</v>
+        <v>0.3956644318739314</v>
       </c>
       <c r="BH188">
         <v>0.3362974169906546</v>
       </c>
       <c r="BI188">
-        <v>0.8929488128433063</v>
+        <v>0.8499561494519361</v>
       </c>
     </row>
     <row r="189">
@@ -35435,13 +35435,13 @@
         <v>4.598079773816295</v>
       </c>
       <c r="BG189">
-        <v>0.4197054257846561</v>
+        <v>0.4289342497618107</v>
       </c>
       <c r="BH189">
         <v>0.3558141737717115</v>
       </c>
       <c r="BI189">
-        <v>0.8477712031158584</v>
+        <v>0.8295308056404844</v>
       </c>
     </row>
     <row r="190">
@@ -35620,13 +35620,13 @@
         <v>5.247299483176418</v>
       </c>
       <c r="BG190">
-        <v>0.4500910647633719</v>
+        <v>0.4553254209147976</v>
       </c>
       <c r="BH190">
         <v>0.3297365583300999</v>
       </c>
       <c r="BI190">
-        <v>0.732599654035464</v>
+        <v>0.7241777928138162</v>
       </c>
     </row>
     <row r="191">
@@ -35805,13 +35805,13 @@
         <v>5.190082050929881</v>
       </c>
       <c r="BG191">
-        <v>0.3122420997166235</v>
+        <v>0.3028038034974467</v>
       </c>
       <c r="BH191">
         <v>0.3365816351284808</v>
       </c>
       <c r="BI191">
-        <v>1.077950844661712</v>
+        <v>1.111550222424201</v>
       </c>
     </row>
     <row r="192">
@@ -35990,13 +35990,13 @@
         <v>3.342422986362791</v>
       </c>
       <c r="BG192">
-        <v>0.4202266725539317</v>
+        <v>0.425973791614735</v>
       </c>
       <c r="BH192">
-        <v>0.1551573519241149</v>
+        <v>0.1551573519241148</v>
       </c>
       <c r="BI192">
-        <v>0.3692229981051526</v>
+        <v>0.3642415448517648</v>
       </c>
     </row>
     <row r="193">
@@ -36175,13 +36175,13 @@
         <v>2.675358840894337</v>
       </c>
       <c r="BG193">
-        <v>0.2353973825309283</v>
+        <v>0.2408952987902373</v>
       </c>
       <c r="BH193">
-        <v>0.05911784560742082</v>
+        <v>0.05911784560742084</v>
       </c>
       <c r="BI193">
-        <v>0.2511406243000747</v>
+        <v>0.2454088805564382</v>
       </c>
     </row>
     <row r="194">
@@ -36360,13 +36360,13 @@
         <v>3.267730841852184</v>
       </c>
       <c r="BG194">
-        <v>0.3964654936845527</v>
+        <v>0.3830631339379046</v>
       </c>
       <c r="BH194">
-        <v>0.1418079875699634</v>
+        <v>0.1418079875699633</v>
       </c>
       <c r="BI194">
-        <v>0.3576805291478726</v>
+        <v>0.3701948190946264</v>
       </c>
     </row>
     <row r="195">
@@ -36545,13 +36545,13 @@
         <v>4.680355131964742</v>
       </c>
       <c r="BG195">
-        <v>0.457337613233567</v>
+        <v>0.4466147163703189</v>
       </c>
       <c r="BH195">
         <v>0.3591784541322251</v>
       </c>
       <c r="BI195">
-        <v>0.7853682787923</v>
+        <v>0.8042244040933161</v>
       </c>
     </row>
     <row r="196">
@@ -36730,13 +36730,13 @@
         <v>3.076936486709487</v>
       </c>
       <c r="BG196">
-        <v>0.2646994722565781</v>
+        <v>0.2657298781624857</v>
       </c>
       <c r="BH196">
         <v>0.1103845594544794</v>
       </c>
       <c r="BI196">
-        <v>0.4170184342017937</v>
+        <v>0.4154013851125263</v>
       </c>
     </row>
     <row r="197">
@@ -36915,13 +36915,13 @@
         <v>5.642863266479403</v>
       </c>
       <c r="BG197">
-        <v>0.4215496458855277</v>
+        <v>0.4319147006728929</v>
       </c>
       <c r="BH197">
         <v>0.2658882355675921</v>
       </c>
       <c r="BI197">
-        <v>0.6307400282807836</v>
+        <v>0.6156035790246471</v>
       </c>
     </row>
     <row r="198">
@@ -37100,13 +37100,13 @@
         <v>3.617759277262103</v>
       </c>
       <c r="BG198">
-        <v>0.3096286654920519</v>
+        <v>0.3007448880995257</v>
       </c>
       <c r="BH198">
         <v>0.207826924609039</v>
       </c>
       <c r="BI198">
-        <v>0.6712134494355267</v>
+        <v>0.691040588993362</v>
       </c>
     </row>
     <row r="199">
@@ -37285,13 +37285,13 @@
         <v>4.974325748066629</v>
       </c>
       <c r="BG199">
-        <v>0.3985066400535838</v>
+        <v>0.4080456642296667</v>
       </c>
       <c r="BH199">
         <v>0.3550494276453938</v>
       </c>
       <c r="BI199">
-        <v>0.8909498411310118</v>
+        <v>0.8701217995188788</v>
       </c>
     </row>
     <row r="200">
@@ -37470,13 +37470,13 @@
         <v>3.982770824244188</v>
       </c>
       <c r="BG200">
-        <v>0.3662286872744244</v>
+        <v>0.3825840757641791</v>
       </c>
       <c r="BH200">
         <v>0.2782917662996979</v>
       </c>
       <c r="BI200">
-        <v>0.7598852191804595</v>
+        <v>0.7274002864437936</v>
       </c>
     </row>
     <row r="201">
@@ -37655,13 +37655,13 @@
         <v>4.532496180268756</v>
       </c>
       <c r="BG201">
-        <v>0.4677167358527998</v>
+        <v>0.4671444693953622</v>
       </c>
       <c r="BH201">
         <v>0.3517586898511429</v>
       </c>
       <c r="BI201">
-        <v>0.752076337849601</v>
+        <v>0.7529976546793624</v>
       </c>
     </row>
     <row r="202">
@@ -37840,13 +37840,13 @@
         <v>4.984666692767141</v>
       </c>
       <c r="BG202">
-        <v>0.3829393910078878</v>
+        <v>0.3829583590913005</v>
       </c>
       <c r="BH202">
         <v>0.354449065303852</v>
       </c>
       <c r="BI202">
-        <v>0.9256009531193699</v>
+        <v>0.9255551077273868</v>
       </c>
     </row>
     <row r="203">
@@ -38025,13 +38025,13 @@
         <v>4.374796046632174</v>
       </c>
       <c r="BG203">
-        <v>0.4577544836516952</v>
+        <v>0.4484889947427438</v>
       </c>
       <c r="BH203">
-        <v>0.3373077710095608</v>
+        <v>0.3373077710095609</v>
       </c>
       <c r="BI203">
-        <v>0.7368748599002646</v>
+        <v>0.7520982119149721</v>
       </c>
     </row>
     <row r="204">
@@ -38210,13 +38210,13 @@
         <v>5.707835511278563</v>
       </c>
       <c r="BG204">
-        <v>0.3694770660612682</v>
+        <v>0.3340803688579334</v>
       </c>
       <c r="BH204">
         <v>0.2535349206470169</v>
       </c>
       <c r="BI204">
-        <v>0.686199344792282</v>
+        <v>0.7589039772487555</v>
       </c>
     </row>
     <row r="205">
@@ -38395,13 +38395,13 @@
         <v>6.094603319407577</v>
       </c>
       <c r="BG205">
-        <v>0.3154967976316035</v>
+        <v>0.3430161894634813</v>
       </c>
       <c r="BH205">
         <v>0.1778462463781801</v>
       </c>
       <c r="BI205">
-        <v>0.5637022236461684</v>
+        <v>0.5184777040884078</v>
       </c>
     </row>
     <row r="206">
@@ -38580,13 +38580,13 @@
         <v>6.897168902377661</v>
       </c>
       <c r="BG206">
-        <v>0.08757594711081235</v>
+        <v>0.0924422717318707</v>
       </c>
       <c r="BH206">
         <v>0.05769550158882739</v>
       </c>
       <c r="BI206">
-        <v>0.6588053397335644</v>
+        <v>0.624124661888162</v>
       </c>
     </row>
     <row r="207">
@@ -38765,13 +38765,13 @@
         <v>3.832788910272065</v>
       </c>
       <c r="BG207">
-        <v>0.4666243301848931</v>
+        <v>0.4656278240099548</v>
       </c>
       <c r="BH207">
-        <v>0.2501044663152433</v>
+        <v>0.2501044663152432</v>
       </c>
       <c r="BI207">
-        <v>0.5359867673769669</v>
+        <v>0.5371338511546856</v>
       </c>
     </row>
     <row r="208">
@@ -38950,13 +38950,13 @@
         <v>3.646294663873569</v>
       </c>
       <c r="BG208">
-        <v>0.2363740777006479</v>
+        <v>0.2632857597600221</v>
       </c>
       <c r="BH208">
-        <v>0.2134607689191365</v>
+        <v>0.2134607689191364</v>
       </c>
       <c r="BI208">
-        <v>0.9030633603972026</v>
+        <v>0.8107569855418699</v>
       </c>
     </row>
     <row r="209">
@@ -39135,13 +39135,13 @@
         <v>5.779687920252077</v>
       </c>
       <c r="BG209">
-        <v>0.4609234718421522</v>
+        <v>0.4524271744923118</v>
       </c>
       <c r="BH209">
         <v>0.2395764982478107</v>
       </c>
       <c r="BI209">
-        <v>0.5197750014558948</v>
+        <v>0.5295360485732316</v>
       </c>
     </row>
     <row r="210">
@@ -39320,13 +39320,13 @@
         <v>2.777588062742986</v>
       </c>
       <c r="BG210">
-        <v>0.3538554429220994</v>
+        <v>0.3290482785483916</v>
       </c>
       <c r="BH210">
         <v>0.07017538064969694</v>
       </c>
       <c r="BI210">
-        <v>0.1983165217700097</v>
+        <v>0.2132677337176118</v>
       </c>
     </row>
     <row r="211">
@@ -39505,13 +39505,13 @@
         <v>3.179052870150914</v>
       </c>
       <c r="BG211">
-        <v>0.4033057190277552</v>
+        <v>0.3865988118592338</v>
       </c>
       <c r="BH211">
-        <v>0.1266900614833181</v>
+        <v>0.126690061483318</v>
       </c>
       <c r="BI211">
-        <v>0.3141290973724065</v>
+        <v>0.3277042184222949</v>
       </c>
     </row>
     <row r="212">
@@ -39690,13 +39690,13 @@
         <v>3.107238030024819</v>
       </c>
       <c r="BG212">
-        <v>0.08031711383254291</v>
+        <v>0.08171814204892877</v>
       </c>
       <c r="BH212">
-        <v>0.1150931188520524</v>
+        <v>0.1150931188520525</v>
       </c>
       <c r="BI212">
-        <v>1.432983748544746</v>
+        <v>1.408415756480861</v>
       </c>
     </row>
     <row r="213">
@@ -39875,13 +39875,13 @@
         <v>6.857460025436839</v>
       </c>
       <c r="BG213">
-        <v>0.05716669687265782</v>
+        <v>0.04778896482593443</v>
       </c>
       <c r="BH213">
         <v>0.06175985702808136</v>
       </c>
       <c r="BI213">
-        <v>1.080346782422204</v>
+        <v>1.292345570845366</v>
       </c>
     </row>
     <row r="214">
@@ -40060,13 +40060,13 @@
         <v>4.842446919101247</v>
       </c>
       <c r="BG214">
-        <v>0.4567192842564718</v>
+        <v>0.4604976839194685</v>
       </c>
       <c r="BH214">
         <v>0.3600263520368789</v>
       </c>
       <c r="BI214">
-        <v>0.7882880457368759</v>
+        <v>0.7818201146476125</v>
       </c>
     </row>
     <row r="215">
@@ -40245,13 +40245,13 @@
         <v>4.253643518512501</v>
       </c>
       <c r="BG215">
-        <v>0.2618350393916511</v>
+        <v>0.2772006915921346</v>
       </c>
       <c r="BH215">
         <v>0.322133497834941</v>
       </c>
       <c r="BI215">
-        <v>1.230291784412765</v>
+        <v>1.162094856202304</v>
       </c>
     </row>
     <row r="216">
@@ -40430,13 +40430,13 @@
         <v>4.311001967177194</v>
       </c>
       <c r="BG216">
-        <v>0.2671805447965671</v>
+        <v>0.269189192767937</v>
       </c>
       <c r="BH216">
         <v>0.32972312109727</v>
       </c>
       <c r="BI216">
-        <v>1.23408357202177</v>
+        <v>1.224875031968755</v>
       </c>
     </row>
     <row r="217">
@@ -40615,13 +40615,13 @@
         <v>6.028060825405175</v>
       </c>
       <c r="BG217">
-        <v>0.4325855192251221</v>
+        <v>0.4222315175084888</v>
       </c>
       <c r="BH217">
         <v>0.190686343841743</v>
       </c>
       <c r="BI217">
-        <v>0.4408061189457149</v>
+        <v>0.4516156088179972</v>
       </c>
     </row>
     <row r="218">
@@ -40800,13 +40800,13 @@
         <v>4.104591804701708</v>
       </c>
       <c r="BG218">
-        <v>0.4656832919781334</v>
+        <v>0.4638033490408052</v>
       </c>
       <c r="BH218">
         <v>0.2994306075379641</v>
       </c>
       <c r="BI218">
-        <v>0.6429919490262153</v>
+        <v>0.6455982005244648</v>
       </c>
     </row>
     <row r="219">
@@ -40985,13 +40985,13 @@
         <v>4.336369266112262</v>
       </c>
       <c r="BG219">
-        <v>0.3251220536099472</v>
+        <v>0.2931797171410452</v>
       </c>
       <c r="BH219">
         <v>0.3328509942091381</v>
       </c>
       <c r="BI219">
-        <v>1.02377242796474</v>
+        <v>1.135313852728112</v>
       </c>
     </row>
     <row r="220">
@@ -41170,13 +41170,13 @@
         <v>4.813031287318685</v>
       </c>
       <c r="BG220">
-        <v>0.4656040580242787</v>
+        <v>0.467080741735645</v>
       </c>
       <c r="BH220">
         <v>0.3604465844781323</v>
       </c>
       <c r="BI220">
-        <v>0.7741482881563222</v>
+        <v>0.7717008051728566</v>
       </c>
     </row>
     <row r="221">
@@ -41355,13 +41355,13 @@
         <v>3.606017035748265</v>
       </c>
       <c r="BG221">
-        <v>0.2485873948791967</v>
+        <v>0.2311562855457805</v>
       </c>
       <c r="BH221">
         <v>0.2055123071046157</v>
       </c>
       <c r="BI221">
-        <v>0.8267205471318697</v>
+        <v>0.8890621625078584</v>
       </c>
     </row>
     <row r="222">
@@ -41540,13 +41540,13 @@
         <v>8.023900634772524</v>
       </c>
       <c r="BG222">
-        <v>0.02240661849487639</v>
+        <v>0.02041485545812968</v>
       </c>
       <c r="BH222">
         <v>0.00488733767943291</v>
       </c>
       <c r="BI222">
-        <v>0.2181202701581442</v>
+        <v>0.2394010425132183</v>
       </c>
     </row>
     <row r="223">
@@ -41725,13 +41725,13 @@
         <v>4.933579180900571</v>
       </c>
       <c r="BG223">
-        <v>0.3082786122249515</v>
+        <v>0.3432979796131599</v>
       </c>
       <c r="BH223">
         <v>0.3571211185140149</v>
       </c>
       <c r="BI223">
-        <v>1.158436246798149</v>
+        <v>1.040265715855454</v>
       </c>
     </row>
     <row r="224">
@@ -41910,13 +41910,13 @@
         <v>3.835696849412849</v>
       </c>
       <c r="BG224">
-        <v>0.3409496167326848</v>
+        <v>0.3456906224604523</v>
       </c>
       <c r="BH224">
         <v>0.250666647226813</v>
       </c>
       <c r="BI224">
-        <v>0.735201434244003</v>
+        <v>0.7251184467854338</v>
       </c>
     </row>
     <row r="225">
@@ -42095,13 +42095,13 @@
         <v>6.820132538162994</v>
       </c>
       <c r="BG225">
-        <v>0.04217825623338752</v>
+        <v>0.04805266947912024</v>
       </c>
       <c r="BH225">
         <v>0.06576387490783128</v>
       </c>
       <c r="BI225">
-        <v>1.559189041479952</v>
+        <v>1.36857901175307</v>
       </c>
     </row>
     <row r="226">
@@ -42280,13 +42280,13 @@
         <v>2.811088403749365</v>
       </c>
       <c r="BG226">
-        <v>0.3155944949633907</v>
+        <v>0.3196441539138269</v>
       </c>
       <c r="BH226">
         <v>0.07409355855911637</v>
       </c>
       <c r="BI226">
-        <v>0.2347745595743402</v>
+        <v>0.2318001366578765</v>
       </c>
     </row>
     <row r="227">
@@ -42465,13 +42465,13 @@
         <v>3.531818851076197</v>
       </c>
       <c r="BG227">
-        <v>0.3432822836690903</v>
+        <v>0.3153736615284883</v>
       </c>
       <c r="BH227">
         <v>0.1909727524707198</v>
       </c>
       <c r="BI227">
-        <v>0.5563140352876744</v>
+        <v>0.6055443931023036</v>
       </c>
     </row>
     <row r="228">
@@ -42650,13 +42650,13 @@
         <v>5.547305176548716</v>
       </c>
       <c r="BG228">
-        <v>0.3995180657555951</v>
+        <v>0.4129923879799683</v>
       </c>
       <c r="BH228">
         <v>0.2833773235423127</v>
       </c>
       <c r="BI228">
-        <v>0.7092978962199638</v>
+        <v>0.6861562871131115</v>
       </c>
     </row>
     <row r="229">
@@ -42835,13 +42835,13 @@
         <v>6.293708472046858</v>
       </c>
       <c r="BG229">
-        <v>0.275626552446617</v>
+        <v>0.2730210248574179</v>
       </c>
       <c r="BH229">
         <v>0.1412775632713115</v>
       </c>
       <c r="BI229">
-        <v>0.5125687711044238</v>
+        <v>0.5174603800022071</v>
       </c>
     </row>
     <row r="230">
@@ -43020,13 +43020,13 @@
         <v>6.462974687684758</v>
       </c>
       <c r="BG230">
-        <v>0.2276096644466965</v>
+        <v>0.2088725163872619</v>
       </c>
       <c r="BH230">
         <v>0.1132454611033031</v>
       </c>
       <c r="BI230">
-        <v>0.4975424105061405</v>
+        <v>0.5421750216928465</v>
       </c>
     </row>
     <row r="231">
@@ -43205,13 +43205,13 @@
         <v>6.192798295221009</v>
       </c>
       <c r="BG231">
-        <v>0.3143413037345677</v>
+        <v>0.2646452547450164</v>
       </c>
       <c r="BH231">
         <v>0.1594038172783467</v>
       </c>
       <c r="BI231">
-        <v>0.5071042697365298</v>
+        <v>0.6023301548782009</v>
       </c>
     </row>
     <row r="232">
@@ -43390,13 +43390,13 @@
         <v>3.883675969418653</v>
       </c>
       <c r="BG232">
-        <v>0.4162520772333836</v>
+        <v>0.4166712684791201</v>
       </c>
       <c r="BH232">
-        <v>0.2598674949130236</v>
+        <v>0.2598674949130235</v>
       </c>
       <c r="BI232">
-        <v>0.6243031785936805</v>
+        <v>0.6236750997052386</v>
       </c>
     </row>
     <row r="233">
@@ -43575,13 +43575,13 @@
         <v>4.033854865968259</v>
       </c>
       <c r="BG233">
-        <v>0.4676242157117145</v>
+        <v>0.466284861782033</v>
       </c>
       <c r="BH233">
         <v>0.2873919951031398</v>
       </c>
       <c r="BI233">
-        <v>0.6145789406259364</v>
+        <v>0.6163442536066773</v>
       </c>
     </row>
     <row r="234">
@@ -43760,13 +43760,13 @@
         <v>3.033350389684033</v>
       </c>
       <c r="BG234">
-        <v>0.2137959197948409</v>
+        <v>0.2260774376927231</v>
       </c>
       <c r="BH234">
         <v>0.1038108279708473</v>
       </c>
       <c r="BI234">
-        <v>0.4855603795922035</v>
+        <v>0.4591826103051623</v>
       </c>
     </row>
     <row r="235">
@@ -43945,13 +43945,13 @@
         <v>4.118727499671163</v>
       </c>
       <c r="BG235">
-        <v>0.3646298294091532</v>
+        <v>0.3789475955289682</v>
       </c>
       <c r="BH235">
         <v>0.3017481972354911</v>
       </c>
       <c r="BI235">
-        <v>0.8275466593735471</v>
+        <v>0.796279487706696</v>
       </c>
     </row>
     <row r="236">
@@ -44130,13 +44130,13 @@
         <v>6.186934983397925</v>
       </c>
       <c r="BG236">
-        <v>0.4671984984770829</v>
+        <v>0.4673890341025529</v>
       </c>
       <c r="BH236">
         <v>0.1604847557896742</v>
       </c>
       <c r="BI236">
-        <v>0.3435044340099615</v>
+        <v>0.343364401130689</v>
       </c>
     </row>
     <row r="237">
@@ -44315,13 +44315,13 @@
         <v>3.907584283855992</v>
       </c>
       <c r="BG237">
-        <v>0.4622451041772837</v>
+        <v>0.4645205909874086</v>
       </c>
       <c r="BH237">
         <v>0.2643919371732954</v>
       </c>
       <c r="BI237">
-        <v>0.5719734720476214</v>
+        <v>0.5691716197365772</v>
       </c>
     </row>
     <row r="238">
@@ -44500,13 +44500,13 @@
         <v>4.433966038308608</v>
       </c>
       <c r="BG238">
-        <v>0.345424701635716</v>
+        <v>0.3514832476190716</v>
       </c>
       <c r="BH238">
         <v>0.3434760324462707</v>
       </c>
       <c r="BI238">
-        <v>0.9943586281461121</v>
+        <v>0.9772187857400277</v>
       </c>
     </row>
     <row r="239">
@@ -44685,13 +44685,13 @@
         <v>4.504114717998849</v>
       </c>
       <c r="BG239">
-        <v>0.357688023430176</v>
+        <v>0.3266342069610414</v>
       </c>
       <c r="BH239">
         <v>0.3496368828525376</v>
       </c>
       <c r="BI239">
-        <v>0.9774911653445114</v>
+        <v>1.070423352488124</v>
       </c>
     </row>
     <row r="240">
@@ -44870,13 +44870,13 @@
         <v>4.743461266526942</v>
       </c>
       <c r="BG240">
-        <v>0.4583223759124543</v>
+        <v>0.4653400024762884</v>
       </c>
       <c r="BH240">
         <v>0.3604269619013483</v>
       </c>
       <c r="BI240">
-        <v>0.7864048993544985</v>
+        <v>0.774545407623137</v>
       </c>
     </row>
     <row r="241">
@@ -45055,13 +45055,13 @@
         <v>7.426039811808024</v>
       </c>
       <c r="BG241">
-        <v>0.02660081586719684</v>
+        <v>0.0205869650228474</v>
       </c>
       <c r="BH241">
         <v>0.02060771232176214</v>
       </c>
       <c r="BI241">
-        <v>0.7747022656991068</v>
+        <v>1.001007788126696</v>
       </c>
     </row>
     <row r="242">
@@ -45240,13 +45240,13 @@
         <v>4.36925489601925</v>
       </c>
       <c r="BG242">
-        <v>0.4568041125171828</v>
+        <v>0.4601707961743815</v>
       </c>
       <c r="BH242">
         <v>0.3366865034749013</v>
       </c>
       <c r="BI242">
-        <v>0.7370478816830632</v>
+        <v>0.7316555206760971</v>
       </c>
     </row>
     <row r="243">
@@ -45425,13 +45425,13 @@
         <v>3.559469494162235</v>
       </c>
       <c r="BG243">
-        <v>0.2937829449224838</v>
+        <v>0.2653127202933909</v>
       </c>
       <c r="BH243">
-        <v>0.1963699773015096</v>
+        <v>0.1963699773015095</v>
       </c>
       <c r="BI243">
-        <v>0.6684185746498077</v>
+        <v>0.7401453540725735</v>
       </c>
     </row>
     <row r="244">
@@ -45610,13 +45610,13 @@
         <v>4.712966022815814</v>
       </c>
       <c r="BG244">
-        <v>0.4681170558117283</v>
+        <v>0.4671863550588089</v>
       </c>
       <c r="BH244">
         <v>0.3599693163416156</v>
       </c>
       <c r="BI244">
-        <v>0.7689728709359213</v>
+        <v>0.7705047727609747</v>
       </c>
     </row>
     <row r="245">
@@ -45795,13 +45795,13 @@
         <v>5.783557115640898</v>
       </c>
       <c r="BG245">
-        <v>0.265862941063634</v>
+        <v>0.280385363499528</v>
       </c>
       <c r="BH245">
         <v>0.238818455442645</v>
       </c>
       <c r="BI245">
-        <v>0.8982765875048531</v>
+        <v>0.8517507920596111</v>
       </c>
     </row>
     <row r="246">
@@ -45980,13 +45980,13 @@
         <v>3.803276310296428</v>
       </c>
       <c r="BG246">
-        <v>0.4226272524977733</v>
+        <v>0.4426192351810471</v>
       </c>
       <c r="BH246">
         <v>0.2443742081806819</v>
       </c>
       <c r="BI246">
-        <v>0.578226337124271</v>
+        <v>0.5521093272883273</v>
       </c>
     </row>
     <row r="247">
@@ -46165,13 +46165,13 @@
         <v>4.728672277184938</v>
       </c>
       <c r="BG247">
-        <v>0.3552859382004152</v>
+        <v>0.3542407083227869</v>
       </c>
       <c r="BH247">
         <v>0.360239132962057</v>
       </c>
       <c r="BI247">
-        <v>1.013941432038461</v>
+        <v>1.0169331883613</v>
       </c>
     </row>
     <row r="248">
@@ -46350,13 +46350,13 @@
         <v>4.05299365703396</v>
       </c>
       <c r="BG248">
-        <v>0.291943658173405</v>
+        <v>0.3738730726330561</v>
       </c>
       <c r="BH248">
-        <v>0.2907178681532964</v>
+        <v>0.2907178681532963</v>
       </c>
       <c r="BI248">
-        <v>0.9958012788228454</v>
+        <v>0.7775843981110298</v>
       </c>
     </row>
     <row r="249">
@@ -46535,13 +46535,13 @@
         <v>4.087419715584774</v>
       </c>
       <c r="BG249">
-        <v>0.4681194965619062</v>
+        <v>0.4656406854030978</v>
       </c>
       <c r="BH249">
         <v>0.2965739781323252</v>
       </c>
       <c r="BI249">
-        <v>0.6335433159919774</v>
+        <v>0.6369159470581609</v>
       </c>
     </row>
     <row r="250">
@@ -46720,13 +46720,13 @@
         <v>4.144809468637538</v>
       </c>
       <c r="BG250">
-        <v>0.1925150082380069</v>
+        <v>0.1771882674214271</v>
       </c>
       <c r="BH250">
         <v>0.3059404638109315</v>
       </c>
       <c r="BI250">
-        <v>1.589177210707107</v>
+        <v>1.726640641974778</v>
       </c>
     </row>
     <row r="251">
@@ -46905,13 +46905,13 @@
         <v>4.381378299732056</v>
       </c>
       <c r="BG251">
-        <v>0.4496030867047363</v>
+        <v>0.4367296539240264</v>
       </c>
       <c r="BH251">
         <v>0.3380362350049619</v>
       </c>
       <c r="BI251">
-        <v>0.7518547914840215</v>
+        <v>0.7740171338669087</v>
       </c>
     </row>
     <row r="252">
@@ -47090,13 +47090,13 @@
         <v>4.146863749835582</v>
       </c>
       <c r="BG252">
-        <v>0.3863826087384845</v>
+        <v>0.3862029392106271</v>
       </c>
       <c r="BH252">
         <v>0.3062658889777098</v>
       </c>
       <c r="BI252">
-        <v>0.7926492602181272</v>
+        <v>0.7930180169102201</v>
       </c>
     </row>
     <row r="253">
@@ -47275,13 +47275,13 @@
         <v>5.858576616269458</v>
       </c>
       <c r="BG253">
-        <v>0.4145394763895726</v>
+        <v>0.3820900529582</v>
       </c>
       <c r="BH253">
         <v>0.2240434926506389</v>
       </c>
       <c r="BI253">
-        <v>0.5404635876948161</v>
+        <v>0.5863630600065605</v>
       </c>
     </row>
     <row r="254">
@@ -47460,13 +47460,13 @@
         <v>3.598325458054636</v>
       </c>
       <c r="BG254">
-        <v>0.4467444765030359</v>
+        <v>0.4282172077868041</v>
       </c>
       <c r="BH254">
-        <v>0.2039976851130866</v>
+        <v>0.2039976851130865</v>
       </c>
       <c r="BI254">
-        <v>0.4566316895732236</v>
+        <v>0.4763883407848724</v>
       </c>
     </row>
     <row r="255">
@@ -47645,13 +47645,13 @@
         <v>5.895100294169921</v>
       </c>
       <c r="BG255">
-        <v>0.4562258355077982</v>
+        <v>0.4399024048185675</v>
       </c>
       <c r="BH255">
         <v>0.2168234673697528</v>
       </c>
       <c r="BI255">
-        <v>0.4752546885654105</v>
+        <v>0.4928899342097915</v>
       </c>
     </row>
     <row r="256">
@@ -47830,13 +47830,13 @@
         <v>6.969393138702631</v>
       </c>
       <c r="BG256">
-        <v>0.1548657936569239</v>
+        <v>0.146837303191177</v>
       </c>
       <c r="BH256">
         <v>0.05080830253757627</v>
       </c>
       <c r="BI256">
-        <v>0.3280795670742665</v>
+        <v>0.3460176769347613</v>
       </c>
     </row>
     <row r="257">
@@ -48015,13 +48015,13 @@
         <v>4.790582641757136</v>
       </c>
       <c r="BG257">
-        <v>0.2577523538929528</v>
+        <v>0.2743002036228084</v>
       </c>
       <c r="BH257">
         <v>0.360596054593313</v>
       </c>
       <c r="BI257">
-        <v>1.399001984451604</v>
+        <v>1.314603670834931</v>
       </c>
     </row>
     <row r="258">
@@ -48200,13 +48200,13 @@
         <v>3.48615571242742</v>
       </c>
       <c r="BG258">
-        <v>0.365434560033717</v>
+        <v>0.3531664103188724</v>
       </c>
       <c r="BH258">
-        <v>0.1821331609781952</v>
+        <v>0.1821331609781953</v>
       </c>
       <c r="BI258">
-        <v>0.4984015769099413</v>
+        <v>0.5157148461931815</v>
       </c>
     </row>
     <row r="259">
@@ -48385,13 +48385,13 @@
         <v>4.881284502772522</v>
       </c>
       <c r="BG259">
-        <v>0.4613428931239534</v>
+        <v>0.4508875119691778</v>
       </c>
       <c r="BH259">
         <v>0.3590831837648463</v>
       </c>
       <c r="BI259">
-        <v>0.7783433734794046</v>
+        <v>0.7963919475094997</v>
       </c>
     </row>
     <row r="260">
@@ -48570,13 +48570,13 @@
         <v>3.566254705040627</v>
       </c>
       <c r="BG260">
-        <v>0.08858251546577896</v>
+        <v>0.08403436981954795</v>
       </c>
       <c r="BH260">
         <v>0.1976986775586783</v>
       </c>
       <c r="BI260">
-        <v>2.231802478391494</v>
+        <v>2.352593087604614</v>
       </c>
     </row>
     <row r="261">
@@ -48755,13 +48755,13 @@
         <v>4.781852386992929</v>
       </c>
       <c r="BG261">
-        <v>0.323008663465086</v>
+        <v>0.2948474935104466</v>
       </c>
       <c r="BH261">
         <v>0.3606140956758297</v>
       </c>
       <c r="BI261">
-        <v>1.116422364054667</v>
+        <v>1.223052946397365</v>
       </c>
     </row>
     <row r="262">
@@ -48940,13 +48940,13 @@
         <v>4.293210465983042</v>
       </c>
       <c r="BG262">
-        <v>0.3756020493764223</v>
+        <v>0.3744191405630084</v>
       </c>
       <c r="BH262">
         <v>0.3274441860119131</v>
       </c>
       <c r="BI262">
-        <v>0.8717848759226386</v>
+        <v>0.8745391208353831</v>
       </c>
     </row>
     <row r="263">
@@ -49125,13 +49125,13 @@
         <v>4.629446277008207</v>
       </c>
       <c r="BG263">
-        <v>0.4404167615977679</v>
+        <v>0.4435443867574448</v>
       </c>
       <c r="BH263">
         <v>0.3573260673404126</v>
       </c>
       <c r="BI263">
-        <v>0.8113362126456896</v>
+        <v>0.805615126712941</v>
       </c>
     </row>
     <row r="264">
@@ -49310,13 +49310,13 @@
         <v>6.161681044859334</v>
       </c>
       <c r="BG264">
-        <v>0.3379097002745785</v>
+        <v>0.3535713046734871</v>
       </c>
       <c r="BH264">
         <v>0.1651718465642567</v>
       </c>
       <c r="BI264">
-        <v>0.488804690809531</v>
+        <v>0.4671528610524208</v>
       </c>
     </row>
     <row r="265">
@@ -49495,13 +49495,13 @@
         <v>3.539593233443846</v>
       </c>
       <c r="BG265">
-        <v>0.3774204690331028</v>
+        <v>0.3523324976025222</v>
       </c>
       <c r="BH265">
         <v>0.1924872429022619</v>
       </c>
       <c r="BI265">
-        <v>0.510007428572665</v>
+        <v>0.5463227042979528</v>
       </c>
     </row>
     <row r="266">
@@ -49680,13 +49680,13 @@
         <v>5.144984992273444</v>
       </c>
       <c r="BG266">
-        <v>0.4660179066514775</v>
+        <v>0.4673836654232039</v>
       </c>
       <c r="BH266">
         <v>0.3414324837032593</v>
       </c>
       <c r="BI266">
-        <v>0.7326595798787784</v>
+        <v>0.7305186487296276</v>
       </c>
     </row>
     <row r="267">
@@ -49865,13 +49865,13 @@
         <v>3.811193909845144</v>
       </c>
       <c r="BG267">
-        <v>0.4298696172943168</v>
+        <v>0.4188874011786622</v>
       </c>
       <c r="BH267">
         <v>0.2459156784639581</v>
       </c>
       <c r="BI267">
-        <v>0.57207038732302</v>
+        <v>0.5870686914240016</v>
       </c>
     </row>
     <row r="268">
@@ -50050,13 +50050,13 @@
         <v>4.475725708012506</v>
       </c>
       <c r="BG268">
-        <v>0.3340319537298518</v>
+        <v>0.3534239730032907</v>
       </c>
       <c r="BH268">
         <v>0.347298567844313</v>
       </c>
       <c r="BI268">
-        <v>1.039716601858966</v>
+        <v>0.9826683936946159</v>
       </c>
     </row>
     <row r="269">
@@ -50235,13 +50235,13 @@
         <v>4.829488117007296</v>
       </c>
       <c r="BG269">
-        <v>0.4481019511886654</v>
+        <v>0.4530524839097732</v>
       </c>
       <c r="BH269">
         <v>0.3602428066144729</v>
       </c>
       <c r="BI269">
-        <v>0.8039304574748415</v>
+        <v>0.7951458592735944</v>
       </c>
     </row>
     <row r="270">
@@ -50420,13 +50420,13 @@
         <v>3.959231900596604</v>
       </c>
       <c r="BG270">
-        <v>0.4092605551454007</v>
+        <v>0.405559958100747</v>
       </c>
       <c r="BH270">
         <v>0.2739993294419336</v>
       </c>
       <c r="BI270">
-        <v>0.669498504063232</v>
+        <v>0.6756074508072324</v>
       </c>
     </row>
     <row r="271">
@@ -50605,13 +50605,13 @@
         <v>5.147305176548716</v>
       </c>
       <c r="BG271">
-        <v>0.4671974905339655</v>
+        <v>0.4646501359425345</v>
       </c>
       <c r="BH271">
         <v>0.3411950510914296</v>
       </c>
       <c r="BI271">
-        <v>0.7303015491403299</v>
+        <v>0.7343052862759236</v>
       </c>
     </row>
     <row r="272">
@@ -50790,13 +50790,13 @@
         <v>4.060000249558057</v>
       </c>
       <c r="BG272">
-        <v>0.3387680919022892</v>
+        <v>0.3396825306991529</v>
       </c>
       <c r="BH272">
         <v>0.2919232020787598</v>
       </c>
       <c r="BI272">
-        <v>0.8617198876066495</v>
+        <v>0.8594001036141237</v>
       </c>
     </row>
     <row r="273">
@@ -50975,13 +50975,13 @@
         <v>4.956323227486952</v>
       </c>
       <c r="BG273">
-        <v>0.06689142650558159</v>
+        <v>0.05950840540834022</v>
       </c>
       <c r="BH273">
         <v>0.3560227993481053</v>
       </c>
       <c r="BI273">
-        <v>5.322398070227996</v>
+        <v>5.982731294934143</v>
       </c>
     </row>
     <row r="274">
@@ -51160,13 +51160,13 @@
         <v>5.739278054338361</v>
       </c>
       <c r="BG274">
-        <v>0.2779915005547776</v>
+        <v>0.2898532779374918</v>
       </c>
       <c r="BH274">
         <v>0.2474577731071414</v>
       </c>
       <c r="BI274">
-        <v>0.8901630899264865</v>
+        <v>0.8537346027893007</v>
       </c>
     </row>
     <row r="275">
@@ -51345,13 +51345,13 @@
         <v>6.10199827220928</v>
       </c>
       <c r="BG275">
-        <v>0.1307960747264718</v>
+        <v>0.1277306608020213</v>
       </c>
       <c r="BH275">
         <v>0.176434375657799</v>
       </c>
       <c r="BI275">
-        <v>1.348927144998568</v>
+        <v>1.381300108759846</v>
       </c>
     </row>
     <row r="276">
@@ -51530,13 +51530,13 @@
         <v>4.412375163192651</v>
       </c>
       <c r="BG276">
-        <v>0.4174165060954497</v>
+        <v>0.4182190553670798</v>
       </c>
       <c r="BH276">
         <v>0.3413254208540492</v>
       </c>
       <c r="BI276">
-        <v>0.817709448164465</v>
+        <v>0.8161402893382287</v>
       </c>
     </row>
     <row r="277">
@@ -51715,13 +51715,13 @@
         <v>5.094339527974824</v>
       </c>
       <c r="BG277">
-        <v>0.4667114586114428</v>
+        <v>0.4663706045803211</v>
       </c>
       <c r="BH277">
         <v>0.3462768832524692</v>
       </c>
       <c r="BI277">
-        <v>0.7419506782257077</v>
+        <v>0.7424929441341566</v>
       </c>
     </row>
     <row r="278">
@@ -51900,13 +51900,13 @@
         <v>2.656082041483645</v>
       </c>
       <c r="BG278">
-        <v>0.08788762202758214</v>
+        <v>0.08432439081399971</v>
       </c>
       <c r="BH278">
         <v>0.05718226359057044</v>
       </c>
       <c r="BI278">
-        <v>0.65062931811518</v>
+        <v>0.6781224630095629</v>
       </c>
     </row>
     <row r="279">
@@ -52085,13 +52085,13 @@
         <v>4.29319180886198</v>
       </c>
       <c r="BG279">
-        <v>0.380769325186395</v>
+        <v>0.3573371499749807</v>
       </c>
       <c r="BH279">
         <v>0.3274417600337904</v>
       </c>
       <c r="BI279">
-        <v>0.85994784341806</v>
+        <v>0.9163384217306164</v>
       </c>
     </row>
     <row r="280">
@@ -52270,13 +52270,13 @@
         <v>5.513323782809363</v>
       </c>
       <c r="BG280">
-        <v>0.201486941006119</v>
+        <v>0.1617839619186887</v>
       </c>
       <c r="BH280">
         <v>0.2893492488009526</v>
       </c>
       <c r="BI280">
-        <v>1.436069490936215</v>
+        <v>1.788491549900213</v>
       </c>
     </row>
     <row r="281">
@@ -52455,13 +52455,13 @@
         <v>5.693766252022712</v>
       </c>
       <c r="BG281">
-        <v>0.1604801417862317</v>
+        <v>0.1768038438002046</v>
       </c>
       <c r="BH281">
         <v>0.256235272566264</v>
       </c>
       <c r="BI281">
-        <v>1.596679001614937</v>
+        <v>1.449263019732874</v>
       </c>
     </row>
     <row r="282">
@@ -52640,13 +52640,13 @@
         <v>6.044409880470094</v>
       </c>
       <c r="BG282">
-        <v>0.1593060414738029</v>
+        <v>0.1747620490470451</v>
       </c>
       <c r="BH282">
         <v>0.1875110432349105</v>
       </c>
       <c r="BI282">
-        <v>1.177049165870748</v>
+        <v>1.072950587712744</v>
       </c>
     </row>
     <row r="283">
@@ -52825,13 +52825,13 @@
         <v>5.091974289430873</v>
       </c>
       <c r="BG283">
-        <v>0.4132512578209683</v>
+        <v>0.424987634855073</v>
       </c>
       <c r="BH283">
         <v>0.3464870492635849</v>
       </c>
       <c r="BI283">
-        <v>0.8384416083584977</v>
+        <v>0.8152873656706319</v>
       </c>
     </row>
     <row r="284">
@@ -53010,13 +53010,13 @@
         <v>5.206458897120901</v>
       </c>
       <c r="BG284">
-        <v>0.4227171280786746</v>
+        <v>0.4395827792101583</v>
       </c>
       <c r="BH284">
         <v>0.3346994850591831</v>
       </c>
       <c r="BI284">
-        <v>0.791781223960459</v>
+        <v>0.7614026319697296</v>
       </c>
     </row>
     <row r="285">
@@ -53195,13 +53195,13 @@
         <v>4.826146582510878</v>
       </c>
       <c r="BG285">
-        <v>0.3105966381731778</v>
+        <v>0.3349637568110784</v>
       </c>
       <c r="BH285">
         <v>0.3602906248390758</v>
       </c>
       <c r="BI285">
-        <v>1.159995249652993</v>
+        <v>1.075610771353636</v>
       </c>
     </row>
     <row r="286">
@@ -53380,13 +53380,13 @@
         <v>3.476843470907604</v>
       </c>
       <c r="BG286">
-        <v>0.4594469429394659</v>
+        <v>0.4624556993571697</v>
       </c>
       <c r="BH286">
         <v>0.1803436085859538</v>
       </c>
       <c r="BI286">
-        <v>0.3925232529182697</v>
+        <v>0.3899694799667039</v>
       </c>
     </row>
     <row r="287">
@@ -53565,13 +53565,13 @@
         <v>4.634507510287402</v>
       </c>
       <c r="BG287">
-        <v>0.4041707943887629</v>
+        <v>0.4074852766674325</v>
       </c>
       <c r="BH287">
         <v>0.3575436923401607</v>
       </c>
       <c r="BI287">
-        <v>0.8846351525247701</v>
+        <v>0.8774395366239665</v>
       </c>
     </row>
     <row r="288">
@@ -53750,13 +53750,13 @@
         <v>4.751114078465453</v>
       </c>
       <c r="BG288">
-        <v>0.3121908084423217</v>
+        <v>0.309543211956438</v>
       </c>
       <c r="BH288">
         <v>0.3604989005424212</v>
       </c>
       <c r="BI288">
-        <v>1.154738995491677</v>
+        <v>1.164615751913675</v>
       </c>
     </row>
     <row r="289">
@@ -53935,13 +53935,13 @@
         <v>3.766342108555756</v>
       </c>
       <c r="BG289">
-        <v>0.3719413493351361</v>
+        <v>0.3604901602557601</v>
       </c>
       <c r="BH289">
         <v>0.2371496624571654</v>
       </c>
       <c r="BI289">
-        <v>0.6375996185449194</v>
+        <v>0.6578533580192946</v>
       </c>
     </row>
     <row r="290">
@@ -54120,13 +54120,13 @@
         <v>2.572737722903367</v>
       </c>
       <c r="BG290">
-        <v>0.03194362872344912</v>
+        <v>0.02664143209032831</v>
       </c>
       <c r="BH290">
-        <v>0.04934430869859647</v>
+        <v>0.04934430869859643</v>
       </c>
       <c r="BI290">
-        <v>1.54473084838899</v>
+        <v>1.852164272975025</v>
       </c>
     </row>
     <row r="291">
@@ -54305,13 +54305,13 @@
         <v>4.971065139962114</v>
       </c>
       <c r="BG291">
-        <v>0.4304346623577621</v>
+        <v>0.4443610602537517</v>
       </c>
       <c r="BH291">
         <v>0.3552325025847105</v>
       </c>
       <c r="BI291">
-        <v>0.8252878628288857</v>
+        <v>0.7994231141267317</v>
       </c>
     </row>
     <row r="292">
@@ -54490,13 +54490,13 @@
         <v>2.345421596667961</v>
       </c>
       <c r="BG292">
-        <v>0.2412851605757401</v>
+        <v>0.2273697695156333</v>
       </c>
       <c r="BH292">
-        <v>0.03206900294487885</v>
+        <v>0.03206900294487888</v>
       </c>
       <c r="BI292">
-        <v>0.132909138997018</v>
+        <v>0.1410433894232976</v>
       </c>
     </row>
     <row r="293">
@@ -54675,13 +54675,13 @@
         <v>3.887835886824462</v>
       </c>
       <c r="BG293">
-        <v>0.3531041075726277</v>
+        <v>0.3611216922122974</v>
       </c>
       <c r="BH293">
         <v>0.2606578701824631</v>
       </c>
       <c r="BI293">
-        <v>0.7381898556046961</v>
+        <v>0.7218006445019279</v>
       </c>
     </row>
     <row r="294">
@@ -54860,13 +54860,13 @@
         <v>4.554419143952431</v>
       </c>
       <c r="BG294">
-        <v>0.4677831024342631</v>
+        <v>0.4673649590535554</v>
       </c>
       <c r="BH294">
         <v>0.353247276478409</v>
       </c>
       <c r="BI294">
-        <v>0.7551518527286913</v>
+        <v>0.7558274740873981</v>
       </c>
     </row>
     <row r="295">
@@ -55045,13 +55045,13 @@
         <v>4.132277223902568</v>
       </c>
       <c r="BG295">
-        <v>0.3506149965961223</v>
+        <v>0.3519680734461612</v>
       </c>
       <c r="BH295">
         <v>0.3039399672226543</v>
       </c>
       <c r="BI295">
-        <v>0.8668766885997362</v>
+        <v>0.8635441398043351</v>
       </c>
     </row>
     <row r="296">
@@ -55230,13 +55230,13 @@
         <v>3.553504735083068</v>
       </c>
       <c r="BG296">
-        <v>0.4591807210654827</v>
+        <v>0.4423194698637545</v>
       </c>
       <c r="BH296">
-        <v>0.1952032528991694</v>
+        <v>0.1952032528991693</v>
       </c>
       <c r="BI296">
-        <v>0.4251120396479622</v>
+        <v>0.4413173423256652</v>
       </c>
     </row>
     <row r="297">
@@ -55415,13 +55415,13 @@
         <v>6.18906462556273</v>
       </c>
       <c r="BG297">
-        <v>0.461851633009187</v>
+        <v>0.4634017054824214</v>
       </c>
       <c r="BH297">
         <v>0.1600918178061617</v>
       </c>
       <c r="BI297">
-        <v>0.3466304032814305</v>
+        <v>0.3454709292437738</v>
       </c>
     </row>
     <row r="298">
@@ -55600,13 +55600,13 @@
         <v>4.197820308722164</v>
       </c>
       <c r="BG298">
-        <v>0.3742671206822058</v>
+        <v>0.3714287644662062</v>
       </c>
       <c r="BH298">
         <v>0.3141029757922579</v>
       </c>
       <c r="BI298">
-        <v>0.8392481156766269</v>
+        <v>0.8456614183978636</v>
       </c>
     </row>
     <row r="299">
@@ -55785,13 +55785,13 @@
         <v>5.428307030021367</v>
       </c>
       <c r="BG299">
-        <v>0.4026048653505107</v>
+        <v>0.4248538141903066</v>
       </c>
       <c r="BH299">
         <v>0.303589939468514</v>
       </c>
       <c r="BI299">
-        <v>0.7540642590203336</v>
+        <v>0.7145750592991631</v>
       </c>
     </row>
     <row r="300">
@@ -55970,13 +55970,13 @@
         <v>4.387001473138762</v>
       </c>
       <c r="BG300">
-        <v>0.4676447102166114</v>
+        <v>0.4673446704142142</v>
       </c>
       <c r="BH300">
         <v>0.3386503069564098</v>
       </c>
       <c r="BI300">
-        <v>0.7241615259574905</v>
+        <v>0.7246264446671858</v>
       </c>
     </row>
     <row r="301">
@@ -56155,13 +56155,13 @@
         <v>6.058954827167871</v>
       </c>
       <c r="BG301">
-        <v>0.1065015414659821</v>
+        <v>0.1147525588894904</v>
       </c>
       <c r="BH301">
         <v>0.1846966976686132</v>
       </c>
       <c r="BI301">
-        <v>1.734216191862421</v>
+        <v>1.609521386329004</v>
       </c>
     </row>
     <row r="302">
@@ -56340,13 +56340,13 @@
         <v>5.749305758750292</v>
       </c>
       <c r="BG302">
-        <v>0.1304809390061757</v>
+        <v>0.1399080924175181</v>
       </c>
       <c r="BH302">
-        <v>0.2455087306203046</v>
+        <v>0.2455087306203045</v>
       </c>
       <c r="BI302">
-        <v>1.88156777909672</v>
+        <v>1.754785776705822</v>
       </c>
     </row>
     <row r="303">
@@ -56525,13 +56525,13 @@
         <v>3.976910230970188</v>
       </c>
       <c r="BG303">
-        <v>0.1837686234365319</v>
+        <v>0.1635535742845632</v>
       </c>
       <c r="BH303">
         <v>0.2772285465145417</v>
       </c>
       <c r="BI303">
-        <v>1.508573886718415</v>
+        <v>1.69503202682809</v>
       </c>
     </row>
     <row r="304">
@@ -56710,13 +56710,13 @@
         <v>4.992756630454971</v>
       </c>
       <c r="BG304">
-        <v>0.4601881016736866</v>
+        <v>0.4495276817052906</v>
       </c>
       <c r="BH304">
         <v>0.3539585348216007</v>
       </c>
       <c r="BI304">
-        <v>0.7691605531178816</v>
+        <v>0.7874009749051565</v>
       </c>
     </row>
     <row r="305">
@@ -56895,13 +56895,13 @@
         <v>3.431698798377363</v>
       </c>
       <c r="BG305">
-        <v>0.3323062962417742</v>
+        <v>0.2995980691578625</v>
       </c>
       <c r="BH305">
         <v>0.1717416074958353</v>
       </c>
       <c r="BI305">
-        <v>0.5168171937701784</v>
+        <v>0.5732400344854768</v>
       </c>
     </row>
     <row r="306">
@@ -57080,13 +57080,13 @@
         <v>3.532253225065823</v>
       </c>
       <c r="BG306">
-        <v>0.4386601533598233</v>
+        <v>0.4231104023742692</v>
       </c>
       <c r="BH306">
         <v>0.1910573045009213</v>
       </c>
       <c r="BI306">
-        <v>0.4355474346998669</v>
+        <v>0.4515542596655859</v>
       </c>
     </row>
     <row r="307">
@@ -57265,13 +57265,13 @@
         <v>3.58275506371294</v>
       </c>
       <c r="BG307">
-        <v>0.4206527426516236</v>
+        <v>0.4127578989852734</v>
       </c>
       <c r="BH307">
-        <v>0.2009359196104389</v>
+        <v>0.200935919610439</v>
       </c>
       <c r="BI307">
-        <v>0.4776764757168126</v>
+        <v>0.4868130206700371</v>
       </c>
     </row>
     <row r="308">
@@ -57450,13 +57450,13 @@
         <v>5.945789439653735</v>
       </c>
       <c r="BG308">
-        <v>0.06971359710024198</v>
+        <v>0.08969226703845684</v>
       </c>
       <c r="BH308">
         <v>0.206813266114778</v>
       </c>
       <c r="BI308">
-        <v>2.966613038449283</v>
+        <v>2.305809329427518</v>
       </c>
     </row>
     <row r="309">
@@ -57635,13 +57635,13 @@
         <v>3.006246244589537</v>
       </c>
       <c r="BG309">
-        <v>0.3911615407287097</v>
+        <v>0.3656818326042599</v>
       </c>
       <c r="BH309">
-        <v>0.0998436786810003</v>
+        <v>0.09984367868100037</v>
       </c>
       <c r="BI309">
-        <v>0.2552492213191453</v>
+        <v>0.2730342876755679</v>
       </c>
     </row>
     <row r="310">
@@ -57820,13 +57820,13 @@
         <v>3.646402315689272</v>
       </c>
       <c r="BG310">
-        <v>0.3497322042357632</v>
+        <v>0.3238835810803559</v>
       </c>
       <c r="BH310">
-        <v>0.2134820406750045</v>
+        <v>0.2134820406750043</v>
       </c>
       <c r="BI310">
-        <v>0.6104157354954104</v>
+        <v>0.6591320250409335</v>
       </c>
     </row>
     <row r="311">
@@ -58005,13 +58005,13 @@
         <v>3.689055162294777</v>
       </c>
       <c r="BG311">
-        <v>0.466656306052015</v>
+        <v>0.4660837030142154</v>
       </c>
       <c r="BH311">
         <v>0.2219137475798398</v>
       </c>
       <c r="BI311">
-        <v>0.4755400167143665</v>
+        <v>0.4761242372232686</v>
       </c>
     </row>
     <row r="312">
@@ -58190,13 +58190,13 @@
         <v>3.607427138442229</v>
       </c>
       <c r="BG312">
-        <v>0.3640694230525595</v>
+        <v>0.3863635906612901</v>
       </c>
       <c r="BH312">
         <v>0.2057901222121265</v>
       </c>
       <c r="BI312">
-        <v>0.5652496726768984</v>
+        <v>0.5326333204945668</v>
       </c>
     </row>
     <row r="313">
@@ -58375,13 +58375,13 @@
         <v>4.208666625908451</v>
       </c>
       <c r="BG313">
-        <v>0.4619246816318682</v>
+        <v>0.4563649086050535</v>
       </c>
       <c r="BH313">
         <v>0.3157103748096738</v>
       </c>
       <c r="BI313">
-        <v>0.6834672130840581</v>
+        <v>0.6917937134445525</v>
       </c>
     </row>
     <row r="314">
@@ -58560,13 +58560,13 @@
         <v>3.662815125708175</v>
       </c>
       <c r="BG314">
-        <v>0.4227020947505034</v>
+        <v>0.3995214526669913</v>
       </c>
       <c r="BH314">
         <v>0.2167260891571337</v>
       </c>
       <c r="BI314">
-        <v>0.5127159099721389</v>
+        <v>0.542464209895079</v>
       </c>
     </row>
     <row r="315">
@@ -58745,13 +58745,13 @@
         <v>3.930642396572253</v>
       </c>
       <c r="BG315">
-        <v>0.2111453601803767</v>
+        <v>0.1968934554776604</v>
       </c>
       <c r="BH315">
         <v>0.2687111784224473</v>
       </c>
       <c r="BI315">
-        <v>1.272635961277546</v>
+        <v>1.364754241173523</v>
       </c>
     </row>
     <row r="316">
@@ -58930,13 +58930,13 @@
         <v>5.521972048244026</v>
       </c>
       <c r="BG316">
-        <v>0.3901864908427324</v>
+        <v>0.3801613235743219</v>
       </c>
       <c r="BH316">
-        <v>0.2878433213986084</v>
+        <v>0.2878433213986086</v>
       </c>
       <c r="BI316">
-        <v>0.7377070404895844</v>
+        <v>0.7571609828487325</v>
       </c>
     </row>
     <row r="317">
@@ -59115,13 +59115,13 @@
         <v>3.51480084841659</v>
       </c>
       <c r="BG317">
-        <v>0.3175127286641779</v>
+        <v>0.2950789481538937</v>
       </c>
       <c r="BH317">
-        <v>0.1876666663015245</v>
+        <v>0.1876666663015246</v>
       </c>
       <c r="BI317">
-        <v>0.5910524188780255</v>
+        <v>0.6359879872001239</v>
       </c>
     </row>
     <row r="318">
@@ -59300,13 +59300,13 @@
         <v>5.284119577611639</v>
       </c>
       <c r="BG318">
-        <v>0.4031770107817899</v>
+        <v>0.4047409216320171</v>
       </c>
       <c r="BH318">
         <v>0.3249454816952704</v>
       </c>
       <c r="BI318">
-        <v>0.8059623267338015</v>
+        <v>0.8028481043750371</v>
       </c>
     </row>
     <row r="319">
@@ -59485,13 +59485,13 @@
         <v>4.495100085568848</v>
       </c>
       <c r="BG319">
-        <v>0.4225215354705916</v>
+        <v>0.4337379521295898</v>
       </c>
       <c r="BH319">
         <v>0.348917570088605</v>
       </c>
       <c r="BI319">
-        <v>0.8257983103748577</v>
+        <v>0.8044432551393552</v>
       </c>
     </row>
     <row r="320">
@@ -59670,13 +59670,13 @@
         <v>3.876243775170407</v>
       </c>
       <c r="BG320">
-        <v>0.1114245152691168</v>
+        <v>0.1100679739050939</v>
       </c>
       <c r="BH320">
-        <v>0.2584522581599309</v>
+        <v>0.2584522581599308</v>
       </c>
       <c r="BI320">
-        <v>2.319527776591238</v>
+        <v>2.348114978320408</v>
       </c>
     </row>
     <row r="321">
@@ -59855,13 +59855,13 @@
         <v>2.397740354955726</v>
       </c>
       <c r="BG321">
-        <v>0.1008707220657165</v>
+        <v>0.1089987517136648</v>
       </c>
       <c r="BH321">
         <v>0.03554548753618876</v>
       </c>
       <c r="BI321">
-        <v>0.3523865677597821</v>
+        <v>0.3261091248968179</v>
       </c>
     </row>
     <row r="322">
@@ -60040,13 +60040,13 @@
         <v>4.548314032781099</v>
       </c>
       <c r="BG322">
-        <v>0.2384106999747458</v>
+        <v>0.2250544896282673</v>
       </c>
       <c r="BH322">
         <v>0.3528460233745869</v>
       </c>
       <c r="BI322">
-        <v>1.479992397203493</v>
+        <v>1.567824858581576</v>
       </c>
     </row>
     <row r="323">
@@ -60225,13 +60225,13 @@
         <v>6.22398586787723</v>
       </c>
       <c r="BG323">
-        <v>0.3518543454344478</v>
+        <v>0.3758368973080142</v>
       </c>
       <c r="BH323">
-        <v>0.1537027921446616</v>
+        <v>0.1537027921446617</v>
       </c>
       <c r="BI323">
-        <v>0.4368364186461274</v>
+        <v>0.4089614224829442</v>
       </c>
     </row>
     <row r="324">
@@ -60410,13 +60410,13 @@
         <v>4.178749846767263</v>
       </c>
       <c r="BG324">
-        <v>0.1303258789739953</v>
+        <v>0.1079353910941675</v>
       </c>
       <c r="BH324">
         <v>0.311224046542889</v>
       </c>
       <c r="BI324">
-        <v>2.388044868701706</v>
+        <v>2.883429090198634</v>
       </c>
     </row>
     <row r="325">
@@ -60595,13 +60595,13 @@
         <v>5.076760262963798</v>
       </c>
       <c r="BG325">
-        <v>0.4267475054321932</v>
+        <v>0.4226524976697337</v>
       </c>
       <c r="BH325">
-        <v>0.3478039566155374</v>
+        <v>0.3478039566155373</v>
       </c>
       <c r="BI325">
-        <v>0.8150111065401427</v>
+        <v>0.8229076097577351</v>
       </c>
     </row>
     <row r="326">
@@ -60780,13 +60780,13 @@
         <v>3.073351531349034</v>
       </c>
       <c r="BG326">
-        <v>0.3184948865975629</v>
+        <v>0.2697717977966727</v>
       </c>
       <c r="BH326">
-        <v>0.109834941058231</v>
+        <v>0.1098349410582311</v>
       </c>
       <c r="BI326">
-        <v>0.3448562149037386</v>
+        <v>0.407140190172932</v>
       </c>
     </row>
     <row r="327">
@@ -60965,13 +60965,13 @@
         <v>5.99084350863285</v>
       </c>
       <c r="BG327">
-        <v>0.07698073221386968</v>
+        <v>0.09994406719602038</v>
       </c>
       <c r="BH327">
-        <v>0.1979553372055296</v>
+        <v>0.1979553372055297</v>
       </c>
       <c r="BI327">
-        <v>2.571492002122888</v>
+        <v>1.980661211408175</v>
       </c>
     </row>
     <row r="328">
@@ -61150,13 +61150,13 @@
         <v>3.344748594915494</v>
       </c>
       <c r="BG328">
-        <v>0.02337643600107497</v>
+        <v>0.03735482807435233</v>
       </c>
       <c r="BH328">
         <v>0.1555811980288417</v>
       </c>
       <c r="BI328">
-        <v>6.65547126267183</v>
+        <v>4.164955537184311</v>
       </c>
     </row>
     <row r="329">
@@ -61335,13 +61335,13 @@
         <v>4.538214779244504</v>
       </c>
       <c r="BG329">
-        <v>0.4282258675917821</v>
+        <v>0.420391383405512</v>
       </c>
       <c r="BH329">
         <v>0.3521597133171629</v>
       </c>
       <c r="BI329">
-        <v>0.8223690812925591</v>
+        <v>0.8376948891396938</v>
       </c>
     </row>
     <row r="330">
@@ -61520,13 +61520,13 @@
         <v>3.40685845115962</v>
       </c>
       <c r="BG330">
-        <v>0.4630699365918042</v>
+        <v>0.4478007503536986</v>
       </c>
       <c r="BH330">
         <v>0.1670660209061664</v>
       </c>
       <c r="BI330">
-        <v>0.3607792424094138</v>
+        <v>0.373081154451412</v>
       </c>
     </row>
     <row r="331">
@@ -61705,13 +61705,13 @@
         <v>3.609950738832491</v>
       </c>
       <c r="BG331">
-        <v>0.2578301919842335</v>
+        <v>0.2168385481398989</v>
       </c>
       <c r="BH331">
         <v>0.2062874171988153</v>
       </c>
       <c r="BI331">
-        <v>0.8000902284222398</v>
+        <v>0.9513410736624366</v>
       </c>
     </row>
     <row r="332">
@@ -61890,13 +61890,13 @@
         <v>5.549815303829492</v>
       </c>
       <c r="BG332">
-        <v>0.4131049337390028</v>
+        <v>0.4294166943575046</v>
       </c>
       <c r="BH332">
         <v>0.2829305232221452</v>
       </c>
       <c r="BI332">
-        <v>0.6848877854383094</v>
+        <v>0.6588717367997704</v>
       </c>
     </row>
     <row r="333">
@@ -62075,13 +62075,13 @@
         <v>5.017189362811629</v>
       </c>
       <c r="BG333">
-        <v>0.3353700919701756</v>
+        <v>0.3119948480965979</v>
       </c>
       <c r="BH333">
         <v>0.3523667727822851</v>
       </c>
       <c r="BI333">
-        <v>1.050680371383925</v>
+        <v>1.129399331213275</v>
       </c>
     </row>
     <row r="334">
@@ -62260,13 +62260,13 @@
         <v>6.089141517945186</v>
       </c>
       <c r="BG334">
-        <v>0.1597763726922275</v>
+        <v>0.1844146276970885</v>
       </c>
       <c r="BH334">
         <v>0.1788911496827381</v>
       </c>
       <c r="BI334">
-        <v>1.119634565915017</v>
+        <v>0.9700485905954112</v>
       </c>
     </row>
     <row r="335">
@@ -62445,13 +62445,13 @@
         <v>5.204454281997697</v>
       </c>
       <c r="BG335">
-        <v>0.4356221616292562</v>
+        <v>0.4355980103616143</v>
       </c>
       <c r="BH335">
         <v>0.3349332462730626</v>
       </c>
       <c r="BI335">
-        <v>0.7688618159838096</v>
+        <v>0.7689044447081285</v>
       </c>
     </row>
     <row r="336">
@@ -62630,13 +62630,13 @@
         <v>4.905220798032808</v>
       </c>
       <c r="BG336">
-        <v>0.4198862640723958</v>
+        <v>0.4298161443400356</v>
       </c>
       <c r="BH336">
         <v>0.3582831180530332</v>
       </c>
       <c r="BI336">
-        <v>0.8532861127156541</v>
+        <v>0.8335729654900742</v>
       </c>
     </row>
     <row r="337">
@@ -62815,13 +62815,13 @@
         <v>4.591672994850739</v>
       </c>
       <c r="BG337">
-        <v>0.4415080128910716</v>
+        <v>0.4373301209257566</v>
       </c>
       <c r="BH337">
         <v>0.3554710019551716</v>
       </c>
       <c r="BI337">
-        <v>0.8051292198016644</v>
+        <v>0.8128207615855443</v>
       </c>
     </row>
     <row r="338">
@@ -63000,13 +63000,13 @@
         <v>5.192416670254935</v>
       </c>
       <c r="BG338">
-        <v>0.369335922704299</v>
+        <v>0.3894429649603204</v>
       </c>
       <c r="BH338">
         <v>0.3363171820588457</v>
       </c>
       <c r="BI338">
-        <v>0.9105997044541776</v>
+        <v>0.8635852032738924</v>
       </c>
     </row>
   </sheetData>

--- a/index.xlsx
+++ b/index.xlsx
@@ -837,16 +837,16 @@
         <v>18.79211060868989</v>
       </c>
       <c r="BF2">
-        <v>4.768890706359042</v>
+        <v>47.68890706359042</v>
       </c>
       <c r="BG2">
-        <v>0.1430834424759262</v>
+        <v>0.01430834424759066</v>
       </c>
       <c r="BH2">
-        <v>0.3605994591128398</v>
+        <v>0.03605994591128398</v>
       </c>
       <c r="BI2">
-        <v>2.520203965413472</v>
+        <v>2.520203965413819</v>
       </c>
     </row>
     <row r="3">
@@ -1022,13 +1022,13 @@
         <v>20.86938454438514</v>
       </c>
       <c r="BF3">
-        <v>6.417798637658427</v>
+        <v>64.17798637658427</v>
       </c>
       <c r="BG3">
-        <v>0.4658096401011946</v>
+        <v>0.04658096401011943</v>
       </c>
       <c r="BH3">
-        <v>0.1204068530512143</v>
+        <v>0.01204068530512143</v>
       </c>
       <c r="BI3">
         <v>0.2584893971388326</v>
@@ -1207,16 +1207,16 @@
         <v>18.69220969181436</v>
       </c>
       <c r="BF4">
-        <v>4.401100093140548</v>
+        <v>44.01100093140549</v>
       </c>
       <c r="BG4">
-        <v>0.1501009174924445</v>
+        <v>0.01501009174924442</v>
       </c>
       <c r="BH4">
-        <v>0.3401561966749913</v>
+        <v>0.03401561966749914</v>
       </c>
       <c r="BI4">
-        <v>2.266183327574353</v>
+        <v>2.266183327574357</v>
       </c>
     </row>
     <row r="5">
@@ -1392,16 +1392,16 @@
         <v>18.42333811002552</v>
       </c>
       <c r="BF5">
-        <v>3.821313166854809</v>
+        <v>38.21313166854809</v>
       </c>
       <c r="BG5">
-        <v>0.3155515376669239</v>
+        <v>0.03155515376669249</v>
       </c>
       <c r="BH5">
-        <v>0.2478814661380282</v>
+        <v>0.02478814661380282</v>
       </c>
       <c r="BI5">
-        <v>0.7855498596862364</v>
+        <v>0.7855498596862338</v>
       </c>
     </row>
     <row r="6">
@@ -1577,16 +1577,16 @@
         <v>16.54448798252545</v>
       </c>
       <c r="BF6">
-        <v>3.359682112027601</v>
+        <v>33.59682112027601</v>
       </c>
       <c r="BG6">
-        <v>0.4662113425292537</v>
+        <v>0.04662113425292534</v>
       </c>
       <c r="BH6">
-        <v>0.1583139105970834</v>
+        <v>0.01583139105970835</v>
       </c>
       <c r="BI6">
-        <v>0.3395754160295866</v>
+        <v>0.3395754160295869</v>
       </c>
     </row>
     <row r="7">
@@ -1762,13 +1762,13 @@
         <v>18.99473583867348</v>
       </c>
       <c r="BF7">
-        <v>5.62641267904343</v>
+        <v>56.2641267904343</v>
       </c>
       <c r="BG7">
-        <v>0.255026937620148</v>
+        <v>0.02550269376201479</v>
       </c>
       <c r="BH7">
-        <v>0.2689631569207425</v>
+        <v>0.02689631569207425</v>
       </c>
       <c r="BI7">
         <v>1.054646067708157</v>
@@ -1947,16 +1947,16 @@
         <v>19.63942216736623</v>
       </c>
       <c r="BF8">
-        <v>5.421428571428571</v>
+        <v>54.21428571428571</v>
       </c>
       <c r="BG8">
-        <v>0.3258672842936813</v>
+        <v>0.03258672842936808</v>
       </c>
       <c r="BH8">
-        <v>0.3046936137586634</v>
+        <v>0.03046936137586633</v>
       </c>
       <c r="BI8">
-        <v>0.935023638286022</v>
+        <v>0.9350236382860234</v>
       </c>
     </row>
     <row r="9">
@@ -2132,16 +2132,16 @@
         <v>19.37748494915901</v>
       </c>
       <c r="BF9">
-        <v>5.870276608883859</v>
+        <v>58.70276608883859</v>
       </c>
       <c r="BG9">
-        <v>0.4442555554955976</v>
+        <v>0.04442555554955972</v>
       </c>
       <c r="BH9">
-        <v>0.2217311422739512</v>
+        <v>0.02217311422739512</v>
       </c>
       <c r="BI9">
-        <v>0.4991071907397869</v>
+        <v>0.4991071907397873</v>
       </c>
     </row>
     <row r="10">
@@ -2317,16 +2317,16 @@
         <v>19.14836850579841</v>
       </c>
       <c r="BF10">
-        <v>5.916308559032926</v>
+        <v>59.16308559032926</v>
       </c>
       <c r="BG10">
-        <v>0.1509434100609771</v>
+        <v>0.01509434100609772</v>
       </c>
       <c r="BH10">
-        <v>0.2126318803779076</v>
+        <v>0.02126318803779076</v>
       </c>
       <c r="BI10">
-        <v>1.408686078391962</v>
+        <v>1.40868607839196</v>
       </c>
     </row>
     <row r="11">
@@ -2502,16 +2502,16 @@
         <v>18.43963080203232</v>
       </c>
       <c r="BF11">
-        <v>5.179792651622893</v>
+        <v>51.79792651622893</v>
       </c>
       <c r="BG11">
-        <v>0.4394522076584829</v>
+        <v>0.04394522076584827</v>
       </c>
       <c r="BH11">
-        <v>0.3377317198523995</v>
+        <v>0.03377317198523995</v>
       </c>
       <c r="BI11">
-        <v>0.7685288956720074</v>
+        <v>0.7685288956720076</v>
       </c>
     </row>
     <row r="12">
@@ -2687,16 +2687,16 @@
         <v>17.35252608646772</v>
       </c>
       <c r="BF12">
-        <v>3.462742218469666</v>
+        <v>34.62742218469666</v>
       </c>
       <c r="BG12">
-        <v>0.07414667332784922</v>
+        <v>0.007414667332784905</v>
       </c>
       <c r="BH12">
-        <v>0.1776431951487178</v>
+        <v>0.01776431951487178</v>
       </c>
       <c r="BI12">
-        <v>2.395835000759173</v>
+        <v>2.395835000759178</v>
       </c>
     </row>
     <row r="13">
@@ -2872,16 +2872,16 @@
         <v>19.75499795585665</v>
       </c>
       <c r="BF13">
-        <v>5.043069029928605</v>
+        <v>50.43069029928604</v>
       </c>
       <c r="BG13">
-        <v>0.4391230180142446</v>
+        <v>0.04391230180142445</v>
       </c>
       <c r="BH13">
-        <v>0.3505020512334936</v>
+        <v>0.03505020512334936</v>
       </c>
       <c r="BI13">
-        <v>0.7981864690639464</v>
+        <v>0.7981864690639465</v>
       </c>
     </row>
     <row r="14">
@@ -3057,13 +3057,13 @@
         <v>18.00907979501478</v>
       </c>
       <c r="BF14">
-        <v>3.242048883374617</v>
+        <v>32.42048883374617</v>
       </c>
       <c r="BG14">
-        <v>0.01185625258791623</v>
+        <v>0.001185625258791622</v>
       </c>
       <c r="BH14">
-        <v>0.1373437865835598</v>
+        <v>0.01373437865835598</v>
       </c>
       <c r="BI14">
         <v>11.58408068359974</v>
@@ -3242,16 +3242,16 @@
         <v>18.4702614717345</v>
       </c>
       <c r="BF15">
-        <v>3.806162590503287</v>
+        <v>38.06162590503287</v>
       </c>
       <c r="BG15">
-        <v>0.26722697013083</v>
+        <v>0.02672269701308298</v>
       </c>
       <c r="BH15">
-        <v>0.2449364662584544</v>
+        <v>0.02449364662584544</v>
       </c>
       <c r="BI15">
-        <v>0.9165858750654454</v>
+        <v>0.9165858750654456</v>
       </c>
     </row>
     <row r="16">
@@ -3427,16 +3427,16 @@
         <v>15.81627827753574</v>
       </c>
       <c r="BF16">
-        <v>4.202254350849076</v>
+        <v>42.02254350849076</v>
       </c>
       <c r="BG16">
-        <v>0.4671676903671181</v>
+        <v>0.04671676903671178</v>
       </c>
       <c r="BH16">
-        <v>0.3147627554174023</v>
+        <v>0.03147627554174023</v>
       </c>
       <c r="BI16">
-        <v>0.6737682461945298</v>
+        <v>0.6737682461945301</v>
       </c>
     </row>
     <row r="17">
@@ -3612,16 +3612,16 @@
         <v>19.50463477334338</v>
       </c>
       <c r="BF17">
-        <v>3.723729185450122</v>
+        <v>37.23729185450122</v>
       </c>
       <c r="BG17">
-        <v>0.2744117842101388</v>
+        <v>0.02744117842101386</v>
       </c>
       <c r="BH17">
-        <v>0.2287622648209269</v>
+        <v>0.0228762264820927</v>
       </c>
       <c r="BI17">
-        <v>0.8336459218739144</v>
+        <v>0.8336459218739156</v>
       </c>
     </row>
     <row r="18">
@@ -3797,16 +3797,16 @@
         <v>19.08986427104167</v>
       </c>
       <c r="BF18">
-        <v>3.879438480284842</v>
+        <v>38.79438480284841</v>
       </c>
       <c r="BG18">
-        <v>0.4651696823098272</v>
+        <v>0.04651696823098269</v>
       </c>
       <c r="BH18">
-        <v>0.2590610790477598</v>
+        <v>0.02590610790477598</v>
       </c>
       <c r="BI18">
-        <v>0.5569173763891423</v>
+        <v>0.5569173763891427</v>
       </c>
     </row>
     <row r="19">
@@ -3982,16 +3982,16 @@
         <v>20.12847493393899</v>
       </c>
       <c r="BF19">
-        <v>5.521776485241776</v>
+        <v>55.21776485241776</v>
       </c>
       <c r="BG19">
-        <v>0.2925376320244286</v>
+        <v>0.02925376320244285</v>
       </c>
       <c r="BH19">
-        <v>0.2878774825435277</v>
+        <v>0.02878774825435277</v>
       </c>
       <c r="BI19">
-        <v>0.9840699145315029</v>
+        <v>0.9840699145315031</v>
       </c>
     </row>
     <row r="20">
@@ -4167,16 +4167,16 @@
         <v>21.25024292296331</v>
       </c>
       <c r="BF20">
-        <v>6.548110313758319</v>
+        <v>65.48110313758319</v>
       </c>
       <c r="BG20">
-        <v>0.391029409549553</v>
+        <v>0.03910294095495528</v>
       </c>
       <c r="BH20">
-        <v>0.1004307246022456</v>
+        <v>0.01004307246022456</v>
       </c>
       <c r="BI20">
-        <v>0.2568367548567176</v>
+        <v>0.2568367548567178</v>
       </c>
     </row>
     <row r="21">
@@ -4352,16 +4352,16 @@
         <v>16.65668769490939</v>
       </c>
       <c r="BF21">
-        <v>4.534231900596604</v>
+        <v>45.34231900596603</v>
       </c>
       <c r="BG21">
-        <v>0.4320905887624938</v>
+        <v>0.04320905887624939</v>
       </c>
       <c r="BH21">
-        <v>0.3518813548095286</v>
+        <v>0.03518813548095286</v>
       </c>
       <c r="BI21">
-        <v>0.8143694029932839</v>
+        <v>0.8143694029932838</v>
       </c>
     </row>
     <row r="22">
@@ -4537,13 +4537,13 @@
         <v>18.577063496565</v>
       </c>
       <c r="BF22">
-        <v>5.11035998002041</v>
+        <v>51.10359980020409</v>
       </c>
       <c r="BG22">
-        <v>0.2677935702295968</v>
+        <v>0.02677935702295968</v>
       </c>
       <c r="BH22">
-        <v>0.3448152235544959</v>
+        <v>0.03448152235544959</v>
       </c>
       <c r="BI22">
         <v>1.287615767842609</v>
@@ -4722,16 +4722,16 @@
         <v>18.46838454681641</v>
       </c>
       <c r="BF23">
-        <v>4.600223341510098</v>
+        <v>46.00223341510098</v>
       </c>
       <c r="BG23">
-        <v>0.4346842981689005</v>
+        <v>0.04346842981689003</v>
       </c>
       <c r="BH23">
-        <v>0.3559264003401399</v>
+        <v>0.03559264003401399</v>
       </c>
       <c r="BI23">
-        <v>0.8188158666864049</v>
+        <v>0.8188158666864052</v>
       </c>
     </row>
     <row r="24">
@@ -4907,16 +4907,16 @@
         <v>17.52489053304484</v>
       </c>
       <c r="BF24">
-        <v>6.195056271433326</v>
+        <v>61.95056271433326</v>
       </c>
       <c r="BG24">
-        <v>0.2504379385936066</v>
+        <v>0.02504379385936065</v>
       </c>
       <c r="BH24">
-        <v>0.1589882984743339</v>
+        <v>0.01589882984743339</v>
       </c>
       <c r="BI24">
-        <v>0.6348411082089648</v>
+        <v>0.634841108208965</v>
       </c>
     </row>
     <row r="25">
@@ -5092,16 +5092,16 @@
         <v>19.39187276137898</v>
       </c>
       <c r="BF25">
-        <v>3.526216169118993</v>
+        <v>35.26216169118993</v>
       </c>
       <c r="BG25">
-        <v>0.1026727616088534</v>
+        <v>0.01026727616088535</v>
       </c>
       <c r="BH25">
-        <v>0.189882899913362</v>
+        <v>0.0189882899913362</v>
       </c>
       <c r="BI25">
-        <v>1.849398973378626</v>
+        <v>1.849398973378625</v>
       </c>
     </row>
     <row r="26">
@@ -5277,16 +5277,16 @@
         <v>19.15503827721177</v>
       </c>
       <c r="BF26">
-        <v>5.058791816397168</v>
+        <v>50.58791816397168</v>
       </c>
       <c r="BG26">
-        <v>0.3839204949496847</v>
+        <v>0.03839204949496847</v>
       </c>
       <c r="BH26">
-        <v>0.3492806399936009</v>
+        <v>0.03492806399936009</v>
       </c>
       <c r="BI26">
-        <v>0.9097733634652052</v>
+        <v>0.9097733634652051</v>
       </c>
     </row>
     <row r="27">
@@ -5462,16 +5462,16 @@
         <v>15.73986227062093</v>
       </c>
       <c r="BF27">
-        <v>6.52560519459813</v>
+        <v>65.2560519459813</v>
       </c>
       <c r="BG27">
-        <v>0.3465015920809815</v>
+        <v>0.03465015920809814</v>
       </c>
       <c r="BH27">
-        <v>0.1037297546808818</v>
+        <v>0.01037297546808818</v>
       </c>
       <c r="BI27">
-        <v>0.2993629958751788</v>
+        <v>0.2993629958751791</v>
       </c>
     </row>
     <row r="28">
@@ -5647,16 +5647,16 @@
         <v>18.00715161384133</v>
       </c>
       <c r="BF28">
-        <v>4.42001287979925</v>
+        <v>44.20012879799251</v>
       </c>
       <c r="BG28">
-        <v>0.4016368070660547</v>
+        <v>0.04016368070660549</v>
       </c>
       <c r="BH28">
-        <v>0.342099544811229</v>
+        <v>0.03420995448112291</v>
       </c>
       <c r="BI28">
-        <v>0.8517634310218137</v>
+        <v>0.8517634310218135</v>
       </c>
     </row>
     <row r="29">
@@ -5832,16 +5832,16 @@
         <v>18.48427488180038</v>
       </c>
       <c r="BF29">
-        <v>4.716685419461998</v>
+        <v>47.16685419461997</v>
       </c>
       <c r="BG29">
-        <v>0.4014587646562182</v>
+        <v>0.04014587646562185</v>
       </c>
       <c r="BH29">
-        <v>0.3600397511823121</v>
+        <v>0.0360039751182312</v>
       </c>
       <c r="BI29">
-        <v>0.8968287228468544</v>
+        <v>0.8968287228468537</v>
       </c>
     </row>
     <row r="30">
@@ -6017,16 +6017,16 @@
         <v>19.43217548272197</v>
       </c>
       <c r="BF30">
-        <v>5.924537276950996</v>
+        <v>59.24537276950996</v>
       </c>
       <c r="BG30">
-        <v>0.1163036943397845</v>
+        <v>0.01163036943397849</v>
       </c>
       <c r="BH30">
-        <v>0.2110065855472676</v>
+        <v>0.02110065855472675</v>
       </c>
       <c r="BI30">
-        <v>1.814272424836359</v>
+        <v>1.814272424836353</v>
       </c>
     </row>
     <row r="31">
@@ -6202,16 +6202,16 @@
         <v>18.98329010381971</v>
       </c>
       <c r="BF31">
-        <v>4.470457614415066</v>
+        <v>44.70457614415066</v>
       </c>
       <c r="BG31">
-        <v>0.385554239331777</v>
+        <v>0.03855542393317769</v>
       </c>
       <c r="BH31">
-        <v>0.3468412491430804</v>
+        <v>0.03468412491430804</v>
       </c>
       <c r="BI31">
-        <v>0.8995913253196437</v>
+        <v>0.899591325319644</v>
       </c>
     </row>
     <row r="32">
@@ -6387,16 +6387,16 @@
         <v>18.7678873957486</v>
       </c>
       <c r="BF32">
-        <v>5.619826143235498</v>
+        <v>56.19826143235498</v>
       </c>
       <c r="BG32">
-        <v>0.4181874192000686</v>
+        <v>0.04181874192000685</v>
       </c>
       <c r="BH32">
-        <v>0.2701874999951663</v>
+        <v>0.02701874999951662</v>
       </c>
       <c r="BI32">
-        <v>0.6460918898803686</v>
+        <v>0.6460918898803685</v>
       </c>
     </row>
     <row r="33">
@@ -6572,16 +6572,16 @@
         <v>19.15399700513067</v>
       </c>
       <c r="BF33">
-        <v>4.990657268479865</v>
+        <v>49.90657268479865</v>
       </c>
       <c r="BG33">
-        <v>0.4576397790863513</v>
+        <v>0.0457639779086351</v>
       </c>
       <c r="BH33">
-        <v>0.3540875829177</v>
+        <v>0.03540875829177</v>
       </c>
       <c r="BI33">
-        <v>0.7737255350149268</v>
+        <v>0.7737255350149271</v>
       </c>
     </row>
     <row r="34">
@@ -6757,16 +6757,16 @@
         <v>19.17222209365872</v>
       </c>
       <c r="BF34">
-        <v>5.193463137395096</v>
+        <v>51.93463137395096</v>
       </c>
       <c r="BG34">
-        <v>0.3884360280441854</v>
+        <v>0.03884360280441854</v>
       </c>
       <c r="BH34">
-        <v>0.3361982253869208</v>
+        <v>0.03361982253869208</v>
       </c>
       <c r="BI34">
-        <v>0.8655176170956974</v>
+        <v>0.8655176170956975</v>
       </c>
     </row>
     <row r="35">
@@ -6942,16 +6942,16 @@
         <v>17.70430139433504</v>
       </c>
       <c r="BF35">
-        <v>4.049361570818759</v>
+        <v>40.49361570818759</v>
       </c>
       <c r="BG35">
-        <v>0.4518545346440057</v>
+        <v>0.04518545346440055</v>
       </c>
       <c r="BH35">
-        <v>0.2900904260409612</v>
+        <v>0.02900904260409613</v>
       </c>
       <c r="BI35">
-        <v>0.6419995901324957</v>
+        <v>0.6419995901324961</v>
       </c>
     </row>
     <row r="36">
@@ -7127,13 +7127,13 @@
         <v>19.34638497350163</v>
       </c>
       <c r="BF36">
-        <v>5.914361121828454</v>
+        <v>59.14361121828455</v>
       </c>
       <c r="BG36">
-        <v>0.4248192894544526</v>
+        <v>0.04248192894544523</v>
       </c>
       <c r="BH36">
-        <v>0.2130166321016971</v>
+        <v>0.0213016632101697</v>
       </c>
       <c r="BI36">
         <v>0.5014288131201629</v>
@@ -7312,13 +7312,13 @@
         <v>18.74514942529704</v>
       </c>
       <c r="BF37">
-        <v>5.209342553896439</v>
+        <v>52.0934255389644</v>
       </c>
       <c r="BG37">
-        <v>0.4668819737151756</v>
+        <v>0.04668819737151754</v>
       </c>
       <c r="BH37">
-        <v>0.3343615780361606</v>
+        <v>0.03343615780361605</v>
       </c>
       <c r="BI37">
         <v>0.7161586800524882</v>
@@ -7497,13 +7497,13 @@
         <v>17.05419991203001</v>
       </c>
       <c r="BF38">
-        <v>5.192975732291966</v>
+        <v>51.92975732291966</v>
       </c>
       <c r="BG38">
-        <v>0.3529944181714614</v>
+        <v>0.03529944181714614</v>
       </c>
       <c r="BH38">
-        <v>0.3362536631356888</v>
+        <v>0.03362536631356888</v>
       </c>
       <c r="BI38">
         <v>0.9525750148614501</v>
@@ -7682,16 +7682,16 @@
         <v>17.91775374376649</v>
       </c>
       <c r="BF39">
-        <v>5.120336918994051</v>
+        <v>51.20336918994052</v>
       </c>
       <c r="BG39">
-        <v>0.4659742736104732</v>
+        <v>0.0465974273610473</v>
       </c>
       <c r="BH39">
-        <v>0.3438716352457188</v>
+        <v>0.03438716352457186</v>
       </c>
       <c r="BI39">
-        <v>0.7379627046388726</v>
+        <v>0.7379627046388725</v>
       </c>
     </row>
     <row r="40">
@@ -7867,16 +7867,16 @@
         <v>18.72681878736557</v>
       </c>
       <c r="BF40">
-        <v>4.994904282866466</v>
+        <v>49.94904282866466</v>
       </c>
       <c r="BG40">
-        <v>0.1659281002674343</v>
+        <v>0.01659281002674348</v>
       </c>
       <c r="BH40">
-        <v>0.3538252484873369</v>
+        <v>0.03538252484873369</v>
       </c>
       <c r="BI40">
-        <v>2.132401009335126</v>
+        <v>2.132401009335119</v>
       </c>
     </row>
     <row r="41">
@@ -8052,16 +8052,16 @@
         <v>17.48387493454963</v>
       </c>
       <c r="BF41">
-        <v>3.806043548686724</v>
+        <v>38.06043548686724</v>
       </c>
       <c r="BG41">
-        <v>0.4374015419135366</v>
+        <v>0.04374015419135364</v>
       </c>
       <c r="BH41">
-        <v>0.2449132838753008</v>
+        <v>0.02449132838753008</v>
       </c>
       <c r="BI41">
-        <v>0.559927801817658</v>
+        <v>0.5599278018176582</v>
       </c>
     </row>
     <row r="42">
@@ -8237,16 +8237,16 @@
         <v>19.6999297987291</v>
       </c>
       <c r="BF42">
-        <v>6.415152765999127</v>
+        <v>64.15152765999127</v>
       </c>
       <c r="BG42">
-        <v>0.245728592564776</v>
+        <v>0.02457285925647758</v>
       </c>
       <c r="BH42">
-        <v>0.1208338033662724</v>
+        <v>0.01208338033662723</v>
       </c>
       <c r="BI42">
-        <v>0.4917368471657185</v>
+        <v>0.4917368471657186</v>
       </c>
     </row>
     <row r="43">
@@ -8422,13 +8422,13 @@
         <v>21.83847562196175</v>
       </c>
       <c r="BF43">
-        <v>7.22266802862879</v>
+        <v>72.2266802862879</v>
       </c>
       <c r="BG43">
-        <v>0.09797721378764915</v>
+        <v>0.009797721378764905</v>
       </c>
       <c r="BH43">
-        <v>0.03145627957869592</v>
+        <v>0.003145627957869589</v>
       </c>
       <c r="BI43">
         <v>0.3210570944267988</v>
@@ -8607,16 +8607,16 @@
         <v>18.19596940179611</v>
       </c>
       <c r="BF44">
-        <v>4.701316053768656</v>
+        <v>47.01316053768656</v>
       </c>
       <c r="BG44">
-        <v>0.2773351878004045</v>
+        <v>0.02773351878004047</v>
       </c>
       <c r="BH44">
-        <v>0.3597224731632617</v>
+        <v>0.03597224731632617</v>
       </c>
       <c r="BI44">
-        <v>1.297067552142538</v>
+        <v>1.297067552142537</v>
       </c>
     </row>
     <row r="45">
@@ -8792,16 +8792,16 @@
         <v>18.98143633920342</v>
       </c>
       <c r="BF45">
-        <v>6.417169705324027</v>
+        <v>64.17169705324027</v>
       </c>
       <c r="BG45">
-        <v>0.2344125803029912</v>
+        <v>0.02344125803029916</v>
       </c>
       <c r="BH45">
-        <v>0.1205082661115188</v>
+        <v>0.01205082661115188</v>
       </c>
       <c r="BI45">
-        <v>0.5140861721489315</v>
+        <v>0.5140861721489308</v>
       </c>
     </row>
     <row r="46">
@@ -8977,13 +8977,13 @@
         <v>18.94497799646909</v>
       </c>
       <c r="BF46">
-        <v>5.473925073352417</v>
+        <v>54.73925073352417</v>
       </c>
       <c r="BG46">
-        <v>0.4644688709036531</v>
+        <v>0.04644688709036529</v>
       </c>
       <c r="BH46">
-        <v>0.2960810248149863</v>
+        <v>0.02960810248149861</v>
       </c>
       <c r="BI46">
         <v>0.637461503585681</v>
@@ -9162,16 +9162,16 @@
         <v>16.48749735502964</v>
       </c>
       <c r="BF47">
-        <v>6.704214961983759</v>
+        <v>67.04214961983759</v>
       </c>
       <c r="BG47">
-        <v>0.279013683866764</v>
+        <v>0.0279013683866764</v>
       </c>
       <c r="BH47">
-        <v>0.07935146517722426</v>
+        <v>0.007935146517722426</v>
       </c>
       <c r="BI47">
-        <v>0.28439990497067</v>
+        <v>0.2843999049706701</v>
       </c>
     </row>
     <row r="48">
@@ -9347,16 +9347,16 @@
         <v>18.70612783068321</v>
       </c>
       <c r="BF48">
-        <v>3.264140210264964</v>
+        <v>32.64140210264964</v>
       </c>
       <c r="BG48">
-        <v>0.05509313967741917</v>
+        <v>0.005509313967741924</v>
       </c>
       <c r="BH48">
-        <v>0.1411797967815951</v>
+        <v>0.01411797967815951</v>
       </c>
       <c r="BI48">
-        <v>2.562565822318889</v>
+        <v>2.562565822318887</v>
       </c>
     </row>
     <row r="49">
@@ -9532,16 +9532,16 @@
         <v>18.22691677979251</v>
       </c>
       <c r="BF49">
-        <v>5.37721954238061</v>
+        <v>53.7721954238061</v>
       </c>
       <c r="BG49">
-        <v>0.3289090111844863</v>
+        <v>0.03289090111844863</v>
       </c>
       <c r="BH49">
-        <v>0.311595870602817</v>
+        <v>0.0311595870602817</v>
       </c>
       <c r="BI49">
-        <v>0.9473619147151966</v>
+        <v>0.9473619147151967</v>
       </c>
     </row>
     <row r="50">
@@ -9717,16 +9717,16 @@
         <v>19.5976729093258</v>
       </c>
       <c r="BF50">
-        <v>4.376929208226588</v>
+        <v>43.76929208226588</v>
       </c>
       <c r="BG50">
-        <v>0.4345755464551717</v>
+        <v>0.04345755464551715</v>
       </c>
       <c r="BH50">
-        <v>0.3375449866326897</v>
+        <v>0.03375449866326897</v>
       </c>
       <c r="BI50">
-        <v>0.7767233784460279</v>
+        <v>0.7767233784460282</v>
       </c>
     </row>
     <row r="51">
@@ -9902,16 +9902,16 @@
         <v>19.80864341017709</v>
       </c>
       <c r="BF51">
-        <v>4.245281535870064</v>
+        <v>42.45281535870064</v>
       </c>
       <c r="BG51">
-        <v>0.3354085097339533</v>
+        <v>0.0335408509733953</v>
       </c>
       <c r="BH51">
-        <v>0.3209696635145945</v>
+        <v>0.03209696635145945</v>
       </c>
       <c r="BI51">
-        <v>0.9569514612768419</v>
+        <v>0.9569514612768429</v>
       </c>
     </row>
     <row r="52">
@@ -10087,13 +10087,13 @@
         <v>17.28429540176593</v>
       </c>
       <c r="BF52">
-        <v>5.263598092899115</v>
+        <v>52.63598092899115</v>
       </c>
       <c r="BG52">
-        <v>0.3176242696407705</v>
+        <v>0.03176242696407704</v>
       </c>
       <c r="BH52">
-        <v>0.3276518794515784</v>
+        <v>0.03276518794515783</v>
       </c>
       <c r="BI52">
         <v>1.031570666253397</v>
@@ -10272,16 +10272,16 @@
         <v>18.39413730313563</v>
       </c>
       <c r="BF53">
-        <v>4.566946250127084</v>
+        <v>45.66946250127084</v>
       </c>
       <c r="BG53">
-        <v>0.4605670492623021</v>
+        <v>0.0460567049262302</v>
       </c>
       <c r="BH53">
-        <v>0.3540382772227261</v>
+        <v>0.03540382772227261</v>
       </c>
       <c r="BI53">
-        <v>0.7687008390847654</v>
+        <v>0.7687008390847655</v>
       </c>
     </row>
     <row r="54">
@@ -10457,13 +10457,13 @@
         <v>17.67880361241014</v>
       </c>
       <c r="BF54">
-        <v>4.386584642528305</v>
+        <v>43.86584642528305</v>
       </c>
       <c r="BG54">
-        <v>0.42819085906962</v>
+        <v>0.042819085906962</v>
       </c>
       <c r="BH54">
-        <v>0.3386050494196713</v>
+        <v>0.03386050494196714</v>
       </c>
       <c r="BI54">
         <v>0.790780658315308</v>
@@ -10642,16 +10642,16 @@
         <v>18.8159932281475</v>
       </c>
       <c r="BF55">
-        <v>5.081441006445719</v>
+        <v>50.81441006445719</v>
       </c>
       <c r="BG55">
-        <v>0.3476535090491931</v>
+        <v>0.03476535090491933</v>
       </c>
       <c r="BH55">
-        <v>0.3474052626371939</v>
+        <v>0.03474052626371938</v>
       </c>
       <c r="BI55">
-        <v>0.9992859372750813</v>
+        <v>0.9992859372750805</v>
       </c>
     </row>
     <row r="56">
@@ -10827,16 +10827,16 @@
         <v>17.90898162213134</v>
       </c>
       <c r="BF56">
-        <v>5.37439074021823</v>
+        <v>53.7439074021823</v>
       </c>
       <c r="BG56">
-        <v>0.04318105388067611</v>
+        <v>0.004318105388067634</v>
       </c>
       <c r="BH56">
-        <v>0.3120258479552073</v>
+        <v>0.03120258479552072</v>
       </c>
       <c r="BI56">
-        <v>7.225989639285798</v>
+        <v>7.225989639285757</v>
       </c>
     </row>
     <row r="57">
@@ -11012,16 +11012,16 @@
         <v>21.29668100370033</v>
       </c>
       <c r="BF57">
-        <v>7.140074512986939</v>
+        <v>71.40074512986939</v>
       </c>
       <c r="BG57">
-        <v>0.2849374168974946</v>
+        <v>0.02849374168974943</v>
       </c>
       <c r="BH57">
-        <v>0.03699235611567529</v>
+        <v>0.003699235611567523</v>
       </c>
       <c r="BI57">
-        <v>0.1298262492811998</v>
+        <v>0.1298262492811997</v>
       </c>
     </row>
     <row r="58">
@@ -11197,13 +11197,13 @@
         <v>16.78294114028147</v>
       </c>
       <c r="BF58">
-        <v>4.333051966308426</v>
+        <v>43.33051966308426</v>
       </c>
       <c r="BG58">
-        <v>0.4421062078381046</v>
+        <v>0.04421062078381046</v>
       </c>
       <c r="BH58">
-        <v>0.332450214213727</v>
+        <v>0.0332450214213727</v>
       </c>
       <c r="BI58">
         <v>0.7519691158362276</v>
@@ -11382,13 +11382,13 @@
         <v>17.26722578509784</v>
       </c>
       <c r="BF59">
-        <v>6.141091623036612</v>
+        <v>61.41091623036612</v>
       </c>
       <c r="BG59">
-        <v>0.3044789255561163</v>
+        <v>0.03044789255561163</v>
       </c>
       <c r="BH59">
-        <v>0.1690291354992942</v>
+        <v>0.01690291354992942</v>
       </c>
       <c r="BI59">
         <v>0.5551423146628968</v>
@@ -11567,16 +11567,16 @@
         <v>19.14001438173658</v>
       </c>
       <c r="BF60">
-        <v>4.125664911593864</v>
+        <v>41.25664911593864</v>
       </c>
       <c r="BG60">
-        <v>0.3658793965743754</v>
+        <v>0.03658793965743754</v>
       </c>
       <c r="BH60">
-        <v>0.3028740702091189</v>
+        <v>0.0302874070209119</v>
       </c>
       <c r="BI60">
-        <v>0.8277975558198755</v>
+        <v>0.8277975558198757</v>
       </c>
     </row>
     <row r="61">
@@ -11752,16 +11752,16 @@
         <v>19.2508861499192</v>
       </c>
       <c r="BF61">
-        <v>5.472366193235996</v>
+        <v>54.72366193235996</v>
       </c>
       <c r="BG61">
-        <v>0.2824982649824639</v>
+        <v>0.0282498264982464</v>
       </c>
       <c r="BH61">
-        <v>0.2963428467002604</v>
+        <v>0.02963428467002604</v>
       </c>
       <c r="BI61">
-        <v>1.049007669900755</v>
+        <v>1.049007669900754</v>
       </c>
     </row>
     <row r="62">
@@ -11937,16 +11937,16 @@
         <v>17.49797533193912</v>
       </c>
       <c r="BF62">
-        <v>3.810293411215913</v>
+        <v>38.10293411215913</v>
       </c>
       <c r="BG62">
-        <v>0.4467601001669079</v>
+        <v>0.04467601001669076</v>
       </c>
       <c r="BH62">
-        <v>0.2457405066849992</v>
+        <v>0.02457405066849992</v>
       </c>
       <c r="BI62">
-        <v>0.5500502542487377</v>
+        <v>0.5500502542487381</v>
       </c>
     </row>
     <row r="63">
@@ -12122,16 +12122,16 @@
         <v>19.28623874008608</v>
       </c>
       <c r="BF63">
-        <v>4.947356277807295</v>
+        <v>49.47356277807295</v>
       </c>
       <c r="BG63">
-        <v>0.4548661441183946</v>
+        <v>0.04548661441183945</v>
       </c>
       <c r="BH63">
-        <v>0.3564734040782092</v>
+        <v>0.03564734040782092</v>
       </c>
       <c r="BI63">
-        <v>0.7836885833064433</v>
+        <v>0.7836885833064436</v>
       </c>
     </row>
     <row r="64">
@@ -12307,16 +12307,16 @@
         <v>18.18431928218171</v>
       </c>
       <c r="BF64">
-        <v>3.896252306931326</v>
+        <v>38.96252306931326</v>
       </c>
       <c r="BG64">
-        <v>0.3842077050275234</v>
+        <v>0.03842077050275237</v>
       </c>
       <c r="BH64">
-        <v>0.2622529902552419</v>
+        <v>0.02622529902552419</v>
       </c>
       <c r="BI64">
-        <v>0.6825812882551507</v>
+        <v>0.6825812882551501</v>
       </c>
     </row>
     <row r="65">
@@ -12492,16 +12492,16 @@
         <v>23.08732538066764</v>
       </c>
       <c r="BF65">
-        <v>6.715090776978518</v>
+        <v>67.15090776978518</v>
       </c>
       <c r="BG65">
-        <v>0.4599278997092077</v>
+        <v>0.04599278997092073</v>
       </c>
       <c r="BH65">
-        <v>0.07800180942752524</v>
+        <v>0.007800180942752527</v>
       </c>
       <c r="BI65">
-        <v>0.1695957333243806</v>
+        <v>0.1695957333243808</v>
       </c>
     </row>
     <row r="66">
@@ -12677,16 +12677,16 @@
         <v>18.0370133745226</v>
       </c>
       <c r="BF66">
-        <v>4.152006856632112</v>
+        <v>41.52006856632112</v>
       </c>
       <c r="BG66">
-        <v>0.3077900914677564</v>
+        <v>0.03077900914677563</v>
       </c>
       <c r="BH66">
-        <v>0.3070774997474127</v>
+        <v>0.03070774997474128</v>
       </c>
       <c r="BI66">
-        <v>0.9976848126690967</v>
+        <v>0.9976848126690974</v>
       </c>
     </row>
     <row r="67">
@@ -12862,16 +12862,16 @@
         <v>19.58936932011141</v>
       </c>
       <c r="BF67">
-        <v>5.383845319603397</v>
+        <v>53.83845319603397</v>
       </c>
       <c r="BG67">
-        <v>0.467307626214801</v>
+        <v>0.04673076262148008</v>
       </c>
       <c r="BH67">
-        <v>0.3105831228434536</v>
+        <v>0.03105831228434536</v>
       </c>
       <c r="BI67">
-        <v>0.6646224144878218</v>
+        <v>0.664622414487822</v>
       </c>
     </row>
     <row r="68">
@@ -13047,16 +13047,16 @@
         <v>19.02051166802102</v>
       </c>
       <c r="BF68">
-        <v>7.024116217472482</v>
+        <v>70.24116217472482</v>
       </c>
       <c r="BG68">
-        <v>0.04279231542852796</v>
+        <v>0.004279231542852801</v>
       </c>
       <c r="BH68">
-        <v>0.04601214637375295</v>
+        <v>0.004601214637375295</v>
       </c>
       <c r="BI68">
-        <v>1.075243204603003</v>
+        <v>1.075243204603002</v>
       </c>
     </row>
     <row r="69">
@@ -13232,16 +13232,16 @@
         <v>18.67904535893661</v>
       </c>
       <c r="BF69">
-        <v>6.003254470785587</v>
+        <v>60.03254470785586</v>
       </c>
       <c r="BG69">
-        <v>0.2346811711566627</v>
+        <v>0.02346811711566627</v>
       </c>
       <c r="BH69">
-        <v>0.1955256328108806</v>
+        <v>0.01955256328108806</v>
       </c>
       <c r="BI69">
-        <v>0.8331543252797061</v>
+        <v>0.8331543252797063</v>
       </c>
     </row>
     <row r="70">
@@ -13417,13 +13417,13 @@
         <v>22.05416489112776</v>
       </c>
       <c r="BF70">
-        <v>6.744603294396674</v>
+        <v>67.44603294396674</v>
       </c>
       <c r="BG70">
-        <v>0.4220611500801272</v>
+        <v>0.04220611500801269</v>
       </c>
       <c r="BH70">
-        <v>0.07441769153308675</v>
+        <v>0.007441769153308669</v>
       </c>
       <c r="BI70">
         <v>0.1763196909238359</v>
@@ -13602,16 +13602,16 @@
         <v>20.69518234233319</v>
       </c>
       <c r="BF71">
-        <v>3.980383310273715</v>
+        <v>39.80383310273714</v>
       </c>
       <c r="BG71">
-        <v>0.3877236822741038</v>
+        <v>0.03877236822741035</v>
       </c>
       <c r="BH71">
-        <v>0.2778590771556769</v>
+        <v>0.02778590771556769</v>
       </c>
       <c r="BI71">
-        <v>0.7166420052702447</v>
+        <v>0.7166420052702451</v>
       </c>
     </row>
     <row r="72">
@@ -13787,13 +13787,13 @@
         <v>17.49836723652227</v>
       </c>
       <c r="BF72">
-        <v>3.731407841990337</v>
+        <v>37.31407841990337</v>
       </c>
       <c r="BG72">
-        <v>0.1890886451068559</v>
+        <v>0.01890886451068559</v>
       </c>
       <c r="BH72">
-        <v>0.2302766493307748</v>
+        <v>0.02302766493307748</v>
       </c>
       <c r="BI72">
         <v>1.21782378418674</v>
@@ -13972,16 +13972,16 @@
         <v>19.7509781447193</v>
       </c>
       <c r="BF73">
-        <v>3.761426947283167</v>
+        <v>37.61426947283168</v>
       </c>
       <c r="BG73">
-        <v>0.4288386756994444</v>
+        <v>0.04288386756994442</v>
       </c>
       <c r="BH73">
-        <v>0.2361846218154804</v>
+        <v>0.02361846218154805</v>
       </c>
       <c r="BI73">
-        <v>0.5507540135699247</v>
+        <v>0.5507540135699254</v>
       </c>
     </row>
     <row r="74">
@@ -14157,16 +14157,16 @@
         <v>18.5125799219899</v>
       </c>
       <c r="BF74">
-        <v>4.989569800146077</v>
+        <v>49.89569800146077</v>
       </c>
       <c r="BG74">
-        <v>0.1950188180849204</v>
+        <v>0.01950188180849207</v>
       </c>
       <c r="BH74">
-        <v>0.3541539468317028</v>
+        <v>0.03541539468317028</v>
       </c>
       <c r="BI74">
-        <v>1.815998836981401</v>
+        <v>1.815998836981398</v>
       </c>
     </row>
     <row r="75">
@@ -14342,16 +14342,16 @@
         <v>18.98393297486433</v>
       </c>
       <c r="BF75">
-        <v>3.892892260650115</v>
+        <v>38.92892260650115</v>
       </c>
       <c r="BG75">
-        <v>0.415092968136237</v>
+        <v>0.04150929681362366</v>
       </c>
       <c r="BH75">
-        <v>0.2616168268482512</v>
+        <v>0.02616168268482513</v>
       </c>
       <c r="BI75">
-        <v>0.6302608016293506</v>
+        <v>0.6302608016293513</v>
       </c>
     </row>
     <row r="76">
@@ -14527,13 +14527,13 @@
         <v>19.03755182674891</v>
       </c>
       <c r="BF76">
-        <v>4.949576032733727</v>
+        <v>49.49576032733727</v>
       </c>
       <c r="BG76">
-        <v>0.3808377896679048</v>
+        <v>0.03808377896679048</v>
       </c>
       <c r="BH76">
-        <v>0.3563639849784373</v>
+        <v>0.03563639849784372</v>
       </c>
       <c r="BI76">
         <v>0.9357369322230102</v>
@@ -14712,16 +14712,16 @@
         <v>18.67647330817632</v>
       </c>
       <c r="BF77">
-        <v>3.815938602866774</v>
+        <v>38.15938602866774</v>
       </c>
       <c r="BG77">
-        <v>0.3096319233163104</v>
+        <v>0.03096319233163102</v>
       </c>
       <c r="BH77">
-        <v>0.2468380151614485</v>
+        <v>0.02468380151614484</v>
       </c>
       <c r="BI77">
-        <v>0.7971982104354479</v>
+        <v>0.7971982104354483</v>
       </c>
     </row>
     <row r="78">
@@ -14897,13 +14897,13 @@
         <v>19.73022955101712</v>
       </c>
       <c r="BF78">
-        <v>5.960899470431837</v>
+        <v>59.60899470431837</v>
       </c>
       <c r="BG78">
-        <v>0.156971877985183</v>
+        <v>0.0156971877985183</v>
       </c>
       <c r="BH78">
-        <v>0.2038368917811133</v>
+        <v>0.02038368917811133</v>
       </c>
       <c r="BI78">
         <v>1.298556750403114</v>
@@ -15082,16 +15082,16 @@
         <v>17.4807359219117</v>
       </c>
       <c r="BF79">
-        <v>3.296104565361911</v>
+        <v>32.96104565361911</v>
       </c>
       <c r="BG79">
-        <v>0.09485773328713902</v>
+        <v>0.009485773328713911</v>
       </c>
       <c r="BH79">
-        <v>0.1468169665512595</v>
+        <v>0.01468169665512595</v>
       </c>
       <c r="BI79">
-        <v>1.547759591796668</v>
+        <v>1.547759591796667</v>
       </c>
     </row>
     <row r="80">
@@ -15267,16 +15267,16 @@
         <v>17.43243778386868</v>
       </c>
       <c r="BF80">
-        <v>2.758946822178381</v>
+        <v>27.58946822178381</v>
       </c>
       <c r="BG80">
-        <v>0.05152630845415385</v>
+        <v>0.005152630845415382</v>
       </c>
       <c r="BH80">
-        <v>0.06805852346152404</v>
+        <v>0.006805852346152407</v>
       </c>
       <c r="BI80">
-        <v>1.320849979425169</v>
+        <v>1.320849979425171</v>
       </c>
     </row>
     <row r="81">
@@ -15452,16 +15452,16 @@
         <v>19.90754610654659</v>
       </c>
       <c r="BF81">
-        <v>5.439706433493567</v>
+        <v>54.39706433493568</v>
       </c>
       <c r="BG81">
-        <v>0.4123311239482772</v>
+        <v>0.04123311239482771</v>
       </c>
       <c r="BH81">
-        <v>0.301743972061409</v>
+        <v>0.03017439720614089</v>
       </c>
       <c r="BI81">
-        <v>0.7318001347365175</v>
+        <v>0.7318001347365174</v>
       </c>
     </row>
     <row r="82">
@@ -15637,16 +15637,16 @@
         <v>17.32574376305876</v>
       </c>
       <c r="BF82">
-        <v>3.437682300003522</v>
+        <v>34.37682300003522</v>
       </c>
       <c r="BG82">
-        <v>0.453947939262219</v>
+        <v>0.04539479392622187</v>
       </c>
       <c r="BH82">
-        <v>0.1728742478016148</v>
+        <v>0.01728742478016149</v>
       </c>
       <c r="BI82">
-        <v>0.3808239510516988</v>
+        <v>0.3808239510516992</v>
       </c>
     </row>
     <row r="83">
@@ -15822,13 +15822,13 @@
         <v>18.89181336065186</v>
       </c>
       <c r="BF83">
-        <v>5.580303970031306</v>
+        <v>55.80303970031306</v>
       </c>
       <c r="BG83">
-        <v>0.1916572382498221</v>
+        <v>0.01916572382498221</v>
       </c>
       <c r="BH83">
-        <v>0.2774454229037238</v>
+        <v>0.02774454229037238</v>
       </c>
       <c r="BI83">
         <v>1.447612547469134</v>
@@ -16007,16 +16007,16 @@
         <v>20.15774774991302</v>
       </c>
       <c r="BF84">
-        <v>6.113302665415276</v>
+        <v>61.13302665415276</v>
       </c>
       <c r="BG84">
-        <v>0.4295712327170946</v>
+        <v>0.04295712327170947</v>
       </c>
       <c r="BH84">
-        <v>0.1742826816313745</v>
+        <v>0.01742826816313745</v>
       </c>
       <c r="BI84">
-        <v>0.4057131119535487</v>
+        <v>0.4057131119535485</v>
       </c>
     </row>
     <row r="85">
@@ -16192,16 +16192,16 @@
         <v>18.95343471055011</v>
       </c>
       <c r="BF85">
-        <v>4.358193250162824</v>
+        <v>43.58193250162824</v>
       </c>
       <c r="BG85">
-        <v>0.4474396797704852</v>
+        <v>0.04474396797704849</v>
       </c>
       <c r="BH85">
-        <v>0.3354245362751069</v>
+        <v>0.03354245362751069</v>
       </c>
       <c r="BI85">
-        <v>0.7496530849636835</v>
+        <v>0.749653084963684</v>
       </c>
     </row>
     <row r="86">
@@ -16377,16 +16377,16 @@
         <v>19.60694461463513</v>
       </c>
       <c r="BF86">
-        <v>5.354063866156871</v>
+        <v>53.54063866156871</v>
       </c>
       <c r="BG86">
-        <v>0.4655280069998937</v>
+        <v>0.04655280069998935</v>
       </c>
       <c r="BH86">
-        <v>0.3150724359102403</v>
+        <v>0.03150724359102403</v>
       </c>
       <c r="BI86">
-        <v>0.6768066178031523</v>
+        <v>0.6768066178031528</v>
       </c>
     </row>
     <row r="87">
@@ -16562,16 +16562,16 @@
         <v>22.17365502703706</v>
       </c>
       <c r="BF87">
-        <v>4.947102234611292</v>
+        <v>49.47102234611292</v>
       </c>
       <c r="BG87">
-        <v>0.254746548491027</v>
+        <v>0.02547465484910272</v>
       </c>
       <c r="BH87">
-        <v>0.3564858373266478</v>
+        <v>0.03564858373266478</v>
       </c>
       <c r="BI87">
-        <v>1.399374552622072</v>
+        <v>1.39937455262207</v>
       </c>
     </row>
     <row r="88">
@@ -16747,16 +16747,16 @@
         <v>20.19450544574737</v>
       </c>
       <c r="BF88">
-        <v>5.119308528418891</v>
+        <v>51.1930852841889</v>
       </c>
       <c r="BG88">
-        <v>0.313111883956757</v>
+        <v>0.03131118839567573</v>
       </c>
       <c r="BH88">
-        <v>0.3439700710000846</v>
+        <v>0.03439700710000847</v>
       </c>
       <c r="BI88">
-        <v>1.098553228492565</v>
+        <v>1.098553228492564</v>
       </c>
     </row>
     <row r="89">
@@ -16932,13 +16932,13 @@
         <v>19.55798182227625</v>
       </c>
       <c r="BF89">
-        <v>4.583948585107464</v>
+        <v>45.83948585107464</v>
       </c>
       <c r="BG89">
-        <v>0.4239116859384636</v>
+        <v>0.04239116859384636</v>
       </c>
       <c r="BH89">
-        <v>0.3550418595169479</v>
+        <v>0.03550418595169479</v>
       </c>
       <c r="BI89">
         <v>0.837537325093904</v>
@@ -17117,16 +17117,16 @@
         <v>19.57452773212275</v>
       </c>
       <c r="BF90">
-        <v>4.03219820697304</v>
+        <v>40.3219820697304</v>
       </c>
       <c r="BG90">
-        <v>0.4303854230948962</v>
+        <v>0.04303854230948959</v>
       </c>
       <c r="BH90">
-        <v>0.2871018612821519</v>
+        <v>0.02871018612821519</v>
       </c>
       <c r="BI90">
-        <v>0.6670808207620185</v>
+        <v>0.6670808207620188</v>
       </c>
     </row>
     <row r="91">
@@ -17302,16 +17302,16 @@
         <v>20.45521907321868</v>
       </c>
       <c r="BF91">
-        <v>5.740188450461294</v>
+        <v>57.40188450461294</v>
       </c>
       <c r="BG91">
-        <v>0.4287476442955945</v>
+        <v>0.04287476442955943</v>
       </c>
       <c r="BH91">
-        <v>0.2472810250259446</v>
+        <v>0.02472810250259446</v>
       </c>
       <c r="BI91">
-        <v>0.5767519152955622</v>
+        <v>0.5767519152955625</v>
       </c>
     </row>
     <row r="92">
@@ -17487,16 +17487,16 @@
         <v>19.13344435800491</v>
       </c>
       <c r="BF92">
-        <v>5.806237829561613</v>
+        <v>58.06237829561613</v>
       </c>
       <c r="BG92">
-        <v>0.3227526553569923</v>
+        <v>0.0322752655356992</v>
       </c>
       <c r="BH92">
-        <v>0.2343652360764279</v>
+        <v>0.02343652360764278</v>
       </c>
       <c r="BI92">
-        <v>0.7261450283567759</v>
+        <v>0.7261450283567764</v>
       </c>
     </row>
     <row r="93">
@@ -17672,16 +17672,16 @@
         <v>20.75420506945067</v>
       </c>
       <c r="BF93">
-        <v>6.554407654962055</v>
+        <v>65.54407654962054</v>
       </c>
       <c r="BG93">
-        <v>0.3507495227617289</v>
+        <v>0.03507495227617289</v>
       </c>
       <c r="BH93">
-        <v>0.09951915399313002</v>
+        <v>0.009951915399313008</v>
       </c>
       <c r="BI93">
-        <v>0.2837328279438184</v>
+        <v>0.2837328279438185</v>
       </c>
     </row>
     <row r="94">
@@ -17857,16 +17857,16 @@
         <v>19.41554176587121</v>
       </c>
       <c r="BF94">
-        <v>5.299567810081442</v>
+        <v>52.99567810081442</v>
       </c>
       <c r="BG94">
-        <v>0.4428420457382345</v>
+        <v>0.04428420457382343</v>
       </c>
       <c r="BH94">
-        <v>0.3228496088650629</v>
+        <v>0.03228496088650629</v>
       </c>
       <c r="BI94">
-        <v>0.7290400989970597</v>
+        <v>0.7290400989970598</v>
       </c>
     </row>
     <row r="95">
@@ -18042,16 +18042,16 @@
         <v>18.29151747716</v>
       </c>
       <c r="BF95">
-        <v>5.210314060416039</v>
+        <v>52.10314060416039</v>
       </c>
       <c r="BG95">
-        <v>0.4402130640832838</v>
+        <v>0.04402130640832836</v>
       </c>
       <c r="BH95">
-        <v>0.3342473022648964</v>
+        <v>0.03342473022648963</v>
       </c>
       <c r="BI95">
-        <v>0.759285286003371</v>
+        <v>0.7592852860033711</v>
       </c>
     </row>
     <row r="96">
@@ -18227,16 +18227,16 @@
         <v>17.95644701278351</v>
       </c>
       <c r="BF96">
-        <v>4.794849871830622</v>
+        <v>47.94849871830622</v>
       </c>
       <c r="BG96">
-        <v>0.4665785818305895</v>
+        <v>0.04665785818305893</v>
       </c>
       <c r="BH96">
-        <v>0.3605790661866357</v>
+        <v>0.03605790661866357</v>
       </c>
       <c r="BI96">
-        <v>0.7728152989190548</v>
+        <v>0.7728152989190552</v>
       </c>
     </row>
     <row r="97">
@@ -18412,16 +18412,16 @@
         <v>18.41880985493041</v>
       </c>
       <c r="BF97">
-        <v>6.037381730865655</v>
+        <v>60.37381730865655</v>
       </c>
       <c r="BG97">
-        <v>0.1881147779766715</v>
+        <v>0.01881147779766718</v>
       </c>
       <c r="BH97">
-        <v>0.1888745683876751</v>
+        <v>0.01888745683876751</v>
       </c>
       <c r="BI97">
-        <v>1.004038972478269</v>
+        <v>1.004038972478268</v>
       </c>
     </row>
     <row r="98">
@@ -18597,16 +18597,16 @@
         <v>18.65432648174021</v>
       </c>
       <c r="BF98">
-        <v>4.426710107310727</v>
+        <v>44.26710107310727</v>
       </c>
       <c r="BG98">
-        <v>0.4621864553836696</v>
+        <v>0.04621864553836694</v>
       </c>
       <c r="BH98">
-        <v>0.342766345481026</v>
+        <v>0.0342766345481026</v>
       </c>
       <c r="BI98">
-        <v>0.7416191917534434</v>
+        <v>0.7416191917534438</v>
       </c>
     </row>
     <row r="99">
@@ -18782,16 +18782,16 @@
         <v>16.42612093985575</v>
       </c>
       <c r="BF99">
-        <v>3.433356637990158</v>
+        <v>34.33356637990158</v>
       </c>
       <c r="BG99">
-        <v>0.1627052472823181</v>
+        <v>0.01627052472823182</v>
       </c>
       <c r="BH99">
-        <v>0.1720551852032027</v>
+        <v>0.01720551852032027</v>
       </c>
       <c r="BI99">
-        <v>1.057465497130901</v>
+        <v>1.0574654971309</v>
       </c>
     </row>
     <row r="100">
@@ -18967,16 +18967,16 @@
         <v>19.55507034650928</v>
       </c>
       <c r="BF100">
-        <v>4.570552639356674</v>
+        <v>45.70552639356674</v>
       </c>
       <c r="BG100">
-        <v>0.3720804596887478</v>
+        <v>0.03720804596887475</v>
       </c>
       <c r="BH100">
-        <v>0.3542579031251221</v>
+        <v>0.03542579031251221</v>
       </c>
       <c r="BI100">
-        <v>0.9521002619204065</v>
+        <v>0.9521002619204075</v>
       </c>
     </row>
     <row r="101">
@@ -19152,16 +19152,16 @@
         <v>23.54994796325185</v>
       </c>
       <c r="BF101">
-        <v>5.610473408659523</v>
+        <v>56.10473408659523</v>
       </c>
       <c r="BG101">
-        <v>0.2740770016717441</v>
+        <v>0.02740770016717442</v>
       </c>
       <c r="BH101">
-        <v>0.2719190604745545</v>
+        <v>0.02719190604745545</v>
       </c>
       <c r="BI101">
-        <v>0.9921265148698097</v>
+        <v>0.9921265148698093</v>
       </c>
     </row>
     <row r="102">
@@ -19337,16 +19337,16 @@
         <v>17.66952096601804</v>
       </c>
       <c r="BF102">
-        <v>4.782367828826128</v>
+        <v>47.82367828826128</v>
       </c>
       <c r="BG102">
-        <v>0.4486695060903931</v>
+        <v>0.04486695060903929</v>
       </c>
       <c r="BH102">
-        <v>0.3606136543061046</v>
+        <v>0.03606136543061046</v>
       </c>
       <c r="BI102">
-        <v>0.8037400567923866</v>
+        <v>0.8037400567923868</v>
       </c>
     </row>
     <row r="103">
@@ -19522,16 +19522,16 @@
         <v>18.69109711074927</v>
       </c>
       <c r="BF103">
-        <v>4.960571336283042</v>
+        <v>49.60571336283042</v>
       </c>
       <c r="BG103">
-        <v>0.4575300152827921</v>
+        <v>0.04575300152827919</v>
       </c>
       <c r="BH103">
-        <v>0.3558013629526235</v>
+        <v>0.03558013629526234</v>
       </c>
       <c r="BI103">
-        <v>0.7776568772929756</v>
+        <v>0.7776568772929757</v>
       </c>
     </row>
     <row r="104">
@@ -19707,16 +19707,16 @@
         <v>18.83163961367925</v>
       </c>
       <c r="BF104">
-        <v>4.956143187501597</v>
+        <v>49.56143187501597</v>
       </c>
       <c r="BG104">
-        <v>0.3987528122994189</v>
+        <v>0.0398752812299419</v>
       </c>
       <c r="BH104">
-        <v>0.3560320711710475</v>
+        <v>0.03560320711710475</v>
       </c>
       <c r="BI104">
-        <v>0.8928641007394503</v>
+        <v>0.8928641007394501</v>
       </c>
     </row>
     <row r="105">
@@ -19892,16 +19892,16 @@
         <v>19.16766113682568</v>
       </c>
       <c r="BF105">
-        <v>3.050427173417519</v>
+        <v>30.50427173417519</v>
       </c>
       <c r="BG105">
-        <v>0.1426277471314624</v>
+        <v>0.01426277471314623</v>
       </c>
       <c r="BH105">
-        <v>0.1063580666037705</v>
+        <v>0.01063580666037705</v>
       </c>
       <c r="BI105">
-        <v>0.745703895229716</v>
+        <v>0.7457038952297169</v>
       </c>
     </row>
     <row r="106">
@@ -20077,16 +20077,16 @@
         <v>18.27836606812386</v>
       </c>
       <c r="BF106">
-        <v>6.896202067345947</v>
+        <v>68.96202067345948</v>
       </c>
       <c r="BG106">
-        <v>0.09251687643561199</v>
+        <v>0.009251687643561175</v>
       </c>
       <c r="BH106">
-        <v>0.05779209444306989</v>
+        <v>0.005779209444306981</v>
       </c>
       <c r="BI106">
-        <v>0.6246654304557164</v>
+        <v>0.6246654304557172</v>
       </c>
     </row>
     <row r="107">
@@ -20262,16 +20262,16 @@
         <v>17.84945347038483</v>
       </c>
       <c r="BF107">
-        <v>3.137933421723644</v>
+        <v>31.37933421723644</v>
       </c>
       <c r="BG107">
-        <v>0.3932599661255997</v>
+        <v>0.03932599661255993</v>
       </c>
       <c r="BH107">
-        <v>0.1199758890657832</v>
+        <v>0.01199758890657833</v>
       </c>
       <c r="BI107">
-        <v>0.3050803524390918</v>
+        <v>0.3050803524390922</v>
       </c>
     </row>
     <row r="108">
@@ -20447,16 +20447,16 @@
         <v>17.59206342404099</v>
       </c>
       <c r="BF108">
-        <v>4.364002089460128</v>
+        <v>43.64002089460129</v>
       </c>
       <c r="BG108">
-        <v>0.3598396354969418</v>
+        <v>0.03598396354969419</v>
       </c>
       <c r="BH108">
-        <v>0.3360908360598824</v>
+        <v>0.03360908360598825</v>
       </c>
       <c r="BI108">
-        <v>0.9340017132791333</v>
+        <v>0.9340017132791331</v>
       </c>
     </row>
     <row r="109">
@@ -20632,16 +20632,16 @@
         <v>19.60484438290075</v>
       </c>
       <c r="BF109">
-        <v>5.630097271871922</v>
+        <v>56.30097271871922</v>
       </c>
       <c r="BG109">
-        <v>0.2831217650448726</v>
+        <v>0.02831217650448729</v>
       </c>
       <c r="BH109">
-        <v>0.268276517283505</v>
+        <v>0.02682765172835051</v>
       </c>
       <c r="BI109">
-        <v>0.947565854716204</v>
+        <v>0.9475658547162032</v>
       </c>
     </row>
     <row r="110">
@@ -20817,16 +20817,16 @@
         <v>18.54725156918602</v>
       </c>
       <c r="BF110">
-        <v>4.224436920406979</v>
+        <v>42.24436920406979</v>
       </c>
       <c r="BG110">
-        <v>0.3941304461436367</v>
+        <v>0.03941304461436367</v>
       </c>
       <c r="BH110">
-        <v>0.3180076432803005</v>
+        <v>0.03180076432803004</v>
       </c>
       <c r="BI110">
-        <v>0.8068588620641753</v>
+        <v>0.8068588620641752</v>
       </c>
     </row>
     <row r="111">
@@ -21002,16 +21002,16 @@
         <v>20.04733938875276</v>
       </c>
       <c r="BF111">
-        <v>5.140630001858294</v>
+        <v>51.40630001858294</v>
       </c>
       <c r="BG111">
-        <v>0.4673350653125171</v>
+        <v>0.04673350653125168</v>
       </c>
       <c r="BH111">
-        <v>0.3418745311024803</v>
+        <v>0.03418745311024802</v>
       </c>
       <c r="BI111">
-        <v>0.7315405080375499</v>
+        <v>0.73154050803755</v>
       </c>
     </row>
     <row r="112">
@@ -21187,16 +21187,16 @@
         <v>17.40830234260711</v>
       </c>
       <c r="BF112">
-        <v>3.060767751303813</v>
+        <v>30.60767751303813</v>
       </c>
       <c r="BG112">
-        <v>0.3594682528773711</v>
+        <v>0.03594682528773705</v>
       </c>
       <c r="BH112">
-        <v>0.107918291779059</v>
+        <v>0.01079182917790591</v>
       </c>
       <c r="BI112">
-        <v>0.3002164750717896</v>
+        <v>0.3002164750717902</v>
       </c>
     </row>
     <row r="113">
@@ -21372,16 +21372,16 @@
         <v>19.90043834169022</v>
       </c>
       <c r="BF113">
-        <v>5.534676243491397</v>
+        <v>55.34676243491397</v>
       </c>
       <c r="BG113">
-        <v>0.3887804396572734</v>
+        <v>0.03887804396572733</v>
       </c>
       <c r="BH113">
-        <v>0.2856136797444542</v>
+        <v>0.02856136797444542</v>
       </c>
       <c r="BI113">
-        <v>0.7346400451530813</v>
+        <v>0.7346400451530817</v>
       </c>
     </row>
     <row r="114">
@@ -21557,16 +21557,16 @@
         <v>17.72583968959787</v>
       </c>
       <c r="BF114">
-        <v>3.55075655242131</v>
+        <v>35.50756552421311</v>
       </c>
       <c r="BG114">
-        <v>0.4403966653645695</v>
+        <v>0.04403966653645695</v>
       </c>
       <c r="BH114">
-        <v>0.1946661311540104</v>
+        <v>0.01946661311540105</v>
       </c>
       <c r="BI114">
-        <v>0.44202453484261</v>
+        <v>0.4420245348426101</v>
       </c>
     </row>
     <row r="115">
@@ -21742,16 +21742,16 @@
         <v>19.19299824099405</v>
       </c>
       <c r="BF115">
-        <v>5.204157331645032</v>
+        <v>52.04157331645032</v>
       </c>
       <c r="BG115">
-        <v>0.3924045991610499</v>
+        <v>0.03924045991610497</v>
       </c>
       <c r="BH115">
-        <v>0.334967794456221</v>
+        <v>0.0334967794456221</v>
       </c>
       <c r="BI115">
-        <v>0.8536286148846697</v>
+        <v>0.85362861488467</v>
       </c>
     </row>
     <row r="116">
@@ -21927,16 +21927,16 @@
         <v>18.16938215840311</v>
       </c>
       <c r="BF116">
-        <v>4.112474801414407</v>
+        <v>41.12474801414407</v>
       </c>
       <c r="BG116">
-        <v>0.2252977029200788</v>
+        <v>0.02252977029200788</v>
       </c>
       <c r="BH116">
-        <v>0.3007269000104293</v>
+        <v>0.03007269000104294</v>
       </c>
       <c r="BI116">
-        <v>1.334797896794837</v>
+        <v>1.334797896794838</v>
       </c>
     </row>
     <row r="117">
@@ -22112,16 +22112,16 @@
         <v>21.40635748113428</v>
       </c>
       <c r="BF117">
-        <v>6.011892552732346</v>
+        <v>60.11892552732346</v>
       </c>
       <c r="BG117">
-        <v>0.4650077597724577</v>
+        <v>0.04650077597724575</v>
       </c>
       <c r="BH117">
-        <v>0.1938377724257263</v>
+        <v>0.01938377724257262</v>
       </c>
       <c r="BI117">
-        <v>0.4168484683364787</v>
+        <v>0.4168484683364789</v>
       </c>
     </row>
     <row r="118">
@@ -22297,16 +22297,16 @@
         <v>18.48202664911083</v>
       </c>
       <c r="BF118">
-        <v>6.776157884269196</v>
+        <v>67.76157884269196</v>
       </c>
       <c r="BG118">
-        <v>0.0113869162995227</v>
+        <v>0.001138691629952272</v>
       </c>
       <c r="BH118">
-        <v>0.07071186622059161</v>
+        <v>0.00707118662205916</v>
       </c>
       <c r="BI118">
-        <v>6.209922367090342</v>
+        <v>6.209922367090329</v>
       </c>
     </row>
     <row r="119">
@@ -22482,16 +22482,16 @@
         <v>18.97043020219214</v>
       </c>
       <c r="BF119">
-        <v>3.803160721583232</v>
+        <v>38.03160721583232</v>
       </c>
       <c r="BG119">
-        <v>0.3878604083635021</v>
+        <v>0.03878604083635016</v>
       </c>
       <c r="BH119">
-        <v>0.2443516833315842</v>
+        <v>0.02443516833315842</v>
       </c>
       <c r="BI119">
-        <v>0.6299990358968999</v>
+        <v>0.6299990358969009</v>
       </c>
     </row>
     <row r="120">
@@ -22667,16 +22667,16 @@
         <v>18.85774416531784</v>
       </c>
       <c r="BF120">
-        <v>5.33871368027085</v>
+        <v>53.3871368027085</v>
       </c>
       <c r="BG120">
-        <v>0.456415809800561</v>
+        <v>0.04564158098005607</v>
       </c>
       <c r="BH120">
-        <v>0.3173218118474519</v>
+        <v>0.03173218118474519</v>
       </c>
       <c r="BI120">
-        <v>0.6952471957229337</v>
+        <v>0.6952471957229341</v>
       </c>
     </row>
     <row r="121">
@@ -22852,13 +22852,13 @@
         <v>19.38903240710547</v>
       </c>
       <c r="BF121">
-        <v>5.403651616582422</v>
+        <v>54.03651616582422</v>
       </c>
       <c r="BG121">
-        <v>0.441558222019525</v>
+        <v>0.04415582220195249</v>
       </c>
       <c r="BH121">
-        <v>0.3075095438835845</v>
+        <v>0.03075095438835844</v>
       </c>
       <c r="BI121">
         <v>0.696419019166145</v>
@@ -23037,13 +23037,13 @@
         <v>20.83465610455659</v>
       </c>
       <c r="BF122">
-        <v>5.90561504983565</v>
+        <v>59.0561504983565</v>
       </c>
       <c r="BG122">
-        <v>0.3478128224912364</v>
+        <v>0.03478128224912364</v>
       </c>
       <c r="BH122">
-        <v>0.214744975106085</v>
+        <v>0.0214744975106085</v>
       </c>
       <c r="BI122">
         <v>0.6174153487728181</v>
@@ -23222,16 +23222,16 @@
         <v>21.46615844288753</v>
       </c>
       <c r="BF123">
-        <v>5.210282879544396</v>
+        <v>52.10282879544395</v>
       </c>
       <c r="BG123">
-        <v>0.393083239501438</v>
+        <v>0.03930832395014379</v>
       </c>
       <c r="BH123">
-        <v>0.3342509733864077</v>
+        <v>0.03342509733864077</v>
       </c>
       <c r="BI123">
-        <v>0.8503312779510788</v>
+        <v>0.8503312779510789</v>
       </c>
     </row>
     <row r="124">
@@ -23407,16 +23407,16 @@
         <v>20.04432712039029</v>
       </c>
       <c r="BF124">
-        <v>5.623268998483245</v>
+        <v>56.23268998483245</v>
       </c>
       <c r="BG124">
-        <v>0.4666754546975458</v>
+        <v>0.04666754546975456</v>
       </c>
       <c r="BH124">
-        <v>0.2695480205523154</v>
+        <v>0.02695480205523154</v>
       </c>
       <c r="BI124">
-        <v>0.5775920242623657</v>
+        <v>0.577592024262366</v>
       </c>
     </row>
     <row r="125">
@@ -23592,16 +23592,16 @@
         <v>18.53507538770945</v>
       </c>
       <c r="BF125">
-        <v>5.119251393922009</v>
+        <v>51.19251393922009</v>
       </c>
       <c r="BG125">
-        <v>0.4300168667021007</v>
+        <v>0.04300168667021004</v>
       </c>
       <c r="BH125">
-        <v>0.3439755319250264</v>
+        <v>0.03439755319250264</v>
       </c>
       <c r="BI125">
-        <v>0.7999117210519084</v>
+        <v>0.7999117210519087</v>
       </c>
     </row>
     <row r="126">
@@ -23777,13 +23777,13 @@
         <v>19.63945419828278</v>
       </c>
       <c r="BF126">
-        <v>3.79665307103056</v>
+        <v>37.96653071030561</v>
       </c>
       <c r="BG126">
-        <v>0.2133271582655928</v>
+        <v>0.02133271582655928</v>
       </c>
       <c r="BH126">
-        <v>0.2430825959189022</v>
+        <v>0.02430825959189023</v>
       </c>
       <c r="BI126">
         <v>1.139482651413112</v>
@@ -23962,16 +23962,16 @@
         <v>19.46904677936768</v>
       </c>
       <c r="BF127">
-        <v>3.949008075609748</v>
+        <v>39.49008075609748</v>
       </c>
       <c r="BG127">
-        <v>0.4632037442844213</v>
+        <v>0.0463203744284421</v>
       </c>
       <c r="BH127">
-        <v>0.2721172714880766</v>
+        <v>0.02721172714880766</v>
       </c>
       <c r="BI127">
-        <v>0.5874677716788667</v>
+        <v>0.5874677716788671</v>
       </c>
     </row>
     <row r="128">
@@ -24147,16 +24147,16 @@
         <v>19.01020261362665</v>
       </c>
       <c r="BF128">
-        <v>2.458428384930712</v>
+        <v>24.58428384930712</v>
       </c>
       <c r="BG128">
-        <v>0.07764365644444825</v>
+        <v>0.007764365644444837</v>
       </c>
       <c r="BH128">
-        <v>0.03994082479377444</v>
+        <v>0.003994082479377447</v>
       </c>
       <c r="BI128">
-        <v>0.5144119509924282</v>
+        <v>0.5144119509924276</v>
       </c>
     </row>
     <row r="129">
@@ -24332,16 +24332,16 @@
         <v>17.73450794574775</v>
       </c>
       <c r="BF129">
-        <v>4.552020555578665</v>
+        <v>45.52020555578665</v>
       </c>
       <c r="BG129">
-        <v>0.4673773077310592</v>
+        <v>0.0467377307731059</v>
       </c>
       <c r="BH129">
-        <v>0.3530908594256661</v>
+        <v>0.03530908594256661</v>
       </c>
       <c r="BI129">
-        <v>0.7554728344424534</v>
+        <v>0.7554728344424537</v>
       </c>
     </row>
     <row r="130">
@@ -24517,16 +24517,16 @@
         <v>18.83382955665018</v>
       </c>
       <c r="BF130">
-        <v>5.132289710362579</v>
+        <v>51.32289710362578</v>
       </c>
       <c r="BG130">
-        <v>0.4526358883803995</v>
+        <v>0.04526358883803991</v>
       </c>
       <c r="BH130">
-        <v>0.3427078742542026</v>
+        <v>0.03427078742542026</v>
       </c>
       <c r="BI130">
-        <v>0.7571380949938897</v>
+        <v>0.7571380949938904</v>
       </c>
     </row>
     <row r="131">
@@ -24702,16 +24702,16 @@
         <v>19.70604808305248</v>
       </c>
       <c r="BF131">
-        <v>3.836908648594965</v>
+        <v>38.36908648594965</v>
       </c>
       <c r="BG131">
-        <v>0.3356755233268974</v>
+        <v>0.03356755233268971</v>
       </c>
       <c r="BH131">
-        <v>0.2509007809204817</v>
+        <v>0.02509007809204816</v>
       </c>
       <c r="BI131">
-        <v>0.7474503307056501</v>
+        <v>0.7474503307056508</v>
       </c>
     </row>
     <row r="132">
@@ -24887,16 +24887,16 @@
         <v>17.9780119778667</v>
       </c>
       <c r="BF132">
-        <v>4.748258889250139</v>
+        <v>47.48258889250139</v>
       </c>
       <c r="BG132">
-        <v>0.4374763560784</v>
+        <v>0.04374763560783998</v>
       </c>
       <c r="BH132">
-        <v>0.3604740765656911</v>
+        <v>0.03604740765656911</v>
       </c>
       <c r="BI132">
-        <v>0.8239852772776838</v>
+        <v>0.823985277277684</v>
       </c>
     </row>
     <row r="133">
@@ -25072,16 +25072,16 @@
         <v>16.37008062104248</v>
       </c>
       <c r="BF133">
-        <v>2.908972286614733</v>
+        <v>29.08972286614733</v>
       </c>
       <c r="BG133">
-        <v>0.2883678141117715</v>
+        <v>0.02883678141117712</v>
       </c>
       <c r="BH133">
-        <v>0.08638579387108197</v>
+        <v>0.008638579387108204</v>
       </c>
       <c r="BI133">
-        <v>0.2995680850762311</v>
+        <v>0.2995680850762317</v>
       </c>
     </row>
     <row r="134">
@@ -25257,16 +25257,16 @@
         <v>18.84651225504585</v>
       </c>
       <c r="BF134">
-        <v>3.814931300270216</v>
+        <v>38.14931300270216</v>
       </c>
       <c r="BG134">
-        <v>0.2106571650157184</v>
+        <v>0.02106571650157186</v>
       </c>
       <c r="BH134">
-        <v>0.2466422927814793</v>
+        <v>0.02466422927814793</v>
       </c>
       <c r="BI134">
-        <v>1.170823184500161</v>
+        <v>1.17082318450016</v>
       </c>
     </row>
     <row r="135">
@@ -25442,16 +25442,16 @@
         <v>16.46292394967578</v>
       </c>
       <c r="BF135">
-        <v>3.767830887117843</v>
+        <v>37.67830887117843</v>
       </c>
       <c r="BG135">
-        <v>0.1268651488773515</v>
+        <v>0.01268651488773515</v>
       </c>
       <c r="BH135">
-        <v>0.2374418210626791</v>
+        <v>0.02374418210626792</v>
       </c>
       <c r="BI135">
-        <v>1.87160794878528</v>
+        <v>1.871607948785281</v>
       </c>
     </row>
     <row r="136">
@@ -25627,16 +25627,16 @@
         <v>19.03357053337926</v>
       </c>
       <c r="BF136">
-        <v>4.671670795275787</v>
+        <v>46.71670795275787</v>
       </c>
       <c r="BG136">
-        <v>0.4452143896924857</v>
+        <v>0.04452143896924857</v>
       </c>
       <c r="BH136">
-        <v>0.3589155498624667</v>
+        <v>0.03589155498624666</v>
       </c>
       <c r="BI136">
-        <v>0.8061634083983077</v>
+        <v>0.8061634083983076</v>
       </c>
     </row>
     <row r="137">
@@ -25812,16 +25812,16 @@
         <v>19.05722675244315</v>
       </c>
       <c r="BF137">
-        <v>5.030108183781855</v>
+        <v>50.30108183781855</v>
       </c>
       <c r="BG137">
-        <v>0.466725875346949</v>
+        <v>0.04667258753469487</v>
       </c>
       <c r="BH137">
-        <v>0.3514587303073423</v>
+        <v>0.03514587303073422</v>
       </c>
       <c r="BI137">
-        <v>0.7530303093782387</v>
+        <v>0.753030309378239</v>
       </c>
     </row>
     <row r="138">
@@ -25997,16 +25997,16 @@
         <v>20.18195866867648</v>
       </c>
       <c r="BF138">
-        <v>4.566596254013265</v>
+        <v>45.66596254013265</v>
       </c>
       <c r="BG138">
-        <v>0.4673972724869111</v>
+        <v>0.04673972724869108</v>
       </c>
       <c r="BH138">
-        <v>0.3540167697462183</v>
+        <v>0.03540167697462183</v>
       </c>
       <c r="BI138">
-        <v>0.7574215567467441</v>
+        <v>0.7574215567467445</v>
       </c>
     </row>
     <row r="139">
@@ -26182,16 +26182,16 @@
         <v>17.94503814154006</v>
       </c>
       <c r="BF139">
-        <v>3.697154376487823</v>
+        <v>36.97154376487823</v>
       </c>
       <c r="BG139">
-        <v>0.1410284713638753</v>
+        <v>0.01410284713638753</v>
       </c>
       <c r="BH139">
-        <v>0.2235145068982938</v>
+        <v>0.02235145068982938</v>
       </c>
       <c r="BI139">
-        <v>1.584889240709359</v>
+        <v>1.584889240709358</v>
       </c>
     </row>
     <row r="140">
@@ -26367,16 +26367,16 @@
         <v>20.15388092740093</v>
       </c>
       <c r="BF140">
-        <v>7.292170080727181</v>
+        <v>72.9217008072718</v>
       </c>
       <c r="BG140">
-        <v>0.1054025894886921</v>
+        <v>0.01054025894886922</v>
       </c>
       <c r="BH140">
-        <v>0.02732666323077692</v>
+        <v>0.002732666323077695</v>
       </c>
       <c r="BI140">
-        <v>0.2592598850117303</v>
+        <v>0.2592598850117304</v>
       </c>
     </row>
     <row r="141">
@@ -26552,16 +26552,16 @@
         <v>20.62546285549218</v>
       </c>
       <c r="BF141">
-        <v>7.214508273595719</v>
+        <v>72.14508273595719</v>
       </c>
       <c r="BG141">
-        <v>0.04303898756631616</v>
+        <v>0.004303898756631605</v>
       </c>
       <c r="BH141">
-        <v>0.03197206478394478</v>
+        <v>0.003197206478394475</v>
       </c>
       <c r="BI141">
-        <v>0.7428628458018667</v>
+        <v>0.7428628458018679</v>
       </c>
     </row>
     <row r="142">
@@ -26737,16 +26737,16 @@
         <v>17.83616410468389</v>
       </c>
       <c r="BF142">
-        <v>4.548649464121295</v>
+        <v>45.48649464121296</v>
       </c>
       <c r="BG142">
-        <v>0.4668709386505058</v>
+        <v>0.04668709386505056</v>
       </c>
       <c r="BH142">
-        <v>0.3528683364698413</v>
+        <v>0.03528683364698414</v>
       </c>
       <c r="BI142">
-        <v>0.7558155953973278</v>
+        <v>0.7558155953973282</v>
       </c>
     </row>
     <row r="143">
@@ -26922,16 +26922,16 @@
         <v>18.1220532820074</v>
       </c>
       <c r="BF143">
-        <v>5.358109440621638</v>
+        <v>53.58109440621638</v>
       </c>
       <c r="BG143">
-        <v>0.3175283537102884</v>
+        <v>0.03175283537102883</v>
       </c>
       <c r="BH143">
-        <v>0.3144721863789091</v>
+        <v>0.0314472186378909</v>
       </c>
       <c r="BI143">
-        <v>0.990375135651137</v>
+        <v>0.9903751356511369</v>
       </c>
     </row>
     <row r="144">
@@ -27107,13 +27107,13 @@
         <v>20.86938838510281</v>
       </c>
       <c r="BF144">
-        <v>6.168279737320642</v>
+        <v>61.68279737320642</v>
       </c>
       <c r="BG144">
-        <v>0.4026160574047829</v>
+        <v>0.04026160574047828</v>
       </c>
       <c r="BH144">
-        <v>0.1639423328424723</v>
+        <v>0.01639423328424723</v>
       </c>
       <c r="BI144">
         <v>0.4071927331940655</v>
@@ -27292,16 +27292,16 @@
         <v>21.74246508293814</v>
       </c>
       <c r="BF145">
-        <v>5.706071061247415</v>
+        <v>57.06071061247415</v>
       </c>
       <c r="BG145">
-        <v>0.4302121094868253</v>
+        <v>0.04302121094868251</v>
       </c>
       <c r="BH145">
-        <v>0.2538742613938245</v>
+        <v>0.02538742613938244</v>
       </c>
       <c r="BI145">
-        <v>0.5901141687914274</v>
+        <v>0.5901141687914276</v>
       </c>
     </row>
     <row r="146">
@@ -27477,16 +27477,16 @@
         <v>18.40912896837083</v>
       </c>
       <c r="BF146">
-        <v>6.049295732576264</v>
+        <v>60.49295732576263</v>
       </c>
       <c r="BG146">
-        <v>0.08117844150706885</v>
+        <v>0.008117844150706906</v>
       </c>
       <c r="BH146">
-        <v>0.1865645109526853</v>
+        <v>0.01865645109526854</v>
       </c>
       <c r="BI146">
-        <v>2.29820266919561</v>
+        <v>2.298202669195605</v>
       </c>
     </row>
     <row r="147">
@@ -27662,16 +27662,16 @@
         <v>19.45350405532171</v>
       </c>
       <c r="BF147">
-        <v>3.776956191192376</v>
+        <v>37.76956191192377</v>
       </c>
       <c r="BG147">
-        <v>0.3669214714027736</v>
+        <v>0.03669214714027736</v>
       </c>
       <c r="BH147">
-        <v>0.239230989221742</v>
+        <v>0.02392309892217421</v>
       </c>
       <c r="BI147">
-        <v>0.651995066702258</v>
+        <v>0.6519950667022583</v>
       </c>
     </row>
     <row r="148">
@@ -27847,16 +27847,16 @@
         <v>19.75321513937193</v>
       </c>
       <c r="BF148">
-        <v>3.515687102006397</v>
+        <v>35.15687102006397</v>
       </c>
       <c r="BG148">
-        <v>0.4673877954540347</v>
+        <v>0.04673877954540345</v>
       </c>
       <c r="BH148">
-        <v>0.1878385145085652</v>
+        <v>0.01878385145085652</v>
       </c>
       <c r="BI148">
-        <v>0.401890071447187</v>
+        <v>0.4018900714471872</v>
       </c>
     </row>
     <row r="149">
@@ -28032,16 +28032,16 @@
         <v>22.09213867375307</v>
       </c>
       <c r="BF149">
-        <v>6.206371876129044</v>
+        <v>62.06371876129044</v>
       </c>
       <c r="BG149">
-        <v>0.4649748341979288</v>
+        <v>0.04649748341979287</v>
       </c>
       <c r="BH149">
-        <v>0.1569123824569851</v>
+        <v>0.01569123824569851</v>
       </c>
       <c r="BI149">
-        <v>0.337464247345032</v>
+        <v>0.3374642473450321</v>
       </c>
     </row>
     <row r="150">
@@ -28217,16 +28217,16 @@
         <v>19.42182401921087</v>
       </c>
       <c r="BF150">
-        <v>4.58827979633833</v>
+        <v>45.8827979633833</v>
       </c>
       <c r="BG150">
-        <v>0.4664256448451921</v>
+        <v>0.04664256448451919</v>
       </c>
       <c r="BH150">
-        <v>0.355284556518682</v>
+        <v>0.0355284556518682</v>
       </c>
       <c r="BI150">
-        <v>0.761717457959675</v>
+        <v>0.7617174579596754</v>
       </c>
     </row>
     <row r="151">
@@ -28402,16 +28402,16 @@
         <v>18.8674388076612</v>
       </c>
       <c r="BF151">
-        <v>4.434367831419905</v>
+        <v>44.34367831419905</v>
       </c>
       <c r="BG151">
-        <v>0.3896841965364233</v>
+        <v>0.03896841965364232</v>
       </c>
       <c r="BH151">
-        <v>0.3435149420689261</v>
+        <v>0.03435149420689261</v>
       </c>
       <c r="BI151">
-        <v>0.8815213578639908</v>
+        <v>0.881521357863991</v>
       </c>
     </row>
     <row r="152">
@@ -28587,16 +28587,16 @@
         <v>20.550482709156</v>
       </c>
       <c r="BF152">
-        <v>6.330873970621266</v>
+        <v>63.30873970621266</v>
       </c>
       <c r="BG152">
-        <v>0.1058858351711666</v>
+        <v>0.01058858351711668</v>
       </c>
       <c r="BH152">
-        <v>0.1348510187986166</v>
+        <v>0.01348510187986166</v>
       </c>
       <c r="BI152">
-        <v>1.273551071119448</v>
+        <v>1.273551071119446</v>
       </c>
     </row>
     <row r="153">
@@ -28772,16 +28772,16 @@
         <v>18.8486079463732</v>
       </c>
       <c r="BF153">
-        <v>5.410135887613873</v>
+        <v>54.10135887613873</v>
       </c>
       <c r="BG153">
-        <v>0.4555735965429034</v>
+        <v>0.04555735965429031</v>
       </c>
       <c r="BH153">
-        <v>0.3064885794718131</v>
+        <v>0.03064885794718131</v>
       </c>
       <c r="BI153">
-        <v>0.672753166113194</v>
+        <v>0.6727531661131944</v>
       </c>
     </row>
     <row r="154">
@@ -28957,16 +28957,16 @@
         <v>18.22585296535696</v>
       </c>
       <c r="BF154">
-        <v>4.999127858865494</v>
+        <v>49.99127858865494</v>
       </c>
       <c r="BG154">
-        <v>0.4668984493185085</v>
+        <v>0.04668984493185083</v>
       </c>
       <c r="BH154">
-        <v>0.3535593868771475</v>
+        <v>0.03535593868771475</v>
       </c>
       <c r="BI154">
-        <v>0.7572511482811899</v>
+        <v>0.7572511482811902</v>
       </c>
     </row>
     <row r="155">
@@ -29142,16 +29142,16 @@
         <v>21.59399500484791</v>
       </c>
       <c r="BF155">
-        <v>5.596534347161273</v>
+        <v>55.96534347161273</v>
       </c>
       <c r="BG155">
-        <v>0.1474493107156791</v>
+        <v>0.01474493107156793</v>
       </c>
       <c r="BH155">
-        <v>0.2744839367153052</v>
+        <v>0.02744839367153051</v>
       </c>
       <c r="BI155">
-        <v>1.8615477778976</v>
+        <v>1.861547777897597</v>
       </c>
     </row>
     <row r="156">
@@ -29327,16 +29327,16 @@
         <v>20.26324824643116</v>
       </c>
       <c r="BF156">
-        <v>5.170170828158045</v>
+        <v>51.70170828158045</v>
       </c>
       <c r="BG156">
-        <v>0.4302096676891231</v>
+        <v>0.04302096676891231</v>
       </c>
       <c r="BH156">
-        <v>0.3387842249322413</v>
+        <v>0.03387842249322413</v>
       </c>
       <c r="BI156">
-        <v>0.7874863127833114</v>
+        <v>0.7874863127833115</v>
       </c>
     </row>
     <row r="157">
@@ -29512,13 +29512,13 @@
         <v>18.8315167230765</v>
       </c>
       <c r="BF157">
-        <v>6.302456874185702</v>
+        <v>63.02456874185702</v>
       </c>
       <c r="BG157">
-        <v>0.1915882719811662</v>
+        <v>0.01915882719811662</v>
       </c>
       <c r="BH157">
-        <v>0.139751975192218</v>
+        <v>0.01397519751922181</v>
       </c>
       <c r="BI157">
         <v>0.7294390922110106</v>
@@ -29697,16 +29697,16 @@
         <v>18.98352517136041</v>
       </c>
       <c r="BF158">
-        <v>4.222070734057766</v>
+        <v>42.22070734057766</v>
       </c>
       <c r="BG158">
-        <v>0.4586517269580622</v>
+        <v>0.04586517269580619</v>
       </c>
       <c r="BH158">
-        <v>0.3176660126995638</v>
+        <v>0.03176660126995638</v>
       </c>
       <c r="BI158">
-        <v>0.6926083431679966</v>
+        <v>0.6926083431679971</v>
       </c>
     </row>
     <row r="159">
@@ -29882,16 +29882,16 @@
         <v>18.23032230174036</v>
       </c>
       <c r="BF159">
-        <v>6.993386529898772</v>
+        <v>69.93386529898773</v>
       </c>
       <c r="BG159">
-        <v>0.06365588071342736</v>
+        <v>0.006365588071342729</v>
       </c>
       <c r="BH159">
-        <v>0.04866142710228691</v>
+        <v>0.004866142710228682</v>
       </c>
       <c r="BI159">
-        <v>0.7644451157836613</v>
+        <v>0.7644451157836607</v>
       </c>
     </row>
     <row r="160">
@@ -30067,13 +30067,13 @@
         <v>17.71934841628534</v>
       </c>
       <c r="BF160">
-        <v>4.19943852058803</v>
+        <v>41.99438520588031</v>
       </c>
       <c r="BG160">
-        <v>0.4287736105780204</v>
+        <v>0.04287736105780205</v>
       </c>
       <c r="BH160">
-        <v>0.3143441883452485</v>
+        <v>0.03143441883452485</v>
       </c>
       <c r="BI160">
         <v>0.7331239157220704</v>
@@ -30252,16 +30252,16 @@
         <v>18.51721705357039</v>
       </c>
       <c r="BF161">
-        <v>3.173087984709326</v>
+        <v>31.73087984709326</v>
       </c>
       <c r="BG161">
-        <v>0.4243105142845697</v>
+        <v>0.04243105142845693</v>
       </c>
       <c r="BH161">
-        <v>0.1257040395761401</v>
+        <v>0.01257040395761402</v>
       </c>
       <c r="BI161">
-        <v>0.2962548307059744</v>
+        <v>0.2962548307059747</v>
       </c>
     </row>
     <row r="162">
@@ -30437,16 +30437,16 @@
         <v>16.72343601097455</v>
       </c>
       <c r="BF162">
-        <v>2.612655548161733</v>
+        <v>26.12655548161733</v>
       </c>
       <c r="BG162">
-        <v>0.3420374572189077</v>
+        <v>0.03420374572189071</v>
       </c>
       <c r="BH162">
-        <v>0.05299185396913852</v>
+        <v>0.005299185396913856</v>
       </c>
       <c r="BI162">
-        <v>0.1549299728749391</v>
+        <v>0.1549299728749395</v>
       </c>
     </row>
     <row r="163">
@@ -30622,16 +30622,16 @@
         <v>19.7791112895288</v>
       </c>
       <c r="BF163">
-        <v>6.484921316576686</v>
+        <v>64.84921316576686</v>
       </c>
       <c r="BG163">
-        <v>0.3602148935591521</v>
+        <v>0.0360214893559152</v>
       </c>
       <c r="BH163">
-        <v>0.1098556308023984</v>
+        <v>0.01098556308023984</v>
       </c>
       <c r="BI163">
-        <v>0.3049724838330669</v>
+        <v>0.304972483833067</v>
       </c>
     </row>
     <row r="164">
@@ -30807,16 +30807,16 @@
         <v>17.11906934784028</v>
       </c>
       <c r="BF164">
-        <v>5.339146112251121</v>
+        <v>53.39146112251121</v>
       </c>
       <c r="BG164">
-        <v>0.3309539525488653</v>
+        <v>0.03309539525488654</v>
       </c>
       <c r="BH164">
-        <v>0.3172590612384862</v>
+        <v>0.03172590612384862</v>
       </c>
       <c r="BI164">
-        <v>0.9586199493769241</v>
+        <v>0.9586199493769236</v>
       </c>
     </row>
     <row r="165">
@@ -30992,16 +30992,16 @@
         <v>18.04677297850771</v>
       </c>
       <c r="BF165">
-        <v>4.234943274093818</v>
+        <v>42.34943274093818</v>
       </c>
       <c r="BG165">
-        <v>0.4671742360152212</v>
+        <v>0.0467174236015221</v>
       </c>
       <c r="BH165">
-        <v>0.3195113417990127</v>
+        <v>0.03195113417990128</v>
       </c>
       <c r="BI165">
-        <v>0.6839232927832146</v>
+        <v>0.683923292783215</v>
       </c>
     </row>
     <row r="166">
@@ -31177,16 +31177,16 @@
         <v>17.1372485923207</v>
       </c>
       <c r="BF166">
-        <v>5.419009973674147</v>
+        <v>54.19009973674147</v>
       </c>
       <c r="BG166">
-        <v>0.1696218064283589</v>
+        <v>0.01696218064283592</v>
       </c>
       <c r="BH166">
-        <v>0.3050798368524208</v>
+        <v>0.03050798368524208</v>
       </c>
       <c r="BI166">
-        <v>1.798588538091496</v>
+        <v>1.798588538091493</v>
       </c>
     </row>
     <row r="167">
@@ -31362,16 +31362,16 @@
         <v>18.70952505074808</v>
       </c>
       <c r="BF167">
-        <v>3.804494841645636</v>
+        <v>38.04494841645636</v>
       </c>
       <c r="BG167">
-        <v>0.3953719388511226</v>
+        <v>0.03953719388511222</v>
       </c>
       <c r="BH167">
-        <v>0.2446116280908094</v>
+        <v>0.02446116280908094</v>
       </c>
       <c r="BI167">
-        <v>0.6186873777678945</v>
+        <v>0.6186873777678951</v>
       </c>
     </row>
     <row r="168">
@@ -31547,16 +31547,16 @@
         <v>16.53537443532108</v>
       </c>
       <c r="BF168">
-        <v>2.789612781672313</v>
+        <v>27.89612781672313</v>
       </c>
       <c r="BG168">
-        <v>0.3664193464528662</v>
+        <v>0.03664193464528655</v>
       </c>
       <c r="BH168">
-        <v>0.07156490562480917</v>
+        <v>0.00715649056248092</v>
       </c>
       <c r="BI168">
-        <v>0.1953087529836933</v>
+        <v>0.1953087529836937</v>
       </c>
     </row>
     <row r="169">
@@ -31732,16 +31732,16 @@
         <v>19.51650619298771</v>
       </c>
       <c r="BF169">
-        <v>3.374149650619156</v>
+        <v>33.74149650619155</v>
       </c>
       <c r="BG169">
-        <v>0.4287117802340054</v>
+        <v>0.04287117802340049</v>
       </c>
       <c r="BH169">
-        <v>0.1609791430623031</v>
+        <v>0.01609791430623031</v>
       </c>
       <c r="BI169">
-        <v>0.3754950306577422</v>
+        <v>0.3754950306577425</v>
       </c>
     </row>
     <row r="170">
@@ -31917,16 +31917,16 @@
         <v>17.22623587105049</v>
       </c>
       <c r="BF170">
-        <v>3.424075447460282</v>
+        <v>34.24075447460282</v>
       </c>
       <c r="BG170">
-        <v>0.4409531935695006</v>
+        <v>0.04409531935695003</v>
       </c>
       <c r="BH170">
-        <v>0.170302080264099</v>
+        <v>0.0170302080264099</v>
       </c>
       <c r="BI170">
-        <v>0.3862135091607107</v>
+        <v>0.3862135091607112</v>
       </c>
     </row>
     <row r="171">
@@ -32102,13 +32102,13 @@
         <v>19.01898834695738</v>
       </c>
       <c r="BF171">
-        <v>6.094301752088952</v>
+        <v>60.94301752088952</v>
       </c>
       <c r="BG171">
-        <v>0.3707630595740689</v>
+        <v>0.03707630595740687</v>
       </c>
       <c r="BH171">
-        <v>0.1779038931427285</v>
+        <v>0.01779038931427284</v>
       </c>
       <c r="BI171">
         <v>0.4798317646507282</v>
@@ -32287,16 +32287,16 @@
         <v>14.57257340948088</v>
       </c>
       <c r="BF172">
-        <v>5.500554434326394</v>
+        <v>55.00554434326394</v>
       </c>
       <c r="BG172">
-        <v>0.1423832964284542</v>
+        <v>0.01423832964284546</v>
       </c>
       <c r="BH172">
-        <v>0.2915546215937295</v>
+        <v>0.02915546215937295</v>
       </c>
       <c r="BI172">
-        <v>2.04767433334592</v>
+        <v>2.047674333345915</v>
       </c>
     </row>
     <row r="173">
@@ -32472,13 +32472,13 @@
         <v>19.55045627521429</v>
       </c>
       <c r="BF173">
-        <v>6.402136689073447</v>
+        <v>64.02136689073447</v>
       </c>
       <c r="BG173">
-        <v>0.285274327762107</v>
+        <v>0.02852743277621068</v>
       </c>
       <c r="BH173">
-        <v>0.1229460438692317</v>
+        <v>0.01229460438692316</v>
       </c>
       <c r="BI173">
         <v>0.4309747912954775</v>
@@ -32657,13 +32657,13 @@
         <v>17.28641996135174</v>
       </c>
       <c r="BF174">
-        <v>6.734190145396547</v>
+        <v>67.34190145396548</v>
       </c>
       <c r="BG174">
-        <v>0.36179304558372</v>
+        <v>0.03617930455837194</v>
       </c>
       <c r="BH174">
-        <v>0.07566925090866737</v>
+        <v>0.007566925090866729</v>
       </c>
       <c r="BI174">
         <v>0.2091506507168538</v>
@@ -32842,16 +32842,16 @@
         <v>19.51228700764163</v>
       </c>
       <c r="BF175">
-        <v>4.214179075028044</v>
+        <v>42.14179075028044</v>
       </c>
       <c r="BG175">
-        <v>0.24931089662321</v>
+        <v>0.02493108966232101</v>
       </c>
       <c r="BH175">
-        <v>0.3165187958546034</v>
+        <v>0.03165187958546033</v>
       </c>
       <c r="BI175">
-        <v>1.269574656148971</v>
+        <v>1.26957465614897</v>
       </c>
     </row>
     <row r="176">
@@ -33027,16 +33027,16 @@
         <v>21.22947333516688</v>
       </c>
       <c r="BF176">
-        <v>6.901574212413599</v>
+        <v>69.01574212413598</v>
       </c>
       <c r="BG176">
-        <v>0.04870390048245821</v>
+        <v>0.004870390048245846</v>
       </c>
       <c r="BH176">
-        <v>0.057256869652002</v>
+        <v>0.005725686965200203</v>
       </c>
       <c r="BI176">
-        <v>1.175611585208136</v>
+        <v>1.175611585208131</v>
       </c>
     </row>
     <row r="177">
@@ -33212,16 +33212,16 @@
         <v>19.76786334258363</v>
       </c>
       <c r="BF177">
-        <v>4.583658312330588</v>
+        <v>45.83658312330588</v>
       </c>
       <c r="BG177">
-        <v>0.3441490337623028</v>
+        <v>0.03441490337623027</v>
       </c>
       <c r="BH177">
-        <v>0.3550254055989672</v>
+        <v>0.03550254055989672</v>
       </c>
       <c r="BI177">
-        <v>1.031603668090425</v>
+        <v>1.031603668090426</v>
       </c>
     </row>
     <row r="178">
@@ -33397,16 +33397,16 @@
         <v>17.66543871006511</v>
       </c>
       <c r="BF178">
-        <v>4.300591351405035</v>
+        <v>43.00591351405035</v>
       </c>
       <c r="BG178">
-        <v>0.2814271807910087</v>
+        <v>0.02814271807910088</v>
       </c>
       <c r="BH178">
-        <v>0.3283980035562697</v>
+        <v>0.03283980035562697</v>
       </c>
       <c r="BI178">
-        <v>1.166902225411348</v>
+        <v>1.166902225411347</v>
       </c>
     </row>
     <row r="179">
@@ -33582,16 +33582,16 @@
         <v>20.02094043306155</v>
       </c>
       <c r="BF179">
-        <v>6.109386534499787</v>
+        <v>61.09386534499787</v>
       </c>
       <c r="BG179">
-        <v>0.3156547854735723</v>
+        <v>0.0315654785473572</v>
       </c>
       <c r="BH179">
-        <v>0.1750271653385854</v>
+        <v>0.01750271653385854</v>
       </c>
       <c r="BI179">
-        <v>0.5544891869007932</v>
+        <v>0.5544891869007939</v>
       </c>
     </row>
     <row r="180">
@@ -33767,16 +33767,16 @@
         <v>22.19335643450549</v>
       </c>
       <c r="BF180">
-        <v>5.632205809693588</v>
+        <v>56.32205809693588</v>
       </c>
       <c r="BG180">
-        <v>0.4476098791024454</v>
+        <v>0.04476098791024453</v>
       </c>
       <c r="BH180">
-        <v>0.2678830342778138</v>
+        <v>0.02678830342778138</v>
       </c>
       <c r="BI180">
-        <v>0.5984743563188937</v>
+        <v>0.5984743563188938</v>
       </c>
     </row>
     <row r="181">
@@ -33952,13 +33952,13 @@
         <v>17.67373460613614</v>
       </c>
       <c r="BF181">
-        <v>3.953880305973479</v>
+        <v>39.53880305973479</v>
       </c>
       <c r="BG181">
-        <v>0.1742532207197341</v>
+        <v>0.0174253220719734</v>
       </c>
       <c r="BH181">
-        <v>0.2730154688565484</v>
+        <v>0.02730154688565484</v>
       </c>
       <c r="BI181">
         <v>1.56677430539813</v>
@@ -34137,16 +34137,16 @@
         <v>20.17978775347824</v>
       </c>
       <c r="BF182">
-        <v>3.90923864133073</v>
+        <v>39.0923864133073</v>
       </c>
       <c r="BG182">
-        <v>0.1879236520975542</v>
+        <v>0.01879236520975541</v>
       </c>
       <c r="BH182">
-        <v>0.2647033350468421</v>
+        <v>0.02647033350468421</v>
       </c>
       <c r="BI182">
-        <v>1.408568490939237</v>
+        <v>1.408568490939238</v>
       </c>
     </row>
     <row r="183">
@@ -34322,16 +34322,16 @@
         <v>19.12106974908755</v>
       </c>
       <c r="BF183">
-        <v>4.977424176595098</v>
+        <v>49.77424176595098</v>
       </c>
       <c r="BG183">
-        <v>0.3873622345228336</v>
+        <v>0.03873622345228336</v>
       </c>
       <c r="BH183">
-        <v>0.354872689539754</v>
+        <v>0.0354872689539754</v>
       </c>
       <c r="BI183">
-        <v>0.9161261938115848</v>
+        <v>0.9161261938115849</v>
       </c>
     </row>
     <row r="184">
@@ -34507,13 +34507,13 @@
         <v>19.61369880660342</v>
       </c>
       <c r="BF184">
-        <v>5.332959017080766</v>
+        <v>53.32959017080766</v>
       </c>
       <c r="BG184">
-        <v>0.4672209843767444</v>
+        <v>0.04672209843767442</v>
       </c>
       <c r="BH184">
-        <v>0.3181534310393533</v>
+        <v>0.03181534310393531</v>
       </c>
       <c r="BI184">
         <v>0.6809485054781053</v>
@@ -34692,16 +34692,16 @@
         <v>20.01030936962811</v>
       </c>
       <c r="BF185">
-        <v>7.636563545858251</v>
+        <v>76.3656354585825</v>
       </c>
       <c r="BG185">
-        <v>0.194030274996029</v>
+        <v>0.0194030274996029</v>
       </c>
       <c r="BH185">
-        <v>0.01283608805335231</v>
+        <v>0.001283608805335233</v>
       </c>
       <c r="BI185">
-        <v>0.06615507839493096</v>
+        <v>0.06615507839493105</v>
       </c>
     </row>
     <row r="186">
@@ -34877,16 +34877,16 @@
         <v>16.37700958526131</v>
       </c>
       <c r="BF186">
-        <v>3.872566032467835</v>
+        <v>38.72566032467835</v>
       </c>
       <c r="BG186">
-        <v>0.03856520745145049</v>
+        <v>0.003856520745145055</v>
       </c>
       <c r="BH186">
-        <v>0.2577504938069649</v>
+        <v>0.0257750493806965</v>
       </c>
       <c r="BI186">
-        <v>6.683498179841131</v>
+        <v>6.683498179841122</v>
       </c>
     </row>
     <row r="187">
@@ -35062,16 +35062,16 @@
         <v>21.90807604183463</v>
       </c>
       <c r="BF187">
-        <v>5.001322985664915</v>
+        <v>50.01322985664915</v>
       </c>
       <c r="BG187">
-        <v>0.3138520545379161</v>
+        <v>0.03138520545379162</v>
       </c>
       <c r="BH187">
-        <v>0.3534192546449443</v>
+        <v>0.03534192546449443</v>
       </c>
       <c r="BI187">
-        <v>1.126069590862749</v>
+        <v>1.126069590862748</v>
       </c>
     </row>
     <row r="188">
@@ -35247,16 +35247,16 @@
         <v>17.06268411841894</v>
       </c>
       <c r="BF188">
-        <v>4.365817284945181</v>
+        <v>43.65817284945181</v>
       </c>
       <c r="BG188">
-        <v>0.3956644318739314</v>
+        <v>0.03956644318739313</v>
       </c>
       <c r="BH188">
-        <v>0.3362974169906546</v>
+        <v>0.03362974169906546</v>
       </c>
       <c r="BI188">
-        <v>0.8499561494519361</v>
+        <v>0.8499561494519362</v>
       </c>
     </row>
     <row r="189">
@@ -35432,13 +35432,13 @@
         <v>19.01319831710635</v>
       </c>
       <c r="BF189">
-        <v>4.598079773816295</v>
+        <v>45.98079773816295</v>
       </c>
       <c r="BG189">
-        <v>0.4289342497618107</v>
+        <v>0.04289342497618106</v>
       </c>
       <c r="BH189">
-        <v>0.3558141737717115</v>
+        <v>0.03558141737717115</v>
       </c>
       <c r="BI189">
         <v>0.8295308056404844</v>
@@ -35617,16 +35617,16 @@
         <v>20.23766536524728</v>
       </c>
       <c r="BF190">
-        <v>5.247299483176418</v>
+        <v>52.47299483176418</v>
       </c>
       <c r="BG190">
-        <v>0.4553254209147976</v>
+        <v>0.04553254209147975</v>
       </c>
       <c r="BH190">
-        <v>0.3297365583300999</v>
+        <v>0.03297365583300998</v>
       </c>
       <c r="BI190">
-        <v>0.7241777928138162</v>
+        <v>0.7241777928138161</v>
       </c>
     </row>
     <row r="191">
@@ -35802,16 +35802,16 @@
         <v>21.25791962172337</v>
       </c>
       <c r="BF191">
-        <v>5.190082050929881</v>
+        <v>51.90082050929881</v>
       </c>
       <c r="BG191">
-        <v>0.3028038034974467</v>
+        <v>0.0302803803497447</v>
       </c>
       <c r="BH191">
-        <v>0.3365816351284808</v>
+        <v>0.03365816351284807</v>
       </c>
       <c r="BI191">
-        <v>1.111550222424201</v>
+        <v>1.111550222424199</v>
       </c>
     </row>
     <row r="192">
@@ -35987,16 +35987,16 @@
         <v>18.68083711897865</v>
       </c>
       <c r="BF192">
-        <v>3.342422986362791</v>
+        <v>33.42422986362791</v>
       </c>
       <c r="BG192">
-        <v>0.425973791614735</v>
+        <v>0.04259737916147347</v>
       </c>
       <c r="BH192">
-        <v>0.1551573519241148</v>
+        <v>0.01551573519241149</v>
       </c>
       <c r="BI192">
-        <v>0.3642415448517648</v>
+        <v>0.3642415448517652</v>
       </c>
     </row>
     <row r="193">
@@ -36172,16 +36172,16 @@
         <v>18.00593962133865</v>
       </c>
       <c r="BF193">
-        <v>2.675358840894337</v>
+        <v>26.75358840894337</v>
       </c>
       <c r="BG193">
-        <v>0.2408952987902373</v>
+        <v>0.02408952987902368</v>
       </c>
       <c r="BH193">
-        <v>0.05911784560742084</v>
+        <v>0.005911784560742087</v>
       </c>
       <c r="BI193">
-        <v>0.2454088805564382</v>
+        <v>0.2454088805564389</v>
       </c>
     </row>
     <row r="194">
@@ -36357,16 +36357,16 @@
         <v>18.06253710772722</v>
       </c>
       <c r="BF194">
-        <v>3.267730841852184</v>
+        <v>32.67730841852184</v>
       </c>
       <c r="BG194">
-        <v>0.3830631339379046</v>
+        <v>0.03830631339379043</v>
       </c>
       <c r="BH194">
-        <v>0.1418079875699633</v>
+        <v>0.01418079875699633</v>
       </c>
       <c r="BI194">
-        <v>0.3701948190946264</v>
+        <v>0.3701948190946269</v>
       </c>
     </row>
     <row r="195">
@@ -36542,16 +36542,16 @@
         <v>18.55394187130852</v>
       </c>
       <c r="BF195">
-        <v>4.680355131964742</v>
+        <v>46.80355131964742</v>
       </c>
       <c r="BG195">
-        <v>0.4466147163703189</v>
+        <v>0.04466147163703187</v>
       </c>
       <c r="BH195">
-        <v>0.3591784541322251</v>
+        <v>0.03591784541322251</v>
       </c>
       <c r="BI195">
-        <v>0.8042244040933161</v>
+        <v>0.8042244040933164</v>
       </c>
     </row>
     <row r="196">
@@ -36727,16 +36727,16 @@
         <v>17.51668119011846</v>
       </c>
       <c r="BF196">
-        <v>3.076936486709487</v>
+        <v>30.76936486709487</v>
       </c>
       <c r="BG196">
-        <v>0.2657298781624857</v>
+        <v>0.02657298781624855</v>
       </c>
       <c r="BH196">
-        <v>0.1103845594544794</v>
+        <v>0.01103845594544795</v>
       </c>
       <c r="BI196">
-        <v>0.4154013851125263</v>
+        <v>0.4154013851125267</v>
       </c>
     </row>
     <row r="197">
@@ -36912,16 +36912,16 @@
         <v>18.68542724556147</v>
       </c>
       <c r="BF197">
-        <v>5.642863266479403</v>
+        <v>56.42863266479403</v>
       </c>
       <c r="BG197">
-        <v>0.4319147006728929</v>
+        <v>0.04319147006728927</v>
       </c>
       <c r="BH197">
-        <v>0.2658882355675921</v>
+        <v>0.02658882355675921</v>
       </c>
       <c r="BI197">
-        <v>0.6156035790246471</v>
+        <v>0.6156035790246476</v>
       </c>
     </row>
     <row r="198">
@@ -37097,16 +37097,16 @@
         <v>17.2856811131416</v>
       </c>
       <c r="BF198">
-        <v>3.617759277262103</v>
+        <v>36.17759277262103</v>
       </c>
       <c r="BG198">
-        <v>0.3007448880995257</v>
+        <v>0.03007448880995257</v>
       </c>
       <c r="BH198">
-        <v>0.207826924609039</v>
+        <v>0.0207826924609039</v>
       </c>
       <c r="BI198">
-        <v>0.691040588993362</v>
+        <v>0.6910405889933621</v>
       </c>
     </row>
     <row r="199">
@@ -37282,16 +37282,16 @@
         <v>18.87350419165822</v>
       </c>
       <c r="BF199">
-        <v>4.974325748066629</v>
+        <v>49.74325748066629</v>
       </c>
       <c r="BG199">
-        <v>0.4080456642296667</v>
+        <v>0.04080456642296664</v>
       </c>
       <c r="BH199">
-        <v>0.3550494276453938</v>
+        <v>0.03550494276453937</v>
       </c>
       <c r="BI199">
-        <v>0.8701217995188788</v>
+        <v>0.8701217995188794</v>
       </c>
     </row>
     <row r="200">
@@ -37467,16 +37467,16 @@
         <v>18.00916857919518</v>
       </c>
       <c r="BF200">
-        <v>3.982770824244188</v>
+        <v>39.82770824244188</v>
       </c>
       <c r="BG200">
-        <v>0.3825840757641791</v>
+        <v>0.03825840757641789</v>
       </c>
       <c r="BH200">
-        <v>0.2782917662996979</v>
+        <v>0.0278291766299698</v>
       </c>
       <c r="BI200">
-        <v>0.7274002864437936</v>
+        <v>0.7274002864437942</v>
       </c>
     </row>
     <row r="201">
@@ -37652,16 +37652,16 @@
         <v>16.91127226718747</v>
       </c>
       <c r="BF201">
-        <v>4.532496180268756</v>
+        <v>45.32496180268757</v>
       </c>
       <c r="BG201">
-        <v>0.4671444693953622</v>
+        <v>0.0467144469395362</v>
       </c>
       <c r="BH201">
-        <v>0.3517586898511429</v>
+        <v>0.03517586898511429</v>
       </c>
       <c r="BI201">
-        <v>0.7529976546793624</v>
+        <v>0.7529976546793627</v>
       </c>
     </row>
     <row r="202">
@@ -37837,13 +37837,13 @@
         <v>19.48353073704101</v>
       </c>
       <c r="BF202">
-        <v>4.984666692767141</v>
+        <v>49.84666692767141</v>
       </c>
       <c r="BG202">
-        <v>0.3829583590913005</v>
+        <v>0.03829583590913005</v>
       </c>
       <c r="BH202">
-        <v>0.354449065303852</v>
+        <v>0.03544490653038519</v>
       </c>
       <c r="BI202">
         <v>0.9255551077273868</v>
@@ -38022,16 +38022,16 @@
         <v>18.40784247491715</v>
       </c>
       <c r="BF203">
-        <v>4.374796046632174</v>
+        <v>43.74796046632174</v>
       </c>
       <c r="BG203">
-        <v>0.4484889947427438</v>
+        <v>0.04484889947427435</v>
       </c>
       <c r="BH203">
-        <v>0.3373077710095609</v>
+        <v>0.03373077710095609</v>
       </c>
       <c r="BI203">
-        <v>0.7520982119149721</v>
+        <v>0.7520982119149727</v>
       </c>
     </row>
     <row r="204">
@@ -38207,16 +38207,16 @@
         <v>18.73378216242078</v>
       </c>
       <c r="BF204">
-        <v>5.707835511278563</v>
+        <v>57.07835511278563</v>
       </c>
       <c r="BG204">
-        <v>0.3340803688579334</v>
+        <v>0.03340803688579335</v>
       </c>
       <c r="BH204">
-        <v>0.2535349206470169</v>
+        <v>0.02535349206470168</v>
       </c>
       <c r="BI204">
-        <v>0.7589039772487555</v>
+        <v>0.7589039772487549</v>
       </c>
     </row>
     <row r="205">
@@ -38392,13 +38392,13 @@
         <v>20.28757265288801</v>
       </c>
       <c r="BF205">
-        <v>6.094603319407577</v>
+        <v>60.94603319407577</v>
       </c>
       <c r="BG205">
-        <v>0.3430161894634813</v>
+        <v>0.03430161894634814</v>
       </c>
       <c r="BH205">
-        <v>0.1778462463781801</v>
+        <v>0.01778462463781801</v>
       </c>
       <c r="BI205">
         <v>0.5184777040884078</v>
@@ -38577,16 +38577,16 @@
         <v>20.38178549105464</v>
       </c>
       <c r="BF206">
-        <v>6.897168902377661</v>
+        <v>68.97168902377661</v>
       </c>
       <c r="BG206">
-        <v>0.0924422717318707</v>
+        <v>0.009244227173187073</v>
       </c>
       <c r="BH206">
-        <v>0.05769550158882739</v>
+        <v>0.005769550158882747</v>
       </c>
       <c r="BI206">
-        <v>0.624124661888162</v>
+        <v>0.6241246618881626</v>
       </c>
     </row>
     <row r="207">
@@ -38762,16 +38762,16 @@
         <v>16.86527641538071</v>
       </c>
       <c r="BF207">
-        <v>3.832788910272065</v>
+        <v>38.32788910272065</v>
       </c>
       <c r="BG207">
-        <v>0.4656278240099548</v>
+        <v>0.04656278240099547</v>
       </c>
       <c r="BH207">
-        <v>0.2501044663152432</v>
+        <v>0.02501044663152433</v>
       </c>
       <c r="BI207">
-        <v>0.5371338511546856</v>
+        <v>0.5371338511546859</v>
       </c>
     </row>
     <row r="208">
@@ -38947,16 +38947,16 @@
         <v>18.58681430429376</v>
       </c>
       <c r="BF208">
-        <v>3.646294663873569</v>
+        <v>36.46294663873569</v>
       </c>
       <c r="BG208">
-        <v>0.2632857597600221</v>
+        <v>0.02632857597600222</v>
       </c>
       <c r="BH208">
-        <v>0.2134607689191364</v>
+        <v>0.02134607689191365</v>
       </c>
       <c r="BI208">
-        <v>0.8107569855418699</v>
+        <v>0.8107569855418697</v>
       </c>
     </row>
     <row r="209">
@@ -39132,16 +39132,16 @@
         <v>17.66034175473194</v>
       </c>
       <c r="BF209">
-        <v>5.779687920252077</v>
+        <v>57.79687920252077</v>
       </c>
       <c r="BG209">
-        <v>0.4524271744923118</v>
+        <v>0.04524271744923116</v>
       </c>
       <c r="BH209">
-        <v>0.2395764982478107</v>
+        <v>0.02395764982478107</v>
       </c>
       <c r="BI209">
-        <v>0.5295360485732316</v>
+        <v>0.5295360485732318</v>
       </c>
     </row>
     <row r="210">
@@ -39317,16 +39317,16 @@
         <v>17.37157339251398</v>
       </c>
       <c r="BF210">
-        <v>2.777588062742986</v>
+        <v>27.77588062742986</v>
       </c>
       <c r="BG210">
-        <v>0.3290482785483916</v>
+        <v>0.03290482785483911</v>
       </c>
       <c r="BH210">
-        <v>0.07017538064969694</v>
+        <v>0.0070175380649697</v>
       </c>
       <c r="BI210">
-        <v>0.2132677337176118</v>
+        <v>0.2132677337176123</v>
       </c>
     </row>
     <row r="211">
@@ -39502,16 +39502,16 @@
         <v>17.27924408234176</v>
       </c>
       <c r="BF211">
-        <v>3.179052870150914</v>
+        <v>31.79052870150914</v>
       </c>
       <c r="BG211">
-        <v>0.3865988118592338</v>
+        <v>0.03865988118592335</v>
       </c>
       <c r="BH211">
-        <v>0.126690061483318</v>
+        <v>0.01266900614833181</v>
       </c>
       <c r="BI211">
-        <v>0.3277042184222949</v>
+        <v>0.3277042184222953</v>
       </c>
     </row>
     <row r="212">
@@ -39687,16 +39687,16 @@
         <v>19.46340806525033</v>
       </c>
       <c r="BF212">
-        <v>3.107238030024819</v>
+        <v>31.07238030024819</v>
       </c>
       <c r="BG212">
-        <v>0.08171814204892877</v>
+        <v>0.008171814204892887</v>
       </c>
       <c r="BH212">
-        <v>0.1150931188520525</v>
+        <v>0.01150931188520525</v>
       </c>
       <c r="BI212">
-        <v>1.408415756480861</v>
+        <v>1.40841575648086</v>
       </c>
     </row>
     <row r="213">
@@ -39872,16 +39872,16 @@
         <v>19.60164842397834</v>
       </c>
       <c r="BF213">
-        <v>6.857460025436839</v>
+        <v>68.57460025436839</v>
       </c>
       <c r="BG213">
-        <v>0.04778896482593443</v>
+        <v>0.004778896482593456</v>
       </c>
       <c r="BH213">
-        <v>0.06175985702808136</v>
+        <v>0.006175985702808133</v>
       </c>
       <c r="BI213">
-        <v>1.292345570845366</v>
+        <v>1.292345570845362</v>
       </c>
     </row>
     <row r="214">
@@ -40057,16 +40057,16 @@
         <v>17.05630692263054</v>
       </c>
       <c r="BF214">
-        <v>4.842446919101247</v>
+        <v>48.42446919101248</v>
       </c>
       <c r="BG214">
-        <v>0.4604976839194685</v>
+        <v>0.04604976839194683</v>
       </c>
       <c r="BH214">
-        <v>0.3600263520368789</v>
+        <v>0.03600263520368788</v>
       </c>
       <c r="BI214">
-        <v>0.7818201146476125</v>
+        <v>0.7818201146476127</v>
       </c>
     </row>
     <row r="215">
@@ -40242,13 +40242,13 @@
         <v>20.30865499734318</v>
       </c>
       <c r="BF215">
-        <v>4.253643518512501</v>
+        <v>42.53643518512501</v>
       </c>
       <c r="BG215">
-        <v>0.2772006915921346</v>
+        <v>0.02772006915921348</v>
       </c>
       <c r="BH215">
-        <v>0.322133497834941</v>
+        <v>0.0322133497834941</v>
       </c>
       <c r="BI215">
         <v>1.162094856202304</v>
@@ -40427,16 +40427,16 @@
         <v>17.35139686205476</v>
       </c>
       <c r="BF216">
-        <v>4.311001967177194</v>
+        <v>43.11001967177194</v>
       </c>
       <c r="BG216">
-        <v>0.269189192767937</v>
+        <v>0.02691891927679371</v>
       </c>
       <c r="BH216">
-        <v>0.32972312109727</v>
+        <v>0.03297231210972701</v>
       </c>
       <c r="BI216">
-        <v>1.224875031968755</v>
+        <v>1.224875031968754</v>
       </c>
     </row>
     <row r="217">
@@ -40612,16 +40612,16 @@
         <v>19.87452989067587</v>
       </c>
       <c r="BF217">
-        <v>6.028060825405175</v>
+        <v>60.28060825405176</v>
       </c>
       <c r="BG217">
-        <v>0.4222315175084888</v>
+        <v>0.04222315175084884</v>
       </c>
       <c r="BH217">
-        <v>0.190686343841743</v>
+        <v>0.01906863438417429</v>
       </c>
       <c r="BI217">
-        <v>0.4516156088179972</v>
+        <v>0.4516156088179973</v>
       </c>
     </row>
     <row r="218">
@@ -40797,16 +40797,16 @@
         <v>18.5859275449233</v>
       </c>
       <c r="BF218">
-        <v>4.104591804701708</v>
+        <v>41.04591804701708</v>
       </c>
       <c r="BG218">
-        <v>0.4638033490408052</v>
+        <v>0.04638033490408049</v>
       </c>
       <c r="BH218">
-        <v>0.2994306075379641</v>
+        <v>0.02994306075379641</v>
       </c>
       <c r="BI218">
-        <v>0.6455982005244648</v>
+        <v>0.6455982005244653</v>
       </c>
     </row>
     <row r="219">
@@ -40982,13 +40982,13 @@
         <v>18.04091873284515</v>
       </c>
       <c r="BF219">
-        <v>4.336369266112262</v>
+        <v>43.36369266112263</v>
       </c>
       <c r="BG219">
-        <v>0.2931797171410452</v>
+        <v>0.02931797171410453</v>
       </c>
       <c r="BH219">
-        <v>0.3328509942091381</v>
+        <v>0.03328509942091382</v>
       </c>
       <c r="BI219">
         <v>1.135313852728112</v>
@@ -41167,16 +41167,16 @@
         <v>17.42400599824969</v>
       </c>
       <c r="BF220">
-        <v>4.813031287318685</v>
+        <v>48.13031287318685</v>
       </c>
       <c r="BG220">
-        <v>0.467080741735645</v>
+        <v>0.04670807417356447</v>
       </c>
       <c r="BH220">
-        <v>0.3604465844781323</v>
+        <v>0.03604465844781322</v>
       </c>
       <c r="BI220">
-        <v>0.7717008051728566</v>
+        <v>0.7717008051728569</v>
       </c>
     </row>
     <row r="221">
@@ -41352,13 +41352,13 @@
         <v>17.27981465496913</v>
       </c>
       <c r="BF221">
-        <v>3.606017035748265</v>
+        <v>36.06017035748265</v>
       </c>
       <c r="BG221">
-        <v>0.2311562855457805</v>
+        <v>0.02311562855457805</v>
       </c>
       <c r="BH221">
-        <v>0.2055123071046157</v>
+        <v>0.02055123071046156</v>
       </c>
       <c r="BI221">
         <v>0.8890621625078584</v>
@@ -41537,16 +41537,16 @@
         <v>21.02837855223275</v>
       </c>
       <c r="BF222">
-        <v>8.023900634772524</v>
+        <v>80.23900634772524</v>
       </c>
       <c r="BG222">
-        <v>0.02041485545812968</v>
+        <v>0.002041485545812974</v>
       </c>
       <c r="BH222">
-        <v>0.00488733767943291</v>
+        <v>0.0004887337679432909</v>
       </c>
       <c r="BI222">
-        <v>0.2394010425132183</v>
+        <v>0.2394010425132175</v>
       </c>
     </row>
     <row r="223">
@@ -41722,13 +41722,13 @@
         <v>19.0121201516814</v>
       </c>
       <c r="BF223">
-        <v>4.933579180900571</v>
+        <v>49.33579180900571</v>
       </c>
       <c r="BG223">
-        <v>0.3432979796131599</v>
+        <v>0.03432979796131601</v>
       </c>
       <c r="BH223">
-        <v>0.3571211185140149</v>
+        <v>0.03571211185140149</v>
       </c>
       <c r="BI223">
         <v>1.040265715855454</v>
@@ -41907,16 +41907,16 @@
         <v>19.03530889253851</v>
       </c>
       <c r="BF224">
-        <v>3.835696849412849</v>
+        <v>38.35696849412849</v>
       </c>
       <c r="BG224">
-        <v>0.3456906224604523</v>
+        <v>0.03456906224604522</v>
       </c>
       <c r="BH224">
-        <v>0.250666647226813</v>
+        <v>0.0250666647226813</v>
       </c>
       <c r="BI224">
-        <v>0.7251184467854338</v>
+        <v>0.725118446785434</v>
       </c>
     </row>
     <row r="225">
@@ -42092,16 +42092,16 @@
         <v>17.65693505355785</v>
       </c>
       <c r="BF225">
-        <v>6.820132538162994</v>
+        <v>68.20132538162994</v>
       </c>
       <c r="BG225">
-        <v>0.04805266947912024</v>
+        <v>0.004805266947912031</v>
       </c>
       <c r="BH225">
-        <v>0.06576387490783128</v>
+        <v>0.006576387490783124</v>
       </c>
       <c r="BI225">
-        <v>1.36857901175307</v>
+        <v>1.368579011753067</v>
       </c>
     </row>
     <row r="226">
@@ -42277,16 +42277,16 @@
         <v>18.06937983399101</v>
       </c>
       <c r="BF226">
-        <v>2.811088403749365</v>
+        <v>28.11088403749365</v>
       </c>
       <c r="BG226">
-        <v>0.3196441539138269</v>
+        <v>0.03196441539138264</v>
       </c>
       <c r="BH226">
-        <v>0.07409355855911637</v>
+        <v>0.007409355855911639</v>
       </c>
       <c r="BI226">
-        <v>0.2318001366578765</v>
+        <v>0.2318001366578769</v>
       </c>
     </row>
     <row r="227">
@@ -42462,16 +42462,16 @@
         <v>17.41435134838569</v>
       </c>
       <c r="BF227">
-        <v>3.531818851076197</v>
+        <v>35.31818851076197</v>
       </c>
       <c r="BG227">
-        <v>0.3153736615284883</v>
+        <v>0.03153736615284883</v>
       </c>
       <c r="BH227">
-        <v>0.1909727524707198</v>
+        <v>0.01909727524707198</v>
       </c>
       <c r="BI227">
-        <v>0.6055443931023036</v>
+        <v>0.6055443931023038</v>
       </c>
     </row>
     <row r="228">
@@ -42647,16 +42647,16 @@
         <v>17.13130425143052</v>
       </c>
       <c r="BF228">
-        <v>5.547305176548716</v>
+        <v>55.47305176548716</v>
       </c>
       <c r="BG228">
-        <v>0.4129923879799683</v>
+        <v>0.04129923879799682</v>
       </c>
       <c r="BH228">
-        <v>0.2833773235423127</v>
+        <v>0.02833773235423127</v>
       </c>
       <c r="BI228">
-        <v>0.6861562871131115</v>
+        <v>0.6861562871131117</v>
       </c>
     </row>
     <row r="229">
@@ -42832,16 +42832,16 @@
         <v>19.64990881523194</v>
       </c>
       <c r="BF229">
-        <v>6.293708472046858</v>
+        <v>62.93708472046858</v>
       </c>
       <c r="BG229">
-        <v>0.2730210248574179</v>
+        <v>0.02730210248574176</v>
       </c>
       <c r="BH229">
-        <v>0.1412775632713115</v>
+        <v>0.01412775632713114</v>
       </c>
       <c r="BI229">
-        <v>0.5174603800022071</v>
+        <v>0.5174603800022074</v>
       </c>
     </row>
     <row r="230">
@@ -43017,16 +43017,16 @@
         <v>20.75598177155586</v>
       </c>
       <c r="BF230">
-        <v>6.462974687684758</v>
+        <v>64.62974687684758</v>
       </c>
       <c r="BG230">
-        <v>0.2088725163872619</v>
+        <v>0.02088725163872621</v>
       </c>
       <c r="BH230">
-        <v>0.1132454611033031</v>
+        <v>0.01132454611033032</v>
       </c>
       <c r="BI230">
-        <v>0.5421750216928465</v>
+        <v>0.542175021692846</v>
       </c>
     </row>
     <row r="231">
@@ -43202,13 +43202,13 @@
         <v>18.60650941030847</v>
       </c>
       <c r="BF231">
-        <v>6.192798295221009</v>
+        <v>61.92798295221009</v>
       </c>
       <c r="BG231">
-        <v>0.2646452547450164</v>
+        <v>0.02646452547450162</v>
       </c>
       <c r="BH231">
-        <v>0.1594038172783467</v>
+        <v>0.01594038172783465</v>
       </c>
       <c r="BI231">
         <v>0.6023301548782009</v>
@@ -43387,16 +43387,16 @@
         <v>20.01062916609778</v>
       </c>
       <c r="BF232">
-        <v>3.883675969418653</v>
+        <v>38.83675969418653</v>
       </c>
       <c r="BG232">
-        <v>0.4166712684791201</v>
+        <v>0.04166712684791199</v>
       </c>
       <c r="BH232">
-        <v>0.2598674949130235</v>
+        <v>0.02598674949130237</v>
       </c>
       <c r="BI232">
-        <v>0.6236750997052386</v>
+        <v>0.6236750997052394</v>
       </c>
     </row>
     <row r="233">
@@ -43572,16 +43572,16 @@
         <v>17.09397125488465</v>
       </c>
       <c r="BF233">
-        <v>4.033854865968259</v>
+        <v>40.33854865968259</v>
       </c>
       <c r="BG233">
-        <v>0.466284861782033</v>
+        <v>0.04662848617820328</v>
       </c>
       <c r="BH233">
-        <v>0.2873919951031398</v>
+        <v>0.02873919951031399</v>
       </c>
       <c r="BI233">
-        <v>0.6163442536066773</v>
+        <v>0.6163442536066777</v>
       </c>
     </row>
     <row r="234">
@@ -43757,16 +43757,16 @@
         <v>17.44104565763968</v>
       </c>
       <c r="BF234">
-        <v>3.033350389684033</v>
+        <v>30.33350389684033</v>
       </c>
       <c r="BG234">
-        <v>0.2260774376927231</v>
+        <v>0.02260774376927228</v>
       </c>
       <c r="BH234">
-        <v>0.1038108279708473</v>
+        <v>0.01038108279708473</v>
       </c>
       <c r="BI234">
-        <v>0.4591826103051623</v>
+        <v>0.4591826103051631</v>
       </c>
     </row>
     <row r="235">
@@ -43942,16 +43942,16 @@
         <v>17.16753100066927</v>
       </c>
       <c r="BF235">
-        <v>4.118727499671163</v>
+        <v>41.18727499671163</v>
       </c>
       <c r="BG235">
-        <v>0.3789475955289682</v>
+        <v>0.03789475955289683</v>
       </c>
       <c r="BH235">
-        <v>0.3017481972354911</v>
+        <v>0.03017481972354911</v>
       </c>
       <c r="BI235">
-        <v>0.796279487706696</v>
+        <v>0.7962794877066959</v>
       </c>
     </row>
     <row r="236">
@@ -44127,16 +44127,16 @@
         <v>19.85551131795117</v>
       </c>
       <c r="BF236">
-        <v>6.186934983397925</v>
+        <v>61.86934983397925</v>
       </c>
       <c r="BG236">
-        <v>0.4673890341025529</v>
+        <v>0.04673890341025527</v>
       </c>
       <c r="BH236">
-        <v>0.1604847557896742</v>
+        <v>0.01604847557896742</v>
       </c>
       <c r="BI236">
-        <v>0.343364401130689</v>
+        <v>0.3433644011306891</v>
       </c>
     </row>
     <row r="237">
@@ -44312,16 +44312,16 @@
         <v>16.58126586048258</v>
       </c>
       <c r="BF237">
-        <v>3.907584283855992</v>
+        <v>39.07584283855992</v>
       </c>
       <c r="BG237">
-        <v>0.4645205909874086</v>
+        <v>0.04645205909874085</v>
       </c>
       <c r="BH237">
-        <v>0.2643919371732954</v>
+        <v>0.02643919371732955</v>
       </c>
       <c r="BI237">
-        <v>0.5691716197365772</v>
+        <v>0.5691716197365775</v>
       </c>
     </row>
     <row r="238">
@@ -44497,16 +44497,16 @@
         <v>19.5950270125829</v>
       </c>
       <c r="BF238">
-        <v>4.433966038308608</v>
+        <v>44.33966038308608</v>
       </c>
       <c r="BG238">
-        <v>0.3514832476190716</v>
+        <v>0.03514832476190714</v>
       </c>
       <c r="BH238">
-        <v>0.3434760324462707</v>
+        <v>0.03434760324462707</v>
       </c>
       <c r="BI238">
-        <v>0.9772187857400277</v>
+        <v>0.9772187857400283</v>
       </c>
     </row>
     <row r="239">
@@ -44682,16 +44682,16 @@
         <v>20.05627017303908</v>
       </c>
       <c r="BF239">
-        <v>4.504114717998849</v>
+        <v>45.04114717998849</v>
       </c>
       <c r="BG239">
-        <v>0.3266342069610414</v>
+        <v>0.03266342069610417</v>
       </c>
       <c r="BH239">
-        <v>0.3496368828525376</v>
+        <v>0.03496368828525376</v>
       </c>
       <c r="BI239">
-        <v>1.070423352488124</v>
+        <v>1.070423352488123</v>
       </c>
     </row>
     <row r="240">
@@ -44867,16 +44867,16 @@
         <v>20.86613848735299</v>
       </c>
       <c r="BF240">
-        <v>4.743461266526942</v>
+        <v>47.43461266526942</v>
       </c>
       <c r="BG240">
-        <v>0.4653400024762884</v>
+        <v>0.04653400024762882</v>
       </c>
       <c r="BH240">
-        <v>0.3604269619013483</v>
+        <v>0.03604269619013483</v>
       </c>
       <c r="BI240">
-        <v>0.774545407623137</v>
+        <v>0.7745454076231372</v>
       </c>
     </row>
     <row r="241">
@@ -45052,16 +45052,16 @@
         <v>18.77957894961218</v>
       </c>
       <c r="BF241">
-        <v>7.426039811808024</v>
+        <v>74.26039811808023</v>
       </c>
       <c r="BG241">
-        <v>0.0205869650228474</v>
+        <v>0.002058696502284748</v>
       </c>
       <c r="BH241">
-        <v>0.02060771232176214</v>
+        <v>0.002060771232176216</v>
       </c>
       <c r="BI241">
-        <v>1.001007788126696</v>
+        <v>1.001007788126693</v>
       </c>
     </row>
     <row r="242">
@@ -45237,16 +45237,16 @@
         <v>16.65675958806452</v>
       </c>
       <c r="BF242">
-        <v>4.36925489601925</v>
+        <v>43.6925489601925</v>
       </c>
       <c r="BG242">
-        <v>0.4601707961743815</v>
+        <v>0.04601707961743814</v>
       </c>
       <c r="BH242">
-        <v>0.3366865034749013</v>
+        <v>0.03366865034749013</v>
       </c>
       <c r="BI242">
-        <v>0.7316555206760971</v>
+        <v>0.7316555206760974</v>
       </c>
     </row>
     <row r="243">
@@ -45422,16 +45422,16 @@
         <v>16.58567954249866</v>
       </c>
       <c r="BF243">
-        <v>3.559469494162235</v>
+        <v>35.59469494162235</v>
       </c>
       <c r="BG243">
-        <v>0.2653127202933909</v>
+        <v>0.02653127202933908</v>
       </c>
       <c r="BH243">
-        <v>0.1963699773015095</v>
+        <v>0.01963699773015095</v>
       </c>
       <c r="BI243">
-        <v>0.7401453540725735</v>
+        <v>0.7401453540725741</v>
       </c>
     </row>
     <row r="244">
@@ -45607,16 +45607,16 @@
         <v>17.24734024312916</v>
       </c>
       <c r="BF244">
-        <v>4.712966022815814</v>
+        <v>47.12966022815814</v>
       </c>
       <c r="BG244">
-        <v>0.4671863550588089</v>
+        <v>0.04671863550588087</v>
       </c>
       <c r="BH244">
-        <v>0.3599693163416156</v>
+        <v>0.03599693163416156</v>
       </c>
       <c r="BI244">
-        <v>0.7705047727609747</v>
+        <v>0.7705047727609751</v>
       </c>
     </row>
     <row r="245">
@@ -45792,16 +45792,16 @@
         <v>20.23597467895483</v>
       </c>
       <c r="BF245">
-        <v>5.783557115640898</v>
+        <v>57.83557115640897</v>
       </c>
       <c r="BG245">
-        <v>0.280385363499528</v>
+        <v>0.02803853634995282</v>
       </c>
       <c r="BH245">
-        <v>0.238818455442645</v>
+        <v>0.0238818455442645</v>
       </c>
       <c r="BI245">
-        <v>0.8517507920596111</v>
+        <v>0.8517507920596106</v>
       </c>
     </row>
     <row r="246">
@@ -45977,16 +45977,16 @@
         <v>16.89635698074226</v>
       </c>
       <c r="BF246">
-        <v>3.803276310296428</v>
+        <v>38.03276310296428</v>
       </c>
       <c r="BG246">
-        <v>0.4426192351810471</v>
+        <v>0.04426192351810472</v>
       </c>
       <c r="BH246">
-        <v>0.2443742081806819</v>
+        <v>0.0244374208180682</v>
       </c>
       <c r="BI246">
-        <v>0.5521093272883273</v>
+        <v>0.5521093272883275</v>
       </c>
     </row>
     <row r="247">
@@ -46162,13 +46162,13 @@
         <v>19.14499352739103</v>
       </c>
       <c r="BF247">
-        <v>4.728672277184938</v>
+        <v>47.28672277184938</v>
       </c>
       <c r="BG247">
-        <v>0.3542407083227869</v>
+        <v>0.03542407083227869</v>
       </c>
       <c r="BH247">
-        <v>0.360239132962057</v>
+        <v>0.0360239132962057</v>
       </c>
       <c r="BI247">
         <v>1.0169331883613</v>
@@ -46347,16 +46347,16 @@
         <v>18.46172472663143</v>
       </c>
       <c r="BF248">
-        <v>4.05299365703396</v>
+        <v>40.52993657033959</v>
       </c>
       <c r="BG248">
-        <v>0.3738730726330561</v>
+        <v>0.03738730726330559</v>
       </c>
       <c r="BH248">
-        <v>0.2907178681532963</v>
+        <v>0.02907178681532963</v>
       </c>
       <c r="BI248">
-        <v>0.7775843981110298</v>
+        <v>0.7775843981110303</v>
       </c>
     </row>
     <row r="249">
@@ -46532,16 +46532,16 @@
         <v>18.72718601568785</v>
       </c>
       <c r="BF249">
-        <v>4.087419715584774</v>
+        <v>40.87419715584774</v>
       </c>
       <c r="BG249">
-        <v>0.4656406854030978</v>
+        <v>0.04656406854030976</v>
       </c>
       <c r="BH249">
-        <v>0.2965739781323252</v>
+        <v>0.02965739781323252</v>
       </c>
       <c r="BI249">
-        <v>0.6369159470581609</v>
+        <v>0.6369159470581612</v>
       </c>
     </row>
     <row r="250">
@@ -46717,13 +46717,13 @@
         <v>18.68691786843736</v>
       </c>
       <c r="BF250">
-        <v>4.144809468637538</v>
+        <v>41.44809468637538</v>
       </c>
       <c r="BG250">
-        <v>0.1771882674214271</v>
+        <v>0.01771882674214271</v>
       </c>
       <c r="BH250">
-        <v>0.3059404638109315</v>
+        <v>0.03059404638109316</v>
       </c>
       <c r="BI250">
         <v>1.726640641974778</v>
@@ -46902,16 +46902,16 @@
         <v>18.29729396033749</v>
       </c>
       <c r="BF251">
-        <v>4.381378299732056</v>
+        <v>43.81378299732056</v>
       </c>
       <c r="BG251">
-        <v>0.4367296539240264</v>
+        <v>0.04367296539240263</v>
       </c>
       <c r="BH251">
-        <v>0.3380362350049619</v>
+        <v>0.03380362350049619</v>
       </c>
       <c r="BI251">
-        <v>0.7740171338669087</v>
+        <v>0.7740171338669091</v>
       </c>
     </row>
     <row r="252">
@@ -47087,13 +47087,13 @@
         <v>17.79169406308889</v>
       </c>
       <c r="BF252">
-        <v>4.146863749835582</v>
+        <v>41.46863749835582</v>
       </c>
       <c r="BG252">
-        <v>0.3862029392106271</v>
+        <v>0.03862029392106272</v>
       </c>
       <c r="BH252">
-        <v>0.3062658889777098</v>
+        <v>0.03062658889777099</v>
       </c>
       <c r="BI252">
         <v>0.7930180169102201</v>
@@ -47272,16 +47272,16 @@
         <v>20.87970787845541</v>
       </c>
       <c r="BF253">
-        <v>5.858576616269458</v>
+        <v>58.58576616269458</v>
       </c>
       <c r="BG253">
-        <v>0.3820900529582</v>
+        <v>0.03820900529581997</v>
       </c>
       <c r="BH253">
-        <v>0.2240434926506389</v>
+        <v>0.02240434926506387</v>
       </c>
       <c r="BI253">
-        <v>0.5863630600065605</v>
+        <v>0.5863630600065606</v>
       </c>
     </row>
     <row r="254">
@@ -47457,16 +47457,16 @@
         <v>18.56419929967253</v>
       </c>
       <c r="BF254">
-        <v>3.598325458054636</v>
+        <v>35.98325458054636</v>
       </c>
       <c r="BG254">
-        <v>0.4282172077868041</v>
+        <v>0.04282172077868038</v>
       </c>
       <c r="BH254">
-        <v>0.2039976851130865</v>
+        <v>0.02039976851130866</v>
       </c>
       <c r="BI254">
-        <v>0.4763883407848724</v>
+        <v>0.4763883407848727</v>
       </c>
     </row>
     <row r="255">
@@ -47642,16 +47642,16 @@
         <v>19.34084858611157</v>
       </c>
       <c r="BF255">
-        <v>5.895100294169921</v>
+        <v>58.95100294169921</v>
       </c>
       <c r="BG255">
-        <v>0.4399024048185675</v>
+        <v>0.04399024048185671</v>
       </c>
       <c r="BH255">
-        <v>0.2168234673697528</v>
+        <v>0.02168234673697527</v>
       </c>
       <c r="BI255">
-        <v>0.4928899342097915</v>
+        <v>0.4928899342097917</v>
       </c>
     </row>
     <row r="256">
@@ -47827,16 +47827,16 @@
         <v>20.36704851685334</v>
       </c>
       <c r="BF256">
-        <v>6.969393138702631</v>
+        <v>69.69393138702631</v>
       </c>
       <c r="BG256">
-        <v>0.146837303191177</v>
+        <v>0.0146837303191177</v>
       </c>
       <c r="BH256">
-        <v>0.05080830253757627</v>
+        <v>0.005080830253757626</v>
       </c>
       <c r="BI256">
-        <v>0.3460176769347613</v>
+        <v>0.3460176769347611</v>
       </c>
     </row>
     <row r="257">
@@ -48012,16 +48012,16 @@
         <v>20.45173249698929</v>
       </c>
       <c r="BF257">
-        <v>4.790582641757136</v>
+        <v>47.90582641757135</v>
       </c>
       <c r="BG257">
-        <v>0.2743002036228084</v>
+        <v>0.0274300203622808</v>
       </c>
       <c r="BH257">
-        <v>0.360596054593313</v>
+        <v>0.0360596054593313</v>
       </c>
       <c r="BI257">
-        <v>1.314603670834931</v>
+        <v>1.314603670834933</v>
       </c>
     </row>
     <row r="258">
@@ -48197,16 +48197,16 @@
         <v>18.43047435955604</v>
       </c>
       <c r="BF258">
-        <v>3.48615571242742</v>
+        <v>34.8615571242742</v>
       </c>
       <c r="BG258">
-        <v>0.3531664103188724</v>
+        <v>0.03531664103188718</v>
       </c>
       <c r="BH258">
-        <v>0.1821331609781953</v>
+        <v>0.01821331609781952</v>
       </c>
       <c r="BI258">
-        <v>0.5157148461931815</v>
+        <v>0.5157148461931821</v>
       </c>
     </row>
     <row r="259">
@@ -48382,16 +48382,16 @@
         <v>19.20974622846257</v>
       </c>
       <c r="BF259">
-        <v>4.881284502772522</v>
+        <v>48.81284502772522</v>
       </c>
       <c r="BG259">
-        <v>0.4508875119691778</v>
+        <v>0.04508875119691776</v>
       </c>
       <c r="BH259">
-        <v>0.3590831837648463</v>
+        <v>0.03590831837648463</v>
       </c>
       <c r="BI259">
-        <v>0.7963919475094997</v>
+        <v>0.7963919475094999</v>
       </c>
     </row>
     <row r="260">
@@ -48567,16 +48567,16 @@
         <v>18.89339499613812</v>
       </c>
       <c r="BF260">
-        <v>3.566254705040627</v>
+        <v>35.66254705040627</v>
       </c>
       <c r="BG260">
-        <v>0.08403436981954795</v>
+        <v>0.008403436981954789</v>
       </c>
       <c r="BH260">
-        <v>0.1976986775586783</v>
+        <v>0.01976986775586783</v>
       </c>
       <c r="BI260">
-        <v>2.352593087604614</v>
+        <v>2.352593087604616</v>
       </c>
     </row>
     <row r="261">
@@ -48752,16 +48752,16 @@
         <v>17.9104075342443</v>
       </c>
       <c r="BF261">
-        <v>4.781852386992929</v>
+        <v>47.81852386992929</v>
       </c>
       <c r="BG261">
-        <v>0.2948474935104466</v>
+        <v>0.02948474935104468</v>
       </c>
       <c r="BH261">
-        <v>0.3606140956758297</v>
+        <v>0.03606140956758298</v>
       </c>
       <c r="BI261">
-        <v>1.223052946397365</v>
+        <v>1.223052946397364</v>
       </c>
     </row>
     <row r="262">
@@ -48937,16 +48937,16 @@
         <v>18.06670350080167</v>
       </c>
       <c r="BF262">
-        <v>4.293210465983042</v>
+        <v>42.93210465983042</v>
       </c>
       <c r="BG262">
-        <v>0.3744191405630084</v>
+        <v>0.03744191405630085</v>
       </c>
       <c r="BH262">
-        <v>0.3274441860119131</v>
+        <v>0.03274441860119131</v>
       </c>
       <c r="BI262">
-        <v>0.8745391208353831</v>
+        <v>0.8745391208353828</v>
       </c>
     </row>
     <row r="263">
@@ -49122,16 +49122,16 @@
         <v>18.70860378986771</v>
       </c>
       <c r="BF263">
-        <v>4.629446277008207</v>
+        <v>46.29446277008207</v>
       </c>
       <c r="BG263">
-        <v>0.4435443867574448</v>
+        <v>0.04435443867574446</v>
       </c>
       <c r="BH263">
-        <v>0.3573260673404126</v>
+        <v>0.03573260673404126</v>
       </c>
       <c r="BI263">
-        <v>0.805615126712941</v>
+        <v>0.8056151267129413</v>
       </c>
     </row>
     <row r="264">
@@ -49307,16 +49307,16 @@
         <v>20.36566776562811</v>
       </c>
       <c r="BF264">
-        <v>6.161681044859334</v>
+        <v>61.61681044859334</v>
       </c>
       <c r="BG264">
-        <v>0.3535713046734871</v>
+        <v>0.03535713046734869</v>
       </c>
       <c r="BH264">
-        <v>0.1651718465642567</v>
+        <v>0.01651718465642565</v>
       </c>
       <c r="BI264">
-        <v>0.4671528610524208</v>
+        <v>0.4671528610524207</v>
       </c>
     </row>
     <row r="265">
@@ -49492,16 +49492,16 @@
         <v>18.73214353529703</v>
       </c>
       <c r="BF265">
-        <v>3.539593233443846</v>
+        <v>35.39593233443846</v>
       </c>
       <c r="BG265">
-        <v>0.3523324976025222</v>
+        <v>0.03523324976025223</v>
       </c>
       <c r="BH265">
-        <v>0.1924872429022619</v>
+        <v>0.0192487242902262</v>
       </c>
       <c r="BI265">
-        <v>0.5463227042979528</v>
+        <v>0.546322704297953</v>
       </c>
     </row>
     <row r="266">
@@ -49677,16 +49677,16 @@
         <v>18.89826164924603</v>
       </c>
       <c r="BF266">
-        <v>5.144984992273444</v>
+        <v>51.44984992273444</v>
       </c>
       <c r="BG266">
-        <v>0.4673836654232039</v>
+        <v>0.04673836654232037</v>
       </c>
       <c r="BH266">
-        <v>0.3414324837032593</v>
+        <v>0.03414324837032592</v>
       </c>
       <c r="BI266">
-        <v>0.7305186487296276</v>
+        <v>0.7305186487296278</v>
       </c>
     </row>
     <row r="267">
@@ -49862,16 +49862,16 @@
         <v>16.91921684900304</v>
       </c>
       <c r="BF267">
-        <v>3.811193909845144</v>
+        <v>38.11193909845144</v>
       </c>
       <c r="BG267">
-        <v>0.4188874011786622</v>
+        <v>0.0418887401178662</v>
       </c>
       <c r="BH267">
-        <v>0.2459156784639581</v>
+        <v>0.02459156784639582</v>
       </c>
       <c r="BI267">
-        <v>0.5870686914240016</v>
+        <v>0.5870686914240022</v>
       </c>
     </row>
     <row r="268">
@@ -50047,16 +50047,16 @@
         <v>18.96206679825984</v>
       </c>
       <c r="BF268">
-        <v>4.475725708012506</v>
+        <v>44.75725708012506</v>
       </c>
       <c r="BG268">
-        <v>0.3534239730032907</v>
+        <v>0.03534239730032905</v>
       </c>
       <c r="BH268">
-        <v>0.347298567844313</v>
+        <v>0.03472985678443129</v>
       </c>
       <c r="BI268">
-        <v>0.9826683936946159</v>
+        <v>0.9826683936946161</v>
       </c>
     </row>
     <row r="269">
@@ -50232,16 +50232,16 @@
         <v>19.12064691724548</v>
       </c>
       <c r="BF269">
-        <v>4.829488117007296</v>
+        <v>48.29488117007296</v>
       </c>
       <c r="BG269">
-        <v>0.4530524839097732</v>
+        <v>0.04530524839097728</v>
       </c>
       <c r="BH269">
-        <v>0.3602428066144729</v>
+        <v>0.03602428066144728</v>
       </c>
       <c r="BI269">
-        <v>0.7951458592735944</v>
+        <v>0.7951458592735948</v>
       </c>
     </row>
     <row r="270">
@@ -50417,16 +50417,16 @@
         <v>17.90986193682981</v>
       </c>
       <c r="BF270">
-        <v>3.959231900596604</v>
+        <v>39.59231900596604</v>
       </c>
       <c r="BG270">
-        <v>0.405559958100747</v>
+        <v>0.04055599581007473</v>
       </c>
       <c r="BH270">
-        <v>0.2739993294419336</v>
+        <v>0.02739993294419337</v>
       </c>
       <c r="BI270">
-        <v>0.6756074508072324</v>
+        <v>0.6756074508072321</v>
       </c>
     </row>
     <row r="271">
@@ -50602,16 +50602,16 @@
         <v>17.91093843319089</v>
       </c>
       <c r="BF271">
-        <v>5.147305176548716</v>
+        <v>51.47305176548716</v>
       </c>
       <c r="BG271">
-        <v>0.4646501359425345</v>
+        <v>0.04646501359425343</v>
       </c>
       <c r="BH271">
-        <v>0.3411950510914296</v>
+        <v>0.03411950510914296</v>
       </c>
       <c r="BI271">
-        <v>0.7343052862759236</v>
+        <v>0.7343052862759238</v>
       </c>
     </row>
     <row r="272">
@@ -50787,16 +50787,16 @@
         <v>18.31306268195332</v>
       </c>
       <c r="BF272">
-        <v>4.060000249558057</v>
+        <v>40.60000249558058</v>
       </c>
       <c r="BG272">
-        <v>0.3396825306991529</v>
+        <v>0.03396825306991529</v>
       </c>
       <c r="BH272">
-        <v>0.2919232020787598</v>
+        <v>0.02919232020787598</v>
       </c>
       <c r="BI272">
-        <v>0.8594001036141237</v>
+        <v>0.859400103614124</v>
       </c>
     </row>
     <row r="273">
@@ -50972,16 +50972,16 @@
         <v>12.08728910954021</v>
       </c>
       <c r="BF273">
-        <v>4.956323227486952</v>
+        <v>49.56323227486952</v>
       </c>
       <c r="BG273">
-        <v>0.05950840540834022</v>
+        <v>0.005950840540834055</v>
       </c>
       <c r="BH273">
-        <v>0.3560227993481053</v>
+        <v>0.03560227993481052</v>
       </c>
       <c r="BI273">
-        <v>5.982731294934143</v>
+        <v>5.982731294934109</v>
       </c>
     </row>
     <row r="274">
@@ -51157,16 +51157,16 @@
         <v>18.84381621423026</v>
       </c>
       <c r="BF274">
-        <v>5.739278054338361</v>
+        <v>57.39278054338361</v>
       </c>
       <c r="BG274">
-        <v>0.2898532779374918</v>
+        <v>0.0289853277937492</v>
       </c>
       <c r="BH274">
-        <v>0.2474577731071414</v>
+        <v>0.02474577731071414</v>
       </c>
       <c r="BI274">
-        <v>0.8537346027893007</v>
+        <v>0.8537346027893002</v>
       </c>
     </row>
     <row r="275">
@@ -51342,16 +51342,16 @@
         <v>18.6039920857475</v>
       </c>
       <c r="BF275">
-        <v>6.10199827220928</v>
+        <v>61.0199827220928</v>
       </c>
       <c r="BG275">
-        <v>0.1277306608020213</v>
+        <v>0.01277306608020216</v>
       </c>
       <c r="BH275">
-        <v>0.176434375657799</v>
+        <v>0.01764343756577991</v>
       </c>
       <c r="BI275">
-        <v>1.381300108759846</v>
+        <v>1.381300108759843</v>
       </c>
     </row>
     <row r="276">
@@ -51527,16 +51527,16 @@
         <v>17.45352257436925</v>
       </c>
       <c r="BF276">
-        <v>4.412375163192651</v>
+        <v>44.12375163192651</v>
       </c>
       <c r="BG276">
-        <v>0.4182190553670798</v>
+        <v>0.04182190553670796</v>
       </c>
       <c r="BH276">
-        <v>0.3413254208540492</v>
+        <v>0.03413254208540491</v>
       </c>
       <c r="BI276">
-        <v>0.8161402893382287</v>
+        <v>0.8161402893382289</v>
       </c>
     </row>
     <row r="277">
@@ -51712,16 +51712,16 @@
         <v>17.99160960808166</v>
       </c>
       <c r="BF277">
-        <v>5.094339527974824</v>
+        <v>50.94339527974824</v>
       </c>
       <c r="BG277">
-        <v>0.4663706045803211</v>
+        <v>0.04663706045803209</v>
       </c>
       <c r="BH277">
-        <v>0.3462768832524692</v>
+        <v>0.03462768832524691</v>
       </c>
       <c r="BI277">
-        <v>0.7424929441341566</v>
+        <v>0.7424929441341568</v>
       </c>
     </row>
     <row r="278">
@@ -51897,16 +51897,16 @@
         <v>18.29985061060551</v>
       </c>
       <c r="BF278">
-        <v>2.656082041483645</v>
+        <v>26.56082041483645</v>
       </c>
       <c r="BG278">
-        <v>0.08432439081399971</v>
+        <v>0.00843243908139998</v>
       </c>
       <c r="BH278">
-        <v>0.05718226359057044</v>
+        <v>0.005718226359057047</v>
       </c>
       <c r="BI278">
-        <v>0.6781224630095629</v>
+        <v>0.6781224630095625</v>
       </c>
     </row>
     <row r="279">
@@ -52082,16 +52082,16 @@
         <v>18.87988225229977</v>
       </c>
       <c r="BF279">
-        <v>4.29319180886198</v>
+        <v>42.9319180886198</v>
       </c>
       <c r="BG279">
-        <v>0.3573371499749807</v>
+        <v>0.03573371499749806</v>
       </c>
       <c r="BH279">
-        <v>0.3274417600337904</v>
+        <v>0.03274417600337904</v>
       </c>
       <c r="BI279">
-        <v>0.9163384217306164</v>
+        <v>0.9163384217306167</v>
       </c>
     </row>
     <row r="280">
@@ -52267,16 +52267,16 @@
         <v>17.86659506921481</v>
       </c>
       <c r="BF280">
-        <v>5.513323782809363</v>
+        <v>55.13323782809363</v>
       </c>
       <c r="BG280">
-        <v>0.1617839619186887</v>
+        <v>0.01617839619186889</v>
       </c>
       <c r="BH280">
-        <v>0.2893492488009526</v>
+        <v>0.02893492488009526</v>
       </c>
       <c r="BI280">
-        <v>1.788491549900213</v>
+        <v>1.788491549900211</v>
       </c>
     </row>
     <row r="281">
@@ -52452,16 +52452,16 @@
         <v>19.88989530647922</v>
       </c>
       <c r="BF281">
-        <v>5.693766252022712</v>
+        <v>56.93766252022712</v>
       </c>
       <c r="BG281">
-        <v>0.1768038438002046</v>
+        <v>0.01768038438002051</v>
       </c>
       <c r="BH281">
-        <v>0.256235272566264</v>
+        <v>0.02562352725662639</v>
       </c>
       <c r="BI281">
-        <v>1.449263019732874</v>
+        <v>1.44926301973287</v>
       </c>
     </row>
     <row r="282">
@@ -52637,13 +52637,13 @@
         <v>19.26458864921469</v>
       </c>
       <c r="BF282">
-        <v>6.044409880470094</v>
+        <v>60.44409880470094</v>
       </c>
       <c r="BG282">
-        <v>0.1747620490470451</v>
+        <v>0.01747620490470451</v>
       </c>
       <c r="BH282">
-        <v>0.1875110432349105</v>
+        <v>0.01875110432349105</v>
       </c>
       <c r="BI282">
         <v>1.072950587712744</v>
@@ -52822,16 +52822,16 @@
         <v>17.72717357860567</v>
       </c>
       <c r="BF283">
-        <v>5.091974289430873</v>
+        <v>50.91974289430873</v>
       </c>
       <c r="BG283">
-        <v>0.424987634855073</v>
+        <v>0.04249876348550729</v>
       </c>
       <c r="BH283">
-        <v>0.3464870492635849</v>
+        <v>0.03464870492635849</v>
       </c>
       <c r="BI283">
-        <v>0.8152873656706319</v>
+        <v>0.815287365670632</v>
       </c>
     </row>
     <row r="284">
@@ -53007,16 +53007,16 @@
         <v>18.06669530861222</v>
       </c>
       <c r="BF284">
-        <v>5.206458897120901</v>
+        <v>52.06458897120901</v>
       </c>
       <c r="BG284">
-        <v>0.4395827792101583</v>
+        <v>0.04395827792101582</v>
       </c>
       <c r="BH284">
-        <v>0.3346994850591831</v>
+        <v>0.03346994850591831</v>
       </c>
       <c r="BI284">
-        <v>0.7614026319697296</v>
+        <v>0.7614026319697298</v>
       </c>
     </row>
     <row r="285">
@@ -53192,13 +53192,13 @@
         <v>18.21459669826885</v>
       </c>
       <c r="BF285">
-        <v>4.826146582510878</v>
+        <v>48.26146582510879</v>
       </c>
       <c r="BG285">
-        <v>0.3349637568110784</v>
+        <v>0.03349637568110785</v>
       </c>
       <c r="BH285">
-        <v>0.3602906248390758</v>
+        <v>0.03602906248390758</v>
       </c>
       <c r="BI285">
         <v>1.075610771353636</v>
@@ -53377,16 +53377,16 @@
         <v>18.97758796990048</v>
       </c>
       <c r="BF286">
-        <v>3.476843470907604</v>
+        <v>34.76843470907605</v>
       </c>
       <c r="BG286">
-        <v>0.4624556993571697</v>
+        <v>0.04624556993571694</v>
       </c>
       <c r="BH286">
-        <v>0.1803436085859538</v>
+        <v>0.0180343608585954</v>
       </c>
       <c r="BI286">
-        <v>0.3899694799667039</v>
+        <v>0.3899694799667045</v>
       </c>
     </row>
     <row r="287">
@@ -53562,16 +53562,16 @@
         <v>18.43678743202474</v>
       </c>
       <c r="BF287">
-        <v>4.634507510287402</v>
+        <v>46.34507510287402</v>
       </c>
       <c r="BG287">
-        <v>0.4074852766674325</v>
+        <v>0.04074852766674324</v>
       </c>
       <c r="BH287">
-        <v>0.3575436923401607</v>
+        <v>0.03575436923401606</v>
       </c>
       <c r="BI287">
-        <v>0.8774395366239665</v>
+        <v>0.8774395366239663</v>
       </c>
     </row>
     <row r="288">
@@ -53747,16 +53747,16 @@
         <v>17.94242990376105</v>
       </c>
       <c r="BF288">
-        <v>4.751114078465453</v>
+        <v>47.51114078465453</v>
       </c>
       <c r="BG288">
-        <v>0.309543211956438</v>
+        <v>0.03095432119564385</v>
       </c>
       <c r="BH288">
-        <v>0.3604989005424212</v>
+        <v>0.03604989005424211</v>
       </c>
       <c r="BI288">
-        <v>1.164615751913675</v>
+        <v>1.164615751913673</v>
       </c>
     </row>
     <row r="289">
@@ -53932,16 +53932,16 @@
         <v>18.51834895051599</v>
       </c>
       <c r="BF289">
-        <v>3.766342108555756</v>
+        <v>37.66342108555756</v>
       </c>
       <c r="BG289">
-        <v>0.3604901602557601</v>
+        <v>0.03604901602557597</v>
       </c>
       <c r="BH289">
-        <v>0.2371496624571654</v>
+        <v>0.02371496624571654</v>
       </c>
       <c r="BI289">
-        <v>0.6578533580192946</v>
+        <v>0.6578533580192953</v>
       </c>
     </row>
     <row r="290">
@@ -54117,16 +54117,16 @@
         <v>17.96211495648843</v>
       </c>
       <c r="BF290">
-        <v>2.572737722903367</v>
+        <v>25.72737722903366</v>
       </c>
       <c r="BG290">
-        <v>0.02664143209032831</v>
+        <v>0.002664143209032846</v>
       </c>
       <c r="BH290">
-        <v>0.04934430869859643</v>
+        <v>0.004934430869859644</v>
       </c>
       <c r="BI290">
-        <v>1.852164272975025</v>
+        <v>1.852164272975015</v>
       </c>
     </row>
     <row r="291">
@@ -54302,16 +54302,16 @@
         <v>18.49458884256127</v>
       </c>
       <c r="BF291">
-        <v>4.971065139962114</v>
+        <v>49.71065139962114</v>
       </c>
       <c r="BG291">
-        <v>0.4443610602537517</v>
+        <v>0.04443610602537516</v>
       </c>
       <c r="BH291">
-        <v>0.3552325025847105</v>
+        <v>0.03552325025847104</v>
       </c>
       <c r="BI291">
-        <v>0.7994231141267317</v>
+        <v>0.7994231141267319</v>
       </c>
     </row>
     <row r="292">
@@ -54487,16 +54487,16 @@
         <v>17.36985731831898</v>
       </c>
       <c r="BF292">
-        <v>2.345421596667961</v>
+        <v>23.45421596667961</v>
       </c>
       <c r="BG292">
-        <v>0.2273697695156333</v>
+        <v>0.02273697695156331</v>
       </c>
       <c r="BH292">
-        <v>0.03206900294487888</v>
+        <v>0.003206900294487891</v>
       </c>
       <c r="BI292">
-        <v>0.1410433894232976</v>
+        <v>0.1410433894232978</v>
       </c>
     </row>
     <row r="293">
@@ -54672,13 +54672,13 @@
         <v>17.75173069715587</v>
       </c>
       <c r="BF293">
-        <v>3.887835886824462</v>
+        <v>38.87835886824462</v>
       </c>
       <c r="BG293">
-        <v>0.3611216922122974</v>
+        <v>0.03611216922122974</v>
       </c>
       <c r="BH293">
-        <v>0.2606578701824631</v>
+        <v>0.02606578701824631</v>
       </c>
       <c r="BI293">
         <v>0.7218006445019279</v>
@@ -54857,16 +54857,16 @@
         <v>19.20392502616957</v>
       </c>
       <c r="BF294">
-        <v>4.554419143952431</v>
+        <v>45.5441914395243</v>
       </c>
       <c r="BG294">
-        <v>0.4673649590535554</v>
+        <v>0.04673649590535552</v>
       </c>
       <c r="BH294">
-        <v>0.353247276478409</v>
+        <v>0.03532472764784091</v>
       </c>
       <c r="BI294">
-        <v>0.7558274740873981</v>
+        <v>0.7558274740873985</v>
       </c>
     </row>
     <row r="295">
@@ -55042,13 +55042,13 @@
         <v>17.16648014756505</v>
       </c>
       <c r="BF295">
-        <v>4.132277223902568</v>
+        <v>41.32277223902568</v>
       </c>
       <c r="BG295">
-        <v>0.3519680734461612</v>
+        <v>0.03519680734461612</v>
       </c>
       <c r="BH295">
-        <v>0.3039399672226543</v>
+        <v>0.03039399672226543</v>
       </c>
       <c r="BI295">
         <v>0.8635441398043351</v>
@@ -55227,16 +55227,16 @@
         <v>18.02418561006718</v>
       </c>
       <c r="BF296">
-        <v>3.553504735083068</v>
+        <v>35.53504735083067</v>
       </c>
       <c r="BG296">
-        <v>0.4423194698637545</v>
+        <v>0.04423194698637541</v>
       </c>
       <c r="BH296">
-        <v>0.1952032528991693</v>
+        <v>0.01952032528991693</v>
       </c>
       <c r="BI296">
-        <v>0.4413173423256652</v>
+        <v>0.4413173423256656</v>
       </c>
     </row>
     <row r="297">
@@ -55412,16 +55412,16 @@
         <v>19.54884933324077</v>
       </c>
       <c r="BF297">
-        <v>6.18906462556273</v>
+        <v>61.8906462556273</v>
       </c>
       <c r="BG297">
-        <v>0.4634017054824214</v>
+        <v>0.04634017054824213</v>
       </c>
       <c r="BH297">
-        <v>0.1600918178061617</v>
+        <v>0.01600918178061617</v>
       </c>
       <c r="BI297">
-        <v>0.3454709292437738</v>
+        <v>0.345470929243774</v>
       </c>
     </row>
     <row r="298">
@@ -55597,16 +55597,16 @@
         <v>18.77485445240803</v>
       </c>
       <c r="BF298">
-        <v>4.197820308722164</v>
+        <v>41.97820308722164</v>
       </c>
       <c r="BG298">
-        <v>0.3714287644662062</v>
+        <v>0.0371428764466206</v>
       </c>
       <c r="BH298">
-        <v>0.3141029757922579</v>
+        <v>0.0314102975792258</v>
       </c>
       <c r="BI298">
-        <v>0.8456614183978636</v>
+        <v>0.8456614183978641</v>
       </c>
     </row>
     <row r="299">
@@ -55782,16 +55782,16 @@
         <v>18.0956063306555</v>
       </c>
       <c r="BF299">
-        <v>5.428307030021367</v>
+        <v>54.28307030021367</v>
       </c>
       <c r="BG299">
-        <v>0.4248538141903066</v>
+        <v>0.04248538141903064</v>
       </c>
       <c r="BH299">
-        <v>0.303589939468514</v>
+        <v>0.0303589939468514</v>
       </c>
       <c r="BI299">
-        <v>0.7145750592991631</v>
+        <v>0.7145750592991635</v>
       </c>
     </row>
     <row r="300">
@@ -55967,16 +55967,16 @@
         <v>18.50497683622405</v>
       </c>
       <c r="BF300">
-        <v>4.387001473138762</v>
+        <v>43.87001473138761</v>
       </c>
       <c r="BG300">
-        <v>0.4673446704142142</v>
+        <v>0.0467344670414214</v>
       </c>
       <c r="BH300">
-        <v>0.3386503069564098</v>
+        <v>0.03386503069564098</v>
       </c>
       <c r="BI300">
-        <v>0.7246264446671858</v>
+        <v>0.7246264446671862</v>
       </c>
     </row>
     <row r="301">
@@ -56152,16 +56152,16 @@
         <v>19.4992875847576</v>
       </c>
       <c r="BF301">
-        <v>6.058954827167871</v>
+        <v>60.58954827167871</v>
       </c>
       <c r="BG301">
-        <v>0.1147525588894904</v>
+        <v>0.01147525588894906</v>
       </c>
       <c r="BH301">
-        <v>0.1846966976686132</v>
+        <v>0.01846966976686132</v>
       </c>
       <c r="BI301">
-        <v>1.609521386329004</v>
+        <v>1.609521386329001</v>
       </c>
     </row>
     <row r="302">
@@ -56337,16 +56337,16 @@
         <v>18.38859592722083</v>
       </c>
       <c r="BF302">
-        <v>5.749305758750292</v>
+        <v>57.49305758750292</v>
       </c>
       <c r="BG302">
-        <v>0.1399080924175181</v>
+        <v>0.01399080924175184</v>
       </c>
       <c r="BH302">
-        <v>0.2455087306203045</v>
+        <v>0.02455087306203044</v>
       </c>
       <c r="BI302">
-        <v>1.754785776705822</v>
+        <v>1.754785776705819</v>
       </c>
     </row>
     <row r="303">
@@ -56522,16 +56522,16 @@
         <v>18.26187425598447</v>
       </c>
       <c r="BF303">
-        <v>3.976910230970188</v>
+        <v>39.76910230970188</v>
       </c>
       <c r="BG303">
-        <v>0.1635535742845632</v>
+        <v>0.01635535742845636</v>
       </c>
       <c r="BH303">
-        <v>0.2772285465145417</v>
+        <v>0.02772285465145417</v>
       </c>
       <c r="BI303">
-        <v>1.69503202682809</v>
+        <v>1.695032026828086</v>
       </c>
     </row>
     <row r="304">
@@ -56707,16 +56707,16 @@
         <v>19.07870989702296</v>
       </c>
       <c r="BF304">
-        <v>4.992756630454971</v>
+        <v>49.92756630454971</v>
       </c>
       <c r="BG304">
-        <v>0.4495276817052906</v>
+        <v>0.04495276817052903</v>
       </c>
       <c r="BH304">
-        <v>0.3539585348216007</v>
+        <v>0.03539585348216007</v>
       </c>
       <c r="BI304">
-        <v>0.7874009749051565</v>
+        <v>0.787400974905157</v>
       </c>
     </row>
     <row r="305">
@@ -56892,16 +56892,16 @@
         <v>16.93636937086119</v>
       </c>
       <c r="BF305">
-        <v>3.431698798377363</v>
+        <v>34.31698798377363</v>
       </c>
       <c r="BG305">
-        <v>0.2995980691578625</v>
+        <v>0.02995980691578623</v>
       </c>
       <c r="BH305">
-        <v>0.1717416074958353</v>
+        <v>0.01717416074958353</v>
       </c>
       <c r="BI305">
-        <v>0.5732400344854768</v>
+        <v>0.5732400344854771</v>
       </c>
     </row>
     <row r="306">
@@ -57077,16 +57077,16 @@
         <v>17.71005172258675</v>
       </c>
       <c r="BF306">
-        <v>3.532253225065823</v>
+        <v>35.32253225065823</v>
       </c>
       <c r="BG306">
-        <v>0.4231104023742692</v>
+        <v>0.0423110402374269</v>
       </c>
       <c r="BH306">
-        <v>0.1910573045009213</v>
+        <v>0.01910573045009214</v>
       </c>
       <c r="BI306">
-        <v>0.4515542596655859</v>
+        <v>0.4515542596655863</v>
       </c>
     </row>
     <row r="307">
@@ -57262,16 +57262,16 @@
         <v>18.23203689954999</v>
       </c>
       <c r="BF307">
-        <v>3.58275506371294</v>
+        <v>35.82755063712941</v>
       </c>
       <c r="BG307">
-        <v>0.4127578989852734</v>
+        <v>0.04127578989852729</v>
       </c>
       <c r="BH307">
-        <v>0.200935919610439</v>
+        <v>0.02009359196104391</v>
       </c>
       <c r="BI307">
-        <v>0.4868130206700371</v>
+        <v>0.4868130206700379</v>
       </c>
     </row>
     <row r="308">
@@ -57447,16 +57447,16 @@
         <v>17.76320093242789</v>
       </c>
       <c r="BF308">
-        <v>5.945789439653735</v>
+        <v>59.45789439653736</v>
       </c>
       <c r="BG308">
-        <v>0.08969226703845684</v>
+        <v>0.008969226703845683</v>
       </c>
       <c r="BH308">
-        <v>0.206813266114778</v>
+        <v>0.0206813266114778</v>
       </c>
       <c r="BI308">
-        <v>2.305809329427518</v>
+        <v>2.305809329427517</v>
       </c>
     </row>
     <row r="309">
@@ -57632,16 +57632,16 @@
         <v>16.62765232995433</v>
       </c>
       <c r="BF309">
-        <v>3.006246244589537</v>
+        <v>30.06246244589537</v>
       </c>
       <c r="BG309">
-        <v>0.3656818326042599</v>
+        <v>0.03656818326042593</v>
       </c>
       <c r="BH309">
-        <v>0.09984367868100037</v>
+        <v>0.009984367868100037</v>
       </c>
       <c r="BI309">
-        <v>0.2730342876755679</v>
+        <v>0.2730342876755684</v>
       </c>
     </row>
     <row r="310">
@@ -57817,16 +57817,16 @@
         <v>18.26590662816262</v>
       </c>
       <c r="BF310">
-        <v>3.646402315689272</v>
+        <v>36.46402315689271</v>
       </c>
       <c r="BG310">
-        <v>0.3238835810803559</v>
+        <v>0.03238835810803553</v>
       </c>
       <c r="BH310">
-        <v>0.2134820406750043</v>
+        <v>0.02134820406750043</v>
       </c>
       <c r="BI310">
-        <v>0.6591320250409335</v>
+        <v>0.6591320250409347</v>
       </c>
     </row>
     <row r="311">
@@ -58002,16 +58002,16 @@
         <v>17.47123787779502</v>
       </c>
       <c r="BF311">
-        <v>3.689055162294777</v>
+        <v>36.89055162294777</v>
       </c>
       <c r="BG311">
-        <v>0.4660837030142154</v>
+        <v>0.04660837030142152</v>
       </c>
       <c r="BH311">
-        <v>0.2219137475798398</v>
+        <v>0.02219137475798398</v>
       </c>
       <c r="BI311">
-        <v>0.4761242372232686</v>
+        <v>0.4761242372232689</v>
       </c>
     </row>
     <row r="312">
@@ -58187,16 +58187,16 @@
         <v>16.7119118240095</v>
       </c>
       <c r="BF312">
-        <v>3.607427138442229</v>
+        <v>36.07427138442229</v>
       </c>
       <c r="BG312">
-        <v>0.3863635906612901</v>
+        <v>0.03863635906612903</v>
       </c>
       <c r="BH312">
-        <v>0.2057901222121265</v>
+        <v>0.02057901222121265</v>
       </c>
       <c r="BI312">
-        <v>0.5326333204945668</v>
+        <v>0.5326333204945665</v>
       </c>
     </row>
     <row r="313">
@@ -58372,16 +58372,16 @@
         <v>17.50486639858813</v>
       </c>
       <c r="BF313">
-        <v>4.208666625908451</v>
+        <v>42.08666625908451</v>
       </c>
       <c r="BG313">
-        <v>0.4563649086050535</v>
+        <v>0.04563649086050531</v>
       </c>
       <c r="BH313">
-        <v>0.3157103748096738</v>
+        <v>0.03157103748096738</v>
       </c>
       <c r="BI313">
-        <v>0.6917937134445525</v>
+        <v>0.6917937134445531</v>
       </c>
     </row>
     <row r="314">
@@ -58557,16 +58557,16 @@
         <v>18.31502532926054</v>
       </c>
       <c r="BF314">
-        <v>3.662815125708175</v>
+        <v>36.62815125708175</v>
       </c>
       <c r="BG314">
-        <v>0.3995214526669913</v>
+        <v>0.03995214526669909</v>
       </c>
       <c r="BH314">
-        <v>0.2167260891571337</v>
+        <v>0.02167260891571338</v>
       </c>
       <c r="BI314">
-        <v>0.542464209895079</v>
+        <v>0.5424642098950798</v>
       </c>
     </row>
     <row r="315">
@@ -58742,13 +58742,13 @@
         <v>18.92439407522182</v>
       </c>
       <c r="BF315">
-        <v>3.930642396572253</v>
+        <v>39.30642396572253</v>
       </c>
       <c r="BG315">
-        <v>0.1968934554776604</v>
+        <v>0.01968934554776605</v>
       </c>
       <c r="BH315">
-        <v>0.2687111784224473</v>
+        <v>0.02687111784224474</v>
       </c>
       <c r="BI315">
         <v>1.364754241173523</v>
@@ -58927,16 +58927,16 @@
         <v>17.84564056434416</v>
       </c>
       <c r="BF316">
-        <v>5.521972048244026</v>
+        <v>55.21972048244025</v>
       </c>
       <c r="BG316">
-        <v>0.3801613235743219</v>
+        <v>0.0380161323574322</v>
       </c>
       <c r="BH316">
-        <v>0.2878433213986086</v>
+        <v>0.02878433213986086</v>
       </c>
       <c r="BI316">
-        <v>0.7571609828487325</v>
+        <v>0.7571609828487323</v>
       </c>
     </row>
     <row r="317">
@@ -59112,16 +59112,16 @@
         <v>17.97614626083872</v>
       </c>
       <c r="BF317">
-        <v>3.51480084841659</v>
+        <v>35.14800848416591</v>
       </c>
       <c r="BG317">
-        <v>0.2950789481538937</v>
+        <v>0.02950789481538937</v>
       </c>
       <c r="BH317">
-        <v>0.1876666663015246</v>
+        <v>0.01876666663015247</v>
       </c>
       <c r="BI317">
-        <v>0.6359879872001239</v>
+        <v>0.6359879872001243</v>
       </c>
     </row>
     <row r="318">
@@ -59297,16 +59297,16 @@
         <v>20.99960205669471</v>
       </c>
       <c r="BF318">
-        <v>5.284119577611639</v>
+        <v>52.84119577611639</v>
       </c>
       <c r="BG318">
-        <v>0.4047409216320171</v>
+        <v>0.04047409216320174</v>
       </c>
       <c r="BH318">
-        <v>0.3249454816952704</v>
+        <v>0.03249454816952703</v>
       </c>
       <c r="BI318">
-        <v>0.8028481043750371</v>
+        <v>0.8028481043750363</v>
       </c>
     </row>
     <row r="319">
@@ -59482,16 +59482,16 @@
         <v>17.48183645694732</v>
       </c>
       <c r="BF319">
-        <v>4.495100085568848</v>
+        <v>44.95100085568848</v>
       </c>
       <c r="BG319">
-        <v>0.4337379521295898</v>
+        <v>0.04337379521295896</v>
       </c>
       <c r="BH319">
-        <v>0.348917570088605</v>
+        <v>0.03489175700886051</v>
       </c>
       <c r="BI319">
-        <v>0.8044432551393552</v>
+        <v>0.8044432551393557</v>
       </c>
     </row>
     <row r="320">
@@ -59667,16 +59667,16 @@
         <v>18.9494931827189</v>
       </c>
       <c r="BF320">
-        <v>3.876243775170407</v>
+        <v>38.76243775170407</v>
       </c>
       <c r="BG320">
-        <v>0.1100679739050939</v>
+        <v>0.01100679739050941</v>
       </c>
       <c r="BH320">
-        <v>0.2584522581599308</v>
+        <v>0.0258452258159931</v>
       </c>
       <c r="BI320">
-        <v>2.348114978320408</v>
+        <v>2.348114978320406</v>
       </c>
     </row>
     <row r="321">
@@ -59852,16 +59852,16 @@
         <v>18.08174011335183</v>
       </c>
       <c r="BF321">
-        <v>2.397740354955726</v>
+        <v>23.97740354955726</v>
       </c>
       <c r="BG321">
-        <v>0.1089987517136648</v>
+        <v>0.01089987517136647</v>
       </c>
       <c r="BH321">
-        <v>0.03554548753618876</v>
+        <v>0.00355454875361888</v>
       </c>
       <c r="BI321">
-        <v>0.3261091248968179</v>
+        <v>0.3261091248968184</v>
       </c>
     </row>
     <row r="322">
@@ -60037,16 +60037,16 @@
         <v>19.46878482646173</v>
       </c>
       <c r="BF322">
-        <v>4.548314032781099</v>
+        <v>45.48314032781099</v>
       </c>
       <c r="BG322">
-        <v>0.2250544896282673</v>
+        <v>0.02250544896282672</v>
       </c>
       <c r="BH322">
-        <v>0.3528460233745869</v>
+        <v>0.03528460233745869</v>
       </c>
       <c r="BI322">
-        <v>1.567824858581576</v>
+        <v>1.567824858581577</v>
       </c>
     </row>
     <row r="323">
@@ -60222,16 +60222,16 @@
         <v>17.32133554677241</v>
       </c>
       <c r="BF323">
-        <v>6.22398586787723</v>
+        <v>62.23985867877229</v>
       </c>
       <c r="BG323">
-        <v>0.3758368973080142</v>
+        <v>0.03758368973080139</v>
       </c>
       <c r="BH323">
-        <v>0.1537027921446617</v>
+        <v>0.01537027921446617</v>
       </c>
       <c r="BI323">
-        <v>0.4089614224829442</v>
+        <v>0.4089614224829446</v>
       </c>
     </row>
     <row r="324">
@@ -60407,13 +60407,13 @@
         <v>18.85264984425008</v>
       </c>
       <c r="BF324">
-        <v>4.178749846767263</v>
+        <v>41.78749846767263</v>
       </c>
       <c r="BG324">
-        <v>0.1079353910941675</v>
+        <v>0.01079353910941675</v>
       </c>
       <c r="BH324">
-        <v>0.311224046542889</v>
+        <v>0.03112240465428891</v>
       </c>
       <c r="BI324">
         <v>2.883429090198634</v>
@@ -60592,16 +60592,16 @@
         <v>19.7740701927934</v>
       </c>
       <c r="BF325">
-        <v>5.076760262963798</v>
+        <v>50.76760262963798</v>
       </c>
       <c r="BG325">
-        <v>0.4226524976697337</v>
+        <v>0.04226524976697336</v>
       </c>
       <c r="BH325">
-        <v>0.3478039566155373</v>
+        <v>0.03478039566155373</v>
       </c>
       <c r="BI325">
-        <v>0.8229076097577351</v>
+        <v>0.8229076097577354</v>
       </c>
     </row>
     <row r="326">
@@ -60777,16 +60777,16 @@
         <v>18.62388735671104</v>
       </c>
       <c r="BF326">
-        <v>3.073351531349034</v>
+        <v>30.73351531349034</v>
       </c>
       <c r="BG326">
-        <v>0.2697717977966727</v>
+        <v>0.02697717977966727</v>
       </c>
       <c r="BH326">
-        <v>0.1098349410582311</v>
+        <v>0.01098349410582311</v>
       </c>
       <c r="BI326">
-        <v>0.407140190172932</v>
+        <v>0.4071401901729321</v>
       </c>
     </row>
     <row r="327">
@@ -60962,16 +60962,16 @@
         <v>17.04156046743829</v>
       </c>
       <c r="BF327">
-        <v>5.99084350863285</v>
+        <v>59.9084350863285</v>
       </c>
       <c r="BG327">
-        <v>0.09994406719602038</v>
+        <v>0.009994406719602052</v>
       </c>
       <c r="BH327">
-        <v>0.1979553372055297</v>
+        <v>0.01979553372055298</v>
       </c>
       <c r="BI327">
-        <v>1.980661211408175</v>
+        <v>1.980661211408172</v>
       </c>
     </row>
     <row r="328">
@@ -61147,16 +61147,16 @@
         <v>18.18140173853536</v>
       </c>
       <c r="BF328">
-        <v>3.344748594915494</v>
+        <v>33.44748594915494</v>
       </c>
       <c r="BG328">
-        <v>0.03735482807435233</v>
+        <v>0.003735482807435242</v>
       </c>
       <c r="BH328">
-        <v>0.1555811980288417</v>
+        <v>0.01555811980288417</v>
       </c>
       <c r="BI328">
-        <v>4.164955537184311</v>
+        <v>4.164955537184302</v>
       </c>
     </row>
     <row r="329">
@@ -61332,16 +61332,16 @@
         <v>19.7618546771764</v>
       </c>
       <c r="BF329">
-        <v>4.538214779244504</v>
+        <v>45.38214779244504</v>
       </c>
       <c r="BG329">
-        <v>0.420391383405512</v>
+        <v>0.04203913834055121</v>
       </c>
       <c r="BH329">
-        <v>0.3521597133171629</v>
+        <v>0.03521597133171629</v>
       </c>
       <c r="BI329">
-        <v>0.8376948891396938</v>
+        <v>0.8376948891396937</v>
       </c>
     </row>
     <row r="330">
@@ -61517,16 +61517,16 @@
         <v>16.2799235567542</v>
       </c>
       <c r="BF330">
-        <v>3.40685845115962</v>
+        <v>34.06858451159621</v>
       </c>
       <c r="BG330">
-        <v>0.4478007503536986</v>
+        <v>0.04478007503536982</v>
       </c>
       <c r="BH330">
-        <v>0.1670660209061664</v>
+        <v>0.01670660209061665</v>
       </c>
       <c r="BI330">
-        <v>0.373081154451412</v>
+        <v>0.3730811544514125</v>
       </c>
     </row>
     <row r="331">
@@ -61702,16 +61702,16 @@
         <v>19.23667024261099</v>
       </c>
       <c r="BF331">
-        <v>3.609950738832491</v>
+        <v>36.09950738832491</v>
       </c>
       <c r="BG331">
-        <v>0.2168385481398989</v>
+        <v>0.02168385481398986</v>
       </c>
       <c r="BH331">
-        <v>0.2062874171988153</v>
+        <v>0.02062874171988153</v>
       </c>
       <c r="BI331">
-        <v>0.9513410736624366</v>
+        <v>0.9513410736624377</v>
       </c>
     </row>
     <row r="332">
@@ -61887,16 +61887,16 @@
         <v>19.03692865106852</v>
       </c>
       <c r="BF332">
-        <v>5.549815303829492</v>
+        <v>55.49815303829492</v>
       </c>
       <c r="BG332">
-        <v>0.4294166943575046</v>
+        <v>0.04294166943575045</v>
       </c>
       <c r="BH332">
-        <v>0.2829305232221452</v>
+        <v>0.02829305232221452</v>
       </c>
       <c r="BI332">
-        <v>0.6588717367997704</v>
+        <v>0.6588717367997705</v>
       </c>
     </row>
     <row r="333">
@@ -62072,13 +62072,13 @@
         <v>18.73868779350536</v>
       </c>
       <c r="BF333">
-        <v>5.017189362811629</v>
+        <v>50.17189362811629</v>
       </c>
       <c r="BG333">
-        <v>0.3119948480965979</v>
+        <v>0.0311994848096598</v>
       </c>
       <c r="BH333">
-        <v>0.3523667727822851</v>
+        <v>0.03523667727822851</v>
       </c>
       <c r="BI333">
         <v>1.129399331213275</v>
@@ -62257,16 +62257,16 @@
         <v>20.72123471862142</v>
       </c>
       <c r="BF334">
-        <v>6.089141517945186</v>
+        <v>60.89141517945186</v>
       </c>
       <c r="BG334">
-        <v>0.1844146276970885</v>
+        <v>0.01844146276970886</v>
       </c>
       <c r="BH334">
-        <v>0.1788911496827381</v>
+        <v>0.0178891149682738</v>
       </c>
       <c r="BI334">
-        <v>0.9700485905954112</v>
+        <v>0.9700485905954099</v>
       </c>
     </row>
     <row r="335">
@@ -62442,13 +62442,13 @@
         <v>19.96720863252711</v>
       </c>
       <c r="BF335">
-        <v>5.204454281997697</v>
+        <v>52.04454281997698</v>
       </c>
       <c r="BG335">
-        <v>0.4355980103616143</v>
+        <v>0.04355980103616142</v>
       </c>
       <c r="BH335">
-        <v>0.3349332462730626</v>
+        <v>0.03349332462730626</v>
       </c>
       <c r="BI335">
         <v>0.7689044447081285</v>
@@ -62627,16 +62627,16 @@
         <v>17.58075638569391</v>
       </c>
       <c r="BF336">
-        <v>4.905220798032808</v>
+        <v>49.05220798032808</v>
       </c>
       <c r="BG336">
-        <v>0.4298161443400356</v>
+        <v>0.04298161443400354</v>
       </c>
       <c r="BH336">
-        <v>0.3582831180530332</v>
+        <v>0.03582831180530332</v>
       </c>
       <c r="BI336">
-        <v>0.8335729654900742</v>
+        <v>0.8335729654900745</v>
       </c>
     </row>
     <row r="337">
@@ -62812,16 +62812,16 @@
         <v>17.43944068657208</v>
       </c>
       <c r="BF337">
-        <v>4.591672994850739</v>
+        <v>45.91672994850739</v>
       </c>
       <c r="BG337">
-        <v>0.4373301209257566</v>
+        <v>0.04373301209257564</v>
       </c>
       <c r="BH337">
-        <v>0.3554710019551716</v>
+        <v>0.03554710019551717</v>
       </c>
       <c r="BI337">
-        <v>0.8128207615855443</v>
+        <v>0.8128207615855447</v>
       </c>
     </row>
     <row r="338">
@@ -62997,16 +62997,16 @@
         <v>17.83802701894565</v>
       </c>
       <c r="BF338">
-        <v>5.192416670254935</v>
+        <v>51.92416670254935</v>
       </c>
       <c r="BG338">
-        <v>0.3894429649603204</v>
+        <v>0.03894429649603201</v>
       </c>
       <c r="BH338">
-        <v>0.3363171820588457</v>
+        <v>0.03363171820588456</v>
       </c>
       <c r="BI338">
-        <v>0.8635852032738924</v>
+        <v>0.8635852032738931</v>
       </c>
     </row>
   </sheetData>
